--- a/src/main/resources/test-data-xls/iot-api-engine-test-data.xlsx
+++ b/src/main/resources/test-data-xls/iot-api-engine-test-data.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_codes\data-layer-automation\src\main\resources\test-data-xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\data-layer-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4FB5C18-ADC9-4E66-A69B-E3A45A728C15}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD0E25A5-9CE6-4EEF-B8B8-D8278BD61AB5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32811" yWindow="-129" windowWidth="33120" windowHeight="18120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="getDataEntities" sheetId="2" r:id="rId1"/>
     <sheet name="getDataGraphQL" sheetId="3" r:id="rId2"/>
+    <sheet name="postGraphForMysql" sheetId="8" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="127">
   <si>
     <t>description</t>
   </si>
@@ -106,161 +107,667 @@
     <t>query</t>
   </si>
   <si>
-    <t>iems-api-engine-graphql-test-1</t>
-  </si>
-  <si>
-    <t>{SensorData {Siid type value}}</t>
-  </si>
-  <si>
-    <t>iems-api-engine-graphql-test-2</t>
-  </si>
-  <si>
     <t>bad request (field name is not present)</t>
   </si>
   <si>
-    <t>{Sensor12321Data {Siid type value}}</t>
-  </si>
-  <si>
-    <t>Field 'Sensor12321Data' in type 'Query' is undefined</t>
-  </si>
-  <si>
-    <t>iems-api-engine-graphql-test-3</t>
-  </si>
-  <si>
-    <t>{SensorData(cond:"{Siid: {_eq: 35687}}")  {Siid type value}}</t>
-  </si>
-  <si>
-    <t>iems-api-engine-graphql-test-4</t>
-  </si>
-  <si>
     <t>good request</t>
   </si>
   <si>
-    <t>{SensorData(cond:"{Siid: {_eq: 99912321}}")  {Siid type value}}</t>
-  </si>
-  <si>
-    <t>iems-api-engine-graphql-test-5</t>
-  </si>
-  <si>
     <t>bad request</t>
   </si>
   <si>
     <t>can not parse _invalid: 999999</t>
   </si>
   <si>
-    <t>{SensorData(cond:"{Siid: {_invalid: 999999}}")  {Siid type value}}</t>
-  </si>
-  <si>
     <t>[SensorData][][{_and: [{updateTime: {_gt: "2020-11-27 04:00:00"}},{updateTime: {_lt: "2020-12-01 03:00:00"}}]}]</t>
   </si>
   <si>
-    <t>iems-api-engine-graphql-test-6</t>
-  </si>
-  <si>
-    <t>{SensorData(cond:"{Siid: {_in: [5040, 5045, 34155]}}") {Siid type value}}</t>
-  </si>
-  <si>
-    <t>iems-api-engine-graphql-test-7</t>
-  </si>
-  <si>
-    <t>{SensorData(cond:"{Siid: {_nin: [5040, 5045, 34155]}}") {Siid type value}}</t>
-  </si>
-  <si>
     <t>[SensorData][type,Siid][{Siid: {_in: [5040, 5045, 34155]}}][][]</t>
   </si>
   <si>
     <t>[SensorData][type,Siid][{Siid: {_nin: [5040, 5045, 34155]}}][][]</t>
   </si>
   <si>
-    <t>Field 'AnalogNotExist' in type 'Query' is undefined</t>
-  </si>
-  <si>
-    <t>iEMS-ApiEngine-Test-3-1</t>
-  </si>
-  <si>
-    <t>iEMS-ApiEngine-Test-3-2</t>
-  </si>
-  <si>
-    <t>iEMS-ApiEngine-Test-3-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{AnalogNotExist {Analog_id Siid aliasName description deviceId generate_SensorData {Siid modelId type updateTime value} }}    </t>
-  </si>
-  <si>
-    <t>{Analog(cond:"{Siid: {_eq: 999999}}") {Analog_id Siid aliasName description deviceId}}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{Analog(cond:"{Siid: {_invalid: 999999}}") {Analog_id Siid aliasName description deviceId}} 
-    </t>
-  </si>
-  <si>
-    <t>iems-config-CIMSOURCE_TRAINCONFIG</t>
-  </si>
-  <si>
-    <t>iems-config-CIMSOURCE_TRAINRESULT</t>
-  </si>
-  <si>
-    <t>iems-config-CIMSOURCE_PREDICTCONFIG</t>
-  </si>
-  <si>
-    <t>iems-config-CIMSOURCE_OPTIMALIZERESULT</t>
-  </si>
-  <si>
-    <t>iems-config-CIMSOURCE_OPTIMALIZECONFIG</t>
-  </si>
-  <si>
-    <t>iems-config-CIMSOURCE_SIMULATION</t>
-  </si>
-  <si>
-    <t>iems-config-CIMSOURCE_TOPOLOGY</t>
-  </si>
-  <si>
-    <t>iems-config-CIMSOURCE_OPTIMIZE_TARGET_TYPE</t>
-  </si>
-  <si>
-    <t>iems-config-CIMSOURCE_DASHBOARDCONFIG</t>
-  </si>
-  <si>
-    <t>iems-config-CIMSOURCE_METADATA</t>
-  </si>
-  <si>
-    <t>iems-config-CIMSOURCE_SECTIONALIZEDLINEARIZATION</t>
-  </si>
-  <si>
-    <t>iems-config-CIMSOURCE_PREDICTRESULT</t>
-  </si>
-  <si>
-    <t>{CIMSOURCE_TRAINCONFIG(cond:"",order:"id DESC") { createTime id optimize_target_type_id simu_id train_cfg_ANN_YN train_cfg_LR_YN train_cfg_RFR_YN train_cfg_SVR_YN train_cfg_SmpEndTime train_cfg_SmpStTime train_cfg_Tree_YN train_cfg_aDa_YN train_cfg_obj_PT train_cfg_obligate1 train_cfg_obligate2 train_cfg_obligate3 train_cfg_obligate4 train_cfg_obligate5 train_cfg_obligate6 train_cfg_predict train_cfg_sample_PT train_cfg_time train_cfg_timetrg_YN}}</t>
-  </si>
-  <si>
-    <t>{CIMSOURCE_TRAINRESULT(cond:"",order:"id ASC") { variables train_result_obligate4 train_result_obligate5 train_result_obligate2 train_result_obligate3 optimize_target_type_id simu_id train_result_obligate1 config_id train_result_obligate6 id runid }}</t>
-  </si>
-  <si>
-    <t>{CIMSOURCE_PREDICTCONFIG(cond:"",order:"id ASC") { predict_train_model createTime predict_train_obj_wgt_defval predict_cfg_obligate6 predict_cfg_obligate5 predict_cfg_obligate4 predict_cfg_obligate3 predict_cfg_obligate2 predict_cfg_obligate1 optimize_target_type_id simu_id predict_cfg_period predict_cfg_day predict_cfg_time id } }</t>
-  </si>
-  <si>
-    <t>{CIMSOURCE_PREDICTRESULT(cond:"",order:"config_id ASC") { Predict_result_time Predict_result_aDa Predict_result_ANN optimize_target_type_id Predict_result_SP5 Predict_result_Tree Predict_result_LR Predict_result_SVR runid id createTime variables predict_train_obj_wgt_defval Predict_result_obligate2 Predict_result_obligate1 Predict_result_RFR Predict_result_obligate6 simu_id Predict_result_obligate5 Predict_result_obligate4 Predict_result_obligate3 config_id Predict_result_AVG } }</t>
-  </si>
-  <si>
-    <t>{CIMSOURCE_OPTIMALIZECONFIG(cond:"",order:"id ASC") { isActive optimize_target_type_id optimalizeType opt_cfg_opt_starttime id opt_cfg_user_def opt_pred_model opt_cfg_obligate3 rollTasksId opt_cfg_obligate2 opt_cfg_obligate5 createTime opt_cfg_obligate4 opt_cfg_obligate6 opt_cfg_emi_frac opt_name dash_cfg_id simu_id opt_cfg_opt_day opt_cfg_opt_frequency isRTCOP opt_cfg_cost_frac opt_methods rollType opt_cfg_obligate1 } }</t>
-  </si>
-  <si>
-    <t>{CIMSOURCE_SIMULATION(cond:"",order:"id ASC") { updatatime historymap chartsetting createtime rtcountmap hiscountmap isTraining obligate1 obligate2 channels defcountmap user_id ispredict name id obligate5 obligate6 treefile obligate3 obligate4 } }</t>
-  </si>
-  <si>
-    <t>{CIMSOURCE_TOPOLOGY(cond:"",order:"id ASC") { create_time topo_name simu_id obligate1 obligate2 topo_xml update_time update_user parent_id id obligate5 obligate6 obligate3 obligate4 } }</t>
-  </si>
-  <si>
-    <t>{CIMSOURCE_OPTIMIZE_TARGET_TYPE(cond:"",order:"id ASC") { obligate1 obligate2 optimize_topo_selection optimize_type optimize_name id obligate5 optimize_data_type obligate3 obligate4 } }</t>
-  </si>
-  <si>
-    <t>{CIMSOURCE_DASHBOARDCONFIG(cond:"",order:"id ASC") { dashparam name id simu_id optimize_target_type_id } }</t>
-  </si>
-  <si>
-    <t>{CIMSOURCE_METADATA(cond:"",order:"id ASC") { obligate1 obligate2 name id obligate5 params category obligate3 obligate4 } }</t>
-  </si>
-  <si>
-    <t>{CIMSOURCE_SECTIONALIZEDLINEARIZATION(cond:"",order:"id ASC") { tensor_index_counts target obligate1 obligate2 device_name model_name param id obligate5 obligate3 obligate4 tensor_data } }</t>
+    <t>{Plant {address id latitude longitude name plant_owner}}</t>
+  </si>
+  <si>
+    <t>{Plan12321t {address id latitude longitude name plant_owner}}</t>
+  </si>
+  <si>
+    <t>Field 'Plan12321t' in type 'Query' is undefined</t>
+  </si>
+  <si>
+    <t>{Plant(cond:"{id: {_eq: 1}}")  {address id latitude longitude name plant_owner}}</t>
+  </si>
+  <si>
+    <t>{Plant(cond:"{id: {_eq: 99912321}}")  {address id latitude longitude name plant_owner}}</t>
+  </si>
+  <si>
+    <t>{Plant(cond:"{id: {_in: [1,2,3]}}")  {address id latitude longitude name plant_owner}}</t>
+  </si>
+  <si>
+    <t>{Plant(cond:"{id: {_invalid: 999999}}")  {address id latitude longitude name plant_owner}}</t>
+  </si>
+  <si>
+    <t>{Plant(cond:"{id: {_nin: [1,2,3]}}")  {address id latitude longitude name plant_owner}}</t>
+  </si>
+  <si>
+    <t>Column 'NOT_EXIST' not found in any table</t>
+  </si>
+  <si>
+    <t>{Plant(cond:"{id: {_eq: 1}}")  {country}}</t>
+  </si>
+  <si>
+    <t>Field 'country' in type 'Plant' is undefined</t>
+  </si>
+  <si>
+    <t>{Plant(cond:"{not_exist: {_eq: 1}}")  {address id latitude longitude name plant_owner}}</t>
+  </si>
+  <si>
+    <t>{Plant(cond:"",order:"id ASC")  {address id latitude longitude name plant_owner}}</t>
+  </si>
+  <si>
+    <t>{Plant(cond:"",order:"id DESC")  {id}}</t>
+  </si>
+  <si>
+    <t>实体Plan12321t不存在</t>
+  </si>
+  <si>
+    <t>查询实体Plant的所有实例，包括address id latitude longitude name plant_owner字段</t>
+  </si>
+  <si>
+    <t>查询实体Plant的id=1的实例，字段同上</t>
+  </si>
+  <si>
+    <t>查询实体Plant的id=99912321的实例，字段同上；但是该实例不存在</t>
+  </si>
+  <si>
+    <t>查询实体Plant的id in [1,2,3]的实例，字段同上</t>
+  </si>
+  <si>
+    <t>查询实体Plant的id not in [1,2,3]的实例，字段同上</t>
+  </si>
+  <si>
+    <t>无法解析条件判断_invalid</t>
+  </si>
+  <si>
+    <t>作为查询字段，country不存在</t>
+  </si>
+  <si>
+    <t>作为条件判断字段，not_exist不存在</t>
+  </si>
+  <si>
+    <t>排序，以id升序，字段同上</t>
+  </si>
+  <si>
+    <t>排序，以id降序，只返回id字段</t>
+  </si>
+  <si>
+    <t>explain</t>
+  </si>
+  <si>
+    <t>JIRA-ID</t>
+  </si>
+  <si>
+    <t>iot-mysql-insert-test-1</t>
+  </si>
+  <si>
+    <t>insert one line successfully</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+    Insert(input:
+    {
+      Mysql_Test: [
+        {
+          score: "0.111",
+          login_time: "2020-01-01T00:00:00",
+          supplier: "test1",
+          ID: 1,
+          deviceName: "Test1",
+          operator: "test1"
+        }
+      ]
+    }
+    )
+    {
+        json_value
+        succeed_count
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>SDL-9999</t>
+  </si>
+  <si>
+    <t>iot-mysql-update-test-1</t>
+  </si>
+  <si>
+    <t>update one line successfully</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+    Update(input:
+    {
+      Mysql_Test: [
+        {
+          score: "0.1111",
+          login_time: "2020-01-01T11:11:11",
+          supplier: "test11",
+          ID: 1,
+          deviceName: "Test11",
+          operator: "test11"
+        }
+      ]
+    }
+    )
+    {
+        json_value
+        succeed_count
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>iot-mysql-delete-test-1</t>
+  </si>
+  <si>
+    <t>delete one line successfully</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+    Delete(input:
+    {
+      Mysql_Test: [
+        {
+          ID:1
+        }
+      ]
+    }
+    )
+    {
+        json_value
+        succeed_count
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>iot-mysql-insert-test-2</t>
+  </si>
+  <si>
+    <t>insert two line successfully</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+    Insert(input:
+    {
+      Mysql_Test: [
+        {
+          score: "0.1",
+          login_time: "2021-01-01T01:01:01",
+          supplier: "test1",
+          ID: 1,
+          deviceName: "Test1",
+          operator: "test1"
+        }
+		{
+          score: "0.2",
+          login_time: "2022-02-02T02:02:02",
+          supplier: "test2",
+          ID: 2,
+          deviceName: "Test2",
+          operator: "test2"
+        }
+      ]
+    }
+    )
+    {
+        json_value
+        succeed_count
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>iot-mysql-update-test-2</t>
+  </si>
+  <si>
+    <t>update two lines successfully</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+    Update(input:
+    {
+      Mysql_Test: [
+        {
+          score: "0.11",
+          login_time: "2021-01-01T11:11:11",
+          supplier: "test11",
+          ID: 1,
+          deviceName: "Test11",
+          operator: "test11"
+        }
+		{
+          score: "0.22",
+          login_time: "2022-02-02T22:22:22",
+          supplier: "test22",
+          ID: 2,
+          deviceName: "Test22",
+          operator: "test22"
+        }
+      ]
+    }
+    )
+    {
+        json_value
+        succeed_count
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>iot-mysql-delete-test-2</t>
+  </si>
+  <si>
+    <t>delete two lines successfully</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+    Delete(input:
+    {
+      Mysql_Test: [
+        {
+          ID:1
+        }
+		{
+          ID:2
+        }
+      ]
+    }
+    )
+    {
+        json_value
+        succeed_count
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>iot-mysql-insert-test-3</t>
+  </si>
+  <si>
+    <t>insert without ID</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+    Insert(input:
+    {
+      Mysql_Test: [
+        {
+          score: "0.111",
+          login_time: "2020-01-01T00:00:00",
+          supplier: "test1",
+          deviceName: "Test1",
+          operator: "test1"
+        }
+      ]
+    }
+    )
+    {
+        json_value
+        succeed_count
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>Column 'ID' has no default value and does not allow NULLs</t>
+  </si>
+  <si>
+    <t>iot-mysql-insert-test-4</t>
+  </si>
+  <si>
+    <t>Insert INT field  incorrectly</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+    Insert(input:
+    {
+      Mysql_Test: [
+        {
+          score: "0.111",
+          login_time: "2020-01-01T00:00:00",
+          supplier: "test1",
+          ID: "id",
+          deviceName: "Test1",
+          operator: "test1"
+        }
+      ]
+    }
+    )
+    {
+        json_value
+        succeed_count
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>Illegal GraphQL input: Validation error of type WrongType</t>
+  </si>
+  <si>
+    <t>iot-mysql-insert-test-5</t>
+  </si>
+  <si>
+    <t>Insert FLOAT field  incorrectly</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+    Insert(input:
+    {
+      Mysql_Test: [
+        {
+          score: "score",
+          login_time: "2020-01-01T00:00:00",
+          supplier: "test1",
+          ID: 1,
+          deviceName: "Test1",
+          operator: "test1"
+        }
+      ]
+    }
+    )
+    {
+        json_value
+        succeed_count
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>iot-mysql-insert-test-6</t>
+  </si>
+  <si>
+    <t>Insert TIME field  incorrectly</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+    Insert(input:
+    {
+      Mysql_Test: [
+        {
+          score: "0.1",
+          login_time: "login_time",
+          supplier: "test1",
+          ID: 1,
+          deviceName: "Test1",
+          operator: "test1"
+        }
+      ]
+    }
+    )
+    {
+        json_value
+        succeed_count
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>iot-mysql-insert-test-7</t>
+  </si>
+  <si>
+    <t>Insert String field  incorrectly</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+    Insert(input:
+    {
+      Mysql_Test: [
+        {
+          score: "0.1",
+          login_time: "2020-01-01T00:00:00",
+          supplier: 1,
+          ID: 1,
+          deviceName: "Test1",
+          operator: "test1"
+        }
+      ]
+    }
+    )
+    {
+        json_value
+        succeed_count
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>iot-mysql-update-test-3</t>
+  </si>
+  <si>
+    <t>update without ID</t>
+  </si>
+  <si>
+    <t>iot-mysql-update-test-4</t>
+  </si>
+  <si>
+    <t>update INT field  incorrectly</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+    Update(input:
+    {
+      Mysql_Test: [
+        {
+          score: "0.111",
+          login_time: "2020-01-01T00:00:00",
+          supplier: "test1",
+          ID: "id",
+          deviceName: "Test1",
+          operator: "test1"
+        }
+      ]
+    }
+    )
+    {
+        json_value
+        succeed_count
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>iot-mysql-update-test-5</t>
+  </si>
+  <si>
+    <t>update FLOAT field  incorrectly</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+    Update(input:
+    {
+      Mysql_Test: [
+        {
+          score: "score",
+          login_time: "2020-01-01T00:00:00",
+          supplier: "test1",
+          ID: 1,
+          deviceName: "Test1",
+          operator: "test1"
+        }
+      ]
+    }
+    )
+    {
+        json_value
+        succeed_count
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>iot-mysql-update-test-6</t>
+  </si>
+  <si>
+    <t>update TIME field  incorrectly</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+    Update(input:
+    {
+      Mysql_Test: [
+        {
+          score: "0.1",
+          login_time: "login_time",
+          supplier: "test1",
+          ID: 1,
+          deviceName: "Test1",
+          operator: "test1"
+        }
+      ]
+    }
+    )
+    {
+        json_value
+        succeed_count
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>iot-mysql-update-test-7</t>
+  </si>
+  <si>
+    <t>update String field  incorrectly</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+    Update(input:
+    {
+      Mysql_Test: [
+        {
+          score: "0.1",
+          login_time: "2020-01-01T00:00:00",
+          supplier: 1,
+          ID: 1,
+          deviceName: "Test1",
+          operator: "test1"
+        }
+      ]
+    }
+    )
+    {
+        json_value
+        succeed_count
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>iot-mysql-update-test-8</t>
+  </si>
+  <si>
+    <t>update non-exist ID successfully</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+    Update(input:
+    {
+      Mysql_Test: [
+        {
+          login_time: "2020-01-02T00:00:00",
+          score: "0.333",
+          supplier: "test33",
+          ID: 9999,
+          deviceName: "Test33",
+          operator: "test33"
+        }
+      ]
+    }
+    )
+    {
+        json_value
+        succeed_count
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>iot-mysql-delete-test-3</t>
+  </si>
+  <si>
+    <t>delete non-exist ID successfully</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+    Delete(input:
+    {
+      Mysql_Test: [
+        {
+          ID:9999
+        }
+      ]
+    }
+    )
+    {
+        json_value
+        succeed_count
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>iot-api-engine-graphql-test-1</t>
+  </si>
+  <si>
+    <t>iot-api-engine-graphql-test-2</t>
+  </si>
+  <si>
+    <t>iot-api-engine-graphql-test-3</t>
+  </si>
+  <si>
+    <t>iot-api-engine-graphql-test-4</t>
+  </si>
+  <si>
+    <t>iot-api-engine-graphql-test-5</t>
+  </si>
+  <si>
+    <t>iot-api-engine-graphql-test-6</t>
+  </si>
+  <si>
+    <t>iot-api-engine-graphql-test-7</t>
+  </si>
+  <si>
+    <t>iot-api-engine-graphql-test-8</t>
+  </si>
+  <si>
+    <t>iot-api-engine-graphql-test-9</t>
+  </si>
+  <si>
+    <t>iot-api-engine-graphql-test-10</t>
+  </si>
+  <si>
+    <t>iot-api-engine-graphql-test-11</t>
   </si>
 </sst>
 </file>
@@ -335,11 +842,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -623,20 +1136,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0ABFD6B-5C24-4B5A-830A-CA8DC1E4BA91}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.61328125" defaultRowHeight="12.9" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="30.61328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.61328125" style="1"/>
-    <col min="4" max="4" width="36.61328125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="12.61328125" style="1"/>
+    <col min="1" max="2" width="30.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="1"/>
+    <col min="4" max="4" width="36.6640625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="12.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -662,7 +1175,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -686,7 +1199,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
@@ -710,7 +1223,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -719,7 +1232,7 @@
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>13</v>
@@ -734,7 +1247,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
@@ -758,7 +1271,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
@@ -782,7 +1295,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>19</v>
       </c>
@@ -791,7 +1304,7 @@
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>13</v>
@@ -806,7 +1319,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>20</v>
       </c>
@@ -815,7 +1328,7 @@
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>13</v>
@@ -830,7 +1343,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>21</v>
       </c>
@@ -854,7 +1367,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>23</v>
       </c>
@@ -887,478 +1400,657 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE22B0A1-EDF6-487D-8C5B-FE5F049504FE}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="12.9" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.69140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.61328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="60.61328125" style="6" customWidth="1"/>
-    <col min="4" max="6" width="12.61328125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.84375" style="1"/>
+    <col min="1" max="1" width="45" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="60.6640625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.6640625" style="5" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+      <c r="G1" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="6">
+        <v>200</v>
+      </c>
+      <c r="E2" s="6">
+        <v>100000</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="6">
+        <v>200</v>
+      </c>
+      <c r="E3" s="6">
+        <v>101301</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C4" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="6">
+        <v>200</v>
+      </c>
+      <c r="E4" s="6">
+        <v>100000</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="3">
-        <v>200</v>
-      </c>
-      <c r="E2" s="3">
-        <v>100000</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+      <c r="C5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="6">
+        <v>200</v>
+      </c>
+      <c r="E5" s="6">
+        <v>100000</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C6" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="6">
+        <v>200</v>
+      </c>
+      <c r="E6" s="6">
+        <v>101302</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="3">
-        <v>200</v>
-      </c>
-      <c r="E3" s="3">
+      <c r="G6" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="6">
+        <v>200</v>
+      </c>
+      <c r="E7" s="6">
+        <v>100000</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="6">
+        <v>200</v>
+      </c>
+      <c r="E8" s="6">
+        <v>100000</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="6">
+        <v>200</v>
+      </c>
+      <c r="E9" s="6">
         <v>101301</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="F9" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="6">
+        <v>200</v>
+      </c>
+      <c r="E10" s="6">
+        <v>101403</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="3">
-        <v>200</v>
-      </c>
-      <c r="E4" s="3">
-        <v>100000</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="3">
-        <v>200</v>
-      </c>
-      <c r="E5" s="3">
-        <v>100000</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="3">
-        <v>200</v>
-      </c>
-      <c r="E6" s="3">
-        <v>101302</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="3" t="s">
+      <c r="C11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="6">
+        <v>200</v>
+      </c>
+      <c r="E11" s="6">
+        <v>100000</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="3">
-        <v>200</v>
-      </c>
-      <c r="E7" s="3">
-        <v>100000</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="3">
-        <v>200</v>
-      </c>
-      <c r="E8" s="3">
-        <v>100000</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" s="3">
-        <v>200</v>
-      </c>
-      <c r="E9" s="3">
+      <c r="C12" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="6">
+        <v>200</v>
+      </c>
+      <c r="E12" s="6">
+        <v>100000</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="3">
+        <v>200</v>
+      </c>
+      <c r="E13" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="3">
+        <v>200</v>
+      </c>
+      <c r="E14" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="3">
+        <v>200</v>
+      </c>
+      <c r="E15" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="3">
+        <v>200</v>
+      </c>
+      <c r="E16" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="3">
+        <v>200</v>
+      </c>
+      <c r="E17" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" s="3">
+        <v>200</v>
+      </c>
+      <c r="E18" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" s="3">
+        <v>200</v>
+      </c>
+      <c r="E19" s="3">
+        <v>101403</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" s="3">
+        <v>200</v>
+      </c>
+      <c r="E20" s="3">
         <v>101301</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="3">
-        <v>200</v>
-      </c>
-      <c r="E10" s="3">
-        <v>100000</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="3">
-        <v>200</v>
-      </c>
-      <c r="E11" s="3">
-        <v>101302</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D12" s="3">
-        <v>200</v>
-      </c>
-      <c r="E12" s="1">
-        <v>100000</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D13" s="3">
-        <v>200</v>
-      </c>
-      <c r="E13" s="1">
-        <v>100000</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" s="3">
-        <v>200</v>
-      </c>
-      <c r="E14" s="1">
-        <v>100000</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D15" s="3">
-        <v>200</v>
-      </c>
-      <c r="E15" s="1">
-        <v>100000</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D16" s="3">
-        <v>200</v>
-      </c>
-      <c r="E16" s="1">
-        <v>100000</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D17" s="3">
-        <v>200</v>
-      </c>
-      <c r="E17" s="1">
-        <v>100000</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D18" s="3">
-        <v>200</v>
-      </c>
-      <c r="E18" s="1">
-        <v>100000</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D19" s="3">
-        <v>200</v>
-      </c>
-      <c r="E19" s="1">
-        <v>100000</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D20" s="3">
-        <v>200</v>
-      </c>
-      <c r="E20" s="1">
-        <v>100000</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
-        <v>63</v>
+      <c r="F20" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>87</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>75</v>
+        <v>88</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="D21" s="3">
         <v>200</v>
       </c>
-      <c r="E21" s="1">
-        <v>100000</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
-        <v>64</v>
+      <c r="E21" s="3">
+        <v>101301</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>90</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>76</v>
+        <v>91</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="D22" s="3">
         <v>200</v>
       </c>
-      <c r="E22" s="1">
-        <v>100000</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
-        <v>65</v>
+      <c r="E22" s="3">
+        <v>101301</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>93</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>77</v>
+        <v>94</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="D23" s="3">
         <v>200</v>
       </c>
-      <c r="E23" s="1">
-        <v>100000</v>
-      </c>
-      <c r="F23" s="1" t="s">
+      <c r="E23" s="3">
+        <v>101301</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" s="3">
+        <v>200</v>
+      </c>
+      <c r="E24" s="3">
+        <v>101403</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D25" s="3">
+        <v>200</v>
+      </c>
+      <c r="E25" s="3">
+        <v>101301</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D26" s="3">
+        <v>200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>101301</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D27" s="3">
+        <v>200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>101301</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D28" s="3">
+        <v>200</v>
+      </c>
+      <c r="E28" s="3">
+        <v>101301</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D29" s="3">
+        <v>200</v>
+      </c>
+      <c r="E29" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D30" s="3">
+        <v>200</v>
+      </c>
+      <c r="E30" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F30" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1367,4 +2059,430 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AD2DA60-2891-40A3-9E9E-22AB62A6E85D}">
+  <dimension ref="A1:G19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="41.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="60.5546875" style="1" customWidth="1"/>
+    <col min="4" max="6" width="12.5546875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="3">
+        <v>200</v>
+      </c>
+      <c r="E2" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="3">
+        <v>200</v>
+      </c>
+      <c r="E3" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="3">
+        <v>200</v>
+      </c>
+      <c r="E4" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="3">
+        <v>200</v>
+      </c>
+      <c r="E5" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="3">
+        <v>200</v>
+      </c>
+      <c r="E6" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="3">
+        <v>200</v>
+      </c>
+      <c r="E7" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="3">
+        <v>200</v>
+      </c>
+      <c r="E8" s="3">
+        <v>101403</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="3">
+        <v>200</v>
+      </c>
+      <c r="E9" s="3">
+        <v>101301</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" s="3">
+        <v>200</v>
+      </c>
+      <c r="E10" s="3">
+        <v>101301</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" s="3">
+        <v>200</v>
+      </c>
+      <c r="E11" s="3">
+        <v>101301</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" s="3">
+        <v>200</v>
+      </c>
+      <c r="E12" s="3">
+        <v>101301</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="3">
+        <v>200</v>
+      </c>
+      <c r="E13" s="3">
+        <v>101403</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D14" s="3">
+        <v>200</v>
+      </c>
+      <c r="E14" s="3">
+        <v>101301</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D15" s="3">
+        <v>200</v>
+      </c>
+      <c r="E15" s="3">
+        <v>101301</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D16" s="3">
+        <v>200</v>
+      </c>
+      <c r="E16" s="3">
+        <v>101301</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D17" s="3">
+        <v>200</v>
+      </c>
+      <c r="E17" s="3">
+        <v>101301</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D18" s="3">
+        <v>200</v>
+      </c>
+      <c r="E18" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D19" s="3">
+        <v>200</v>
+      </c>
+      <c r="E19" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/main/resources/test-data-xls/iot-api-engine-test-data.xlsx
+++ b/src/main/resources/test-data-xls/iot-api-engine-test-data.xlsx
@@ -8,26 +8,36 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\data-layer-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD0E25A5-9CE6-4EEF-B8B8-D8278BD61AB5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BBD539F-6D82-4378-9F46-606C92F50AD6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="getDataEntities" sheetId="2" r:id="rId1"/>
     <sheet name="getDataGraphQL" sheetId="3" r:id="rId2"/>
     <sheet name="postGraphForMysql" sheetId="8" r:id="rId3"/>
+    <sheet name="operateExcel" sheetId="10" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="174">
   <si>
     <t>description</t>
   </si>
@@ -206,13 +216,187 @@
     <t>explain</t>
   </si>
   <si>
-    <t>JIRA-ID</t>
-  </si>
-  <si>
     <t>iot-mysql-insert-test-1</t>
   </si>
   <si>
     <t>insert one line successfully</t>
+  </si>
+  <si>
+    <t>iot-mysql-update-test-1</t>
+  </si>
+  <si>
+    <t>update one line successfully</t>
+  </si>
+  <si>
+    <t>iot-mysql-delete-test-1</t>
+  </si>
+  <si>
+    <t>delete one line successfully</t>
+  </si>
+  <si>
+    <t>iot-mysql-insert-test-2</t>
+  </si>
+  <si>
+    <t>insert two line successfully</t>
+  </si>
+  <si>
+    <t>iot-mysql-update-test-2</t>
+  </si>
+  <si>
+    <t>update two lines successfully</t>
+  </si>
+  <si>
+    <t>iot-mysql-delete-test-2</t>
+  </si>
+  <si>
+    <t>delete two lines successfully</t>
+  </si>
+  <si>
+    <t>iot-mysql-insert-test-3</t>
+  </si>
+  <si>
+    <t>insert without ID</t>
+  </si>
+  <si>
+    <t>Column 'ID' has no default value and does not allow NULLs</t>
+  </si>
+  <si>
+    <t>iot-mysql-insert-test-4</t>
+  </si>
+  <si>
+    <t>Insert INT field  incorrectly</t>
+  </si>
+  <si>
+    <t>Illegal GraphQL input: Validation error of type WrongType</t>
+  </si>
+  <si>
+    <t>iot-mysql-insert-test-5</t>
+  </si>
+  <si>
+    <t>Insert FLOAT field  incorrectly</t>
+  </si>
+  <si>
+    <t>iot-mysql-insert-test-6</t>
+  </si>
+  <si>
+    <t>Insert TIME field  incorrectly</t>
+  </si>
+  <si>
+    <t>iot-mysql-insert-test-7</t>
+  </si>
+  <si>
+    <t>Insert String field  incorrectly</t>
+  </si>
+  <si>
+    <t>iot-mysql-update-test-3</t>
+  </si>
+  <si>
+    <t>update without ID</t>
+  </si>
+  <si>
+    <t>iot-mysql-update-test-4</t>
+  </si>
+  <si>
+    <t>update INT field  incorrectly</t>
+  </si>
+  <si>
+    <t>iot-mysql-update-test-5</t>
+  </si>
+  <si>
+    <t>update FLOAT field  incorrectly</t>
+  </si>
+  <si>
+    <t>iot-mysql-update-test-6</t>
+  </si>
+  <si>
+    <t>update TIME field  incorrectly</t>
+  </si>
+  <si>
+    <t>iot-mysql-update-test-7</t>
+  </si>
+  <si>
+    <t>update String field  incorrectly</t>
+  </si>
+  <si>
+    <t>iot-mysql-update-test-8</t>
+  </si>
+  <si>
+    <t>update non-exist ID successfully</t>
+  </si>
+  <si>
+    <t>iot-mysql-delete-test-3</t>
+  </si>
+  <si>
+    <t>delete non-exist ID successfully</t>
+  </si>
+  <si>
+    <t>iot-api-engine-graphql-test-1</t>
+  </si>
+  <si>
+    <t>iot-api-engine-graphql-test-2</t>
+  </si>
+  <si>
+    <t>iot-api-engine-graphql-test-3</t>
+  </si>
+  <si>
+    <t>iot-api-engine-graphql-test-4</t>
+  </si>
+  <si>
+    <t>iot-api-engine-graphql-test-5</t>
+  </si>
+  <si>
+    <t>iot-api-engine-graphql-test-6</t>
+  </si>
+  <si>
+    <t>iot-api-engine-graphql-test-7</t>
+  </si>
+  <si>
+    <t>iot-api-engine-graphql-test-8</t>
+  </si>
+  <si>
+    <t>iot-api-engine-graphql-test-9</t>
+  </si>
+  <si>
+    <t>iot-api-engine-graphql-test-10</t>
+  </si>
+  <si>
+    <t>iot-api-engine-graphql-test-11</t>
+  </si>
+  <si>
+    <t>bad request,insert without ID</t>
+  </si>
+  <si>
+    <t>bad request,Insert INT field  incorrectly</t>
+  </si>
+  <si>
+    <t>bad request,Insert FLOAT field  incorrectly</t>
+  </si>
+  <si>
+    <t>bad request,Insert TIME field  incorrectly</t>
+  </si>
+  <si>
+    <t>bad request,Insert String field  incorrectly</t>
+  </si>
+  <si>
+    <t>bad request,update without ID</t>
+  </si>
+  <si>
+    <t>bad request,update INT field  incorrectly</t>
+  </si>
+  <si>
+    <t>bad request,update FLOAT field  incorrectly</t>
+  </si>
+  <si>
+    <t>bad request,update TIME field  incorrectly</t>
+  </si>
+  <si>
+    <t>bad request,update String field  incorrectly</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>queryWithoutData</t>
   </si>
   <si>
     <t>mutation mutationName{
@@ -232,50 +416,10 @@
     )
     {
         json_value
-        succeed_count
         reserved_field_1
         reserved_field_2
     }
 }</t>
-  </si>
-  <si>
-    <t>SDL-9999</t>
-  </si>
-  <si>
-    <t>iot-mysql-update-test-1</t>
-  </si>
-  <si>
-    <t>update one line successfully</t>
-  </si>
-  <si>
-    <t>mutation mutationName{
-    Update(input:
-    {
-      Mysql_Test: [
-        {
-          score: "0.1111",
-          login_time: "2020-01-01T11:11:11",
-          supplier: "test11",
-          ID: 1,
-          deviceName: "Test11",
-          operator: "test11"
-        }
-      ]
-    }
-    )
-    {
-        json_value
-        succeed_count
-        reserved_field_1
-        reserved_field_2
-    }
-}</t>
-  </si>
-  <si>
-    <t>iot-mysql-delete-test-1</t>
-  </si>
-  <si>
-    <t>delete one line successfully</t>
   </si>
   <si>
     <t>mutation mutationName{
@@ -290,17 +434,10 @@
     )
     {
         json_value
-        succeed_count
         reserved_field_1
         reserved_field_2
     }
 }</t>
-  </si>
-  <si>
-    <t>iot-mysql-insert-test-2</t>
-  </si>
-  <si>
-    <t>insert two line successfully</t>
   </si>
   <si>
     <t>mutation mutationName{
@@ -327,18 +464,11 @@
     }
     )
     {
-        json_value
-        succeed_count
+        json_value        
         reserved_field_1
         reserved_field_2
     }
 }</t>
-  </si>
-  <si>
-    <t>iot-mysql-update-test-2</t>
-  </si>
-  <si>
-    <t>update two lines successfully</t>
   </si>
   <si>
     <t>mutation mutationName{
@@ -366,17 +496,10 @@
     )
     {
         json_value
-        succeed_count
         reserved_field_1
         reserved_field_2
     }
 }</t>
-  </si>
-  <si>
-    <t>iot-mysql-delete-test-2</t>
-  </si>
-  <si>
-    <t>delete two lines successfully</t>
   </si>
   <si>
     <t>mutation mutationName{
@@ -394,17 +517,10 @@
     )
     {
         json_value
-        succeed_count
         reserved_field_1
         reserved_field_2
     }
 }</t>
-  </si>
-  <si>
-    <t>iot-mysql-insert-test-3</t>
-  </si>
-  <si>
-    <t>insert without ID</t>
   </si>
   <si>
     <t>mutation mutationName{
@@ -423,20 +539,10 @@
     )
     {
         json_value
-        succeed_count
         reserved_field_1
         reserved_field_2
     }
 }</t>
-  </si>
-  <si>
-    <t>Column 'ID' has no default value and does not allow NULLs</t>
-  </si>
-  <si>
-    <t>iot-mysql-insert-test-4</t>
-  </si>
-  <si>
-    <t>Insert INT field  incorrectly</t>
   </si>
   <si>
     <t>mutation mutationName{
@@ -456,20 +562,10 @@
     )
     {
         json_value
-        succeed_count
         reserved_field_1
         reserved_field_2
     }
 }</t>
-  </si>
-  <si>
-    <t>Illegal GraphQL input: Validation error of type WrongType</t>
-  </si>
-  <si>
-    <t>iot-mysql-insert-test-5</t>
-  </si>
-  <si>
-    <t>Insert FLOAT field  incorrectly</t>
   </si>
   <si>
     <t>mutation mutationName{
@@ -489,17 +585,10 @@
     )
     {
         json_value
-        succeed_count
         reserved_field_1
         reserved_field_2
     }
 }</t>
-  </si>
-  <si>
-    <t>iot-mysql-insert-test-6</t>
-  </si>
-  <si>
-    <t>Insert TIME field  incorrectly</t>
   </si>
   <si>
     <t>mutation mutationName{
@@ -519,17 +608,10 @@
     )
     {
         json_value
-        succeed_count
         reserved_field_1
         reserved_field_2
     }
 }</t>
-  </si>
-  <si>
-    <t>iot-mysql-insert-test-7</t>
-  </si>
-  <si>
-    <t>Insert String field  incorrectly</t>
   </si>
   <si>
     <t>mutation mutationName{
@@ -549,23 +631,10 @@
     )
     {
         json_value
-        succeed_count
         reserved_field_1
         reserved_field_2
     }
 }</t>
-  </si>
-  <si>
-    <t>iot-mysql-update-test-3</t>
-  </si>
-  <si>
-    <t>update without ID</t>
-  </si>
-  <si>
-    <t>iot-mysql-update-test-4</t>
-  </si>
-  <si>
-    <t>update INT field  incorrectly</t>
   </si>
   <si>
     <t>mutation mutationName{
@@ -585,17 +654,10 @@
     )
     {
         json_value
-        succeed_count
         reserved_field_1
         reserved_field_2
     }
 }</t>
-  </si>
-  <si>
-    <t>iot-mysql-update-test-5</t>
-  </si>
-  <si>
-    <t>update FLOAT field  incorrectly</t>
   </si>
   <si>
     <t>mutation mutationName{
@@ -614,18 +676,11 @@
     }
     )
     {
-        json_value
-        succeed_count
+        json_value        
         reserved_field_1
         reserved_field_2
     }
 }</t>
-  </si>
-  <si>
-    <t>iot-mysql-update-test-6</t>
-  </si>
-  <si>
-    <t>update TIME field  incorrectly</t>
   </si>
   <si>
     <t>mutation mutationName{
@@ -645,17 +700,10 @@
     )
     {
         json_value
-        succeed_count
         reserved_field_1
         reserved_field_2
     }
 }</t>
-  </si>
-  <si>
-    <t>iot-mysql-update-test-7</t>
-  </si>
-  <si>
-    <t>update String field  incorrectly</t>
   </si>
   <si>
     <t>mutation mutationName{
@@ -675,17 +723,10 @@
     )
     {
         json_value
-        succeed_count
         reserved_field_1
         reserved_field_2
     }
 }</t>
-  </si>
-  <si>
-    <t>iot-mysql-update-test-8</t>
-  </si>
-  <si>
-    <t>update non-exist ID successfully</t>
   </si>
   <si>
     <t>mutation mutationName{
@@ -705,17 +746,10 @@
     )
     {
         json_value
-        succeed_count
         reserved_field_1
         reserved_field_2
     }
 }</t>
-  </si>
-  <si>
-    <t>iot-mysql-delete-test-3</t>
-  </si>
-  <si>
-    <t>delete non-exist ID successfully</t>
   </si>
   <si>
     <t>mutation mutationName{
@@ -730,44 +764,303 @@
     )
     {
         json_value
-        succeed_count
         reserved_field_1
         reserved_field_2
     }
 }</t>
   </si>
   <si>
-    <t>iot-api-engine-graphql-test-1</t>
-  </si>
-  <si>
-    <t>iot-api-engine-graphql-test-2</t>
-  </si>
-  <si>
-    <t>iot-api-engine-graphql-test-3</t>
-  </si>
-  <si>
-    <t>iot-api-engine-graphql-test-4</t>
-  </si>
-  <si>
-    <t>iot-api-engine-graphql-test-5</t>
-  </si>
-  <si>
-    <t>iot-api-engine-graphql-test-6</t>
-  </si>
-  <si>
-    <t>iot-api-engine-graphql-test-7</t>
-  </si>
-  <si>
-    <t>iot-api-engine-graphql-test-8</t>
-  </si>
-  <si>
-    <t>iot-api-engine-graphql-test-9</t>
-  </si>
-  <si>
-    <t>iot-api-engine-graphql-test-10</t>
-  </si>
-  <si>
-    <t>iot-api-engine-graphql-test-11</t>
+    <t>mutation mutationName{
+    Insert(input:
+    {
+      Mysql_Test: [
+        $data
+      ]
+    }
+    )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+    Update(input:
+    {
+      Mysql_Test: [
+        {
+          score: "0.1111",
+          login_time: "2020-01-01T11:11:11",
+          supplier: "test11",
+          ID: 1,
+          deviceName: "Test11",
+          operator: "test11"
+        }
+      ]
+    }
+    )
+    {
+        json_value       
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>database</t>
+  </si>
+  <si>
+    <t>operation</t>
+  </si>
+  <si>
+    <t>Mysql_Test</t>
+  </si>
+  <si>
+    <t>Insert</t>
+  </si>
+  <si>
+    <t>rspCodeOfMysql</t>
+  </si>
+  <si>
+    <t>rspDataOfMysql</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+    Update(input:
+    {
+      Mysql_Test: [
+        $data
+      ]
+    }
+    )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+          score: "95",
+          login_time: "2021-01-01T00:00:00",
+          supplier: "cisco",
+          ID: 1,
+          deviceName: "switch",
+          operator: "lilei"
+        }</t>
+  </si>
+  <si>
+    <t>Update</t>
+  </si>
+  <si>
+    <t>{
+          score: "100",
+          login_time: "2021-01-01T00:00:00",
+          supplier: "huawei",
+          ID: 1,
+          deviceName: "switch",
+          operator: "hanmeimei"
+        }</t>
+  </si>
+  <si>
+    <t>{
+          ID:1
+        }</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+    Delete(input:
+    {
+      Mysql_Test: [
+        $data      
+     ]
+    }
+    )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>Delete</t>
+  </si>
+  <si>
+    <t>{
+          score: "75",
+          login_time: "2005-09-03T00:00:00",
+          supplier: "OPPO",
+          ID: 2,
+          deviceName: "mobile phone",
+          operator: "liubo"
+        }
+		{
+          score: "80",
+          login_time: "2007-11-19T01:00:00",
+          supplier: "Amazon",
+          ID: 3,
+          deviceName: "Kindle",
+          operator: "Jeff Bezos"
+        }</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+    Insert(input:
+    {
+      Mysql_Test: [
+        $data
+      ]
+    }
+    )
+    {
+        json_value        
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>good request,update non-exist ID successfully</t>
+  </si>
+  <si>
+    <t>good request,delete non-exist ID successfully</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+    Update(input:
+    {
+      Mysql_Test: [
+        $data
+      ]
+    }
+    )
+    {
+        json_value        
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+          score: "76",
+          login_time: "2005-09-03T00:00:01",
+          supplier: "OPPO+",
+          ID: 2,
+          deviceName: "mobile phone+",
+          operator: "liubo.liu"
+        }
+		{
+          score: "81",
+          login_time: "2007-11-19T01:00:01",
+          supplier: "Amazon+",
+          ID: 3,
+          deviceName: "Kindle+",
+          operator: "Jeff Bezos.Jeff"
+        }</t>
+  </si>
+  <si>
+    <t>{
+          ID:2
+        }
+		{
+          ID:3
+        }</t>
+  </si>
+  <si>
+    <t>{
+          score: "100",
+          login_time: "2021-03-30T09:00:00",
+          supplier: "DELL",
+          deviceName: "laptap",
+          operator: "Victor"
+        }</t>
+  </si>
+  <si>
+    <t>{
+          score: "100",
+          login_time: "2021-03-30T09:00:00",
+          supplier: "DELL",
+          ID: "id",
+          deviceName: "laptap",
+          operator: "Victor"
+        }</t>
+  </si>
+  <si>
+    <t>Illegal GraphQL input</t>
+  </si>
+  <si>
+    <t>sql execution failed</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {
+          score: "100",
+          login_time: "login_time",
+          supplier: "DELL",
+          ID: 4,
+          deviceName: "laptap",
+          operator: "Victor"
+        }</t>
+  </si>
+  <si>
+    <t>{
+          score: "score",
+          login_time: "2021-03-30T09:00:00",
+          supplier: "DELL",
+          ID: 4,
+          deviceName: "laptap",
+          operator: "Victor"
+        }</t>
+  </si>
+  <si>
+    <t>{
+          score: "100",
+          login_time: "2021-03-30T09:00:00",
+          supplier: 1,
+          ID: 4,
+          deviceName: "laptap",
+          operator: "Victor"
+        }</t>
+  </si>
+  <si>
+    <t>{
+          score: "100",
+          login_time: "2021-03-30T09:00:00",
+          supplier: "DELL",
+          ID: 9999,
+          deviceName: "laptap",
+          operator: "Victor"
+        }</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {
+          ID:9999
+        }</t>
+  </si>
+  <si>
+    <t>good request,insert one line, data retrieved</t>
+  </si>
+  <si>
+    <t>good request,update one line, data retrieved</t>
+  </si>
+  <si>
+    <t>good request,delete one line, data retrieved</t>
+  </si>
+  <si>
+    <t>good request,insert two line, data retrieved</t>
+  </si>
+  <si>
+    <t>good request,update two lines, data retrieved</t>
+  </si>
+  <si>
+    <t>good request,delete two lines, data retrieved</t>
   </si>
 </sst>
 </file>
@@ -837,7 +1130,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -852,6 +1145,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1138,7 +1443,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1402,19 +1707,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE22B0A1-EDF6-487D-8C5B-FE5F049504FE}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="45" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.5546875" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="60.6640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="71.5546875" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="42.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.6640625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="47.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="70.109375" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
@@ -1443,7 +1748,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>1</v>
@@ -1466,7 +1771,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>26</v>
@@ -1489,7 +1794,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>1</v>
@@ -1512,7 +1817,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>27</v>
@@ -1535,7 +1840,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>28</v>
@@ -1558,7 +1863,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>1</v>
@@ -1581,7 +1886,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>1</v>
@@ -1604,7 +1909,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>28</v>
@@ -1627,7 +1932,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>28</v>
@@ -1648,9 +1953,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>1</v>
@@ -1673,7 +1978,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>1</v>
@@ -1694,365 +1999,383 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="C13" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13" s="6">
+        <v>200</v>
+      </c>
+      <c r="E13" s="6">
+        <v>100000</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="6"/>
+    </row>
+    <row r="14" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="B14" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D13" s="3">
-        <v>200</v>
-      </c>
-      <c r="E13" s="3">
-        <v>100000</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+      <c r="C14" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D14" s="6">
+        <v>200</v>
+      </c>
+      <c r="E14" s="6">
+        <v>100000</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="6"/>
+    </row>
+    <row r="15" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="C15" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D15" s="6">
+        <v>200</v>
+      </c>
+      <c r="E15" s="6">
+        <v>100000</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="6"/>
+    </row>
+    <row r="16" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="B16" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D14" s="3">
-        <v>200</v>
-      </c>
-      <c r="E14" s="3">
-        <v>100000</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+      <c r="C16" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D16" s="6">
+        <v>200</v>
+      </c>
+      <c r="E16" s="6">
+        <v>100000</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B17" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C17" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D17" s="6">
+        <v>200</v>
+      </c>
+      <c r="E17" s="6">
+        <v>100000</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="6"/>
+    </row>
+    <row r="18" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D15" s="3">
-        <v>200</v>
-      </c>
-      <c r="E15" s="3">
-        <v>100000</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+      <c r="B18" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="C18" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D18" s="6">
+        <v>200</v>
+      </c>
+      <c r="E18" s="6">
+        <v>100000</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="6"/>
+    </row>
+    <row r="19" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="B19" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D16" s="3">
-        <v>200</v>
-      </c>
-      <c r="E16" s="3">
-        <v>100000</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
+      <c r="C19" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D19" s="6">
+        <v>200</v>
+      </c>
+      <c r="E19" s="6">
+        <v>101403</v>
+      </c>
+      <c r="F19" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="G19" s="6"/>
+    </row>
+    <row r="20" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="B20" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D17" s="3">
-        <v>200</v>
-      </c>
-      <c r="E17" s="3">
-        <v>100000</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+      <c r="C20" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D20" s="6">
+        <v>200</v>
+      </c>
+      <c r="E20" s="6">
+        <v>101301</v>
+      </c>
+      <c r="F20" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="G20" s="6"/>
+    </row>
+    <row r="21" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="B21" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D18" s="3">
-        <v>200</v>
-      </c>
-      <c r="E18" s="3">
-        <v>100000</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+      <c r="C21" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D21" s="6">
+        <v>200</v>
+      </c>
+      <c r="E21" s="6">
+        <v>101301</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G21" s="6"/>
+    </row>
+    <row r="22" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B22" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D22" s="6">
+        <v>200</v>
+      </c>
+      <c r="E22" s="6">
+        <v>101301</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G22" s="6"/>
+    </row>
+    <row r="23" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="D19" s="3">
-        <v>200</v>
-      </c>
-      <c r="E19" s="3">
+      <c r="B23" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D23" s="6">
+        <v>200</v>
+      </c>
+      <c r="E23" s="6">
+        <v>101301</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G23" s="6"/>
+    </row>
+    <row r="24" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D24" s="6">
+        <v>200</v>
+      </c>
+      <c r="E24" s="6">
         <v>101403</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C20" s="3" t="s">
+      <c r="F24" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G24" s="6"/>
+    </row>
+    <row r="25" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D20" s="3">
-        <v>200</v>
-      </c>
-      <c r="E20" s="3">
+      <c r="B25" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D25" s="6">
+        <v>200</v>
+      </c>
+      <c r="E25" s="6">
         <v>101301</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
+      <c r="F25" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G25" s="6"/>
+    </row>
+    <row r="26" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B26" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C26" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D26" s="6">
+        <v>200</v>
+      </c>
+      <c r="E26" s="6">
+        <v>101301</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G26" s="6"/>
+    </row>
+    <row r="27" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D21" s="3">
-        <v>200</v>
-      </c>
-      <c r="E21" s="3">
+      <c r="B27" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D27" s="6">
+        <v>200</v>
+      </c>
+      <c r="E27" s="6">
         <v>101301</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B22" s="3" t="s">
+      <c r="F27" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G27" s="6"/>
+    </row>
+    <row r="28" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="B28" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="D22" s="3">
-        <v>200</v>
-      </c>
-      <c r="E22" s="3">
+      <c r="C28" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D28" s="6">
+        <v>200</v>
+      </c>
+      <c r="E28" s="6">
         <v>101301</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
+      <c r="F28" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G28" s="6"/>
+    </row>
+    <row r="29" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B29" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C29" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D29" s="6">
+        <v>200</v>
+      </c>
+      <c r="E29" s="6">
+        <v>100000</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" s="6"/>
+    </row>
+    <row r="30" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="D23" s="3">
-        <v>200</v>
-      </c>
-      <c r="E23" s="3">
-        <v>101301</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
+      <c r="B30" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D24" s="3">
-        <v>200</v>
-      </c>
-      <c r="E24" s="3">
-        <v>101403</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D25" s="3">
-        <v>200</v>
-      </c>
-      <c r="E25" s="3">
-        <v>101301</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D26" s="3">
-        <v>200</v>
-      </c>
-      <c r="E26" s="3">
-        <v>101301</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D27" s="3">
-        <v>200</v>
-      </c>
-      <c r="E27" s="3">
-        <v>101301</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D28" s="3">
-        <v>200</v>
-      </c>
-      <c r="E28" s="3">
-        <v>101301</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D29" s="3">
-        <v>200</v>
-      </c>
-      <c r="E29" s="3">
-        <v>100000</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D30" s="3">
-        <v>200</v>
-      </c>
-      <c r="E30" s="3">
-        <v>100000</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="C30" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D30" s="6">
+        <v>200</v>
+      </c>
+      <c r="E30" s="6">
+        <v>100000</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2063,423 +2386,758 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AD2DA60-2891-40A3-9E9E-22AB62A6E85D}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="60.5546875" style="1" customWidth="1"/>
-    <col min="4" max="6" width="12.5546875" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="19.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.44140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.21875" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="G1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="J1" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G2" s="7">
+        <v>200</v>
+      </c>
+      <c r="H2" s="7">
+        <v>100000</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="11">
+        <v>0</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2" s="3">
-        <v>200</v>
-      </c>
-      <c r="E2" s="3">
-        <v>100000</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="3" t="s">
+      <c r="B3" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G3" s="7">
+        <v>200</v>
+      </c>
+      <c r="H3" s="7">
+        <v>100000</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="11">
+        <v>0</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="B4" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G4" s="7">
+        <v>200</v>
+      </c>
+      <c r="H4" s="7">
+        <v>100000</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="11">
+        <v>0</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="220.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D3" s="3">
-        <v>200</v>
-      </c>
-      <c r="E3" s="3">
-        <v>100000</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="B5" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G5" s="7">
+        <v>200</v>
+      </c>
+      <c r="H5" s="7">
+        <v>100000</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="11">
+        <v>0</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="220.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="B6" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G6" s="7">
+        <v>200</v>
+      </c>
+      <c r="H6" s="7">
+        <v>100000</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="11">
+        <v>0</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="84.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="3">
-        <v>200</v>
-      </c>
-      <c r="E4" s="3">
-        <v>100000</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="B7" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G7" s="7">
+        <v>200</v>
+      </c>
+      <c r="H7" s="7">
+        <v>100000</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="11">
+        <v>0</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D5" s="3">
-        <v>200</v>
-      </c>
-      <c r="E5" s="3">
-        <v>100000</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="B8" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G8" s="7">
+        <v>200</v>
+      </c>
+      <c r="H8" s="7">
+        <v>100000</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="7">
+        <v>1</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D6" s="3">
-        <v>200</v>
-      </c>
-      <c r="E6" s="3">
-        <v>100000</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B7" s="3" t="s">
+      <c r="B9" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G9" s="7">
+        <v>200</v>
+      </c>
+      <c r="H9" s="7">
+        <v>101301</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+    </row>
+    <row r="10" spans="1:11" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D7" s="3">
-        <v>200</v>
-      </c>
-      <c r="E7" s="3">
-        <v>100000</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="B10" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G10" s="7">
+        <v>200</v>
+      </c>
+      <c r="H10" s="7">
+        <v>101301</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+    </row>
+    <row r="11" spans="1:11" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C8" s="3" t="s">
+      <c r="B11" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G11" s="7">
+        <v>200</v>
+      </c>
+      <c r="H11" s="7">
+        <v>101301</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+    </row>
+    <row r="12" spans="1:11" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D8" s="3">
-        <v>200</v>
-      </c>
-      <c r="E8" s="3">
-        <v>101403</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="B12" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G12" s="7">
+        <v>200</v>
+      </c>
+      <c r="H12" s="7">
+        <v>101301</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+    </row>
+    <row r="13" spans="1:11" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C9" s="3" t="s">
+      <c r="B13" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G13" s="7">
+        <v>200</v>
+      </c>
+      <c r="H13" s="7">
+        <v>100000</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J13" s="7">
+        <v>101303</v>
+      </c>
+      <c r="K13" s="7"/>
+    </row>
+    <row r="14" spans="1:11" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="D9" s="3">
-        <v>200</v>
-      </c>
-      <c r="E9" s="3">
+      <c r="B14" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G14" s="7">
+        <v>200</v>
+      </c>
+      <c r="H14" s="7">
         <v>101301</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="I14" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+    </row>
+    <row r="15" spans="1:11" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C10" s="3" t="s">
+      <c r="B15" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G15" s="7">
+        <v>200</v>
+      </c>
+      <c r="H15" s="7">
+        <v>101301</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+    </row>
+    <row r="16" spans="1:11" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="D10" s="3">
-        <v>200</v>
-      </c>
-      <c r="E10" s="3">
+      <c r="B16" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G16" s="7">
+        <v>200</v>
+      </c>
+      <c r="H16" s="7">
         <v>101301</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B11" s="3" t="s">
+      <c r="I16" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="J16" s="7"/>
+      <c r="K16" s="8"/>
+    </row>
+    <row r="17" spans="1:11" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D11" s="3">
-        <v>200</v>
-      </c>
-      <c r="E11" s="3">
+      <c r="B17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G17" s="7">
+        <v>200</v>
+      </c>
+      <c r="H17" s="7">
         <v>101301</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+      <c r="I17" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+    </row>
+    <row r="18" spans="1:11" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C12" s="3" t="s">
+      <c r="B18" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G18" s="7">
+        <v>200</v>
+      </c>
+      <c r="H18" s="7">
+        <v>100000</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J18" s="11">
+        <v>0</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="D12" s="3">
-        <v>200</v>
-      </c>
-      <c r="E12" s="3">
-        <v>101301</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D13" s="3">
-        <v>200</v>
-      </c>
-      <c r="E13" s="3">
-        <v>101403</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D14" s="3">
-        <v>200</v>
-      </c>
-      <c r="E14" s="3">
-        <v>101301</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D15" s="3">
-        <v>200</v>
-      </c>
-      <c r="E15" s="3">
-        <v>101301</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D16" s="3">
-        <v>200</v>
-      </c>
-      <c r="E16" s="3">
-        <v>101301</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D17" s="3">
-        <v>200</v>
-      </c>
-      <c r="E17" s="3">
-        <v>101301</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D18" s="3">
-        <v>200</v>
-      </c>
-      <c r="E18" s="3">
-        <v>100000</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D19" s="3">
-        <v>200</v>
-      </c>
-      <c r="E19" s="3">
-        <v>100000</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" s="3"/>
+      <c r="B19" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G19" s="7">
+        <v>200</v>
+      </c>
+      <c r="H19" s="7">
+        <v>100000</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J19" s="11">
+        <v>0</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D02FCA6F-A7CA-4469-B151-76AC3EFA1BC6}">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.44140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.21875" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="220.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G2" s="7">
+        <v>200</v>
+      </c>
+      <c r="H2" s="7">
+        <v>100000</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="11">
+        <v>0</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>144</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/test-data-xls/iot-api-engine-test-data.xlsx
+++ b/src/main/resources/test-data-xls/iot-api-engine-test-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\data-layer-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BBD539F-6D82-4378-9F46-606C92F50AD6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25F1402D-4A06-4E27-A017-D41702D95124}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="getDataEntities" sheetId="2" r:id="rId1"/>
     <sheet name="getDataGraphQL" sheetId="3" r:id="rId2"/>
     <sheet name="postGraphForMysql" sheetId="8" r:id="rId3"/>
-    <sheet name="operateExcel" sheetId="10" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="137">
   <si>
     <t>description</t>
   </si>
@@ -219,117 +218,57 @@
     <t>iot-mysql-insert-test-1</t>
   </si>
   <si>
-    <t>insert one line successfully</t>
-  </si>
-  <si>
     <t>iot-mysql-update-test-1</t>
   </si>
   <si>
-    <t>update one line successfully</t>
-  </si>
-  <si>
     <t>iot-mysql-delete-test-1</t>
   </si>
   <si>
-    <t>delete one line successfully</t>
-  </si>
-  <si>
     <t>iot-mysql-insert-test-2</t>
   </si>
   <si>
-    <t>insert two line successfully</t>
-  </si>
-  <si>
     <t>iot-mysql-update-test-2</t>
   </si>
   <si>
-    <t>update two lines successfully</t>
-  </si>
-  <si>
     <t>iot-mysql-delete-test-2</t>
   </si>
   <si>
-    <t>delete two lines successfully</t>
-  </si>
-  <si>
     <t>iot-mysql-insert-test-3</t>
   </si>
   <si>
-    <t>insert without ID</t>
-  </si>
-  <si>
-    <t>Column 'ID' has no default value and does not allow NULLs</t>
-  </si>
-  <si>
     <t>iot-mysql-insert-test-4</t>
   </si>
   <si>
-    <t>Insert INT field  incorrectly</t>
-  </si>
-  <si>
-    <t>Illegal GraphQL input: Validation error of type WrongType</t>
-  </si>
-  <si>
     <t>iot-mysql-insert-test-5</t>
   </si>
   <si>
-    <t>Insert FLOAT field  incorrectly</t>
-  </si>
-  <si>
     <t>iot-mysql-insert-test-6</t>
   </si>
   <si>
-    <t>Insert TIME field  incorrectly</t>
-  </si>
-  <si>
     <t>iot-mysql-insert-test-7</t>
   </si>
   <si>
-    <t>Insert String field  incorrectly</t>
-  </si>
-  <si>
     <t>iot-mysql-update-test-3</t>
   </si>
   <si>
-    <t>update without ID</t>
-  </si>
-  <si>
     <t>iot-mysql-update-test-4</t>
   </si>
   <si>
-    <t>update INT field  incorrectly</t>
-  </si>
-  <si>
     <t>iot-mysql-update-test-5</t>
   </si>
   <si>
-    <t>update FLOAT field  incorrectly</t>
-  </si>
-  <si>
     <t>iot-mysql-update-test-6</t>
   </si>
   <si>
-    <t>update TIME field  incorrectly</t>
-  </si>
-  <si>
     <t>iot-mysql-update-test-7</t>
   </si>
   <si>
-    <t>update String field  incorrectly</t>
-  </si>
-  <si>
     <t>iot-mysql-update-test-8</t>
   </si>
   <si>
-    <t>update non-exist ID successfully</t>
-  </si>
-  <si>
     <t>iot-mysql-delete-test-3</t>
   </si>
   <si>
-    <t>delete non-exist ID successfully</t>
-  </si>
-  <si>
     <t>iot-api-engine-graphql-test-1</t>
   </si>
   <si>
@@ -397,377 +336,6 @@
   </si>
   <si>
     <t>queryWithoutData</t>
-  </si>
-  <si>
-    <t>mutation mutationName{
-    Insert(input:
-    {
-      Mysql_Test: [
-        {
-          score: "0.111",
-          login_time: "2020-01-01T00:00:00",
-          supplier: "test1",
-          ID: 1,
-          deviceName: "Test1",
-          operator: "test1"
-        }
-      ]
-    }
-    )
-    {
-        json_value
-        reserved_field_1
-        reserved_field_2
-    }
-}</t>
-  </si>
-  <si>
-    <t>mutation mutationName{
-    Delete(input:
-    {
-      Mysql_Test: [
-        {
-          ID:1
-        }
-      ]
-    }
-    )
-    {
-        json_value
-        reserved_field_1
-        reserved_field_2
-    }
-}</t>
-  </si>
-  <si>
-    <t>mutation mutationName{
-    Insert(input:
-    {
-      Mysql_Test: [
-        {
-          score: "0.1",
-          login_time: "2021-01-01T01:01:01",
-          supplier: "test1",
-          ID: 1,
-          deviceName: "Test1",
-          operator: "test1"
-        }
-		{
-          score: "0.2",
-          login_time: "2022-02-02T02:02:02",
-          supplier: "test2",
-          ID: 2,
-          deviceName: "Test2",
-          operator: "test2"
-        }
-      ]
-    }
-    )
-    {
-        json_value        
-        reserved_field_1
-        reserved_field_2
-    }
-}</t>
-  </si>
-  <si>
-    <t>mutation mutationName{
-    Update(input:
-    {
-      Mysql_Test: [
-        {
-          score: "0.11",
-          login_time: "2021-01-01T11:11:11",
-          supplier: "test11",
-          ID: 1,
-          deviceName: "Test11",
-          operator: "test11"
-        }
-		{
-          score: "0.22",
-          login_time: "2022-02-02T22:22:22",
-          supplier: "test22",
-          ID: 2,
-          deviceName: "Test22",
-          operator: "test22"
-        }
-      ]
-    }
-    )
-    {
-        json_value
-        reserved_field_1
-        reserved_field_2
-    }
-}</t>
-  </si>
-  <si>
-    <t>mutation mutationName{
-    Delete(input:
-    {
-      Mysql_Test: [
-        {
-          ID:1
-        }
-		{
-          ID:2
-        }
-      ]
-    }
-    )
-    {
-        json_value
-        reserved_field_1
-        reserved_field_2
-    }
-}</t>
-  </si>
-  <si>
-    <t>mutation mutationName{
-    Insert(input:
-    {
-      Mysql_Test: [
-        {
-          score: "0.111",
-          login_time: "2020-01-01T00:00:00",
-          supplier: "test1",
-          deviceName: "Test1",
-          operator: "test1"
-        }
-      ]
-    }
-    )
-    {
-        json_value
-        reserved_field_1
-        reserved_field_2
-    }
-}</t>
-  </si>
-  <si>
-    <t>mutation mutationName{
-    Insert(input:
-    {
-      Mysql_Test: [
-        {
-          score: "0.111",
-          login_time: "2020-01-01T00:00:00",
-          supplier: "test1",
-          ID: "id",
-          deviceName: "Test1",
-          operator: "test1"
-        }
-      ]
-    }
-    )
-    {
-        json_value
-        reserved_field_1
-        reserved_field_2
-    }
-}</t>
-  </si>
-  <si>
-    <t>mutation mutationName{
-    Insert(input:
-    {
-      Mysql_Test: [
-        {
-          score: "score",
-          login_time: "2020-01-01T00:00:00",
-          supplier: "test1",
-          ID: 1,
-          deviceName: "Test1",
-          operator: "test1"
-        }
-      ]
-    }
-    )
-    {
-        json_value
-        reserved_field_1
-        reserved_field_2
-    }
-}</t>
-  </si>
-  <si>
-    <t>mutation mutationName{
-    Insert(input:
-    {
-      Mysql_Test: [
-        {
-          score: "0.1",
-          login_time: "login_time",
-          supplier: "test1",
-          ID: 1,
-          deviceName: "Test1",
-          operator: "test1"
-        }
-      ]
-    }
-    )
-    {
-        json_value
-        reserved_field_1
-        reserved_field_2
-    }
-}</t>
-  </si>
-  <si>
-    <t>mutation mutationName{
-    Insert(input:
-    {
-      Mysql_Test: [
-        {
-          score: "0.1",
-          login_time: "2020-01-01T00:00:00",
-          supplier: 1,
-          ID: 1,
-          deviceName: "Test1",
-          operator: "test1"
-        }
-      ]
-    }
-    )
-    {
-        json_value
-        reserved_field_1
-        reserved_field_2
-    }
-}</t>
-  </si>
-  <si>
-    <t>mutation mutationName{
-    Update(input:
-    {
-      Mysql_Test: [
-        {
-          score: "0.111",
-          login_time: "2020-01-01T00:00:00",
-          supplier: "test1",
-          ID: "id",
-          deviceName: "Test1",
-          operator: "test1"
-        }
-      ]
-    }
-    )
-    {
-        json_value
-        reserved_field_1
-        reserved_field_2
-    }
-}</t>
-  </si>
-  <si>
-    <t>mutation mutationName{
-    Update(input:
-    {
-      Mysql_Test: [
-        {
-          score: "score",
-          login_time: "2020-01-01T00:00:00",
-          supplier: "test1",
-          ID: 1,
-          deviceName: "Test1",
-          operator: "test1"
-        }
-      ]
-    }
-    )
-    {
-        json_value        
-        reserved_field_1
-        reserved_field_2
-    }
-}</t>
-  </si>
-  <si>
-    <t>mutation mutationName{
-    Update(input:
-    {
-      Mysql_Test: [
-        {
-          score: "0.1",
-          login_time: "login_time",
-          supplier: "test1",
-          ID: 1,
-          deviceName: "Test1",
-          operator: "test1"
-        }
-      ]
-    }
-    )
-    {
-        json_value
-        reserved_field_1
-        reserved_field_2
-    }
-}</t>
-  </si>
-  <si>
-    <t>mutation mutationName{
-    Update(input:
-    {
-      Mysql_Test: [
-        {
-          score: "0.1",
-          login_time: "2020-01-01T00:00:00",
-          supplier: 1,
-          ID: 1,
-          deviceName: "Test1",
-          operator: "test1"
-        }
-      ]
-    }
-    )
-    {
-        json_value
-        reserved_field_1
-        reserved_field_2
-    }
-}</t>
-  </si>
-  <si>
-    <t>mutation mutationName{
-    Update(input:
-    {
-      Mysql_Test: [
-        {
-          login_time: "2020-01-02T00:00:00",
-          score: "0.333",
-          supplier: "test33",
-          ID: 9999,
-          deviceName: "Test33",
-          operator: "test33"
-        }
-      ]
-    }
-    )
-    {
-        json_value
-        reserved_field_1
-        reserved_field_2
-    }
-}</t>
-  </si>
-  <si>
-    <t>mutation mutationName{
-    Delete(input:
-    {
-      Mysql_Test: [
-        {
-          ID:9999
-        }
-      ]
-    }
-    )
-    {
-        json_value
-        reserved_field_1
-        reserved_field_2
-    }
-}</t>
   </si>
   <si>
     <t>mutation mutationName{
@@ -780,29 +348,6 @@
     )
     {
         json_value
-        reserved_field_1
-        reserved_field_2
-    }
-}</t>
-  </si>
-  <si>
-    <t>mutation mutationName{
-    Update(input:
-    {
-      Mysql_Test: [
-        {
-          score: "0.1111",
-          login_time: "2020-01-01T11:11:11",
-          supplier: "test11",
-          ID: 1,
-          deviceName: "Test11",
-          operator: "test11"
-        }
-      ]
-    }
-    )
-    {
-        json_value       
         reserved_field_1
         reserved_field_2
     }
@@ -1705,10 +1250,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE22B0A1-EDF6-487D-8C5B-FE5F049504FE}">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1748,7 +1293,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>1</v>
@@ -1771,7 +1316,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>26</v>
@@ -1794,7 +1339,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>1</v>
@@ -1817,7 +1362,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>27</v>
@@ -1840,7 +1385,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>28</v>
@@ -1863,7 +1408,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>1</v>
@@ -1886,7 +1431,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>1</v>
@@ -1909,7 +1454,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>28</v>
@@ -1932,7 +1477,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>28</v>
@@ -1955,7 +1500,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>1</v>
@@ -1978,7 +1523,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>1</v>
@@ -1998,384 +1543,6 @@
       <c r="G12" s="6" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="D13" s="6">
-        <v>200</v>
-      </c>
-      <c r="E13" s="6">
-        <v>100000</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="6"/>
-    </row>
-    <row r="14" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="D14" s="6">
-        <v>200</v>
-      </c>
-      <c r="E14" s="6">
-        <v>100000</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="6"/>
-    </row>
-    <row r="15" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="D15" s="6">
-        <v>200</v>
-      </c>
-      <c r="E15" s="6">
-        <v>100000</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" s="6"/>
-    </row>
-    <row r="16" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="D16" s="6">
-        <v>200</v>
-      </c>
-      <c r="E16" s="6">
-        <v>100000</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16" s="6"/>
-    </row>
-    <row r="17" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="D17" s="6">
-        <v>200</v>
-      </c>
-      <c r="E17" s="6">
-        <v>100000</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" s="6"/>
-    </row>
-    <row r="18" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="D18" s="6">
-        <v>200</v>
-      </c>
-      <c r="E18" s="6">
-        <v>100000</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18" s="6"/>
-    </row>
-    <row r="19" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="D19" s="6">
-        <v>200</v>
-      </c>
-      <c r="E19" s="6">
-        <v>101403</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="G19" s="6"/>
-    </row>
-    <row r="20" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="D20" s="6">
-        <v>200</v>
-      </c>
-      <c r="E20" s="6">
-        <v>101301</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="G20" s="6"/>
-    </row>
-    <row r="21" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D21" s="6">
-        <v>200</v>
-      </c>
-      <c r="E21" s="6">
-        <v>101301</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="G21" s="6"/>
-    </row>
-    <row r="22" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="D22" s="6">
-        <v>200</v>
-      </c>
-      <c r="E22" s="6">
-        <v>101301</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="G22" s="6"/>
-    </row>
-    <row r="23" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="D23" s="6">
-        <v>200</v>
-      </c>
-      <c r="E23" s="6">
-        <v>101301</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="G23" s="6"/>
-    </row>
-    <row r="24" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="D24" s="6">
-        <v>200</v>
-      </c>
-      <c r="E24" s="6">
-        <v>101403</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="G24" s="6"/>
-    </row>
-    <row r="25" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="D25" s="6">
-        <v>200</v>
-      </c>
-      <c r="E25" s="6">
-        <v>101301</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="G25" s="6"/>
-    </row>
-    <row r="26" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="D26" s="6">
-        <v>200</v>
-      </c>
-      <c r="E26" s="6">
-        <v>101301</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="G26" s="6"/>
-    </row>
-    <row r="27" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="D27" s="6">
-        <v>200</v>
-      </c>
-      <c r="E27" s="6">
-        <v>101301</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="G27" s="6"/>
-    </row>
-    <row r="28" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="D28" s="6">
-        <v>200</v>
-      </c>
-      <c r="E28" s="6">
-        <v>101301</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="G28" s="6"/>
-    </row>
-    <row r="29" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="D29" s="6">
-        <v>200</v>
-      </c>
-      <c r="E29" s="6">
-        <v>100000</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G29" s="6"/>
-    </row>
-    <row r="30" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="D30" s="6">
-        <v>200</v>
-      </c>
-      <c r="E30" s="6">
-        <v>100000</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G30" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2388,8 +1555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AD2DA60-2891-40A3-9E9E-22AB62A6E85D}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -2416,16 +1583,16 @@
         <v>0</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>138</v>
+        <v>101</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>139</v>
+        <v>102</v>
       </c>
       <c r="G1" s="9" t="s">
         <v>3</v>
@@ -2437,10 +1604,10 @@
         <v>4</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>142</v>
+        <v>105</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>143</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -2448,19 +1615,19 @@
         <v>59</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>168</v>
+        <v>131</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>136</v>
+        <v>100</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>146</v>
+        <v>109</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>140</v>
+        <v>103</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>141</v>
+        <v>104</v>
       </c>
       <c r="G2" s="7">
         <v>200</v>
@@ -2475,27 +1642,27 @@
         <v>0</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>144</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>169</v>
+        <v>132</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>145</v>
+        <v>108</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>148</v>
+        <v>111</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>140</v>
+        <v>103</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>147</v>
+        <v>110</v>
       </c>
       <c r="G3" s="7">
         <v>200</v>
@@ -2510,27 +1677,27 @@
         <v>0</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>144</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>170</v>
+        <v>133</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>150</v>
+        <v>113</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>149</v>
+        <v>112</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>140</v>
+        <v>103</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>151</v>
+        <v>114</v>
       </c>
       <c r="G4" s="7">
         <v>200</v>
@@ -2545,27 +1712,27 @@
         <v>0</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>144</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="220.8" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>171</v>
+        <v>134</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>153</v>
+        <v>116</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>152</v>
+        <v>115</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>140</v>
+        <v>103</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>141</v>
+        <v>104</v>
       </c>
       <c r="G5" s="7">
         <v>200</v>
@@ -2580,27 +1747,27 @@
         <v>0</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>144</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="220.8" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>172</v>
+        <v>135</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>156</v>
+        <v>119</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>157</v>
+        <v>120</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>140</v>
+        <v>103</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>147</v>
+        <v>110</v>
       </c>
       <c r="G6" s="7">
         <v>200</v>
@@ -2615,27 +1782,27 @@
         <v>0</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>144</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="84.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>173</v>
+        <v>136</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>150</v>
+        <v>113</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>158</v>
+        <v>121</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>140</v>
+        <v>103</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>151</v>
+        <v>114</v>
       </c>
       <c r="G7" s="7">
         <v>200</v>
@@ -2650,27 +1817,27 @@
         <v>0</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>144</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>153</v>
+        <v>116</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>159</v>
+        <v>122</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>140</v>
+        <v>103</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>141</v>
+        <v>104</v>
       </c>
       <c r="G8" s="7">
         <v>200</v>
@@ -2685,27 +1852,27 @@
         <v>1</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>162</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>153</v>
+        <v>116</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>160</v>
+        <v>123</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>140</v>
+        <v>103</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>141</v>
+        <v>104</v>
       </c>
       <c r="G9" s="7">
         <v>200</v>
@@ -2714,29 +1881,29 @@
         <v>101301</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>161</v>
+        <v>124</v>
       </c>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
     </row>
     <row r="10" spans="1:11" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>153</v>
+        <v>116</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>164</v>
+        <v>127</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>140</v>
+        <v>103</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>141</v>
+        <v>104</v>
       </c>
       <c r="G10" s="7">
         <v>200</v>
@@ -2745,29 +1912,29 @@
         <v>101301</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>161</v>
+        <v>124</v>
       </c>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
     </row>
     <row r="11" spans="1:11" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>153</v>
+        <v>116</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>140</v>
+        <v>103</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>141</v>
+        <v>104</v>
       </c>
       <c r="G11" s="7">
         <v>200</v>
@@ -2776,29 +1943,29 @@
         <v>101301</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>161</v>
+        <v>124</v>
       </c>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
     </row>
     <row r="12" spans="1:11" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>153</v>
+        <v>116</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>140</v>
+        <v>103</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>141</v>
+        <v>104</v>
       </c>
       <c r="G12" s="7">
         <v>200</v>
@@ -2807,29 +1974,29 @@
         <v>101301</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>161</v>
+        <v>124</v>
       </c>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
     </row>
     <row r="13" spans="1:11" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>145</v>
+        <v>108</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>159</v>
+        <v>122</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>140</v>
+        <v>103</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>147</v>
+        <v>110</v>
       </c>
       <c r="G13" s="7">
         <v>200</v>
@@ -2847,22 +2014,22 @@
     </row>
     <row r="14" spans="1:11" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>145</v>
+        <v>108</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>160</v>
+        <v>123</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>140</v>
+        <v>103</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>147</v>
+        <v>110</v>
       </c>
       <c r="G14" s="7">
         <v>200</v>
@@ -2871,29 +2038,29 @@
         <v>101301</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>161</v>
+        <v>124</v>
       </c>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
     </row>
     <row r="15" spans="1:11" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>145</v>
+        <v>108</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>164</v>
+        <v>127</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>140</v>
+        <v>103</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>147</v>
+        <v>110</v>
       </c>
       <c r="G15" s="7">
         <v>200</v>
@@ -2902,29 +2069,29 @@
         <v>101301</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>161</v>
+        <v>124</v>
       </c>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
     </row>
     <row r="16" spans="1:11" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>145</v>
+        <v>108</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>140</v>
+        <v>103</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>147</v>
+        <v>110</v>
       </c>
       <c r="G16" s="7">
         <v>200</v>
@@ -2933,29 +2100,29 @@
         <v>101301</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>161</v>
+        <v>124</v>
       </c>
       <c r="J16" s="7"/>
       <c r="K16" s="8"/>
     </row>
     <row r="17" spans="1:11" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>145</v>
+        <v>108</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>140</v>
+        <v>103</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>147</v>
+        <v>110</v>
       </c>
       <c r="G17" s="7">
         <v>200</v>
@@ -2964,29 +2131,29 @@
         <v>101301</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>161</v>
+        <v>124</v>
       </c>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
     </row>
     <row r="18" spans="1:11" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>145</v>
+        <v>108</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>166</v>
+        <v>129</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>140</v>
+        <v>103</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>147</v>
+        <v>110</v>
       </c>
       <c r="G18" s="7">
         <v>200</v>
@@ -3001,27 +2168,27 @@
         <v>0</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>144</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>155</v>
+        <v>118</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>150</v>
+        <v>113</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>167</v>
+        <v>130</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>140</v>
+        <v>103</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>151</v>
+        <v>114</v>
       </c>
       <c r="G19" s="7">
         <v>200</v>
@@ -3036,107 +2203,7 @@
         <v>0</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>144</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D02FCA6F-A7CA-4469-B151-76AC3EFA1BC6}">
-  <dimension ref="A1:K2"/>
-  <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="19.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.44140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.21875" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="10"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="220.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G2" s="7">
-        <v>200</v>
-      </c>
-      <c r="H2" s="7">
-        <v>100000</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="11">
-        <v>0</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>144</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/test-data-xls/iot-api-engine-test-data.xlsx
+++ b/src/main/resources/test-data-xls/iot-api-engine-test-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\data-layer-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25F1402D-4A06-4E27-A017-D41702D95124}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A8C9492-EC3C-448E-A7FB-B6611B63F94A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1556,7 +1556,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>

--- a/src/main/resources/test-data-xls/iot-api-engine-test-data.xlsx
+++ b/src/main/resources/test-data-xls/iot-api-engine-test-data.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\data-layer-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A8C9492-EC3C-448E-A7FB-B6611B63F94A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B602BA0E-C14B-46EA-87D5-421C02ADB7CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="getDataEntities" sheetId="2" r:id="rId1"/>
     <sheet name="getDataGraphQL" sheetId="3" r:id="rId2"/>
-    <sheet name="postGraphForMysql" sheetId="8" r:id="rId3"/>
+    <sheet name="postGraphForMysql" sheetId="9" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="240">
   <si>
     <t>description</t>
   </si>
@@ -332,28 +332,6 @@
     <t>bad request,update String field  incorrectly</t>
   </si>
   <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>queryWithoutData</t>
-  </si>
-  <si>
-    <t>mutation mutationName{
-    Insert(input:
-    {
-      Mysql_Test: [
-        $data
-      ]
-    }
-    )
-    {
-        json_value
-        reserved_field_1
-        reserved_field_2
-    }
-}</t>
-  </si>
-  <si>
     <t>database</t>
   </si>
   <si>
@@ -373,22 +351,6 @@
   </si>
   <si>
     <t>true</t>
-  </si>
-  <si>
-    <t>mutation mutationName{
-    Update(input:
-    {
-      Mysql_Test: [
-        $data
-      ]
-    }
-    )
-    {
-        json_value
-        reserved_field_1
-        reserved_field_2
-    }
-}</t>
   </si>
   <si>
     <t>{
@@ -404,28 +366,57 @@
     <t>Update</t>
   </si>
   <si>
-    <t>{
-          score: "100",
+    <t>Delete</t>
+  </si>
+  <si>
+    <t>good request,update non-exist ID successfully</t>
+  </si>
+  <si>
+    <t>good request,delete non-exist ID successfully</t>
+  </si>
+  <si>
+    <t>Illegal GraphQL input</t>
+  </si>
+  <si>
+    <t>sql execution failed</t>
+  </si>
+  <si>
+    <t>good request,insert one line, data retrieved</t>
+  </si>
+  <si>
+    <t>good request,update one line, data retrieved</t>
+  </si>
+  <si>
+    <t>good request,delete one line, data retrieved</t>
+  </si>
+  <si>
+    <t>is required for Update operation!</t>
+  </si>
+  <si>
+    <t>iot-mysql-update-test-9</t>
+  </si>
+  <si>
+    <t>iot-mysql-delete-test-4</t>
+  </si>
+  <si>
+    <t>iot-mysql-update-test-10</t>
+  </si>
+  <si>
+    <t>good request,Update By Condition(_eq),data retrieved</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   Mysql_Test_Insert(input:
+	[
+        {
+          score: "95",
           login_time: "2021-01-01T00:00:00",
-          supplier: "huawei",
+          supplier: "cisco",
           ID: 1,
           deviceName: "switch",
-          operator: "hanmeimei"
-        }</t>
-  </si>
-  <si>
-    <t>{
-          ID:1
-        }</t>
-  </si>
-  <si>
-    <t>mutation mutationName{
-    Delete(input:
-    {
-      Mysql_Test: [
-        $data      
-     ]
-    }
+          operator: "lilei"
+        }
+    ]
     )
     {
         json_value
@@ -435,184 +426,1990 @@
 }</t>
   </si>
   <si>
-    <t>Delete</t>
-  </si>
-  <si>
-    <t>{
-          score: "75",
+    <t>mutation mutationName{
+   Mysql_Test_Insert(input:
+	[
+        {
+          score: "76",
           login_time: "2005-09-03T00:00:00",
           supplier: "OPPO",
           ID: 2,
           deviceName: "mobile phone",
-          operator: "liubo"
+          operator: "bo.zhao"
+        }
+		{
+          score: "77",
+          login_time: "2005-09-03T00:00:00",
+          supplier: "OPPO",
+          ID: 3,
+          deviceName: "mobile phone",
+          operator: "bo.qian"
+        }
+		        {
+          score: "78",
+          login_time: "2005-09-03T00:00:00",
+          supplier: "OPPO",
+          ID: 4,
+          deviceName: "mobile phone",
+          operator: "bo.sun"
+        }
+		{
+          score: "79",
+          login_time: "2005-09-03T00:00:00",
+          ID: 5,
+          deviceName: "mobile phone",
+          operator: "bo.li"
         }
 		{
           score: "80",
           login_time: "2007-11-19T01:00:00",
           supplier: "Amazon",
-          ID: 3,
+          ID: 6,
           deviceName: "Kindle",
           operator: "Jeff Bezos"
-        }</t>
-  </si>
-  <si>
-    <t>mutation mutationName{
-    Insert(input:
-    {
-      Mysql_Test: [
-        $data
-      ]
-    }
+        }
+    ]
     )
     {
-        json_value        
+        json_value
         reserved_field_1
         reserved_field_2
     }
 }</t>
   </si>
   <si>
-    <t>good request,update non-exist ID successfully</t>
-  </si>
-  <si>
-    <t>good request,delete non-exist ID successfully</t>
-  </si>
-  <si>
-    <t>mutation mutationName{
-    Update(input:
-    {
-      Mysql_Test: [
-        $data
-      ]
-    }
-    )
-    {
-        json_value        
-        reserved_field_1
-        reserved_field_2
-    }
-}</t>
+    <t>expectResults</t>
+  </si>
+  <si>
+    <t>graphQLSentence</t>
+  </si>
+  <si>
+    <t>pre-execution</t>
   </si>
   <si>
     <t>{
           score: "76",
-          login_time: "2005-09-03T00:00:01",
-          supplier: "OPPO+",
+          login_time: "2005-09-03T00:00:00",
+          supplier: "OPPO",
           ID: 2,
-          deviceName: "mobile phone+",
-          operator: "liubo.liu"
-        }
-		{
-          score: "81",
-          login_time: "2007-11-19T01:00:01",
-          supplier: "Amazon+",
+          deviceName: "mobile phone",
+          operator: "bo.zhao"
+        }
+		{
+          score: "77",
+          login_time: "2005-09-03T00:00:00",
+          supplier: "OPPO",
           ID: 3,
-          deviceName: "Kindle+",
-          operator: "Jeff Bezos.Jeff"
+          deviceName: "mobile phone",
+          operator: "bo.qian"
+        }
+		        {
+          score: "78",
+          login_time: "2005-09-03T00:00:00",
+          supplier: "OPPO",
+          ID: 4,
+          deviceName: "mobile phone",
+          operator: "bo.sun"
+        }
+		{
+          score: "79",
+          login_time: "2005-09-03T00:00:00",
+          ID: 5,
+          deviceName: "mobile phone",
+          operator: "bo.li"
+        }
+		{
+          score: "80",
+          login_time: "2007-11-19T01:00:00",
+          supplier: "Amazon",
+          ID: 6,
+          deviceName: "Kindle",
+          operator: "Jeff Bezos"
         }</t>
   </si>
   <si>
-    <t>{
-          ID:2
-        }
-		{
-          ID:3
-        }</t>
-  </si>
-  <si>
-    <t>{
+    <t>mutation mutationName{
+   Mysql_Test_Insert(input:
+	[
+       {
           score: "100",
           login_time: "2021-03-30T09:00:00",
           supplier: "DELL",
           deviceName: "laptap",
           operator: "Victor"
-        }</t>
-  </si>
-  <si>
-    <t>{
+        }
+    ]
+    )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   Mysql_Test_Insert(input:
+	[
+        {
           score: "100",
           login_time: "2021-03-30T09:00:00",
           supplier: "DELL",
           ID: "id",
           deviceName: "laptap",
           operator: "Victor"
-        }</t>
-  </si>
-  <si>
-    <t>Illegal GraphQL input</t>
-  </si>
-  <si>
-    <t>sql execution failed</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> {
+        }
+    ]
+    )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   Mysql_Test_Insert(input:
+	[
+        {
+          score: "score",
+          login_time: "2021-03-30T09:00:00",
+          supplier: "DELL",
+          ID: 4,
+          deviceName: "laptap",
+          operator: "Victor"
+        }
+    ]
+    )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   Mysql_Test_Insert(input:
+	[
+         {
           score: "100",
           login_time: "login_time",
           supplier: "DELL",
           ID: 4,
           deviceName: "laptap",
           operator: "Victor"
+        }
+    ]
+    )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   Mysql_Test_Insert(input:
+	[
+        {
+          score: "100",
+          login_time: "2021-03-30T09:00:00",
+          supplier: 1,
+          ID: 4,
+          deviceName: "laptap",
+          operator: "Victor"
+        }
+    ]
+    )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   Mysql_Test_Update(input:
+	[
+       {
+          score: "95",
+          login_time: "2021-01-01T00:00:00",
+          supplier: "cisco+",
+          ID: 1,
+          deviceName: "switch+",
+          operator: "lilei+"
+        }
+    ]
+    )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       {
+          score: "95",
+          login_time: "2021-01-01T00:00:00",
+          supplier: "cisco+",
+          ID: 1,
+          deviceName: "switch+",
+          operator: "lilei+"
         }</t>
   </si>
   <si>
-    <t>{
+    <t>good request,insert two+ line, data retrieved</t>
+  </si>
+  <si>
+    <t>good request,update two+ lines, data retrieved</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   Mysql_Test_Update(input:
+	[
+		{
+          score: "77",
+          login_time: "2005-09-03T00:00:00",
+          supplier: "OPPO+",
+          ID: 3,
+          deviceName: "mobile phone+",
+          operator: "bo.qian+"
+        }
+		        {
+          score: "78",
+          login_time: "2005-09-03T00:00:00",
+          supplier: "OPPO+",
+          ID: 4,
+          deviceName: "mobile phone+",
+          operator: "bo.sun+"
+        }
+		{
+          score: "79",
+          login_time: "2005-09-03T00:00:00",
+          ID: 5,
+          deviceName: "mobile phone+",
+          operator: "bo.li+"
+        }
+		{
+          score: "80",
+          login_time: "2007-11-19T01:00:00",
+          supplier: "Amazon+",
+          ID: 6,
+          deviceName: "Kindle+",
+          operator: "Jeff Bezos+"
+        }
+    ]
+    )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  {
+          score: "76",
+          login_time: "2005-09-03T00:00:00",
+          supplier: "OPPO",
+          ID: 2,
+          deviceName: "mobile phone",
+          operator: "bo.zhao"
+        }
+		{
+          score: "77",
+          login_time: "2005-09-03T00:00:00",
+          supplier: "OPPO+",
+          ID: 3,
+          deviceName: "mobile phone+",
+          operator: "bo.qian+"
+        }
+		        {
+          score: "78",
+          login_time: "2005-09-03T00:00:00",
+          supplier: "OPPO+",
+          ID: 4,
+          deviceName: "mobile phone+",
+          operator: "bo.sun+"
+        }
+		{
+          score: "79",
+          login_time: "2005-09-03T00:00:00",
+          ID: 5,
+          deviceName: "mobile phone+",
+          operator: "bo.li+"
+        }
+		{
+          score: "80",
+          login_time: "2007-11-19T01:00:00",
+          supplier: "Amazon+",
+          ID: 6,
+          deviceName: "Kindle+",
+          operator: "Jeff Bezos+"
+        }</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   Mysql_Test_Update(input:
+	[
+        {
+          score: "100",
+          login_time: "2021-03-30T09:00:00",
+          supplier: "DELL",
+          deviceName: "laptap",
+          operator: "Victor"
+        }
+    ]
+    )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   Mysql_Test_Update(input:
+	[
+       {
+          score: "100",
+          login_time: "2021-03-30T09:00:00",
+          supplier: "DELL",
+          ID: "id",
+          deviceName: "laptap",
+          operator: "Victor"
+        }
+    ]
+    )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   Mysql_Test_Update(input:
+	[
+        {
           score: "score",
           login_time: "2021-03-30T09:00:00",
           supplier: "DELL",
           ID: 4,
           deviceName: "laptap",
           operator: "Victor"
-        }</t>
-  </si>
-  <si>
-    <t>{
+        }
+    ]
+    )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   Mysql_Test_Update(input:
+	[
+         {
+          score: "100",
+          login_time: "login_time",
+          supplier: "DELL",
+          ID: 4,
+          deviceName: "laptap",
+          operator: "Victor"
+        }
+    ]
+    )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   Mysql_Test_Update(input:
+	[
+        {
           score: "100",
           login_time: "2021-03-30T09:00:00",
           supplier: 1,
           ID: 4,
           deviceName: "laptap",
           operator: "Victor"
-        }</t>
-  </si>
-  <si>
-    <t>{
+        }
+    ]
+    )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   Mysql_Test_Update(input:
+	[
+        {
           score: "100",
           login_time: "2021-03-30T09:00:00",
           supplier: "DELL",
           ID: 9999,
           deviceName: "laptap",
           operator: "Victor"
+        }
+    ]
+    )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   Mysql_Test_Insert(input:
+	[
+	    {
+          score: "95",
+          login_time: "2021-01-01T00:00:00",
+          supplier: "cisco",
+          ID: 1,
+          deviceName: "switch",
+          operator: "lilei"
+        }
+        {
+          score: "76",
+          login_time: "2005-09-03T00:00:00",
+          supplier: "OPPO",
+          ID: 2,
+          deviceName: "mobile phone",
+          operator: "bo.zhao"
+        }
+		{
+          score: "77",
+          login_time: "2005-09-03T00:00:00",
+          supplier: "OPPO",
+          ID: 3,
+          deviceName: "mobile phone",
+          operator: "bo.qian"
+        }
+		        {
+          score: "78",
+          login_time: "2005-09-03T00:00:00",
+          supplier: "OPPO",
+          ID: 4,
+          deviceName: "mobile phone",
+          operator: "bo.sun"
+        }
+		{
+          score: "79",
+          login_time: "2005-09-03T00:00:00",
+          ID: 5,
+          deviceName: "mobile phone",
+          operator: "bo.li"
+        }
+		{
+          score: "80",
+          login_time: "2007-11-19T01:00:00",
+          supplier: "Amazon",
+          ID: 6,
+          deviceName: "Kindle",
+          operator: "Jeff Bezos"
+        }
+    ]
+    )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {
+          score: "76",
+          login_time: "2005-09-03T00:00:00",
+          supplier: "OPPO",
+          ID: 2,
+          deviceName: "mobile phone",
+          operator: "bo.zhao"
+        }
+		{
+          score: "77",
+          login_time: "2005-09-03T00:00:00",
+          supplier: "OPPO",
+          ID: 3,
+          deviceName: "mobile phone",
+          operator: "bo.qian"
+        }
+		        {
+          score: "78",
+          login_time: "2005-09-03T00:00:00",
+          supplier: "OPPO",
+          ID: 4,
+          deviceName: "mobile phone",
+          operator: "bo.sun"
+        }
+		{
+          score: "79",
+          login_time: "2005-09-03T00:00:00",
+          ID: 5,
+          deviceName: "mobile phone",
+          operator: "bo.li"
+        }
+		{
+          score: "80",
+          login_time: "2007-11-19T01:00:00",
+          supplier: "Amazon",
+          ID: 6,
+          deviceName: "Kindle",
+          operator: "Jeff Bezos"
         }</t>
   </si>
   <si>
+    <t>good request,delete two+ lines, data retrieved</t>
+  </si>
+  <si>
+    <t>{
+          score: "76",
+          login_time: "2005-09-03T00:00:00",
+          supplier: "OPPO",
+          ID: 2,
+          deviceName: "mobile phone",
+          operator: "bo.zhao"
+        }
+		{
+          score: "77",
+          login_time: "2005-09-03T00:00:00",
+          supplier: "OPPO",
+          ID: 3,
+          deviceName: "mobile phone",
+          operator: "bo.qian"
+        }
+		        {
+          score: "78",
+          login_time: "2005-09-03T00:00:00",
+          supplier: "OPPO",
+          ID: 4,
+          deviceName: "mobile phone",
+          operator: "bo.sun"
+        }</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   Mysql_Test_Delete(input:
+	[
+	    {
+          ID: 1
+        }
+    ]
+    )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   Mysql_Test_Delete(input:
+	[
+	    {
+          ID: 1
+        }
+		{
+          ID: 5
+        }
+		{
+          ID: 6
+        }
+    ]
+    )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   Mysql_Test_Delete(input:
+	[
+	    {
+          ID: 9999
+        }
+    ]
+    )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+          score: "95",
+          login_time: "2021-01-01T00:00:00",
+          supplier: "cisco",
+          ID: 1,
+          deviceName: "switch",
+          operator: "lilei"
+        }
+        {
+          score: "76",
+          login_time: "2005-09-03T00:00:00",
+          supplier: "OPPO",
+          ID: 2,
+          deviceName: "mobile phone",
+          operator: "bo.zhao"
+        }
+		{
+          score: "77",
+          login_time: "2005-09-03T00:00:00",
+          supplier: "OPPO",
+          ID: 3,
+          deviceName: "mobile phone",
+          operator: "bo.qian"
+        }
+		        {
+          score: "78",
+          login_time: "2005-09-03T00:00:00",
+          supplier: "OPPO",
+          ID: 4,
+          deviceName: "mobile phone",
+          operator: "bo.sun"
+        }
+		{
+          score: "79",
+          login_time: "2005-09-03T00:00:00",
+          ID: 5,
+          deviceName: "mobile phone",
+          operator: "bo.li"
+        }
+		{
+          score: "80",
+          login_time: "2007-11-19T01:00:00",
+          supplier: "Amazon",
+          ID: 6,
+          deviceName: "Kindle",
+          operator: "Jeff Bezos"
+        }</t>
+  </si>
+  <si>
+    <t>good request,Delete By Condition(_eq),data retrieved</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   Mysql_Test_Delete_By_Condition(cond: "{ID: {_eq: 1}}")
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>good request,Update By Condition(_neq),data retrieved</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   Mysql_Test_Update_By_Condition(input:
+   [
+        {
+          score: "78",
+          login_time: "2021-01-01T00:00:00",
+          supplier: "neq",
+          deviceName: "neq",
+          operator: "neq"
+        }
+   ],
+   cond: "{ID: {_neq: 1}}"
+   )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>iot-mysql-delete-test-5</t>
+  </si>
+  <si>
+    <t>good request,Delete By Condition(_neq),data retrieved</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   Mysql_Test_Delete_By_Condition(cond: "{ID: {_neq: 1}}")
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  {
+          score: "95",
+          login_time: "2021-01-01T00:00:00",
+          supplier: "cisco",
+          ID: 1,
+          deviceName: "switch",
+          operator: "lilei"
+        }</t>
+  </si>
+  <si>
+    <t>iot-mysql-update-test-11</t>
+  </si>
+  <si>
+    <t>{
+          score: "95",
+          login_time: "2021-01-01T00:00:00",
+          supplier: "gt",
+          ID: 1,
+          deviceName: "gt",
+          operator: "gt"
+        }
+        {
+          score: "76",
+          login_time: "2005-09-03T00:00:00",
+          supplier: "OPPO",
+          ID: 2,
+          deviceName: "mobile phone",
+          operator: "bo.zhao"
+        }
+		{
+          score: "77",
+          login_time: "2005-09-03T00:00:00",
+          supplier: "OPPO",
+          ID: 3,
+          deviceName: "mobile phone",
+          operator: "bo.qian"
+        }
+		        {
+          score: "78",
+          login_time: "2005-09-03T00:00:00",
+          supplier: "OPPO",
+          ID: 4,
+          deviceName: "mobile phone",
+          operator: "bo.sun"
+        }
+		{
+          score: "79",
+          login_time: "2005-09-03T00:00:00",
+		  supplier: "gt",
+          ID: 5,
+          deviceName: "gt",
+          operator: "gt"
+        }
+		{
+          score: "80",
+          login_time: "2007-11-19T01:00:00",
+          supplier: "gt",
+          ID: 6,
+          deviceName: "gt",
+          operator: "gt"
+        }</t>
+  </si>
+  <si>
+    <t>iot-mysql-delete-test-6</t>
+  </si>
+  <si>
+    <t>good request,Update By Condition(_gt),data retrieved</t>
+  </si>
+  <si>
+    <t>good request,Delete By Condition(_gt),data retrieved</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   Mysql_Test_Delete_By_Condition(cond: "{score: {_gt: 78}}")
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>iot-mysql-update-test-12</t>
+  </si>
+  <si>
+    <t>{
+          score: "95",
+          login_time: "2021-01-01T00:00:00",
+          supplier: "cisco",
+          ID: 1,
+          deviceName: "switch",
+          operator: "lilei"
+        }
+        {
+          score: "76",
+          login_time: "2005-09-03T00:00:00",
+          supplier: "lt",
+          ID: 2,
+          deviceName: "lt",
+          operator: "lt"
+        }
+		{
+          score: "77",
+          login_time: "2005-09-03T00:00:00",
+          supplier: "lt",
+          ID: 3,
+          deviceName: "lt",
+          operator: "lt"
+        }
+		        {
+          score: "78",
+          login_time: "2005-09-03T00:00:00",
+          supplier: "OPPO",
+          ID: 4,
+          deviceName: "mobile phone",
+          operator: "bo.sun"
+        }
+		{
+          score: "79",
+          login_time: "2005-09-03T00:00:00",
+          ID: 5,
+          deviceName: "mobile phone",
+          operator: "bo.li"
+        }
+		{
+          score: "80",
+          login_time: "2007-11-19T01:00:00",
+          supplier: "Amazon",
+          ID: 6,
+          deviceName: "Kindle",
+          operator: "Jeff Bezos"
+        }</t>
+  </si>
+  <si>
+    <t>iot-mysql-delete-test-7</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   Mysql_Test_Delete_By_Condition(cond: "{score: {_lt: 78}}")
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>good request,Delete By Condition(_lt),data retrieved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        {
+          score: "76",
+          login_time: "2005-09-03T00:00:00",
+          supplier: "OPPO",
+          ID: 2,
+          deviceName: "mobile phone",
+          operator: "bo.zhao"
+        }
+		{
+          score: "77",
+          login_time: "2005-09-03T00:00:00",
+          supplier: "OPPO",
+          ID: 3,
+          deviceName: "mobile phone",
+          operator: "bo.qian"
+        }
+		        {
+          score: "78",
+          login_time: "2005-09-03T00:00:00",
+          supplier: "OPPO",
+          ID: 4,
+          deviceName: "mobile phone",
+          operator: "bo.sun"
+        }</t>
+  </si>
+  <si>
+    <t>{
+          score: "95",
+          login_time: "2021-01-01T00:00:00",
+          supplier: "cisco",
+          ID: 1,
+          deviceName: "switch",
+          operator: "lilei"
+        }
+		        {
+          score: "78",
+          login_time: "2005-09-03T00:00:00",
+          supplier: "OPPO",
+          ID: 4,
+          deviceName: "mobile phone",
+          operator: "bo.sun"
+        }
+		{
+          score: "79",
+          login_time: "2005-09-03T00:00:00",
+          ID: 5,
+          deviceName: "mobile phone",
+          operator: "bo.li"
+        }
+		{
+          score: "80",
+          login_time: "2007-11-19T01:00:00",
+          supplier: "Amazon",
+          ID: 6,
+          deviceName: "Kindle",
+          operator: "Jeff Bezos"
+        }</t>
+  </si>
+  <si>
+    <t>good request,Update By Condition(_lt),data retrieved</t>
+  </si>
+  <si>
+    <t>iot-mysql-update-test-13</t>
+  </si>
+  <si>
+    <t>good request,Update By Condition(_gte),data retrieved</t>
+  </si>
+  <si>
+    <t>{
+          score: "95",
+          login_time: "2021-01-01T00:00:00",
+          supplier: "gte",
+          ID: 1,
+          deviceName: "gte",
+          operator: "gte"
+        }
+        {
+          score: "76",
+          login_time: "2005-09-03T00:00:00",
+          supplier: "OPPO",
+          ID: 2,
+          deviceName: "mobile phone",
+          operator: "bo.zhao"
+        }
+		{
+          score: "77",
+          login_time: "2005-09-03T00:00:00",
+          supplier: "OPPO",
+          ID: 3,
+          deviceName: "mobile phone",
+          operator: "bo.qian"
+        }
+		        {
+          score: "78",
+          login_time: "2005-09-03T00:00:00",
+          supplier: "gte",
+          ID: 4,
+          deviceName: "gte",
+          operator: "gte"
+        }
+		{
+          score: "79",
+          login_time: "2005-09-03T00:00:00",
+		  supplier: "gte",
+          ID: 5,
+          deviceName: "gte",
+          operator: "gte"
+        }
+		{
+          score: "80",
+          login_time: "2007-11-19T01:00:00",
+          supplier: "gte",
+          ID: 6,
+          deviceName: "gte",
+          operator: "gte"
+        }</t>
+  </si>
+  <si>
+    <t>iot-mysql-delete-test-8</t>
+  </si>
+  <si>
+    <t>good request,Delete By Condition(_gte),data retrieved</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   Mysql_Test_Delete_By_Condition(cond: "{score: {_gte: 78}}")
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+          score: "95",
+          login_time: "2021-01-01T00:00:00",
+          supplier: "cisco",
+          ID: 1,
+          deviceName: "switch",
+          operator: "lilei"
+        }
+		{
+          score: "79",
+          login_time: "2005-09-03T00:00:00",
+          ID: 5,
+          deviceName: "mobile phone",
+          operator: "bo.li"
+        }
+		{
+          score: "80",
+          login_time: "2007-11-19T01:00:00",
+          supplier: "Amazon",
+          ID: 6,
+          deviceName: "Kindle",
+          operator: "Jeff Bezos"
+        }</t>
+  </si>
+  <si>
+    <t>iot-mysql-update-test-14</t>
+  </si>
+  <si>
+    <t>good request,Update By Condition(_lte),data retrieved</t>
+  </si>
+  <si>
+    <t>iot-mysql-delete-test-9</t>
+  </si>
+  <si>
+    <t>good request,Delete By Condition(_lte),data retrieved</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   Mysql_Test_Delete_By_Condition(cond: "{score: {_lte: 78}}")
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>iot-mysql-update-test-15</t>
+  </si>
+  <si>
+    <t>good request,Update By Condition(_in),data retrieved</t>
+  </si>
+  <si>
+    <t>iot-mysql-delete-test-10</t>
+  </si>
+  <si>
+    <t>good request,Delete By Condition(_in),data retrieved</t>
+  </si>
+  <si>
+    <t>{
+          score: "95",
+          login_time: "2021-01-01T00:00:00",
+          supplier: "in",
+          ID: 1,
+          deviceName: "switch",
+          operator: "in"
+        }
+        {
+          score: "76",
+          login_time: "2005-09-03T00:00:00",
+          supplier: "in",
+          ID: 2,
+          deviceName: "mobile phone",
+          operator: "in"
+        }
+		{
+          score: "77",
+          login_time: "2005-09-03T00:00:00",
+          supplier: "in",
+          ID: 3,
+          deviceName: "mobile phone",
+          operator: "in"
+        }
+		        {
+          score: "78",
+          login_time: "2005-09-03T00:00:00",
+          supplier: "in",
+          ID: 4,
+          deviceName: "mobile phone",
+          operator: "in"
+        }
+		{
+          score: "79",
+          login_time: "2005-09-03T00:00:00",
+		  supplier: "in",
+          ID: 5,
+          deviceName: "mobile phone",
+          operator: "in"
+        }
+		{
+          score: "80",
+          login_time: "2007-11-19T01:00:00",
+          supplier: "Amazon",
+          ID: 6,
+          deviceName: "Kindle",
+          operator: "Jeff Bezos"
+        }</t>
+  </si>
+  <si>
+    <t>{
+          score: "80",
+          login_time: "2007-11-19T01:00:00",
+          supplier: "Amazon",
+          ID: 6,
+          deviceName: "Kindle",
+          operator: "Jeff Bezos"
+        }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	    {
+          score: "95",
+          login_time: "2021-01-01T00:00:00",
+          supplier: "cisco",
+          ID: 1,
+          deviceName: "switch",
+          operator: "lilei"
+        }
+        {
+          score: "76",
+          login_time: "2005-09-03T00:00:00",
+          supplier: "lte",
+          ID: 2,
+          deviceName: "lte",
+          operator: "lte"
+        }
+		{
+          score: "77",
+          login_time: "2005-09-03T00:00:00",
+          supplier: "lte",
+          ID: 3,
+          deviceName: "lte",
+          operator: "lte"
+        }
+		        {
+          score: "78",
+          login_time: "2005-09-03T00:00:00",
+          supplier: "lte",
+          ID: 4,
+          deviceName: "lte",
+          operator: "lte"
+        }
+		{
+          score: "79",
+          login_time: "2005-09-03T00:00:00",
+          ID: 5,
+          deviceName: "mobile phone",
+          operator: "bo.li"
+        }
+		{
+          score: "80",
+          login_time: "2007-11-19T01:00:00",
+          supplier: "Amazon",
+          ID: 6,
+          deviceName: "Kindle",
+          operator: "Jeff Bezos"
+        }</t>
+  </si>
+  <si>
+    <t>iot-mysql-update-test-16</t>
+  </si>
+  <si>
+    <t>good request,Update By Condition(_nin),data retrieved</t>
+  </si>
+  <si>
+    <t>iot-mysql-delete-test-11</t>
+  </si>
+  <si>
+    <t>good request,Delete By Condition(_nin),data retrieved</t>
+  </si>
+  <si>
+    <t>{
+          score: "95",
+          login_time: "2021-01-01T00:00:00",
+          supplier: "cisco",
+          ID: 1,
+          deviceName: "switch",
+          operator: "lilei"
+        }
+        {
+          score: "76",
+          login_time: "2005-09-03T00:00:00",
+          supplier: "OPPO",
+          ID: 2,
+          deviceName: "mobile phone",
+          operator: "bo.zhao"
+        }
+		{
+          score: "77",
+          login_time: "2005-09-03T00:00:00",
+          supplier: "OPPO",
+          ID: 3,
+          deviceName: "mobile phone",
+          operator: "bo.qian"
+        }
+		        {
+          score: "78",
+          login_time: "2005-09-03T00:00:00",
+          supplier: "OPPO",
+          ID: 4,
+          deviceName: "mobile phone",
+          operator: "bo.sun"
+        }
+		{
+          score: "79",
+          login_time: "2005-09-03T00:00:00",
+          ID: 5,
+          deviceName: "mobile phone",
+          operator: "bo.li"
+        }</t>
+  </si>
+  <si>
+    <t>iot-mysql-update-test-17</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   Mysql_Test_Update_By_Condition(input:
+   [
+        {
+          supplier: "like",
+          deviceName: "like",
+        }
+   ],
+   cond: "{operator: {_like: \"%bo%\"}}"
+   )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+          score: "95",
+          login_time: "2021-01-01T00:00:00",
+          supplier: "cisco",
+          ID: 1,
+          deviceName: "switch",
+          operator: "lilei"
+        }
+        {
+          score: "76",
+          login_time: "2005-09-03T00:00:00",
+          supplier: "like",
+          ID: 2,
+          deviceName: "like",
+          operator: "bo.zhao"
+        }
+		{
+          score: "77",
+          login_time: "2005-09-03T00:00:00",
+          supplier: "like",
+          ID: 3,
+          deviceName: "like",
+          operator: "bo.qian"
+        }
+		        {
+          score: "78",
+          login_time: "2005-09-03T00:00:00",
+          supplier: "like",
+          ID: 4,
+          deviceName: "like",
+          operator: "bo.sun"
+        }
+		{
+          score: "79",
+          login_time: "2005-09-03T00:00:00",
+		  supplier: "like",
+          ID: 5,
+          deviceName: "like",
+          operator: "bo.li"
+        }
+		{
+          score: "80",
+          login_time: "2007-11-19T01:00:00",
+          supplier: "Amazon",
+          ID: 6,
+          deviceName: "Kindle",
+          operator: "Jeff Bezos"
+        }</t>
+  </si>
+  <si>
+    <t>iot-mysql-delete-test-12</t>
+  </si>
+  <si>
+    <t>good request,Delete By Condition(_like),data retrieved</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   Mysql_Test_Delete_By_Condition(cond: "{operator: {_like: \"%bo%\"}}")
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+          score: "95",
+          login_time: "2021-01-01T00:00:00",
+          supplier: "cisco",
+          ID: 1,
+          deviceName: "switch",
+          operator: "lilei"
+        }
+		{
+          score: "80",
+          login_time: "2007-11-19T01:00:00",
+          supplier: "Amazon",
+          ID: 6,
+          deviceName: "Kindle",
+          operator: "Jeff Bezos"
+        }</t>
+  </si>
+  <si>
+    <t>iot-mysql-update-test-18</t>
+  </si>
+  <si>
+    <t>good request,Update By Condition(_is_null),data retrieved</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   Mysql_Test_Update_By_Condition(input:
+   [
+        {
+          supplier: "NULL",
+        }
+   ],
+   cond: "{supplier: {_is_null:true}}"
+   )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+          score: "95",
+          login_time: "2021-01-01T00:00:00",
+          supplier: "cisco",
+          ID: 1,
+          deviceName: "switch",
+          operator: "lilei"
+        }
+        {
+          score: "76",
+          login_time: "2005-09-03T00:00:00",
+          supplier: "OPPO",
+          ID: 2,
+          deviceName: "mobile phone",
+          operator: "bo.zhao"
+        }
+		{
+          score: "77",
+          login_time: "2005-09-03T00:00:00",
+          supplier: "OPPO",
+          ID: 3,
+          deviceName: "mobile phone",
+          operator: "bo.qian"
+        }
+		        {
+          score: "78",
+          login_time: "2005-09-03T00:00:00",
+          supplier: "OPPO",
+          ID: 4,
+          deviceName: "mobile phone",
+          operator: "bo.sun"
+        }
+		{
+          score: "79",
+          login_time: "2005-09-03T00:00:00",
+		  supplier: "NULL",
+          ID: 5,
+          deviceName: "mobile phone",
+          operator: "bo.li"
+        }
+		{
+          score: "80",
+          login_time: "2007-11-19T01:00:00",
+          supplier: "Amazon",
+          ID: 6,
+          deviceName: "Kindle",
+          operator: "Jeff Bezos"
+        }</t>
+  </si>
+  <si>
+    <t>iot-mysql-delete-test-13</t>
+  </si>
+  <si>
+    <t>good request,Delete By Condition(_is_null),data retrieved</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   Mysql_Test_Delete_By_Condition(cond: "{supplier: {_is_null: true}}")
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+          score: "95",
+          login_time: "2021-01-01T00:00:00",
+          supplier: "cisco",
+          ID: 1,
+          deviceName: "switch",
+          operator: "lilei"
+        }
+        {
+          score: "76",
+          login_time: "2005-09-03T00:00:00",
+          supplier: "OPPO",
+          ID: 2,
+          deviceName: "mobile phone",
+          operator: "bo.zhao"
+        }
+		{
+          score: "77",
+          login_time: "2005-09-03T00:00:00",
+          supplier: "OPPO",
+          ID: 3,
+          deviceName: "mobile phone",
+          operator: "bo.qian"
+        }
+		        {
+          score: "78",
+          login_time: "2005-09-03T00:00:00",
+          supplier: "OPPO",
+          ID: 4,
+          deviceName: "mobile phone",
+          operator: "bo.sun"
+        }
+		{
+          score: "80",
+          login_time: "2007-11-19T01:00:00",
+          supplier: "Amazon",
+          ID: 6,
+          deviceName: "Kindle",
+          operator: "Jeff Bezos"
+        }</t>
+  </si>
+  <si>
+    <t>iot-mysql-update-test-19</t>
+  </si>
+  <si>
+    <t>iot-mysql-update-test-20</t>
+  </si>
+  <si>
+    <t>good request,Update By Condition(_and),data retrieved</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   Mysql_Test_Update_By_Condition(input:
+   [
+        {
+          supplier: "AND",
+        }
+   ],
+   cond: "{_and:[{supplier: {_is_null: true}},{operator: {_like: \"%bo%\"}}]}"
+   )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+          score: "95",
+          login_time: "2021-01-01T00:00:00",
+          supplier: "cisco",
+          ID: 1,
+          deviceName: "switch",
+          operator: "lilei"
+        }
+        {
+          score: "76",
+          login_time: "2005-09-03T00:00:00",
+          supplier: "OPPO",
+          ID: 2,
+          deviceName: "mobile phone",
+          operator: "bo.zhao"
+        }
+		{
+          score: "77",
+          login_time: "2005-09-03T00:00:00",
+          supplier: "OPPO",
+          ID: 3,
+          deviceName: "mobile phone",
+          operator: "bo.qian"
+        }
+		        {
+          score: "78",
+          login_time: "2005-09-03T00:00:00",
+          supplier: "OPPO",
+          ID: 4,
+          deviceName: "mobile phone",
+          operator: "bo.sun"
+        }
+		{
+          score: "79",
+          login_time: "2005-09-03T00:00:00",
+		  supplier: "AND",
+          ID: 5,
+          deviceName: "mobile phone",
+          operator: "bo.li"
+        }
+		{
+          score: "80",
+          login_time: "2007-11-19T01:00:00",
+          supplier: "Amazon",
+          ID: 6,
+          deviceName: "Kindle",
+          operator: "Jeff Bezos"
+        }</t>
+  </si>
+  <si>
+    <t>iot-mysql-delete-test-14</t>
+  </si>
+  <si>
+    <t>iot-mysql-delete-test-15</t>
+  </si>
+  <si>
+    <t>good request,Delete By Condition(_and),data retrieved</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   Mysql_Test_Delete_By_Condition(cond: "{_and:[{supplier: {_is_null: false}},{operator: {_like: \"%bo%\"}}]}")
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>good request,Update By Condition(_or),data retrieved</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   Mysql_Test_Update_By_Condition(input:
+   [
+        {
+          supplier: "OR",
+        }
+   ],
+   cond: "{_or:[{supplier: {_is_null: true}},{operator: {_like: \"%bo%\"}}]}"
+   )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+          score: "95",
+          login_time: "2021-01-01T00:00:00",
+          supplier: "cisco",
+          ID: 1,
+          deviceName: "switch",
+          operator: "lilei"
+        }
+        {
+          score: "76",
+          login_time: "2005-09-03T00:00:00",
+          supplier: "OR",
+          ID: 2,
+          deviceName: "mobile phone",
+          operator: "bo.zhao"
+        }
+		{
+          score: "77",
+          login_time: "2005-09-03T00:00:00",
+          supplier: "OR",
+          ID: 3,
+          deviceName: "mobile phone",
+          operator: "bo.qian"
+        }
+		        {
+          score: "78",
+          login_time: "2005-09-03T00:00:00",
+          supplier: "OR",
+          ID: 4,
+          deviceName: "mobile phone",
+          operator: "bo.sun"
+        }
+		{
+          score: "79",
+          login_time: "2005-09-03T00:00:00",
+		  supplier: "OR",
+          ID: 5,
+          deviceName: "mobile phone",
+          operator: "bo.li"
+        }
+		{
+          score: "80",
+          login_time: "2007-11-19T01:00:00",
+          supplier: "Amazon",
+          ID: 6,
+          deviceName: "Kindle",
+          operator: "Jeff Bezos"
+        }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        {
+          score: "76",
+          login_time: "2005-09-03T00:00:00",
+          supplier: "OPPO",
+          ID: 2,
+          deviceName: "mobile phone",
+          operator: "bo.zhao"
+        }
+		{
+          score: "77",
+          login_time: "2005-09-03T00:00:00",
+          supplier: "OPPO",
+          ID: 3,
+          deviceName: "mobile phone",
+          operator: "bo.qian"
+        }</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   Mysql_Test_Delete_By_Condition(cond: "{deviceName: {_in: [\"mobile phone\",\"switch\"]}}")
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   Mysql_Test_Delete_By_Condition(cond: "{deviceName: {_nin: [\"mobile phone\",\"switch\"]}}")
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   Mysql_Test_Update_By_Condition(input:
+   [
+        {
+          supplier: "gt",
+          deviceName: "gt",
+          operator: "gt"
+        }
+   ],
+   cond: "{score: {_gt: 78}}"
+   )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   Mysql_Test_Update_By_Condition(input:
+   [
+        {          supplier: "lt",
+          deviceName: "lt",
+          operator: "lt"
+        }
+   ],
+   cond: "{score: {_lt: 78}}"
+   )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   Mysql_Test_Update_By_Condition(input:
+   [
+        {
+          supplier: "gte",
+          deviceName: "gte",
+          operator: "gte"
+        }
+   ],
+   cond: "{score: {_gte: 78}}"
+   )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   Mysql_Test_Update_By_Condition(input:
+   [
+        {
+          supplier: "lte",
+          deviceName: "lte",
+          operator: "lte"
+        }
+   ],
+   cond: "{score: {_lte: 78}}"
+   )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   Mysql_Test_Update_By_Condition(input:
+   [
+        {
+          supplier: "in",
+          operator: "in"
+        }
+   ],
+   cond: "{deviceName: {_in: [\"mobile phone\",\"switch\"]}}"
+   )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+          score: "95",
+          login_time: "2021-01-01T00:00:00",
+          supplier: "cisco",
+          ID: 1,
+          deviceName: "switch",
+          operator: "lilei"
+        }
+        {
+          score: "76",
+          login_time: "2005-09-03T00:00:00",
+          supplier: "OPPO",
+          ID: 2,
+          deviceName: "mobile phone",
+          operator: "bo.zhao"
+        }
+		{
+          score: "77",
+          login_time: "2005-09-03T00:00:00",
+          supplier: "OPPO",
+          ID: 3,
+          deviceName: "mobile phone",
+          operator: "bo.qian"
+        }
+		        {
+          score: "78",
+          login_time: "2005-09-03T00:00:00",
+          supplier: "OPPO",
+          ID: 4,
+          deviceName: "mobile phone",
+          operator: "bo.sun"
+        }
+		{
+          score: "79",
+          login_time: "2005-09-03T00:00:00",
+          ID: 5,
+          deviceName: "mobile phone",
+          operator: "bo.li"
+        }
+		{
+          score: "80",
+          login_time: "2007-11-19T01:00:00",
+          supplier: "nin",
+          ID: 6,
+          deviceName: "Kindle",
+          operator: "nin"
+        }</t>
+  </si>
+  <si>
+    <t>good request,Update By Condition(_like),data retrieved</t>
+  </si>
+  <si>
+    <t>good request,Delete By Condition(_or),data retrieved</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   Mysql_Test_Update_By_Condition(input:
+   [
+        {
+          score: "96",
+          login_time: "2021-02-01T01:01:01",
+          supplier: "cisco_eq",
+          deviceName: "switch_eq",
+          operator: "lilei_eq"
+        }
+   ],
+   cond: "{ID: {_eq: 1}}"
+   )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+          score: "95",
+          login_time: "2021-01-01T00:00:00",
+          supplier: "cisco",
+          ID: 1,
+          deviceName: "switch",
+          operator: "lilei"
+        }
+        {
+          score: "78",
+          login_time: "2021-01-01T00:00:00",
+          supplier: "neq",
+		  ID: 2,
+          deviceName: "neq",
+          operator: "neq"
+        }
+		{
+          score: "78",
+          login_time: "2021-01-01T00:00:00",
+          supplier: "neq",
+		  ID: 3,
+          deviceName: "neq",
+          operator: "neq"
+        }
+		        {
+          score: "78",
+          login_time: "2021-01-01T00:00:00",
+          supplier: "neq",
+		  ID: 4,
+          deviceName: "neq",
+          operator: "neq"
+        }
+		{
+          score: "78",
+          login_time: "2021-01-01T00:00:00",
+          supplier: "neq",
+		  ID: 5,
+          deviceName: "neq",
+          operator: "neq"
+        }
+		{
+          score: "78",
+          login_time: "2021-01-01T00:00:00",
+          supplier: "neq",
+		  ID: 6,
+          deviceName: "neq",
+          operator: "neq"
+        }</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   Mysql_Test_Update_By_Condition(input:
+   [
+        {
+          supplier: "nin",
+          operator: "nin"
+        }
+   ],
+   cond: "{deviceName: {_nin: [\"mobile phone\",\"switch\"]}}"
+   )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   Mysql_Test_Delete_By_Condition(cond: "{_or:[{supplier: {_is_null: false}},{operator: {_like: \"%bo%\"}}]}")
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
     <t xml:space="preserve"> {
-          ID:9999
+          score: "96",
+          login_time: "2021-02-01T01:01:01",
+          supplier: "cisco_eq",
+          ID: 1,
+          deviceName: "switch_eq",
+          operator: "lilei_eq"
+        }
+{
+          score: "76",
+          login_time: "2005-09-03T00:00:00",
+          supplier: "OPPO",
+          ID: 2,
+          deviceName: "mobile phone",
+          operator: "bo.zhao"
+        }
+		{
+          score: "77",
+          login_time: "2005-09-03T00:00:00",
+          supplier: "OPPO",
+          ID: 3,
+          deviceName: "mobile phone",
+          operator: "bo.qian"
+        }
+		        {
+          score: "78",
+          login_time: "2005-09-03T00:00:00",
+          supplier: "OPPO",
+          ID: 4,
+          deviceName: "mobile phone",
+          operator: "bo.sun"
+        }
+		{
+          score: "79",
+          login_time: "2005-09-03T00:00:00",
+          ID: 5,
+          deviceName: "mobile phone",
+          operator: "bo.li"
+        }
+		{
+          score: "80",
+          login_time: "2007-11-19T01:00:00",
+          supplier: "Amazon",
+          ID: 6,
+          deviceName: "Kindle",
+          operator: "Jeff Bezos"
         }</t>
-  </si>
-  <si>
-    <t>good request,insert one line, data retrieved</t>
-  </si>
-  <si>
-    <t>good request,update one line, data retrieved</t>
-  </si>
-  <si>
-    <t>good request,delete one line, data retrieved</t>
-  </si>
-  <si>
-    <t>good request,insert two line, data retrieved</t>
-  </si>
-  <si>
-    <t>good request,update two lines, data retrieved</t>
-  </si>
-  <si>
-    <t>good request,delete two lines, data retrieved</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -633,8 +2430,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -644,6 +2454,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -675,7 +2491,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -692,16 +2508,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1252,7 +3074,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE22B0A1-EDF6-487D-8C5B-FE5F049504FE}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
@@ -1552,661 +3374,1579 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AD2DA60-2891-40A3-9E9E-22AB62A6E85D}">
-  <dimension ref="A1:K19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{233D398F-A510-45E2-94C1-EA62EAF2A2C6}">
+  <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.44140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.21875" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="10"/>
+    <col min="1" max="1" width="20.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="38.21875" style="9" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.21875" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="E1" s="9" t="s">
+      <c r="G1" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F2" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="F1" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="9" t="s">
+      <c r="G2" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="H2" s="11">
+        <v>200</v>
+      </c>
+      <c r="I2" s="11">
+        <v>100000</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="12">
+        <v>0</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="H3" s="11">
+        <v>200</v>
+      </c>
+      <c r="I3" s="11">
+        <v>100000</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="12">
+        <v>0</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11">
+        <v>200</v>
+      </c>
+      <c r="I4" s="11">
+        <v>100000</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="11">
+        <v>1</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11">
+        <v>200</v>
+      </c>
+      <c r="I5" s="11">
+        <v>101301</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+    </row>
+    <row r="6" spans="1:12" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11">
+        <v>200</v>
+      </c>
+      <c r="I6" s="11">
+        <v>101301</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+    </row>
+    <row r="7" spans="1:12" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11">
+        <v>200</v>
+      </c>
+      <c r="I7" s="11">
+        <v>101301</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+    </row>
+    <row r="8" spans="1:12" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11">
+        <v>200</v>
+      </c>
+      <c r="I8" s="11">
+        <v>101301</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+    </row>
+    <row r="9" spans="1:12" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F9" s="11" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="C2" s="7" t="s">
+      <c r="G9" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="H9" s="11">
+        <v>200</v>
+      </c>
+      <c r="I9" s="11">
+        <v>100000</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" s="11">
+        <v>0</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="E10" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="F10" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="H10" s="11">
+        <v>200</v>
+      </c>
+      <c r="I10" s="11">
+        <v>100000</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K10" s="11">
+        <v>0</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11">
+        <v>200</v>
+      </c>
+      <c r="I11" s="11">
+        <v>101303</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+    </row>
+    <row r="12" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11">
+        <v>200</v>
+      </c>
+      <c r="I12" s="11">
+        <v>101301</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+    </row>
+    <row r="13" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11">
+        <v>200</v>
+      </c>
+      <c r="I13" s="11">
+        <v>101301</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+    </row>
+    <row r="14" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11">
+        <v>200</v>
+      </c>
+      <c r="I14" s="11">
+        <v>101301</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+    </row>
+    <row r="15" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11">
+        <v>200</v>
+      </c>
+      <c r="I15" s="11">
+        <v>101301</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+    </row>
+    <row r="16" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11">
+        <v>200</v>
+      </c>
+      <c r="I16" s="11">
+        <v>100000</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K16" s="11">
+        <v>0</v>
+      </c>
+      <c r="L16" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" s="10" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="H17" s="11">
+        <v>200</v>
+      </c>
+      <c r="I17" s="11">
+        <v>100000</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K17" s="11">
+        <v>0</v>
+      </c>
+      <c r="L17" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="H18" s="11">
+        <v>200</v>
+      </c>
+      <c r="I18" s="11">
+        <v>100000</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K18" s="11">
+        <v>0</v>
+      </c>
+      <c r="L18" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="H19" s="11">
+        <v>200</v>
+      </c>
+      <c r="I19" s="11">
+        <v>100000</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K19" s="11">
+        <v>0</v>
+      </c>
+      <c r="L19" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="H20" s="11">
+        <v>200</v>
+      </c>
+      <c r="I20" s="11">
+        <v>100000</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K20" s="11">
+        <v>0</v>
+      </c>
+      <c r="L20" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="H21" s="11">
+        <v>200</v>
+      </c>
+      <c r="I21" s="11">
+        <v>100000</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K21" s="11">
+        <v>0</v>
+      </c>
+      <c r="L21" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="H22" s="11">
+        <v>200</v>
+      </c>
+      <c r="I22" s="11">
+        <v>100000</v>
+      </c>
+      <c r="J22" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K22" s="11">
+        <v>0</v>
+      </c>
+      <c r="L22" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="H23" s="11">
+        <v>200</v>
+      </c>
+      <c r="I23" s="11">
+        <v>100000</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K23" s="11">
+        <v>0</v>
+      </c>
+      <c r="L23" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="H24" s="11">
+        <v>200</v>
+      </c>
+      <c r="I24" s="11">
+        <v>100000</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K24" s="11">
+        <v>0</v>
+      </c>
+      <c r="L24" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="H25" s="11">
+        <v>200</v>
+      </c>
+      <c r="I25" s="11">
+        <v>100000</v>
+      </c>
+      <c r="J25" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K25" s="11">
+        <v>0</v>
+      </c>
+      <c r="L25" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="H26" s="11">
+        <v>200</v>
+      </c>
+      <c r="I26" s="11">
+        <v>100000</v>
+      </c>
+      <c r="J26" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K26" s="11">
+        <v>0</v>
+      </c>
+      <c r="L26" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="H27" s="11">
+        <v>200</v>
+      </c>
+      <c r="I27" s="11">
+        <v>100000</v>
+      </c>
+      <c r="J27" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K27" s="11">
+        <v>0</v>
+      </c>
+      <c r="L27" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="H28" s="11">
+        <v>200</v>
+      </c>
+      <c r="I28" s="11">
+        <v>100000</v>
+      </c>
+      <c r="J28" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K28" s="11">
+        <v>0</v>
+      </c>
+      <c r="L28" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="H29" s="11">
+        <v>200</v>
+      </c>
+      <c r="I29" s="11">
+        <v>100000</v>
+      </c>
+      <c r="J29" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K29" s="11">
+        <v>0</v>
+      </c>
+      <c r="L29" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="H30" s="11">
+        <v>200</v>
+      </c>
+      <c r="I30" s="11">
+        <v>100000</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K30" s="11">
+        <v>0</v>
+      </c>
+      <c r="L30" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B31" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F2" s="7" t="s">
+      <c r="C31" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="H31" s="11">
+        <v>200</v>
+      </c>
+      <c r="I31" s="11">
+        <v>100000</v>
+      </c>
+      <c r="J31" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K31" s="11">
+        <v>0</v>
+      </c>
+      <c r="L31" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="G2" s="7">
-        <v>200</v>
-      </c>
-      <c r="H2" s="7">
+    </row>
+    <row r="32" spans="1:12" s="10" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="H32" s="11">
+        <v>200</v>
+      </c>
+      <c r="I32" s="11">
         <v>100000</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="J32" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="11">
+      <c r="K32" s="11">
         <v>0</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="L32" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" s="10" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F33" s="11" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="G3" s="7">
-        <v>200</v>
-      </c>
-      <c r="H3" s="7">
+      <c r="G33" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="H33" s="11">
+        <v>200</v>
+      </c>
+      <c r="I33" s="11">
         <v>100000</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="J33" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="11">
+      <c r="K33" s="11">
         <v>0</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="L33" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" s="10" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F34" s="11" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G4" s="7">
-        <v>200</v>
-      </c>
-      <c r="H4" s="7">
+      <c r="G34" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="H34" s="11">
+        <v>200</v>
+      </c>
+      <c r="I34" s="11">
         <v>100000</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="J34" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="11">
+      <c r="K34" s="11">
         <v>0</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="L34" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" s="10" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F35" s="11" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="220.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F5" s="7" t="s">
+      <c r="G35" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="H35" s="11">
+        <v>200</v>
+      </c>
+      <c r="I35" s="11">
+        <v>100000</v>
+      </c>
+      <c r="J35" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K35" s="11">
+        <v>0</v>
+      </c>
+      <c r="L35" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="G5" s="7">
-        <v>200</v>
-      </c>
-      <c r="H5" s="7">
+    </row>
+    <row r="36" spans="1:12" s="10" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="H36" s="11">
+        <v>200</v>
+      </c>
+      <c r="I36" s="11">
         <v>100000</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="J36" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="11">
+      <c r="K36" s="11">
         <v>0</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="L36" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" s="10" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F37" s="11" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="220.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="G6" s="7">
-        <v>200</v>
-      </c>
-      <c r="H6" s="7">
+      <c r="G37" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="H37" s="11">
+        <v>200</v>
+      </c>
+      <c r="I37" s="11">
         <v>100000</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="J37" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="11">
+      <c r="K37" s="11">
         <v>0</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="L37" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" s="10" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F38" s="11" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" ht="84.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G7" s="7">
-        <v>200</v>
-      </c>
-      <c r="H7" s="7">
+      <c r="G38" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="H38" s="11">
+        <v>200</v>
+      </c>
+      <c r="I38" s="11">
         <v>100000</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="J38" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="11">
+      <c r="K38" s="11">
         <v>0</v>
       </c>
-      <c r="K7" s="8" t="s">
+      <c r="L38" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" s="10" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F39" s="11" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F8" s="7" t="s">
+      <c r="G39" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="H39" s="11">
+        <v>200</v>
+      </c>
+      <c r="I39" s="11">
+        <v>100000</v>
+      </c>
+      <c r="J39" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K39" s="11">
+        <v>0</v>
+      </c>
+      <c r="L39" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="G8" s="7">
-        <v>200</v>
-      </c>
-      <c r="H8" s="7">
+    </row>
+    <row r="40" spans="1:12" s="10" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="H40" s="11">
+        <v>200</v>
+      </c>
+      <c r="I40" s="11">
         <v>100000</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="J40" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="7">
-        <v>1</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F9" s="7" t="s">
+      <c r="K40" s="11">
+        <v>0</v>
+      </c>
+      <c r="L40" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="G9" s="7">
-        <v>200</v>
-      </c>
-      <c r="H9" s="7">
-        <v>101301</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-    </row>
-    <row r="10" spans="1:11" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F10" s="7" t="s">
+    </row>
+    <row r="41" spans="1:12" s="10" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="G41" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="H41" s="11">
+        <v>200</v>
+      </c>
+      <c r="I41" s="11">
+        <v>100000</v>
+      </c>
+      <c r="J41" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K41" s="11">
+        <v>0</v>
+      </c>
+      <c r="L41" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="G10" s="7">
-        <v>200</v>
-      </c>
-      <c r="H10" s="7">
-        <v>101301</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-    </row>
-    <row r="11" spans="1:11" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F11" s="7" t="s">
+    </row>
+    <row r="42" spans="1:12" s="10" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="G42" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="H42" s="11">
+        <v>200</v>
+      </c>
+      <c r="I42" s="11">
+        <v>100000</v>
+      </c>
+      <c r="J42" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K42" s="11">
+        <v>0</v>
+      </c>
+      <c r="L42" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="G11" s="7">
-        <v>200</v>
-      </c>
-      <c r="H11" s="7">
-        <v>101301</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-    </row>
-    <row r="12" spans="1:11" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F12" s="7" t="s">
+    </row>
+    <row r="43" spans="1:12" s="10" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11">
+        <v>200</v>
+      </c>
+      <c r="I43" s="11">
+        <v>100000</v>
+      </c>
+      <c r="J43" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K43" s="11">
+        <v>0</v>
+      </c>
+      <c r="L43" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="G12" s="7">
-        <v>200</v>
-      </c>
-      <c r="H12" s="7">
-        <v>101301</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-    </row>
-    <row r="13" spans="1:11" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="G13" s="7">
-        <v>200</v>
-      </c>
-      <c r="H13" s="7">
-        <v>100000</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="J13" s="7">
-        <v>101303</v>
-      </c>
-      <c r="K13" s="7"/>
-    </row>
-    <row r="14" spans="1:11" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="G14" s="7">
-        <v>200</v>
-      </c>
-      <c r="H14" s="7">
-        <v>101301</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-    </row>
-    <row r="15" spans="1:11" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="G15" s="7">
-        <v>200</v>
-      </c>
-      <c r="H15" s="7">
-        <v>101301</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-    </row>
-    <row r="16" spans="1:11" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="G16" s="7">
-        <v>200</v>
-      </c>
-      <c r="H16" s="7">
-        <v>101301</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="J16" s="7"/>
-      <c r="K16" s="8"/>
-    </row>
-    <row r="17" spans="1:11" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="G17" s="7">
-        <v>200</v>
-      </c>
-      <c r="H17" s="7">
-        <v>101301</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-    </row>
-    <row r="18" spans="1:11" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="G18" s="7">
-        <v>200</v>
-      </c>
-      <c r="H18" s="7">
-        <v>100000</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="J18" s="11">
-        <v>0</v>
-      </c>
-      <c r="K18" s="8" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G19" s="7">
-        <v>200</v>
-      </c>
-      <c r="H19" s="7">
-        <v>100000</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="J19" s="11">
-        <v>0</v>
-      </c>
-      <c r="K19" s="8" t="s">
-        <v>107</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/src/main/resources/test-data-xls/iot-api-engine-test-data.xlsx
+++ b/src/main/resources/test-data-xls/iot-api-engine-test-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\data-layer-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B602BA0E-C14B-46EA-87D5-421C02ADB7CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{209DCF32-94F0-4D61-B88A-E21031E32651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3377,8 +3377,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{233D398F-A510-45E2-94C1-EA62EAF2A2C6}">
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>

--- a/src/main/resources/test-data-xls/iot-api-engine-test-data.xlsx
+++ b/src/main/resources/test-data-xls/iot-api-engine-test-data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\data-layer-automation\src\main\resources\test-data-xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\auto_worksapce\feature-with-comment\data-layer-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{209DCF32-94F0-4D61-B88A-E21031E32651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8834F3-BB5B-4290-A3B9-3E5D9D8E5E61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="getDataEntities" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="250">
   <si>
     <t>description</t>
   </si>
@@ -135,9 +135,6 @@
   </si>
   <si>
     <t>[SensorData][type,Siid][{Siid: {_nin: [5040, 5045, 34155]}}][][]</t>
-  </si>
-  <si>
-    <t>{Plant {address id latitude longitude name plant_owner}}</t>
   </si>
   <si>
     <t>{Plan12321t {address id latitude longitude name plant_owner}}</t>
@@ -2404,6 +2401,50 @@
           operator: "Jeff Bezos"
         }</t>
   </si>
+  <si>
+    <t>iot-api-engine-graphql-test-12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>good request, data retrieved</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Successfully</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回数据条数即records，条数小于metadata里限定的100000条，可以正常得到数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>iot-api-engine-graphql-test-13</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bad request</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{Plant {address id latitude longitude name plant_owner}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{SINAMICS_300_Log {update_time}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>exception: The number of reply records is greater than the max records</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回数据条数即records，条数大于metadata里限定的100001条，抛出异常</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{SINAMICS_300_Log(cond:"{Abs_actual_current_smoothed: {_gt: 199.999}}")  {update_time}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -2413,33 +2454,33 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2813,7 +2854,7 @@
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="30.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" style="1"/>
@@ -2821,7 +2862,7 @@
     <col min="5" max="16384" width="12.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -2847,7 +2888,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -2871,7 +2912,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
@@ -2895,7 +2936,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -2919,7 +2960,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
@@ -2943,7 +2984,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
@@ -2967,7 +3008,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>19</v>
       </c>
@@ -2991,7 +3032,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>20</v>
       </c>
@@ -3015,7 +3056,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>21</v>
       </c>
@@ -3039,7 +3080,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>23</v>
       </c>
@@ -3072,25 +3113,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE22B0A1-EDF6-487D-8C5B-FE5F049504FE}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.88671875" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="71.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="78.21875" style="5" customWidth="1"/>
     <col min="4" max="4" width="8.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5546875" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="47.21875" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="70.109375" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -3110,18 +3151,18 @@
         <v>4</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>33</v>
+        <v>245</v>
       </c>
       <c r="D2" s="6">
         <v>200</v>
@@ -3133,18 +3174,18 @@
         <v>10</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D3" s="6">
         <v>200</v>
@@ -3153,21 +3194,21 @@
         <v>101301</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D4" s="6">
         <v>200</v>
@@ -3179,18 +3220,18 @@
         <v>10</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D5" s="6">
         <v>200</v>
@@ -3202,18 +3243,18 @@
         <v>10</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D6" s="6">
         <v>200</v>
@@ -3225,18 +3266,18 @@
         <v>29</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D7" s="6">
         <v>200</v>
@@ -3248,18 +3289,18 @@
         <v>10</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D8" s="6">
         <v>200</v>
@@ -3271,18 +3312,18 @@
         <v>10</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D9" s="6">
         <v>200</v>
@@ -3291,21 +3332,21 @@
         <v>101301</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D10" s="6">
         <v>200</v>
@@ -3314,21 +3355,21 @@
         <v>101403</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D11" s="6">
         <v>200</v>
@@ -3340,18 +3381,18 @@
         <v>10</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>1</v>
+        <v>240</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D12" s="6">
         <v>200</v>
@@ -3360,10 +3401,56 @@
         <v>100000</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>10</v>
+        <v>241</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="D13" s="5">
+        <v>200</v>
+      </c>
+      <c r="E13" s="5">
+        <v>100000</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="D14" s="5">
+        <v>200</v>
+      </c>
+      <c r="E14" s="5">
+        <v>101403</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -3377,11 +3464,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{233D398F-A510-45E2-94C1-EA62EAF2A2C6}">
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.6640625" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.6640625" style="9" bestFit="1" customWidth="1"/>
@@ -3397,7 +3484,7 @@
     <col min="13" max="16384" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>2</v>
       </c>
@@ -3405,19 +3492,19 @@
         <v>0</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E1" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="F1" s="8" t="s">
-        <v>99</v>
-      </c>
       <c r="G1" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H1" s="8" t="s">
         <v>3</v>
@@ -3429,31 +3516,31 @@
         <v>4</v>
       </c>
       <c r="K1" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="L1" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="L1" s="8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:12" ht="112.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E2" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F2" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="F2" s="11" t="s">
-        <v>101</v>
-      </c>
       <c r="G2" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H2" s="11">
         <v>200</v>
@@ -3468,28 +3555,28 @@
         <v>0</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="112.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E3" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F3" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="F3" s="11" t="s">
-        <v>101</v>
-      </c>
       <c r="G3" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H3" s="11">
         <v>200</v>
@@ -3504,25 +3591,25 @@
         <v>0</v>
       </c>
       <c r="L3" s="13" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="112.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E4" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F4" s="11" t="s">
         <v>100</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>101</v>
       </c>
       <c r="G4" s="11"/>
       <c r="H4" s="11">
@@ -3538,25 +3625,25 @@
         <v>1</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="112.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E5" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F5" s="11" t="s">
         <v>100</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>101</v>
       </c>
       <c r="G5" s="11"/>
       <c r="H5" s="11">
@@ -3566,27 +3653,27 @@
         <v>101301</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
     </row>
-    <row r="6" spans="1:12" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="112.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E6" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F6" s="11" t="s">
         <v>100</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>101</v>
       </c>
       <c r="G6" s="11"/>
       <c r="H6" s="11">
@@ -3596,27 +3683,27 @@
         <v>101301</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K6" s="11"/>
       <c r="L6" s="11"/>
     </row>
-    <row r="7" spans="1:12" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="112.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E7" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F7" s="11" t="s">
         <v>100</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>101</v>
       </c>
       <c r="G7" s="11"/>
       <c r="H7" s="11">
@@ -3626,27 +3713,27 @@
         <v>101301</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
     </row>
-    <row r="8" spans="1:12" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="112.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E8" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F8" s="11" t="s">
         <v>100</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>101</v>
       </c>
       <c r="G8" s="11"/>
       <c r="H8" s="11">
@@ -3656,32 +3743,32 @@
         <v>101301</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K8" s="11"/>
       <c r="L8" s="11"/>
     </row>
-    <row r="9" spans="1:12" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="112.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D9" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G9" s="11" t="s">
         <v>131</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>132</v>
       </c>
       <c r="H9" s="11">
         <v>200</v>
@@ -3696,30 +3783,30 @@
         <v>0</v>
       </c>
       <c r="L9" s="11" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B10" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="D10" s="11" t="s">
+      <c r="E10" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G10" s="11" t="s">
         <v>135</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>136</v>
       </c>
       <c r="H10" s="11">
         <v>200</v>
@@ -3734,25 +3821,25 @@
         <v>0</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G11" s="11"/>
       <c r="H11" s="11">
@@ -3762,27 +3849,27 @@
         <v>101303</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K11" s="11"/>
       <c r="L11" s="11"/>
     </row>
-    <row r="12" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G12" s="11"/>
       <c r="H12" s="11">
@@ -3792,27 +3879,27 @@
         <v>101301</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K12" s="11"/>
       <c r="L12" s="11"/>
     </row>
-    <row r="13" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G13" s="11"/>
       <c r="H13" s="11">
@@ -3822,27 +3909,27 @@
         <v>101301</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K13" s="11"/>
       <c r="L13" s="11"/>
     </row>
-    <row r="14" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G14" s="11"/>
       <c r="H14" s="11">
@@ -3852,27 +3939,27 @@
         <v>101301</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K14" s="11"/>
       <c r="L14" s="11"/>
     </row>
-    <row r="15" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G15" s="11"/>
       <c r="H15" s="11">
@@ -3882,27 +3969,27 @@
         <v>101301</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K15" s="11"/>
       <c r="L15" s="11"/>
     </row>
-    <row r="16" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G16" s="11"/>
       <c r="H16" s="11">
@@ -3918,30 +4005,30 @@
         <v>0</v>
       </c>
       <c r="L16" s="11" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" s="10" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" s="10" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H17" s="11">
         <v>200</v>
@@ -3956,30 +4043,30 @@
         <v>0</v>
       </c>
       <c r="L17" s="11" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B18" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D18" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="C18" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>154</v>
-      </c>
       <c r="E18" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H18" s="11">
         <v>200</v>
@@ -3994,30 +4081,30 @@
         <v>0</v>
       </c>
       <c r="L18" s="11" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G19" s="11" t="s">
         <v>159</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>160</v>
       </c>
       <c r="H19" s="11">
         <v>200</v>
@@ -4032,30 +4119,30 @@
         <v>0</v>
       </c>
       <c r="L19" s="11" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G20" s="11" t="s">
         <v>165</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>166</v>
       </c>
       <c r="H20" s="11">
         <v>200</v>
@@ -4070,30 +4157,30 @@
         <v>0</v>
       </c>
       <c r="L20" s="11" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="B21" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="C21" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G21" s="11" t="s">
         <v>174</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>175</v>
       </c>
       <c r="H21" s="11">
         <v>200</v>
@@ -4108,30 +4195,30 @@
         <v>0</v>
       </c>
       <c r="L21" s="11" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="B22" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="B22" s="11" t="s">
-        <v>181</v>
-      </c>
       <c r="C22" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H22" s="11">
         <v>200</v>
@@ -4146,30 +4233,30 @@
         <v>0</v>
       </c>
       <c r="L22" s="11" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="B23" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="B23" s="11" t="s">
-        <v>186</v>
-      </c>
       <c r="C23" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H23" s="11">
         <v>200</v>
@@ -4184,30 +4271,30 @@
         <v>0</v>
       </c>
       <c r="L23" s="11" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="B24" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="B24" s="11" t="s">
-        <v>193</v>
-      </c>
       <c r="C24" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H24" s="11">
         <v>200</v>
@@ -4222,30 +4309,30 @@
         <v>0</v>
       </c>
       <c r="L24" s="11" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D25" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="B25" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="D25" s="11" t="s">
+      <c r="E25" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G25" s="11" t="s">
         <v>198</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="F25" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>199</v>
       </c>
       <c r="H25" s="11">
         <v>200</v>
@@ -4260,30 +4347,30 @@
         <v>0</v>
       </c>
       <c r="L25" s="11" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="B26" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="C26" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D26" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="C26" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="D26" s="11" t="s">
+      <c r="E26" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G26" s="11" t="s">
         <v>206</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="G26" s="11" t="s">
-        <v>207</v>
       </c>
       <c r="H26" s="11">
         <v>200</v>
@@ -4298,30 +4385,30 @@
         <v>0</v>
       </c>
       <c r="L26" s="11" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B27" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D27" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="C27" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="D27" s="11" t="s">
+      <c r="E27" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G27" s="11" t="s">
         <v>215</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="G27" s="11" t="s">
-        <v>216</v>
       </c>
       <c r="H27" s="11">
         <v>200</v>
@@ -4336,30 +4423,30 @@
         <v>0</v>
       </c>
       <c r="L27" s="11" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B28" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D28" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="C28" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="D28" s="11" t="s">
+      <c r="E28" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G28" s="11" t="s">
         <v>222</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="G28" s="11" t="s">
-        <v>223</v>
       </c>
       <c r="H28" s="11">
         <v>200</v>
@@ -4374,30 +4461,30 @@
         <v>0</v>
       </c>
       <c r="L28" s="11" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C29" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G29" s="11" t="s">
         <v>143</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="F29" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="G29" s="11" t="s">
-        <v>144</v>
       </c>
       <c r="H29" s="11">
         <v>200</v>
@@ -4412,30 +4499,30 @@
         <v>0</v>
       </c>
       <c r="L29" s="11" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B30" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G30" s="11" t="s">
         <v>145</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="G30" s="11" t="s">
-        <v>146</v>
       </c>
       <c r="H30" s="11">
         <v>200</v>
@@ -4450,30 +4537,30 @@
         <v>0</v>
       </c>
       <c r="L30" s="11" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D31" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G31" s="11" t="s">
         <v>149</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="F31" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="G31" s="11" t="s">
-        <v>150</v>
       </c>
       <c r="H31" s="11">
         <v>200</v>
@@ -4488,30 +4575,30 @@
         <v>0</v>
       </c>
       <c r="L31" s="11" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" s="10" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" s="10" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B32" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D32" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="E32" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G32" s="11" t="s">
         <v>143</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="G32" s="11" t="s">
-        <v>144</v>
       </c>
       <c r="H32" s="11">
         <v>200</v>
@@ -4526,30 +4613,30 @@
         <v>0</v>
       </c>
       <c r="L32" s="11" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" s="10" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" s="10" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B33" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="C33" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D33" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="C33" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="D33" s="11" t="s">
+      <c r="E33" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G33" s="11" t="s">
         <v>157</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="F33" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="G33" s="11" t="s">
-        <v>158</v>
       </c>
       <c r="H33" s="11">
         <v>200</v>
@@ -4564,30 +4651,30 @@
         <v>0</v>
       </c>
       <c r="L33" s="11" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" s="10" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" s="10" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B34" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D34" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="C34" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>164</v>
-      </c>
       <c r="E34" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H34" s="11">
         <v>200</v>
@@ -4602,30 +4689,30 @@
         <v>0</v>
       </c>
       <c r="L34" s="11" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" s="10" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" s="10" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D35" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="B35" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>168</v>
-      </c>
       <c r="E35" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H35" s="11">
         <v>200</v>
@@ -4640,30 +4727,30 @@
         <v>0</v>
       </c>
       <c r="L35" s="11" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" s="10" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" s="10" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="B36" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="C36" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D36" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="C36" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>178</v>
-      </c>
       <c r="E36" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H36" s="11">
         <v>200</v>
@@ -4678,30 +4765,30 @@
         <v>0</v>
       </c>
       <c r="L36" s="11" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" s="10" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" s="10" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="B37" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="C37" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D37" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="C37" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>184</v>
-      </c>
       <c r="E37" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H37" s="11">
         <v>200</v>
@@ -4716,30 +4803,30 @@
         <v>0</v>
       </c>
       <c r="L37" s="11" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" s="10" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" s="10" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="B38" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="B38" s="11" t="s">
-        <v>188</v>
-      </c>
       <c r="C38" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H38" s="11">
         <v>200</v>
@@ -4754,30 +4841,30 @@
         <v>0</v>
       </c>
       <c r="L38" s="11" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" s="10" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" s="10" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="B39" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="C39" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G39" s="11" t="s">
         <v>195</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="E39" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="F39" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="G39" s="11" t="s">
-        <v>196</v>
       </c>
       <c r="H39" s="11">
         <v>200</v>
@@ -4792,30 +4879,30 @@
         <v>0</v>
       </c>
       <c r="L39" s="11" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" s="10" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" s="10" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B40" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D40" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="C40" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="D40" s="11" t="s">
+      <c r="E40" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G40" s="11" t="s">
         <v>202</v>
-      </c>
-      <c r="E40" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="F40" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="G40" s="11" t="s">
-        <v>203</v>
       </c>
       <c r="H40" s="11">
         <v>200</v>
@@ -4830,30 +4917,30 @@
         <v>0</v>
       </c>
       <c r="L40" s="11" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" s="10" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" s="10" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="B41" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="B41" s="11" t="s">
+      <c r="C41" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D41" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="C41" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="D41" s="11" t="s">
+      <c r="E41" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G41" s="11" t="s">
         <v>210</v>
-      </c>
-      <c r="E41" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="F41" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="G41" s="11" t="s">
-        <v>211</v>
       </c>
       <c r="H41" s="11">
         <v>200</v>
@@ -4868,30 +4955,30 @@
         <v>0</v>
       </c>
       <c r="L41" s="11" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" s="10" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" s="10" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B42" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D42" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="C42" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>220</v>
-      </c>
       <c r="E42" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H42" s="11">
         <v>200</v>
@@ -4906,27 +4993,27 @@
         <v>0</v>
       </c>
       <c r="L42" s="11" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" s="10" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" s="10" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G43" s="11"/>
       <c r="H43" s="11">
@@ -4942,7 +5029,7 @@
         <v>0</v>
       </c>
       <c r="L43" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/test-data-xls/iot-api-engine-test-data.xlsx
+++ b/src/main/resources/test-data-xls/iot-api-engine-test-data.xlsx
@@ -5,17 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\auto_worksapce\feature-with-comment\data-layer-automation\src\main\resources\test-data-xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\data-layer-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8834F3-BB5B-4290-A3B9-3E5D9D8E5E61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E59D7E6A-FFF5-4637-ACCB-14EF8C4CC4D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="getDataEntities" sheetId="2" r:id="rId1"/>
     <sheet name="getDataGraphQL" sheetId="3" r:id="rId2"/>
     <sheet name="postGraphForMysql" sheetId="9" r:id="rId3"/>
+    <sheet name="restfulTransactionSingleEntity" sheetId="10" r:id="rId4"/>
+    <sheet name="restfulTransactionMultiEntity" sheetId="11" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="280">
   <si>
     <t>description</t>
   </si>
@@ -2445,6 +2447,164 @@
     <t>{SINAMICS_300_Log(cond:"{Abs_actual_current_smoothed: {_gt: 199.999}}")  {update_time}}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>iot-restful-singleentity-test-1</t>
+  </si>
+  <si>
+    <t>good request,single simple entity,insert,transaction control,data retrieved</t>
+  </si>
+  <si>
+    <t>entityName</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>tableOfH2</t>
+  </si>
+  <si>
+    <t>USER_BASIC_INFO,USER_PROFILE</t>
+  </si>
+  <si>
+    <t>rspCodeOfH2</t>
+  </si>
+  <si>
+    <t>rspDataOfH2</t>
+  </si>
+  <si>
+    <t>expectResultOfUSER_BASIC_INFO</t>
+  </si>
+  <si>
+    <t>expectResultOfUSER_PROFILE</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+    User_Insert(input:
+    [
+        {
+          id: 1,
+          name: "xiaoming",
+          age: 12,
+          mail: "xiaoming@siemens.com",
+          phone: "15245654568",
+          address: "beijing.china"
+        }
+     ]
+    )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+  ID: 1,
+  NAME: "xiaoming",
+  AGE: 12
+}</t>
+  </si>
+  <si>
+    <t>{
+   USER_ID: 1,
+   MAIL: "xiaoming@siemens.com",
+   PHONE: "15245654568",
+   ADDRESS: "beijing.china"
+}</t>
+  </si>
+  <si>
+    <t>iot-restful-singleentity-test-2</t>
+  </si>
+  <si>
+    <t>iot-restful-singleentity-test-3</t>
+  </si>
+  <si>
+    <t>iot-restful-singleentity-test-4</t>
+  </si>
+  <si>
+    <t>iot-restful-singleentity-test-5</t>
+  </si>
+  <si>
+    <t>iot-restful-singleentity-test-6</t>
+  </si>
+  <si>
+    <t>iot-restful-singleentity-test-7</t>
+  </si>
+  <si>
+    <t>good request,single simple entity,update,transaction control,data retrieved</t>
+  </si>
+  <si>
+    <t>good request,single simple entity,delete,transaction control,data retrieved</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+    User_Update(input:
+    [
+        {
+          id: 1,
+          name: "xiaoming.update",
+          age: 12,
+          mail: "xiaoming.update@siemens.com",
+          phone: "15245654568",
+          address: "beijing.china"
+        }
+     ]
+    )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+  ID: 1,
+  NAME: "xiaoming.update",
+  AGE: 12
+}</t>
+  </si>
+  <si>
+    <t>{
+   USER_ID: 1,
+   MAIL: "xiaoming.update@siemens.com",
+   PHONE: "15245654568",
+   ADDRESS: "beijing.china"
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+    User_Delete(input:
+    [
+        {
+          id: 1
+        }
+     ]
+    )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>bad request,single simple entity,insert,transaction control</t>
+  </si>
+  <si>
+    <t>bad request,single simple entity,update,transaction control</t>
+  </si>
+  <si>
+    <t>bad request,single simple entity,delete,transaction control</t>
+  </si>
+  <si>
+    <t>INSERT INTO USER_BASIC_INFO VALUES (1,12,'xiaoming');
+INSERT INTO USER_PROFILE VALUES (1,'xiaoming@siemens.com','15245654568','beijing.china')</t>
+  </si>
+  <si>
+    <t>INSERT INTO USER_BASIC_INFO VALUES (1,12,'xiaoming')</t>
+  </si>
 </sst>
 </file>
 
@@ -2454,33 +2614,33 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2854,7 +3014,7 @@
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="30.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" style="1"/>
@@ -2862,7 +3022,7 @@
     <col min="5" max="16384" width="12.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -2888,7 +3048,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -2912,7 +3072,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
@@ -2936,7 +3096,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -2960,7 +3120,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
@@ -2984,7 +3144,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
@@ -3008,7 +3168,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>19</v>
       </c>
@@ -3032,7 +3192,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>20</v>
       </c>
@@ -3056,7 +3216,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>21</v>
       </c>
@@ -3080,7 +3240,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>23</v>
       </c>
@@ -3115,11 +3275,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE22B0A1-EDF6-487D-8C5B-FE5F049504FE}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29.88671875" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.5546875" style="5" bestFit="1" customWidth="1"/>
@@ -3131,7 +3291,7 @@
     <col min="8" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -3154,7 +3314,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>76</v>
       </c>
@@ -3177,7 +3337,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>77</v>
       </c>
@@ -3200,7 +3360,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>78</v>
       </c>
@@ -3223,7 +3383,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>79</v>
       </c>
@@ -3246,7 +3406,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>80</v>
       </c>
@@ -3269,7 +3429,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>81</v>
       </c>
@@ -3292,7 +3452,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>82</v>
       </c>
@@ -3315,7 +3475,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>83</v>
       </c>
@@ -3338,7 +3498,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>84</v>
       </c>
@@ -3361,7 +3521,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>85</v>
       </c>
@@ -3384,7 +3544,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>86</v>
       </c>
@@ -3407,7 +3567,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>239</v>
       </c>
@@ -3430,7 +3590,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>243</v>
       </c>
@@ -3465,10 +3625,10 @@
   <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.6640625" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.6640625" style="9" bestFit="1" customWidth="1"/>
@@ -3484,7 +3644,7 @@
     <col min="13" max="16384" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>2</v>
       </c>
@@ -3522,7 +3682,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="112.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>58</v>
       </c>
@@ -3558,7 +3718,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="112.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>61</v>
       </c>
@@ -3594,7 +3754,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="112.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>64</v>
       </c>
@@ -3628,7 +3788,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="112.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>65</v>
       </c>
@@ -3658,7 +3818,7 @@
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
     </row>
-    <row r="6" spans="1:12" ht="112.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>66</v>
       </c>
@@ -3688,7 +3848,7 @@
       <c r="K6" s="11"/>
       <c r="L6" s="11"/>
     </row>
-    <row r="7" spans="1:12" ht="112.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>67</v>
       </c>
@@ -3718,7 +3878,7 @@
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
     </row>
-    <row r="8" spans="1:12" ht="112.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>68</v>
       </c>
@@ -3748,7 +3908,7 @@
       <c r="K8" s="11"/>
       <c r="L8" s="11"/>
     </row>
-    <row r="9" spans="1:12" ht="112.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>59</v>
       </c>
@@ -3786,7 +3946,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>62</v>
       </c>
@@ -3824,7 +3984,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>69</v>
       </c>
@@ -3854,7 +4014,7 @@
       <c r="K11" s="11"/>
       <c r="L11" s="11"/>
     </row>
-    <row r="12" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>70</v>
       </c>
@@ -3884,7 +4044,7 @@
       <c r="K12" s="11"/>
       <c r="L12" s="11"/>
     </row>
-    <row r="13" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>71</v>
       </c>
@@ -3914,7 +4074,7 @@
       <c r="K13" s="11"/>
       <c r="L13" s="11"/>
     </row>
-    <row r="14" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>72</v>
       </c>
@@ -3944,7 +4104,7 @@
       <c r="K14" s="11"/>
       <c r="L14" s="11"/>
     </row>
-    <row r="15" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
         <v>73</v>
       </c>
@@ -3974,7 +4134,7 @@
       <c r="K15" s="11"/>
       <c r="L15" s="11"/>
     </row>
-    <row r="16" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>74</v>
       </c>
@@ -4008,7 +4168,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="17" spans="1:12" s="10" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" s="10" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>115</v>
       </c>
@@ -4046,7 +4206,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
         <v>117</v>
       </c>
@@ -4084,7 +4244,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
         <v>158</v>
       </c>
@@ -4122,7 +4282,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>164</v>
       </c>
@@ -4160,7 +4320,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
         <v>172</v>
       </c>
@@ -4198,7 +4358,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
         <v>179</v>
       </c>
@@ -4236,7 +4396,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
         <v>184</v>
       </c>
@@ -4274,7 +4434,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
         <v>191</v>
       </c>
@@ -4312,7 +4472,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
         <v>196</v>
       </c>
@@ -4350,7 +4510,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
         <v>203</v>
       </c>
@@ -4388,7 +4548,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
         <v>211</v>
       </c>
@@ -4426,7 +4586,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
         <v>212</v>
       </c>
@@ -4464,7 +4624,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
         <v>60</v>
       </c>
@@ -4502,7 +4662,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
         <v>63</v>
       </c>
@@ -4540,7 +4700,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
         <v>75</v>
       </c>
@@ -4578,7 +4738,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="32" spans="1:12" s="10" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" s="10" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
         <v>116</v>
       </c>
@@ -4616,7 +4776,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="33" spans="1:12" s="10" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" s="10" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
         <v>154</v>
       </c>
@@ -4654,7 +4814,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="34" spans="1:12" s="10" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" s="10" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
         <v>160</v>
       </c>
@@ -4692,7 +4852,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="35" spans="1:12" s="10" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" s="10" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="11" t="s">
         <v>166</v>
       </c>
@@ -4730,7 +4890,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="36" spans="1:12" s="10" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" s="10" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
         <v>175</v>
       </c>
@@ -4768,7 +4928,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="37" spans="1:12" s="10" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" s="10" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="11" t="s">
         <v>181</v>
       </c>
@@ -4806,7 +4966,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="38" spans="1:12" s="10" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" s="10" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="11" t="s">
         <v>186</v>
       </c>
@@ -4844,7 +5004,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="39" spans="1:12" s="10" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" s="10" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="11" t="s">
         <v>193</v>
       </c>
@@ -4882,7 +5042,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="40" spans="1:12" s="10" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" s="10" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="11" t="s">
         <v>199</v>
       </c>
@@ -4920,7 +5080,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="41" spans="1:12" s="10" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" s="10" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="11" t="s">
         <v>207</v>
       </c>
@@ -4958,7 +5118,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="42" spans="1:12" s="10" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" s="10" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="11" t="s">
         <v>216</v>
       </c>
@@ -4996,7 +5156,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="43" spans="1:12" s="10" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" s="10" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="11" t="s">
         <v>217</v>
       </c>
@@ -5037,4 +5197,339 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9F6F477-271A-41FE-A290-09DC67B3D45A}">
+  <dimension ref="A1:M8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="31.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" style="9" customWidth="1"/>
+    <col min="7" max="7" width="27" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.21875" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11" style="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="I2" s="11">
+        <v>200</v>
+      </c>
+      <c r="J2" s="11">
+        <v>100000</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="12">
+        <v>0</v>
+      </c>
+      <c r="M2" s="13"/>
+    </row>
+    <row r="3" spans="1:13" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="I3" s="11">
+        <v>200</v>
+      </c>
+      <c r="J3" s="11">
+        <v>100000</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="12">
+        <v>0</v>
+      </c>
+      <c r="M3" s="13"/>
+    </row>
+    <row r="4" spans="1:13" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11">
+        <v>200</v>
+      </c>
+      <c r="J4" s="11">
+        <v>100000</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="12">
+        <v>0</v>
+      </c>
+      <c r="M4" s="13"/>
+    </row>
+    <row r="5" spans="1:13" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11">
+        <v>200</v>
+      </c>
+      <c r="J5" s="11">
+        <v>100000</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="12">
+        <v>0</v>
+      </c>
+      <c r="M5" s="13"/>
+    </row>
+    <row r="6" spans="1:13" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11">
+        <v>200</v>
+      </c>
+      <c r="J6" s="11">
+        <v>100000</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="12">
+        <v>0</v>
+      </c>
+      <c r="M6" s="13"/>
+    </row>
+    <row r="7" spans="1:13" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11">
+        <v>200</v>
+      </c>
+      <c r="J7" s="11">
+        <v>100000</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="12">
+        <v>0</v>
+      </c>
+      <c r="M7" s="13"/>
+    </row>
+    <row r="8" spans="1:13" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11">
+        <v>200</v>
+      </c>
+      <c r="J8" s="11">
+        <v>100000</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="12">
+        <v>0</v>
+      </c>
+      <c r="M8" s="13"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AE618FA-BAFF-4947-8A48-6BBC9A48AE70}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/main/resources/test-data-xls/iot-api-engine-test-data.xlsx
+++ b/src/main/resources/test-data-xls/iot-api-engine-test-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\data-layer-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E59D7E6A-FFF5-4637-ACCB-14EF8C4CC4D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65DF27D1-4611-4B40-B65A-DBAF346AE0BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="289">
   <si>
     <t>description</t>
   </si>
@@ -2604,6 +2604,68 @@
   </si>
   <si>
     <t>INSERT INTO USER_BASIC_INFO VALUES (1,12,'xiaoming')</t>
+  </si>
+  <si>
+    <t>good request,single complex entity,insert,transaction control,data retrieved</t>
+  </si>
+  <si>
+    <t>iot-restful-singleentity-test-8</t>
+  </si>
+  <si>
+    <t>bad request,single complex entity,insert,transaction control</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+    Product_Insert(input:
+	[
+        {
+          name: "socks",
+          product_no: "2021-01-01T00:00:00",
+          product_type: "ladies",
+          description: "cotton",
+          Product_Order:
+            {
+              product: "sports socks",
+              type: "Women's sports socks",
+              location: "Shanghai",
+              quantity: "excellent",
+              sales_order: "12345678"
+            }
+        }
+    ]
+    )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>PRODUCT,PRODUCT_ORDER</t>
+  </si>
+  <si>
+    <t>INSERT INTO PRODUCT VALUES ('socks','cotton','2021-01-01T00:00:00','ladies')</t>
+  </si>
+  <si>
+    <t>{
+  NAME: "socks",
+  PRODUCT_NO: "2021-01-01T00:00:00",
+  PRODUCT_TYPE: "ladies",
+  DESCRIPTION:"cotton"
+}</t>
+  </si>
+  <si>
+    <t>{
+   PRODUCT: "sports socks",
+   TYPE: "Women's sports socks",
+   LOCATION: "Shanghai",
+   QUANTITY: "excellent",
+   SALES_ORDER:"12345678"
+}</t>
   </si>
 </sst>
 </file>
@@ -5201,10 +5263,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9F6F477-271A-41FE-A290-09DC67B3D45A}">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -5214,8 +5276,8 @@
     <col min="3" max="4" width="31.109375" style="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.109375" style="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.109375" style="9" customWidth="1"/>
-    <col min="7" max="7" width="27" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.21875" style="9" customWidth="1"/>
+    <col min="8" max="8" width="38.5546875" style="9" customWidth="1"/>
     <col min="9" max="9" width="8.33203125" style="9" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.33203125" style="9" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.21875" style="9" bestFit="1" customWidth="1"/>
@@ -5491,13 +5553,25 @@
       <c r="A8" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="B8" s="11"/>
+      <c r="B8" s="11" t="s">
+        <v>280</v>
+      </c>
       <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
+      <c r="D8" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>288</v>
+      </c>
       <c r="I8" s="11">
         <v>200</v>
       </c>
@@ -5511,6 +5585,35 @@
         <v>0</v>
       </c>
       <c r="M8" s="13"/>
+    </row>
+    <row r="9" spans="1:13" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/src/main/resources/test-data-xls/iot-api-engine-test-data.xlsx
+++ b/src/main/resources/test-data-xls/iot-api-engine-test-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\data-layer-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65DF27D1-4611-4B40-B65A-DBAF346AE0BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C41DA1-8E6A-497D-A1B5-E3CAB316D577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="getDataEntities" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="346">
   <si>
     <t>description</t>
   </si>
@@ -2665,6 +2665,601 @@
    LOCATION: "Shanghai",
    QUANTITY: "excellent",
    SALES_ORDER:"12345678"
+}</t>
+  </si>
+  <si>
+    <t>iot-restful-multientity-test-1</t>
+  </si>
+  <si>
+    <t>iot-restful-multientity-test-2</t>
+  </si>
+  <si>
+    <t>iot-restful-multientity-test-3</t>
+  </si>
+  <si>
+    <t>iot-restful-multientity-test-4</t>
+  </si>
+  <si>
+    <t>iot-restful-multientity-test-5</t>
+  </si>
+  <si>
+    <t>iot-restful-multientity-test-6</t>
+  </si>
+  <si>
+    <t>iot-restful-multientity-test-7</t>
+  </si>
+  <si>
+    <t>iot-restful-multientity-test-8</t>
+  </si>
+  <si>
+    <t>iot-restful-multientity-test-9</t>
+  </si>
+  <si>
+    <t>iot-restful-multientity-test-10</t>
+  </si>
+  <si>
+    <t>iot-restful-multientity-test-11</t>
+  </si>
+  <si>
+    <t>iot-restful-multientity-test-12</t>
+  </si>
+  <si>
+    <t>good request,multi simple entity,insert,transaction control,data retrieved</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+    User_Insert(input:
+    [
+        {
+          id: 1,
+          name: "xiaoming",
+          age: 12,
+          mail: "xiaoming@siemens.com",
+          phone: "15245654568",
+          address: "beijing.china"
+        },
+		{
+          id: 2,
+          name: "jojo",
+          age: 11,
+          mail: "jojo@live.cn",
+          phone: "13898786758",
+          address: "hangzhou.china"
+        }
+     ]
+    )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+	Person_Insert(input:
+    [
+        {
+          id: 1,
+          name: "xiaoming",
+          age: 12,
+          mail: "xiaoming@siemens.com",
+          phone: "15245654568",
+          address: "beijing.china"
+        },
+		{
+          id: 2,
+          name: "jojo",
+          age: 11,
+          mail: "jojo@live.cn",
+          phone: "13898786758",
+          address: "hangzhou.china"
+        }
+     ]
+    )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>User,Person</t>
+  </si>
+  <si>
+    <t>tableOfUser</t>
+  </si>
+  <si>
+    <t>tableOfPerson</t>
+  </si>
+  <si>
+    <t>tableOfProduct</t>
+  </si>
+  <si>
+    <t>pre-executionOfUser</t>
+  </si>
+  <si>
+    <t>pre-executionOfPerson</t>
+  </si>
+  <si>
+    <t>pre-executionOfProduct</t>
+  </si>
+  <si>
+    <t>expectResultOfPERSON_BASIC_INFO</t>
+  </si>
+  <si>
+    <t>expectResultOfPRODUCT</t>
+  </si>
+  <si>
+    <t>expectResultOfPRODUCT_ORDER</t>
+  </si>
+  <si>
+    <t>PERSON_BASIC_INFO,PERSON_PROFILE</t>
+  </si>
+  <si>
+    <t>{
+  ID: 1,
+  NAME: "xiaoming",
+  AGE: 12
+}
+{
+  ID: 2,
+  NAME: "jojo",
+  AGE: 11
+}</t>
+  </si>
+  <si>
+    <t>{
+   USER_ID: 1,
+   MAIL: "xiaoming@siemens.com",
+   PHONE: "15245654568",
+   ADDRESS: "beijing.china"
+}
+{
+   USER_ID: 2,
+   MAIL: "jojo@live.cn",
+   PHONE: "13898786758",
+   ADDRESS: "hangzhou.china"
+}</t>
+  </si>
+  <si>
+    <t>expectResultOfPERSON_PROFILE</t>
+  </si>
+  <si>
+    <t>{
+   PERSON_ID: 1,
+   MAIL: "xiaoming@siemens.com",
+   PHONE: "15245654568",
+   ADDRESS: "beijing.china"
+}
+{
+   PERSON_ID: 2,
+   MAIL: "jojo@live.cn",
+   PHONE: "13898786758",
+   ADDRESS: "hangzhou.china"
+}</t>
+  </si>
+  <si>
+    <t>good/bad request,multi simple entity,insert,transaction control,data retrieved</t>
+  </si>
+  <si>
+    <t>INSERT INTO PERSON_BASIC_INFO VALUES (1,12,'xiaoming')</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+    User_Insert(input:
+    [
+        {
+          id: 1,
+          name: "xiaoming",
+          age: 12,
+          mail: "xiaoming@siemens.com",
+          phone: "15245654568",
+          address: "beijing.china"
+        }
+     ]
+    )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+	Person_Insert(input:
+    [
+        {
+          id: 1,
+          name: "xiaoming",
+          age: 12,
+          mail: "xiaoming@siemens.com",
+          phone: "15245654568",
+          address: "beijing.china"
+        }
+     ]
+    )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>bad request,multi simple entity,insert,transaction control,data retrieved</t>
+  </si>
+  <si>
+    <t>good request,multi simple entity,update,transaction control,data retrieved</t>
+  </si>
+  <si>
+    <t>good/bad request,multi simple entity,update,transaction control,data retrieved</t>
+  </si>
+  <si>
+    <t>bad request,multi simple entity,update,transaction control,data retrieved</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+    User_Update(input:
+    [
+        {
+          id: 1,
+          name: "xiaoming.update",
+          age: 12,
+          mail: "xiaoming.update@siemens.com",
+          phone: "15245654568",
+          address: "beijing.china"
+        },
+		{
+          id: 2,
+          name: "jojo.update",
+          age: 11,
+          mail: "jojo.update@live.cn",
+          phone: "13898786758",
+          address: "hangzhou.china"
+        }
+     ]
+    )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+	Person_Update(input:
+    [
+        {
+          id: 1,
+          name: "xiaoming.update",
+          age: 12,
+          mail: "xiaoming.update@siemens.com",
+          phone: "15245654568",
+          address: "beijing.china"
+        },
+		{
+          id: 2,
+          name: "jojo.update",
+          age: 11,
+          mail: "jojo.update@live.cn",
+          phone: "13898786758",
+          address: "hangzhou.china"
+        }
+     ]
+    )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+  ID: 1,
+  NAME: "xiaoming.update",
+  AGE: 12
+}
+{
+  ID: 2,
+  NAME: "jojo.update",
+  AGE: 11
+}</t>
+  </si>
+  <si>
+    <t>{
+   USER_ID: 1,
+   MAIL: "xiaoming.update@siemens.com",
+   PHONE: "15245654568",
+   ADDRESS: "beijing.china"
+}
+{
+   USER_ID: 2,
+   MAIL: "jojo.update@live.cn",
+   PHONE: "13898786758",
+   ADDRESS: "hangzhou.china"
+}</t>
+  </si>
+  <si>
+    <t>{
+   PERSON_ID: 1,
+   MAIL: "xiaoming.update@siemens.com",
+   PHONE: "15245654568",
+   ADDRESS: "beijing.china"
+}
+{
+   PERSON_ID: 2,
+   MAIL: "jojo.update@live.cn",
+   PHONE: "13898786758",
+   ADDRESS: "hangzhou.china"
+}</t>
+  </si>
+  <si>
+    <t>INSERT INTO USER_BASIC_INFO VALUES (1,12,'xiaoming');
+INSERT INTO USER_PROFILE VALUES (1,'xiaoming@siemens.com','15245654568','beijing.china');
+INSERT INTO USER_BASIC_INFO VALUES (2,11,'jojo');
+INSERT INTO USER_PROFILE VALUES (2,'jojo@live.cn','13898786758','hangzhou.china')</t>
+  </si>
+  <si>
+    <t>INSERT INTO PERSON_BASIC_INFO VALUES (1,12,'xiaoming');
+INSERT INTO PERSON_PROFILE VALUES (1,'xiaoming@siemens.com','15245654568','beijing.china');
+INSERT INTO PERSON_BASIC_INFO VALUES (2,11,'jojo');
+INSERT INTO PERSON_PROFILE VALUES (2,'jojo@live.cn','13898786758','hangzhou.china')</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+    User_Update(input:
+    [
+        {
+          id: 1,
+          name: "xiaoming.update",
+          age: 12,
+          mail: "xiaoming.update@siemens.com",
+          phone: "15245654568",
+          address: "beijing.china"
+        }
+     ]
+    )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+	Person_Update(input:
+    [
+        {
+          id: 1,
+          name: "xiaoming.update",
+          age: 12,
+          mail: "xiaoming.update@siemens.com",
+          phone: "15245654568",
+          address: "beijing.china"
+        }
+     ]
+    )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>INSERT INTO USER_BASIC_INFO VALUES (1,12,'xiaoming');</t>
+  </si>
+  <si>
+    <t>good request,multi simple entity,delete,transaction control,data retrieved</t>
+  </si>
+  <si>
+    <t>good/bad request,multi simple entity,delete,transaction control,data retrieved</t>
+  </si>
+  <si>
+    <t>bad request,multi simple entity,delete,transaction control,data retrieved</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+    User_Delete(input:
+    [
+        {
+          id: 1
+        },
+		{
+          id: 2
+        },
+     ]
+    )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+	Person_Delete(input:
+    [
+        {
+          id: 1
+        },
+		{
+          id: 2
+        },
+     ]
+    )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+    User_Delete(input:
+    [
+        {
+          id: 1
+        }
+     ]
+    )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+	Person_Delete(input:
+    [
+        {
+          id: 1
+        }
+     ]
+    )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>User,Product</t>
+  </si>
+  <si>
+    <t>good request,multi complex entity,insert,transaction control,data retrieved</t>
+  </si>
+  <si>
+    <t>good/bad request,multi complex entity,insert,transaction control,data retrieved</t>
+  </si>
+  <si>
+    <t>bad request,multi complex entity,insert,transaction control,data retrieved</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+    User_Insert(input:
+    [
+        {
+          id: 1,
+          name: "xiaoming",
+          age: 12,
+          mail: "xiaoming@siemens.com",
+          phone: "15245654568",
+          address: "beijing.china"
+        },
+		{
+          id: 2,
+          name: "jojo",
+          age: 11,
+          mail: "jojo@live.cn",
+          phone: "13898786758",
+          address: "hangzhou.china"
+        },
+		{
+          id: 3,
+          name: "dongdong",
+          age: 15,
+          mail: "dongdong@siemens.com",
+          phone: "18787679898",
+          address: "suzhou.china"
+        }
+     ]
+    )
+	{
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+	Product_Insert(input:
+	[
+        {
+          name: "socks",
+          product_no: "2021-01-01T00:00:00",
+          product_type: "ladies",
+          description: "cotton",
+          Product_Order:
+            {
+              product: "sports socks",
+              type: "Women's sports socks",
+              location: "Shanghai",
+              quantity: "excellent",
+              sales_order: "12345678"
+            }
+        }
+    ]
+    )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+  ID: 1,
+  NAME: "xiaoming",
+  AGE: 12
+}
+{
+  ID: 2,
+  NAME: "jojo",
+  AGE: 11
+}
+{
+  ID: 3,
+  NAME: "dongdong",
+  AGE: 15
+}</t>
+  </si>
+  <si>
+    <t>{
+   USER_ID: 1,
+   MAIL: "xiaoming@siemens.com",
+   PHONE: "15245654568",
+   ADDRESS: "beijing.china"
+}
+{
+   USER_ID: 2,
+   MAIL: "jojo@live.cn",
+   PHONE: "13898786758",
+   ADDRESS: "hangzhou.china"
+}
+   USER_ID: 3,
+   MAIL: "dongdong@siemens.com",
+   PHONE: "18787679898",
+   ADDRESS: "suzhou.china"
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+    User_Insert(input:
+    [
+        {
+          id: 1,
+          name: "xiaoming",
+          age: 12,
+          mail: "xiaoming@siemens.com",
+          phone: "15245654568",
+          address: "beijing.china"
+        }
+     ]
+    )
+	{
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+	Product_Insert(input:
+	[
+        {
+          name: "socks",
+          product_no: "2021-01-01T00:00:00",
+          product_type: "ladies",
+          description: "cotton",
+          Product_Order:
+            {
+              product: "sports socks",
+              type: "Women's sports socks",
+              location: "Shanghai",
+              quantity: "excellent",
+              sales_order: "12345678"
+            }
+        }
+    ]
+    )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
 }</t>
   </si>
 </sst>
@@ -5265,8 +5860,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9F6F477-271A-41FE-A290-09DC67B3D45A}">
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G8" sqref="G8:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -5624,14 +6220,659 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AE618FA-BAFF-4947-8A48-6BBC9A48AE70}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:S13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="44.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.21875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="34.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29.21875" style="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="34.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="26.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.21875" style="9" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.88671875" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="J2" s="7"/>
+      <c r="K2" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11">
+        <v>200</v>
+      </c>
+      <c r="R2" s="11">
+        <v>100000</v>
+      </c>
+      <c r="S2" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11">
+        <v>200</v>
+      </c>
+      <c r="R3" s="11">
+        <v>100000</v>
+      </c>
+      <c r="S3" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11">
+        <v>200</v>
+      </c>
+      <c r="R4" s="11">
+        <v>100000</v>
+      </c>
+      <c r="S4" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="J5" s="7"/>
+      <c r="K5" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="M5" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="N5" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11">
+        <v>200</v>
+      </c>
+      <c r="R5" s="11">
+        <v>100000</v>
+      </c>
+      <c r="S5" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="J6" s="7"/>
+      <c r="K6" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="M6" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11">
+        <v>200</v>
+      </c>
+      <c r="R6" s="11">
+        <v>100000</v>
+      </c>
+      <c r="S6" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="J7" s="7"/>
+      <c r="K7" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11">
+        <v>200</v>
+      </c>
+      <c r="R7" s="11">
+        <v>100000</v>
+      </c>
+      <c r="S7" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11">
+        <v>200</v>
+      </c>
+      <c r="R8" s="11">
+        <v>100000</v>
+      </c>
+      <c r="S8" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11">
+        <v>200</v>
+      </c>
+      <c r="R9" s="11">
+        <v>100000</v>
+      </c>
+      <c r="S9" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11">
+        <v>200</v>
+      </c>
+      <c r="R10" s="11">
+        <v>100000</v>
+      </c>
+      <c r="S10" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="P11" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q11" s="11">
+        <v>200</v>
+      </c>
+      <c r="R11" s="11">
+        <v>100000</v>
+      </c>
+      <c r="S11" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="L12" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11">
+        <v>200</v>
+      </c>
+      <c r="R12" s="11">
+        <v>100000</v>
+      </c>
+      <c r="S12" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="L13" s="11"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11">
+        <v>200</v>
+      </c>
+      <c r="R13" s="11">
+        <v>100000</v>
+      </c>
+      <c r="S13" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/src/main/resources/test-data-xls/iot-api-engine-test-data.xlsx
+++ b/src/main/resources/test-data-xls/iot-api-engine-test-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\data-layer-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C41DA1-8E6A-497D-A1B5-E3CAB316D577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{094C9E84-D605-4048-997F-6F5BE5F71301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="346">
   <si>
     <t>description</t>
   </si>
@@ -3200,25 +3200,6 @@
 }</t>
   </si>
   <si>
-    <t>{
-   USER_ID: 1,
-   MAIL: "xiaoming@siemens.com",
-   PHONE: "15245654568",
-   ADDRESS: "beijing.china"
-}
-{
-   USER_ID: 2,
-   MAIL: "jojo@live.cn",
-   PHONE: "13898786758",
-   ADDRESS: "hangzhou.china"
-}
-   USER_ID: 3,
-   MAIL: "dongdong@siemens.com",
-   PHONE: "18787679898",
-   ADDRESS: "suzhou.china"
-}</t>
-  </si>
-  <si>
     <t>mutation mutationName{
     User_Insert(input:
     [
@@ -3260,6 +3241,26 @@
         reserved_field_1
         reserved_field_2
     }
+}</t>
+  </si>
+  <si>
+    <t>{
+   USER_ID: 1,
+   MAIL: "xiaoming@siemens.com",
+   PHONE: "15245654568",
+   ADDRESS: "beijing.china"
+}
+{
+   USER_ID: 2,
+   MAIL: "jojo@live.cn",
+   PHONE: "13898786758",
+   ADDRESS: "hangzhou.china"
+}
+{
+   USER_ID: 3,
+   MAIL: "dongdong@siemens.com",
+   PHONE: "18787679898",
+   ADDRESS: "suzhou.china"
 }</t>
   </si>
 </sst>
@@ -3933,7 +3934,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -4225,48 +4226,48 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="D13" s="5">
-        <v>200</v>
-      </c>
-      <c r="E13" s="5">
+      <c r="D13" s="6">
+        <v>200</v>
+      </c>
+      <c r="E13" s="6">
         <v>100000</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="6" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="D14" s="5">
-        <v>200</v>
-      </c>
-      <c r="E14" s="5">
+      <c r="D14" s="6">
+        <v>200</v>
+      </c>
+      <c r="E14" s="6">
         <v>101403</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="6" t="s">
         <v>248</v>
       </c>
     </row>
@@ -4281,8 +4282,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{233D398F-A510-45E2-94C1-EA62EAF2A2C6}">
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -5858,11 +5859,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9F6F477-271A-41FE-A290-09DC67B3D45A}">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G8:H8"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -5872,17 +5873,18 @@
     <col min="3" max="4" width="31.109375" style="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.109375" style="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.109375" style="9" customWidth="1"/>
-    <col min="7" max="7" width="33.21875" style="9" customWidth="1"/>
-    <col min="8" max="8" width="38.5546875" style="9" customWidth="1"/>
-    <col min="9" max="9" width="8.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.21875" style="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11" style="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.88671875" style="9"/>
+    <col min="7" max="7" width="8.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.21875" style="9" customWidth="1"/>
+    <col min="9" max="9" width="38.5546875" style="9" customWidth="1"/>
+    <col min="10" max="10" width="8.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.21875" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>2</v>
       </c>
@@ -5902,28 +5904,31 @@
         <v>254</v>
       </c>
       <c r="G1" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="H1" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="M1" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="N1" s="8" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>250</v>
       </c>
@@ -5941,26 +5946,29 @@
         <v>255</v>
       </c>
       <c r="G2" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="H2" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="I2" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="I2" s="11">
-        <v>200</v>
-      </c>
       <c r="J2" s="11">
+        <v>200</v>
+      </c>
+      <c r="K2" s="11">
         <v>100000</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="L2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="12">
+      <c r="M2" s="12">
         <v>0</v>
       </c>
-      <c r="M2" s="13"/>
-    </row>
-    <row r="3" spans="1:13" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N2" s="13"/>
+    </row>
+    <row r="3" spans="1:14" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>263</v>
       </c>
@@ -5980,26 +5988,29 @@
         <v>255</v>
       </c>
       <c r="G3" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H3" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="I3" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="I3" s="11">
-        <v>200</v>
-      </c>
       <c r="J3" s="11">
+        <v>200</v>
+      </c>
+      <c r="K3" s="11">
         <v>100000</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="L3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="12">
+      <c r="M3" s="12">
         <v>0</v>
       </c>
-      <c r="M3" s="13"/>
-    </row>
-    <row r="4" spans="1:13" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N3" s="13"/>
+    </row>
+    <row r="4" spans="1:14" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>264</v>
       </c>
@@ -6018,23 +6029,26 @@
       <c r="F4" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="G4" s="11"/>
+      <c r="G4" s="11" t="s">
+        <v>106</v>
+      </c>
       <c r="H4" s="11"/>
-      <c r="I4" s="11">
-        <v>200</v>
-      </c>
+      <c r="I4" s="11"/>
       <c r="J4" s="11">
+        <v>200</v>
+      </c>
+      <c r="K4" s="11">
         <v>100000</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="L4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="12">
+      <c r="M4" s="12">
         <v>0</v>
       </c>
-      <c r="M4" s="13"/>
-    </row>
-    <row r="5" spans="1:13" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N4" s="13"/>
+    </row>
+    <row r="5" spans="1:14" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>265</v>
       </c>
@@ -6054,24 +6068,27 @@
         <v>255</v>
       </c>
       <c r="G5" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="H5" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11">
-        <v>200</v>
-      </c>
+      <c r="I5" s="11"/>
       <c r="J5" s="11">
+        <v>200</v>
+      </c>
+      <c r="K5" s="11">
         <v>100000</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="L5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="12">
+      <c r="M5" s="12">
         <v>0</v>
       </c>
-      <c r="M5" s="13"/>
-    </row>
-    <row r="6" spans="1:13" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N5" s="13"/>
+    </row>
+    <row r="6" spans="1:14" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>266</v>
       </c>
@@ -6091,24 +6108,27 @@
         <v>255</v>
       </c>
       <c r="G6" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H6" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11">
-        <v>200</v>
-      </c>
+      <c r="I6" s="11"/>
       <c r="J6" s="11">
+        <v>200</v>
+      </c>
+      <c r="K6" s="11">
         <v>100000</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="L6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="12">
+      <c r="M6" s="12">
         <v>0</v>
       </c>
-      <c r="M6" s="13"/>
-    </row>
-    <row r="7" spans="1:13" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N6" s="13"/>
+    </row>
+    <row r="7" spans="1:14" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>267</v>
       </c>
@@ -6128,24 +6148,27 @@
         <v>255</v>
       </c>
       <c r="G7" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="H7" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11">
-        <v>200</v>
-      </c>
+      <c r="I7" s="11"/>
       <c r="J7" s="11">
+        <v>200</v>
+      </c>
+      <c r="K7" s="11">
         <v>100000</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="L7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L7" s="12">
+      <c r="M7" s="12">
         <v>0</v>
       </c>
-      <c r="M7" s="13"/>
-    </row>
-    <row r="8" spans="1:13" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N7" s="13"/>
+    </row>
+    <row r="8" spans="1:14" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>268</v>
       </c>
@@ -6163,26 +6186,29 @@
         <v>285</v>
       </c>
       <c r="G8" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="H8" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="I8" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="I8" s="11">
-        <v>200</v>
-      </c>
       <c r="J8" s="11">
+        <v>200</v>
+      </c>
+      <c r="K8" s="11">
         <v>100000</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="L8" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L8" s="12">
+      <c r="M8" s="12">
         <v>0</v>
       </c>
-      <c r="M8" s="13"/>
-    </row>
-    <row r="9" spans="1:13" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N8" s="13"/>
+    </row>
+    <row r="9" spans="1:14" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>281</v>
       </c>
@@ -6202,14 +6228,25 @@
         <v>285</v>
       </c>
       <c r="G9" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="H9" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="H9" s="11"/>
       <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="13"/>
+      <c r="J9" s="11">
+        <v>200</v>
+      </c>
+      <c r="K9" s="11">
+        <v>100000</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="M9" s="12">
+        <v>0</v>
+      </c>
+      <c r="N9" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -6223,8 +6260,8 @@
   <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O13" sqref="O13"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -6757,7 +6794,7 @@
         <v>343</v>
       </c>
       <c r="L11" s="11" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
@@ -6793,7 +6830,7 @@
         <v>286</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H12" s="11" t="s">
         <v>255</v>
@@ -6842,7 +6879,7 @@
         <v>286</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H13" s="11" t="s">
         <v>255</v>

--- a/src/main/resources/test-data-xls/iot-api-engine-test-data.xlsx
+++ b/src/main/resources/test-data-xls/iot-api-engine-test-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\data-layer-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{094C9E84-D605-4048-997F-6F5BE5F71301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{414E2B62-440A-43AC-B928-D4C0B41679B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="getDataEntities" sheetId="2" r:id="rId1"/>
@@ -5861,9 +5861,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9F6F477-271A-41FE-A290-09DC67B3D45A}">
   <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -6084,7 +6084,7 @@
         <v>10</v>
       </c>
       <c r="M5" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" s="13"/>
     </row>
@@ -6124,7 +6124,7 @@
         <v>10</v>
       </c>
       <c r="M6" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" s="13"/>
     </row>
@@ -6164,7 +6164,7 @@
         <v>10</v>
       </c>
       <c r="M7" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" s="13"/>
     </row>
@@ -6259,8 +6259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AE618FA-BAFF-4947-8A48-6BBC9A48AE70}">
   <dimension ref="A1:S13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/test-data-xls/iot-api-engine-test-data.xlsx
+++ b/src/main/resources/test-data-xls/iot-api-engine-test-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\data-layer-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{414E2B62-440A-43AC-B928-D4C0B41679B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72B3AC24-8CA3-4CF6-A084-7D028D07BA80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="346">
   <si>
     <t>description</t>
   </si>
@@ -5859,11 +5859,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9F6F477-271A-41FE-A290-09DC67B3D45A}">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -5874,17 +5874,19 @@
     <col min="5" max="5" width="10.109375" style="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.109375" style="9" customWidth="1"/>
     <col min="7" max="7" width="8.5546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.21875" style="9" customWidth="1"/>
-    <col min="9" max="9" width="38.5546875" style="9" customWidth="1"/>
-    <col min="10" max="10" width="8.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.21875" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11" style="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.88671875" style="9"/>
+    <col min="8" max="8" width="27" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.77734375" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.21875" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11" style="9" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>2</v>
       </c>
@@ -5913,22 +5915,28 @@
         <v>259</v>
       </c>
       <c r="J1" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="L1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="M1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="N1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="O1" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="P1" s="8" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>250</v>
       </c>
@@ -5954,21 +5962,23 @@
       <c r="I2" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="J2" s="11">
-        <v>200</v>
-      </c>
-      <c r="K2" s="11">
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11">
+        <v>200</v>
+      </c>
+      <c r="M2" s="11">
         <v>100000</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="N2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="12">
+      <c r="O2" s="12">
         <v>0</v>
       </c>
-      <c r="N2" s="13"/>
-    </row>
-    <row r="3" spans="1:14" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P2" s="13"/>
+    </row>
+    <row r="3" spans="1:16" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>263</v>
       </c>
@@ -5996,21 +6006,23 @@
       <c r="I3" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="J3" s="11">
-        <v>200</v>
-      </c>
-      <c r="K3" s="11">
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11">
+        <v>200</v>
+      </c>
+      <c r="M3" s="11">
         <v>100000</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="N3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="12">
+      <c r="O3" s="12">
         <v>0</v>
       </c>
-      <c r="N3" s="13"/>
-    </row>
-    <row r="4" spans="1:14" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P3" s="13"/>
+    </row>
+    <row r="4" spans="1:16" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>264</v>
       </c>
@@ -6034,21 +6046,23 @@
       </c>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
-      <c r="J4" s="11">
-        <v>200</v>
-      </c>
-      <c r="K4" s="11">
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11">
+        <v>200</v>
+      </c>
+      <c r="M4" s="11">
         <v>100000</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="N4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="12">
+      <c r="O4" s="12">
         <v>0</v>
       </c>
-      <c r="N4" s="13"/>
-    </row>
-    <row r="5" spans="1:14" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P4" s="13"/>
+    </row>
+    <row r="5" spans="1:16" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>265</v>
       </c>
@@ -6074,21 +6088,23 @@
         <v>261</v>
       </c>
       <c r="I5" s="11"/>
-      <c r="J5" s="11">
-        <v>200</v>
-      </c>
-      <c r="K5" s="11">
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11">
+        <v>200</v>
+      </c>
+      <c r="M5" s="11">
         <v>100000</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="N5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="M5" s="12">
+      <c r="O5" s="12">
         <v>1</v>
       </c>
-      <c r="N5" s="13"/>
-    </row>
-    <row r="6" spans="1:14" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P5" s="13"/>
+    </row>
+    <row r="6" spans="1:16" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>266</v>
       </c>
@@ -6114,21 +6130,23 @@
         <v>261</v>
       </c>
       <c r="I6" s="11"/>
-      <c r="J6" s="11">
-        <v>200</v>
-      </c>
-      <c r="K6" s="11">
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11">
+        <v>200</v>
+      </c>
+      <c r="M6" s="11">
         <v>100000</v>
       </c>
-      <c r="L6" s="11" t="s">
+      <c r="N6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="M6" s="12">
+      <c r="O6" s="12">
         <v>1</v>
       </c>
-      <c r="N6" s="13"/>
-    </row>
-    <row r="7" spans="1:14" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P6" s="13"/>
+    </row>
+    <row r="7" spans="1:16" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>267</v>
       </c>
@@ -6154,21 +6172,23 @@
         <v>261</v>
       </c>
       <c r="I7" s="11"/>
-      <c r="J7" s="11">
-        <v>200</v>
-      </c>
-      <c r="K7" s="11">
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11">
+        <v>200</v>
+      </c>
+      <c r="M7" s="11">
         <v>100000</v>
       </c>
-      <c r="L7" s="11" t="s">
+      <c r="N7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="12">
+      <c r="O7" s="12">
         <v>1</v>
       </c>
-      <c r="N7" s="13"/>
-    </row>
-    <row r="8" spans="1:14" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P7" s="13"/>
+    </row>
+    <row r="8" spans="1:16" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>268</v>
       </c>
@@ -6188,27 +6208,29 @@
       <c r="G8" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="K8" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="J8" s="11">
-        <v>200</v>
-      </c>
-      <c r="K8" s="11">
+      <c r="L8" s="11">
+        <v>200</v>
+      </c>
+      <c r="M8" s="11">
         <v>100000</v>
       </c>
-      <c r="L8" s="11" t="s">
+      <c r="N8" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="M8" s="12">
+      <c r="O8" s="12">
         <v>0</v>
       </c>
-      <c r="N8" s="13"/>
-    </row>
-    <row r="9" spans="1:14" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P8" s="13"/>
+    </row>
+    <row r="9" spans="1:16" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>281</v>
       </c>
@@ -6230,23 +6252,25 @@
       <c r="G9" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11">
-        <v>200</v>
-      </c>
-      <c r="K9" s="11">
+      <c r="K9" s="11"/>
+      <c r="L9" s="11">
+        <v>200</v>
+      </c>
+      <c r="M9" s="11">
         <v>100000</v>
       </c>
-      <c r="L9" s="11" t="s">
+      <c r="N9" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="M9" s="12">
+      <c r="O9" s="12">
         <v>0</v>
       </c>
-      <c r="N9" s="13"/>
+      <c r="P9" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -6259,9 +6283,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AE618FA-BAFF-4947-8A48-6BBC9A48AE70}">
   <dimension ref="A1:S13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -6269,7 +6293,9 @@
     <col min="1" max="1" width="18.6640625" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.5546875" style="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="44.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="43.77734375" style="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="31.109375" style="9" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.21875" style="9" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.109375" style="9" bestFit="1" customWidth="1"/>
@@ -6278,7 +6304,8 @@
     <col min="12" max="12" width="34.6640625" style="9" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="29.21875" style="9" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="34.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="26.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.5546875" style="9" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="8.33203125" style="9" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="7.33203125" style="9" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="10.21875" style="9" bestFit="1" customWidth="1"/>

--- a/src/main/resources/test-data-xls/iot-api-engine-test-data.xlsx
+++ b/src/main/resources/test-data-xls/iot-api-engine-test-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\data-layer-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72B3AC24-8CA3-4CF6-A084-7D028D07BA80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F4FF039-41B1-4B11-BE73-53095704DD17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5861,9 +5861,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9F6F477-271A-41FE-A290-09DC67B3D45A}">
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomLeft" activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -6268,7 +6268,7 @@
         <v>10</v>
       </c>
       <c r="O9" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" s="13"/>
     </row>
@@ -6283,7 +6283,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AE618FA-BAFF-4947-8A48-6BBC9A48AE70}">
   <dimension ref="A1:S13"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K11" sqref="K11"/>
     </sheetView>

--- a/src/main/resources/test-data-xls/iot-api-engine-test-data.xlsx
+++ b/src/main/resources/test-data-xls/iot-api-engine-test-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\data-layer-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F4FF039-41B1-4B11-BE73-53095704DD17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{971CF752-8D58-496B-8459-A817E5939EEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="getDataEntities" sheetId="2" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="postGraphForMysql" sheetId="9" r:id="rId3"/>
     <sheet name="restfulTransactionSingleEntity" sheetId="10" r:id="rId4"/>
     <sheet name="restfulTransactionMultiEntity" sheetId="11" r:id="rId5"/>
+    <sheet name="authForRestfulWrite" sheetId="12" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="390">
   <si>
     <t>description</t>
   </si>
@@ -3262,6 +3263,399 @@
    PHONE: "18787679898",
    ADDRESS: "suzhou.china"
 }</t>
+  </si>
+  <si>
+    <t>good request,insert one entity of basic/oauth/cookie/token auth type success, data retrieved</t>
+  </si>
+  <si>
+    <t>authList</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+    UserWithAuth_Insert(input:
+    [
+        {
+          id: 1,
+          name: "XiaoMing",
+          age: 26,
+          mail: "Ming.Xiao@siemens.com",
+          phone: "15245654568",
+          address: "Beijing.China",
+          employer:"Siemens",
+          title:"engineer",
+          employeeid:"A006WFRV",
+          mothertongue:"mandarin",
+          secondlanguage:"English",
+          course:"Advanced mathematics"
+        }
+    ],
+    authInfo:"$authInfo"
+    )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>[
+    {
+        "authType":"basic",
+        "dataSourceName":"UserBasicInfoWithBasicAuth",
+        "detail":{
+            "value":"name=admin pwd=123456"
+        }
+    },
+    {
+        "authType":"OAUTH",
+        "dataSourceName":"UserProfileWithOauthAuth",
+        "detail":{
+            "value":"admin123456"
+        }
+    },
+    {
+        "authType":"Cookie",
+        "dataSourceName":"UserWorkWithCookieAuth",
+        "detail":{
+            "value":"key1=value1;key2=value2"
+        }
+    },
+    {
+        "authType":"TOKEN",
+        "dataSourceName":"UserSpecialtyWithTokenAuth",
+        "detail":{
+            "value":"admin123456"
+        }
+    }
+]</t>
+  </si>
+  <si>
+    <t>entity</t>
+  </si>
+  <si>
+    <t>UserWithAuth</t>
+  </si>
+  <si>
+    <t>rspDataOfRestful</t>
+  </si>
+  <si>
+    <t>rspCodeOfRestful</t>
+  </si>
+  <si>
+    <t>bad request,insert one entity of
+basic auth type:fail
+oauth auth type:success
+cookie auth type:success
+token auth type:success</t>
+  </si>
+  <si>
+    <t>bad request,insert one entity of
+basic auth type:success
+oauth auth type:fail
+cookie auth type:success
+token auth type:success</t>
+  </si>
+  <si>
+    <t>bad request,insert one entity of
+basic auth type:success
+oauth auth type:success
+cookie auth type:fail
+token auth type:success</t>
+  </si>
+  <si>
+    <t>bad request,insert one entity of
+basic auth type:success
+oauth auth type:success
+cookie auth type:success
+token auth type:fail</t>
+  </si>
+  <si>
+    <t>[
+    {
+        "authType":"basic",
+        "dataSourceName":"UserBasicInfoWithBasicAuth",
+        "detail":{
+            "value":"name=admin pwd=123457"
+        }
+    },
+    {
+        "authType":"OAUTH",
+        "dataSourceName":"UserProfileWithOauthAuth",
+        "detail":{
+            "value":"admin123456"
+        }
+    },
+    {
+        "authType":"Cookie",
+        "dataSourceName":"UserWorkWithCookieAuth",
+        "detail":{
+            "value":"key1=value1;key2=value2"
+        }
+    },
+    {
+        "authType":"TOKEN",
+        "dataSourceName":"UserSpecialtyWithTokenAuth",
+        "detail":{
+            "value":"admin123456"
+        }
+    }
+]</t>
+  </si>
+  <si>
+    <t>[
+    {
+        "authType":"basic",
+        "dataSourceName":"UserBasicInfoWithBasicAuth",
+        "detail":{
+            "value":"name=admin pwd=123456"
+        }
+    },
+    {
+        "authType":"OAUTH",
+        "dataSourceName":"UserProfileWithOauthAuth",
+        "detail":{
+            "value":"admin123457"
+        }
+    },
+    {
+        "authType":"Cookie",
+        "dataSourceName":"UserWorkWithCookieAuth",
+        "detail":{
+            "value":"key1=value1;key2=value2"
+        }
+    },
+    {
+        "authType":"TOKEN",
+        "dataSourceName":"UserSpecialtyWithTokenAuth",
+        "detail":{
+            "value":"admin123456"
+        }
+    }
+]</t>
+  </si>
+  <si>
+    <t>[
+    {
+        "authType":"basic",
+        "dataSourceName":"UserBasicInfoWithBasicAuth",
+        "detail":{
+            "value":"name=admin pwd=123456"
+        }
+    },
+    {
+        "authType":"OAUTH",
+        "dataSourceName":"UserProfileWithOauthAuth",
+        "detail":{
+            "value":"admin123456"
+        }
+    },
+    {
+        "authType":"Cookie",
+        "dataSourceName":"UserWorkWithCookieAuth",
+        "detail":{
+            "value":"key1=value1;key2=value3"
+        }
+    },
+    {
+        "authType":"TOKEN",
+        "dataSourceName":"UserSpecialtyWithTokenAuth",
+        "detail":{
+            "value":"admin123456"
+        }
+    }
+]</t>
+  </si>
+  <si>
+    <t>[
+    {
+        "authType":"basic",
+        "dataSourceName":"UserBasicInfoWithBasicAuth",
+        "detail":{
+            "value":"name=admin pwd=123456"
+        }
+    },
+    {
+        "authType":"OAUTH",
+        "dataSourceName":"UserProfileWithOauthAuth",
+        "detail":{
+            "value":"admin123456"
+        }
+    },
+    {
+        "authType":"Cookie",
+        "dataSourceName":"UserWorkWithCookieAuth",
+        "detail":{
+            "value":"key1=value1;key2=value2"
+        }
+    },
+    {
+        "authType":"TOKEN",
+        "dataSourceName":"UserSpecialtyWithTokenAuth",
+        "detail":{
+            "value":"admin123457"
+        }
+    }
+]</t>
+  </si>
+  <si>
+    <t>iot-restful-write-auth-insert-test-1</t>
+  </si>
+  <si>
+    <t>iot-restful-write-auth-insert-test-2</t>
+  </si>
+  <si>
+    <t>iot-restful-write-auth-insert-test-3</t>
+  </si>
+  <si>
+    <t>iot-restful-write-auth-insert-test-4</t>
+  </si>
+  <si>
+    <t>iot-restful-write-auth-insert-test-5</t>
+  </si>
+  <si>
+    <t>{
+   UserBasicInfoWithBasicAuth:200,
+   UserProfileWithOauthAuth:200,
+   UserWorkWithCookieAuth:200,   UserSpecialtyWithTokenAuth:200
+}</t>
+  </si>
+  <si>
+    <t>{
+   UserBasicInfoWithBasicAuth:200,
+   UserProfileWithOauthAuth:401,
+   UserWorkWithCookieAuth:200,   UserSpecialtyWithTokenAuth:200
+}</t>
+  </si>
+  <si>
+    <t>{
+   UserBasicInfoWithBasicAuth:401,
+   UserProfileWithOauthAuth:200,
+   UserWorkWithCookieAuth:200,   UserSpecialtyWithTokenAuth:200
+}</t>
+  </si>
+  <si>
+    <t>{
+   UserBasicInfoWithBasicAuth:200,
+   UserProfileWithOauthAuth:200,
+   UserWorkWithCookieAuth:401,   UserSpecialtyWithTokenAuth:200
+}</t>
+  </si>
+  <si>
+    <t>{
+   UserBasicInfoWithBasicAuth:200,
+   UserProfileWithOauthAuth:200,
+   UserWorkWithCookieAuth:200,   UserSpecialtyWithTokenAuth:401
+}</t>
+  </si>
+  <si>
+    <t>iot-restful-write-auth-update-test-1</t>
+  </si>
+  <si>
+    <t>good request,updatet one entity of basic/oauth/cookie/token auth type success, data retrieved</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+    UserWithAuth_Update(input:
+    [
+        {
+          id: 1,
+          name: "XiaoMing.Update",
+          age: 26,
+          mail: "Ming.Xiao.Update@siemens.com",
+          phone: "15245654568",
+          address: "Beijing.China",
+          employer:"Siemens",
+          title:"engineer",
+          employeeid:"A006WFRV",
+          mothertongue:"mandarin",
+          secondlanguage:"English",
+          course:"Advanced mathematics"
+        }
+    ],
+    authInfo:"$authInfo"
+    )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>iot-restful-write-auth-update-test-2</t>
+  </si>
+  <si>
+    <t>iot-restful-write-auth-update-test-3</t>
+  </si>
+  <si>
+    <t>iot-restful-write-auth-update-test-4</t>
+  </si>
+  <si>
+    <t>iot-restful-write-auth-update-test-5</t>
+  </si>
+  <si>
+    <t>bad request,update one entity of
+basic auth type:fail
+oauth auth type:success
+cookie auth type:success
+token auth type:success</t>
+  </si>
+  <si>
+    <t>bad request,update one entity of
+basic auth type:success
+oauth auth type:fail
+cookie auth type:success
+token auth type:success</t>
+  </si>
+  <si>
+    <t>bad request,update one entity of
+basic auth type:success
+oauth auth type:success
+cookie auth type:fail
+token auth type:success</t>
+  </si>
+  <si>
+    <t>bad request,update one entity of
+basic auth type:success
+oauth auth type:success
+cookie auth type:success
+token auth type:fail</t>
+  </si>
+  <si>
+    <t>iot-restful-write-auth-delete-test-1</t>
+  </si>
+  <si>
+    <t>good request,delete one entity of basic/oauth/cookie/token auth type success, data retrieved</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+    UserWithAuth_Delete(input:
+    [
+        {
+          id: 1
+        }
+    ],
+    authInfo:"$authInfo"
+    )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>iot-restful-write-auth-delete-test-2</t>
+  </si>
+  <si>
+    <t>iot-restful-write-auth-delete-test-3</t>
+  </si>
+  <si>
+    <t>iot-restful-write-auth-delete-test-4</t>
+  </si>
+  <si>
+    <t>iot-restful-write-auth-delete-test-5</t>
   </si>
 </sst>
 </file>
@@ -4282,8 +4676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{233D398F-A510-45E2-94C1-EA62EAF2A2C6}">
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -5861,9 +6255,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9F6F477-271A-41FE-A290-09DC67B3D45A}">
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O9" sqref="O9"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -6284,8 +6678,8 @@
   <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K11" sqref="K11"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -6940,4 +7334,595 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAD7C303-AF77-4B95-95EB-BAA32E85C8DA}">
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="38.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.21875" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="38.88671875" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="117" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G2" s="11">
+        <v>200</v>
+      </c>
+      <c r="H2" s="11">
+        <v>100000</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="12">
+        <v>0</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="117" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G3" s="11">
+        <v>200</v>
+      </c>
+      <c r="H3" s="11">
+        <v>100000</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="12">
+        <v>1</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="117" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G4" s="11">
+        <v>200</v>
+      </c>
+      <c r="H4" s="11">
+        <v>100000</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="12">
+        <v>1</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="117" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G5" s="11">
+        <v>200</v>
+      </c>
+      <c r="H5" s="11">
+        <v>100000</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="12">
+        <v>1</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="117" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>357</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>361</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G6" s="11">
+        <v>200</v>
+      </c>
+      <c r="H6" s="11">
+        <v>100000</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="12">
+        <v>1</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="117" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G7" s="11">
+        <v>200</v>
+      </c>
+      <c r="H7" s="11">
+        <v>100000</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="12">
+        <v>0</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="117" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G8" s="11">
+        <v>200</v>
+      </c>
+      <c r="H8" s="11">
+        <v>100000</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="12">
+        <v>1</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="117" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G9" s="11">
+        <v>200</v>
+      </c>
+      <c r="H9" s="11">
+        <v>100000</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="12">
+        <v>1</v>
+      </c>
+      <c r="K9" s="13" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="117" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G10" s="11">
+        <v>200</v>
+      </c>
+      <c r="H10" s="11">
+        <v>100000</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" s="12">
+        <v>1</v>
+      </c>
+      <c r="K10" s="13" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="117" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>361</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G11" s="11">
+        <v>200</v>
+      </c>
+      <c r="H11" s="11">
+        <v>100000</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J11" s="12">
+        <v>1</v>
+      </c>
+      <c r="K11" s="13" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="117" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
+        <v>383</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>385</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G12" s="11">
+        <v>200</v>
+      </c>
+      <c r="H12" s="11">
+        <v>100000</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J12" s="12">
+        <v>0</v>
+      </c>
+      <c r="K12" s="13" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="117" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>385</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G13" s="11">
+        <v>200</v>
+      </c>
+      <c r="H13" s="11">
+        <v>100000</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J13" s="12">
+        <v>1</v>
+      </c>
+      <c r="K13" s="13" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="117" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>385</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G14" s="11">
+        <v>200</v>
+      </c>
+      <c r="H14" s="11">
+        <v>100000</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" s="12">
+        <v>1</v>
+      </c>
+      <c r="K14" s="13" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="117" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>385</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G15" s="11">
+        <v>200</v>
+      </c>
+      <c r="H15" s="11">
+        <v>100000</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J15" s="12">
+        <v>1</v>
+      </c>
+      <c r="K15" s="13" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="117" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>361</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>385</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G16" s="11">
+        <v>200</v>
+      </c>
+      <c r="H16" s="11">
+        <v>100000</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J16" s="12">
+        <v>1</v>
+      </c>
+      <c r="K16" s="13" t="s">
+        <v>371</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/main/resources/test-data-xls/iot-api-engine-test-data.xlsx
+++ b/src/main/resources/test-data-xls/iot-api-engine-test-data.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\data-layer-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{971CF752-8D58-496B-8459-A817E5939EEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE49385E-E135-489B-A116-CE16873AFAB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="getDataEntities" sheetId="2" r:id="rId1"/>
     <sheet name="getDataGraphQL" sheetId="3" r:id="rId2"/>
-    <sheet name="postGraphForMysql" sheetId="9" r:id="rId3"/>
-    <sheet name="restfulTransactionSingleEntity" sheetId="10" r:id="rId4"/>
-    <sheet name="restfulTransactionMultiEntity" sheetId="11" r:id="rId5"/>
-    <sheet name="authForRestfulWrite" sheetId="12" r:id="rId6"/>
+    <sheet name="postGraphForMysql" sheetId="14" r:id="rId3"/>
+    <sheet name="postGraphForMysql-backup" sheetId="9" r:id="rId4"/>
+    <sheet name="restfulTransactionSingleEntity" sheetId="10" r:id="rId5"/>
+    <sheet name="restfulTransactionMultiEntity" sheetId="11" r:id="rId6"/>
+    <sheet name="authForRestfulWrite" sheetId="12" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="400">
   <si>
     <t>description</t>
   </si>
@@ -3656,6 +3657,36 @@
   </si>
   <si>
     <t>iot-restful-write-auth-delete-test-5</t>
+  </si>
+  <si>
+    <t>2,3,4,5,6</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6</t>
+  </si>
+  <si>
+    <t>expectedRemainingIdInMysql</t>
+  </si>
+  <si>
+    <t>2,3,4</t>
+  </si>
+  <si>
+    <t>1,4,5,6</t>
+  </si>
+  <si>
+    <t>2,3</t>
+  </si>
+  <si>
+    <t>1,5,6</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5</t>
+  </si>
+  <si>
+    <t>1,6</t>
+  </si>
+  <si>
+    <t>1,2,3,4,6</t>
   </si>
 </sst>
 </file>
@@ -4673,11 +4704,1591 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6DC2BAC-5C19-4CFF-8624-044FD1CB4C77}">
+  <dimension ref="A1:L43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.77734375" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.21875" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G2" s="11">
+        <v>1</v>
+      </c>
+      <c r="H2" s="11">
+        <v>200</v>
+      </c>
+      <c r="I2" s="11">
+        <v>100000</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="12">
+        <v>0</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="H3" s="11">
+        <v>200</v>
+      </c>
+      <c r="I3" s="11">
+        <v>100000</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="12">
+        <v>0</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11">
+        <v>200</v>
+      </c>
+      <c r="I4" s="11">
+        <v>100000</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="11">
+        <v>1</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11">
+        <v>200</v>
+      </c>
+      <c r="I5" s="11">
+        <v>101301</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+    </row>
+    <row r="6" spans="1:12" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11">
+        <v>200</v>
+      </c>
+      <c r="I6" s="11">
+        <v>101301</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+    </row>
+    <row r="7" spans="1:12" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11">
+        <v>200</v>
+      </c>
+      <c r="I7" s="11">
+        <v>101301</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+    </row>
+    <row r="8" spans="1:12" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11">
+        <v>200</v>
+      </c>
+      <c r="I8" s="11">
+        <v>101301</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+    </row>
+    <row r="9" spans="1:12" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G9" s="11">
+        <v>1</v>
+      </c>
+      <c r="H9" s="11">
+        <v>200</v>
+      </c>
+      <c r="I9" s="11">
+        <v>100000</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" s="11">
+        <v>0</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="H10" s="11">
+        <v>200</v>
+      </c>
+      <c r="I10" s="11">
+        <v>100000</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K10" s="11">
+        <v>0</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11">
+        <v>200</v>
+      </c>
+      <c r="I11" s="11">
+        <v>101303</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+    </row>
+    <row r="12" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11">
+        <v>200</v>
+      </c>
+      <c r="I12" s="11">
+        <v>101301</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+    </row>
+    <row r="13" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11">
+        <v>200</v>
+      </c>
+      <c r="I13" s="11">
+        <v>101301</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+    </row>
+    <row r="14" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11">
+        <v>200</v>
+      </c>
+      <c r="I14" s="11">
+        <v>101301</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+    </row>
+    <row r="15" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11">
+        <v>200</v>
+      </c>
+      <c r="I15" s="11">
+        <v>101301</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+    </row>
+    <row r="16" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11">
+        <v>200</v>
+      </c>
+      <c r="I16" s="11">
+        <v>100000</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K16" s="11">
+        <v>0</v>
+      </c>
+      <c r="L16" s="11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" s="10" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="H17" s="11">
+        <v>200</v>
+      </c>
+      <c r="I17" s="11">
+        <v>100000</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K17" s="11">
+        <v>0</v>
+      </c>
+      <c r="L17" s="11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="H18" s="11">
+        <v>200</v>
+      </c>
+      <c r="I18" s="11">
+        <v>100000</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K18" s="11">
+        <v>0</v>
+      </c>
+      <c r="L18" s="11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="H19" s="11">
+        <v>200</v>
+      </c>
+      <c r="I19" s="11">
+        <v>100000</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K19" s="11">
+        <v>0</v>
+      </c>
+      <c r="L19" s="11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="H20" s="11">
+        <v>200</v>
+      </c>
+      <c r="I20" s="11">
+        <v>100000</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K20" s="11">
+        <v>0</v>
+      </c>
+      <c r="L20" s="11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="H21" s="11">
+        <v>200</v>
+      </c>
+      <c r="I21" s="11">
+        <v>100000</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K21" s="11">
+        <v>0</v>
+      </c>
+      <c r="L21" s="11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="H22" s="11">
+        <v>200</v>
+      </c>
+      <c r="I22" s="11">
+        <v>100000</v>
+      </c>
+      <c r="J22" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K22" s="11">
+        <v>0</v>
+      </c>
+      <c r="L22" s="11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="H23" s="11">
+        <v>200</v>
+      </c>
+      <c r="I23" s="11">
+        <v>100000</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K23" s="11">
+        <v>0</v>
+      </c>
+      <c r="L23" s="11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="H24" s="11">
+        <v>200</v>
+      </c>
+      <c r="I24" s="11">
+        <v>100000</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K24" s="11">
+        <v>0</v>
+      </c>
+      <c r="L24" s="11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="H25" s="11">
+        <v>200</v>
+      </c>
+      <c r="I25" s="11">
+        <v>100000</v>
+      </c>
+      <c r="J25" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K25" s="11">
+        <v>0</v>
+      </c>
+      <c r="L25" s="11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="H26" s="11">
+        <v>200</v>
+      </c>
+      <c r="I26" s="11">
+        <v>100000</v>
+      </c>
+      <c r="J26" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K26" s="11">
+        <v>0</v>
+      </c>
+      <c r="L26" s="11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="H27" s="11">
+        <v>200</v>
+      </c>
+      <c r="I27" s="11">
+        <v>100000</v>
+      </c>
+      <c r="J27" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K27" s="11">
+        <v>0</v>
+      </c>
+      <c r="L27" s="11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="H28" s="11">
+        <v>200</v>
+      </c>
+      <c r="I28" s="11">
+        <v>100000</v>
+      </c>
+      <c r="J28" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K28" s="11">
+        <v>0</v>
+      </c>
+      <c r="L28" s="11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="H29" s="11">
+        <v>200</v>
+      </c>
+      <c r="I29" s="11">
+        <v>100000</v>
+      </c>
+      <c r="J29" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K29" s="11">
+        <v>0</v>
+      </c>
+      <c r="L29" s="11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="H30" s="11">
+        <v>200</v>
+      </c>
+      <c r="I30" s="11">
+        <v>100000</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K30" s="11">
+        <v>0</v>
+      </c>
+      <c r="L30" s="11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="H31" s="11">
+        <v>200</v>
+      </c>
+      <c r="I31" s="11">
+        <v>100000</v>
+      </c>
+      <c r="J31" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K31" s="11">
+        <v>0</v>
+      </c>
+      <c r="L31" s="11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" s="10" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="H32" s="11">
+        <v>200</v>
+      </c>
+      <c r="I32" s="11">
+        <v>100000</v>
+      </c>
+      <c r="J32" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K32" s="11">
+        <v>0</v>
+      </c>
+      <c r="L32" s="11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" s="10" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G33" s="11">
+        <v>1</v>
+      </c>
+      <c r="H33" s="11">
+        <v>200</v>
+      </c>
+      <c r="I33" s="11">
+        <v>100000</v>
+      </c>
+      <c r="J33" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K33" s="11">
+        <v>0</v>
+      </c>
+      <c r="L33" s="11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" s="10" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="H34" s="11">
+        <v>200</v>
+      </c>
+      <c r="I34" s="11">
+        <v>100000</v>
+      </c>
+      <c r="J34" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K34" s="11">
+        <v>0</v>
+      </c>
+      <c r="L34" s="11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" s="10" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="H35" s="11">
+        <v>200</v>
+      </c>
+      <c r="I35" s="11">
+        <v>100000</v>
+      </c>
+      <c r="J35" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K35" s="11">
+        <v>0</v>
+      </c>
+      <c r="L35" s="11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" s="10" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>395</v>
+      </c>
+      <c r="H36" s="11">
+        <v>200</v>
+      </c>
+      <c r="I36" s="11">
+        <v>100000</v>
+      </c>
+      <c r="J36" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K36" s="11">
+        <v>0</v>
+      </c>
+      <c r="L36" s="11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" s="10" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G37" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="H37" s="11">
+        <v>200</v>
+      </c>
+      <c r="I37" s="11">
+        <v>100000</v>
+      </c>
+      <c r="J37" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K37" s="11">
+        <v>0</v>
+      </c>
+      <c r="L37" s="11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" s="10" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G38" s="11">
+        <v>6</v>
+      </c>
+      <c r="H38" s="11">
+        <v>200</v>
+      </c>
+      <c r="I38" s="11">
+        <v>100000</v>
+      </c>
+      <c r="J38" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K38" s="11">
+        <v>0</v>
+      </c>
+      <c r="L38" s="11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" s="10" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="H39" s="11">
+        <v>200</v>
+      </c>
+      <c r="I39" s="11">
+        <v>100000</v>
+      </c>
+      <c r="J39" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K39" s="11">
+        <v>0</v>
+      </c>
+      <c r="L39" s="11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" s="10" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="H40" s="11">
+        <v>200</v>
+      </c>
+      <c r="I40" s="11">
+        <v>100000</v>
+      </c>
+      <c r="J40" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K40" s="11">
+        <v>0</v>
+      </c>
+      <c r="L40" s="11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" s="10" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G41" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="H41" s="11">
+        <v>200</v>
+      </c>
+      <c r="I41" s="11">
+        <v>100000</v>
+      </c>
+      <c r="J41" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K41" s="11">
+        <v>0</v>
+      </c>
+      <c r="L41" s="11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" s="10" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G42" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="H42" s="11">
+        <v>200</v>
+      </c>
+      <c r="I42" s="11">
+        <v>100000</v>
+      </c>
+      <c r="J42" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K42" s="11">
+        <v>0</v>
+      </c>
+      <c r="L42" s="11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" s="10" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11">
+        <v>200</v>
+      </c>
+      <c r="I43" s="11">
+        <v>100000</v>
+      </c>
+      <c r="J43" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K43" s="11">
+        <v>0</v>
+      </c>
+      <c r="L43" s="11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{233D398F-A510-45E2-94C1-EA62EAF2A2C6}">
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -6251,12 +7862,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9F6F477-271A-41FE-A290-09DC67B3D45A}">
   <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -6673,7 +8284,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AE618FA-BAFF-4947-8A48-6BBC9A48AE70}">
   <dimension ref="A1:S13"/>
   <sheetViews>
@@ -7336,11 +8947,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAD7C303-AF77-4B95-95EB-BAA32E85C8DA}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/test-data-xls/iot-api-engine-test-data.xlsx
+++ b/src/main/resources/test-data-xls/iot-api-engine-test-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\data-layer-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE49385E-E135-489B-A116-CE16873AFAB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4465F2A-D67D-4E68-B2EA-62418C361920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="getDataEntities" sheetId="2" r:id="rId1"/>
@@ -160,9 +160,6 @@
   </si>
   <si>
     <t>{Plant(cond:"{id: {_nin: [1,2,3]}}")  {address id latitude longitude name plant_owner}}</t>
-  </si>
-  <si>
-    <t>Column 'NOT_EXIST' not found in any table</t>
   </si>
   <si>
     <t>{Plant(cond:"{id: {_eq: 1}}")  {country}}</t>
@@ -3687,6 +3684,9 @@
   </si>
   <si>
     <t>1,2,3,4,6</t>
+  </si>
+  <si>
+    <t>Column 'not_exist' not found in any table</t>
   </si>
 </sst>
 </file>
@@ -4358,8 +4358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE22B0A1-EDF6-487D-8C5B-FE5F049504FE}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -4394,18 +4394,18 @@
         <v>4</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D2" s="6">
         <v>200</v>
@@ -4417,12 +4417,12 @@
         <v>10</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>26</v>
@@ -4440,12 +4440,12 @@
         <v>34</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>1</v>
@@ -4463,12 +4463,12 @@
         <v>10</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>27</v>
@@ -4486,12 +4486,12 @@
         <v>10</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>28</v>
@@ -4509,12 +4509,12 @@
         <v>29</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>1</v>
@@ -4532,12 +4532,12 @@
         <v>10</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>1</v>
@@ -4555,18 +4555,18 @@
         <v>10</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D9" s="6">
         <v>200</v>
@@ -4575,21 +4575,21 @@
         <v>101301</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D10" s="6">
         <v>200</v>
@@ -4598,21 +4598,21 @@
         <v>101403</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>40</v>
+        <v>399</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D11" s="6">
         <v>200</v>
@@ -4624,64 +4624,64 @@
         <v>10</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="6">
+        <v>200</v>
+      </c>
+      <c r="E12" s="6">
+        <v>100000</v>
+      </c>
+      <c r="F12" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="6">
-        <v>200</v>
-      </c>
-      <c r="E12" s="6">
-        <v>100000</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>241</v>
-      </c>
       <c r="G12" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="C13" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="D13" s="6">
+        <v>200</v>
+      </c>
+      <c r="E13" s="6">
+        <v>100000</v>
+      </c>
+      <c r="F13" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="D13" s="6">
-        <v>200</v>
-      </c>
-      <c r="E13" s="6">
-        <v>100000</v>
-      </c>
-      <c r="F13" s="6" t="s">
+      <c r="G13" s="6" t="s">
         <v>241</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>244</v>
-      </c>
       <c r="C14" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D14" s="6">
         <v>200</v>
@@ -4690,10 +4690,10 @@
         <v>101403</v>
       </c>
       <c r="F14" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="G14" s="6" t="s">
         <v>247</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -4707,7 +4707,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6DC2BAC-5C19-4CFF-8624-044FD1CB4C77}">
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
@@ -4737,19 +4737,19 @@
         <v>0</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E1" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="F1" s="8" t="s">
-        <v>98</v>
-      </c>
       <c r="G1" s="8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H1" s="8" t="s">
         <v>3</v>
@@ -4761,28 +4761,28 @@
         <v>4</v>
       </c>
       <c r="K1" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="L1" s="8" t="s">
         <v>101</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E2" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F2" s="11" t="s">
         <v>99</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>100</v>
       </c>
       <c r="G2" s="11">
         <v>1</v>
@@ -4800,28 +4800,28 @@
         <v>0</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E3" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F3" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="F3" s="11" t="s">
-        <v>100</v>
-      </c>
       <c r="G3" s="11" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H3" s="11">
         <v>200</v>
@@ -4836,25 +4836,25 @@
         <v>0</v>
       </c>
       <c r="L3" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E4" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4" s="11" t="s">
         <v>99</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>100</v>
       </c>
       <c r="G4" s="11"/>
       <c r="H4" s="11">
@@ -4870,25 +4870,25 @@
         <v>1</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E5" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F5" s="11" t="s">
         <v>99</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>100</v>
       </c>
       <c r="G5" s="11"/>
       <c r="H5" s="11">
@@ -4898,27 +4898,27 @@
         <v>101301</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
     </row>
     <row r="6" spans="1:12" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E6" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F6" s="11" t="s">
         <v>99</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>100</v>
       </c>
       <c r="G6" s="11"/>
       <c r="H6" s="11">
@@ -4928,27 +4928,27 @@
         <v>101301</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K6" s="11"/>
       <c r="L6" s="11"/>
     </row>
     <row r="7" spans="1:12" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E7" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F7" s="11" t="s">
         <v>99</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>100</v>
       </c>
       <c r="G7" s="11"/>
       <c r="H7" s="11">
@@ -4958,27 +4958,27 @@
         <v>101301</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
     </row>
     <row r="8" spans="1:12" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E8" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F8" s="11" t="s">
         <v>99</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>100</v>
       </c>
       <c r="G8" s="11"/>
       <c r="H8" s="11">
@@ -4988,29 +4988,29 @@
         <v>101301</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K8" s="11"/>
       <c r="L8" s="11"/>
     </row>
     <row r="9" spans="1:12" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G9" s="11">
         <v>1</v>
@@ -5028,30 +5028,30 @@
         <v>0</v>
       </c>
       <c r="L9" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B10" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D10" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>134</v>
-      </c>
       <c r="E10" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H10" s="11">
         <v>200</v>
@@ -5066,25 +5066,25 @@
         <v>0</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G11" s="11"/>
       <c r="H11" s="11">
@@ -5094,27 +5094,27 @@
         <v>101303</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K11" s="11"/>
       <c r="L11" s="11"/>
     </row>
     <row r="12" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G12" s="11"/>
       <c r="H12" s="11">
@@ -5124,27 +5124,27 @@
         <v>101301</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K12" s="11"/>
       <c r="L12" s="11"/>
     </row>
     <row r="13" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G13" s="11"/>
       <c r="H13" s="11">
@@ -5154,27 +5154,27 @@
         <v>101301</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K13" s="11"/>
       <c r="L13" s="11"/>
     </row>
     <row r="14" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G14" s="11"/>
       <c r="H14" s="11">
@@ -5184,27 +5184,27 @@
         <v>101301</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K14" s="11"/>
       <c r="L14" s="11"/>
     </row>
     <row r="15" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G15" s="11"/>
       <c r="H15" s="11">
@@ -5214,27 +5214,27 @@
         <v>101301</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K15" s="11"/>
       <c r="L15" s="11"/>
     </row>
     <row r="16" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G16" s="11"/>
       <c r="H16" s="11">
@@ -5250,30 +5250,30 @@
         <v>0</v>
       </c>
       <c r="L16" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:12" s="10" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H17" s="11">
         <v>200</v>
@@ -5288,30 +5288,30 @@
         <v>0</v>
       </c>
       <c r="L17" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B18" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D18" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="C18" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>153</v>
-      </c>
       <c r="E18" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H18" s="11">
         <v>200</v>
@@ -5326,30 +5326,30 @@
         <v>0</v>
       </c>
       <c r="L18" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H19" s="11">
         <v>200</v>
@@ -5364,30 +5364,30 @@
         <v>0</v>
       </c>
       <c r="L19" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H20" s="11">
         <v>200</v>
@@ -5402,30 +5402,30 @@
         <v>0</v>
       </c>
       <c r="L20" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="B21" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="B21" s="11" t="s">
-        <v>173</v>
-      </c>
       <c r="C21" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H21" s="11">
         <v>200</v>
@@ -5440,30 +5440,30 @@
         <v>0</v>
       </c>
       <c r="L21" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="B22" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="B22" s="11" t="s">
-        <v>180</v>
-      </c>
       <c r="C22" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H22" s="11">
         <v>200</v>
@@ -5478,30 +5478,30 @@
         <v>0</v>
       </c>
       <c r="L22" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="B23" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="B23" s="11" t="s">
-        <v>185</v>
-      </c>
       <c r="C23" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H23" s="11">
         <v>200</v>
@@ -5516,30 +5516,30 @@
         <v>0</v>
       </c>
       <c r="L23" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="B24" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="B24" s="11" t="s">
-        <v>192</v>
-      </c>
       <c r="C24" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H24" s="11">
         <v>200</v>
@@ -5554,30 +5554,30 @@
         <v>0</v>
       </c>
       <c r="L24" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D25" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="B25" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>197</v>
-      </c>
       <c r="E25" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H25" s="11">
         <v>200</v>
@@ -5592,30 +5592,30 @@
         <v>0</v>
       </c>
       <c r="L25" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="B26" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="C26" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D26" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="C26" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>205</v>
-      </c>
       <c r="E26" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H26" s="11">
         <v>200</v>
@@ -5630,30 +5630,30 @@
         <v>0</v>
       </c>
       <c r="L26" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B27" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D27" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="C27" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>214</v>
-      </c>
       <c r="E27" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H27" s="11">
         <v>200</v>
@@ -5668,30 +5668,30 @@
         <v>0</v>
       </c>
       <c r="L27" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B28" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D28" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="C28" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>221</v>
-      </c>
       <c r="E28" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H28" s="11">
         <v>200</v>
@@ -5706,30 +5706,30 @@
         <v>0</v>
       </c>
       <c r="L28" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H29" s="11">
         <v>200</v>
@@ -5744,30 +5744,30 @@
         <v>0</v>
       </c>
       <c r="L29" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H30" s="11">
         <v>200</v>
@@ -5782,30 +5782,30 @@
         <v>0</v>
       </c>
       <c r="L30" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H31" s="11">
         <v>200</v>
@@ -5820,30 +5820,30 @@
         <v>0</v>
       </c>
       <c r="L31" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:12" s="10" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B32" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D32" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="C32" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>151</v>
-      </c>
       <c r="E32" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H32" s="11">
         <v>200</v>
@@ -5858,27 +5858,27 @@
         <v>0</v>
       </c>
       <c r="L32" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" spans="1:12" s="10" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B33" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="C33" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D33" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="C33" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>156</v>
-      </c>
       <c r="E33" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G33" s="11">
         <v>1</v>
@@ -5896,30 +5896,30 @@
         <v>0</v>
       </c>
       <c r="L33" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34" spans="1:12" s="10" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B34" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D34" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="C34" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>163</v>
-      </c>
       <c r="E34" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H34" s="11">
         <v>200</v>
@@ -5934,30 +5934,30 @@
         <v>0</v>
       </c>
       <c r="L34" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35" spans="1:12" s="10" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D35" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="B35" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>167</v>
-      </c>
       <c r="E35" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H35" s="11">
         <v>200</v>
@@ -5972,30 +5972,30 @@
         <v>0</v>
       </c>
       <c r="L35" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36" spans="1:12" s="10" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="B36" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="C36" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D36" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="C36" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>177</v>
-      </c>
       <c r="E36" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H36" s="11">
         <v>200</v>
@@ -6010,30 +6010,30 @@
         <v>0</v>
       </c>
       <c r="L36" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37" spans="1:12" s="10" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="B37" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="C37" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D37" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="C37" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>183</v>
-      </c>
       <c r="E37" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H37" s="11">
         <v>200</v>
@@ -6048,27 +6048,27 @@
         <v>0</v>
       </c>
       <c r="L37" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="38" spans="1:12" s="10" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="B38" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="B38" s="11" t="s">
-        <v>187</v>
-      </c>
       <c r="C38" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G38" s="11">
         <v>6</v>
@@ -6086,30 +6086,30 @@
         <v>0</v>
       </c>
       <c r="L38" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="39" spans="1:12" s="10" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="B39" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="B39" s="11" t="s">
-        <v>194</v>
-      </c>
       <c r="C39" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H39" s="11">
         <v>200</v>
@@ -6124,30 +6124,30 @@
         <v>0</v>
       </c>
       <c r="L39" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40" spans="1:12" s="10" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="B40" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="B40" s="11" t="s">
-        <v>200</v>
-      </c>
       <c r="C40" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H40" s="11">
         <v>200</v>
@@ -6162,30 +6162,30 @@
         <v>0</v>
       </c>
       <c r="L40" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41" spans="1:12" s="10" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="B41" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="B41" s="11" t="s">
+      <c r="C41" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D41" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="C41" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="D41" s="11" t="s">
-        <v>209</v>
-      </c>
       <c r="E41" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H41" s="11">
         <v>200</v>
@@ -6200,30 +6200,30 @@
         <v>0</v>
       </c>
       <c r="L41" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="42" spans="1:12" s="10" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B42" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D42" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="C42" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>219</v>
-      </c>
       <c r="E42" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H42" s="11">
         <v>200</v>
@@ -6238,27 +6238,27 @@
         <v>0</v>
       </c>
       <c r="L42" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="43" spans="1:12" s="10" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G43" s="11"/>
       <c r="H43" s="11">
@@ -6274,7 +6274,7 @@
         <v>0</v>
       </c>
       <c r="L43" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -6315,19 +6315,19 @@
         <v>0</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E1" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="F1" s="8" t="s">
-        <v>98</v>
-      </c>
       <c r="G1" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H1" s="8" t="s">
         <v>3</v>
@@ -6339,31 +6339,31 @@
         <v>4</v>
       </c>
       <c r="K1" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="L1" s="8" t="s">
         <v>101</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E2" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F2" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="F2" s="11" t="s">
-        <v>100</v>
-      </c>
       <c r="G2" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H2" s="11">
         <v>200</v>
@@ -6378,28 +6378,28 @@
         <v>0</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E3" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F3" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="F3" s="11" t="s">
-        <v>100</v>
-      </c>
       <c r="G3" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H3" s="11">
         <v>200</v>
@@ -6414,25 +6414,25 @@
         <v>0</v>
       </c>
       <c r="L3" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E4" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4" s="11" t="s">
         <v>99</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>100</v>
       </c>
       <c r="G4" s="11"/>
       <c r="H4" s="11">
@@ -6448,25 +6448,25 @@
         <v>1</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E5" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F5" s="11" t="s">
         <v>99</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>100</v>
       </c>
       <c r="G5" s="11"/>
       <c r="H5" s="11">
@@ -6476,27 +6476,27 @@
         <v>101301</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
     </row>
     <row r="6" spans="1:12" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E6" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F6" s="11" t="s">
         <v>99</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>100</v>
       </c>
       <c r="G6" s="11"/>
       <c r="H6" s="11">
@@ -6506,27 +6506,27 @@
         <v>101301</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K6" s="11"/>
       <c r="L6" s="11"/>
     </row>
     <row r="7" spans="1:12" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E7" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F7" s="11" t="s">
         <v>99</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>100</v>
       </c>
       <c r="G7" s="11"/>
       <c r="H7" s="11">
@@ -6536,27 +6536,27 @@
         <v>101301</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
     </row>
     <row r="8" spans="1:12" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E8" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F8" s="11" t="s">
         <v>99</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>100</v>
       </c>
       <c r="G8" s="11"/>
       <c r="H8" s="11">
@@ -6566,32 +6566,32 @@
         <v>101301</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K8" s="11"/>
       <c r="L8" s="11"/>
     </row>
     <row r="9" spans="1:12" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D9" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G9" s="11" t="s">
         <v>130</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>131</v>
       </c>
       <c r="H9" s="11">
         <v>200</v>
@@ -6606,30 +6606,30 @@
         <v>0</v>
       </c>
       <c r="L9" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B10" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D10" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="D10" s="11" t="s">
+      <c r="E10" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G10" s="11" t="s">
         <v>134</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>135</v>
       </c>
       <c r="H10" s="11">
         <v>200</v>
@@ -6644,25 +6644,25 @@
         <v>0</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G11" s="11"/>
       <c r="H11" s="11">
@@ -6672,27 +6672,27 @@
         <v>101303</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K11" s="11"/>
       <c r="L11" s="11"/>
     </row>
     <row r="12" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G12" s="11"/>
       <c r="H12" s="11">
@@ -6702,27 +6702,27 @@
         <v>101301</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K12" s="11"/>
       <c r="L12" s="11"/>
     </row>
     <row r="13" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G13" s="11"/>
       <c r="H13" s="11">
@@ -6732,27 +6732,27 @@
         <v>101301</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K13" s="11"/>
       <c r="L13" s="11"/>
     </row>
     <row r="14" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G14" s="11"/>
       <c r="H14" s="11">
@@ -6762,27 +6762,27 @@
         <v>101301</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K14" s="11"/>
       <c r="L14" s="11"/>
     </row>
     <row r="15" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G15" s="11"/>
       <c r="H15" s="11">
@@ -6792,27 +6792,27 @@
         <v>101301</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K15" s="11"/>
       <c r="L15" s="11"/>
     </row>
     <row r="16" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G16" s="11"/>
       <c r="H16" s="11">
@@ -6828,30 +6828,30 @@
         <v>0</v>
       </c>
       <c r="L16" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:12" s="10" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H17" s="11">
         <v>200</v>
@@ -6866,30 +6866,30 @@
         <v>0</v>
       </c>
       <c r="L17" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B18" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D18" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="C18" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>153</v>
-      </c>
       <c r="E18" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H18" s="11">
         <v>200</v>
@@ -6904,30 +6904,30 @@
         <v>0</v>
       </c>
       <c r="L18" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G19" s="11" t="s">
         <v>158</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>159</v>
       </c>
       <c r="H19" s="11">
         <v>200</v>
@@ -6942,30 +6942,30 @@
         <v>0</v>
       </c>
       <c r="L19" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G20" s="11" t="s">
         <v>164</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>165</v>
       </c>
       <c r="H20" s="11">
         <v>200</v>
@@ -6980,30 +6980,30 @@
         <v>0</v>
       </c>
       <c r="L20" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="B21" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="C21" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G21" s="11" t="s">
         <v>173</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>174</v>
       </c>
       <c r="H21" s="11">
         <v>200</v>
@@ -7018,30 +7018,30 @@
         <v>0</v>
       </c>
       <c r="L21" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="B22" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="B22" s="11" t="s">
-        <v>180</v>
-      </c>
       <c r="C22" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H22" s="11">
         <v>200</v>
@@ -7056,30 +7056,30 @@
         <v>0</v>
       </c>
       <c r="L22" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="B23" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="B23" s="11" t="s">
-        <v>185</v>
-      </c>
       <c r="C23" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H23" s="11">
         <v>200</v>
@@ -7094,30 +7094,30 @@
         <v>0</v>
       </c>
       <c r="L23" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="B24" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="B24" s="11" t="s">
-        <v>192</v>
-      </c>
       <c r="C24" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H24" s="11">
         <v>200</v>
@@ -7132,30 +7132,30 @@
         <v>0</v>
       </c>
       <c r="L24" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D25" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="B25" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="D25" s="11" t="s">
+      <c r="E25" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G25" s="11" t="s">
         <v>197</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="F25" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>198</v>
       </c>
       <c r="H25" s="11">
         <v>200</v>
@@ -7170,30 +7170,30 @@
         <v>0</v>
       </c>
       <c r="L25" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="B26" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="C26" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D26" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="C26" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="D26" s="11" t="s">
+      <c r="E26" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G26" s="11" t="s">
         <v>205</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="G26" s="11" t="s">
-        <v>206</v>
       </c>
       <c r="H26" s="11">
         <v>200</v>
@@ -7208,30 +7208,30 @@
         <v>0</v>
       </c>
       <c r="L26" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B27" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D27" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="C27" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="D27" s="11" t="s">
+      <c r="E27" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G27" s="11" t="s">
         <v>214</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="G27" s="11" t="s">
-        <v>215</v>
       </c>
       <c r="H27" s="11">
         <v>200</v>
@@ -7246,30 +7246,30 @@
         <v>0</v>
       </c>
       <c r="L27" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B28" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D28" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="C28" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="D28" s="11" t="s">
+      <c r="E28" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G28" s="11" t="s">
         <v>221</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="G28" s="11" t="s">
-        <v>222</v>
       </c>
       <c r="H28" s="11">
         <v>200</v>
@@ -7284,30 +7284,30 @@
         <v>0</v>
       </c>
       <c r="L28" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C29" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G29" s="11" t="s">
         <v>142</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="F29" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="G29" s="11" t="s">
-        <v>143</v>
       </c>
       <c r="H29" s="11">
         <v>200</v>
@@ -7322,30 +7322,30 @@
         <v>0</v>
       </c>
       <c r="L29" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B30" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G30" s="11" t="s">
         <v>144</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="G30" s="11" t="s">
-        <v>145</v>
       </c>
       <c r="H30" s="11">
         <v>200</v>
@@ -7360,30 +7360,30 @@
         <v>0</v>
       </c>
       <c r="L30" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D31" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G31" s="11" t="s">
         <v>148</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="F31" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="G31" s="11" t="s">
-        <v>149</v>
       </c>
       <c r="H31" s="11">
         <v>200</v>
@@ -7398,30 +7398,30 @@
         <v>0</v>
       </c>
       <c r="L31" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:12" s="10" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B32" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D32" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="E32" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G32" s="11" t="s">
         <v>142</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="G32" s="11" t="s">
-        <v>143</v>
       </c>
       <c r="H32" s="11">
         <v>200</v>
@@ -7436,30 +7436,30 @@
         <v>0</v>
       </c>
       <c r="L32" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" spans="1:12" s="10" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B33" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="C33" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D33" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="C33" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="D33" s="11" t="s">
+      <c r="E33" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G33" s="11" t="s">
         <v>156</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="F33" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="G33" s="11" t="s">
-        <v>157</v>
       </c>
       <c r="H33" s="11">
         <v>200</v>
@@ -7474,30 +7474,30 @@
         <v>0</v>
       </c>
       <c r="L33" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34" spans="1:12" s="10" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B34" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D34" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="C34" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>163</v>
-      </c>
       <c r="E34" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H34" s="11">
         <v>200</v>
@@ -7512,30 +7512,30 @@
         <v>0</v>
       </c>
       <c r="L34" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35" spans="1:12" s="10" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D35" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="B35" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>167</v>
-      </c>
       <c r="E35" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H35" s="11">
         <v>200</v>
@@ -7550,30 +7550,30 @@
         <v>0</v>
       </c>
       <c r="L35" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36" spans="1:12" s="10" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="B36" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="C36" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D36" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="C36" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>177</v>
-      </c>
       <c r="E36" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H36" s="11">
         <v>200</v>
@@ -7588,30 +7588,30 @@
         <v>0</v>
       </c>
       <c r="L36" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37" spans="1:12" s="10" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="B37" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="C37" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D37" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="C37" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>183</v>
-      </c>
       <c r="E37" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H37" s="11">
         <v>200</v>
@@ -7626,30 +7626,30 @@
         <v>0</v>
       </c>
       <c r="L37" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="38" spans="1:12" s="10" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="B38" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="B38" s="11" t="s">
-        <v>187</v>
-      </c>
       <c r="C38" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H38" s="11">
         <v>200</v>
@@ -7664,30 +7664,30 @@
         <v>0</v>
       </c>
       <c r="L38" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="39" spans="1:12" s="10" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="B39" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="C39" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G39" s="11" t="s">
         <v>194</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="E39" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="F39" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="G39" s="11" t="s">
-        <v>195</v>
       </c>
       <c r="H39" s="11">
         <v>200</v>
@@ -7702,30 +7702,30 @@
         <v>0</v>
       </c>
       <c r="L39" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40" spans="1:12" s="10" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="B40" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="B40" s="11" t="s">
-        <v>200</v>
-      </c>
       <c r="C40" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D40" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G40" s="11" t="s">
         <v>201</v>
-      </c>
-      <c r="E40" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="F40" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="G40" s="11" t="s">
-        <v>202</v>
       </c>
       <c r="H40" s="11">
         <v>200</v>
@@ -7740,30 +7740,30 @@
         <v>0</v>
       </c>
       <c r="L40" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41" spans="1:12" s="10" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="B41" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="B41" s="11" t="s">
+      <c r="C41" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D41" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="C41" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="D41" s="11" t="s">
+      <c r="E41" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G41" s="11" t="s">
         <v>209</v>
-      </c>
-      <c r="E41" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="F41" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="G41" s="11" t="s">
-        <v>210</v>
       </c>
       <c r="H41" s="11">
         <v>200</v>
@@ -7778,30 +7778,30 @@
         <v>0</v>
       </c>
       <c r="L41" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="42" spans="1:12" s="10" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B42" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D42" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="C42" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>219</v>
-      </c>
       <c r="E42" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H42" s="11">
         <v>200</v>
@@ -7816,27 +7816,27 @@
         <v>0</v>
       </c>
       <c r="L42" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="43" spans="1:12" s="10" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G43" s="11"/>
       <c r="H43" s="11">
@@ -7852,7 +7852,7 @@
         <v>0</v>
       </c>
       <c r="L43" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -7868,7 +7868,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -7899,31 +7899,31 @@
         <v>0</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H1" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="I1" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="I1" s="8" t="s">
-        <v>259</v>
-      </c>
       <c r="J1" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="K1" s="8" t="s">
         <v>311</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>312</v>
       </c>
       <c r="L1" s="8" t="s">
         <v>3</v>
@@ -7935,37 +7935,37 @@
         <v>4</v>
       </c>
       <c r="O1" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="P1" s="8" t="s">
         <v>256</v>
-      </c>
-      <c r="P1" s="8" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>250</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>251</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="H2" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="H2" s="11" t="s">
+      <c r="I2" s="11" t="s">
         <v>261</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>262</v>
       </c>
       <c r="J2" s="11"/>
       <c r="K2" s="11"/>
@@ -7985,31 +7985,31 @@
     </row>
     <row r="3" spans="1:16" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D3" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="H3" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="H3" s="11" t="s">
+      <c r="I3" s="11" t="s">
         <v>272</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>273</v>
       </c>
       <c r="J3" s="11"/>
       <c r="K3" s="11"/>
@@ -8029,25 +8029,25 @@
     </row>
     <row r="4" spans="1:16" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
@@ -8069,28 +8069,28 @@
     </row>
     <row r="5" spans="1:16" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D5" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="H5" s="11" t="s">
         <v>260</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>261</v>
       </c>
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
@@ -8111,28 +8111,28 @@
     </row>
     <row r="6" spans="1:16" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
@@ -8153,28 +8153,28 @@
     </row>
     <row r="7" spans="1:16" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I7" s="11"/>
       <c r="J7" s="11"/>
@@ -8195,31 +8195,31 @@
     </row>
     <row r="8" spans="1:16" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="E8" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="F8" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="F8" s="11" t="s">
-        <v>285</v>
-      </c>
       <c r="G8" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="K8" s="11" t="s">
         <v>287</v>
-      </c>
-      <c r="K8" s="11" t="s">
-        <v>288</v>
       </c>
       <c r="L8" s="11">
         <v>200</v>
@@ -8237,30 +8237,30 @@
     </row>
     <row r="9" spans="1:16" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="B9" s="11" t="s">
         <v>281</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="C9" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="D9" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="D9" s="11" t="s">
+      <c r="E9" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="F9" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="F9" s="11" t="s">
-        <v>285</v>
-      </c>
       <c r="G9" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
       <c r="J9" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="K9" s="11"/>
       <c r="L9" s="11">
@@ -8325,46 +8325,46 @@
         <v>0</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D1" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="M1" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="G1" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="M1" s="8" t="s">
+      <c r="N1" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="O1" s="8" t="s">
         <v>310</v>
       </c>
-      <c r="N1" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="O1" s="8" t="s">
+      <c r="P1" s="8" t="s">
         <v>311</v>
-      </c>
-      <c r="P1" s="8" t="s">
-        <v>312</v>
       </c>
       <c r="Q1" s="8" t="s">
         <v>3</v>
@@ -8378,38 +8378,38 @@
     </row>
     <row r="2" spans="1:19" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
       <c r="G2" s="11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J2" s="7"/>
       <c r="K2" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="L2" s="11" t="s">
         <v>314</v>
       </c>
-      <c r="L2" s="11" t="s">
-        <v>315</v>
-      </c>
       <c r="M2" s="11" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="N2" s="11" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="O2" s="11"/>
       <c r="P2" s="11"/>
@@ -8425,37 +8425,37 @@
     </row>
     <row r="3" spans="1:19" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="11" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="11" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J3" s="11"/>
       <c r="K3" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="L3" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="L3" s="11" t="s">
-        <v>262</v>
-      </c>
       <c r="M3" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N3" s="11"/>
       <c r="O3" s="11"/>
@@ -8472,37 +8472,37 @@
     </row>
     <row r="4" spans="1:19" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="11" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J4" s="11"/>
       <c r="K4" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L4" s="11"/>
       <c r="M4" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N4" s="11"/>
       <c r="O4" s="11"/>
@@ -8519,42 +8519,42 @@
     </row>
     <row r="5" spans="1:19" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D5" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="E5" s="11" t="s">
         <v>329</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>330</v>
       </c>
       <c r="F5" s="11"/>
       <c r="G5" s="11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J5" s="7"/>
       <c r="K5" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="L5" s="11" t="s">
         <v>326</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="M5" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="N5" s="11" t="s">
         <v>327</v>
-      </c>
-      <c r="M5" s="11" t="s">
-        <v>326</v>
-      </c>
-      <c r="N5" s="11" t="s">
-        <v>328</v>
       </c>
       <c r="O5" s="11"/>
       <c r="P5" s="11"/>
@@ -8570,39 +8570,39 @@
     </row>
     <row r="6" spans="1:19" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="11" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J6" s="7"/>
       <c r="K6" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="L6" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="L6" s="11" t="s">
-        <v>273</v>
-      </c>
       <c r="M6" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
@@ -8619,37 +8619,37 @@
     </row>
     <row r="7" spans="1:19" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F7" s="11"/>
       <c r="G7" s="11" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J7" s="7"/>
       <c r="K7" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L7" s="11"/>
       <c r="M7" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
@@ -8666,29 +8666,29 @@
     </row>
     <row r="8" spans="1:19" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D8" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="E8" s="11" t="s">
         <v>329</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>330</v>
       </c>
       <c r="F8" s="11"/>
       <c r="G8" s="11" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J8" s="11"/>
       <c r="K8" s="11"/>
@@ -8709,35 +8709,35 @@
     </row>
     <row r="9" spans="1:19" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="11"/>
       <c r="L9" s="11"/>
       <c r="M9" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N9" s="11"/>
       <c r="O9" s="11"/>
@@ -8754,37 +8754,37 @@
     </row>
     <row r="10" spans="1:19" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J10" s="11"/>
       <c r="K10" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L10" s="11"/>
       <c r="M10" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N10" s="11"/>
       <c r="O10" s="11"/>
@@ -8801,40 +8801,40 @@
     </row>
     <row r="11" spans="1:19" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I11" s="11"/>
       <c r="J11" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K11" s="11" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="L11" s="11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
       <c r="O11" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="P11" s="11" t="s">
         <v>287</v>
-      </c>
-      <c r="P11" s="11" t="s">
-        <v>288</v>
       </c>
       <c r="Q11" s="11">
         <v>200</v>
@@ -8848,39 +8848,39 @@
     </row>
     <row r="12" spans="1:19" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
       <c r="F12" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I12" s="11"/>
       <c r="J12" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K12" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="L12" s="11" t="s">
         <v>261</v>
-      </c>
-      <c r="L12" s="11" t="s">
-        <v>262</v>
       </c>
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
       <c r="O12" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="P12" s="11"/>
       <c r="Q12" s="11">
@@ -8895,39 +8895,39 @@
     </row>
     <row r="13" spans="1:19" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E13" s="11"/>
       <c r="F13" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I13" s="11"/>
       <c r="J13" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K13" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L13" s="11"/>
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
       <c r="O13" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="P13" s="11"/>
       <c r="Q13" s="11">
@@ -8979,16 +8979,16 @@
         <v>0</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>3</v>
@@ -9000,30 +9000,30 @@
         <v>4</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="117" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G2" s="11">
         <v>200</v>
@@ -9038,27 +9038,27 @@
         <v>0</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="117" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G3" s="11">
         <v>200</v>
@@ -9073,27 +9073,27 @@
         <v>1</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="117" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G4" s="11">
         <v>200</v>
@@ -9108,27 +9108,27 @@
         <v>1</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="117" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G5" s="11">
         <v>200</v>
@@ -9143,27 +9143,27 @@
         <v>1</v>
       </c>
       <c r="K5" s="13" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="117" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G6" s="11">
         <v>200</v>
@@ -9178,27 +9178,27 @@
         <v>1</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="117" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>372</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="C7" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>373</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>349</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>374</v>
-      </c>
       <c r="E7" s="11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G7" s="11">
         <v>200</v>
@@ -9213,27 +9213,27 @@
         <v>0</v>
       </c>
       <c r="K7" s="13" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="117" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G8" s="11">
         <v>200</v>
@@ -9248,27 +9248,27 @@
         <v>1</v>
       </c>
       <c r="K8" s="13" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="117" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G9" s="11">
         <v>200</v>
@@ -9283,27 +9283,27 @@
         <v>1</v>
       </c>
       <c r="K9" s="13" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="117" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G10" s="11">
         <v>200</v>
@@ -9318,27 +9318,27 @@
         <v>1</v>
       </c>
       <c r="K10" s="13" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="117" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G11" s="11">
         <v>200</v>
@@ -9353,27 +9353,27 @@
         <v>1</v>
       </c>
       <c r="K11" s="13" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="117" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="B12" s="11" t="s">
         <v>383</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="C12" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D12" s="11" t="s">
         <v>384</v>
       </c>
-      <c r="C12" s="11" t="s">
-        <v>349</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>385</v>
-      </c>
       <c r="E12" s="11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G12" s="11">
         <v>200</v>
@@ -9388,27 +9388,27 @@
         <v>0</v>
       </c>
       <c r="K12" s="13" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="117" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G13" s="11">
         <v>200</v>
@@ -9423,27 +9423,27 @@
         <v>1</v>
       </c>
       <c r="K13" s="13" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="117" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G14" s="11">
         <v>200</v>
@@ -9458,27 +9458,27 @@
         <v>1</v>
       </c>
       <c r="K14" s="13" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="117" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G15" s="11">
         <v>200</v>
@@ -9493,27 +9493,27 @@
         <v>1</v>
       </c>
       <c r="K15" s="13" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="117" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G16" s="11">
         <v>200</v>
@@ -9528,7 +9528,7 @@
         <v>1</v>
       </c>
       <c r="K16" s="13" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/test-data-xls/iot-api-engine-test-data.xlsx
+++ b/src/main/resources/test-data-xls/iot-api-engine-test-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\data-layer-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4465F2A-D67D-4E68-B2EA-62418C361920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D97472-9A1B-43A7-8E72-1C30575FF629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="getDataEntities" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="401">
   <si>
     <t>description</t>
   </si>
@@ -3687,6 +3687,9 @@
   </si>
   <si>
     <t>Column 'not_exist' not found in any table</t>
+  </si>
+  <si>
+    <t>field convert error</t>
   </si>
 </sst>
 </file>
@@ -4358,8 +4361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE22B0A1-EDF6-487D-8C5B-FE5F049504FE}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -4707,9 +4710,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6DC2BAC-5C19-4CFF-8624-044FD1CB4C77}">
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -4955,13 +4958,17 @@
         <v>200</v>
       </c>
       <c r="I7" s="11">
-        <v>101301</v>
+        <v>100000</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
+        <v>10</v>
+      </c>
+      <c r="K7" s="11">
+        <v>1</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>400</v>
+      </c>
     </row>
     <row r="8" spans="1:12" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
@@ -5181,13 +5188,17 @@
         <v>200</v>
       </c>
       <c r="I14" s="11">
-        <v>101301</v>
+        <v>100000</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
+        <v>10</v>
+      </c>
+      <c r="K14" s="11">
+        <v>1</v>
+      </c>
+      <c r="L14" s="11" t="s">
+        <v>400</v>
+      </c>
     </row>
     <row r="15" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
@@ -7866,7 +7877,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9F6F477-271A-41FE-A290-09DC67B3D45A}">
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>

--- a/src/main/resources/test-data-xls/iot-api-engine-test-data.xlsx
+++ b/src/main/resources/test-data-xls/iot-api-engine-test-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\data-layer-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D97472-9A1B-43A7-8E72-1C30575FF629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE58CC9-B9BF-4557-BB95-D3DA6621EA3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" firstSheet="3" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="getDataEntities" sheetId="2" r:id="rId1"/>
@@ -2424,10 +2424,6 @@
   </si>
   <si>
     <t>bad request</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{Plant {address id latitude longitude name plant_owner}}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -3690,6 +3686,9 @@
   </si>
   <si>
     <t>field convert error</t>
+  </si>
+  <si>
+    <t>{Plant {address id latitude longitude name plant_owner}}</t>
   </si>
 </sst>
 </file>
@@ -4361,8 +4360,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE22B0A1-EDF6-487D-8C5B-FE5F049504FE}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A22" sqref="A15:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -4408,7 +4407,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>244</v>
+        <v>400</v>
       </c>
       <c r="D2" s="6">
         <v>200</v>
@@ -4601,7 +4600,7 @@
         <v>101403</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>53</v>
@@ -4661,7 +4660,7 @@
         <v>239</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D13" s="6">
         <v>200</v>
@@ -4684,7 +4683,7 @@
         <v>243</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D14" s="6">
         <v>200</v>
@@ -4693,10 +4692,10 @@
         <v>101403</v>
       </c>
       <c r="F14" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="G14" s="6" t="s">
         <v>246</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -4711,7 +4710,7 @@
   <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
@@ -4752,7 +4751,7 @@
         <v>97</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H1" s="8" t="s">
         <v>3</v>
@@ -4824,7 +4823,7 @@
         <v>99</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H3" s="11">
         <v>200</v>
@@ -4967,7 +4966,7 @@
         <v>1</v>
       </c>
       <c r="L7" s="11" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -5058,7 +5057,7 @@
         <v>104</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H10" s="11">
         <v>200</v>
@@ -5197,7 +5196,7 @@
         <v>1</v>
       </c>
       <c r="L14" s="11" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -5284,7 +5283,7 @@
         <v>104</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H17" s="11">
         <v>200</v>
@@ -5322,7 +5321,7 @@
         <v>104</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H18" s="11">
         <v>200</v>
@@ -5360,7 +5359,7 @@
         <v>104</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H19" s="11">
         <v>200</v>
@@ -5398,7 +5397,7 @@
         <v>104</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H20" s="11">
         <v>200</v>
@@ -5436,7 +5435,7 @@
         <v>104</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H21" s="11">
         <v>200</v>
@@ -5474,7 +5473,7 @@
         <v>104</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H22" s="11">
         <v>200</v>
@@ -5512,7 +5511,7 @@
         <v>104</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H23" s="11">
         <v>200</v>
@@ -5550,7 +5549,7 @@
         <v>104</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H24" s="11">
         <v>200</v>
@@ -5588,7 +5587,7 @@
         <v>104</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H25" s="11">
         <v>200</v>
@@ -5626,7 +5625,7 @@
         <v>104</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H26" s="11">
         <v>200</v>
@@ -5664,7 +5663,7 @@
         <v>104</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H27" s="11">
         <v>200</v>
@@ -5702,7 +5701,7 @@
         <v>104</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H28" s="11">
         <v>200</v>
@@ -5740,7 +5739,7 @@
         <v>105</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H29" s="11">
         <v>200</v>
@@ -5778,7 +5777,7 @@
         <v>105</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H30" s="11">
         <v>200</v>
@@ -5816,7 +5815,7 @@
         <v>105</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H31" s="11">
         <v>200</v>
@@ -5854,7 +5853,7 @@
         <v>105</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H32" s="11">
         <v>200</v>
@@ -5930,7 +5929,7 @@
         <v>105</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H34" s="11">
         <v>200</v>
@@ -5968,7 +5967,7 @@
         <v>105</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H35" s="11">
         <v>200</v>
@@ -6006,7 +6005,7 @@
         <v>105</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H36" s="11">
         <v>200</v>
@@ -6044,7 +6043,7 @@
         <v>105</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H37" s="11">
         <v>200</v>
@@ -6120,7 +6119,7 @@
         <v>105</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H39" s="11">
         <v>200</v>
@@ -6158,7 +6157,7 @@
         <v>105</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H40" s="11">
         <v>200</v>
@@ -6196,7 +6195,7 @@
         <v>105</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H41" s="11">
         <v>200</v>
@@ -6234,7 +6233,7 @@
         <v>105</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H42" s="11">
         <v>200</v>
@@ -7877,7 +7876,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9F6F477-271A-41FE-A290-09DC67B3D45A}">
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
@@ -7916,25 +7915,25 @@
         <v>121</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>97</v>
       </c>
       <c r="H1" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="I1" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="I1" s="8" t="s">
-        <v>258</v>
-      </c>
       <c r="J1" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="K1" s="8" t="s">
         <v>310</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>311</v>
       </c>
       <c r="L1" s="8" t="s">
         <v>3</v>
@@ -7946,37 +7945,37 @@
         <v>4</v>
       </c>
       <c r="O1" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="P1" s="8" t="s">
         <v>255</v>
-      </c>
-      <c r="P1" s="8" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>249</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>250</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>99</v>
       </c>
       <c r="H2" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="I2" s="11" t="s">
         <v>260</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>261</v>
       </c>
       <c r="J2" s="11"/>
       <c r="K2" s="11"/>
@@ -7996,31 +7995,31 @@
     </row>
     <row r="3" spans="1:16" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G3" s="11" t="s">
         <v>104</v>
       </c>
       <c r="H3" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="I3" s="11" t="s">
         <v>271</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>272</v>
       </c>
       <c r="J3" s="11"/>
       <c r="K3" s="11"/>
@@ -8040,22 +8039,22 @@
     </row>
     <row r="4" spans="1:16" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G4" s="11" t="s">
         <v>105</v>
@@ -8080,28 +8079,28 @@
     </row>
     <row r="5" spans="1:16" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G5" s="11" t="s">
         <v>99</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
@@ -8122,28 +8121,28 @@
     </row>
     <row r="6" spans="1:16" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G6" s="11" t="s">
         <v>104</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
@@ -8164,28 +8163,28 @@
     </row>
     <row r="7" spans="1:16" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G7" s="11" t="s">
         <v>105</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I7" s="11"/>
       <c r="J7" s="11"/>
@@ -8206,20 +8205,20 @@
     </row>
     <row r="8" spans="1:16" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="E8" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="F8" s="11" t="s">
         <v>283</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>284</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>99</v>
@@ -8227,10 +8226,10 @@
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="K8" s="11" t="s">
         <v>286</v>
-      </c>
-      <c r="K8" s="11" t="s">
-        <v>287</v>
       </c>
       <c r="L8" s="11">
         <v>200</v>
@@ -8248,22 +8247,22 @@
     </row>
     <row r="9" spans="1:16" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="B9" s="11" t="s">
         <v>280</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="C9" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="D9" s="11" t="s">
         <v>281</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="D9" s="11" t="s">
+      <c r="E9" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="F9" s="11" t="s">
         <v>283</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>284</v>
       </c>
       <c r="G9" s="11" t="s">
         <v>99</v>
@@ -8271,7 +8270,7 @@
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
       <c r="J9" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="K9" s="11"/>
       <c r="L9" s="11">
@@ -8300,7 +8299,7 @@
   <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -8336,46 +8335,46 @@
         <v>0</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D1" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>307</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>308</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>121</v>
       </c>
       <c r="H1" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="I1" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="J1" s="8" t="s">
-        <v>305</v>
-      </c>
       <c r="K1" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="L1" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="L1" s="8" t="s">
-        <v>258</v>
-      </c>
       <c r="M1" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="O1" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="N1" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="O1" s="8" t="s">
+      <c r="P1" s="8" t="s">
         <v>310</v>
-      </c>
-      <c r="P1" s="8" t="s">
-        <v>311</v>
       </c>
       <c r="Q1" s="8" t="s">
         <v>3</v>
@@ -8389,38 +8388,38 @@
     </row>
     <row r="2" spans="1:19" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
       <c r="G2" s="11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J2" s="7"/>
       <c r="K2" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="L2" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="L2" s="11" t="s">
-        <v>314</v>
-      </c>
       <c r="M2" s="11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="N2" s="11" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="O2" s="11"/>
       <c r="P2" s="11"/>
@@ -8436,37 +8435,37 @@
     </row>
     <row r="3" spans="1:19" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="11" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="11" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J3" s="11"/>
       <c r="K3" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="L3" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="L3" s="11" t="s">
-        <v>261</v>
-      </c>
       <c r="M3" s="11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="N3" s="11"/>
       <c r="O3" s="11"/>
@@ -8483,37 +8482,37 @@
     </row>
     <row r="4" spans="1:19" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="11" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J4" s="11"/>
       <c r="K4" s="11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L4" s="11"/>
       <c r="M4" s="11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="N4" s="11"/>
       <c r="O4" s="11"/>
@@ -8530,42 +8529,42 @@
     </row>
     <row r="5" spans="1:19" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D5" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="E5" s="11" t="s">
         <v>328</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>329</v>
       </c>
       <c r="F5" s="11"/>
       <c r="G5" s="11" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J5" s="7"/>
       <c r="K5" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="L5" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="M5" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="N5" s="11" t="s">
         <v>326</v>
-      </c>
-      <c r="M5" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="N5" s="11" t="s">
-        <v>327</v>
       </c>
       <c r="O5" s="11"/>
       <c r="P5" s="11"/>
@@ -8581,39 +8580,39 @@
     </row>
     <row r="6" spans="1:19" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="11" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J6" s="7"/>
       <c r="K6" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="L6" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="L6" s="11" t="s">
-        <v>272</v>
-      </c>
       <c r="M6" s="11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
@@ -8630,37 +8629,37 @@
     </row>
     <row r="7" spans="1:19" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F7" s="11"/>
       <c r="G7" s="11" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J7" s="7"/>
       <c r="K7" s="11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L7" s="11"/>
       <c r="M7" s="11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
@@ -8677,29 +8676,29 @@
     </row>
     <row r="8" spans="1:19" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D8" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="E8" s="11" t="s">
         <v>328</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>329</v>
       </c>
       <c r="F8" s="11"/>
       <c r="G8" s="11" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J8" s="11"/>
       <c r="K8" s="11"/>
@@ -8720,35 +8719,35 @@
     </row>
     <row r="9" spans="1:19" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="11" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="11"/>
       <c r="L9" s="11"/>
       <c r="M9" s="11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="N9" s="11"/>
       <c r="O9" s="11"/>
@@ -8765,37 +8764,37 @@
     </row>
     <row r="10" spans="1:19" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="11" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J10" s="11"/>
       <c r="K10" s="11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L10" s="11"/>
       <c r="M10" s="11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="N10" s="11"/>
       <c r="O10" s="11"/>
@@ -8812,40 +8811,40 @@
     </row>
     <row r="11" spans="1:19" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I11" s="11"/>
       <c r="J11" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K11" s="11" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="L11" s="11" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
       <c r="O11" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="P11" s="11" t="s">
         <v>286</v>
-      </c>
-      <c r="P11" s="11" t="s">
-        <v>287</v>
       </c>
       <c r="Q11" s="11">
         <v>200</v>
@@ -8859,39 +8858,39 @@
     </row>
     <row r="12" spans="1:19" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
       <c r="F12" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I12" s="11"/>
       <c r="J12" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K12" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="L12" s="11" t="s">
         <v>260</v>
-      </c>
-      <c r="L12" s="11" t="s">
-        <v>261</v>
       </c>
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
       <c r="O12" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="P12" s="11"/>
       <c r="Q12" s="11">
@@ -8906,39 +8905,39 @@
     </row>
     <row r="13" spans="1:19" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E13" s="11"/>
       <c r="F13" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I13" s="11"/>
       <c r="J13" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K13" s="11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L13" s="11"/>
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
       <c r="O13" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="P13" s="11"/>
       <c r="Q13" s="11">
@@ -8990,13 +8989,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>121</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>97</v>
@@ -9011,27 +9010,27 @@
         <v>4</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="117" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>99</v>
@@ -9049,24 +9048,24 @@
         <v>0</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="117" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>99</v>
@@ -9084,24 +9083,24 @@
         <v>1</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="117" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>99</v>
@@ -9119,24 +9118,24 @@
         <v>1</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="117" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>99</v>
@@ -9154,24 +9153,24 @@
         <v>1</v>
       </c>
       <c r="K5" s="13" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="117" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>99</v>
@@ -9189,24 +9188,24 @@
         <v>1</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="117" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>371</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="C7" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>372</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>348</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>373</v>
-      </c>
       <c r="E7" s="11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F7" s="11" t="s">
         <v>104</v>
@@ -9224,24 +9223,24 @@
         <v>0</v>
       </c>
       <c r="K7" s="13" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="117" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>104</v>
@@ -9259,24 +9258,24 @@
         <v>1</v>
       </c>
       <c r="K8" s="13" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="117" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>104</v>
@@ -9294,24 +9293,24 @@
         <v>1</v>
       </c>
       <c r="K9" s="13" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="117" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>104</v>
@@ -9329,24 +9328,24 @@
         <v>1</v>
       </c>
       <c r="K10" s="13" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="117" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F11" s="11" t="s">
         <v>104</v>
@@ -9364,24 +9363,24 @@
         <v>1</v>
       </c>
       <c r="K11" s="13" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="117" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="B12" s="11" t="s">
         <v>382</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="C12" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="D12" s="11" t="s">
         <v>383</v>
       </c>
-      <c r="C12" s="11" t="s">
-        <v>348</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>384</v>
-      </c>
       <c r="E12" s="11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>105</v>
@@ -9399,24 +9398,24 @@
         <v>0</v>
       </c>
       <c r="K12" s="13" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="117" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>105</v>
@@ -9434,24 +9433,24 @@
         <v>1</v>
       </c>
       <c r="K13" s="13" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="117" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F14" s="11" t="s">
         <v>105</v>
@@ -9469,24 +9468,24 @@
         <v>1</v>
       </c>
       <c r="K14" s="13" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="117" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F15" s="11" t="s">
         <v>105</v>
@@ -9504,24 +9503,24 @@
         <v>1</v>
       </c>
       <c r="K15" s="13" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="117" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F16" s="11" t="s">
         <v>105</v>
@@ -9539,7 +9538,7 @@
         <v>1</v>
       </c>
       <c r="K16" s="13" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/test-data-xls/iot-api-engine-test-data.xlsx
+++ b/src/main/resources/test-data-xls/iot-api-engine-test-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\data-layer-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE58CC9-B9BF-4557-BB95-D3DA6621EA3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4826E559-C532-4ABE-A937-1494BF853726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" firstSheet="3" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="getDataEntities" sheetId="2" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="restfulTransactionSingleEntity" sheetId="10" r:id="rId5"/>
     <sheet name="restfulTransactionMultiEntity" sheetId="11" r:id="rId6"/>
     <sheet name="authForRestfulWrite" sheetId="12" r:id="rId7"/>
+    <sheet name="transferOfFlexibleParams" sheetId="16" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2038" uniqueCount="856">
   <si>
     <t>description</t>
   </si>
@@ -3689,6 +3690,3767 @@
   </si>
   <si>
     <t>{Plant {address id latitude longitude name plant_owner}}</t>
+  </si>
+  <si>
+    <t>rspData</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-1</t>
+  </si>
+  <si>
+    <t>good request,
+query operation,
+field1 in (...),
+3 data retrieved</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-2</t>
+  </si>
+  <si>
+    <t>good request,
+query operation,
+field1 in (...),
+1 data retrieved</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-3</t>
+  </si>
+  <si>
+    <t>good request,
+query operation, 
+field1 in (...),
+1 data retrieved</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-4</t>
+  </si>
+  <si>
+    <t>good request, 
+query operation,
+field1 in (...),
+0 data retrieved</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-5</t>
+  </si>
+  <si>
+    <t>bad request,
+query operation, 
+field1 in (...)</t>
+  </si>
+  <si>
+    <t>Connector execution fail with code: 106119 exception</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-6</t>
+  </si>
+  <si>
+    <t>bad request,
+query operation,
+ field1 in (...)</t>
+  </si>
+  <si>
+    <t>Connector execution fail with code: 106103 exception</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-7</t>
+  </si>
+  <si>
+    <t>bad request,
+query operation,
+field1 in (...)</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-8</t>
+  </si>
+  <si>
+    <t>good request,
+query operation,
+(field1,field2) in (...),
+3 data retrieved</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-9</t>
+  </si>
+  <si>
+    <t>good request,
+query operation,
+(field1,field2) in (...),
+2 data retrieved</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-10</t>
+  </si>
+  <si>
+    <t>good request,
+query operation,
+(field1,field2) in (...),
+1 data retrieved</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-11</t>
+  </si>
+  <si>
+    <t>good request,
+query operation,
+(field1,field2) in (...),
+0 data retrieved</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-12</t>
+  </si>
+  <si>
+    <t>bad request,
+query operation,
+(field1,field2) in (...)</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-13</t>
+  </si>
+  <si>
+    <t>good request,
+query operation,
+condition1 and in_condition,
+1 data retrieved</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-14</t>
+  </si>
+  <si>
+    <t>good request,
+query operation,
+condition1 and in_condition,
+0 data retrieved</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-15</t>
+  </si>
+  <si>
+    <t>good request,
+query operation,
+condition1 and in_condition,
+2 data retrieved</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-16</t>
+  </si>
+  <si>
+    <t>good request,
+query operation,
+condition1 or in_condition,
+3 data retrieved</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-17</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-18</t>
+  </si>
+  <si>
+    <t>good request,
+query operation,
+condition1 or in_condition,
+5 data retrieved</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-19</t>
+  </si>
+  <si>
+    <t>good request,
+query operation,
+1 data retrieved</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-20</t>
+  </si>
+  <si>
+    <t>bad request,
+query operation</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-21</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-22</t>
+  </si>
+  <si>
+    <t>good request,
+query operation,
+2 data retrieved</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-23</t>
+  </si>
+  <si>
+    <t>good request,
+query operation,
+0 data retrieved</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-24</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-25</t>
+  </si>
+  <si>
+    <t>good request,
+query operation,
+3 data retrieved</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-26</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-27</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-28</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-29</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-30</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-31</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-32</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-33</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-34</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-35</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-36</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-37</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-38</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-39</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-40</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-41</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-42</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-43</t>
+  </si>
+  <si>
+    <t>good request,
+insert operation,
+1 data retrieved</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-44</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-45</t>
+  </si>
+  <si>
+    <t>bad request,
+insert operation,
+without id</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-46</t>
+  </si>
+  <si>
+    <t>bad request,
+insert operation,
+String field  incorrectly</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-47</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-48</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-49</t>
+  </si>
+  <si>
+    <t>good request,
+update operation,
+1 data retrieved</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-50</t>
+  </si>
+  <si>
+    <t>good request,
+update operation,
+By Condition(_in:field1 in (...)),
+3 data retrieved</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-51</t>
+  </si>
+  <si>
+    <t>good request,
+update operation,
+By Condition(_in:field1 in (...)),
+1 data retrieved</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-52</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-53</t>
+  </si>
+  <si>
+    <t>good request,
+update operation,
+By Condition(_in:field1 in (...)),
+0 data retrieved</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-54</t>
+  </si>
+  <si>
+    <t>bad request,
+update operation,
+By Condition(_in:field1 in (...)),</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-55</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-56</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-57</t>
+  </si>
+  <si>
+    <t>good request,
+update operation,
+By Condition(_in:(field1,field2) in (...)),
+3 data retrieved</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-58</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-59</t>
+  </si>
+  <si>
+    <t>good request,
+update operation,
+By Condition(_in:(field1,field2) in (...)),
+1 data retrieved</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-60</t>
+  </si>
+  <si>
+    <t>good request,
+update operation,
+By Condition(_in:(field1,field2) in (...)),
+0 data retrieved</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-61</t>
+  </si>
+  <si>
+    <t>bad request,
+update operation,
+By Condition(_in:(field1,field2) in (...))</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-62</t>
+  </si>
+  <si>
+    <t>good request,
+update operation,
+By Condition(condition1 and in_condition),
+1 data retrieved</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-63</t>
+  </si>
+  <si>
+    <t>bad request,
+update operation,
+By Condition(condition1 and in_condition)</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-64</t>
+  </si>
+  <si>
+    <t>good request,
+update operation,
+By Condition(condition1 and in_condition),
+2 data retrieved</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-65</t>
+  </si>
+  <si>
+    <t>good request,
+update operation,
+By Condition(condition1 or in_condition),
+3 data retrieved</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-66</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-67</t>
+  </si>
+  <si>
+    <t>good request,
+update operation,
+By Condition(condition1 or in_condition),
+5 data retrieved</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-68</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-69</t>
+  </si>
+  <si>
+    <t>good request,
+update operation,
+By Condition,
+1 data retrieved</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-70</t>
+  </si>
+  <si>
+    <t>bad request,
+update operation,
+By Condition</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-71</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-72</t>
+  </si>
+  <si>
+    <t>good request,
+update operation,
+By Condition,
+2 data retrieved</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-73</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-74</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-75</t>
+  </si>
+  <si>
+    <t>good request,
+update operation,
+By Condition,
+3 data retrieved</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-76</t>
+  </si>
+  <si>
+    <t>bad request,
+update operation,
+By Condition,
+2 data retrieved</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-77</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-78</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-79</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-80</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-81</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-82</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-83</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-84</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-85</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-86</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-87</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-88</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-89</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-90</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-91</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-92</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-93</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-94</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-95</t>
+  </si>
+  <si>
+    <t>good request,
+delete operation,
+1 data retrieved</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-96</t>
+  </si>
+  <si>
+    <t>good request,
+delete operation,
+By Condition(_in:field1 in (...)),
+3 data retrieved</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-97</t>
+  </si>
+  <si>
+    <t>good request,
+delete operation,
+By Condition(_in:field1 in (...)),
+1 data retrieved</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-98</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-99</t>
+  </si>
+  <si>
+    <t>good request,
+delete operation,
+By Condition(_in:field1 in (...)),
+0 data retrieved</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-100</t>
+  </si>
+  <si>
+    <t>bad request,
+delete operation,
+By Condition(_in:field1 in (...)),</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-101</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-102</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-103</t>
+  </si>
+  <si>
+    <t>good request,
+delete operation,
+By Condition(_in:(field1,field2) in (...)),
+3 data retrieved</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-104</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-105</t>
+  </si>
+  <si>
+    <t>good request,
+delete operation,
+By Condition(_in:(field1,field2) in (...)),
+1 data retrieved</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-106</t>
+  </si>
+  <si>
+    <t>good request,
+delete operation,
+By Condition(_in:(field1,field2) in (...)),
+0 data retrieved</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-107</t>
+  </si>
+  <si>
+    <t>bad request,
+delete operation,
+By Condition(_in:(field1,field2) in (...))</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-108</t>
+  </si>
+  <si>
+    <t>good request,
+delete operation,
+By Condition(condition1 and in_condition),
+1 data retrieved</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-109</t>
+  </si>
+  <si>
+    <t>bad request,
+delete operation,
+By Condition(condition1 and in_condition)</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-110</t>
+  </si>
+  <si>
+    <t>good request,
+delete operation,
+By Condition(condition1 and in_condition),
+2 data retrieved</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-111</t>
+  </si>
+  <si>
+    <t>good request,
+delete operation,
+By Condition(condition1 or in_condition),
+3 data retrieved</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-112</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-113</t>
+  </si>
+  <si>
+    <t>good request,
+delete operation,
+By Condition(condition1 or in_condition),
+5 data retrieved</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-114</t>
+  </si>
+  <si>
+    <t>bad request,
+delete operation
+Restful delete only supports condition mode</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-115</t>
+  </si>
+  <si>
+    <t>good request,
+delete operation,
+By Condition,
+1 data retrieved</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-116</t>
+  </si>
+  <si>
+    <t>bad request,
+delete operation,
+By Condition</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-117</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-118</t>
+  </si>
+  <si>
+    <t>good request,
+delete operation,
+By Condition,
+2 data retrieved</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-119</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-120</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-121</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-122</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-123</t>
+  </si>
+  <si>
+    <t>bad request,
+delete operation,
+Restful delete only supports condition mode</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-124</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-125</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-126</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-127</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-128</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-129</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-130</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-131</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-132</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-133</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-134</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-135</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-136</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-137</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-138</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-139</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-140</t>
+  </si>
+  <si>
+    <t>bad request,
+delete operation,
+By Condition,
+2 data retrieved</t>
+  </si>
+  <si>
+    <t>UserForRestfulEnhance
+数据源：GET: path 里有参数</t>
+  </si>
+  <si>
+    <t>{UserForRestfulEnhance(cond:"{id: {_in: [1,2,3]}}") {id name age}}</t>
+  </si>
+  <si>
+    <t>{
+    "UserForRestfulEnhance": [
+        {
+            "id": "1",
+            "name": "name1",
+            "age": "11"
+        },
+        {
+            "id": "2",
+            "name": "name2",
+            "age": "12"
+        },
+        {
+            "id": "3",
+            "name": "name3",
+            "age": "13"
+        }
+    ]
+}</t>
+  </si>
+  <si>
+    <t>{UserForRestfulEnhance(cond:"{id: {_in: [1]}}") {id name age}}</t>
+  </si>
+  <si>
+    <t>{
+    "UserForRestfulEnhance": [
+      {
+        "id": "1",
+        "name": "name1",
+        "age": "11"
+      }
+    ]
+  }</t>
+  </si>
+  <si>
+    <t>{UserForRestfulEnhance(cond:"{id: {_in: [1,6,7]}}") {id name age}}</t>
+  </si>
+  <si>
+    <t>{UserForRestfulEnhance(cond:"{id: {_in: [6]}}") {id name age}}</t>
+  </si>
+  <si>
+    <t>{
+    "UserForRestfulEnhance": []
+  }</t>
+  </si>
+  <si>
+    <t>{UserForRestfulEnhance(cond:"{id: {_in: []}}") {id name age}}</t>
+  </si>
+  <si>
+    <t>{UserForRestfulEnhance(cond:"{ids: {_in: [1,2,3]}}") {id name age}}</t>
+  </si>
+  <si>
+    <t>{UserForRestfulEnhance(cond:"{id: {_nin: [1,2,3]}}") {id name age}}</t>
+  </si>
+  <si>
+    <t>{UserForRestfulEnhance(cond:"{\"(id,name)\": {_in: [\"(1,name1)\",\"(2,name2)\",\"(3,name3)\"]}}") {id name age}}</t>
+  </si>
+  <si>
+    <t>{UserForRestfulEnhance(cond:"{\"(id,name)\": {_in: [\"(1,name2)\",\"(2,name2)\",\"(3,name3)\"]}}") {id name age}}</t>
+  </si>
+  <si>
+    <t>{
+    "UserForRestfulEnhance": [
+      {
+        "id": "2",
+        "name": "name2",
+        "age": "12"
+      },
+      {
+        "id": "3",
+        "name": "name3",
+        "age": "13"
+      }
+    ]
+  }</t>
+  </si>
+  <si>
+    <t>{UserForRestfulEnhance(cond:"{\"(id,name)\": {_in: [\"(1,name1)\"]}}") {id name age}}</t>
+  </si>
+  <si>
+    <t>{UserForRestfulEnhance(cond:"{\"(id,name)\": {_in: [\"(1,name2)\"]}}") {id name age}}</t>
+  </si>
+  <si>
+    <t>{UserForRestfulEnhance(cond:"{\"(id,name)\": {_in: []}}") {id name age}}</t>
+  </si>
+  <si>
+    <t>{UserForRestfulEnhance(cond:"{_and:[{id: {_eq: 1}},{id: {_in: [1,2,3]}}]}") {id name age}}</t>
+  </si>
+  <si>
+    <t>{UserForRestfulEnhance(cond:"{_and:[{id: {_eq: 1}},{id: {_in: [2,3]}}]}") {id name age}}</t>
+  </si>
+  <si>
+    <t>{UserForRestfulEnhance(cond:"{_and:[{id: {_in: [1,2,3]}},{id: {_in: [2,3,4,5]}}]}") {id name age}}</t>
+  </si>
+  <si>
+    <t>{UserForRestfulEnhance(cond:"{_or:[{id: {_eq: 1}},{id: {_in: [1,2,3]}}]}") {id name age}}</t>
+  </si>
+  <si>
+    <t>{
+    "UserForRestfulEnhance": [
+      {
+        "id": "1",
+        "name": "name1",
+        "age": "11"
+      },
+      {
+        "id": "2",
+        "name": "name2",
+        "age": "12"
+      },
+      {
+        "id": "3",
+        "name": "name3",
+        "age": "13"
+      }
+    ]
+  }</t>
+  </si>
+  <si>
+    <t>{UserForRestfulEnhance(cond:"{_or:[{id: {_eq: 1}},{id: {_in: [2,3]}}]}") {id name age}}</t>
+  </si>
+  <si>
+    <t>{UserForRestfulEnhance(cond:"{_or:[{id: {_in: [1,2,3]}},{id: {_in: [2,3,4,5]}}]}") {id name age}}</t>
+  </si>
+  <si>
+    <t>{
+    "UserForRestfulEnhance": [
+      {
+        "id": "1",
+        "name": "name1",
+        "age": "11"
+      },
+      {
+        "id": "2",
+        "name": "name2",
+        "age": "12"
+      },
+      {
+        "id": "3",
+        "name": "name3",
+        "age": "13"
+      },
+      {
+        "id": "4",
+        "name": "name4",
+        "age": "14"
+      },
+      {
+        "id": "5",
+        "name": "name5",
+        "age": "15"
+      }
+    ]
+  }</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserForRestfulEnhance_Insert(input:
+	[
+        {
+          id: "1",
+          name: "name1",
+          age: "11"
+        }
+    ]
+    )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserForRestfulEnhance_Update(input:
+	[
+        {
+          id: "1",
+          name: "name1UPDATE",
+          age: "11"
+        }
+    ]
+    )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserForRestfulEnhance_Update_By_Condition(input:
+   [
+       {
+          name: "name1UPDATE"
+       }
+   ],
+    cond: "{id: {_in: [1,2,3]}}"
+   )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserForRestfulEnhance_Update_By_Condition(input:
+   [
+       {
+          name: "name1UPDATE"
+       }
+   ],
+    cond: "{id: {_in: [1]}}"
+   )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserForRestfulEnhance_Update_By_Condition(input:
+   [
+       {
+          name: "name1UPDATE"
+       }
+   ],
+    cond: "{id: {_in: [1,6,7]}}"
+   )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserForRestfulEnhance_Update_By_Condition(input:
+   [
+       {
+          name: "name1UPDATE"
+       }
+   ],
+    cond: "{id: {_in: [6]}}"
+   )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserForRestfulEnhance_Update_By_Condition(input:
+   [
+       {
+          name: "name1UPDATE"
+       }
+   ],
+    cond: "{id: {_in: []}}"
+   )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "UserForRestfulEnhance_Update_By_Condition": {
+      "json_value": [
+        {
+          "code": 1,
+          "data": "Conflict conditions exist (id in ())"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserForRestfulEnhance_Update_By_Condition(input:
+   [
+       {
+          name: "name1UPDATE"
+       }
+   ],
+    cond: "{ids: {_in: [1,2,3]}}"
+   )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "UserForRestfulEnhance_Update_By_Condition": {
+      "json_value": [
+        {
+          "code": 1,
+          "data": "Conflict conditions exist (ids in ('1','2','3'))"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserForRestfulEnhance_Update_By_Condition(input:
+   [
+       {
+          name: "name1UPDATE"
+       }
+   ],
+    cond: "{id: {_nin: [1,2,3]}}"
+   )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "UserForRestfulEnhance_Update_By_Condition": {
+      "json_value": [
+        {
+          "code": 1,
+          "data": "Conflict conditions exist (id not in ('1','2','3'))"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserForRestfulEnhance_Update_By_Condition(input:
+   [
+       {
+          name: "name1UPDATE"
+       }
+   ],
+    cond: "{\"(id,name)\": {_in: [\"(1,name1)\",\"(2,name2)\",\"(3,name3)\"]}}"
+   )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserForRestfulEnhance_Update_By_Condition(input:
+   [
+       {
+          name: "name1UPDATE"
+       }
+   ],
+    cond: "{\"(id,name)\": {_in: [\"(1,name2)\",\"(2,name2)\",\"(3,name3)\"]}}"
+   )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserForRestfulEnhance_Update_By_Condition(input:
+   [
+       {
+          name: "name1UPDATE"
+       }
+   ],
+    cond: "{\"(id,name)\": {_in: [\"(1,name1)\"]}}"
+   )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserForRestfulEnhance_Update_By_Condition(input:
+   [
+       {
+          name: "name1UPDATE"
+       }
+   ],
+    cond: "{\"(id,name)\": {_in: [\"(6,name6)\"]}}"
+   )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserForRestfulEnhance_Update_By_Condition(input:
+   [
+       {
+          name: "name1UPDATE"
+       }
+   ],
+    cond: "{\"(id,name)\": {_in: []}}"
+   )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "UserForRestfulEnhance_Update_By_Condition": {
+      "json_value": [
+        {
+          "code": 1,
+          "data": "Conflict conditions exist ((id,name) in ())"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserForRestfulEnhance_Update_By_Condition(input:
+   [
+       {
+          name: "name1UPDATE"
+       }
+   ],
+    cond: "{_and:[{id: {_eq: 1}},{id: {_in: [1,2,3]}}]}"
+   )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserForRestfulEnhance_Update_By_Condition(input:
+   [
+       {
+          name: "name1UPDATE"
+       }
+   ],
+    cond: "{_and:[{id: {_eq: 1}},{id: {_in: [2,3]}}]}"
+   )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "UserForRestfulEnhance_Update_By_Condition": {
+      "json_value": [
+        {
+          "code": 1,
+          "data": "Conflict conditions exist (( id = '1' and id in ('2','3') ))"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserForRestfulEnhance_Update_By_Condition(input:
+   [
+       {
+          name: "name1UPDATE"
+       }
+   ],
+    cond: "{_and:[{id: {_in: [1,2,3]}},{id: {_in: [2,3,4,5]}}]}"
+   )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserForRestfulEnhance_Update_By_Condition(input:
+   [
+       {
+          name: "name1UPDATE"
+       }
+   ],
+    cond: "{_or:[{id: {_eq: 1}},{id: {_in: [1,2,3]}}]}"
+   )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserForRestfulEnhance_Update_By_Condition(input:
+   [
+       {
+          name: "name1UPDATE"
+       }
+   ],
+    cond: "{_or:[{id: {_eq: 1}},{id: {_in: [2,3]}}]}"
+   )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserForRestfulEnhance_Update_By_Condition(input:
+   [
+       {
+          name: "name1UPDATE"
+       }
+   ],
+    cond: "{_or:[{id: {_in: [1,2,3]}},{id: {_in: [2,3,4,5]}}]}"
+   )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserForRestfulEnhance_Delete(input:
+	[
+        {
+          id: "1"
+        }
+    ]
+    )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserForRestfulEnhance_Delete_By_Condition(cond: "{id: {_in: [1,2,3]}}")
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserForRestfulEnhance_Delete_By_Condition(cond: "{id: {_in: [1]}}")
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserForRestfulEnhance_Delete_By_Condition(cond: "{id: {_in: [1,6,7]}}")
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserForRestfulEnhance_Delete_By_Condition(cond: "{id: {_in: [6]}}")
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserForRestfulEnhance_Delete_By_Condition(cond: "{id: {_in: []}}")
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "UserForRestfulEnhance_Delete_By_Condition": {
+      "json_value": [
+        {
+          "code": 1,
+          "data": "Conflict conditions exist (id in ())"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserForRestfulEnhance_Delete_By_Condition(cond: "{ids: {_in: [1,2,3]}}")
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "UserForRestfulEnhance_Delete_By_Condition": {
+      "json_value": [
+        {
+          "code": 1,
+          "data": "Conflict conditions exist (ids in ('1','2','3'))"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserForRestfulEnhance_Delete_By_Condition(cond: "{id: {_nin: [1,2,3]}}")
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {
+    "UserForRestfulEnhance_Delete_By_Condition": {
+      "json_value": [
+        {
+          "code": 1,
+          "data": "Conflict conditions exist (id not in ('1','2','3'))"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserForRestfulEnhance_Delete_By_Condition(cond: "{\"(id,name)\": {_in: [\"(1,name1)\",\"(2,name2)\",\"(3,name3)\"]}}")
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserForRestfulEnhance_Delete_By_Condition(cond: "{\"(id,name)\": {_in: [\"(1,name2)\",\"(2,name2)\",\"(3,name3)\"]}}")
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserForRestfulEnhance_Delete_By_Condition(cond: "{\"(id,name)\": {_in: [\"(1,name1)\"]}}")
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserForRestfulEnhance_Delete_By_Condition(cond: "{\"(id,name)\": {_in: [\"(6,name6)\"]}}")
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserForRestfulEnhance_Delete_By_Condition(cond: "{\"(id,name)\": {_in: []}}")
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "UserForRestfulEnhance_Delete_By_Condition": {
+      "json_value": [
+        {
+          "code": 1,
+          "data": "Conflict conditions exist ((id,name) in ())"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserForRestfulEnhance_Delete_By_Condition(cond: "{_and:[{id: {_eq: 1}},{id: {_in: [1,2,3]}}]}")
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserForRestfulEnhance_Delete_By_Condition(cond: "{_and:[{id: {_eq: 1}},{id: {_in: [2,3]}}]}")
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "UserForRestfulEnhance_Delete_By_Condition": {
+      "json_value": [
+        {
+          "code": 1,
+          "data": "Conflict conditions exist (( id = '1' and id in ('2','3') ))"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserForRestfulEnhance_Delete_By_Condition(cond: "{_and:[{id: {_in: [1,2,3]}},{id: {_in: [2,3,4,5]}}]}")
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserForRestfulEnhance_Delete_By_Condition(cond: "{_or:[{id: {_eq: 1}},{id: {_in: [1,2,3]}}]}")
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserForRestfulEnhance_Delete_By_Condition(cond: "{_or:[{id: {_eq: 1}},{id: {_in: [2,3]}}]}")
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserForRestfulEnhance_Delete_By_Condition(cond: "{_or:[{id: {_in: [1,2,3]}},{id: {_in: [2,3,4,5]}}]}")
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>UserWithBodyForRestfulEnhance
+数据源：POST: body 里有参数</t>
+  </si>
+  <si>
+    <t>{UserWithBodyForRestfulEnhance(cond:"{_and:[{id: {_eq: 1}},{name: {_eq: \"name1\"}},{age: {_eq: 11}}]}") {id name age}}</t>
+  </si>
+  <si>
+    <t>{
+    "UserWithBodyForRestfulEnhance": [
+      {
+        "id": "1",
+        "name": "name1",
+        "age": "11"
+      }
+    ]
+  }</t>
+  </si>
+  <si>
+    <t>{UserWithBodyForRestfulEnhance(cond:"{_and:[{id: {_eq: 1}},{name: {_eq: \"name1\"}}]}") {id name age}}</t>
+  </si>
+  <si>
+    <t>{UserWithBodyForRestfulEnhance(cond:"{_and:[{id: {_eq: 1}},{name: {_eq: \"name1\"}},{age: {_eq: 11}},{abc: {_eq: 55}}]}") {id name age}}</t>
+  </si>
+  <si>
+    <t>{UserWithBodyForRestfulEnhance(cond:"{\"(id,name,age)\": {_in: [\"(1,name1,11)\",\"(2,name2,12)\"]}}") {id name age}}</t>
+  </si>
+  <si>
+    <t>{
+    "UserWithBodyForRestfulEnhance": [
+      {
+        "id": "1",
+        "name": "name1",
+        "age": "11"
+      },
+      {
+        "id": "2",
+        "name": "name2",
+        "age": "12"
+      }
+    ]
+  }</t>
+  </si>
+  <si>
+    <t>{UserWithBodyForRestfulEnhance(cond:"{_and:[{_and:[{id: {_eq: 1}},{name: {_eq: \"name1\"}},{age: {_eq: 11}}]},{\"(id,name,age)\": {_in: [\"(5,name5,15)\",\"(6,name6,16)\"]}}]}") {id name age}}</t>
+  </si>
+  <si>
+    <t>{
+    "UserWithBodyForRestfulEnhance": []
+  }</t>
+  </si>
+  <si>
+    <t>{UserWithBodyForRestfulEnhance(cond:"{_and:[{_and:[{id: {_eq: 1}},{name: {_eq: \"name1\"}},{age: {_eq: 11}}]},{\"(id,name,age)\": {_in: [\"(1,name1,11)\",\"(6,name6,16)\"]}}]}") {id name age}}</t>
+  </si>
+  <si>
+    <t>{UserWithBodyForRestfulEnhance(cond:"{_or:[{_and:[{id: {_eq: 1}},{name: {_eq: \"name1\"}},{age: {_eq: 11}}]},{\"(id,name,age)\": {_in: [\"(5,name5,15)\",\"(6,name6,16)\"]}}]}") {id name age}}</t>
+  </si>
+  <si>
+    <t>{
+    "UserWithBodyForRestfulEnhance": [
+      {
+        "id": "1",
+        "name": "name1",
+        "age": "11"
+      },
+      {
+        "id": "5",
+        "name": "name5",
+        "age": "15"
+      },
+      {
+        "id": "6",
+        "name": "name6",
+        "age": "16"
+      }
+    ]
+  }</t>
+  </si>
+  <si>
+    <t>{UserWithBodyForRestfulEnhance(cond:"{_or:[{_and:[{id: {_eq: 1}},{name: {_eq: \"name1\"}}]},{\"(id,name,age)\": {_in: [\"(5,name5,15)\",\"(6,name6,16)\"]}}]}") {id name age}}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserWithBodyForRestfulEnhance_Insert(input:
+	[
+        {
+          id: "1",
+          name: "name1",
+          age: "11"
+        }
+    ]
+    )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserWithBodyForRestfulEnhance_Insert(input:
+	[
+        {
+          name: "name1",
+          age: "11"
+        }
+    ]
+    )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "UserWithBodyForRestfulEnhance_Insert": {
+      "json_value": [
+        {
+          "code": 1,
+          "data": "body/path template parse error"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserWithBodyForRestfulEnhance_Insert(input:
+	[
+        {
+          id:1,
+          name: "name1",
+          age: "11"
+        }
+    ]
+    )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserWithBodyForRestfulEnhance_Update(input:
+	[
+        {
+          id: "1",
+          name: "name1UPDATE",
+          age: "11"
+        }
+    ]
+    )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserWithBodyForRestfulEnhance_Update_By_Condition(input:
+   [
+       {
+          name: "name1UPDATE"
+       }
+   ],
+    cond: "{_and:[{id: {_eq: 1}},{name: {_eq: \"name1\"}},{age: {_eq: 11}}]}"
+   )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserWithBodyForRestfulEnhance_Update_By_Condition(input:
+   [
+       {
+          name: "name1UPDATE"
+       }
+   ],
+    cond: "{_and:[{id: {_eq: 1}},{name: {_eq: \"name1\"}}]}"
+   )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "UserWithBodyForRestfulEnhance_Update_By_Condition": {
+      "json_value": [
+        {
+          "code": 1,
+          "data": "body/path template parse error"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserWithBodyForRestfulEnhance_Update_By_Condition(input:
+   [
+       {
+          name: "name1UPDATE"
+       }
+   ],
+    cond: "{_and:[{id: {_eq: 1}},{name: {_eq: \"name1\"}},{age: {_eq: 11}},{abc: {_eq: 55}}]}"
+   )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "UserWithBodyForRestfulEnhance_Update_By_Condition": {
+      "json_value": [
+        {
+          "code": 1,
+          "data": "Conflict conditions exist (( id = '1' and name = 'name1' and age = '11' and abc = '55' ))"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserWithBodyForRestfulEnhance_Update_By_Condition(input:
+   [
+       {
+          name: "name1UPDATE"
+       }
+   ],
+    cond: "{\"(id,name,age)\": {_in: [\"(1,name1,11)\",\"(2,name2,12)\"]}}"
+   )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserWithBodyForRestfulEnhance_Update_By_Condition(input:
+   [
+       {
+          name: "name1UPDATE"
+       }
+   ],
+    cond: "{_and:[{_and:[{id: {_eq: 1}},{name: {_eq: \"name1\"}},{age: {_eq: 11}}]},{\"(id,name,age)\": {_in: [\"(5,name5,15)\",\"(6,name6,16)\"]}}]}"
+   )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "UserWithBodyForRestfulEnhance_Update_By_Condition": {
+      "json_value": [
+        {
+          "code": 1,
+          "data": "Conflict conditions exist (( ( id = '1' and name = 'name1' and age = '11' ) and (id,name,age) in (('5','name5','15'),('6','name6','16')) ))"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserWithBodyForRestfulEnhance_Update_By_Condition(input:
+   [
+       {
+          name: "name1UPDATE"
+       }
+   ],
+    cond: "{_and:[{_and:[{id: {_eq: 1}},{name: {_eq: \"name1\"}},{age: {_eq: 11}}]},{\"(id,name,age)\": {_in: [\"(1,name1,11)\",\"(6,name6,16)\"]}}]}"
+   )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserWithBodyForRestfulEnhance_Update_By_Condition(input:
+   [
+       {
+          name: "name1UPDATE"
+       }
+   ],
+    cond: "{_or:[{_and:[{id: {_eq: 1}},{name: {_eq: \"name1\"}},{age: {_eq: 11}}]},{\"(id,name,age)\": {_in: [\"(5,name5,15)\",\"(6,name6,16)\"]}}]}"
+   )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserWithBodyForRestfulEnhance_Update_By_Condition(input:
+   [
+       {
+          name: "name1UPDATE"
+       }
+   ],
+    cond: "{_or:[{_and:[{id: {_eq: 1}},{name: {_eq: \"name1\"}}]},{\"(id,name,age)\": {_in: [\"(5,name5,15)\",\"(6,name6,16)\"]}}]}"
+   )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserWithBodyForRestfulEnhance_Delete(input:
+	[
+        {
+          id: "1",
+          name: "name1",
+          age: "11"
+        }
+    ]
+    )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "UserWithBodyForRestfulEnhance_Delete": {
+      "json_value": [
+        {
+          "code": 1,
+          "data": "body/path template parse error"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserWithBodyForRestfulEnhance_Delete_By_Condition(cond: "{_and:[{id: {_eq: 1}},{name: {_eq: \"name1\"}},{age: {_eq: 11}}]}")
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserWithBodyForRestfulEnhance_Delete_By_Condition(cond: "{_and:[{id: {_eq: 1}},{name: {_eq: \"name1\"}}]}")
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "UserWithBodyForRestfulEnhance_Delete_By_Condition": {
+      "json_value": [
+        {
+          "code": 1,
+          "data": "body/path template parse error"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserWithBodyForRestfulEnhance_Delete_By_Condition(cond: "{_and:[{id: {_eq: 1}},{name: {_eq: \"name1\"}},{age: {_eq: 11}},{abc: {_eq: 55}}]}")
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {
+    "UserWithBodyForRestfulEnhance_Delete_By_Condition": {
+      "json_value": [
+        {
+          "code": 1,
+          "data": "Conflict conditions exist (( id = '1' and name = 'name1' and age = '11' and abc = '55' ))"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserWithBodyForRestfulEnhance_Delete_By_Condition(cond: "{\"(id,name,age)\": {_in: [\"(1,name1,11)\",\"(2,name2,12)\"]}}")
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserWithBodyForRestfulEnhance_Delete_By_Condition(cond: "{_and:[{_and:[{id: {_eq: 1}},{name: {_eq: \"name1\"}},{age: {_eq: 11}}]},{\"(id,name,age)\": {_in: [\"(5,name5,15)\",\"(6,name6,16)\"]}}]}")
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "UserWithBodyForRestfulEnhance_Delete_By_Condition": {
+      "json_value": [
+        {
+          "code": 1,
+          "data": "Conflict conditions exist (( ( id = '1' and name = 'name1' and age = '11' ) and (id,name,age) in (('5','name5','15'),('6','name6','16')) ))"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserWithBodyForRestfulEnhance_Delete_By_Condition(cond: "{_and:[{_and:[{id: {_eq: 1}},{name: {_eq: \"name1\"}},{age: {_eq: 11}}]},{\"(id,name,age)\": {_in: [\"(1,name1,11)\",\"(6,name6,16)\"]}}]}")
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserWithBodyForRestfulEnhance_Delete_By_Condition(cond: "{_or:[{_and:[{id: {_eq: 1}},{name: {_eq: \"name1\"}},{age: {_eq: 11}}]},{\"(id,name,age)\": {_in: [\"(5,name5,15)\",\"(6,name6,16)\"]}}]}")
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserWithBodyForRestfulEnhance_Delete_By_Condition(cond: "{_or:[{_and:[{id: {_eq: 1}},{name: {_eq: \"name1\"}}]},{\"(id,name,age)\": {_in: [\"(5,name5,15)\",\"(6,name6,16)\"]}}]}")
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>UserWithQueryForRestfulEnhance
+数据源：GET: query 里有参数</t>
+  </si>
+  <si>
+    <t>{UserWithQueryForRestfulEnhance(cond:"{_and:[{id: {_eq: 1}},{name: {_eq: \"name1\"}},{age: {_eq: 11}}]}") {id name age}}</t>
+  </si>
+  <si>
+    <t>{
+    "UserWithQueryForRestfulEnhance": [
+      {
+        "id": "1",
+        "name": "name1",
+        "age": "11"
+      }
+    ]
+  }</t>
+  </si>
+  <si>
+    <t>{UserWithQueryForRestfulEnhance(cond:"{_and:[{id: {_eq: 1}},{name: {_eq: \"name1\"}}]}") {id name age}}</t>
+  </si>
+  <si>
+    <t>{UserWithQueryForRestfulEnhance(cond:"{_and:[{id: {_eq: 1}},{name: {_eq: \"name1\"}},{age: {_eq: 11}},{abc: {_eq: 55}}]}") {id name age}}</t>
+  </si>
+  <si>
+    <t>{UserWithQueryForRestfulEnhance(cond:"{\"(id,name,age)\": {_in: [\"(1,name1,11)\",\"(2,name2,12)\"]}}") {id name age}}</t>
+  </si>
+  <si>
+    <t>{
+    "UserWithQueryForRestfulEnhance": [
+      {
+        "id": "1",
+        "name": "name1",
+        "age": "11"
+      },
+      {
+        "id": "2",
+        "name": "name2",
+        "age": "12"
+      }
+    ]
+  }</t>
+  </si>
+  <si>
+    <t>{UserWithQueryForRestfulEnhance(cond:"{_and:[{_and:[{id: {_eq: 1}},{name: {_eq: \"name1\"}},{age: {_eq: 11}}]},{\"(id,name,age)\": {_in: [\"(5,name5,15)\",\"(6,name6,16)\"]}}]}") {id name age}}</t>
+  </si>
+  <si>
+    <t>{
+    "UserWithQueryForRestfulEnhance": []
+  }</t>
+  </si>
+  <si>
+    <t>{UserWithQueryForRestfulEnhance(cond:"{_and:[{_and:[{id: {_eq: 1}},{name: {_eq: \"name1\"}},{age: {_eq: 11}}]},{\"(id,name,age)\": {_in: [\"(1,name1,11)\",\"(6,name6,16)\"]}}]}") {id name age}}</t>
+  </si>
+  <si>
+    <t>{UserWithQueryForRestfulEnhance(cond:"{_or:[{_and:[{id: {_eq: 1}},{name: {_eq: \"name1\"}},{age: {_eq: 11}}]},{\"(id,name,age)\": {_in: [\"(5,name5,15)\",\"(6,name6,16)\"]}}]}") {id name age}}</t>
+  </si>
+  <si>
+    <t>{
+    "UserWithQueryForRestfulEnhance": [
+      {
+        "id": "1",
+        "name": "name1",
+        "age": "11"
+      },
+      {
+        "id": "5",
+        "name": "name5",
+        "age": "15"
+      },
+      {
+        "id": "6",
+        "name": "name6",
+        "age": "16"
+      }
+    ]
+  }</t>
+  </si>
+  <si>
+    <t>{UserWithQueryForRestfulEnhance(cond:"{_or:[{_and:[{id: {_eq: 1}},{name: {_eq: \"name1\"}}]},{\"(id,name,age)\": {_in: [\"(5,name5,15)\",\"(6,name6,16)\"]}}]}") {id name age}}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserWithQueryForRestfulEnhance_Insert(input:
+	[
+        {
+          id: "1",
+          name: "name1",
+          age: "11"
+        }
+    ]
+    )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>UserWithQueryForRestfulEnhance
+数据源：POST: body 里有参数</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserWithQueryForRestfulEnhance_Update(input:
+	[
+        {
+          id: "1",
+          name: "name1UPDATE",
+          age: "11"
+        }
+    ]
+    )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserWithQueryForRestfulEnhance_Update_By_Condition(input:
+   [
+       {
+          name: "name1UPDATE"
+       }
+   ],
+    cond: "{_and:[{id: {_eq: 1}},{name: {_eq: \"name1\"}},{age: {_eq: 11}}]}"
+   )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserWithQueryForRestfulEnhance_Update_By_Condition(input:
+   [
+       {
+          name: "name1UPDATE"
+       }
+   ],
+    cond: "{_and:[{id: {_eq: 1}},{name: {_eq: \"name1\"}}]}"
+   )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "UserWithQueryForRestfulEnhance_Update_By_Condition": {
+      "json_value": [
+        {
+          "code": 1,
+          "data": "body/path template parse error"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserWithQueryForRestfulEnhance_Update_By_Condition(input:
+   [
+       {
+          name: "name1UPDATE"
+       }
+   ],
+    cond: "{_and:[{id: {_eq: 1}},{name: {_eq: \"name1\"}},{age: {_eq: 11}},{abc: {_eq: 55}}]}"
+   )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "UserWithQueryForRestfulEnhance_Update_By_Condition": {
+      "json_value": [
+        {
+          "code": 1,
+          "data": "Conflict conditions exist (( id = '1' and name = 'name1' and age = '11' and abc = '55' ))"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserWithQueryForRestfulEnhance_Update_By_Condition(input:
+   [
+       {
+          name: "name1UPDATE"
+       }
+   ],
+    cond: "{\"(id,name,age)\": {_in: [\"(1,name1,11)\",\"(2,name2,12)\"]}}"
+   )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserWithQueryForRestfulEnhance_Update_By_Condition(input:
+   [
+       {
+          name: "name1UPDATE"
+       }
+   ],
+    cond: "{_and:[{_and:[{id: {_eq: 1}},{name: {_eq: \"name1\"}},{age: {_eq: 11}}]},{\"(id,name,age)\": {_in: [\"(5,name5,15)\",\"(6,name6,16)\"]}}]}"
+   )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "UserWithQueryForRestfulEnhance_Update_By_Condition": {
+      "json_value": [
+        {
+          "code": 1,
+          "data": "Conflict conditions exist (( ( id = '1' and name = 'name1' and age = '11' ) and (id,name,age) in (('5','name5','15'),('6','name6','16')) ))"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserWithQueryForRestfulEnhance_Update_By_Condition(input:
+   [
+       {
+          name: "name1UPDATE"
+       }
+   ],
+    cond: "{_and:[{_and:[{id: {_eq: 1}},{name: {_eq: \"name1\"}},{age: {_eq: 11}}]},{\"(id,name,age)\": {_in: [\"(1,name1,11)\",\"(6,name6,16)\"]}}]}"
+   )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserWithQueryForRestfulEnhance_Update_By_Condition(input:
+   [
+       {
+          name: "name1UPDATE"
+       }
+   ],
+    cond: "{_or:[{_and:[{id: {_eq: 1}},{name: {_eq: \"name1\"}},{age: {_eq: 11}}]},{\"(id,name,age)\": {_in: [\"(5,name5,15)\",\"(6,name6,16)\"]}}]}"
+   )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserWithQueryForRestfulEnhance_Update_By_Condition(input:
+   [
+       {
+          name: "name1UPDATE"
+       }
+   ],
+    cond: "{_or:[{_and:[{id: {_eq: 1}},{name: {_eq: \"name1\"}}]},{\"(id,name,age)\": {_in: [\"(5,name5,15)\",\"(6,name6,16)\"]}}]}"
+   )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserWithQueryForRestfulEnhance_Delete(input:
+	[
+        {
+          id: "1",
+          name: "name1",
+          age: "11"
+        }
+    ]
+    )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "UserWithQueryForRestfulEnhance_Delete": {
+      "json_value": [
+        {
+          "code": 1,
+          "data": "body/path template parse error"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserWithQueryForRestfulEnhance_Delete_By_Condition(cond: "{_and:[{id: {_eq: 1}},{name: {_eq: \"name1\"}},{age: {_eq: 11}}]}")
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserWithQueryForRestfulEnhance_Delete_By_Condition(cond: "{_and:[{id: {_eq: 1}},{name: {_eq: \"name1\"}}]}")
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "UserWithQueryForRestfulEnhance_Delete_By_Condition": {
+      "json_value": [
+        {
+          "code": 1,
+          "data": "body/path template parse error"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserWithQueryForRestfulEnhance_Delete_By_Condition(cond: "{_and:[{id: {_eq: 1}},{name: {_eq: \"name1\"}},{age: {_eq: 11}},{abc: {_eq: 55}}]}")
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "UserWithQueryForRestfulEnhance_Delete_By_Condition": {
+      "json_value": [
+        {
+          "code": 1,
+          "data": "Conflict conditions exist (( id = '1' and name = 'name1' and age = '11' and abc = '55' ))"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserWithQueryForRestfulEnhance_Delete_By_Condition(cond: "{\"(id,name,age)\": {_in: [\"(1,name1,11)\",\"(2,name2,12)\"]}}")
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserWithQueryForRestfulEnhance_Delete_By_Condition(cond: "{_and:[{_and:[{id: {_eq: 1}},{name: {_eq: \"name1\"}},{age: {_eq: 11}}]},{\"(id,name,age)\": {_in: [\"(5,name5,15)\",\"(6,name6,16)\"]}}]}")
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "UserWithQueryForRestfulEnhance_Delete_By_Condition": {
+      "json_value": [
+        {
+          "code": 1,
+          "data": "Conflict conditions exist (( ( id = '1' and name = 'name1' and age = '11' ) and (id,name,age) in (('5','name5','15'),('6','name6','16')) ))"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserWithQueryForRestfulEnhance_Delete_By_Condition(cond: "{_and:[{_and:[{id: {_eq: 1}},{name: {_eq: \"name1\"}},{age: {_eq: 11}}]},{\"(id,name,age)\": {_in: [\"(1,name1,11)\",\"(6,name6,16)\"]}}]}")
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserWithQueryForRestfulEnhance_Delete_By_Condition(cond: "{_or:[{_and:[{id: {_eq: 1}},{name: {_eq: \"name1\"}},{age: {_eq: 11}}]},{\"(id,name,age)\": {_in: [\"(5,name5,15)\",\"(6,name6,16)\"]}}]}")
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserWithQueryForRestfulEnhance_Delete_By_Condition(cond: "{_or:[{_and:[{id: {_eq: 1}},{name: {_eq: \"name1\"}}]},{\"(id,name,age)\": {_in: [\"(5,name5,15)\",\"(6,name6,16)\"]}}]}")
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>UserWithHeaderForRestfulEnhance
+数据源： GET: headers 里有参数</t>
+  </si>
+  <si>
+    <t>{UserWithHeaderForRestfulEnhance(cond:"{_and:[{id: {_eq: 1}},{name: {_eq: \"name1\"}},{age: {_eq: 11}}]}") {id name age}}</t>
+  </si>
+  <si>
+    <t>{
+    "UserWithHeaderForRestfulEnhance": [
+      {
+        "id": "1",
+        "name": "name1",
+        "age": "11"
+      }
+    ]
+  }</t>
+  </si>
+  <si>
+    <t>{UserWithHeaderForRestfulEnhance(cond:"{_and:[{id: {_eq: 1}},{name: {_eq: \"name1\"}}]}") {id name age}}</t>
+  </si>
+  <si>
+    <t>{UserWithHeaderForRestfulEnhance(cond:"{_and:[{id: {_eq: 1}},{name: {_eq: \"name1\"}},{age: {_eq: 11}},{abc: {_eq: 55}}]}") {id name age}}</t>
+  </si>
+  <si>
+    <t>{UserWithHeaderForRestfulEnhance(cond:"{\"(id,name,age)\": {_in: [\"(1,name1,11)\",\"(2,name2,12)\"]}}") {id name age}}</t>
+  </si>
+  <si>
+    <t>{
+    "UserWithHeaderForRestfulEnhance": [
+      {
+        "id": "1",
+        "name": "name1",
+        "age": "11"
+      },
+      {
+        "id": "2",
+        "name": "name2",
+        "age": "12"
+      }
+    ]
+  }</t>
+  </si>
+  <si>
+    <t>{UserWithHeaderForRestfulEnhance(cond:"{_and:[{_and:[{id: {_eq: 1}},{name: {_eq: \"name1\"}},{age: {_eq: 11}}]},{\"(id,name,age)\": {_in: [\"(5,name5,15)\",\"(6,name6,16)\"]}}]}") {id name age}}</t>
+  </si>
+  <si>
+    <t>{
+    "UserWithHeaderForRestfulEnhance": []
+  }</t>
+  </si>
+  <si>
+    <t>{UserWithHeaderForRestfulEnhance(cond:"{_and:[{_and:[{id: {_eq: 1}},{name: {_eq: \"name1\"}},{age: {_eq: 11}}]},{\"(id,name,age)\": {_in: [\"(1,name1,11)\",\"(6,name6,16)\"]}}]}") {id name age}}</t>
+  </si>
+  <si>
+    <t>{UserWithHeaderForRestfulEnhance(cond:"{_or:[{_and:[{id: {_eq: 1}},{name: {_eq: \"name1\"}},{age: {_eq: 11}}]},{\"(id,name,age)\": {_in: [\"(5,name5,15)\",\"(6,name6,16)\"]}}]}") {id name age}}</t>
+  </si>
+  <si>
+    <t>{
+    "UserWithHeaderForRestfulEnhance": [
+      {
+        "id": "1",
+        "name": "name1",
+        "age": "11"
+      },
+      {
+        "id": "5",
+        "name": "name5",
+        "age": "15"
+      },
+      {
+        "id": "6",
+        "name": "name6",
+        "age": "16"
+      }
+    ]
+  }</t>
+  </si>
+  <si>
+    <t>{UserWithHeaderForRestfulEnhance(cond:"{_or:[{_and:[{id: {_eq: 1}},{name: {_eq: \"name1\"}}]},{\"(id,name,age)\": {_in: [\"(5,name5,15)\",\"(6,name6,16)\"]}}]}") {id name age}}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserWithHeaderForRestfulEnhance_Insert(input:
+	[
+        {
+          id: "1",
+          name: "name1",
+          age: "11"
+        }
+    ]
+    )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>UserWithHeaderForRestfulEnhance
+数据源：POST: body 里有参数</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserWithHeaderForRestfulEnhance_Update(input:
+	[
+        {
+          id: "1",
+          name: "name1UPDATE",
+          age: "11"
+        }
+    ]
+    )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserWithHeaderForRestfulEnhance_Update_By_Condition(input:
+   [
+       {
+          name: "name1UPDATE"
+       }
+   ],
+    cond: "{_and:[{id: {_eq: 1}},{name: {_eq: \"name1\"}},{age: {_eq: 11}}]}"
+   )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserWithHeaderForRestfulEnhance_Update_By_Condition(input:
+   [
+       {
+          name: "name1UPDATE"
+       }
+   ],
+    cond: "{_and:[{id: {_eq: 1}},{name: {_eq: \"name1\"}}]}"
+   )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "UserWithHeaderForRestfulEnhance_Update_By_Condition": {
+      "json_value": [
+        {
+          "code": 1,
+          "data": "body/path template parse error"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserWithHeaderForRestfulEnhance_Update_By_Condition(input:
+   [
+       {
+          name: "name1UPDATE"
+       }
+   ],
+    cond: "{_and:[{id: {_eq: 1}},{name: {_eq: \"name1\"}},{age: {_eq: 11}},{abc: {_eq: 55}}]}"
+   )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "UserWithHeaderForRestfulEnhance_Update_By_Condition": {
+      "json_value": [
+        {
+          "code": 1,
+          "data": "Conflict conditions exist (( id = '1' and name = 'name1' and age = '11' and abc = '55' ))"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserWithHeaderForRestfulEnhance_Update_By_Condition(input:
+   [
+       {
+          name: "name1UPDATE"
+       }
+   ],
+    cond: "{\"(id,name,age)\": {_in: [\"(1,name1,11)\",\"(2,name2,12)\"]}}"
+   )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserWithHeaderForRestfulEnhance_Update_By_Condition(input:
+   [
+       {
+          name: "name1UPDATE"
+       }
+   ],
+    cond: "{_and:[{_and:[{id: {_eq: 1}},{name: {_eq: \"name1\"}},{age: {_eq: 11}}]},{\"(id,name,age)\": {_in: [\"(5,name5,15)\",\"(6,name6,16)\"]}}]}"
+   )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "UserWithHeaderForRestfulEnhance_Update_By_Condition": {
+      "json_value": [
+        {
+          "code": 1,
+          "data": "Conflict conditions exist (( ( id = '1' and name = 'name1' and age = '11' ) and (id,name,age) in (('5','name5','15'),('6','name6','16')) ))"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserWithHeaderForRestfulEnhance_Update_By_Condition(input:
+   [
+       {
+          name: "name1UPDATE"
+       }
+   ],
+    cond: "{_and:[{_and:[{id: {_eq: 1}},{name: {_eq: \"name1\"}},{age: {_eq: 11}}]},{\"(id,name,age)\": {_in: [\"(1,name1,11)\",\"(6,name6,16)\"]}}]}"
+   )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserWithHeaderForRestfulEnhance_Update_By_Condition(input:
+   [
+       {
+          name: "name1UPDATE"
+       }
+   ],
+    cond: "{_or:[{_and:[{id: {_eq: 1}},{name: {_eq: \"name1\"}},{age: {_eq: 11}}]},{\"(id,name,age)\": {_in: [\"(5,name5,15)\",\"(6,name6,16)\"]}}]}"
+   )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserWithHeaderForRestfulEnhance_Update_By_Condition(input:
+   [
+       {
+          name: "name1UPDATE"
+       }
+   ],
+    cond: "{_or:[{_and:[{id: {_eq: 1}},{name: {_eq: \"name1\"}}]},{\"(id,name,age)\": {_in: [\"(5,name5,15)\",\"(6,name6,16)\"]}}]}"
+   )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserWithHeaderForRestfulEnhance_Delete(input:
+	[
+        {
+          id: "1",
+          name: "name1",
+          age: "11"
+        }
+    ]
+    )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {
+    "UserWithHeaderForRestfulEnhance_Delete": {
+      "json_value": [
+        {
+          "code": 1,
+          "data": "body/path template parse error"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserWithHeaderForRestfulEnhance_Delete_By_Condition(cond: "{_and:[{id: {_eq: 1}},{name: {_eq: \"name1\"}},{age: {_eq: 11}}]}")
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserWithHeaderForRestfulEnhance_Delete_By_Condition(cond: "{_and:[{id: {_eq: 1}},{name: {_eq: \"name1\"}}]}")
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "UserWithHeaderForRestfulEnhance_Delete_By_Condition": {
+      "json_value": [
+        {
+          "code": 1,
+          "data": "body/path template parse error"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserWithHeaderForRestfulEnhance_Delete_By_Condition(cond: "{_and:[{id: {_eq: 1}},{name: {_eq: \"name1\"}},{age: {_eq: 11}},{abc: {_eq: 55}}]}")
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "UserWithHeaderForRestfulEnhance_Delete_By_Condition": {
+      "json_value": [
+        {
+          "code": 1,
+          "data": "Conflict conditions exist (( id = '1' and name = 'name1' and age = '11' and abc = '55' ))"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserWithHeaderForRestfulEnhance_Delete_By_Condition(cond: "{\"(id,name,age)\": {_in: [\"(1,name1,11)\",\"(2,name2,12)\"]}}")
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserWithHeaderForRestfulEnhance_Delete_By_Condition(cond: "{_and:[{_and:[{id: {_eq: 1}},{name: {_eq: \"name1\"}},{age: {_eq: 11}}]},{\"(id,name,age)\": {_in: [\"(5,name5,15)\",\"(6,name6,16)\"]}}]}")
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "UserWithHeaderForRestfulEnhance_Delete_By_Condition": {
+      "json_value": [
+        {
+          "code": 1,
+          "data": "Conflict conditions exist (( ( id = '1' and name = 'name1' and age = '11' ) and (id,name,age) in (('5','name5','15'),('6','name6','16')) ))"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserWithHeaderForRestfulEnhance_Delete_By_Condition(cond: "{_and:[{_and:[{id: {_eq: 1}},{name: {_eq: \"name1\"}},{age: {_eq: 11}}]},{\"(id,name,age)\": {_in: [\"(1,name1,11)\",\"(6,name6,16)\"]}}]}")
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserWithHeaderForRestfulEnhance_Delete_By_Condition(cond: "{_or:[{_and:[{id: {_eq: 1}},{name: {_eq: \"name1\"}},{age: {_eq: 11}}]},{\"(id,name,age)\": {_in: [\"(5,name5,15)\",\"(6,name6,16)\"]}}]}")
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserWithHeaderForRestfulEnhance_Delete_By_Condition(cond: "{_or:[{_and:[{id: {_eq: 1}},{name: {_eq: \"name1\"}}]},{\"(id,name,age)\": {_in: [\"(5,name5,15)\",\"(6,name6,16)\"]}}]}")
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "UserForRestfulEnhance_Insert": {
+      "json_value": [
+        {
+          "code": 0,
+          "data": "{UserBasicInfoForRestfulEnhance={\"id\":\"1\",\"name\":\"name1\",\"age\":\"11\"}}"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>{
+    "UserWithBodyForRestfulEnhance_Insert": {
+      "json_value": [
+        {
+          "code": 0,
+          "data": "{UserBasicInfoForRestfulEnhance={\"id\":\"1\",\"name\":\"name1\",\"age\":\"11\"}}"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>{
+    "UserWithQueryForRestfulEnhance_Insert": {
+      "json_value": [
+        {
+          "code": 0,
+          "data": "{UserBasicInfoForRestfulEnhance={\"id\":\"1\",\"name\":\"name1\",\"age\":\"11\"}}"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>{
+    "UserWithHeaderForRestfulEnhance_Insert": {
+      "json_value": [
+        {
+          "code": 0,
+          "data": "{UserBasicInfoForRestfulEnhance={\"id\":\"1\",\"name\":\"name1\",\"age\":\"11\"}}"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {
+    "UserForRestfulEnhance_Update": {
+      "json_value": [
+        {
+          "code": 0,
+          "data": "{UserBasicInfoForRestfulEnhance={\"id\":\"1\",\"name\":\"name1\",\"age\":\"11\"}}"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>{
+    "UserForRestfulEnhance_Update_By_Condition": {
+      "json_value": [
+        {
+          "code": 0,
+          "data": "{UserBasicInfoForRestfulEnhance={\"id\":\"1\",\"name\":\"name1\",\"age\":\"11\"}}||{UserBasicInfoForRestfulEnhance={\"id\":\"3\",\"name\":\"name3\",\"age\":\"13\"}}||{UserBasicInfoForRestfulEnhance={\"id\":\"2\",\"name\":\"name2\",\"age\":\"12\"}}"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {
+    "UserForRestfulEnhance_Update_By_Condition": {
+      "json_value": [
+        {
+          "code": 0,
+          "data": "{UserBasicInfoForRestfulEnhance={\"id\":\"1\",\"name\":\"name1\",\"age\":\"11\"}}"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>{
+    "UserForRestfulEnhance_Update_By_Condition": {
+      "json_value": [
+        {
+          "code": 0,
+          "data": "{UserBasicInfoForRestfulEnhance={\"id\":\"3\",\"name\":\"name3\",\"age\":\"13\"}}||{UserBasicInfoForRestfulEnhance={\"id\":\"2\",\"name\":\"name2\",\"age\":\"12\"}}||{UserBasicInfoForRestfulEnhance={\"id\":\"1\",\"name\":\"name1\",\"age\":\"11\"}}"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>{
+    "UserForRestfulEnhance_Update_By_Condition": {
+      "json_value": [
+        {
+          "code": 0,
+          "data": "{UserBasicInfoForRestfulEnhance={\"id\":\"1\",\"name\":\"name1\",\"age\":\"11\"}}||{UserBasicInfoForRestfulEnhance={\"id\":\"2\",\"name\":\"name2\",\"age\":\"12\"}}||{UserBasicInfoForRestfulEnhance={\"id\":\"3\",\"name\":\"name3\",\"age\":\"13\"}}"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>{
+    "UserForRestfulEnhance_Update_By_Condition": {
+      "json_value": [
+        {
+          "code": 0,
+          "data": "{UserBasicInfoForRestfulEnhance={\"id\":\"1\",\"name\":\"name1\",\"age\":\"11\"}}"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>{
+    "UserForRestfulEnhance_Update_By_Condition": {
+      "json_value": [
+        {
+          "code": 0,
+          "data": "{UserBasicInfoForRestfulEnhance={\"id\":\"2\",\"name\":\"name2\",\"age\":\"12\"}}||{UserBasicInfoForRestfulEnhance={\"id\":\"3\",\"name\":\"name3\",\"age\":\"13\"}}"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>{
+    "UserForRestfulEnhance_Update_By_Condition": {
+        "json_value": [
+            {
+                "code": 0,
+                "data": "{UserBasicInfoForRestfulEnhance={\"id\":\"3\",\"name\":\"name3\",\"age\":\"13\"}}||{UserBasicInfoForRestfulEnhance={\"id\":\"4\",\"name\":\"name4\",\"age\":\"14\"}}||{UserBasicInfoForRestfulEnhance={\"id\":\"2\",\"name\":\"name2\",\"age\":\"12\"}}||{UserBasicInfoForRestfulEnhance={\"id\":\"1\",\"name\":\"name1\",\"age\":\"11\"}}||{UserBasicInfoForRestfulEnhance={\"id\":\"5\",\"name\":\"name5\",\"age\":\"15\"}}"
+            }
+        ],
+        "reserved_field_1": null,
+        "reserved_field_2": null
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "UserWithBodyForRestfulEnhance_Update": {
+      "json_value": [
+        {
+          "code": 0,
+          "data": "{UserBasicInfoForRestfulEnhance={\"id\":\"1\",\"name\":\"name1UPDATE\",\"age\":\"11\"}}"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>{
+    "UserWithBodyForRestfulEnhance_Update_By_Condition": {
+      "json_value": [
+        {
+          "code": 0,
+          "data": "{UserBasicInfoForRestfulEnhance={\"id\":\"1\",\"name\":\"name1UPDATE\",\"age\":\"11\"}}"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>{
+    "UserWithBodyForRestfulEnhance_Update_By_Condition": {
+      "json_value": [
+        {
+          "code": 0,
+          "data": "{UserBasicInfoForRestfulEnhance={\"id\":\"1\",\"name\":\"name1UPDATE\",\"age\":\"11\"}}||{UserBasicInfoForRestfulEnhance={\"id\":\"2\",\"name\":\"name1UPDATE\",\"age\":\"12\"}}"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>{
+    "UserWithBodyForRestfulEnhance_Update_By_Condition": {
+        "json_value": [
+            {
+                "code": 0,
+                "data": "{UserBasicInfoForRestfulEnhance={\"id\":\"1\",\"name\":\"name1UPDATE\",\"age\":\"11\"}}||{UserBasicInfoForRestfulEnhance={\"id\":\"5\",\"name\":\"name1UPDATE\",\"age\":\"15\"}}||{UserBasicInfoForRestfulEnhance={\"id\":\"6\",\"name\":\"name1UPDATE\",\"age\":\"16\"}}"
+            }
+        ],
+        "reserved_field_1": null,
+        "reserved_field_2": null
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "UserWithBodyForRestfulEnhance_Update_By_Condition": {
+      "json_value": [
+        {
+          "code": 1,
+          "data": "{UserBasicInfoForRestfulEnhance={\"id\":\"6\",\"name\":\"name1UPDATE\",\"age\":\"16\"}}||{UserBasicInfoForRestfulEnhance={\"id\":\"5\",\"name\":\"name1UPDATE\",\"age\":\"15\"}}||body/path template parse error"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>{
+    "UserWithQueryForRestfulEnhance_Update": {
+      "json_value": [
+        {
+          "code": 0,
+          "data": "{UserBasicInfoForRestfulEnhance={\"id\":\"1\",\"name\":\"name1UPDATE\",\"age\":\"11\"}}"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>{
+    "UserWithQueryForRestfulEnhance_Update_By_Condition": {
+      "json_value": [
+        {
+          "code": 0,
+          "data": "{UserBasicInfoForRestfulEnhance={\"id\":\"1\",\"name\":\"name1UPDATE\",\"age\":\"11\"}}"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {
+    "UserWithQueryForRestfulEnhance_Update_By_Condition": {
+      "json_value": [
+        {
+          "code": 0,
+          "data": "{UserBasicInfoForRestfulEnhance={\"id\":\"1\",\"name\":\"name1UPDATE\",\"age\":\"11\"}}||{UserBasicInfoForRestfulEnhance={\"id\":\"2\",\"name\":\"name1UPDATE\",\"age\":\"12\"}}"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>{
+    "UserWithQueryForRestfulEnhance_Update_By_Condition": {
+        "json_value": [
+            {
+                "code": 0,
+                "data": "{UserBasicInfoForRestfulEnhance={\"id\":\"1\",\"name\":\"name1UPDATE\",\"age\":\"11\"}}||{UserBasicInfoForRestfulEnhance={\"id\":\"5\",\"name\":\"name1UPDATE\",\"age\":\"15\"}}||{UserBasicInfoForRestfulEnhance={\"id\":\"6\",\"name\":\"name1UPDATE\",\"age\":\"16\"}}"
+            }
+        ],
+        "reserved_field_1": null,
+        "reserved_field_2": null
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "UserWithQueryForRestfulEnhance_Update_By_Condition": {
+      "json_value": [
+        {
+          "code": 1,
+          "data": "{UserBasicInfoForRestfulEnhance={\"id\":\"5\",\"name\":\"name1UPDATE\",\"age\":\"15\"}}||{UserBasicInfoForRestfulEnhance={\"id\":\"6\",\"name\":\"name1UPDATE\",\"age\":\"16\"}}||body/path template parse error"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>{
+    "UserWithHeaderForRestfulEnhance_Update": {
+      "json_value": [
+        {
+          "code": 0,
+          "data": "{UserBasicInfoForRestfulEnhance={\"id\":\"1\",\"name\":\"name1UPDATE\",\"age\":\"11\"}}"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>{
+    "UserWithHeaderForRestfulEnhance_Update_By_Condition": {
+      "json_value": [
+        {
+          "code": 0,
+          "data": "{UserBasicInfoForRestfulEnhance={\"id\":\"1\",\"name\":\"name1UPDATE\",\"age\":\"11\"}}"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {
+    "UserWithHeaderForRestfulEnhance_Update_By_Condition": {
+      "json_value": [
+        {
+          "code": 0,
+          "data": "{UserBasicInfoForRestfulEnhance={\"id\":\"1\",\"name\":\"name1UPDATE\",\"age\":\"11\"}}||{UserBasicInfoForRestfulEnhance={\"id\":\"2\",\"name\":\"name1UPDATE\",\"age\":\"12\"}}"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>{
+    "UserWithHeaderForRestfulEnhance_Update_By_Condition": {
+        "json_value": [
+            {
+                "code": 0,
+                "data": "{UserBasicInfoForRestfulEnhance={\"id\":\"1\",\"name\":\"name1UPDATE\",\"age\":\"11\"}}||{UserBasicInfoForRestfulEnhance={\"id\":\"5\",\"name\":\"name1UPDATE\",\"age\":\"15\"}}||{UserBasicInfoForRestfulEnhance={\"id\":\"6\",\"name\":\"name1UPDATE\",\"age\":\"16\"}}"
+            }
+        ],
+        "reserved_field_1": null,
+        "reserved_field_2": null
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "UserWithHeaderForRestfulEnhance_Update_By_Condition": {
+      "json_value": [
+        {
+          "code": 1,
+          "data": "{UserBasicInfoForRestfulEnhance={\"id\":\"5\",\"name\":\"name1UPDATE\",\"age\":\"15\"}}||{UserBasicInfoForRestfulEnhance={\"id\":\"6\",\"name\":\"name1UPDATE\",\"age\":\"16\"}}||body/path template parse error"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>{
+    "UserForRestfulEnhance_Delete": {
+      "json_value": [
+        {
+          "code": 0,
+          "data": "{UserBasicInfoForRestfulEnhance={\"id\":\"1\",\"name\":\"name1\",\"age\":\"11\"}}"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>{
+    "UserForRestfulEnhance_Delete_By_Condition": {
+      "json_value": [
+        {
+          "code": 0,
+          "data": "{UserBasicInfoForRestfulEnhance={\"id\":\"2\",\"name\":\"name2\",\"age\":\"12\"}}||{UserBasicInfoForRestfulEnhance={\"id\":\"3\",\"name\":\"name3\",\"age\":\"13\"}}||{UserBasicInfoForRestfulEnhance={\"id\":\"1\",\"name\":\"name1\",\"age\":\"11\"}}"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>{
+    "UserForRestfulEnhance_Delete_By_Condition": {
+        "json_value": [
+            {
+                "code": 0,
+                "data": "{UserBasicInfoForRestfulEnhance={\"id\":\"1\",\"name\":\"name1\",\"age\":\"11\"}}"
+            }
+        ],
+        "reserved_field_1": null,
+        "reserved_field_2": null
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "UserForRestfulEnhance_Delete_By_Condition": {
+      "json_value": [
+        {
+          "code": 0,
+          "data": "{UserBasicInfoForRestfulEnhance={\"id\":\"1\",\"name\":\"name1\",\"age\":\"11\"}}||{UserBasicInfoForRestfulEnhance={\"id\":\"2\",\"name\":\"name2\",\"age\":\"12\"}}||{UserBasicInfoForRestfulEnhance={\"id\":\"3\",\"name\":\"name3\",\"age\":\"13\"}}"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>{
+    "UserForRestfulEnhance_Delete_By_Condition": {
+      "json_value": [
+        {
+          "code": 0,
+          "data": "{UserBasicInfoForRestfulEnhance={\"id\":\"1\",\"name\":\"name1\",\"age\":\"11\"}}"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>{
+    "UserForRestfulEnhance_Delete_By_Condition": {
+      "json_value": [
+        {
+          "code": 0,
+          "data": "{UserBasicInfoForRestfulEnhance={\"id\":\"3\",\"name\":\"name3\",\"age\":\"13\"}}||{UserBasicInfoForRestfulEnhance={\"id\":\"2\",\"name\":\"name2\",\"age\":\"12\"}}"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>{
+    "UserForRestfulEnhance_Delete_By_Condition": {
+      "json_value": [
+        {
+          "code": 0,
+          "data": "{UserBasicInfoForRestfulEnhance={\"id\":\"1\",\"name\":\"name1\",\"age\":\"11\"}}||{UserBasicInfoForRestfulEnhance={\"id\":\"3\",\"name\":\"name3\",\"age\":\"13\"}}||{UserBasicInfoForRestfulEnhance={\"id\":\"2\",\"name\":\"name2\",\"age\":\"12\"}}"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>{
+    "UserForRestfulEnhance_Delete_By_Condition": {
+      "json_value": [
+        {
+          "code": 0,
+          "data": "{UserBasicInfoForRestfulEnhance={\"id\":\"4\",\"name\":\"name4\",\"age\":\"14\"}}||{UserBasicInfoForRestfulEnhance={\"id\":\"3\",\"name\":\"name3\",\"age\":\"13\"}}||{UserBasicInfoForRestfulEnhance={\"id\":\"5\",\"name\":\"name5\",\"age\":\"15\"}}||{UserBasicInfoForRestfulEnhance={\"id\":\"2\",\"name\":\"name2\",\"age\":\"12\"}}||{UserBasicInfoForRestfulEnhance={\"id\":\"1\",\"name\":\"name1\",\"age\":\"11\"}}"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>{
+    "UserWithBodyForRestfulEnhance_Delete_By_Condition": {
+      "json_value": [
+        {
+          "code": 0,
+          "data": "{UserBasicInfoForRestfulEnhance={\"id\":\"1\",\"name\":\"name1\",\"age\":\"11\"}}"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>{
+    "UserWithBodyForRestfulEnhance_Delete_By_Condition": {
+      "json_value": [
+        {
+          "code": 0,
+          "data": "{UserBasicInfoForRestfulEnhance={\"id\":\"2\",\"name\":\"name2\",\"age\":\"12\"}}||{UserBasicInfoForRestfulEnhance={\"id\":\"1\",\"name\":\"name1\",\"age\":\"11\"}}"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>{
+    "UserWithBodyForRestfulEnhance_Delete_By_Condition": {
+      "json_value": [
+        {
+          "code": 0,
+          "data": "{UserBasicInfoForRestfulEnhance={\"id\":\"1\",\"name\":\"name1\",\"age\":\"11\"}}||{UserBasicInfoForRestfulEnhance={\"id\":\"5\",\"name\":\"name5\",\"age\":\"15\"}}||{UserBasicInfoForRestfulEnhance={\"id\":\"6\",\"name\":\"name6\",\"age\":\"16\"}}"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>{
+    "UserWithBodyForRestfulEnhance_Delete_By_Condition": {
+      "json_value": [
+        {
+          "code": 1,
+          "data": "{UserBasicInfoForRestfulEnhance={\"id\":\"6\",\"name\":\"name6\",\"age\":\"16\"}}||{UserBasicInfoForRestfulEnhance={\"id\":\"5\",\"name\":\"name5\",\"age\":\"15\"}}||body/path template parse error"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {
+    "UserWithQueryForRestfulEnhance_Delete_By_Condition": {
+      "json_value": [
+        {
+          "code": 0,
+          "data": "{UserBasicInfoForRestfulEnhance={\"id\":\"1\",\"name\":\"name1\",\"age\":\"11\"}}"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>{
+    "UserWithQueryForRestfulEnhance_Delete_By_Condition": {
+      "json_value": [
+        {
+          "code": 0,
+          "data": "{UserBasicInfoForRestfulEnhance={\"id\":\"2\",\"name\":\"name2\",\"age\":\"12\"}}||{UserBasicInfoForRestfulEnhance={\"id\":\"1\",\"name\":\"name1\",\"age\":\"11\"}}"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>{
+    "UserWithQueryForRestfulEnhance_Delete_By_Condition": {
+      "json_value": [
+        {
+          "code": 0,
+          "data": "{UserBasicInfoForRestfulEnhance={\"id\":\"1\",\"name\":\"name1\",\"age\":\"11\"}}"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>{
+    "UserWithQueryForRestfulEnhance_Delete_By_Condition": {
+      "json_value": [
+        {
+          "code": 0,
+          "data": "{UserBasicInfoForRestfulEnhance={\"id\":\"5\",\"name\":\"name5\",\"age\":\"15\"}}||{UserBasicInfoForRestfulEnhance={\"id\":\"6\",\"name\":\"name6\",\"age\":\"16\"}}||{UserBasicInfoForRestfulEnhance={\"id\":\"1\",\"name\":\"name1\",\"age\":\"11\"}}"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>{
+    "UserWithQueryForRestfulEnhance_Delete_By_Condition": {
+      "json_value": [
+        {
+          "code": 1,
+          "data": "{UserBasicInfoForRestfulEnhance={\"id\":\"6\",\"name\":\"name6\",\"age\":\"16\"}}||{UserBasicInfoForRestfulEnhance={\"id\":\"5\",\"name\":\"name5\",\"age\":\"15\"}}||body/path template parse error"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>{
+    "UserWithHeaderForRestfulEnhance_Delete_By_Condition": {
+      "json_value": [
+        {
+          "code": 0,
+          "data": "{UserBasicInfoForRestfulEnhance={\"id\":\"1\",\"name\":\"name1\",\"age\":\"11\"}}"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>{
+    "UserWithHeaderForRestfulEnhance_Delete_By_Condition": {
+      "json_value": [
+        {
+          "code": 0,
+          "data": "{UserBasicInfoForRestfulEnhance={\"id\":\"2\",\"name\":\"name2\",\"age\":\"12\"}}||{UserBasicInfoForRestfulEnhance={\"id\":\"1\",\"name\":\"name1\",\"age\":\"11\"}}"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>{
+    "UserWithHeaderForRestfulEnhance_Delete_By_Condition": {
+      "json_value": [
+        {
+          "code": 0,
+          "data": "{UserBasicInfoForRestfulEnhance={\"id\":\"5\",\"name\":\"name5\",\"age\":\"15\"}}||{UserBasicInfoForRestfulEnhance={\"id\":\"6\",\"name\":\"name6\",\"age\":\"16\"}}||{UserBasicInfoForRestfulEnhance={\"id\":\"1\",\"name\":\"name1\",\"age\":\"11\"}}"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>{
+    "UserWithHeaderForRestfulEnhance_Delete_By_Condition": {
+      "json_value": [
+        {
+          "code": 1,
+          "data": "{UserBasicInfoForRestfulEnhance={\"id\":\"5\",\"name\":\"name5\",\"age\":\"15\"}}||{UserBasicInfoForRestfulEnhance={\"id\":\"6\",\"name\":\"name6\",\"age\":\"16\"}}||body/path template parse error"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>{
+    "UserForRestfulEnhance_Update_By_Condition": {
+      "json_value": [
+        {
+          "code": 0,
+          "data": "{UserBasicInfoForRestfulEnhance={\"message\":\"user not exists\"}}"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>{
+    "UserForRestfulEnhance_Delete_By_Condition": {
+      "json_value": [
+        {
+          "code": 0,
+          "data": "{UserBasicInfoForRestfulEnhance={\"message\":\"user not exists\"}}||{UserBasicInfoForRestfulEnhance={\"id\":\"1\",\"name\":\"name1\",\"age\":\"11\"}}||{UserBasicInfoForRestfulEnhance={\"message\":\"user not exists\"}}"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>{
+    "UserForRestfulEnhance_Delete_By_Condition": {
+      "json_value": [
+        {
+          "code": 0,
+          "data": "{UserBasicInfoForRestfulEnhance={\"message\":\"user not exists\"}}"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>{
+    "UserForRestfulEnhance_Update_By_Condition": {
+      "json_value": [
+        {
+          "code": 0,
+          "data": "{UserBasicInfoForRestfulEnhance={\"id\":\"1\",\"name\":\"name1\",\"age\":\"11\"}}||{UserBasicInfoForRestfulEnhance={\"message\":\"user not exists\"}}||{UserBasicInfoForRestfulEnhance={\"message\":\"user not exists\"}}"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
   </si>
 </sst>
 </file>
@@ -4360,7 +8122,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE22B0A1-EDF6-487D-8C5B-FE5F049504FE}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A22" sqref="A15:XFD22"/>
     </sheetView>
   </sheetViews>
@@ -9546,4 +13308,3669 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FD7D6DE-617D-4A49-9D87-297640E0E1DC}">
+  <dimension ref="A1:H141"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="C125" sqref="C125"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="50.109375" style="9" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" style="9" customWidth="1"/>
+    <col min="7" max="7" width="17.44140625" style="9" customWidth="1"/>
+    <col min="8" max="8" width="51.21875" style="9" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="E2" s="7">
+        <v>200</v>
+      </c>
+      <c r="F2" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="E3" s="7">
+        <v>200</v>
+      </c>
+      <c r="F3" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="E4" s="7">
+        <v>200</v>
+      </c>
+      <c r="F4" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="E5" s="7">
+        <v>200</v>
+      </c>
+      <c r="F5" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="E6" s="7">
+        <v>200</v>
+      </c>
+      <c r="F6" s="7">
+        <v>101403</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>617</v>
+      </c>
+      <c r="E7" s="7">
+        <v>200</v>
+      </c>
+      <c r="F7" s="7">
+        <v>101403</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>618</v>
+      </c>
+      <c r="E8" s="7">
+        <v>200</v>
+      </c>
+      <c r="F8" s="7">
+        <v>101403</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>619</v>
+      </c>
+      <c r="E9" s="7">
+        <v>200</v>
+      </c>
+      <c r="F9" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>620</v>
+      </c>
+      <c r="E10" s="7">
+        <v>200</v>
+      </c>
+      <c r="F10" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="E11" s="7">
+        <v>200</v>
+      </c>
+      <c r="F11" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="E12" s="7">
+        <v>200</v>
+      </c>
+      <c r="F12" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>624</v>
+      </c>
+      <c r="E13" s="7">
+        <v>200</v>
+      </c>
+      <c r="F13" s="7">
+        <v>101403</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="E14" s="7">
+        <v>200</v>
+      </c>
+      <c r="F14" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>626</v>
+      </c>
+      <c r="E15" s="7">
+        <v>200</v>
+      </c>
+      <c r="F15" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="E16" s="7">
+        <v>200</v>
+      </c>
+      <c r="F16" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>628</v>
+      </c>
+      <c r="E17" s="7">
+        <v>200</v>
+      </c>
+      <c r="F17" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>630</v>
+      </c>
+      <c r="E18" s="7">
+        <v>200</v>
+      </c>
+      <c r="F18" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>631</v>
+      </c>
+      <c r="E19" s="7">
+        <v>200</v>
+      </c>
+      <c r="F19" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>682</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>683</v>
+      </c>
+      <c r="E20" s="7">
+        <v>200</v>
+      </c>
+      <c r="F20" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>682</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>685</v>
+      </c>
+      <c r="E21" s="7">
+        <v>200</v>
+      </c>
+      <c r="F21" s="7">
+        <v>101403</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>682</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>686</v>
+      </c>
+      <c r="E22" s="7">
+        <v>200</v>
+      </c>
+      <c r="F22" s="7">
+        <v>101403</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>682</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>687</v>
+      </c>
+      <c r="E23" s="7">
+        <v>200</v>
+      </c>
+      <c r="F23" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>682</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>689</v>
+      </c>
+      <c r="E24" s="7">
+        <v>200</v>
+      </c>
+      <c r="F24" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>682</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>691</v>
+      </c>
+      <c r="E25" s="7">
+        <v>200</v>
+      </c>
+      <c r="F25" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>682</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="E26" s="7">
+        <v>200</v>
+      </c>
+      <c r="F26" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>682</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>694</v>
+      </c>
+      <c r="E27" s="7">
+        <v>200</v>
+      </c>
+      <c r="F27" s="7">
+        <v>101403</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="H27" s="7"/>
+    </row>
+    <row r="28" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>724</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>725</v>
+      </c>
+      <c r="E28" s="7">
+        <v>200</v>
+      </c>
+      <c r="F28" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>724</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>727</v>
+      </c>
+      <c r="E29" s="7">
+        <v>200</v>
+      </c>
+      <c r="F29" s="7">
+        <v>101403</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="H29" s="7"/>
+    </row>
+    <row r="30" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>724</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>728</v>
+      </c>
+      <c r="E30" s="7">
+        <v>200</v>
+      </c>
+      <c r="F30" s="7">
+        <v>101403</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="H30" s="7"/>
+    </row>
+    <row r="31" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>724</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>729</v>
+      </c>
+      <c r="E31" s="7">
+        <v>200</v>
+      </c>
+      <c r="F31" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>724</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>731</v>
+      </c>
+      <c r="E32" s="7">
+        <v>200</v>
+      </c>
+      <c r="F32" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>724</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>733</v>
+      </c>
+      <c r="E33" s="7">
+        <v>200</v>
+      </c>
+      <c r="F33" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>724</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>734</v>
+      </c>
+      <c r="E34" s="7">
+        <v>200</v>
+      </c>
+      <c r="F34" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>724</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>736</v>
+      </c>
+      <c r="E35" s="7">
+        <v>200</v>
+      </c>
+      <c r="F35" s="7">
+        <v>101403</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="H35" s="7"/>
+    </row>
+    <row r="36" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>764</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>765</v>
+      </c>
+      <c r="E36" s="7">
+        <v>200</v>
+      </c>
+      <c r="F36" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>764</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>767</v>
+      </c>
+      <c r="E37" s="7">
+        <v>200</v>
+      </c>
+      <c r="F37" s="7">
+        <v>101403</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="H37" s="7"/>
+    </row>
+    <row r="38" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>764</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>768</v>
+      </c>
+      <c r="E38" s="7">
+        <v>200</v>
+      </c>
+      <c r="F38" s="7">
+        <v>101403</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="H38" s="7"/>
+    </row>
+    <row r="39" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>764</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>769</v>
+      </c>
+      <c r="E39" s="7">
+        <v>200</v>
+      </c>
+      <c r="F39" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>764</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>771</v>
+      </c>
+      <c r="E40" s="7">
+        <v>200</v>
+      </c>
+      <c r="F40" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>764</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>773</v>
+      </c>
+      <c r="E41" s="7">
+        <v>200</v>
+      </c>
+      <c r="F41" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>764</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>774</v>
+      </c>
+      <c r="E42" s="7">
+        <v>200</v>
+      </c>
+      <c r="F42" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>764</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>776</v>
+      </c>
+      <c r="E43" s="7">
+        <v>200</v>
+      </c>
+      <c r="F43" s="7">
+        <v>101403</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="H43" s="7"/>
+    </row>
+    <row r="44" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>633</v>
+      </c>
+      <c r="E44" s="7">
+        <v>200</v>
+      </c>
+      <c r="F44" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>682</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>695</v>
+      </c>
+      <c r="E45" s="7">
+        <v>200</v>
+      </c>
+      <c r="F45" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>682</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>696</v>
+      </c>
+      <c r="E46" s="7">
+        <v>200</v>
+      </c>
+      <c r="F46" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>682</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>698</v>
+      </c>
+      <c r="E47" s="7">
+        <v>200</v>
+      </c>
+      <c r="F47" s="7">
+        <v>101301</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H47" s="7"/>
+    </row>
+    <row r="48" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>724</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>737</v>
+      </c>
+      <c r="E48" s="7">
+        <v>200</v>
+      </c>
+      <c r="F48" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>764</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>777</v>
+      </c>
+      <c r="E49" s="7">
+        <v>200</v>
+      </c>
+      <c r="F49" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>634</v>
+      </c>
+      <c r="E50" s="7">
+        <v>200</v>
+      </c>
+      <c r="F50" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>635</v>
+      </c>
+      <c r="E51" s="7">
+        <v>200</v>
+      </c>
+      <c r="F51" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H51" s="7" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>636</v>
+      </c>
+      <c r="E52" s="7">
+        <v>200</v>
+      </c>
+      <c r="F52" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>637</v>
+      </c>
+      <c r="E53" s="7">
+        <v>200</v>
+      </c>
+      <c r="F53" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>638</v>
+      </c>
+      <c r="E54" s="7">
+        <v>200</v>
+      </c>
+      <c r="F54" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H54" s="7" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>639</v>
+      </c>
+      <c r="E55" s="7">
+        <v>200</v>
+      </c>
+      <c r="F55" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H55" s="7" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>641</v>
+      </c>
+      <c r="E56" s="7">
+        <v>200</v>
+      </c>
+      <c r="F56" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H56" s="7" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>643</v>
+      </c>
+      <c r="E57" s="7">
+        <v>200</v>
+      </c>
+      <c r="F57" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H57" s="7" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>645</v>
+      </c>
+      <c r="E58" s="7">
+        <v>200</v>
+      </c>
+      <c r="F58" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H58" s="7" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>646</v>
+      </c>
+      <c r="E59" s="7">
+        <v>200</v>
+      </c>
+      <c r="F59" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H59" s="7" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>647</v>
+      </c>
+      <c r="E60" s="7">
+        <v>200</v>
+      </c>
+      <c r="F60" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H60" s="7" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>648</v>
+      </c>
+      <c r="E61" s="7">
+        <v>200</v>
+      </c>
+      <c r="F61" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H61" s="7" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>649</v>
+      </c>
+      <c r="E62" s="7">
+        <v>200</v>
+      </c>
+      <c r="F62" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G62" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H62" s="7" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>651</v>
+      </c>
+      <c r="E63" s="7">
+        <v>200</v>
+      </c>
+      <c r="F63" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G63" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H63" s="7" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>652</v>
+      </c>
+      <c r="E64" s="7">
+        <v>200</v>
+      </c>
+      <c r="F64" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G64" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H64" s="7" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>654</v>
+      </c>
+      <c r="E65" s="7">
+        <v>200</v>
+      </c>
+      <c r="F65" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G65" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H65" s="7" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>655</v>
+      </c>
+      <c r="E66" s="7">
+        <v>200</v>
+      </c>
+      <c r="F66" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G66" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H66" s="7" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>656</v>
+      </c>
+      <c r="E67" s="7">
+        <v>200</v>
+      </c>
+      <c r="F67" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H67" s="7" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>657</v>
+      </c>
+      <c r="E68" s="7">
+        <v>200</v>
+      </c>
+      <c r="F68" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G68" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H68" s="7" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>682</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>699</v>
+      </c>
+      <c r="E69" s="7">
+        <v>200</v>
+      </c>
+      <c r="F69" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G69" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H69" s="7" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>682</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>700</v>
+      </c>
+      <c r="E70" s="7">
+        <v>200</v>
+      </c>
+      <c r="F70" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G70" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H70" s="7" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>682</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>701</v>
+      </c>
+      <c r="E71" s="7">
+        <v>200</v>
+      </c>
+      <c r="F71" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G71" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H71" s="7" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>682</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>703</v>
+      </c>
+      <c r="E72" s="7">
+        <v>200</v>
+      </c>
+      <c r="F72" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G72" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H72" s="7" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>682</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>705</v>
+      </c>
+      <c r="E73" s="7">
+        <v>200</v>
+      </c>
+      <c r="F73" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G73" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H73" s="7" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>682</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>706</v>
+      </c>
+      <c r="E74" s="7">
+        <v>200</v>
+      </c>
+      <c r="F74" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G74" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H74" s="7" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>682</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>708</v>
+      </c>
+      <c r="E75" s="7">
+        <v>200</v>
+      </c>
+      <c r="F75" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G75" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H75" s="7" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>682</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>709</v>
+      </c>
+      <c r="E76" s="7">
+        <v>200</v>
+      </c>
+      <c r="F76" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G76" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H76" s="7" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>682</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>710</v>
+      </c>
+      <c r="E77" s="7">
+        <v>200</v>
+      </c>
+      <c r="F77" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G77" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H77" s="7" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>738</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>739</v>
+      </c>
+      <c r="E78" s="7">
+        <v>200</v>
+      </c>
+      <c r="F78" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G78" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H78" s="7" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>738</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>740</v>
+      </c>
+      <c r="E79" s="7">
+        <v>200</v>
+      </c>
+      <c r="F79" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G79" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H79" s="7" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>738</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>741</v>
+      </c>
+      <c r="E80" s="7">
+        <v>200</v>
+      </c>
+      <c r="F80" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G80" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H80" s="7" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>738</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="E81" s="7">
+        <v>200</v>
+      </c>
+      <c r="F81" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G81" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H81" s="7" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>738</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>745</v>
+      </c>
+      <c r="E82" s="7">
+        <v>200</v>
+      </c>
+      <c r="F82" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G82" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H82" s="7" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>738</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>746</v>
+      </c>
+      <c r="E83" s="7">
+        <v>200</v>
+      </c>
+      <c r="F83" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G83" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H83" s="7" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>738</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>748</v>
+      </c>
+      <c r="E84" s="7">
+        <v>200</v>
+      </c>
+      <c r="F84" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G84" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H84" s="7" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>738</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>749</v>
+      </c>
+      <c r="E85" s="7">
+        <v>200</v>
+      </c>
+      <c r="F85" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G85" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H85" s="7" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>738</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>750</v>
+      </c>
+      <c r="E86" s="7">
+        <v>200</v>
+      </c>
+      <c r="F86" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G86" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H86" s="7" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>778</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>779</v>
+      </c>
+      <c r="E87" s="7">
+        <v>200</v>
+      </c>
+      <c r="F87" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G87" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H87" s="7" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>778</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>780</v>
+      </c>
+      <c r="E88" s="7">
+        <v>200</v>
+      </c>
+      <c r="F88" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G88" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H88" s="7" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>778</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>781</v>
+      </c>
+      <c r="E89" s="7">
+        <v>200</v>
+      </c>
+      <c r="F89" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G89" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H89" s="7" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>778</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>783</v>
+      </c>
+      <c r="E90" s="7">
+        <v>200</v>
+      </c>
+      <c r="F90" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G90" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H90" s="7" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>778</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>785</v>
+      </c>
+      <c r="E91" s="7">
+        <v>200</v>
+      </c>
+      <c r="F91" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G91" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H91" s="7" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>778</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>786</v>
+      </c>
+      <c r="E92" s="7">
+        <v>200</v>
+      </c>
+      <c r="F92" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G92" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H92" s="7" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>778</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>788</v>
+      </c>
+      <c r="E93" s="7">
+        <v>200</v>
+      </c>
+      <c r="F93" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G93" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H93" s="7" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>778</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>789</v>
+      </c>
+      <c r="E94" s="7">
+        <v>200</v>
+      </c>
+      <c r="F94" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G94" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H94" s="7" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>778</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>790</v>
+      </c>
+      <c r="E95" s="7">
+        <v>200</v>
+      </c>
+      <c r="F95" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G95" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H95" s="7" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="D96" s="7" t="s">
+        <v>658</v>
+      </c>
+      <c r="E96" s="7">
+        <v>200</v>
+      </c>
+      <c r="F96" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G96" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H96" s="7" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="D97" s="7" t="s">
+        <v>659</v>
+      </c>
+      <c r="E97" s="7">
+        <v>200</v>
+      </c>
+      <c r="F97" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G97" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H97" s="7" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="D98" s="7" t="s">
+        <v>660</v>
+      </c>
+      <c r="E98" s="7">
+        <v>200</v>
+      </c>
+      <c r="F98" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G98" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H98" s="7" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="D99" s="7" t="s">
+        <v>661</v>
+      </c>
+      <c r="E99" s="7">
+        <v>200</v>
+      </c>
+      <c r="F99" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G99" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H99" s="7" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="D100" s="7" t="s">
+        <v>662</v>
+      </c>
+      <c r="E100" s="7">
+        <v>200</v>
+      </c>
+      <c r="F100" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G100" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H100" s="7" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="D101" s="7" t="s">
+        <v>663</v>
+      </c>
+      <c r="E101" s="7">
+        <v>200</v>
+      </c>
+      <c r="F101" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G101" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H101" s="7" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="D102" s="7" t="s">
+        <v>665</v>
+      </c>
+      <c r="E102" s="7">
+        <v>200</v>
+      </c>
+      <c r="F102" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G102" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H102" s="7" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="D103" s="7" t="s">
+        <v>667</v>
+      </c>
+      <c r="E103" s="7">
+        <v>200</v>
+      </c>
+      <c r="F103" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G103" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H103" s="7" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="D104" s="7" t="s">
+        <v>669</v>
+      </c>
+      <c r="E104" s="7">
+        <v>200</v>
+      </c>
+      <c r="F104" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G104" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H104" s="7" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="D105" s="7" t="s">
+        <v>670</v>
+      </c>
+      <c r="E105" s="7">
+        <v>200</v>
+      </c>
+      <c r="F105" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G105" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H105" s="7" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="D106" s="7" t="s">
+        <v>671</v>
+      </c>
+      <c r="E106" s="7">
+        <v>200</v>
+      </c>
+      <c r="F106" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G106" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H106" s="7" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="D107" s="7" t="s">
+        <v>672</v>
+      </c>
+      <c r="E107" s="7">
+        <v>200</v>
+      </c>
+      <c r="F107" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G107" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H107" s="7" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="D108" s="7" t="s">
+        <v>673</v>
+      </c>
+      <c r="E108" s="7">
+        <v>200</v>
+      </c>
+      <c r="F108" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G108" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H108" s="7" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="D109" s="7" t="s">
+        <v>675</v>
+      </c>
+      <c r="E109" s="7">
+        <v>200</v>
+      </c>
+      <c r="F109" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G109" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H109" s="7" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="D110" s="7" t="s">
+        <v>676</v>
+      </c>
+      <c r="E110" s="7">
+        <v>200</v>
+      </c>
+      <c r="F110" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G110" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H110" s="7" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="D111" s="7" t="s">
+        <v>678</v>
+      </c>
+      <c r="E111" s="7">
+        <v>200</v>
+      </c>
+      <c r="F111" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G111" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H111" s="7" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="D112" s="7" t="s">
+        <v>679</v>
+      </c>
+      <c r="E112" s="7">
+        <v>200</v>
+      </c>
+      <c r="F112" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G112" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H112" s="7" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="D113" s="7" t="s">
+        <v>680</v>
+      </c>
+      <c r="E113" s="7">
+        <v>200</v>
+      </c>
+      <c r="F113" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G113" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H113" s="7" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="D114" s="7" t="s">
+        <v>681</v>
+      </c>
+      <c r="E114" s="7">
+        <v>200</v>
+      </c>
+      <c r="F114" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G114" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H114" s="7" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>682</v>
+      </c>
+      <c r="D115" s="7" t="s">
+        <v>711</v>
+      </c>
+      <c r="E115" s="7">
+        <v>200</v>
+      </c>
+      <c r="F115" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G115" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H115" s="7" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>682</v>
+      </c>
+      <c r="D116" s="7" t="s">
+        <v>713</v>
+      </c>
+      <c r="E116" s="7">
+        <v>200</v>
+      </c>
+      <c r="F116" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G116" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H116" s="7" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="B117" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="C117" s="7" t="s">
+        <v>682</v>
+      </c>
+      <c r="D117" s="7" t="s">
+        <v>714</v>
+      </c>
+      <c r="E117" s="7">
+        <v>200</v>
+      </c>
+      <c r="F117" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G117" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H117" s="7" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>682</v>
+      </c>
+      <c r="D118" s="7" t="s">
+        <v>716</v>
+      </c>
+      <c r="E118" s="7">
+        <v>200</v>
+      </c>
+      <c r="F118" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G118" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H118" s="7" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>682</v>
+      </c>
+      <c r="D119" s="7" t="s">
+        <v>718</v>
+      </c>
+      <c r="E119" s="7">
+        <v>200</v>
+      </c>
+      <c r="F119" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G119" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H119" s="7" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="C120" s="7" t="s">
+        <v>682</v>
+      </c>
+      <c r="D120" s="7" t="s">
+        <v>719</v>
+      </c>
+      <c r="E120" s="7">
+        <v>200</v>
+      </c>
+      <c r="F120" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G120" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H120" s="7" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>682</v>
+      </c>
+      <c r="D121" s="7" t="s">
+        <v>721</v>
+      </c>
+      <c r="E121" s="7">
+        <v>200</v>
+      </c>
+      <c r="F121" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G121" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H121" s="7" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="B122" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="C122" s="7" t="s">
+        <v>682</v>
+      </c>
+      <c r="D122" s="7" t="s">
+        <v>722</v>
+      </c>
+      <c r="E122" s="7">
+        <v>200</v>
+      </c>
+      <c r="F122" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G122" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H122" s="7" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>682</v>
+      </c>
+      <c r="D123" s="7" t="s">
+        <v>723</v>
+      </c>
+      <c r="E123" s="7">
+        <v>200</v>
+      </c>
+      <c r="F123" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G123" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H123" s="7" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>738</v>
+      </c>
+      <c r="D124" s="7" t="s">
+        <v>751</v>
+      </c>
+      <c r="E124" s="7">
+        <v>200</v>
+      </c>
+      <c r="F124" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G124" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H124" s="7" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="C125" s="7" t="s">
+        <v>738</v>
+      </c>
+      <c r="D125" s="7" t="s">
+        <v>753</v>
+      </c>
+      <c r="E125" s="7">
+        <v>200</v>
+      </c>
+      <c r="F125" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G125" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H125" s="7" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="B126" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="C126" s="7" t="s">
+        <v>738</v>
+      </c>
+      <c r="D126" s="7" t="s">
+        <v>754</v>
+      </c>
+      <c r="E126" s="7">
+        <v>200</v>
+      </c>
+      <c r="F126" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G126" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H126" s="7" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="7" t="s">
+        <v>592</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>738</v>
+      </c>
+      <c r="D127" s="7" t="s">
+        <v>756</v>
+      </c>
+      <c r="E127" s="7">
+        <v>200</v>
+      </c>
+      <c r="F127" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G127" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H127" s="7" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="7" t="s">
+        <v>593</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="C128" s="7" t="s">
+        <v>738</v>
+      </c>
+      <c r="D128" s="7" t="s">
+        <v>758</v>
+      </c>
+      <c r="E128" s="7">
+        <v>200</v>
+      </c>
+      <c r="F128" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G128" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H128" s="7" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="B129" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="C129" s="7" t="s">
+        <v>738</v>
+      </c>
+      <c r="D129" s="7" t="s">
+        <v>759</v>
+      </c>
+      <c r="E129" s="7">
+        <v>200</v>
+      </c>
+      <c r="F129" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G129" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H129" s="7" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="B130" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="C130" s="7" t="s">
+        <v>738</v>
+      </c>
+      <c r="D130" s="7" t="s">
+        <v>761</v>
+      </c>
+      <c r="E130" s="7">
+        <v>200</v>
+      </c>
+      <c r="F130" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G130" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H130" s="7" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="B131" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="C131" s="7" t="s">
+        <v>738</v>
+      </c>
+      <c r="D131" s="7" t="s">
+        <v>762</v>
+      </c>
+      <c r="E131" s="7">
+        <v>200</v>
+      </c>
+      <c r="F131" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G131" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H131" s="7" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="7" t="s">
+        <v>597</v>
+      </c>
+      <c r="B132" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="C132" s="7" t="s">
+        <v>738</v>
+      </c>
+      <c r="D132" s="7" t="s">
+        <v>763</v>
+      </c>
+      <c r="E132" s="7">
+        <v>200</v>
+      </c>
+      <c r="F132" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G132" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H132" s="7" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="B133" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="C133" s="7" t="s">
+        <v>778</v>
+      </c>
+      <c r="D133" s="7" t="s">
+        <v>791</v>
+      </c>
+      <c r="E133" s="7">
+        <v>200</v>
+      </c>
+      <c r="F133" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G133" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H133" s="7" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="B134" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="C134" s="7" t="s">
+        <v>778</v>
+      </c>
+      <c r="D134" s="7" t="s">
+        <v>793</v>
+      </c>
+      <c r="E134" s="7">
+        <v>200</v>
+      </c>
+      <c r="F134" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G134" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H134" s="7" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="B135" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="C135" s="7" t="s">
+        <v>778</v>
+      </c>
+      <c r="D135" s="7" t="s">
+        <v>794</v>
+      </c>
+      <c r="E135" s="7">
+        <v>200</v>
+      </c>
+      <c r="F135" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G135" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H135" s="7" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="B136" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="C136" s="7" t="s">
+        <v>778</v>
+      </c>
+      <c r="D136" s="7" t="s">
+        <v>796</v>
+      </c>
+      <c r="E136" s="7">
+        <v>200</v>
+      </c>
+      <c r="F136" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G136" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H136" s="7" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="B137" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="C137" s="7" t="s">
+        <v>778</v>
+      </c>
+      <c r="D137" s="7" t="s">
+        <v>798</v>
+      </c>
+      <c r="E137" s="7">
+        <v>200</v>
+      </c>
+      <c r="F137" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G137" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H137" s="7" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="B138" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="C138" s="7" t="s">
+        <v>778</v>
+      </c>
+      <c r="D138" s="7" t="s">
+        <v>799</v>
+      </c>
+      <c r="E138" s="7">
+        <v>200</v>
+      </c>
+      <c r="F138" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G138" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H138" s="7" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="B139" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="C139" s="7" t="s">
+        <v>778</v>
+      </c>
+      <c r="D139" s="7" t="s">
+        <v>801</v>
+      </c>
+      <c r="E139" s="7">
+        <v>200</v>
+      </c>
+      <c r="F139" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G139" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H139" s="7" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="B140" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="C140" s="7" t="s">
+        <v>778</v>
+      </c>
+      <c r="D140" s="7" t="s">
+        <v>802</v>
+      </c>
+      <c r="E140" s="7">
+        <v>200</v>
+      </c>
+      <c r="F140" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G140" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H140" s="7" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="B141" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="C141" s="7" t="s">
+        <v>778</v>
+      </c>
+      <c r="D141" s="7" t="s">
+        <v>803</v>
+      </c>
+      <c r="E141" s="7">
+        <v>200</v>
+      </c>
+      <c r="F141" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G141" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H141" s="7" t="s">
+        <v>851</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/main/resources/test-data-xls/iot-api-engine-test-data.xlsx
+++ b/src/main/resources/test-data-xls/iot-api-engine-test-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\data-layer-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4826E559-C532-4ABE-A937-1494BF853726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CBEE927-D534-425B-A3B7-808922276F56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="getDataEntities" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2038" uniqueCount="856">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2035" uniqueCount="857">
   <si>
     <t>description</t>
   </si>
@@ -7451,6 +7451,12 @@
       "reserved_field_2": null
     }
   }</t>
+  </si>
+  <si>
+    <t>good request,
+delete operation,
+By Condition,
+3 data retrieved</t>
   </si>
 </sst>
 </file>
@@ -8471,9 +8477,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6DC2BAC-5C19-4CFF-8624-044FD1CB4C77}">
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H21" sqref="H21:L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -8625,17 +8631,13 @@
         <v>200</v>
       </c>
       <c r="I4" s="11">
-        <v>100000</v>
+        <v>101403</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="11">
-        <v>1</v>
-      </c>
-      <c r="L4" s="11" t="s">
         <v>109</v>
       </c>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
     </row>
     <row r="5" spans="1:12" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
@@ -8719,17 +8721,13 @@
         <v>200</v>
       </c>
       <c r="I7" s="11">
-        <v>100000</v>
+        <v>101403</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="K7" s="11">
-        <v>1</v>
-      </c>
-      <c r="L7" s="11" t="s">
-        <v>399</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
     </row>
     <row r="8" spans="1:12" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
@@ -9203,17 +9201,13 @@
         <v>200</v>
       </c>
       <c r="I21" s="11">
-        <v>100000</v>
+        <v>101403</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="K21" s="11">
-        <v>0</v>
-      </c>
-      <c r="L21" s="11" t="s">
-        <v>102</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
     </row>
     <row r="22" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
@@ -13314,8 +13308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FD7D6DE-617D-4A49-9D87-297640E0E1DC}">
   <dimension ref="A1:H141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="C125" sqref="C125"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -16428,7 +16422,7 @@
         <v>585</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>512</v>
+        <v>578</v>
       </c>
       <c r="C121" s="7" t="s">
         <v>682</v>
@@ -16454,7 +16448,7 @@
         <v>586</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>521</v>
+        <v>856</v>
       </c>
       <c r="C122" s="7" t="s">
         <v>682</v>
@@ -16480,7 +16474,7 @@
         <v>587</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>523</v>
+        <v>607</v>
       </c>
       <c r="C123" s="7" t="s">
         <v>682</v>
@@ -16662,7 +16656,7 @@
         <v>595</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>512</v>
+        <v>578</v>
       </c>
       <c r="C130" s="7" t="s">
         <v>738</v>
@@ -16688,7 +16682,7 @@
         <v>596</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>521</v>
+        <v>856</v>
       </c>
       <c r="C131" s="7" t="s">
         <v>738</v>
@@ -16714,7 +16708,7 @@
         <v>597</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>523</v>
+        <v>607</v>
       </c>
       <c r="C132" s="7" t="s">
         <v>738</v>
@@ -16896,7 +16890,7 @@
         <v>604</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>512</v>
+        <v>578</v>
       </c>
       <c r="C139" s="7" t="s">
         <v>778</v>
@@ -16922,7 +16916,7 @@
         <v>605</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>521</v>
+        <v>856</v>
       </c>
       <c r="C140" s="7" t="s">
         <v>778</v>

--- a/src/main/resources/test-data-xls/iot-api-engine-test-data.xlsx
+++ b/src/main/resources/test-data-xls/iot-api-engine-test-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\data-layer-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CBEE927-D534-425B-A3B7-808922276F56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29F05BDA-765E-49F6-95DE-70B694A277C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="getDataEntities" sheetId="2" r:id="rId1"/>
@@ -8478,8 +8478,8 @@
   <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H21" sqref="H21:L21"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -8724,7 +8724,7 @@
         <v>101403</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>109</v>
+        <v>399</v>
       </c>
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
@@ -8947,17 +8947,13 @@
         <v>200</v>
       </c>
       <c r="I14" s="11">
-        <v>100000</v>
+        <v>101403</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="K14" s="11">
-        <v>1</v>
-      </c>
-      <c r="L14" s="11" t="s">
         <v>399</v>
       </c>
+      <c r="K14" s="11"/>
+      <c r="L14" s="7"/>
     </row>
     <row r="15" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
@@ -9201,13 +9197,17 @@
         <v>200</v>
       </c>
       <c r="I21" s="11">
-        <v>101403</v>
+        <v>100000</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
+        <v>10</v>
+      </c>
+      <c r="K21" s="11">
+        <v>0</v>
+      </c>
+      <c r="L21" s="11" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="22" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">

--- a/src/main/resources/test-data-xls/iot-api-engine-test-data.xlsx
+++ b/src/main/resources/test-data-xls/iot-api-engine-test-data.xlsx
@@ -8,19 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\data-layer-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29F05BDA-765E-49F6-95DE-70B694A277C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A47070A-94CE-4C39-92B7-158512631C3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="getDataEntities" sheetId="2" r:id="rId1"/>
     <sheet name="getDataGraphQL" sheetId="3" r:id="rId2"/>
     <sheet name="postGraphForMysql" sheetId="14" r:id="rId3"/>
-    <sheet name="postGraphForMysql-backup" sheetId="9" r:id="rId4"/>
-    <sheet name="restfulTransactionSingleEntity" sheetId="10" r:id="rId5"/>
-    <sheet name="restfulTransactionMultiEntity" sheetId="11" r:id="rId6"/>
-    <sheet name="authForRestfulWrite" sheetId="12" r:id="rId7"/>
-    <sheet name="transferOfFlexibleParams" sheetId="16" r:id="rId8"/>
+    <sheet name="restfulTransactionSingleEntity" sheetId="10" r:id="rId4"/>
+    <sheet name="restfulTransactionMultiEntity" sheetId="11" r:id="rId5"/>
+    <sheet name="authForRestfulWrite" sheetId="12" r:id="rId6"/>
+    <sheet name="transferOfFlexibleParams" sheetId="16" r:id="rId7"/>
+    <sheet name="postGraphForMysql-backup" sheetId="9" r:id="rId8"/>
+    <sheet name="readPostgreSQL" sheetId="18" r:id="rId9"/>
+    <sheet name="writePostgreSQL" sheetId="17" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2035" uniqueCount="857">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2418" uniqueCount="1028">
   <si>
     <t>description</t>
   </si>
@@ -7457,6 +7459,2252 @@
 delete operation,
 By Condition,
 3 data retrieved</t>
+  </si>
+  <si>
+    <t>iot-PostgreSQL-insert-test-1</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   JdbcDriverPerson_Insert(input:
+	[
+        {
+          id: 1,
+          name: "name1",
+          age: 11,
+          signed: true
+        }
+    ]
+    )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>expectedDataStoredInPostgreSQL</t>
+  </si>
+  <si>
+    <t>jdbcdriver_person_table</t>
+  </si>
+  <si>
+    <t>{
+    "JdbcDriverPerson_Insert": {
+      "json_value": [
+        {
+          "code": 0,
+          "data": true
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>[
+    {
+        "index": 1,
+        "name": "name1",
+        "age": 11,
+        "signed": true
+    }
+]</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   JdbcDriverPerson_Insert(input:
+	[
+        {
+          id: 1,
+          name: "name1",
+          age: 11,
+          signed: true
+        }
+	{
+          id: 2,
+          name: "name2",
+          age: 12,
+          signed: false
+        }
+	{
+          id: 3,
+          name: "name3",
+          age: 13,
+          signed: true
+        }
+	{
+          id: 4,
+          name: "name4",
+          age: 14,
+          signed: true
+        }
+	{
+          id: 5,
+          name: "name5",
+          age: 15,
+          signed: true
+        }
+    ]
+    )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "JdbcDriverPerson_Insert": {
+        "json_value": [
+            {
+                "code": 0,
+                "data": true
+            },
+            {
+                "code": 0,
+                "data": true
+            },
+            {
+                "code": 0,
+                "data": true
+            },
+            {
+                "code": 0,
+                "data": true
+            },
+            {
+                "code": 0,
+                "data": true
+            }
+        ],
+        "reserved_field_1": null,
+        "reserved_field_2": null
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   JdbcDriverPerson_Insert(input:
+	[
+        {
+          name: "name1",
+          age: 11,
+          signed: true
+        }
+    ]
+    )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>Connector execution fail with code: 106103 exception: sql execution failed</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   JdbcDriverPerson_Insert(input:
+	[
+        {
+          id: 1,
+          name: "name1",
+          age: "11",
+          signed: true
+        }
+    ]
+    )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   JdbcDriverPerson_Insert(input:
+	[
+        {
+          id: 1,
+          name: 1,
+          age: 11,
+          signed: true
+        }
+    ]
+    )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   JdbcDriverPerson_Insert(input:
+	[
+        {
+          id: 1,
+          name: "name1",
+          age: 11,
+          signed: success
+        }
+    ]
+    )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>[
+    {
+        "index": 1,
+        "name": "name1",
+        "age": 11,
+        "signed": true
+    },
+    {
+        "index": 2,
+        "name": "name2",
+        "age": 12,
+        "signed": false
+    },
+    {
+        "index": 3,
+        "name": "name3",
+        "age": 13,
+        "signed": true
+    },
+    {
+        "index": 4,
+        "name": "name4",
+        "age": 14,
+        "signed": true
+    },
+    {
+        "index": 5,
+        "name": "name5",
+        "age": 15,
+        "signed": true
+    }
+]</t>
+  </si>
+  <si>
+    <t>{
+    "JdbcDriverPerson_Update": {
+      "json_value": [
+        {
+          "code": 0,
+          "data": true
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>[
+    {
+        "index": 1,
+        "name": "name1+",
+        "age": 11,
+        "signed": true
+    }
+]</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   JdbcDriverPerson_Update(input:
+	[
+       {
+          id: 1,
+          name: "name1+",
+          age: 11,
+          signed: true
+        }
+    ]
+    )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   JdbcDriverPerson_Update(input:
+	[
+        {
+          id: 1,
+          name: "name1+",
+          age: 11,
+          signed: true
+        }
+	{
+          id: 2,
+          name: "name2+",
+          age: 12,
+          signed: false
+        }
+	{
+          id: 3,
+          name: "name3+",
+          age: 13,
+          signed: true
+        }
+	{
+          id: 4,
+          name: "name4+",
+          age: 14,
+          signed: true
+        }
+	{
+          id: 5,
+          name: "name5+",
+          age: 15,
+          signed: true
+        }
+    ]
+    )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>[
+    {
+        "index": 1,
+        "name": "name1+",
+        "age": 11,
+        "signed": true
+    },
+    {
+        "index": 2,
+        "name": "name2+",
+        "age": 12,
+        "signed": false
+    },
+    {
+        "index": 3,
+        "name": "name3+",
+        "age": 13,
+        "signed": true
+    },
+    {
+        "index": 4,
+        "name": "name4+",
+        "age": 14,
+        "signed": true
+    },
+    {
+        "index": 5,
+        "name": "name5+",
+        "age": 15,
+        "signed": true
+    }
+]</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   JdbcDriverPerson_Update(input:
+	[
+        {
+          name: "name1+",
+          age: 11,
+          signed: true
+        }
+    ]
+    )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   JdbcDriverPerson_Update(input:
+	[
+       {
+          id: 1,
+          name: "name1+",
+          age: "11",
+          signed: true
+        }
+    ]
+    )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   JdbcDriverPerson_Update(input:
+	[
+       {
+          id: 1,
+          name: 1,
+          age: 11,
+          signed: true
+        }
+    ]
+    )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   JdbcDriverPerson_Update(input:
+	[
+       {
+          id: 1,
+          name: "name1+",
+          age: 11,
+          signed: success
+        }
+    ]
+    )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>bad request,insert INT field  incorrectly</t>
+  </si>
+  <si>
+    <t>bad request,insert String field  incorrectly</t>
+  </si>
+  <si>
+    <t>bad request,insert Boolean field  incorrectly</t>
+  </si>
+  <si>
+    <t>bad request,update Boolean field  incorrectly</t>
+  </si>
+  <si>
+    <t>iot-PostgreSQL-insert-test-2</t>
+  </si>
+  <si>
+    <t>iot-PostgreSQL-insert-test-3</t>
+  </si>
+  <si>
+    <t>iot-PostgreSQL-insert-test-4</t>
+  </si>
+  <si>
+    <t>iot-PostgreSQL-insert-test-5</t>
+  </si>
+  <si>
+    <t>iot-PostgreSQL-insert-test-6</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   JdbcDriverPerson_Update(input:
+	[
+       {
+          id: 9999,
+          name: "name1+",
+          age: 11,
+          signed: true
+        }
+    ]
+    )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>bad request,insert FLOAT field  incorrectly</t>
+  </si>
+  <si>
+    <t>bad request,insert TIME field  incorrectly</t>
+  </si>
+  <si>
+    <t>iot-PostgreSQL-update-test-6</t>
+  </si>
+  <si>
+    <t>iot-PostgreSQL-update-test-1</t>
+  </si>
+  <si>
+    <t>iot-PostgreSQL-update-test-2</t>
+  </si>
+  <si>
+    <t>iot-PostgreSQL-update-test-3</t>
+  </si>
+  <si>
+    <t>iot-PostgreSQL-update-test-4</t>
+  </si>
+  <si>
+    <t>iot-PostgreSQL-update-test-5</t>
+  </si>
+  <si>
+    <t>iot-PostgreSQL-update-test-7</t>
+  </si>
+  <si>
+    <t>iot-PostgreSQL-update-test-8</t>
+  </si>
+  <si>
+    <t>iot-PostgreSQL-update-test-9</t>
+  </si>
+  <si>
+    <t>iot-PostgreSQL-update-test-10</t>
+  </si>
+  <si>
+    <t>iot-PostgreSQL-update-test-11</t>
+  </si>
+  <si>
+    <t>iot-PostgreSQL-update-test-12</t>
+  </si>
+  <si>
+    <t>iot-PostgreSQL-update-test-13</t>
+  </si>
+  <si>
+    <t>iot-PostgreSQL-update-test-14</t>
+  </si>
+  <si>
+    <t>iot-PostgreSQL-update-test-15</t>
+  </si>
+  <si>
+    <t>iot-PostgreSQL-update-test-16</t>
+  </si>
+  <si>
+    <t>iot-PostgreSQL-update-test-17</t>
+  </si>
+  <si>
+    <t>iot-PostgreSQL-update-test-18</t>
+  </si>
+  <si>
+    <t>iot-PostgreSQL-update-test-19</t>
+  </si>
+  <si>
+    <t>{
+    "JdbcDriverPerson_Update": {
+      "json_value": [
+        {
+          "code": 0,
+          "data": true
+        },
+        {
+          "code": 0,
+          "data": true
+        },
+        {
+          "code": 0,
+          "data": true
+        },
+        {
+          "code": 0,
+          "data": true
+        },
+        {
+          "code": 0,
+          "data": true
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>{
+    "JdbcDriverPerson_Update_By_Condition": {
+        "json_value": [
+            {
+                "code": 0,
+                "data": true
+            }
+        ],
+        "reserved_field_1": null,
+        "reserved_field_2": null
+    }
+}</t>
+  </si>
+  <si>
+    <t>[
+    {
+        "index": 1,
+        "name": "name_eq",
+        "age": 11,
+        "signed": true
+    },
+    {
+        "index": 2,
+        "name": "name2",
+        "age": 12,
+        "signed": false
+    },
+    {
+        "index": 3,
+        "name": "name3",
+        "age": 13,
+        "signed": true
+    },
+    {
+        "index": 4,
+        "name": "name4",
+        "age": 14,
+        "signed": true
+    },
+    {
+        "index": 5,
+        "name": "name5",
+        "age": 15,
+        "signed": true
+    }
+]</t>
+  </si>
+  <si>
+    <t>[
+    {
+        "index": 1,
+        "name": "name1",
+        "age": 11,
+        "signed": true
+    },
+    {
+        "index": 2,
+        "name": "name_neq",
+        "age": 12,
+        "signed": false
+    },
+    {
+        "index": 3,
+        "name": "name_neq",
+        "age": 13,
+        "signed": true
+    },
+    {
+        "index": 4,
+        "name": "name_neq",
+        "age": 14,
+        "signed": true
+    },
+    {
+        "index": 5,
+        "name": "name_neq",
+        "age": 15,
+        "signed": true
+    }
+]</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   JdbcDriverPerson_Update_By_Condition(input:
+	[
+       {
+          name: "name_gt"
+        }
+    ],
+	cond: "{age: {_gt: 14}}"
+    )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>[
+    {
+        "index": 1,
+        "name": "name_lt",
+        "age": 11,
+        "signed": true
+    },
+    {
+        "index": 2,
+        "name": "name_lt",
+        "age": 12,
+        "signed": false
+    },
+    {
+        "index": 3,
+        "name": "name_lt",
+        "age": 13,
+        "signed": true
+    },
+    {
+        "index": 4,
+        "name": "name4",
+        "age": 14,
+        "signed": true
+    },
+    {
+        "index": 5,
+        "name": "name5",
+        "age": 15,
+        "signed": true
+    }
+]</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   JdbcDriverPerson_Update_By_Condition(input:
+	[
+       {
+          name: "name_lt"
+        }
+    ],
+	cond: "{age: {_lt: 14}}"
+    )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>[
+    {
+        "index": 1,
+        "name": "name1",
+        "age": 11,
+        "signed": true
+    },
+    {
+        "index": 2,
+        "name": "name2",
+        "age": 12,
+        "signed": false
+    },
+    {
+        "index": 3,
+        "name": "name3",
+        "age": 13,
+        "signed": true
+    },
+    {
+        "index": 4,
+        "name": "name_gte",
+        "age": 14,
+        "signed": true
+    },
+    {
+        "index": 5,
+        "name": "name_gte",
+        "age": 15,
+        "signed": true
+    }
+]</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   JdbcDriverPerson_Update_By_Condition(input:
+	[
+       {
+          name: "name_gte"
+        }
+    ],
+	cond: "{age: {_gte: 14}}"
+    )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>[
+    {
+        "index": 1,
+        "name": "name_lte",
+        "age": 11,
+        "signed": true
+    },
+    {
+        "index": 2,
+        "name": "name_lte",
+        "age": 12,
+        "signed": false
+    },
+    {
+        "index": 3,
+        "name": "name_lte",
+        "age": 13,
+        "signed": true
+    },
+    {
+        "index": 4,
+        "name": "name_lte",
+        "age": 14,
+        "signed": true
+    },
+    {
+        "index": 5,
+        "name": "name5",
+        "age": 15,
+        "signed": true
+    }
+]</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   JdbcDriverPerson_Update_By_Condition(input:
+	[
+       {
+          name: "name_lte"
+        }
+    ],
+	cond: "{age: {_lte: 14}}"
+    )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   JdbcDriverPerson_Update_By_Condition(input:
+	[
+       {
+          name: "name_in"
+        }
+    ],
+	cond: "{signed: {_in: [\"true\",\"false\"]}}"
+    )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>[
+    {
+        "index": 1,
+        "name": "name_in",
+        "age": 11,
+        "signed": true
+    },
+    {
+        "index": 2,
+        "name": "name_in",
+        "age": 12,
+        "signed": false
+    },
+    {
+        "index": 3,
+        "name": "name_in",
+        "age": 13,
+        "signed": true
+    },
+    {
+        "index": 4,
+        "name": "name_in",
+        "age": 14,
+        "signed": true
+    },
+    {
+        "index": 5,
+        "name": "name_in",
+        "age": 15,
+        "signed": true
+    }
+]</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   JdbcDriverPerson_Update_By_Condition(input:
+	[
+       {
+          name: "name_nin"
+        }
+    ],
+	cond: "{signed: {_nin: [\"true\",\"false\"]}}"
+    )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   JdbcDriverPerson_Update_By_Condition(input:
+	[
+       {
+          name: "name_like"
+        }
+    ],
+	cond: "{name: {_like: \"%name1%\"}}"
+    )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>[
+    {
+        "index": 1,
+        "name": "name_like",
+        "age": 11,
+        "signed": true
+    },
+    {
+        "index": 2,
+        "name": "name2",
+        "age": 12,
+        "signed": false
+    },
+    {
+        "index": 3,
+        "name": "name3",
+        "age": 13,
+        "signed": true
+    },
+    {
+        "index": 4,
+        "name": "name4",
+        "age": 14,
+        "signed": true
+    },
+    {
+        "index": 5,
+        "name": "name5",
+        "age": 15,
+        "signed": true
+    }
+]</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   JdbcDriverPerson_Update_By_Condition(input:
+	[
+       {
+          name: "name_is_null"
+        }
+    ],
+	cond: "{signed: {_is_null:true}}"
+    )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>[
+    {
+        "index": 1,
+        "name": "name_is_null",
+        "age": 11
+    },
+    {
+        "index": 2,
+        "name": "name2",
+        "age": 12,
+        "signed": false
+    },
+    {
+        "index": 3,
+        "name": "name3",
+        "age": 13,
+        "signed": true
+    },
+    {
+        "index": 4,
+        "name": "name4",
+        "age": 14,
+        "signed": true
+    },
+    {
+        "index": 5,
+        "name": "name5",
+        "age": 15,
+        "signed": true
+    }
+]</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   JdbcDriverPerson_Insert(input:
+	[
+        {
+          id: 1,
+          name: "name1",
+          age: 11
+        }
+	{
+          id: 2,
+          name: "name2",
+          age: 12,
+          signed: false
+        }
+	{
+          id: 3,
+          name: "name3",
+          age: 13,
+          signed: true
+        }
+	{
+          id: 4,
+          name: "name4",
+          age: 14,
+          signed: true
+        }
+	{
+          id: 5,
+          name: "name5",
+          age: 15,
+          signed: true
+        }
+    ]
+    )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>[
+    {
+        "index": 1,
+        "name": "name_and",
+        "age": 11
+    },
+    {
+        "index": 2,
+        "name": "name2",
+        "age": 12,
+        "signed": false
+    },
+    {
+        "index": 3,
+        "name": "name3",
+        "age": 13,
+        "signed": true
+    },
+    {
+        "index": 4,
+        "name": "name4",
+        "age": 14,
+        "signed": true
+    },
+    {
+        "index": 5,
+        "name": "name5",
+        "age": 15,
+        "signed": true
+    }
+]</t>
+  </si>
+  <si>
+    <t>[
+    {
+        "index": 1,
+        "name": "name_or",
+        "age": 11
+    },
+    {
+        "index": 2,
+        "name": "name_or",
+        "age": 12,
+        "signed": false
+    },
+    {
+        "index": 3,
+        "name": "name3",
+        "age": 13,
+        "signed": true
+    },
+    {
+        "index": 4,
+        "name": "name4",
+        "age": 14,
+        "signed": true
+    },
+    {
+        "index": 5,
+        "name": "name5",
+        "age": 15,
+        "signed": true
+    }
+]</t>
+  </si>
+  <si>
+    <t>iot-PostgreSQL-delete-test-1</t>
+  </si>
+  <si>
+    <t>{
+    "JdbcDriverPerson_Delete": {
+      "json_value": [
+        {
+          "code": 0,
+          "data": true
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+    JdbcDriverPerson_Delete(input:
+	[
+	    {
+          id: 1
+        }
+    ]
+    )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>[
+    {
+        "index": 2,
+        "name": "name2",
+        "age": 12,
+        "signed": false
+    },
+    {
+        "index": 3,
+        "name": "name3",
+        "age": 13,
+        "signed": true
+    },
+    {
+        "index": 4,
+        "name": "name4",
+        "age": 14,
+        "signed": true
+    },
+    {
+        "index": 5,
+        "name": "name5",
+        "age": 15,
+        "signed": true
+    }
+]</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+    JdbcDriverPerson_Delete(input:
+	[
+	    {
+          id: 1
+        }
+		{
+          id: 2
+        }
+		{
+          id: 3
+        }
+    ]
+    )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>[
+    {
+        "index": 4,
+        "name": "name4",
+        "age": 14,
+        "signed": true
+    },
+    {
+        "index": 5,
+        "name": "name5",
+        "age": 15,
+        "signed": true
+    }
+]</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+    JdbcDriverPerson_Delete(input:
+	[
+	    {
+          id: 9999
+        }
+    ]
+    )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>bad request,insert without id</t>
+  </si>
+  <si>
+    <t>bad request,update without id</t>
+  </si>
+  <si>
+    <t>good request,update non-exist id successfully</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   JdbcDriverPerson_Update_By_Condition(input:
+	[
+       {
+          name: "name_eq"
+        }
+    ],
+	cond: "{id: {_eq: 1}}"
+    )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   JdbcDriverPerson_Update_By_Condition(input:
+	[
+       {
+          name: "name_neq"
+        }
+    ],
+	cond: "{id: {_neq: 1}}"
+    )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>good request,delete non-exist id successfully</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   JdbcDriverPerson_Delete_By_Condition(cond: "{id: {_eq: 1}}")
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "JdbcDriverPerson_Delete_By_Condition": {
+      "json_value": [
+        {
+          "code": 0,
+          "data": true
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   JdbcDriverPerson_Delete_By_Condition(cond: "{id: {_neq: 1}}")
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   JdbcDriverPerson_Delete_By_Condition(cond: "{age: {_gt: 14}}")
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   JdbcDriverPerson_Delete_By_Condition(cond: "{age: {_lt: 14}}")
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   JdbcDriverPerson_Delete_By_Condition(cond: "{age: {_gte: 14}}")
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   JdbcDriverPerson_Delete_By_Condition(cond: "{age: {_lte: 14}}")
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   JdbcDriverPerson_Delete_By_Condition(cond: "{signed: {_in: [\"true\",\"false\"]}}")
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   JdbcDriverPerson_Delete_By_Condition(cond: "{signed: {_nin: [\"true\",\"false\"]}}")
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   JdbcDriverPerson_Delete_By_Condition(cond: "{name: {_like: \"%name1%\"}}")
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   JdbcDriverPerson_Delete_By_Condition(cond: "{signed: {_is_null:true}}")
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>[
+    {
+        "index": 1,
+        "name": "name1",
+        "age": 11,
+        "signed": true
+    },
+    {
+        "index": 2,
+        "name": "name2",
+        "age": 12,
+        "signed": false
+    },
+    {
+        "index": 3,
+        "name": "name3",
+        "age": 13,
+        "signed": true
+    },
+    {
+        "index": 4,
+        "name": "name4",
+        "age": 14,
+        "signed": true
+    }
+]</t>
+  </si>
+  <si>
+    <t>[
+    {
+        "index": 1,
+        "name": "name1",
+        "age": 11,
+        "signed": true
+    },
+    {
+        "index": 2,
+        "name": "name2",
+        "age": 12,
+        "signed": false
+    },
+    {
+        "index": 3,
+        "name": "name3",
+        "age": 13,
+        "signed": true
+    }
+]</t>
+  </si>
+  <si>
+    <t>[
+    {
+        "index": 5,
+        "name": "name5",
+        "age": 15,
+        "signed": true
+    }
+]</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>[
+    {
+        "index": 3,
+        "name": "name3",
+        "age": 13,
+        "signed": true
+    },
+    {
+        "index": 4,
+        "name": "name4",
+        "age": 14,
+        "signed": true
+    },
+    {
+        "index": 5,
+        "name": "name5",
+        "age": 15,
+        "signed": true
+    }
+]</t>
+  </si>
+  <si>
+    <t>iot-PostgreSQL-delete-test-2</t>
+  </si>
+  <si>
+    <t>iot-PostgreSQL-delete-test-3</t>
+  </si>
+  <si>
+    <t>iot-PostgreSQL-delete-test-4</t>
+  </si>
+  <si>
+    <t>iot-PostgreSQL-delete-test-5</t>
+  </si>
+  <si>
+    <t>iot-PostgreSQL-delete-test-6</t>
+  </si>
+  <si>
+    <t>iot-PostgreSQL-delete-test-7</t>
+  </si>
+  <si>
+    <t>iot-PostgreSQL-delete-test-8</t>
+  </si>
+  <si>
+    <t>iot-PostgreSQL-delete-test-9</t>
+  </si>
+  <si>
+    <t>iot-PostgreSQL-delete-test-10</t>
+  </si>
+  <si>
+    <t>iot-PostgreSQL-delete-test-11</t>
+  </si>
+  <si>
+    <t>iot-PostgreSQL-delete-test-12</t>
+  </si>
+  <si>
+    <t>iot-PostgreSQL-delete-test-13</t>
+  </si>
+  <si>
+    <t>iot-PostgreSQL-delete-test-14</t>
+  </si>
+  <si>
+    <t>iot-PostgreSQL-delete-test-15</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   JdbcDriverPerson_Update_By_Condition(input:
+	[
+       {
+          name: "name_and"
+        }
+    ],
+	cond: "{_and:[{signed: {_is_null: true}},{name: {_like: \"%name1%\"}}]}"
+    )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   JdbcDriverPerson_Update_By_Condition(input:
+	[
+       {
+          name: "name_or"
+        }
+    ],
+	cond: "{_or:[{signed: {_is_null: true}},{name: {_like: \"%name2%\"}}]}"
+    )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   JdbcDriverPerson_Delete_By_Condition(cond: "{_and:[{signed: {_is_null: true}},{name: {_like: \"%name1%\"}}]}")
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   JdbcDriverPerson_Delete_By_Condition(cond: "{_or:[{signed: {_is_null: true}},{name: {_like: \"%name2%\"}}]}")
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "JdbcDriverPerson_Delete": {
+        "json_value": [
+            {
+                "code": 0,
+                "data": true
+            },
+            {
+                "code": 0,
+                "data": true
+            },
+            {
+                "code": 0,
+                "data": true
+            }
+        ],
+        "reserved_field_1": null,
+        "reserved_field_2": null
+    }
+}</t>
+  </si>
+  <si>
+    <t>[
+    {
+        "index": 1,
+        "name": "name1",
+        "age": 11,
+        "signed": true
+    },
+    {
+        "index": 2,
+        "name": "name2",
+        "age": 12,
+        "signed": false
+    },
+    {
+        "index": 3,
+        "name": "name3",
+        "age": 13,
+        "signed": true
+    },
+    {
+        "index": 4,
+        "name": "name4",
+        "age": 14,
+        "signed": true
+    },
+    {
+        "index": 5,
+        "name": "name_gt",
+        "age": 15,
+        "signed": true
+    }
+]</t>
+  </si>
+  <si>
+    <t>iot-PostgreSQL-query-test-1</t>
+  </si>
+  <si>
+    <t>iot-PostgreSQL-query-test-2</t>
+  </si>
+  <si>
+    <t>iot-PostgreSQL-query-test-3</t>
+  </si>
+  <si>
+    <t>iot-PostgreSQL-query-test-4</t>
+  </si>
+  <si>
+    <t>iot-PostgreSQL-query-test-5</t>
+  </si>
+  <si>
+    <t>iot-PostgreSQL-query-test-6</t>
+  </si>
+  <si>
+    <t>iot-PostgreSQL-query-test-7</t>
+  </si>
+  <si>
+    <t>iot-PostgreSQL-query-test-8</t>
+  </si>
+  <si>
+    <t>iot-PostgreSQL-query-test-9</t>
+  </si>
+  <si>
+    <t>iot-PostgreSQL-query-test-10</t>
+  </si>
+  <si>
+    <t>iot-PostgreSQL-query-test-11</t>
+  </si>
+  <si>
+    <t>iot-PostgreSQL-query-test-12</t>
+  </si>
+  <si>
+    <t>{JdbcDriverPerson {id name age signed}}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   JdbcDriverPerson_Insert(input:
+	[
+        {
+          id: 1,
+          name: "name1",
+          age: 11,
+          signed: true
+        }
+	{
+          id: 2,
+          name: "name2",
+          age: 12,
+          signed: false
+        }
+	{
+          id: 3,
+          name: "name3",
+          age: 13,
+          signed: true
+        }
+	{
+          id: 4,
+          name: "name4",
+          age: 14,
+          signed: true
+        }
+	{
+          id: 5,
+          name: "name5",
+          age: 15,
+          signed: true
+        }
+{
+          id: 6,
+          name: "name6",
+          age: 16,
+          signed: true
+        }
+	{
+          id: 7,
+          name: "name7",
+          age: 17,
+          signed: false
+        }
+	{
+          id: 8,
+          name: "name8",
+          age: 18,
+          signed: true
+        }
+	{
+          id: 9,
+          name: "name9",
+          age: 19,
+          signed: true
+        }
+	{
+          id: 10,
+          name: "name10",
+          age: 20,
+          signed: true
+        }
+    ]
+    )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>{JdbcDriverPerson(cond:"{id:{_eq:\"1\"}}") {id name age signed}}</t>
+  </si>
+  <si>
+    <t>{
+    "JdbcDriverPerson": [
+      {
+        "id": 1,
+        "name": "name1",
+        "age": 11,
+        "signed": true
+      },
+      {
+        "id": 2,
+        "name": "name2",
+        "age": 12,
+        "signed": false
+      },
+      {
+        "id": 3,
+        "name": "name3",
+        "age": 13,
+        "signed": true
+      },
+      {
+        "id": 4,
+        "name": "name4",
+        "age": 14,
+        "signed": true
+      },
+      {
+        "id": 5,
+        "name": "name5",
+        "age": 15,
+        "signed": true
+      },
+      {
+        "id": 6,
+        "name": "name6",
+        "age": 16,
+        "signed": true
+      },
+      {
+        "id": 7,
+        "name": "name7",
+        "age": 17,
+        "signed": false
+      },
+      {
+        "id": 8,
+        "name": "name8",
+        "age": 18,
+        "signed": true
+      },
+      {
+        "id": 9,
+        "name": "name9",
+        "age": 19,
+        "signed": true
+      },
+      {
+        "id": 10,
+        "name": "name10",
+        "age": 20,
+        "signed": true
+      }
+    ]
+  }</t>
+  </si>
+  <si>
+    <t>{
+    "JdbcDriverPerson": [
+        {
+            "id": 1,
+            "name": "name1",
+            "age": 11,
+            "signed": true
+        }
+    ]
+}</t>
+  </si>
+  <si>
+    <t>{JdbcDriverPerson(cond:"{id:{_neq:\"1\"}}") {id name age signed}}</t>
+  </si>
+  <si>
+    <t>{
+    "JdbcDriverPerson": [
+        {
+            "id": 2,
+            "name": "name2",
+            "age": 12,
+            "signed": false
+        },
+        {
+            "id": 3,
+            "name": "name3",
+            "age": 13,
+            "signed": true
+        },
+        {
+            "id": 4,
+            "name": "name4",
+            "age": 14,
+            "signed": true
+        },
+        {
+            "id": 5,
+            "name": "name5",
+            "age": 15,
+            "signed": true
+        },
+        {
+            "id": 6,
+            "name": "name6",
+            "age": 16,
+            "signed": true
+        },
+        {
+            "id": 7,
+            "name": "name7",
+            "age": 17,
+            "signed": false
+        },
+        {
+            "id": 8,
+            "name": "name8",
+            "age": 18,
+            "signed": true
+        },
+        {
+            "id": 9,
+            "name": "name9",
+            "age": 19,
+            "signed": true
+        },
+        {
+            "id": 10,
+            "name": "name10",
+            "age": 20,
+            "signed": true
+        }
+    ]
+}</t>
+  </si>
+  <si>
+    <t>{JdbcDriverPerson(cond:"{age:{_gt:\"19\"}}") {id name age signed}}</t>
+  </si>
+  <si>
+    <t>{
+    "JdbcDriverPerson": [
+        {
+            "id": 10,
+            "name": "name10",
+            "age": 20,
+            "signed": true
+        }
+    ]
+}</t>
+  </si>
+  <si>
+    <t>{JdbcDriverPerson(cond:"{age:{_gte:\"19\"}}") {id name age signed}}</t>
+  </si>
+  <si>
+    <t>{JdbcDriverPerson(cond:"{age:{_lte:\"19\"}}") {id name age signed}}</t>
+  </si>
+  <si>
+    <t>{
+    "JdbcDriverPerson": [
+        {
+            "id": 9,
+            "name": "name9",
+            "age": 19,
+            "signed": true
+        },
+        {
+            "id": 10,
+            "name": "name10",
+            "age": 20,
+            "signed": true
+        }
+    ]
+}</t>
+  </si>
+  <si>
+    <t>{
+    "JdbcDriverPerson": [
+      {
+        "id": 1,
+        "name": "name1",
+        "age": 11,
+        "signed": true
+      },
+      {
+        "id": 2,
+        "name": "name2",
+        "age": 12,
+        "signed": false
+      },
+      {
+        "id": 3,
+        "name": "name3",
+        "age": 13,
+        "signed": true
+      },
+      {
+        "id": 4,
+        "name": "name4",
+        "age": 14,
+        "signed": true
+      },
+      {
+        "id": 5,
+        "name": "name5",
+        "age": 15,
+        "signed": true
+      },
+      {
+        "id": 6,
+        "name": "name6",
+        "age": 16,
+        "signed": true
+      },
+      {
+        "id": 7,
+        "name": "name7",
+        "age": 17,
+        "signed": false
+      },
+      {
+        "id": 8,
+        "name": "name8",
+        "age": 18,
+        "signed": true
+      },
+      {
+        "id": 9,
+        "name": "name9",
+        "age": 19,
+        "signed": true
+      }
+    ]
+  }</t>
+  </si>
+  <si>
+    <t>{JdbcDriverPerson(cond:"{signed: {_in: [\"true\",\"false\"]}}") {id name age signed}}</t>
+  </si>
+  <si>
+    <t>{JdbcDriverPerson(cond:"{signed: {_nin: [\"true\",\"false\"]}}") {id name age signed}}</t>
+  </si>
+  <si>
+    <t>{JdbcDriverPerson(cond:"{name: {_like: \"%name1%\"}}") {id name age signed}}</t>
+  </si>
+  <si>
+    <t>{JdbcDriverPerson(cond:"{signed: {_is_null:true}}") {id name age signed}}</t>
+  </si>
+  <si>
+    <t>{
+    "JdbcDriverPerson": [
+        {
+            "id": 1,
+            "name": "name1",
+            "age": 11,
+            "signed": true
+        },
+        {
+            "id": 2,
+            "name": "name2",
+            "age": 12,
+            "signed": false
+        },
+        {
+            "id": 3,
+            "name": "name3",
+            "age": 13,
+            "signed": true
+        },
+        {
+            "id": 4,
+            "name": "name4",
+            "age": 14,
+            "signed": true
+        },
+        {
+            "id": 5,
+            "name": "name5",
+            "age": 15,
+            "signed": true
+        },
+        {
+            "id": 6,
+            "name": "name6",
+            "age": 16,
+            "signed": true
+        },
+        {
+            "id": 7,
+            "name": "name7",
+            "age": 17,
+            "signed": false
+        },
+        {
+            "id": 8,
+            "name": "name8",
+            "age": 18,
+            "signed": true
+        },
+        {
+            "id": 9,
+            "name": "name9",
+            "age": 19,
+            "signed": true
+        },
+        {
+            "id": 10,
+            "name": "name10",
+            "age": 20,
+            "signed": true
+        }
+    ]
+}</t>
+  </si>
+  <si>
+    <t>{
+    "JdbcDriverPerson": []
+}</t>
+  </si>
+  <si>
+    <t>{
+    "JdbcDriverPerson": [
+        {
+            "id": 1,
+            "name": "name1",
+            "age": 11,
+            "signed": true
+        },
+        {
+            "id": 10,
+            "name": "name10",
+            "age": 20,
+            "signed": true
+        }
+    ]
+}</t>
+  </si>
+  <si>
+    <t>{JdbcDriverPerson(cond:"{_and:[{signed: {_eq: false}},{name: {_like: \"%name1%\"}}]}") {id name age signed}}</t>
+  </si>
+  <si>
+    <t>{JdbcDriverPerson(cond:"{_or:[{signed: {_eq: false}},{name: {_like: \"%name1%\"}}]}") {id name age signed}}</t>
+  </si>
+  <si>
+    <t>{
+    "JdbcDriverPerson": [
+        {
+            "id": 1,
+            "name": "name1",
+            "age": 11,
+            "signed": true
+        },
+        {
+            "id": 2,
+            "name": "name2",
+            "age": 12,
+            "signed": false
+        },
+        {
+            "id": 7,
+            "name": "name7",
+            "age": 17,
+            "signed": false
+        },
+        {
+            "id": 10,
+            "name": "name10",
+            "age": 20,
+            "signed": true
+        }
+    ]
+}</t>
+  </si>
+  <si>
+    <t>{JdbcDriverPerson {signed}}</t>
+  </si>
+  <si>
+    <t>good request, data retrieved
+name</t>
+  </si>
+  <si>
+    <t>good request, data retrieved
+name
+condition</t>
+  </si>
+  <si>
+    <t>iot-PostgreSQL-query-test-13</t>
+  </si>
+  <si>
+    <t>iot-PostgreSQL-query-test-14</t>
+  </si>
+  <si>
+    <t>{
+    "JdbcDriverPerson": [
+        {
+            "signed": true
+        },
+        {
+            "signed": false
+        },
+        {
+            "signed": true
+        },
+        {
+            "signed": true
+        },
+        {
+            "signed": true
+        },
+        {
+            "signed": true
+        },
+        {
+            "signed": false
+        },
+        {
+            "signed": true
+        },
+        {
+            "signed": true
+        },
+        {
+            "signed": true
+        }
+    ]
+}</t>
+  </si>
+  <si>
+    <t>good request, data retrieved
+name
+fields</t>
+  </si>
+  <si>
+    <t>good request, data retrieved
+name
+order</t>
+  </si>
+  <si>
+    <t>{JdbcDriverPerson(order:"id desc") {id name age signed}}</t>
+  </si>
+  <si>
+    <t>{
+    "JdbcDriverPerson": [
+        {
+            "id": 10,
+            "name": "name10",
+            "age": 20,
+            "signed": true
+        },
+        {
+            "id": 9,
+            "name": "name9",
+            "age": 19,
+            "signed": true
+        },
+        {
+            "id": 8,
+            "name": "name8",
+            "age": 18,
+            "signed": true
+        },
+        {
+            "id": 7,
+            "name": "name7",
+            "age": 17,
+            "signed": false
+        },
+        {
+            "id": 6,
+            "name": "name6",
+            "age": 16,
+            "signed": true
+        },
+        {
+            "id": 5,
+            "name": "name5",
+            "age": 15,
+            "signed": true
+        },
+        {
+            "id": 4,
+            "name": "name4",
+            "age": 14,
+            "signed": true
+        },
+        {
+            "id": 3,
+            "name": "name3",
+            "age": 13,
+            "signed": true
+        },
+        {
+            "id": 2,
+            "name": "name2",
+            "age": 12,
+            "signed": false
+        },
+        {
+            "id": 1,
+            "name": "name1",
+            "age": 11,
+            "signed": true
+        }
+    ]
+}</t>
+  </si>
+  <si>
+    <t>iot-PostgreSQL-query-test-15</t>
+  </si>
+  <si>
+    <t>good request, data retrieved
+name
+pageIndex
+pageSize</t>
   </si>
 </sst>
 </file>
@@ -8124,12 +10372,1298 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2BD0DC3-4B30-4245-BB10-C3788886B94F}">
+  <dimension ref="A1:J41"/>
+  <sheetViews>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="37.77734375" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.21875" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
+        <v>857</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11" t="s">
+        <v>858</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>860</v>
+      </c>
+      <c r="F2" s="11">
+        <v>200</v>
+      </c>
+      <c r="G2" s="11">
+        <v>100000</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>861</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
+        <v>884</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11" t="s">
+        <v>863</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>860</v>
+      </c>
+      <c r="F3" s="11">
+        <v>200</v>
+      </c>
+      <c r="G3" s="11">
+        <v>100000</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>864</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
+        <v>885</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>939</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11" t="s">
+        <v>865</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>860</v>
+      </c>
+      <c r="F4" s="11">
+        <v>200</v>
+      </c>
+      <c r="G4" s="11">
+        <v>101403</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>866</v>
+      </c>
+      <c r="I4" s="12"/>
+      <c r="J4" s="11"/>
+    </row>
+    <row r="5" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
+        <v>886</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>880</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11" t="s">
+        <v>867</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>860</v>
+      </c>
+      <c r="F5" s="11">
+        <v>200</v>
+      </c>
+      <c r="G5" s="11">
+        <v>101301</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="I5" s="12"/>
+      <c r="J5" s="11"/>
+    </row>
+    <row r="6" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
+        <v>887</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>881</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11" t="s">
+        <v>868</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>860</v>
+      </c>
+      <c r="F6" s="11">
+        <v>200</v>
+      </c>
+      <c r="G6" s="11">
+        <v>101301</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="I6" s="12"/>
+      <c r="J6" s="11"/>
+    </row>
+    <row r="7" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
+        <v>888</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>882</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11" t="s">
+        <v>869</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>860</v>
+      </c>
+      <c r="F7" s="11">
+        <v>200</v>
+      </c>
+      <c r="G7" s="11">
+        <v>101301</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="I7" s="12"/>
+      <c r="J7" s="11"/>
+    </row>
+    <row r="8" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>893</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>858</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>873</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>860</v>
+      </c>
+      <c r="F8" s="11">
+        <v>200</v>
+      </c>
+      <c r="G8" s="11">
+        <v>100000</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>871</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>894</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>863</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>874</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>860</v>
+      </c>
+      <c r="F9" s="11">
+        <v>200</v>
+      </c>
+      <c r="G9" s="11">
+        <v>100000</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>911</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
+        <v>895</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>940</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11" t="s">
+        <v>876</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>860</v>
+      </c>
+      <c r="F10" s="11">
+        <v>200</v>
+      </c>
+      <c r="G10" s="11">
+        <v>101303</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="I10" s="12"/>
+      <c r="J10" s="11"/>
+    </row>
+    <row r="11" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
+        <v>896</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11" t="s">
+        <v>877</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>860</v>
+      </c>
+      <c r="F11" s="11">
+        <v>200</v>
+      </c>
+      <c r="G11" s="11">
+        <v>101301</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="I11" s="12"/>
+      <c r="J11" s="11"/>
+    </row>
+    <row r="12" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
+        <v>897</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11" t="s">
+        <v>878</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>860</v>
+      </c>
+      <c r="F12" s="11">
+        <v>200</v>
+      </c>
+      <c r="G12" s="11">
+        <v>101301</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="I12" s="12"/>
+      <c r="J12" s="11"/>
+    </row>
+    <row r="13" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="11" t="s">
+        <v>892</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>883</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11" t="s">
+        <v>879</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>860</v>
+      </c>
+      <c r="F13" s="11">
+        <v>200</v>
+      </c>
+      <c r="G13" s="11">
+        <v>101301</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="I13" s="12"/>
+      <c r="J13" s="11"/>
+    </row>
+    <row r="14" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="11" t="s">
+        <v>898</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>941</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11" t="s">
+        <v>889</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>860</v>
+      </c>
+      <c r="F14" s="11">
+        <v>200</v>
+      </c>
+      <c r="G14" s="11">
+        <v>100000</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>871</v>
+      </c>
+      <c r="J14" s="11"/>
+    </row>
+    <row r="15" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="11" t="s">
+        <v>899</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>863</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>942</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>860</v>
+      </c>
+      <c r="F15" s="11">
+        <v>200</v>
+      </c>
+      <c r="G15" s="11">
+        <v>100000</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>912</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="11" t="s">
+        <v>900</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>863</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>943</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>860</v>
+      </c>
+      <c r="F16" s="11">
+        <v>200</v>
+      </c>
+      <c r="G16" s="11">
+        <v>100000</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>912</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="11" t="s">
+        <v>901</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>863</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>915</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>860</v>
+      </c>
+      <c r="F17" s="11">
+        <v>200</v>
+      </c>
+      <c r="G17" s="11">
+        <v>100000</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>912</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="11" t="s">
+        <v>902</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>863</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>917</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>860</v>
+      </c>
+      <c r="F18" s="11">
+        <v>200</v>
+      </c>
+      <c r="G18" s="11">
+        <v>100000</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>912</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="11" t="s">
+        <v>903</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>863</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>919</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>860</v>
+      </c>
+      <c r="F19" s="11">
+        <v>200</v>
+      </c>
+      <c r="G19" s="11">
+        <v>100000</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>912</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="11" t="s">
+        <v>904</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>863</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>921</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>860</v>
+      </c>
+      <c r="F20" s="11">
+        <v>200</v>
+      </c>
+      <c r="G20" s="11">
+        <v>100000</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>912</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="11" t="s">
+        <v>905</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>863</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>922</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>860</v>
+      </c>
+      <c r="F21" s="11">
+        <v>200</v>
+      </c>
+      <c r="G21" s="11">
+        <v>100000</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>912</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="11" t="s">
+        <v>906</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>863</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>924</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>860</v>
+      </c>
+      <c r="F22" s="11">
+        <v>200</v>
+      </c>
+      <c r="G22" s="11">
+        <v>100000</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I22" s="12" t="s">
+        <v>912</v>
+      </c>
+      <c r="J22" s="11" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="11" t="s">
+        <v>907</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>863</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>925</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>860</v>
+      </c>
+      <c r="F23" s="11">
+        <v>200</v>
+      </c>
+      <c r="G23" s="11">
+        <v>100000</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>912</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="11" t="s">
+        <v>908</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>929</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>927</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>860</v>
+      </c>
+      <c r="F24" s="11">
+        <v>200</v>
+      </c>
+      <c r="G24" s="11">
+        <v>100000</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I24" s="12" t="s">
+        <v>912</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="11" t="s">
+        <v>909</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>929</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>975</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>860</v>
+      </c>
+      <c r="F25" s="11">
+        <v>200</v>
+      </c>
+      <c r="G25" s="11">
+        <v>100000</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I25" s="12" t="s">
+        <v>912</v>
+      </c>
+      <c r="J25" s="11" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="11" t="s">
+        <v>910</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>929</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>976</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>860</v>
+      </c>
+      <c r="F26" s="11">
+        <v>200</v>
+      </c>
+      <c r="G26" s="11">
+        <v>100000</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I26" s="12" t="s">
+        <v>912</v>
+      </c>
+      <c r="J26" s="11" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="11" t="s">
+        <v>932</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>863</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>934</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>860</v>
+      </c>
+      <c r="F27" s="11">
+        <v>200</v>
+      </c>
+      <c r="G27" s="11">
+        <v>100000</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I27" s="12" t="s">
+        <v>933</v>
+      </c>
+      <c r="J27" s="11" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="11" t="s">
+        <v>961</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>863</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>936</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>860</v>
+      </c>
+      <c r="F28" s="11">
+        <v>200</v>
+      </c>
+      <c r="G28" s="11">
+        <v>100000</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I28" s="12" t="s">
+        <v>979</v>
+      </c>
+      <c r="J28" s="11" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="11" t="s">
+        <v>962</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>944</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>863</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>938</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>860</v>
+      </c>
+      <c r="F29" s="11">
+        <v>200</v>
+      </c>
+      <c r="G29" s="11">
+        <v>100000</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I29" s="12" t="s">
+        <v>933</v>
+      </c>
+      <c r="J29" s="11" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="11" t="s">
+        <v>963</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>863</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>945</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>860</v>
+      </c>
+      <c r="F30" s="11">
+        <v>200</v>
+      </c>
+      <c r="G30" s="11">
+        <v>100000</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I30" s="12" t="s">
+        <v>946</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="11" t="s">
+        <v>964</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>863</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>947</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>860</v>
+      </c>
+      <c r="F31" s="11">
+        <v>200</v>
+      </c>
+      <c r="G31" s="11">
+        <v>100000</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I31" s="12" t="s">
+        <v>946</v>
+      </c>
+      <c r="J31" s="11" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="11" t="s">
+        <v>965</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>863</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>948</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>860</v>
+      </c>
+      <c r="F32" s="11">
+        <v>200</v>
+      </c>
+      <c r="G32" s="11">
+        <v>100000</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I32" s="12" t="s">
+        <v>946</v>
+      </c>
+      <c r="J32" s="11" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="11" t="s">
+        <v>966</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>863</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>949</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>860</v>
+      </c>
+      <c r="F33" s="11">
+        <v>200</v>
+      </c>
+      <c r="G33" s="11">
+        <v>100000</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I33" s="12" t="s">
+        <v>946</v>
+      </c>
+      <c r="J33" s="11" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="11" t="s">
+        <v>967</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>863</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>950</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>860</v>
+      </c>
+      <c r="F34" s="11">
+        <v>200</v>
+      </c>
+      <c r="G34" s="11">
+        <v>100000</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I34" s="12" t="s">
+        <v>946</v>
+      </c>
+      <c r="J34" s="11" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="11" t="s">
+        <v>968</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>863</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>951</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>860</v>
+      </c>
+      <c r="F35" s="11">
+        <v>200</v>
+      </c>
+      <c r="G35" s="11">
+        <v>100000</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I35" s="12" t="s">
+        <v>946</v>
+      </c>
+      <c r="J35" s="11" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="11" t="s">
+        <v>969</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>863</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>952</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>860</v>
+      </c>
+      <c r="F36" s="11">
+        <v>200</v>
+      </c>
+      <c r="G36" s="11">
+        <v>100000</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I36" s="12" t="s">
+        <v>946</v>
+      </c>
+      <c r="J36" s="11" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="11" t="s">
+        <v>970</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>863</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>953</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>860</v>
+      </c>
+      <c r="F37" s="11">
+        <v>200</v>
+      </c>
+      <c r="G37" s="11">
+        <v>100000</v>
+      </c>
+      <c r="H37" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I37" s="12" t="s">
+        <v>946</v>
+      </c>
+      <c r="J37" s="11" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="11" t="s">
+        <v>971</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>863</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>954</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>860</v>
+      </c>
+      <c r="F38" s="11">
+        <v>200</v>
+      </c>
+      <c r="G38" s="11">
+        <v>100000</v>
+      </c>
+      <c r="H38" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I38" s="12" t="s">
+        <v>946</v>
+      </c>
+      <c r="J38" s="11" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="11" t="s">
+        <v>972</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>929</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>955</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>860</v>
+      </c>
+      <c r="F39" s="11">
+        <v>200</v>
+      </c>
+      <c r="G39" s="11">
+        <v>100000</v>
+      </c>
+      <c r="H39" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I39" s="12" t="s">
+        <v>946</v>
+      </c>
+      <c r="J39" s="11" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="11" t="s">
+        <v>973</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>929</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>977</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>860</v>
+      </c>
+      <c r="F40" s="11">
+        <v>200</v>
+      </c>
+      <c r="G40" s="11">
+        <v>100000</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I40" s="12" t="s">
+        <v>946</v>
+      </c>
+      <c r="J40" s="11" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="11" t="s">
+        <v>974</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>929</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>978</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>860</v>
+      </c>
+      <c r="F41" s="11">
+        <v>200</v>
+      </c>
+      <c r="G41" s="11">
+        <v>100000</v>
+      </c>
+      <c r="H41" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I41" s="12" t="s">
+        <v>946</v>
+      </c>
+      <c r="J41" s="11" t="s">
+        <v>960</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE22B0A1-EDF6-487D-8C5B-FE5F049504FE}">
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A22" sqref="A15:XFD22"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -8477,8 +12011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6DC2BAC-5C19-4CFF-8624-044FD1CB4C77}">
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
@@ -10050,1585 +13584,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{233D398F-A510-45E2-94C1-EA62EAF2A2C6}">
-  <dimension ref="A1:L43"/>
-  <sheetViews>
-    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="20.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="38.21875" style="9" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.44140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.21875" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14" style="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.88671875" style="9"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="H2" s="11">
-        <v>200</v>
-      </c>
-      <c r="I2" s="11">
-        <v>100000</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="12">
-        <v>0</v>
-      </c>
-      <c r="L2" s="13" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="H3" s="11">
-        <v>200</v>
-      </c>
-      <c r="I3" s="11">
-        <v>100000</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="12">
-        <v>0</v>
-      </c>
-      <c r="L3" s="13" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11">
-        <v>200</v>
-      </c>
-      <c r="I4" s="11">
-        <v>100000</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="11">
-        <v>1</v>
-      </c>
-      <c r="L4" s="11" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11">
-        <v>200</v>
-      </c>
-      <c r="I5" s="11">
-        <v>101301</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-    </row>
-    <row r="6" spans="1:12" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11">
-        <v>200</v>
-      </c>
-      <c r="I6" s="11">
-        <v>101301</v>
-      </c>
-      <c r="J6" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-    </row>
-    <row r="7" spans="1:12" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11">
-        <v>200</v>
-      </c>
-      <c r="I7" s="11">
-        <v>101301</v>
-      </c>
-      <c r="J7" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-    </row>
-    <row r="8" spans="1:12" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11">
-        <v>200</v>
-      </c>
-      <c r="I8" s="11">
-        <v>101301</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-    </row>
-    <row r="9" spans="1:12" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="H9" s="11">
-        <v>200</v>
-      </c>
-      <c r="I9" s="11">
-        <v>100000</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="K9" s="11">
-        <v>0</v>
-      </c>
-      <c r="L9" s="11" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="H10" s="11">
-        <v>200</v>
-      </c>
-      <c r="I10" s="11">
-        <v>100000</v>
-      </c>
-      <c r="J10" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="K10" s="11">
-        <v>0</v>
-      </c>
-      <c r="L10" s="11" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11">
-        <v>200</v>
-      </c>
-      <c r="I11" s="11">
-        <v>101303</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-    </row>
-    <row r="12" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11">
-        <v>200</v>
-      </c>
-      <c r="I12" s="11">
-        <v>101301</v>
-      </c>
-      <c r="J12" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-    </row>
-    <row r="13" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11">
-        <v>200</v>
-      </c>
-      <c r="I13" s="11">
-        <v>101301</v>
-      </c>
-      <c r="J13" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-    </row>
-    <row r="14" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11">
-        <v>200</v>
-      </c>
-      <c r="I14" s="11">
-        <v>101301</v>
-      </c>
-      <c r="J14" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-    </row>
-    <row r="15" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11">
-        <v>200</v>
-      </c>
-      <c r="I15" s="11">
-        <v>101301</v>
-      </c>
-      <c r="J15" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-    </row>
-    <row r="16" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11">
-        <v>200</v>
-      </c>
-      <c r="I16" s="11">
-        <v>100000</v>
-      </c>
-      <c r="J16" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="K16" s="11">
-        <v>0</v>
-      </c>
-      <c r="L16" s="11" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" s="10" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="H17" s="11">
-        <v>200</v>
-      </c>
-      <c r="I17" s="11">
-        <v>100000</v>
-      </c>
-      <c r="J17" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="K17" s="11">
-        <v>0</v>
-      </c>
-      <c r="L17" s="11" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="H18" s="11">
-        <v>200</v>
-      </c>
-      <c r="I18" s="11">
-        <v>100000</v>
-      </c>
-      <c r="J18" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="K18" s="11">
-        <v>0</v>
-      </c>
-      <c r="L18" s="11" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="H19" s="11">
-        <v>200</v>
-      </c>
-      <c r="I19" s="11">
-        <v>100000</v>
-      </c>
-      <c r="J19" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="K19" s="11">
-        <v>0</v>
-      </c>
-      <c r="L19" s="11" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="H20" s="11">
-        <v>200</v>
-      </c>
-      <c r="I20" s="11">
-        <v>100000</v>
-      </c>
-      <c r="J20" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="K20" s="11">
-        <v>0</v>
-      </c>
-      <c r="L20" s="11" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="H21" s="11">
-        <v>200</v>
-      </c>
-      <c r="I21" s="11">
-        <v>100000</v>
-      </c>
-      <c r="J21" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="K21" s="11">
-        <v>0</v>
-      </c>
-      <c r="L21" s="11" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="H22" s="11">
-        <v>200</v>
-      </c>
-      <c r="I22" s="11">
-        <v>100000</v>
-      </c>
-      <c r="J22" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="K22" s="11">
-        <v>0</v>
-      </c>
-      <c r="L22" s="11" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="H23" s="11">
-        <v>200</v>
-      </c>
-      <c r="I23" s="11">
-        <v>100000</v>
-      </c>
-      <c r="J23" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="K23" s="11">
-        <v>0</v>
-      </c>
-      <c r="L23" s="11" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="H24" s="11">
-        <v>200</v>
-      </c>
-      <c r="I24" s="11">
-        <v>100000</v>
-      </c>
-      <c r="J24" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="K24" s="11">
-        <v>0</v>
-      </c>
-      <c r="L24" s="11" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="F25" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="H25" s="11">
-        <v>200</v>
-      </c>
-      <c r="I25" s="11">
-        <v>100000</v>
-      </c>
-      <c r="J25" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="K25" s="11">
-        <v>0</v>
-      </c>
-      <c r="L25" s="11" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="G26" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="H26" s="11">
-        <v>200</v>
-      </c>
-      <c r="I26" s="11">
-        <v>100000</v>
-      </c>
-      <c r="J26" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="K26" s="11">
-        <v>0</v>
-      </c>
-      <c r="L26" s="11" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="G27" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="H27" s="11">
-        <v>200</v>
-      </c>
-      <c r="I27" s="11">
-        <v>100000</v>
-      </c>
-      <c r="J27" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="K27" s="11">
-        <v>0</v>
-      </c>
-      <c r="L27" s="11" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="G28" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="H28" s="11">
-        <v>200</v>
-      </c>
-      <c r="I28" s="11">
-        <v>100000</v>
-      </c>
-      <c r="J28" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="K28" s="11">
-        <v>0</v>
-      </c>
-      <c r="L28" s="11" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="F29" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="G29" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="H29" s="11">
-        <v>200</v>
-      </c>
-      <c r="I29" s="11">
-        <v>100000</v>
-      </c>
-      <c r="J29" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="K29" s="11">
-        <v>0</v>
-      </c>
-      <c r="L29" s="11" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="G30" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="H30" s="11">
-        <v>200</v>
-      </c>
-      <c r="I30" s="11">
-        <v>100000</v>
-      </c>
-      <c r="J30" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="K30" s="11">
-        <v>0</v>
-      </c>
-      <c r="L30" s="11" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="F31" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="G31" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="H31" s="11">
-        <v>200</v>
-      </c>
-      <c r="I31" s="11">
-        <v>100000</v>
-      </c>
-      <c r="J31" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="K31" s="11">
-        <v>0</v>
-      </c>
-      <c r="L31" s="11" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" s="10" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="G32" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="H32" s="11">
-        <v>200</v>
-      </c>
-      <c r="I32" s="11">
-        <v>100000</v>
-      </c>
-      <c r="J32" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="K32" s="11">
-        <v>0</v>
-      </c>
-      <c r="L32" s="11" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" s="10" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="F33" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="G33" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="H33" s="11">
-        <v>200</v>
-      </c>
-      <c r="I33" s="11">
-        <v>100000</v>
-      </c>
-      <c r="J33" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="K33" s="11">
-        <v>0</v>
-      </c>
-      <c r="L33" s="11" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" s="10" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="F34" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="G34" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="H34" s="11">
-        <v>200</v>
-      </c>
-      <c r="I34" s="11">
-        <v>100000</v>
-      </c>
-      <c r="J34" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="K34" s="11">
-        <v>0</v>
-      </c>
-      <c r="L34" s="11" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" s="10" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="F35" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="G35" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="H35" s="11">
-        <v>200</v>
-      </c>
-      <c r="I35" s="11">
-        <v>100000</v>
-      </c>
-      <c r="J35" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="K35" s="11">
-        <v>0</v>
-      </c>
-      <c r="L35" s="11" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" s="10" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="F36" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="G36" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="H36" s="11">
-        <v>200</v>
-      </c>
-      <c r="I36" s="11">
-        <v>100000</v>
-      </c>
-      <c r="J36" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="K36" s="11">
-        <v>0</v>
-      </c>
-      <c r="L36" s="11" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" s="10" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="E37" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="F37" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="G37" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="H37" s="11">
-        <v>200</v>
-      </c>
-      <c r="I37" s="11">
-        <v>100000</v>
-      </c>
-      <c r="J37" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="K37" s="11">
-        <v>0</v>
-      </c>
-      <c r="L37" s="11" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" s="10" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="B38" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="E38" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="F38" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="G38" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="H38" s="11">
-        <v>200</v>
-      </c>
-      <c r="I38" s="11">
-        <v>100000</v>
-      </c>
-      <c r="J38" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="K38" s="11">
-        <v>0</v>
-      </c>
-      <c r="L38" s="11" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" s="10" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="B39" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="E39" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="F39" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="G39" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="H39" s="11">
-        <v>200</v>
-      </c>
-      <c r="I39" s="11">
-        <v>100000</v>
-      </c>
-      <c r="J39" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="K39" s="11">
-        <v>0</v>
-      </c>
-      <c r="L39" s="11" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" s="10" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="E40" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="F40" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="G40" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="H40" s="11">
-        <v>200</v>
-      </c>
-      <c r="I40" s="11">
-        <v>100000</v>
-      </c>
-      <c r="J40" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="K40" s="11">
-        <v>0</v>
-      </c>
-      <c r="L40" s="11" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" s="10" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="B41" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="D41" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="E41" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="F41" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="G41" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="H41" s="11">
-        <v>200</v>
-      </c>
-      <c r="I41" s="11">
-        <v>100000</v>
-      </c>
-      <c r="J41" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="K41" s="11">
-        <v>0</v>
-      </c>
-      <c r="L41" s="11" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" s="10" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="B42" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="E42" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="F42" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="G42" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="H42" s="11">
-        <v>200</v>
-      </c>
-      <c r="I42" s="11">
-        <v>100000</v>
-      </c>
-      <c r="J42" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="K42" s="11">
-        <v>0</v>
-      </c>
-      <c r="L42" s="11" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" s="10" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="B43" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="D43" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="E43" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="F43" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11">
-        <v>200</v>
-      </c>
-      <c r="I43" s="11">
-        <v>100000</v>
-      </c>
-      <c r="J43" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="K43" s="11">
-        <v>0</v>
-      </c>
-      <c r="L43" s="11" t="s">
-        <v>102</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9F6F477-271A-41FE-A290-09DC67B3D45A}">
   <dimension ref="A1:P9"/>
   <sheetViews>
@@ -12050,7 +14005,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AE618FA-BAFF-4947-8A48-6BBC9A48AE70}">
   <dimension ref="A1:S13"/>
   <sheetViews>
@@ -12713,12 +14668,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAD7C303-AF77-4B95-95EB-BAA32E85C8DA}">
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="38.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -13304,12 +15259,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FD7D6DE-617D-4A49-9D87-297640E0E1DC}">
   <dimension ref="A1:H141"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -16967,4 +18922,1998 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{233D398F-A510-45E2-94C1-EA62EAF2A2C6}">
+  <dimension ref="A1:L43"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="38.21875" style="9" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.21875" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="H2" s="11">
+        <v>200</v>
+      </c>
+      <c r="I2" s="11">
+        <v>100000</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="12">
+        <v>0</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="H3" s="11">
+        <v>200</v>
+      </c>
+      <c r="I3" s="11">
+        <v>100000</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="12">
+        <v>0</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11">
+        <v>200</v>
+      </c>
+      <c r="I4" s="11">
+        <v>100000</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="11">
+        <v>1</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>880</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11">
+        <v>200</v>
+      </c>
+      <c r="I5" s="11">
+        <v>101301</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+    </row>
+    <row r="6" spans="1:12" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>890</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11">
+        <v>200</v>
+      </c>
+      <c r="I6" s="11">
+        <v>101301</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+    </row>
+    <row r="7" spans="1:12" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>891</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11">
+        <v>200</v>
+      </c>
+      <c r="I7" s="11">
+        <v>101301</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+    </row>
+    <row r="8" spans="1:12" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>881</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11">
+        <v>200</v>
+      </c>
+      <c r="I8" s="11">
+        <v>101301</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+    </row>
+    <row r="9" spans="1:12" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="H9" s="11">
+        <v>200</v>
+      </c>
+      <c r="I9" s="11">
+        <v>100000</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" s="11">
+        <v>0</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="H10" s="11">
+        <v>200</v>
+      </c>
+      <c r="I10" s="11">
+        <v>100000</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K10" s="11">
+        <v>0</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11">
+        <v>200</v>
+      </c>
+      <c r="I11" s="11">
+        <v>101303</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+    </row>
+    <row r="12" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11">
+        <v>200</v>
+      </c>
+      <c r="I12" s="11">
+        <v>101301</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+    </row>
+    <row r="13" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11">
+        <v>200</v>
+      </c>
+      <c r="I13" s="11">
+        <v>101301</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+    </row>
+    <row r="14" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11">
+        <v>200</v>
+      </c>
+      <c r="I14" s="11">
+        <v>101301</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+    </row>
+    <row r="15" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11">
+        <v>200</v>
+      </c>
+      <c r="I15" s="11">
+        <v>101301</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+    </row>
+    <row r="16" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11">
+        <v>200</v>
+      </c>
+      <c r="I16" s="11">
+        <v>100000</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K16" s="11">
+        <v>0</v>
+      </c>
+      <c r="L16" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" s="10" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="H17" s="11">
+        <v>200</v>
+      </c>
+      <c r="I17" s="11">
+        <v>100000</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K17" s="11">
+        <v>0</v>
+      </c>
+      <c r="L17" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="H18" s="11">
+        <v>200</v>
+      </c>
+      <c r="I18" s="11">
+        <v>100000</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K18" s="11">
+        <v>0</v>
+      </c>
+      <c r="L18" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="H19" s="11">
+        <v>200</v>
+      </c>
+      <c r="I19" s="11">
+        <v>100000</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K19" s="11">
+        <v>0</v>
+      </c>
+      <c r="L19" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="H20" s="11">
+        <v>200</v>
+      </c>
+      <c r="I20" s="11">
+        <v>100000</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K20" s="11">
+        <v>0</v>
+      </c>
+      <c r="L20" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="H21" s="11">
+        <v>200</v>
+      </c>
+      <c r="I21" s="11">
+        <v>100000</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K21" s="11">
+        <v>0</v>
+      </c>
+      <c r="L21" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="H22" s="11">
+        <v>200</v>
+      </c>
+      <c r="I22" s="11">
+        <v>100000</v>
+      </c>
+      <c r="J22" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K22" s="11">
+        <v>0</v>
+      </c>
+      <c r="L22" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="H23" s="11">
+        <v>200</v>
+      </c>
+      <c r="I23" s="11">
+        <v>100000</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K23" s="11">
+        <v>0</v>
+      </c>
+      <c r="L23" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="H24" s="11">
+        <v>200</v>
+      </c>
+      <c r="I24" s="11">
+        <v>100000</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K24" s="11">
+        <v>0</v>
+      </c>
+      <c r="L24" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="H25" s="11">
+        <v>200</v>
+      </c>
+      <c r="I25" s="11">
+        <v>100000</v>
+      </c>
+      <c r="J25" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K25" s="11">
+        <v>0</v>
+      </c>
+      <c r="L25" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="H26" s="11">
+        <v>200</v>
+      </c>
+      <c r="I26" s="11">
+        <v>100000</v>
+      </c>
+      <c r="J26" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K26" s="11">
+        <v>0</v>
+      </c>
+      <c r="L26" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="H27" s="11">
+        <v>200</v>
+      </c>
+      <c r="I27" s="11">
+        <v>100000</v>
+      </c>
+      <c r="J27" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K27" s="11">
+        <v>0</v>
+      </c>
+      <c r="L27" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="H28" s="11">
+        <v>200</v>
+      </c>
+      <c r="I28" s="11">
+        <v>100000</v>
+      </c>
+      <c r="J28" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K28" s="11">
+        <v>0</v>
+      </c>
+      <c r="L28" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="H29" s="11">
+        <v>200</v>
+      </c>
+      <c r="I29" s="11">
+        <v>100000</v>
+      </c>
+      <c r="J29" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K29" s="11">
+        <v>0</v>
+      </c>
+      <c r="L29" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="H30" s="11">
+        <v>200</v>
+      </c>
+      <c r="I30" s="11">
+        <v>100000</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K30" s="11">
+        <v>0</v>
+      </c>
+      <c r="L30" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="H31" s="11">
+        <v>200</v>
+      </c>
+      <c r="I31" s="11">
+        <v>100000</v>
+      </c>
+      <c r="J31" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K31" s="11">
+        <v>0</v>
+      </c>
+      <c r="L31" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" s="10" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="H32" s="11">
+        <v>200</v>
+      </c>
+      <c r="I32" s="11">
+        <v>100000</v>
+      </c>
+      <c r="J32" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K32" s="11">
+        <v>0</v>
+      </c>
+      <c r="L32" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" s="10" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="H33" s="11">
+        <v>200</v>
+      </c>
+      <c r="I33" s="11">
+        <v>100000</v>
+      </c>
+      <c r="J33" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K33" s="11">
+        <v>0</v>
+      </c>
+      <c r="L33" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" s="10" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="H34" s="11">
+        <v>200</v>
+      </c>
+      <c r="I34" s="11">
+        <v>100000</v>
+      </c>
+      <c r="J34" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K34" s="11">
+        <v>0</v>
+      </c>
+      <c r="L34" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" s="10" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="H35" s="11">
+        <v>200</v>
+      </c>
+      <c r="I35" s="11">
+        <v>100000</v>
+      </c>
+      <c r="J35" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K35" s="11">
+        <v>0</v>
+      </c>
+      <c r="L35" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" s="10" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="H36" s="11">
+        <v>200</v>
+      </c>
+      <c r="I36" s="11">
+        <v>100000</v>
+      </c>
+      <c r="J36" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K36" s="11">
+        <v>0</v>
+      </c>
+      <c r="L36" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" s="10" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G37" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="H37" s="11">
+        <v>200</v>
+      </c>
+      <c r="I37" s="11">
+        <v>100000</v>
+      </c>
+      <c r="J37" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K37" s="11">
+        <v>0</v>
+      </c>
+      <c r="L37" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" s="10" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G38" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="H38" s="11">
+        <v>200</v>
+      </c>
+      <c r="I38" s="11">
+        <v>100000</v>
+      </c>
+      <c r="J38" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K38" s="11">
+        <v>0</v>
+      </c>
+      <c r="L38" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" s="10" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="H39" s="11">
+        <v>200</v>
+      </c>
+      <c r="I39" s="11">
+        <v>100000</v>
+      </c>
+      <c r="J39" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K39" s="11">
+        <v>0</v>
+      </c>
+      <c r="L39" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" s="10" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="H40" s="11">
+        <v>200</v>
+      </c>
+      <c r="I40" s="11">
+        <v>100000</v>
+      </c>
+      <c r="J40" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K40" s="11">
+        <v>0</v>
+      </c>
+      <c r="L40" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" s="10" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G41" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="H41" s="11">
+        <v>200</v>
+      </c>
+      <c r="I41" s="11">
+        <v>100000</v>
+      </c>
+      <c r="J41" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K41" s="11">
+        <v>0</v>
+      </c>
+      <c r="L41" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" s="10" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G42" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="H42" s="11">
+        <v>200</v>
+      </c>
+      <c r="I42" s="11">
+        <v>100000</v>
+      </c>
+      <c r="J42" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K42" s="11">
+        <v>0</v>
+      </c>
+      <c r="L42" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" s="10" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11">
+        <v>200</v>
+      </c>
+      <c r="I43" s="11">
+        <v>100000</v>
+      </c>
+      <c r="J43" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K43" s="11">
+        <v>0</v>
+      </c>
+      <c r="L43" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5311681-F97A-4ABD-B425-9D76F638D5E4}">
+  <dimension ref="A1:I16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="53.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="9" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.21875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>981</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>994</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>993</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>860</v>
+      </c>
+      <c r="F2" s="7">
+        <v>200</v>
+      </c>
+      <c r="G2" s="7">
+        <v>100000</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>982</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7" t="s">
+        <v>995</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7">
+        <v>200</v>
+      </c>
+      <c r="G3" s="7">
+        <v>100000</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>983</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7" t="s">
+        <v>998</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7">
+        <v>200</v>
+      </c>
+      <c r="G4" s="7">
+        <v>100000</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>984</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7" t="s">
+        <v>1000</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7">
+        <v>200</v>
+      </c>
+      <c r="G5" s="7">
+        <v>100000</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>985</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7">
+        <v>200</v>
+      </c>
+      <c r="G6" s="7">
+        <v>100000</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>986</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7" t="s">
+        <v>1003</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7">
+        <v>200</v>
+      </c>
+      <c r="G7" s="7">
+        <v>100000</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>987</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7">
+        <v>200</v>
+      </c>
+      <c r="G8" s="7">
+        <v>100000</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>988</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7">
+        <v>200</v>
+      </c>
+      <c r="G9" s="7">
+        <v>100000</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>989</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7">
+        <v>200</v>
+      </c>
+      <c r="G10" s="7">
+        <v>100000</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>990</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7">
+        <v>200</v>
+      </c>
+      <c r="G11" s="7">
+        <v>100000</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>991</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7">
+        <v>200</v>
+      </c>
+      <c r="G12" s="7">
+        <v>100000</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>992</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7">
+        <v>200</v>
+      </c>
+      <c r="G13" s="7">
+        <v>100000</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7" t="s">
+        <v>1024</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/main/resources/test-data-xls/iot-api-engine-test-data.xlsx
+++ b/src/main/resources/test-data-xls/iot-api-engine-test-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\data-layer-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A47070A-94CE-4C39-92B7-158512631C3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BF29245-1DBE-4844-8AF0-05994FA9A62C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2418" uniqueCount="1028">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2423" uniqueCount="1030">
   <si>
     <t>description</t>
   </si>
@@ -9705,6 +9705,55 @@
 name
 pageIndex
 pageSize</t>
+  </si>
+  <si>
+    <t>{
+  JdbcDriverPersonConnection(cond:"", authInfo:"", order:"", after:"1", first:2)
+  {
+    totalElements
+    totalPages
+    pageSize
+    page
+    numberOfElements
+    edges {
+      node {
+        name
+        age
+        signed
+        id
+      }
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "JdbcDriverPersonConnection": {
+        "totalElements": 10,
+        "totalPages": 5,
+        "pageSize": 2,
+        "page": 1,
+        "numberOfElements": 2,
+        "edges": [
+            {
+                "node": {
+                    "name": "name1",
+                    "age": 11,
+                    "signed": true,
+                    "id": 1
+                }
+            },
+            {
+                "node": {
+                    "name": "name2",
+                    "age": 12,
+                    "signed": false,
+                    "id": 2
+                }
+            }
+        ]
+    }
+}</t>
   </si>
 </sst>
 </file>
@@ -20507,8 +20556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5311681-F97A-4ABD-B425-9D76F638D5E4}">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -20521,7 +20570,7 @@
     <col min="6" max="6" width="8.33203125" style="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.33203125" style="9" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.21875" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.44140625" style="9" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
@@ -20870,9 +20919,15 @@
         <v>1016</v>
       </c>
       <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
+      <c r="F14" s="7">
+        <v>200</v>
+      </c>
+      <c r="G14" s="7">
+        <v>100000</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="I14" s="7" t="s">
         <v>1021</v>
       </c>
@@ -20889,9 +20944,15 @@
         <v>1024</v>
       </c>
       <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
+      <c r="F15" s="7">
+        <v>200</v>
+      </c>
+      <c r="G15" s="7">
+        <v>100000</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="I15" s="7" t="s">
         <v>1025</v>
       </c>
@@ -20904,12 +20965,22 @@
         <v>1027</v>
       </c>
       <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
+      <c r="D16" s="7" t="s">
+        <v>1028</v>
+      </c>
       <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
+      <c r="F16" s="7">
+        <v>200</v>
+      </c>
+      <c r="G16" s="7">
+        <v>100000</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>1029</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/src/main/resources/test-data-xls/iot-api-engine-test-data.xlsx
+++ b/src/main/resources/test-data-xls/iot-api-engine-test-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\data-layer-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BF29245-1DBE-4844-8AF0-05994FA9A62C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BE68095-8EC8-4CFD-95BC-2DC040CD97C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10425,8 +10425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2BD0DC3-4B30-4245-BB10-C3788886B94F}">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -20556,8 +20556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5311681-F97A-4ABD-B425-9D76F638D5E4}">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13:H16"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>

--- a/src/main/resources/test-data-xls/iot-api-engine-test-data.xlsx
+++ b/src/main/resources/test-data-xls/iot-api-engine-test-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\data-layer-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BE68095-8EC8-4CFD-95BC-2DC040CD97C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ADFCDE4-0721-45DE-B998-5C8A057640A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="getDataEntities" sheetId="2" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2423" uniqueCount="1030">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2424" uniqueCount="1030">
   <si>
     <t>description</t>
   </si>
@@ -3686,9 +3686,6 @@
   </si>
   <si>
     <t>Column 'not_exist' not found in any table</t>
-  </si>
-  <si>
-    <t>field convert error</t>
   </si>
   <si>
     <t>{Plant {address id latitude longitude name plant_owner}}</t>
@@ -9752,6 +9749,27 @@
                 }
             }
         ]
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   Mysql_Test_Insert(input:
+	[
+         {
+          score: "100",
+          login_time: "2021-01-01T00:00:00",
+          supplier: "DELL",
+          ID: 4,
+          deviceName: "laptap",
+          operator: "Victor"
+        }
+    ]
+    )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
     }
 }</t>
   </si>
@@ -10425,8 +10443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2BD0DC3-4B30-4245-BB10-C3788886B94F}">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -10470,85 +10488,85 @@
         <v>4</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>110</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="E2" s="11" t="s">
+        <v>859</v>
+      </c>
+      <c r="F2" s="11">
+        <v>200</v>
+      </c>
+      <c r="G2" s="11">
+        <v>100000</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="12" t="s">
         <v>860</v>
       </c>
-      <c r="F2" s="11">
-        <v>200</v>
-      </c>
-      <c r="G2" s="11">
-        <v>100000</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="12" t="s">
+      <c r="J2" s="11" t="s">
         <v>861</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>862</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>131</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11" t="s">
+        <v>862</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>859</v>
+      </c>
+      <c r="F3" s="11">
+        <v>200</v>
+      </c>
+      <c r="G3" s="11">
+        <v>100000</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="12" t="s">
         <v>863</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>860</v>
-      </c>
-      <c r="F3" s="11">
-        <v>200</v>
-      </c>
-      <c r="G3" s="11">
-        <v>100000</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>864</v>
-      </c>
       <c r="J3" s="11" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="F4" s="11">
         <v>200</v>
@@ -10557,24 +10575,24 @@
         <v>101403</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="I4" s="12"/>
       <c r="J4" s="11"/>
     </row>
     <row r="5" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="F5" s="11">
         <v>200</v>
@@ -10590,17 +10608,17 @@
     </row>
     <row r="6" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="11" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="F6" s="11">
         <v>200</v>
@@ -10616,17 +10634,17 @@
     </row>
     <row r="7" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="11" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="F7" s="11">
         <v>200</v>
@@ -10642,19 +10660,19 @@
     </row>
     <row r="8" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>111</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="F8" s="11">
         <v>200</v>
@@ -10666,57 +10684,57 @@
         <v>10</v>
       </c>
       <c r="I8" s="12" t="s">
+        <v>870</v>
+      </c>
+      <c r="J8" s="11" t="s">
         <v>871</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>872</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>132</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="D9" s="11" t="s">
+        <v>873</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>859</v>
+      </c>
+      <c r="F9" s="11">
+        <v>200</v>
+      </c>
+      <c r="G9" s="11">
+        <v>100000</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>910</v>
+      </c>
+      <c r="J9" s="11" t="s">
         <v>874</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>860</v>
-      </c>
-      <c r="F9" s="11">
-        <v>200</v>
-      </c>
-      <c r="G9" s="11">
-        <v>100000</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>911</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>875</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="11" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="F10" s="11">
         <v>200</v>
@@ -10732,17 +10750,17 @@
     </row>
     <row r="11" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>92</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="F11" s="11">
         <v>200</v>
@@ -10758,17 +10776,17 @@
     </row>
     <row r="12" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>95</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="F12" s="11">
         <v>200</v>
@@ -10784,17 +10802,17 @@
     </row>
     <row r="13" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="F13" s="11">
         <v>200</v>
@@ -10810,17 +10828,17 @@
     </row>
     <row r="14" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="F14" s="11">
         <v>200</v>
@@ -10832,25 +10850,25 @@
         <v>10</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="J14" s="11"/>
     </row>
     <row r="15" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>117</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="F15" s="11">
         <v>200</v>
@@ -10862,27 +10880,27 @@
         <v>10</v>
       </c>
       <c r="I15" s="12" t="s">
+        <v>911</v>
+      </c>
+      <c r="J15" s="11" t="s">
         <v>912</v>
-      </c>
-      <c r="J15" s="11" t="s">
-        <v>913</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>151</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="F16" s="11">
         <v>200</v>
@@ -10894,27 +10912,27 @@
         <v>10</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>160</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="F17" s="11">
         <v>200</v>
@@ -10926,27 +10944,27 @@
         <v>10</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>170</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="F18" s="11">
         <v>200</v>
@@ -10958,27 +10976,27 @@
         <v>10</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>172</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="F19" s="11">
         <v>200</v>
@@ -10990,27 +11008,27 @@
         <v>10</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>179</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="F20" s="11">
         <v>200</v>
@@ -11022,59 +11040,59 @@
         <v>10</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>184</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="D21" s="11" t="s">
+        <v>921</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>859</v>
+      </c>
+      <c r="F21" s="11">
+        <v>200</v>
+      </c>
+      <c r="G21" s="11">
+        <v>100000</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>911</v>
+      </c>
+      <c r="J21" s="11" t="s">
         <v>922</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>860</v>
-      </c>
-      <c r="F21" s="11">
-        <v>200</v>
-      </c>
-      <c r="G21" s="11">
-        <v>100000</v>
-      </c>
-      <c r="H21" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I21" s="12" t="s">
-        <v>912</v>
-      </c>
-      <c r="J21" s="11" t="s">
-        <v>923</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B22" s="11" t="s">
         <v>191</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="F22" s="11">
         <v>200</v>
@@ -11086,123 +11104,123 @@
         <v>10</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>231</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="D23" s="11" t="s">
+        <v>924</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>859</v>
+      </c>
+      <c r="F23" s="11">
+        <v>200</v>
+      </c>
+      <c r="G23" s="11">
+        <v>100000</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>911</v>
+      </c>
+      <c r="J23" s="11" t="s">
         <v>925</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>860</v>
-      </c>
-      <c r="F23" s="11">
-        <v>200</v>
-      </c>
-      <c r="G23" s="11">
-        <v>100000</v>
-      </c>
-      <c r="H23" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I23" s="12" t="s">
-        <v>912</v>
-      </c>
-      <c r="J23" s="11" t="s">
-        <v>926</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B24" s="11" t="s">
         <v>203</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="D24" s="11" t="s">
+        <v>926</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>859</v>
+      </c>
+      <c r="F24" s="11">
+        <v>200</v>
+      </c>
+      <c r="G24" s="11">
+        <v>100000</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I24" s="12" t="s">
+        <v>911</v>
+      </c>
+      <c r="J24" s="11" t="s">
         <v>927</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>860</v>
-      </c>
-      <c r="F24" s="11">
-        <v>200</v>
-      </c>
-      <c r="G24" s="11">
-        <v>100000</v>
-      </c>
-      <c r="H24" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I24" s="12" t="s">
-        <v>912</v>
-      </c>
-      <c r="J24" s="11" t="s">
-        <v>928</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B25" s="11" t="s">
         <v>212</v>
       </c>
       <c r="C25" s="11" t="s">
+        <v>928</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>974</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>859</v>
+      </c>
+      <c r="F25" s="11">
+        <v>200</v>
+      </c>
+      <c r="G25" s="11">
+        <v>100000</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I25" s="12" t="s">
+        <v>911</v>
+      </c>
+      <c r="J25" s="11" t="s">
         <v>929</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>975</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>860</v>
-      </c>
-      <c r="F25" s="11">
-        <v>200</v>
-      </c>
-      <c r="G25" s="11">
-        <v>100000</v>
-      </c>
-      <c r="H25" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I25" s="12" t="s">
-        <v>912</v>
-      </c>
-      <c r="J25" s="11" t="s">
-        <v>930</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>219</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="F26" s="11">
         <v>200</v>
@@ -11214,91 +11232,91 @@
         <v>10</v>
       </c>
       <c r="I26" s="12" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="J26" s="11" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B27" s="11" t="s">
         <v>112</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="D27" s="11" t="s">
+        <v>933</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>859</v>
+      </c>
+      <c r="F27" s="11">
+        <v>200</v>
+      </c>
+      <c r="G27" s="11">
+        <v>100000</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I27" s="12" t="s">
+        <v>932</v>
+      </c>
+      <c r="J27" s="11" t="s">
         <v>934</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>860</v>
-      </c>
-      <c r="F27" s="11">
-        <v>200</v>
-      </c>
-      <c r="G27" s="11">
-        <v>100000</v>
-      </c>
-      <c r="H27" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I27" s="12" t="s">
-        <v>933</v>
-      </c>
-      <c r="J27" s="11" t="s">
-        <v>935</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B28" s="11" t="s">
         <v>143</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="D28" s="11" t="s">
+        <v>935</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>859</v>
+      </c>
+      <c r="F28" s="11">
+        <v>200</v>
+      </c>
+      <c r="G28" s="11">
+        <v>100000</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I28" s="12" t="s">
+        <v>978</v>
+      </c>
+      <c r="J28" s="11" t="s">
         <v>936</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>860</v>
-      </c>
-      <c r="F28" s="11">
-        <v>200</v>
-      </c>
-      <c r="G28" s="11">
-        <v>100000</v>
-      </c>
-      <c r="H28" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I28" s="12" t="s">
-        <v>979</v>
-      </c>
-      <c r="J28" s="11" t="s">
-        <v>937</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="F29" s="11">
         <v>200</v>
@@ -11310,59 +11328,59 @@
         <v>10</v>
       </c>
       <c r="I29" s="12" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="J29" s="11" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B30" s="11" t="s">
         <v>149</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="D30" s="11" t="s">
+        <v>944</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>859</v>
+      </c>
+      <c r="F30" s="11">
+        <v>200</v>
+      </c>
+      <c r="G30" s="11">
+        <v>100000</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I30" s="12" t="s">
         <v>945</v>
       </c>
-      <c r="E30" s="11" t="s">
-        <v>860</v>
-      </c>
-      <c r="F30" s="11">
-        <v>200</v>
-      </c>
-      <c r="G30" s="11">
-        <v>100000</v>
-      </c>
-      <c r="H30" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I30" s="12" t="s">
-        <v>946</v>
-      </c>
       <c r="J30" s="11" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B31" s="11" t="s">
         <v>154</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="F31" s="11">
         <v>200</v>
@@ -11374,27 +11392,27 @@
         <v>10</v>
       </c>
       <c r="I31" s="12" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="J31" s="11" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B32" s="11" t="s">
         <v>161</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="F32" s="11">
         <v>200</v>
@@ -11406,27 +11424,27 @@
         <v>10</v>
       </c>
       <c r="I32" s="12" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="J32" s="11" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="B33" s="11" t="s">
         <v>167</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="F33" s="11">
         <v>200</v>
@@ -11438,27 +11456,27 @@
         <v>10</v>
       </c>
       <c r="I33" s="12" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="J33" s="11" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B34" s="11" t="s">
         <v>175</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="F34" s="11">
         <v>200</v>
@@ -11470,27 +11488,27 @@
         <v>10</v>
       </c>
       <c r="I34" s="12" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="J34" s="11" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="11" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B35" s="11" t="s">
         <v>181</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="F35" s="11">
         <v>200</v>
@@ -11502,27 +11520,27 @@
         <v>10</v>
       </c>
       <c r="I35" s="12" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="J35" s="11" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B36" s="11" t="s">
         <v>186</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="F36" s="11">
         <v>200</v>
@@ -11534,27 +11552,27 @@
         <v>10</v>
       </c>
       <c r="I36" s="12" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="J36" s="11" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="11" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B37" s="11" t="s">
         <v>193</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="F37" s="11">
         <v>200</v>
@@ -11566,27 +11584,27 @@
         <v>10</v>
       </c>
       <c r="I37" s="12" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="J37" s="11" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="11" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B38" s="11" t="s">
         <v>199</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="F38" s="11">
         <v>200</v>
@@ -11598,27 +11616,27 @@
         <v>10</v>
       </c>
       <c r="I38" s="12" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="J38" s="11" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="11" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B39" s="11" t="s">
         <v>207</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="F39" s="11">
         <v>200</v>
@@ -11630,27 +11648,27 @@
         <v>10</v>
       </c>
       <c r="I39" s="12" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="J39" s="11" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="11" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B40" s="11" t="s">
         <v>217</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="F40" s="11">
         <v>200</v>
@@ -11662,27 +11680,27 @@
         <v>10</v>
       </c>
       <c r="I40" s="12" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="J40" s="11" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="11" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B41" s="11" t="s">
         <v>232</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="F41" s="11">
         <v>200</v>
@@ -11694,10 +11712,10 @@
         <v>10</v>
       </c>
       <c r="I41" s="12" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="J41" s="11" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
   </sheetData>
@@ -11758,7 +11776,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D2" s="6">
         <v>200</v>
@@ -12061,8 +12079,8 @@
   <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -12307,7 +12325,7 @@
         <v>101403</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>399</v>
+        <v>865</v>
       </c>
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
@@ -12515,7 +12533,9 @@
       <c r="B14" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="C14" s="11"/>
+      <c r="C14" s="11" t="s">
+        <v>1029</v>
+      </c>
       <c r="D14" s="11" t="s">
         <v>138</v>
       </c>
@@ -12533,7 +12553,7 @@
         <v>101403</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>399</v>
+        <v>865</v>
       </c>
       <c r="K14" s="11"/>
       <c r="L14" s="7"/>
@@ -15352,73 +15372,73 @@
         <v>4</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>403</v>
-      </c>
       <c r="C2" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>608</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="7">
+        <v>200</v>
+      </c>
+      <c r="F2" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>609</v>
-      </c>
-      <c r="E2" s="7">
-        <v>200</v>
-      </c>
-      <c r="F2" s="7">
-        <v>100000</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>405</v>
-      </c>
       <c r="C3" s="7" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D3" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="E3" s="7">
+        <v>200</v>
+      </c>
+      <c r="F3" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>611</v>
-      </c>
-      <c r="E3" s="7">
-        <v>200</v>
-      </c>
-      <c r="F3" s="7">
-        <v>100000</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>407</v>
-      </c>
       <c r="C4" s="7" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E4" s="7">
         <v>200</v>
@@ -15430,47 +15450,47 @@
         <v>10</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>409</v>
-      </c>
       <c r="C5" s="7" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D5" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="E5" s="7">
+        <v>200</v>
+      </c>
+      <c r="F5" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="7" t="s">
         <v>614</v>
-      </c>
-      <c r="E5" s="7">
-        <v>200</v>
-      </c>
-      <c r="F5" s="7">
-        <v>100000</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>411</v>
-      </c>
       <c r="C6" s="7" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E6" s="7">
         <v>200</v>
@@ -15479,22 +15499,22 @@
         <v>101403</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>413</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>414</v>
-      </c>
       <c r="C7" s="7" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E7" s="7">
         <v>200</v>
@@ -15503,22 +15523,22 @@
         <v>101403</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>417</v>
-      </c>
       <c r="C8" s="7" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E8" s="7">
         <v>200</v>
@@ -15527,22 +15547,22 @@
         <v>101403</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H8" s="7"/>
     </row>
     <row r="9" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>419</v>
-      </c>
       <c r="C9" s="7" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E9" s="7">
         <v>200</v>
@@ -15554,47 +15574,47 @@
         <v>10</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>421</v>
-      </c>
       <c r="C10" s="7" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D10" s="7" t="s">
+        <v>619</v>
+      </c>
+      <c r="E10" s="7">
+        <v>200</v>
+      </c>
+      <c r="F10" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="7" t="s">
         <v>620</v>
-      </c>
-      <c r="E10" s="7">
-        <v>200</v>
-      </c>
-      <c r="F10" s="7">
-        <v>100000</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>423</v>
-      </c>
       <c r="C11" s="7" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E11" s="7">
         <v>200</v>
@@ -15606,21 +15626,21 @@
         <v>10</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>425</v>
-      </c>
       <c r="C12" s="7" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E12" s="7">
         <v>200</v>
@@ -15632,21 +15652,21 @@
         <v>10</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>427</v>
-      </c>
       <c r="C13" s="7" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E13" s="7">
         <v>200</v>
@@ -15655,22 +15675,22 @@
         <v>101403</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H13" s="7"/>
     </row>
     <row r="14" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>428</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>429</v>
-      </c>
       <c r="C14" s="7" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E14" s="7">
         <v>200</v>
@@ -15682,21 +15702,21 @@
         <v>10</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>431</v>
-      </c>
       <c r="C15" s="7" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E15" s="7">
         <v>200</v>
@@ -15708,21 +15728,21 @@
         <v>10</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>432</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>433</v>
-      </c>
       <c r="C16" s="7" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E16" s="7">
         <v>200</v>
@@ -15734,47 +15754,47 @@
         <v>10</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>435</v>
-      </c>
       <c r="C17" s="7" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D17" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="E17" s="7">
+        <v>200</v>
+      </c>
+      <c r="F17" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="7" t="s">
         <v>628</v>
-      </c>
-      <c r="E17" s="7">
-        <v>200</v>
-      </c>
-      <c r="F17" s="7">
-        <v>100000</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E18" s="7">
         <v>200</v>
@@ -15786,73 +15806,73 @@
         <v>10</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>437</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>438</v>
-      </c>
       <c r="C19" s="7" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D19" s="7" t="s">
+        <v>630</v>
+      </c>
+      <c r="E19" s="7">
+        <v>200</v>
+      </c>
+      <c r="F19" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="7" t="s">
         <v>631</v>
-      </c>
-      <c r="E19" s="7">
-        <v>200</v>
-      </c>
-      <c r="F19" s="7">
-        <v>100000</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>440</v>
-      </c>
       <c r="C20" s="7" t="s">
+        <v>681</v>
+      </c>
+      <c r="D20" s="7" t="s">
         <v>682</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="E20" s="7">
+        <v>200</v>
+      </c>
+      <c r="F20" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="7" t="s">
         <v>683</v>
-      </c>
-      <c r="E20" s="7">
-        <v>200</v>
-      </c>
-      <c r="F20" s="7">
-        <v>100000</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>684</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="B21" s="7" t="s">
         <v>441</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>442</v>
-      </c>
       <c r="C21" s="7" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E21" s="7">
         <v>200</v>
@@ -15861,22 +15881,22 @@
         <v>101403</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H21" s="7"/>
     </row>
     <row r="22" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E22" s="7">
         <v>200</v>
@@ -15885,74 +15905,74 @@
         <v>101403</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H22" s="7"/>
     </row>
     <row r="23" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="B23" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="B23" s="7" t="s">
-        <v>445</v>
-      </c>
       <c r="C23" s="7" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D23" s="7" t="s">
+        <v>686</v>
+      </c>
+      <c r="E23" s="7">
+        <v>200</v>
+      </c>
+      <c r="F23" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" s="7" t="s">
         <v>687</v>
-      </c>
-      <c r="E23" s="7">
-        <v>200</v>
-      </c>
-      <c r="F23" s="7">
-        <v>100000</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>688</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="B24" s="7" t="s">
-        <v>447</v>
-      </c>
       <c r="C24" s="7" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D24" s="7" t="s">
+        <v>688</v>
+      </c>
+      <c r="E24" s="7">
+        <v>200</v>
+      </c>
+      <c r="F24" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24" s="7" t="s">
         <v>689</v>
-      </c>
-      <c r="E24" s="7">
-        <v>200</v>
-      </c>
-      <c r="F24" s="7">
-        <v>100000</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>690</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E25" s="7">
         <v>200</v>
@@ -15964,47 +15984,47 @@
         <v>10</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="B26" s="7" t="s">
         <v>449</v>
       </c>
-      <c r="B26" s="7" t="s">
-        <v>450</v>
-      </c>
       <c r="C26" s="7" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D26" s="7" t="s">
+        <v>691</v>
+      </c>
+      <c r="E26" s="7">
+        <v>200</v>
+      </c>
+      <c r="F26" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H26" s="7" t="s">
         <v>692</v>
-      </c>
-      <c r="E26" s="7">
-        <v>200</v>
-      </c>
-      <c r="F26" s="7">
-        <v>100000</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>693</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E27" s="7">
         <v>200</v>
@@ -16013,48 +16033,48 @@
         <v>101403</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H27" s="7"/>
     </row>
     <row r="28" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C28" s="7" t="s">
+        <v>723</v>
+      </c>
+      <c r="D28" s="7" t="s">
         <v>724</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="E28" s="7">
+        <v>200</v>
+      </c>
+      <c r="F28" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H28" s="7" t="s">
         <v>725</v>
-      </c>
-      <c r="E28" s="7">
-        <v>200</v>
-      </c>
-      <c r="F28" s="7">
-        <v>100000</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>726</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="E29" s="7">
         <v>200</v>
@@ -16063,22 +16083,22 @@
         <v>101403</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H29" s="7"/>
     </row>
     <row r="30" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="E30" s="7">
         <v>200</v>
@@ -16087,74 +16107,74 @@
         <v>101403</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H30" s="7"/>
     </row>
     <row r="31" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D31" s="7" t="s">
+        <v>728</v>
+      </c>
+      <c r="E31" s="7">
+        <v>200</v>
+      </c>
+      <c r="F31" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H31" s="7" t="s">
         <v>729</v>
-      </c>
-      <c r="E31" s="7">
-        <v>200</v>
-      </c>
-      <c r="F31" s="7">
-        <v>100000</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H31" s="7" t="s">
-        <v>730</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D32" s="7" t="s">
+        <v>730</v>
+      </c>
+      <c r="E32" s="7">
+        <v>200</v>
+      </c>
+      <c r="F32" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H32" s="7" t="s">
         <v>731</v>
-      </c>
-      <c r="E32" s="7">
-        <v>200</v>
-      </c>
-      <c r="F32" s="7">
-        <v>100000</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H32" s="7" t="s">
-        <v>732</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E33" s="7">
         <v>200</v>
@@ -16166,47 +16186,47 @@
         <v>10</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D34" s="7" t="s">
+        <v>733</v>
+      </c>
+      <c r="E34" s="7">
+        <v>200</v>
+      </c>
+      <c r="F34" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H34" s="7" t="s">
         <v>734</v>
-      </c>
-      <c r="E34" s="7">
-        <v>200</v>
-      </c>
-      <c r="F34" s="7">
-        <v>100000</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H34" s="7" t="s">
-        <v>735</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E35" s="7">
         <v>200</v>
@@ -16215,48 +16235,48 @@
         <v>101403</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H35" s="7"/>
     </row>
     <row r="36" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C36" s="7" t="s">
+        <v>763</v>
+      </c>
+      <c r="D36" s="7" t="s">
         <v>764</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="E36" s="7">
+        <v>200</v>
+      </c>
+      <c r="F36" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H36" s="7" t="s">
         <v>765</v>
-      </c>
-      <c r="E36" s="7">
-        <v>200</v>
-      </c>
-      <c r="F36" s="7">
-        <v>100000</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H36" s="7" t="s">
-        <v>766</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E37" s="7">
         <v>200</v>
@@ -16265,22 +16285,22 @@
         <v>101403</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H37" s="7"/>
     </row>
     <row r="38" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="E38" s="7">
         <v>200</v>
@@ -16289,74 +16309,74 @@
         <v>101403</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H38" s="7"/>
     </row>
     <row r="39" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D39" s="7" t="s">
+        <v>768</v>
+      </c>
+      <c r="E39" s="7">
+        <v>200</v>
+      </c>
+      <c r="F39" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H39" s="7" t="s">
         <v>769</v>
-      </c>
-      <c r="E39" s="7">
-        <v>200</v>
-      </c>
-      <c r="F39" s="7">
-        <v>100000</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H39" s="7" t="s">
-        <v>770</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D40" s="7" t="s">
+        <v>770</v>
+      </c>
+      <c r="E40" s="7">
+        <v>200</v>
+      </c>
+      <c r="F40" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H40" s="7" t="s">
         <v>771</v>
-      </c>
-      <c r="E40" s="7">
-        <v>200</v>
-      </c>
-      <c r="F40" s="7">
-        <v>100000</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H40" s="7" t="s">
-        <v>772</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E41" s="7">
         <v>200</v>
@@ -16368,47 +16388,47 @@
         <v>10</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D42" s="7" t="s">
+        <v>773</v>
+      </c>
+      <c r="E42" s="7">
+        <v>200</v>
+      </c>
+      <c r="F42" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H42" s="7" t="s">
         <v>774</v>
-      </c>
-      <c r="E42" s="7">
-        <v>200</v>
-      </c>
-      <c r="F42" s="7">
-        <v>100000</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H42" s="7" t="s">
-        <v>775</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E43" s="7">
         <v>200</v>
@@ -16417,22 +16437,22 @@
         <v>101403</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H43" s="7"/>
     </row>
     <row r="44" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="B44" s="7" t="s">
         <v>468</v>
       </c>
-      <c r="B44" s="7" t="s">
-        <v>469</v>
-      </c>
       <c r="C44" s="7" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E44" s="7">
         <v>200</v>
@@ -16444,21 +16464,21 @@
         <v>10</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E45" s="7">
         <v>200</v>
@@ -16470,47 +16490,47 @@
         <v>10</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="B46" s="7" t="s">
         <v>471</v>
       </c>
-      <c r="B46" s="7" t="s">
-        <v>472</v>
-      </c>
       <c r="C46" s="7" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D46" s="7" t="s">
+        <v>695</v>
+      </c>
+      <c r="E46" s="7">
+        <v>200</v>
+      </c>
+      <c r="F46" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H46" s="7" t="s">
         <v>696</v>
-      </c>
-      <c r="E46" s="7">
-        <v>200</v>
-      </c>
-      <c r="F46" s="7">
-        <v>100000</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H46" s="7" t="s">
-        <v>697</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="B47" s="7" t="s">
         <v>473</v>
       </c>
-      <c r="B47" s="7" t="s">
-        <v>474</v>
-      </c>
       <c r="C47" s="7" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E47" s="7">
         <v>200</v>
@@ -16525,16 +16545,16 @@
     </row>
     <row r="48" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E48" s="7">
         <v>200</v>
@@ -16546,21 +16566,21 @@
         <v>10</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E49" s="7">
         <v>200</v>
@@ -16572,21 +16592,21 @@
         <v>10</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="B50" s="7" t="s">
         <v>477</v>
       </c>
-      <c r="B50" s="7" t="s">
-        <v>478</v>
-      </c>
       <c r="C50" s="7" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E50" s="7">
         <v>200</v>
@@ -16598,21 +16618,21 @@
         <v>10</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="B51" s="7" t="s">
         <v>479</v>
       </c>
-      <c r="B51" s="7" t="s">
-        <v>480</v>
-      </c>
       <c r="C51" s="7" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E51" s="7">
         <v>200</v>
@@ -16624,21 +16644,21 @@
         <v>10</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="B52" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="B52" s="7" t="s">
-        <v>482</v>
-      </c>
       <c r="C52" s="7" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E52" s="7">
         <v>200</v>
@@ -16650,21 +16670,21 @@
         <v>10</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E53" s="7">
         <v>200</v>
@@ -16676,21 +16696,21 @@
         <v>10</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="B54" s="7" t="s">
         <v>484</v>
       </c>
-      <c r="B54" s="7" t="s">
-        <v>485</v>
-      </c>
       <c r="C54" s="7" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E54" s="7">
         <v>200</v>
@@ -16702,99 +16722,99 @@
         <v>10</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="B55" s="7" t="s">
         <v>486</v>
       </c>
-      <c r="B55" s="7" t="s">
-        <v>487</v>
-      </c>
       <c r="C55" s="7" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D55" s="7" t="s">
+        <v>638</v>
+      </c>
+      <c r="E55" s="7">
+        <v>200</v>
+      </c>
+      <c r="F55" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H55" s="7" t="s">
         <v>639</v>
-      </c>
-      <c r="E55" s="7">
-        <v>200</v>
-      </c>
-      <c r="F55" s="7">
-        <v>100000</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H55" s="7" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D56" s="7" t="s">
+        <v>640</v>
+      </c>
+      <c r="E56" s="7">
+        <v>200</v>
+      </c>
+      <c r="F56" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H56" s="7" t="s">
         <v>641</v>
-      </c>
-      <c r="E56" s="7">
-        <v>200</v>
-      </c>
-      <c r="F56" s="7">
-        <v>100000</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H56" s="7" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="7" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D57" s="7" t="s">
+        <v>642</v>
+      </c>
+      <c r="E57" s="7">
+        <v>200</v>
+      </c>
+      <c r="F57" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H57" s="7" t="s">
         <v>643</v>
-      </c>
-      <c r="E57" s="7">
-        <v>200</v>
-      </c>
-      <c r="F57" s="7">
-        <v>100000</v>
-      </c>
-      <c r="G57" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H57" s="7" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="B58" s="7" t="s">
         <v>490</v>
       </c>
-      <c r="B58" s="7" t="s">
-        <v>491</v>
-      </c>
       <c r="C58" s="7" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E58" s="7">
         <v>200</v>
@@ -16806,21 +16826,21 @@
         <v>10</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="7" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E59" s="7">
         <v>200</v>
@@ -16832,21 +16852,21 @@
         <v>10</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="B60" s="7" t="s">
         <v>493</v>
       </c>
-      <c r="B60" s="7" t="s">
-        <v>494</v>
-      </c>
       <c r="C60" s="7" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E60" s="7">
         <v>200</v>
@@ -16858,21 +16878,21 @@
         <v>10</v>
       </c>
       <c r="H60" s="7" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="B61" s="7" t="s">
         <v>495</v>
       </c>
-      <c r="B61" s="7" t="s">
-        <v>496</v>
-      </c>
       <c r="C61" s="7" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E61" s="7">
         <v>200</v>
@@ -16884,47 +16904,47 @@
         <v>10</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="B62" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="B62" s="7" t="s">
-        <v>498</v>
-      </c>
       <c r="C62" s="7" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D62" s="7" t="s">
+        <v>648</v>
+      </c>
+      <c r="E62" s="7">
+        <v>200</v>
+      </c>
+      <c r="F62" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G62" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H62" s="7" t="s">
         <v>649</v>
-      </c>
-      <c r="E62" s="7">
-        <v>200</v>
-      </c>
-      <c r="F62" s="7">
-        <v>100000</v>
-      </c>
-      <c r="G62" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H62" s="7" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="B63" s="7" t="s">
         <v>499</v>
       </c>
-      <c r="B63" s="7" t="s">
-        <v>500</v>
-      </c>
       <c r="C63" s="7" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E63" s="7">
         <v>200</v>
@@ -16936,47 +16956,47 @@
         <v>10</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="B64" s="7" t="s">
         <v>501</v>
       </c>
-      <c r="B64" s="7" t="s">
-        <v>502</v>
-      </c>
       <c r="C64" s="7" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D64" s="7" t="s">
+        <v>651</v>
+      </c>
+      <c r="E64" s="7">
+        <v>200</v>
+      </c>
+      <c r="F64" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G64" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H64" s="7" t="s">
         <v>652</v>
-      </c>
-      <c r="E64" s="7">
-        <v>200</v>
-      </c>
-      <c r="F64" s="7">
-        <v>100000</v>
-      </c>
-      <c r="G64" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H64" s="7" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="B65" s="7" t="s">
         <v>503</v>
       </c>
-      <c r="B65" s="7" t="s">
-        <v>504</v>
-      </c>
       <c r="C65" s="7" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E65" s="7">
         <v>200</v>
@@ -16988,21 +17008,21 @@
         <v>10</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="B66" s="7" t="s">
         <v>505</v>
       </c>
-      <c r="B66" s="7" t="s">
-        <v>506</v>
-      </c>
       <c r="C66" s="7" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E66" s="7">
         <v>200</v>
@@ -17014,21 +17034,21 @@
         <v>10</v>
       </c>
       <c r="H66" s="7" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="7" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E67" s="7">
         <v>200</v>
@@ -17040,21 +17060,21 @@
         <v>10</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="B68" s="7" t="s">
         <v>508</v>
       </c>
-      <c r="B68" s="7" t="s">
-        <v>509</v>
-      </c>
       <c r="C68" s="7" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E68" s="7">
         <v>200</v>
@@ -17066,21 +17086,21 @@
         <v>10</v>
       </c>
       <c r="H68" s="7" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="7" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E69" s="7">
         <v>200</v>
@@ -17092,21 +17112,21 @@
         <v>10</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="B70" s="7" t="s">
         <v>511</v>
       </c>
-      <c r="B70" s="7" t="s">
-        <v>512</v>
-      </c>
       <c r="C70" s="7" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E70" s="7">
         <v>200</v>
@@ -17118,73 +17138,73 @@
         <v>10</v>
       </c>
       <c r="H70" s="7" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="B71" s="7" t="s">
         <v>513</v>
       </c>
-      <c r="B71" s="7" t="s">
-        <v>514</v>
-      </c>
       <c r="C71" s="7" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D71" s="7" t="s">
+        <v>700</v>
+      </c>
+      <c r="E71" s="7">
+        <v>200</v>
+      </c>
+      <c r="F71" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G71" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H71" s="7" t="s">
         <v>701</v>
-      </c>
-      <c r="E71" s="7">
-        <v>200</v>
-      </c>
-      <c r="F71" s="7">
-        <v>100000</v>
-      </c>
-      <c r="G71" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H71" s="7" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="7" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D72" s="7" t="s">
+        <v>702</v>
+      </c>
+      <c r="E72" s="7">
+        <v>200</v>
+      </c>
+      <c r="F72" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G72" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H72" s="7" t="s">
         <v>703</v>
-      </c>
-      <c r="E72" s="7">
-        <v>200</v>
-      </c>
-      <c r="F72" s="7">
-        <v>100000</v>
-      </c>
-      <c r="G72" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H72" s="7" t="s">
-        <v>704</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="B73" s="7" t="s">
         <v>516</v>
       </c>
-      <c r="B73" s="7" t="s">
-        <v>517</v>
-      </c>
       <c r="C73" s="7" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E73" s="7">
         <v>200</v>
@@ -17196,47 +17216,47 @@
         <v>10</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="7" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D74" s="7" t="s">
+        <v>705</v>
+      </c>
+      <c r="E74" s="7">
+        <v>200</v>
+      </c>
+      <c r="F74" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G74" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H74" s="7" t="s">
         <v>706</v>
-      </c>
-      <c r="E74" s="7">
-        <v>200</v>
-      </c>
-      <c r="F74" s="7">
-        <v>100000</v>
-      </c>
-      <c r="G74" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H74" s="7" t="s">
-        <v>707</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="7" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E75" s="7">
         <v>200</v>
@@ -17248,21 +17268,21 @@
         <v>10</v>
       </c>
       <c r="H75" s="7" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="B76" s="7" t="s">
         <v>520</v>
       </c>
-      <c r="B76" s="7" t="s">
-        <v>521</v>
-      </c>
       <c r="C76" s="7" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E76" s="7">
         <v>200</v>
@@ -17274,21 +17294,21 @@
         <v>10</v>
       </c>
       <c r="H76" s="7" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="B77" s="7" t="s">
         <v>522</v>
       </c>
-      <c r="B77" s="7" t="s">
-        <v>523</v>
-      </c>
       <c r="C77" s="7" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E77" s="7">
         <v>200</v>
@@ -17300,22 +17320,22 @@
         <v>10</v>
       </c>
       <c r="H77" s="7" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="7" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C78" s="7" t="s">
+        <v>737</v>
+      </c>
+      <c r="D78" s="7" t="s">
         <v>738</v>
       </c>
-      <c r="D78" s="7" t="s">
-        <v>739</v>
-      </c>
       <c r="E78" s="7">
         <v>200</v>
       </c>
@@ -17326,21 +17346,21 @@
         <v>10</v>
       </c>
       <c r="H78" s="7" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="7" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E79" s="7">
         <v>200</v>
@@ -17352,73 +17372,73 @@
         <v>10</v>
       </c>
       <c r="H79" s="7" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="7" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D80" s="7" t="s">
+        <v>740</v>
+      </c>
+      <c r="E80" s="7">
+        <v>200</v>
+      </c>
+      <c r="F80" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G80" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H80" s="7" t="s">
         <v>741</v>
-      </c>
-      <c r="E80" s="7">
-        <v>200</v>
-      </c>
-      <c r="F80" s="7">
-        <v>100000</v>
-      </c>
-      <c r="G80" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H80" s="7" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="7" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D81" s="7" t="s">
+        <v>742</v>
+      </c>
+      <c r="E81" s="7">
+        <v>200</v>
+      </c>
+      <c r="F81" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G81" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H81" s="7" t="s">
         <v>743</v>
-      </c>
-      <c r="E81" s="7">
-        <v>200</v>
-      </c>
-      <c r="F81" s="7">
-        <v>100000</v>
-      </c>
-      <c r="G81" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H81" s="7" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="7" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E82" s="7">
         <v>200</v>
@@ -17430,47 +17450,47 @@
         <v>10</v>
       </c>
       <c r="H82" s="7" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="7" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D83" s="7" t="s">
+        <v>745</v>
+      </c>
+      <c r="E83" s="7">
+        <v>200</v>
+      </c>
+      <c r="F83" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G83" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H83" s="7" t="s">
         <v>746</v>
-      </c>
-      <c r="E83" s="7">
-        <v>200</v>
-      </c>
-      <c r="F83" s="7">
-        <v>100000</v>
-      </c>
-      <c r="G83" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H83" s="7" t="s">
-        <v>747</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="7" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E84" s="7">
         <v>200</v>
@@ -17482,21 +17502,21 @@
         <v>10</v>
       </c>
       <c r="H84" s="7" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="7" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E85" s="7">
         <v>200</v>
@@ -17508,21 +17528,21 @@
         <v>10</v>
       </c>
       <c r="H85" s="7" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="7" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="E86" s="7">
         <v>200</v>
@@ -17534,22 +17554,22 @@
         <v>10</v>
       </c>
       <c r="H86" s="7" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="7" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C87" s="7" t="s">
+        <v>777</v>
+      </c>
+      <c r="D87" s="7" t="s">
         <v>778</v>
       </c>
-      <c r="D87" s="7" t="s">
-        <v>779</v>
-      </c>
       <c r="E87" s="7">
         <v>200</v>
       </c>
@@ -17560,21 +17580,21 @@
         <v>10</v>
       </c>
       <c r="H87" s="7" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="7" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E88" s="7">
         <v>200</v>
@@ -17586,73 +17606,73 @@
         <v>10</v>
       </c>
       <c r="H88" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="7" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D89" s="7" t="s">
+        <v>780</v>
+      </c>
+      <c r="E89" s="7">
+        <v>200</v>
+      </c>
+      <c r="F89" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G89" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H89" s="7" t="s">
         <v>781</v>
-      </c>
-      <c r="E89" s="7">
-        <v>200</v>
-      </c>
-      <c r="F89" s="7">
-        <v>100000</v>
-      </c>
-      <c r="G89" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H89" s="7" t="s">
-        <v>782</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="7" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D90" s="7" t="s">
+        <v>782</v>
+      </c>
+      <c r="E90" s="7">
+        <v>200</v>
+      </c>
+      <c r="F90" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G90" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H90" s="7" t="s">
         <v>783</v>
-      </c>
-      <c r="E90" s="7">
-        <v>200</v>
-      </c>
-      <c r="F90" s="7">
-        <v>100000</v>
-      </c>
-      <c r="G90" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H90" s="7" t="s">
-        <v>784</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="7" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="E91" s="7">
         <v>200</v>
@@ -17664,47 +17684,47 @@
         <v>10</v>
       </c>
       <c r="H91" s="7" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="7" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D92" s="7" t="s">
+        <v>785</v>
+      </c>
+      <c r="E92" s="7">
+        <v>200</v>
+      </c>
+      <c r="F92" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G92" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H92" s="7" t="s">
         <v>786</v>
-      </c>
-      <c r="E92" s="7">
-        <v>200</v>
-      </c>
-      <c r="F92" s="7">
-        <v>100000</v>
-      </c>
-      <c r="G92" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H92" s="7" t="s">
-        <v>787</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="7" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="E93" s="7">
         <v>200</v>
@@ -17716,21 +17736,21 @@
         <v>10</v>
       </c>
       <c r="H93" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="7" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E94" s="7">
         <v>200</v>
@@ -17742,21 +17762,21 @@
         <v>10</v>
       </c>
       <c r="H94" s="7" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="7" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E95" s="7">
         <v>200</v>
@@ -17768,21 +17788,21 @@
         <v>10</v>
       </c>
       <c r="H95" s="7" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="B96" s="7" t="s">
         <v>542</v>
       </c>
-      <c r="B96" s="7" t="s">
-        <v>543</v>
-      </c>
       <c r="C96" s="7" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E96" s="7">
         <v>200</v>
@@ -17794,21 +17814,21 @@
         <v>10</v>
       </c>
       <c r="H96" s="7" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="B97" s="7" t="s">
         <v>544</v>
       </c>
-      <c r="B97" s="7" t="s">
-        <v>545</v>
-      </c>
       <c r="C97" s="7" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E97" s="7">
         <v>200</v>
@@ -17820,21 +17840,21 @@
         <v>10</v>
       </c>
       <c r="H97" s="7" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="B98" s="7" t="s">
         <v>546</v>
       </c>
-      <c r="B98" s="7" t="s">
-        <v>547</v>
-      </c>
       <c r="C98" s="7" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E98" s="7">
         <v>200</v>
@@ -17846,21 +17866,21 @@
         <v>10</v>
       </c>
       <c r="H98" s="7" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="7" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E99" s="7">
         <v>200</v>
@@ -17872,21 +17892,21 @@
         <v>10</v>
       </c>
       <c r="H99" s="7" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="B100" s="7" t="s">
         <v>549</v>
       </c>
-      <c r="B100" s="7" t="s">
-        <v>550</v>
-      </c>
       <c r="C100" s="7" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E100" s="7">
         <v>200</v>
@@ -17898,99 +17918,99 @@
         <v>10</v>
       </c>
       <c r="H100" s="7" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="B101" s="7" t="s">
         <v>551</v>
       </c>
-      <c r="B101" s="7" t="s">
-        <v>552</v>
-      </c>
       <c r="C101" s="7" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D101" s="7" t="s">
+        <v>662</v>
+      </c>
+      <c r="E101" s="7">
+        <v>200</v>
+      </c>
+      <c r="F101" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G101" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H101" s="7" t="s">
         <v>663</v>
-      </c>
-      <c r="E101" s="7">
-        <v>200</v>
-      </c>
-      <c r="F101" s="7">
-        <v>100000</v>
-      </c>
-      <c r="G101" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H101" s="7" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="7" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D102" s="7" t="s">
+        <v>664</v>
+      </c>
+      <c r="E102" s="7">
+        <v>200</v>
+      </c>
+      <c r="F102" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G102" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H102" s="7" t="s">
         <v>665</v>
-      </c>
-      <c r="E102" s="7">
-        <v>200</v>
-      </c>
-      <c r="F102" s="7">
-        <v>100000</v>
-      </c>
-      <c r="G102" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H102" s="7" t="s">
-        <v>666</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="7" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D103" s="7" t="s">
+        <v>666</v>
+      </c>
+      <c r="E103" s="7">
+        <v>200</v>
+      </c>
+      <c r="F103" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G103" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H103" s="7" t="s">
         <v>667</v>
-      </c>
-      <c r="E103" s="7">
-        <v>200</v>
-      </c>
-      <c r="F103" s="7">
-        <v>100000</v>
-      </c>
-      <c r="G103" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H103" s="7" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="B104" s="7" t="s">
         <v>555</v>
       </c>
-      <c r="B104" s="7" t="s">
-        <v>556</v>
-      </c>
       <c r="C104" s="7" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E104" s="7">
         <v>200</v>
@@ -18002,21 +18022,21 @@
         <v>10</v>
       </c>
       <c r="H104" s="7" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="7" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E105" s="7">
         <v>200</v>
@@ -18028,21 +18048,21 @@
         <v>10</v>
       </c>
       <c r="H105" s="7" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="B106" s="7" t="s">
         <v>558</v>
       </c>
-      <c r="B106" s="7" t="s">
-        <v>559</v>
-      </c>
       <c r="C106" s="7" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E106" s="7">
         <v>200</v>
@@ -18054,21 +18074,21 @@
         <v>10</v>
       </c>
       <c r="H106" s="7" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="B107" s="7" t="s">
         <v>560</v>
       </c>
-      <c r="B107" s="7" t="s">
-        <v>561</v>
-      </c>
       <c r="C107" s="7" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E107" s="7">
         <v>200</v>
@@ -18080,47 +18100,47 @@
         <v>10</v>
       </c>
       <c r="H107" s="7" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="B108" s="7" t="s">
         <v>562</v>
       </c>
-      <c r="B108" s="7" t="s">
-        <v>563</v>
-      </c>
       <c r="C108" s="7" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D108" s="7" t="s">
+        <v>672</v>
+      </c>
+      <c r="E108" s="7">
+        <v>200</v>
+      </c>
+      <c r="F108" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G108" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H108" s="7" t="s">
         <v>673</v>
-      </c>
-      <c r="E108" s="7">
-        <v>200</v>
-      </c>
-      <c r="F108" s="7">
-        <v>100000</v>
-      </c>
-      <c r="G108" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H108" s="7" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="B109" s="7" t="s">
         <v>564</v>
       </c>
-      <c r="B109" s="7" t="s">
-        <v>565</v>
-      </c>
       <c r="C109" s="7" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E109" s="7">
         <v>200</v>
@@ -18132,47 +18152,47 @@
         <v>10</v>
       </c>
       <c r="H109" s="7" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="B110" s="7" t="s">
         <v>566</v>
       </c>
-      <c r="B110" s="7" t="s">
-        <v>567</v>
-      </c>
       <c r="C110" s="7" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D110" s="7" t="s">
+        <v>675</v>
+      </c>
+      <c r="E110" s="7">
+        <v>200</v>
+      </c>
+      <c r="F110" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G110" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H110" s="7" t="s">
         <v>676</v>
-      </c>
-      <c r="E110" s="7">
-        <v>200</v>
-      </c>
-      <c r="F110" s="7">
-        <v>100000</v>
-      </c>
-      <c r="G110" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H110" s="7" t="s">
-        <v>677</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="B111" s="7" t="s">
         <v>568</v>
       </c>
-      <c r="B111" s="7" t="s">
-        <v>569</v>
-      </c>
       <c r="C111" s="7" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E111" s="7">
         <v>200</v>
@@ -18184,21 +18204,21 @@
         <v>10</v>
       </c>
       <c r="H111" s="7" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="B112" s="7" t="s">
         <v>570</v>
       </c>
-      <c r="B112" s="7" t="s">
-        <v>571</v>
-      </c>
       <c r="C112" s="7" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E112" s="7">
         <v>200</v>
@@ -18210,21 +18230,21 @@
         <v>10</v>
       </c>
       <c r="H112" s="7" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="7" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D113" s="7" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E113" s="7">
         <v>200</v>
@@ -18236,21 +18256,21 @@
         <v>10</v>
       </c>
       <c r="H113" s="7" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="B114" s="7" t="s">
         <v>573</v>
       </c>
-      <c r="B114" s="7" t="s">
-        <v>574</v>
-      </c>
       <c r="C114" s="7" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D114" s="7" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E114" s="7">
         <v>200</v>
@@ -18262,47 +18282,47 @@
         <v>10</v>
       </c>
       <c r="H114" s="7" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="B115" s="7" t="s">
         <v>575</v>
       </c>
-      <c r="B115" s="7" t="s">
-        <v>576</v>
-      </c>
       <c r="C115" s="7" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D115" s="7" t="s">
+        <v>710</v>
+      </c>
+      <c r="E115" s="7">
+        <v>200</v>
+      </c>
+      <c r="F115" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G115" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H115" s="7" t="s">
         <v>711</v>
-      </c>
-      <c r="E115" s="7">
-        <v>200</v>
-      </c>
-      <c r="F115" s="7">
-        <v>100000</v>
-      </c>
-      <c r="G115" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H115" s="7" t="s">
-        <v>712</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="B116" s="7" t="s">
         <v>577</v>
       </c>
-      <c r="B116" s="7" t="s">
-        <v>578</v>
-      </c>
       <c r="C116" s="7" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D116" s="7" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E116" s="7">
         <v>200</v>
@@ -18314,73 +18334,73 @@
         <v>10</v>
       </c>
       <c r="H116" s="7" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="B117" s="7" t="s">
         <v>579</v>
       </c>
-      <c r="B117" s="7" t="s">
-        <v>580</v>
-      </c>
       <c r="C117" s="7" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D117" s="7" t="s">
+        <v>713</v>
+      </c>
+      <c r="E117" s="7">
+        <v>200</v>
+      </c>
+      <c r="F117" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G117" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H117" s="7" t="s">
         <v>714</v>
-      </c>
-      <c r="E117" s="7">
-        <v>200</v>
-      </c>
-      <c r="F117" s="7">
-        <v>100000</v>
-      </c>
-      <c r="G117" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H117" s="7" t="s">
-        <v>715</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="7" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D118" s="7" t="s">
+        <v>715</v>
+      </c>
+      <c r="E118" s="7">
+        <v>200</v>
+      </c>
+      <c r="F118" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G118" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H118" s="7" t="s">
         <v>716</v>
-      </c>
-      <c r="E118" s="7">
-        <v>200</v>
-      </c>
-      <c r="F118" s="7">
-        <v>100000</v>
-      </c>
-      <c r="G118" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H118" s="7" t="s">
-        <v>717</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="B119" s="7" t="s">
         <v>582</v>
       </c>
-      <c r="B119" s="7" t="s">
-        <v>583</v>
-      </c>
       <c r="C119" s="7" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D119" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E119" s="7">
         <v>200</v>
@@ -18392,47 +18412,47 @@
         <v>10</v>
       </c>
       <c r="H119" s="7" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="7" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D120" s="7" t="s">
+        <v>718</v>
+      </c>
+      <c r="E120" s="7">
+        <v>200</v>
+      </c>
+      <c r="F120" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G120" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H120" s="7" t="s">
         <v>719</v>
-      </c>
-      <c r="E120" s="7">
-        <v>200</v>
-      </c>
-      <c r="F120" s="7">
-        <v>100000</v>
-      </c>
-      <c r="G120" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H120" s="7" t="s">
-        <v>720</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="7" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D121" s="7" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="E121" s="7">
         <v>200</v>
@@ -18444,21 +18464,21 @@
         <v>10</v>
       </c>
       <c r="H121" s="7" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="7" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D122" s="7" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E122" s="7">
         <v>200</v>
@@ -18470,21 +18490,21 @@
         <v>10</v>
       </c>
       <c r="H122" s="7" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="7" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D123" s="7" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E123" s="7">
         <v>200</v>
@@ -18496,47 +18516,47 @@
         <v>10</v>
       </c>
       <c r="H123" s="7" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="B124" s="7" t="s">
         <v>588</v>
       </c>
-      <c r="B124" s="7" t="s">
-        <v>589</v>
-      </c>
       <c r="C124" s="7" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D124" s="7" t="s">
+        <v>750</v>
+      </c>
+      <c r="E124" s="7">
+        <v>200</v>
+      </c>
+      <c r="F124" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G124" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H124" s="7" t="s">
         <v>751</v>
-      </c>
-      <c r="E124" s="7">
-        <v>200</v>
-      </c>
-      <c r="F124" s="7">
-        <v>100000</v>
-      </c>
-      <c r="G124" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H124" s="7" t="s">
-        <v>752</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="7" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D125" s="7" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E125" s="7">
         <v>200</v>
@@ -18548,73 +18568,73 @@
         <v>10</v>
       </c>
       <c r="H125" s="7" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="7" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D126" s="7" t="s">
+        <v>753</v>
+      </c>
+      <c r="E126" s="7">
+        <v>200</v>
+      </c>
+      <c r="F126" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G126" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H126" s="7" t="s">
         <v>754</v>
-      </c>
-      <c r="E126" s="7">
-        <v>200</v>
-      </c>
-      <c r="F126" s="7">
-        <v>100000</v>
-      </c>
-      <c r="G126" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H126" s="7" t="s">
-        <v>755</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="7" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D127" s="7" t="s">
+        <v>755</v>
+      </c>
+      <c r="E127" s="7">
+        <v>200</v>
+      </c>
+      <c r="F127" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G127" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H127" s="7" t="s">
         <v>756</v>
-      </c>
-      <c r="E127" s="7">
-        <v>200</v>
-      </c>
-      <c r="F127" s="7">
-        <v>100000</v>
-      </c>
-      <c r="G127" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H127" s="7" t="s">
-        <v>757</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="7" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D128" s="7" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E128" s="7">
         <v>200</v>
@@ -18626,47 +18646,47 @@
         <v>10</v>
       </c>
       <c r="H128" s="7" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="7" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D129" s="7" t="s">
+        <v>758</v>
+      </c>
+      <c r="E129" s="7">
+        <v>200</v>
+      </c>
+      <c r="F129" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G129" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H129" s="7" t="s">
         <v>759</v>
-      </c>
-      <c r="E129" s="7">
-        <v>200</v>
-      </c>
-      <c r="F129" s="7">
-        <v>100000</v>
-      </c>
-      <c r="G129" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H129" s="7" t="s">
-        <v>760</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="7" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E130" s="7">
         <v>200</v>
@@ -18678,21 +18698,21 @@
         <v>10</v>
       </c>
       <c r="H130" s="7" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="7" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D131" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E131" s="7">
         <v>200</v>
@@ -18704,21 +18724,21 @@
         <v>10</v>
       </c>
       <c r="H131" s="7" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="7" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D132" s="7" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E132" s="7">
         <v>200</v>
@@ -18730,47 +18750,47 @@
         <v>10</v>
       </c>
       <c r="H132" s="7" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="7" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D133" s="7" t="s">
+        <v>790</v>
+      </c>
+      <c r="E133" s="7">
+        <v>200</v>
+      </c>
+      <c r="F133" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G133" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H133" s="7" t="s">
         <v>791</v>
-      </c>
-      <c r="E133" s="7">
-        <v>200</v>
-      </c>
-      <c r="F133" s="7">
-        <v>100000</v>
-      </c>
-      <c r="G133" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H133" s="7" t="s">
-        <v>792</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="7" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C134" s="7" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D134" s="7" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="E134" s="7">
         <v>200</v>
@@ -18782,73 +18802,73 @@
         <v>10</v>
       </c>
       <c r="H134" s="7" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="7" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C135" s="7" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D135" s="7" t="s">
+        <v>793</v>
+      </c>
+      <c r="E135" s="7">
+        <v>200</v>
+      </c>
+      <c r="F135" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G135" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H135" s="7" t="s">
         <v>794</v>
-      </c>
-      <c r="E135" s="7">
-        <v>200</v>
-      </c>
-      <c r="F135" s="7">
-        <v>100000</v>
-      </c>
-      <c r="G135" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H135" s="7" t="s">
-        <v>795</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="7" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D136" s="7" t="s">
+        <v>795</v>
+      </c>
+      <c r="E136" s="7">
+        <v>200</v>
+      </c>
+      <c r="F136" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G136" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H136" s="7" t="s">
         <v>796</v>
-      </c>
-      <c r="E136" s="7">
-        <v>200</v>
-      </c>
-      <c r="F136" s="7">
-        <v>100000</v>
-      </c>
-      <c r="G136" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H136" s="7" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="7" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C137" s="7" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D137" s="7" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E137" s="7">
         <v>200</v>
@@ -18860,47 +18880,47 @@
         <v>10</v>
       </c>
       <c r="H137" s="7" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="7" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C138" s="7" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D138" s="7" t="s">
+        <v>798</v>
+      </c>
+      <c r="E138" s="7">
+        <v>200</v>
+      </c>
+      <c r="F138" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G138" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H138" s="7" t="s">
         <v>799</v>
-      </c>
-      <c r="E138" s="7">
-        <v>200</v>
-      </c>
-      <c r="F138" s="7">
-        <v>100000</v>
-      </c>
-      <c r="G138" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H138" s="7" t="s">
-        <v>800</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="7" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C139" s="7" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D139" s="7" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E139" s="7">
         <v>200</v>
@@ -18912,21 +18932,21 @@
         <v>10</v>
       </c>
       <c r="H139" s="7" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="7" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C140" s="7" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D140" s="7" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E140" s="7">
         <v>200</v>
@@ -18938,21 +18958,21 @@
         <v>10</v>
       </c>
       <c r="H140" s="7" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="B141" s="7" t="s">
         <v>606</v>
       </c>
-      <c r="B141" s="7" t="s">
-        <v>607</v>
-      </c>
       <c r="C141" s="7" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D141" s="7" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E141" s="7">
         <v>200</v>
@@ -18964,7 +18984,7 @@
         <v>10</v>
       </c>
       <c r="H141" s="7" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
   </sheetData>
@@ -19146,7 +19166,7 @@
         <v>64</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11" t="s">
@@ -19176,7 +19196,7 @@
         <v>65</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="11" t="s">
@@ -19206,7 +19226,7 @@
         <v>66</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="11" t="s">
@@ -19236,7 +19256,7 @@
         <v>67</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11" t="s">
@@ -20556,7 +20576,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5311681-F97A-4ABD-B425-9D76F638D5E4}">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -20600,24 +20620,24 @@
         <v>4</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="F2" s="7">
         <v>200</v>
@@ -20629,19 +20649,19 @@
         <v>10</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7">
@@ -20654,19 +20674,19 @@
         <v>10</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7">
@@ -20679,19 +20699,19 @@
         <v>10</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7">
@@ -20704,19 +20724,19 @@
         <v>10</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7">
@@ -20729,19 +20749,19 @@
         <v>10</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7">
@@ -20754,19 +20774,19 @@
         <v>10</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7">
@@ -20779,19 +20799,19 @@
         <v>10</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7">
@@ -20804,19 +20824,19 @@
         <v>10</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7">
@@ -20829,19 +20849,19 @@
         <v>10</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7">
@@ -20854,19 +20874,19 @@
         <v>10</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7">
@@ -20879,19 +20899,19 @@
         <v>10</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7">
@@ -20904,19 +20924,19 @@
         <v>10</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7">
@@ -20929,19 +20949,19 @@
         <v>10</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7">
@@ -20954,19 +20974,19 @@
         <v>10</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>1026</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>1027</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7">
@@ -20979,7 +20999,7 @@
         <v>10</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/test-data-xls/iot-api-engine-test-data.xlsx
+++ b/src/main/resources/test-data-xls/iot-api-engine-test-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\data-layer-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46F776BB-1B82-4B72-B710-1E48DB152231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C847A0F8-3A62-4376-93E2-32C9E442A8AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="getDataEntities" sheetId="2" r:id="rId1"/>
@@ -9007,28 +9007,6 @@
         json_value
         reserved_field_1
         reserved_field_2
-    }
-}</t>
-  </si>
-  <si>
-    <t>{
-    "JdbcDriverPerson_Delete": {
-        "json_value": [
-            {
-                "code": 0,
-                "data": true
-            },
-            {
-                "code": 0,
-                "data": true
-            },
-            {
-                "code": 0,
-                "data": true
-            }
-        ],
-        "reserved_field_1": null,
-        "reserved_field_2": null
     }
 }</t>
   </si>
@@ -9767,6 +9745,20 @@
         json_value
         reserved_field_1
         reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "JdbcDriverPerson_Delete": {
+        "json_value": [
+            {
+                "code": 0,
+                "data": true
+            }
+        ],
+        "reserved_field_1": null,
+        "reserved_field_2": null
     }
 }</t>
   </si>
@@ -10431,8 +10423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2BD0DC3-4B30-4245-BB10-C3788886B94F}">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -10935,7 +10927,7 @@
         <v>910</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -11284,7 +11276,7 @@
         <v>10</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>977</v>
+        <v>1028</v>
       </c>
       <c r="J28" s="8" t="s">
         <v>935</v>
@@ -11717,7 +11709,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE22B0A1-EDF6-487D-8C5B-FE5F049504FE}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
@@ -12522,7 +12514,7 @@
         <v>94</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>138</v>
@@ -20613,16 +20605,16 @@
     </row>
     <row r="2" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>858</v>
@@ -20637,19 +20629,19 @@
         <v>10</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4">
@@ -20662,19 +20654,19 @@
         <v>10</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4">
@@ -20687,19 +20679,19 @@
         <v>10</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4">
@@ -20712,19 +20704,19 @@
         <v>10</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4">
@@ -20737,19 +20729,19 @@
         <v>10</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4">
@@ -20762,19 +20754,19 @@
         <v>10</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4">
@@ -20787,19 +20779,19 @@
         <v>10</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4">
@@ -20812,19 +20804,19 @@
         <v>10</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4">
@@ -20837,19 +20829,19 @@
         <v>10</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4">
@@ -20862,19 +20854,19 @@
         <v>10</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4">
@@ -20887,19 +20879,19 @@
         <v>10</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4">
@@ -20912,19 +20904,19 @@
         <v>10</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4">
@@ -20937,19 +20929,19 @@
         <v>10</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4">
@@ -20962,19 +20954,19 @@
         <v>10</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>1024</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>1025</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4">
@@ -20987,7 +20979,7 @@
         <v>10</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/test-data-xls/iot-api-engine-test-data.xlsx
+++ b/src/main/resources/test-data-xls/iot-api-engine-test-data.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\data-layer-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C847A0F8-3A62-4376-93E2-32C9E442A8AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD901555-0165-4C9C-AA4D-1F60D18E0587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" firstSheet="7" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="getDataEntities" sheetId="2" r:id="rId1"/>
     <sheet name="getDataGraphQL" sheetId="3" r:id="rId2"/>
-    <sheet name="postGraphForMysql" sheetId="14" r:id="rId3"/>
-    <sheet name="restfulTransactionSingleEntity" sheetId="10" r:id="rId4"/>
-    <sheet name="restfulTransactionMultiEntity" sheetId="11" r:id="rId5"/>
-    <sheet name="authForRestfulWrite" sheetId="12" r:id="rId6"/>
-    <sheet name="transferOfFlexibleParams" sheetId="16" r:id="rId7"/>
-    <sheet name="postGraphForMysql-backup" sheetId="9" r:id="rId8"/>
+    <sheet name="postGraphForMysql-backup" sheetId="9" r:id="rId3"/>
+    <sheet name="postGraphForMysql" sheetId="14" r:id="rId4"/>
+    <sheet name="restfulTransactionSingleEntity" sheetId="10" r:id="rId5"/>
+    <sheet name="restfulTransactionMultiEntity" sheetId="11" r:id="rId6"/>
+    <sheet name="authForRestfulWrite" sheetId="12" r:id="rId7"/>
+    <sheet name="transferOfFlexibleParams" sheetId="16" r:id="rId8"/>
     <sheet name="readPostgreSQL" sheetId="18" r:id="rId9"/>
     <sheet name="writePostgreSQL" sheetId="17" r:id="rId10"/>
+    <sheet name="testWhichVerifyRspdata" sheetId="19" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2424" uniqueCount="1029">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2441" uniqueCount="1036">
   <si>
     <t>description</t>
   </si>
@@ -9760,6 +9761,43 @@
         "reserved_field_1": null,
         "reserved_field_2": null
     }
+}</t>
+  </si>
+  <si>
+    <t>iot-multiEntitiesMappedToSameTable-test-1</t>
+  </si>
+  <si>
+    <t>{TestEntityNo1 {prop1 prop2}}</t>
+  </si>
+  <si>
+    <t>{
+    "TestEntityNo1": [
+        {
+            "prop1": "1",
+            "prop2": "tom1"
+        }
+    ]
+}</t>
+  </si>
+  <si>
+    <t>good request,
+Story：SDL-8913
+Supports scenarios where multiple entities are mapped to the same data table by adding conditional filtering in the connect configuration</t>
+  </si>
+  <si>
+    <t>iot-multiEntitiesMappedToSameTable-test-2</t>
+  </si>
+  <si>
+    <t>{TestEntityNo2 {prop1 prop2}}</t>
+  </si>
+  <si>
+    <t>{
+    "TestEntityNo2": [
+        {
+            "prop1": "2",
+            "prop2": "tom2"
+        }
+    ]
 }</t>
   </si>
 </sst>
@@ -10423,7 +10461,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2BD0DC3-4B30-4245-BB10-C3788886B94F}">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
@@ -11696,6 +11734,102 @@
       </c>
       <c r="J41" s="8" t="s">
         <v>958</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1146BBEF-F163-416B-A66D-CB4277B05189}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="36" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="10.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="110.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D2" s="4">
+        <v>200</v>
+      </c>
+      <c r="E2" s="4">
+        <v>100000</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="110.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D3" s="4">
+        <v>200</v>
+      </c>
+      <c r="E3" s="4">
+        <v>100000</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>1035</v>
       </c>
     </row>
   </sheetData>
@@ -12055,6 +12189,1585 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{233D398F-A510-45E2-94C1-EA62EAF2A2C6}">
+  <dimension ref="A1:L43"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="38.21875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H2" s="8">
+        <v>200</v>
+      </c>
+      <c r="I2" s="8">
+        <v>100000</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="9">
+        <v>0</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="H3" s="8">
+        <v>200</v>
+      </c>
+      <c r="I3" s="8">
+        <v>100000</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="9">
+        <v>0</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8">
+        <v>200</v>
+      </c>
+      <c r="I4" s="8">
+        <v>100000</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="8">
+        <v>1</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>878</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8">
+        <v>200</v>
+      </c>
+      <c r="I5" s="8">
+        <v>101301</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+    </row>
+    <row r="6" spans="1:12" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>888</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8">
+        <v>200</v>
+      </c>
+      <c r="I6" s="8">
+        <v>101301</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+    </row>
+    <row r="7" spans="1:12" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>889</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8">
+        <v>200</v>
+      </c>
+      <c r="I7" s="8">
+        <v>101301</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+    </row>
+    <row r="8" spans="1:12" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>879</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8">
+        <v>200</v>
+      </c>
+      <c r="I8" s="8">
+        <v>101301</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+    </row>
+    <row r="9" spans="1:12" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="H9" s="8">
+        <v>200</v>
+      </c>
+      <c r="I9" s="8">
+        <v>100000</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" s="8">
+        <v>0</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="H10" s="8">
+        <v>200</v>
+      </c>
+      <c r="I10" s="8">
+        <v>100000</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K10" s="8">
+        <v>0</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8">
+        <v>200</v>
+      </c>
+      <c r="I11" s="8">
+        <v>101303</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+    </row>
+    <row r="12" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8">
+        <v>200</v>
+      </c>
+      <c r="I12" s="8">
+        <v>101301</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+    </row>
+    <row r="13" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8">
+        <v>200</v>
+      </c>
+      <c r="I13" s="8">
+        <v>101301</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+    </row>
+    <row r="14" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8">
+        <v>200</v>
+      </c>
+      <c r="I14" s="8">
+        <v>101301</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+    </row>
+    <row r="15" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8">
+        <v>200</v>
+      </c>
+      <c r="I15" s="8">
+        <v>101301</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+    </row>
+    <row r="16" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8">
+        <v>200</v>
+      </c>
+      <c r="I16" s="8">
+        <v>100000</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K16" s="8">
+        <v>0</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" s="7" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="H17" s="8">
+        <v>200</v>
+      </c>
+      <c r="I17" s="8">
+        <v>100000</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K17" s="8">
+        <v>0</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="H18" s="8">
+        <v>200</v>
+      </c>
+      <c r="I18" s="8">
+        <v>100000</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K18" s="8">
+        <v>0</v>
+      </c>
+      <c r="L18" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="H19" s="8">
+        <v>200</v>
+      </c>
+      <c r="I19" s="8">
+        <v>100000</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K19" s="8">
+        <v>0</v>
+      </c>
+      <c r="L19" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="H20" s="8">
+        <v>200</v>
+      </c>
+      <c r="I20" s="8">
+        <v>100000</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K20" s="8">
+        <v>0</v>
+      </c>
+      <c r="L20" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="H21" s="8">
+        <v>200</v>
+      </c>
+      <c r="I21" s="8">
+        <v>100000</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K21" s="8">
+        <v>0</v>
+      </c>
+      <c r="L21" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="H22" s="8">
+        <v>200</v>
+      </c>
+      <c r="I22" s="8">
+        <v>100000</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K22" s="8">
+        <v>0</v>
+      </c>
+      <c r="L22" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="H23" s="8">
+        <v>200</v>
+      </c>
+      <c r="I23" s="8">
+        <v>100000</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K23" s="8">
+        <v>0</v>
+      </c>
+      <c r="L23" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="H24" s="8">
+        <v>200</v>
+      </c>
+      <c r="I24" s="8">
+        <v>100000</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K24" s="8">
+        <v>0</v>
+      </c>
+      <c r="L24" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="H25" s="8">
+        <v>200</v>
+      </c>
+      <c r="I25" s="8">
+        <v>100000</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K25" s="8">
+        <v>0</v>
+      </c>
+      <c r="L25" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="H26" s="8">
+        <v>200</v>
+      </c>
+      <c r="I26" s="8">
+        <v>100000</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K26" s="8">
+        <v>0</v>
+      </c>
+      <c r="L26" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="H27" s="8">
+        <v>200</v>
+      </c>
+      <c r="I27" s="8">
+        <v>100000</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K27" s="8">
+        <v>0</v>
+      </c>
+      <c r="L27" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="H28" s="8">
+        <v>200</v>
+      </c>
+      <c r="I28" s="8">
+        <v>100000</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K28" s="8">
+        <v>0</v>
+      </c>
+      <c r="L28" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="H29" s="8">
+        <v>200</v>
+      </c>
+      <c r="I29" s="8">
+        <v>100000</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K29" s="8">
+        <v>0</v>
+      </c>
+      <c r="L29" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="H30" s="8">
+        <v>200</v>
+      </c>
+      <c r="I30" s="8">
+        <v>100000</v>
+      </c>
+      <c r="J30" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K30" s="8">
+        <v>0</v>
+      </c>
+      <c r="L30" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="H31" s="8">
+        <v>200</v>
+      </c>
+      <c r="I31" s="8">
+        <v>100000</v>
+      </c>
+      <c r="J31" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K31" s="8">
+        <v>0</v>
+      </c>
+      <c r="L31" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" s="7" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="H32" s="8">
+        <v>200</v>
+      </c>
+      <c r="I32" s="8">
+        <v>100000</v>
+      </c>
+      <c r="J32" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K32" s="8">
+        <v>0</v>
+      </c>
+      <c r="L32" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" s="7" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="H33" s="8">
+        <v>200</v>
+      </c>
+      <c r="I33" s="8">
+        <v>100000</v>
+      </c>
+      <c r="J33" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K33" s="8">
+        <v>0</v>
+      </c>
+      <c r="L33" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" s="7" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="H34" s="8">
+        <v>200</v>
+      </c>
+      <c r="I34" s="8">
+        <v>100000</v>
+      </c>
+      <c r="J34" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K34" s="8">
+        <v>0</v>
+      </c>
+      <c r="L34" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" s="7" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="H35" s="8">
+        <v>200</v>
+      </c>
+      <c r="I35" s="8">
+        <v>100000</v>
+      </c>
+      <c r="J35" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K35" s="8">
+        <v>0</v>
+      </c>
+      <c r="L35" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" s="7" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="H36" s="8">
+        <v>200</v>
+      </c>
+      <c r="I36" s="8">
+        <v>100000</v>
+      </c>
+      <c r="J36" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K36" s="8">
+        <v>0</v>
+      </c>
+      <c r="L36" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" s="7" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="H37" s="8">
+        <v>200</v>
+      </c>
+      <c r="I37" s="8">
+        <v>100000</v>
+      </c>
+      <c r="J37" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K37" s="8">
+        <v>0</v>
+      </c>
+      <c r="L37" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" s="7" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="H38" s="8">
+        <v>200</v>
+      </c>
+      <c r="I38" s="8">
+        <v>100000</v>
+      </c>
+      <c r="J38" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K38" s="8">
+        <v>0</v>
+      </c>
+      <c r="L38" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" s="7" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="H39" s="8">
+        <v>200</v>
+      </c>
+      <c r="I39" s="8">
+        <v>100000</v>
+      </c>
+      <c r="J39" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K39" s="8">
+        <v>0</v>
+      </c>
+      <c r="L39" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" s="7" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="H40" s="8">
+        <v>200</v>
+      </c>
+      <c r="I40" s="8">
+        <v>100000</v>
+      </c>
+      <c r="J40" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K40" s="8">
+        <v>0</v>
+      </c>
+      <c r="L40" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" s="7" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="H41" s="8">
+        <v>200</v>
+      </c>
+      <c r="I41" s="8">
+        <v>100000</v>
+      </c>
+      <c r="J41" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K41" s="8">
+        <v>0</v>
+      </c>
+      <c r="L41" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" s="7" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="H42" s="8">
+        <v>200</v>
+      </c>
+      <c r="I42" s="8">
+        <v>100000</v>
+      </c>
+      <c r="J42" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K42" s="8">
+        <v>0</v>
+      </c>
+      <c r="L42" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" s="7" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8">
+        <v>200</v>
+      </c>
+      <c r="I43" s="8">
+        <v>100000</v>
+      </c>
+      <c r="J43" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K43" s="8">
+        <v>0</v>
+      </c>
+      <c r="L43" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6DC2BAC-5C19-4CFF-8624-044FD1CB4C77}">
   <dimension ref="A1:L43"/>
   <sheetViews>
@@ -13632,7 +15345,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9F6F477-271A-41FE-A290-09DC67B3D45A}">
   <dimension ref="A1:P9"/>
   <sheetViews>
@@ -14054,7 +15767,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AE618FA-BAFF-4947-8A48-6BBC9A48AE70}">
   <dimension ref="A1:S13"/>
   <sheetViews>
@@ -14717,7 +16430,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAD7C303-AF77-4B95-95EB-BAA32E85C8DA}">
   <dimension ref="A1:K16"/>
   <sheetViews>
@@ -15308,12 +17021,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FD7D6DE-617D-4A49-9D87-297640E0E1DC}">
   <dimension ref="A1:H141"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="B1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -18968,1585 +20681,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{233D398F-A510-45E2-94C1-EA62EAF2A2C6}">
-  <dimension ref="A1:L43"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="20.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="38.21875" style="6" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="H2" s="8">
-        <v>200</v>
-      </c>
-      <c r="I2" s="8">
-        <v>100000</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="9">
-        <v>0</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="H3" s="8">
-        <v>200</v>
-      </c>
-      <c r="I3" s="8">
-        <v>100000</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="9">
-        <v>0</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8">
-        <v>200</v>
-      </c>
-      <c r="I4" s="8">
-        <v>100000</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="8">
-        <v>1</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>878</v>
-      </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8">
-        <v>200</v>
-      </c>
-      <c r="I5" s="8">
-        <v>101301</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-    </row>
-    <row r="6" spans="1:12" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>888</v>
-      </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8">
-        <v>200</v>
-      </c>
-      <c r="I6" s="8">
-        <v>101301</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-    </row>
-    <row r="7" spans="1:12" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>889</v>
-      </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8">
-        <v>200</v>
-      </c>
-      <c r="I7" s="8">
-        <v>101301</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-    </row>
-    <row r="8" spans="1:12" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>879</v>
-      </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8">
-        <v>200</v>
-      </c>
-      <c r="I8" s="8">
-        <v>101301</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-    </row>
-    <row r="9" spans="1:12" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="H9" s="8">
-        <v>200</v>
-      </c>
-      <c r="I9" s="8">
-        <v>100000</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="K9" s="8">
-        <v>0</v>
-      </c>
-      <c r="L9" s="8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="H10" s="8">
-        <v>200</v>
-      </c>
-      <c r="I10" s="8">
-        <v>100000</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="K10" s="8">
-        <v>0</v>
-      </c>
-      <c r="L10" s="8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8">
-        <v>200</v>
-      </c>
-      <c r="I11" s="8">
-        <v>101303</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-    </row>
-    <row r="12" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8">
-        <v>200</v>
-      </c>
-      <c r="I12" s="8">
-        <v>101301</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-    </row>
-    <row r="13" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8">
-        <v>200</v>
-      </c>
-      <c r="I13" s="8">
-        <v>101301</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-    </row>
-    <row r="14" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8">
-        <v>200</v>
-      </c>
-      <c r="I14" s="8">
-        <v>101301</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-    </row>
-    <row r="15" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8">
-        <v>200</v>
-      </c>
-      <c r="I15" s="8">
-        <v>101301</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-    </row>
-    <row r="16" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8">
-        <v>200</v>
-      </c>
-      <c r="I16" s="8">
-        <v>100000</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="K16" s="8">
-        <v>0</v>
-      </c>
-      <c r="L16" s="8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" s="7" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="H17" s="8">
-        <v>200</v>
-      </c>
-      <c r="I17" s="8">
-        <v>100000</v>
-      </c>
-      <c r="J17" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="K17" s="8">
-        <v>0</v>
-      </c>
-      <c r="L17" s="8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="H18" s="8">
-        <v>200</v>
-      </c>
-      <c r="I18" s="8">
-        <v>100000</v>
-      </c>
-      <c r="J18" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="K18" s="8">
-        <v>0</v>
-      </c>
-      <c r="L18" s="8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="H19" s="8">
-        <v>200</v>
-      </c>
-      <c r="I19" s="8">
-        <v>100000</v>
-      </c>
-      <c r="J19" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="K19" s="8">
-        <v>0</v>
-      </c>
-      <c r="L19" s="8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="H20" s="8">
-        <v>200</v>
-      </c>
-      <c r="I20" s="8">
-        <v>100000</v>
-      </c>
-      <c r="J20" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="K20" s="8">
-        <v>0</v>
-      </c>
-      <c r="L20" s="8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="H21" s="8">
-        <v>200</v>
-      </c>
-      <c r="I21" s="8">
-        <v>100000</v>
-      </c>
-      <c r="J21" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="K21" s="8">
-        <v>0</v>
-      </c>
-      <c r="L21" s="8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="H22" s="8">
-        <v>200</v>
-      </c>
-      <c r="I22" s="8">
-        <v>100000</v>
-      </c>
-      <c r="J22" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="K22" s="8">
-        <v>0</v>
-      </c>
-      <c r="L22" s="8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="H23" s="8">
-        <v>200</v>
-      </c>
-      <c r="I23" s="8">
-        <v>100000</v>
-      </c>
-      <c r="J23" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="K23" s="8">
-        <v>0</v>
-      </c>
-      <c r="L23" s="8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="H24" s="8">
-        <v>200</v>
-      </c>
-      <c r="I24" s="8">
-        <v>100000</v>
-      </c>
-      <c r="J24" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="K24" s="8">
-        <v>0</v>
-      </c>
-      <c r="L24" s="8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="H25" s="8">
-        <v>200</v>
-      </c>
-      <c r="I25" s="8">
-        <v>100000</v>
-      </c>
-      <c r="J25" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="K25" s="8">
-        <v>0</v>
-      </c>
-      <c r="L25" s="8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="H26" s="8">
-        <v>200</v>
-      </c>
-      <c r="I26" s="8">
-        <v>100000</v>
-      </c>
-      <c r="J26" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="K26" s="8">
-        <v>0</v>
-      </c>
-      <c r="L26" s="8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="H27" s="8">
-        <v>200</v>
-      </c>
-      <c r="I27" s="8">
-        <v>100000</v>
-      </c>
-      <c r="J27" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="K27" s="8">
-        <v>0</v>
-      </c>
-      <c r="L27" s="8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="H28" s="8">
-        <v>200</v>
-      </c>
-      <c r="I28" s="8">
-        <v>100000</v>
-      </c>
-      <c r="J28" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="K28" s="8">
-        <v>0</v>
-      </c>
-      <c r="L28" s="8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="H29" s="8">
-        <v>200</v>
-      </c>
-      <c r="I29" s="8">
-        <v>100000</v>
-      </c>
-      <c r="J29" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="K29" s="8">
-        <v>0</v>
-      </c>
-      <c r="L29" s="8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="G30" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="H30" s="8">
-        <v>200</v>
-      </c>
-      <c r="I30" s="8">
-        <v>100000</v>
-      </c>
-      <c r="J30" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="K30" s="8">
-        <v>0</v>
-      </c>
-      <c r="L30" s="8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="H31" s="8">
-        <v>200</v>
-      </c>
-      <c r="I31" s="8">
-        <v>100000</v>
-      </c>
-      <c r="J31" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="K31" s="8">
-        <v>0</v>
-      </c>
-      <c r="L31" s="8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" s="7" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="G32" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="H32" s="8">
-        <v>200</v>
-      </c>
-      <c r="I32" s="8">
-        <v>100000</v>
-      </c>
-      <c r="J32" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="K32" s="8">
-        <v>0</v>
-      </c>
-      <c r="L32" s="8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" s="7" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="H33" s="8">
-        <v>200</v>
-      </c>
-      <c r="I33" s="8">
-        <v>100000</v>
-      </c>
-      <c r="J33" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="K33" s="8">
-        <v>0</v>
-      </c>
-      <c r="L33" s="8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" s="7" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="G34" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="H34" s="8">
-        <v>200</v>
-      </c>
-      <c r="I34" s="8">
-        <v>100000</v>
-      </c>
-      <c r="J34" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="K34" s="8">
-        <v>0</v>
-      </c>
-      <c r="L34" s="8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" s="7" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="G35" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="H35" s="8">
-        <v>200</v>
-      </c>
-      <c r="I35" s="8">
-        <v>100000</v>
-      </c>
-      <c r="J35" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="K35" s="8">
-        <v>0</v>
-      </c>
-      <c r="L35" s="8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" s="7" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="G36" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="H36" s="8">
-        <v>200</v>
-      </c>
-      <c r="I36" s="8">
-        <v>100000</v>
-      </c>
-      <c r="J36" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="K36" s="8">
-        <v>0</v>
-      </c>
-      <c r="L36" s="8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" s="7" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="H37" s="8">
-        <v>200</v>
-      </c>
-      <c r="I37" s="8">
-        <v>100000</v>
-      </c>
-      <c r="J37" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="K37" s="8">
-        <v>0</v>
-      </c>
-      <c r="L37" s="8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" s="7" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="G38" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="H38" s="8">
-        <v>200</v>
-      </c>
-      <c r="I38" s="8">
-        <v>100000</v>
-      </c>
-      <c r="J38" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="K38" s="8">
-        <v>0</v>
-      </c>
-      <c r="L38" s="8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" s="7" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="G39" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="H39" s="8">
-        <v>200</v>
-      </c>
-      <c r="I39" s="8">
-        <v>100000</v>
-      </c>
-      <c r="J39" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="K39" s="8">
-        <v>0</v>
-      </c>
-      <c r="L39" s="8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" s="7" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F40" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="G40" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="H40" s="8">
-        <v>200</v>
-      </c>
-      <c r="I40" s="8">
-        <v>100000</v>
-      </c>
-      <c r="J40" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="K40" s="8">
-        <v>0</v>
-      </c>
-      <c r="L40" s="8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" s="7" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F41" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="G41" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="H41" s="8">
-        <v>200</v>
-      </c>
-      <c r="I41" s="8">
-        <v>100000</v>
-      </c>
-      <c r="J41" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="K41" s="8">
-        <v>0</v>
-      </c>
-      <c r="L41" s="8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" s="7" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F42" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="G42" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="H42" s="8">
-        <v>200</v>
-      </c>
-      <c r="I42" s="8">
-        <v>100000</v>
-      </c>
-      <c r="J42" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="K42" s="8">
-        <v>0</v>
-      </c>
-      <c r="L42" s="8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" s="7" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8">
-        <v>200</v>
-      </c>
-      <c r="I43" s="8">
-        <v>100000</v>
-      </c>
-      <c r="J43" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="K43" s="8">
-        <v>0</v>
-      </c>
-      <c r="L43" s="8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/src/main/resources/test-data-xls/iot-api-engine-test-data.xlsx
+++ b/src/main/resources/test-data-xls/iot-api-engine-test-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\data-layer-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A03FC9D-805C-4659-9E84-9E37D806422E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8626D17D-0533-4436-85D8-3EB2632D4FB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" firstSheet="7" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="getDataEntities" sheetId="2" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2531" uniqueCount="1093">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2512" uniqueCount="1083">
   <si>
     <t>description</t>
   </si>
@@ -5985,34 +5985,6 @@
         reserved_field_2
     }
 }</t>
-  </si>
-  <si>
-    <t>{
-    "UserWithQueryForRestfulEnhance_Update_By_Condition": {
-      "json_value": [
-        {
-          "code": 0,
-          "data": "{UserBasicInfoForRestfulEnhance={\"id\":\"1\",\"name\":\"name1UPDATE\",\"age\":\"11\"}}"
-        }
-      ],
-      "reserved_field_1": null,
-      "reserved_field_2": null
-    }
-  }</t>
-  </si>
-  <si>
-    <t>{
-    "UserWithHeaderForRestfulEnhance_Delete_By_Condition": {
-      "json_value": [
-        {
-          "code": 0,
-          "data": "{UserBasicInfoForRestfulEnhance={\"id\":\"2\",\"name\":\"name2\",\"age\":\"12\"}}||{UserBasicInfoForRestfulEnhance={\"id\":\"1\",\"name\":\"name1\",\"age\":\"11\"}}"
-        }
-      ],
-      "reserved_field_1": null,
-      "reserved_field_2": null
-    }
-  }</t>
   </si>
   <si>
     <t>good request,
@@ -8432,49 +8404,7 @@
 }</t>
   </si>
   <si>
-    <t>iot-testMultiDataSource-test-3</t>
-  </si>
-  <si>
     <t>iot-testMultiDataSource-test-4</t>
-  </si>
-  <si>
-    <t>UPDATE
-Restful &amp;&amp; Restful</t>
-  </si>
-  <si>
-    <t>mutation mutationName{
-   entityWithDoubleRestful_Update(input:
-	[
-        {
-          id: "1",
-          name: "name1UPDATE",
-          age: "11",
-          id1: "1",
-          name1: "name1UPDATE",
-          age1: "11"
-        }
-    ]
-    )
-    {
-        json_value
-        reserved_field_1
-        reserved_field_2
-    }
-}</t>
-  </si>
-  <si>
-    <t>{
-    "entityWithDoubleRestful_Update": {
-      "json_value": [
-        {
-          "code": 0,
-          "data": "{firstUserBasicInfo={\"id\":\"1\",\"name\":\"name1\",\"age\":\"11\"}}||{secondUserBasicInfo={\"id\":\"1\",\"name\":\"name1\",\"age\":\"11\"}}"
-        }
-      ],
-      "reserved_field_1": null,
-      "reserved_field_2": null
-    }
-  }</t>
   </si>
   <si>
     <t>mutation mutationName{
@@ -8544,23 +8474,11 @@
     <t>iot-testMultiDataSource-test-5</t>
   </si>
   <si>
-    <t xml:space="preserve">
-mutation mutationName{
-   entityWithRestfulMysql_Insert(input:
-	[
-        {
-          id: "1",
-          name: "name1",
-          age: "11",
-          score: "95",
-          login_time: "2021-01-01T00:00:00",
-          supplier: "cisco",
-          ID: 1,
-          deviceName: "switch",
-          operator: "lilei"
-        }
-    ]
-    )
+    <t>after-execution</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   entityWithRestfulMysql_Delete_By_Condition(cond: "{id: {_in: [1,2,3,4,5,6]}}")
     {
         json_value
         reserved_field_1
@@ -8569,54 +8487,7 @@
 }</t>
   </si>
   <si>
-    <t>after-execution</t>
-  </si>
-  <si>
-    <t>mutation mutationName{
-   entityWithRestfulMysql_Delete_By_Condition(cond: "{id: {_in: [1,2,3,4,5,6]}}")
-    {
-        json_value
-        reserved_field_1
-        reserved_field_2
-    }
-}</t>
-  </si>
-  <si>
     <t>iot-testMultiDataSource-test-6</t>
-  </si>
-  <si>
-    <t>{
-  entityWithRestfulMysql(cond:"{ID: {_eq: 1}}", authInfo:"", order:"")
-  {
-    name
-    age
-    supplier
-    score
-    login_time
-    ID
-    deviceName
-    operator
-  }
-}</t>
-  </si>
-  <si>
-    <t>{
-    "entityWithRestfulMysql": [
-        {
-            "name": "name1",
-            "age": "11",
-            "supplier": "cisco",
-            "score": 95,
-            "login_time": "2021-01-01T00:00:00",
-            "ID": 1,
-            "deviceName": "switch",
-            "operator": "lilei"
-        }
-    ]
-}</t>
-  </si>
-  <si>
-    <t>iot-testMultiDataSource-test-7</t>
   </si>
   <si>
     <t>iot-testMultiDataSource-test-8</t>
@@ -8647,48 +8518,6 @@
 }</t>
   </si>
   <si>
-    <t>UPDATE
-Restful &amp;&amp; MySQL</t>
-  </si>
-  <si>
-    <t>mutation mutationName{
-   entityWithRestfulMysql_Update(input:
-	[
-        {
-          id: "1",
-          name: "name1UPDATE",
-          age: "11",
-          score: "95",
-          login_time: "2021-01-01T00:00:00",
-          supplier: "cisco",
-          ID: 1,
-          deviceName: "switchUPDATE",
-          operator: "lilei"
-        }
-    ]
-    )
-    {
-        json_value
-        reserved_field_1
-        reserved_field_2
-    }
-}</t>
-  </si>
-  <si>
-    <t>{
-    "entityWithRestfulMysql_Update": {
-        "json_value": [
-            {
-                "code": 0,
-                "data": "true||{firstUserBasicInfo={\"id\":\"1\",\"name\":\"name1\",\"age\":\"11\"}}"
-            }
-        ],
-        "reserved_field_1": null,
-        "reserved_field_2": null
-    }
-}</t>
-  </si>
-  <si>
     <t>UPDATE BY CONDITION
 Restful &amp;&amp; MySQL</t>
   </si>
@@ -8707,24 +8536,6 @@
 }</t>
   </si>
   <si>
-    <t>mutation mutationName{
-   entityWithRestfulMysql_Update_By_Condition(input:
-   [
-       {
-          name: "name1UPDATE",
-          deviceName: "switchUPDATE"
-       }
-   ],
-    cond: "{_and:[{ID:  {_eq: 1}}]}"
-   )
-    {
-        json_value
-        reserved_field_1
-        reserved_field_2
-    }
-}</t>
-  </si>
-  <si>
     <t>DELETE BY CONDITION
 Restful &amp;&amp; MySQL</t>
   </si>
@@ -9150,9 +8961,6 @@
   </si>
   <si>
     <t>iot-transferOfFlexibleParams-test-140</t>
-  </si>
-  <si>
-    <t>{entityWithRestfulPostgreSQL(cond:"{_and:[{id: {_eq: 1}},{id1: {_eq: 1}}]}") {id name age,id1,name1,age1,signed}}</t>
   </si>
   <si>
     <t>{
@@ -9167,16 +8975,6 @@
             "signed": true
         }
     ]
-}</t>
-  </si>
-  <si>
-    <t>mutation mutationName{
-   entityWithRestfulPostgreSQL_Delete_By_Condition(cond: "{id: {_in: [1,2,3,4,5,6]}},{id1: {_in: [1,2,3,4,5,6]}}]}")
-    {
-        json_value
-        reserved_field_1
-        reserved_field_2
-    }
 }</t>
   </si>
   <si>
@@ -9213,10 +9011,6 @@
 Restful &amp;&amp; PostgreSQL</t>
   </si>
   <si>
-    <t>UPDATE
-Restful &amp;&amp; PostgreSQL</t>
-  </si>
-  <si>
     <t>UPDATE BY CONDITION
 Restful &amp;&amp; PostgreSQL</t>
   </si>
@@ -9239,42 +9033,6 @@
 }</t>
   </si>
   <si>
-    <t>mutation mutationName{
-   entityWithRestfulPostgreSQL_Update(input:
-	[
-        {
-          id: "1",
-          name: "name1UPDATE",
-          age: "11",
-          id1: 1,
-          name1: "name1UPDATE",
-          age1: 11,
-          signed: true
-        }
-    ]
-    )
-    {
-        json_value
-        reserved_field_1
-        reserved_field_2
-    }
-}</t>
-  </si>
-  <si>
-    <t>{
-    "entityWithRestfulPostgreSQL_Update": {
-        "json_value": [
-            {
-                "code": 0,
-                "data": "true||{firstUserBasicInfo={\"id\":\"1\",\"name\":\"name1\",\"age\":\"11\"}}"
-            }
-        ],
-        "reserved_field_1": null,
-        "reserved_field_2": null
-    }
-}</t>
-  </si>
-  <si>
     <t>iot-api-engine-graphql-test-12</t>
   </si>
   <si>
@@ -9390,48 +9148,6 @@
   <si>
     <t>{
     "UserForRestfulEnhance_Update_By_Condition": {
-        "json_value": [
-            {
-                "code": 1,
-                "data": "Conditions parse error(syntax error or field not exist in mapper) (id in ())"
-            }
-        ],
-        "reserved_field_1": null,
-        "reserved_field_2": null
-    }
-}</t>
-  </si>
-  <si>
-    <t>{
-    "UserForRestfulEnhance_Update_By_Condition": {
-        "json_value": [
-            {
-                "code": 1,
-                "data": "Conditions parse error(syntax error or field not exist in mapper) (ids in ('1','2','3'))"
-            }
-        ],
-        "reserved_field_1": null,
-        "reserved_field_2": null
-    }
-}</t>
-  </si>
-  <si>
-    <t>{
-    "UserForRestfulEnhance_Update_By_Condition": {
-        "json_value": [
-            {
-                "code": 1,
-                "data": "Conditions parse error(syntax error or field not exist in mapper) (id not in ('1','2','3'))"
-            }
-        ],
-        "reserved_field_1": null,
-        "reserved_field_2": null
-    }
-}</t>
-  </si>
-  <si>
-    <t>{
-    "UserForRestfulEnhance_Update_By_Condition": {
       "json_value": [
         {
           "code": 0,
@@ -9470,34 +9186,6 @@
       "reserved_field_2": null
     }
   }</t>
-  </si>
-  <si>
-    <t>{
-    "UserForRestfulEnhance_Update_By_Condition": {
-        "json_value": [
-            {
-                "code": 1,
-                "data": "Conditions parse error(syntax error or field not exist in mapper) ((id,name) in ())"
-            }
-        ],
-        "reserved_field_1": null,
-        "reserved_field_2": null
-    }
-}</t>
-  </si>
-  <si>
-    <t>{
-    "UserForRestfulEnhance_Update_By_Condition": {
-        "json_value": [
-            {
-                "code": 1,
-                "data": "Conditions parse error(syntax error or field not exist in mapper) (( id = '1' and id in ('2','3') ))"
-            }
-        ],
-        "reserved_field_1": null,
-        "reserved_field_2": null
-    }
-}</t>
   </si>
   <si>
     <t>{
@@ -9558,20 +9246,6 @@
   <si>
     <t>{
     "UserWithBodyForRestfulEnhance_Update_By_Condition": {
-        "json_value": [
-            {
-                "code": 1,
-                "data": "Conditions parse error(syntax error or field not exist in mapper) (( id = '1' and name = 'name1' and age = '11' and abc = '55' ))"
-            }
-        ],
-        "reserved_field_1": null,
-        "reserved_field_2": null
-    }
-}</t>
-  </si>
-  <si>
-    <t>{
-    "UserWithBodyForRestfulEnhance_Update_By_Condition": {
       "json_value": [
         {
           "code": 0,
@@ -9582,20 +9256,6 @@
       "reserved_field_2": null
     }
   }</t>
-  </si>
-  <si>
-    <t>{
-    "UserWithBodyForRestfulEnhance_Update_By_Condition": {
-        "json_value": [
-            {
-                "code": 1,
-                "data": "Conditions parse error(syntax error or field not exist in mapper) (( ( id = '1' and name = 'name1' and age = '11' ) and (id,name,age) in (('5','name5','15'),('6','name6','16')) ))"
-            }
-        ],
-        "reserved_field_1": null,
-        "reserved_field_2": null
-    }
-}</t>
   </si>
   <si>
     <t>{
@@ -9654,20 +9314,6 @@
   }</t>
   </si>
   <si>
-    <t>{
-    "UserWithQueryForRestfulEnhance_Update_By_Condition": {
-        "json_value": [
-            {
-                "code": 1,
-                "data": "Conditions parse error(syntax error or field not exist in mapper) (( id = '1' and name = 'name1' and age = '11' and abc = '55' ))"
-            }
-        ],
-        "reserved_field_1": null,
-        "reserved_field_2": null
-    }
-}</t>
-  </si>
-  <si>
     <t xml:space="preserve"> {
     "UserWithQueryForRestfulEnhance_Update_By_Condition": {
       "json_value": [
@@ -9680,20 +9326,6 @@
       "reserved_field_2": null
     }
   }</t>
-  </si>
-  <si>
-    <t>{
-    "UserWithQueryForRestfulEnhance_Update_By_Condition": {
-        "json_value": [
-            {
-                "code": 1,
-                "data": "Conditions parse error(syntax error or field not exist in mapper) (( ( id = '1' and name = 'name1' and age = '11' ) and (id,name,age) in (('5','name5','15'),('6','name6','16')) ))"
-            }
-        ],
-        "reserved_field_1": null,
-        "reserved_field_2": null
-    }
-}</t>
   </si>
   <si>
     <t>{
@@ -9752,20 +9384,6 @@
   }</t>
   </si>
   <si>
-    <t>{
-    "UserWithHeaderForRestfulEnhance_Update_By_Condition": {
-        "json_value": [
-            {
-                "code": 1,
-                "data": "Conditions parse error(syntax error or field not exist in mapper) (( id = '1' and name = 'name1' and age = '11' and abc = '55' ))"
-            }
-        ],
-        "reserved_field_1": null,
-        "reserved_field_2": null
-    }
-}</t>
-  </si>
-  <si>
     <t xml:space="preserve"> {
     "UserWithHeaderForRestfulEnhance_Update_By_Condition": {
       "json_value": [
@@ -9778,20 +9396,6 @@
       "reserved_field_2": null
     }
   }</t>
-  </si>
-  <si>
-    <t>{
-    "UserWithHeaderForRestfulEnhance_Update_By_Condition": {
-        "json_value": [
-            {
-                "code": 1,
-                "data": "Conditions parse error(syntax error or field not exist in mapper) (( ( id = '1' and name = 'name1' and age = '11' ) and (id,name,age) in (('5','name5','15'),('6','name6','16')) ))"
-            }
-        ],
-        "reserved_field_1": null,
-        "reserved_field_2": null
-    }
-}</t>
   </si>
   <si>
     <t>{
@@ -9897,34 +9501,6 @@
         "json_value": [
             {
                 "code": 1,
-                "data": "Conditions parse error(syntax error or field not exist in mapper) (id in ())"
-            }
-        ],
-        "reserved_field_1": null,
-        "reserved_field_2": null
-    }
-}</t>
-  </si>
-  <si>
-    <t>{
-    "UserForRestfulEnhance_Delete_By_Condition": {
-        "json_value": [
-            {
-                "code": 1,
-                "data": "Conditions parse error(syntax error or field not exist in mapper) (ids in ('1','2','3'))"
-            }
-        ],
-        "reserved_field_1": null,
-        "reserved_field_2": null
-    }
-}</t>
-  </si>
-  <si>
-    <t>{
-    "UserForRestfulEnhance_Delete_By_Condition": {
-        "json_value": [
-            {
-                "code": 1,
                 "data": "Conditions parse error(syntax error or field not exist in mapper) (id not in ('1','2','3'))"
             }
         ],
@@ -9960,20 +9536,6 @@
       "reserved_field_2": null
     }
   }</t>
-  </si>
-  <si>
-    <t>{
-    "UserForRestfulEnhance_Delete_By_Condition": {
-        "json_value": [
-            {
-                "code": 1,
-                "data": "Conditions parse error(syntax error or field not exist in mapper) ((id,name) in ())"
-            }
-        ],
-        "reserved_field_1": null,
-        "reserved_field_2": null
-    }
-}</t>
   </si>
   <si>
     <t>{
@@ -10048,20 +9610,6 @@
   <si>
     <t>{
     "UserWithBodyForRestfulEnhance_Delete_By_Condition": {
-        "json_value": [
-            {
-                "code": 1,
-                "data": "Conditions parse error(syntax error or field not exist in mapper) (( id = '1' and name = 'name1' and age = '11' and abc = '55' ))"
-            }
-        ],
-        "reserved_field_1": null,
-        "reserved_field_2": null
-    }
-}</t>
-  </si>
-  <si>
-    <t>{
-    "UserWithBodyForRestfulEnhance_Delete_By_Condition": {
       "json_value": [
         {
           "code": 0,
@@ -10132,20 +9680,6 @@
   <si>
     <t>{
     "UserWithQueryForRestfulEnhance_Delete_By_Condition": {
-        "json_value": [
-            {
-                "code": 1,
-                "data": "Conditions parse error(syntax error or field not exist in mapper) (( id = '1' and name = 'name1' and age = '11' and abc = '55' ))"
-            }
-        ],
-        "reserved_field_1": null,
-        "reserved_field_2": null
-    }
-}</t>
-  </si>
-  <si>
-    <t>{
-    "UserWithQueryForRestfulEnhance_Delete_By_Condition": {
       "json_value": [
         {
           "code": 0,
@@ -10233,20 +9767,6 @@
       "json_value": [
         {
           "code": 1,
-          "data": "Conditions parse error(syntax error or field not exist in mapper) (( id = '1' and name = 'name1' and age = '11' and abc = '55' ))"
-        }
-      ],
-      "reserved_field_1": null,
-      "reserved_field_2": null
-    }
-  }</t>
-  </si>
-  <si>
-    <t>{
-    "UserWithHeaderForRestfulEnhance_Delete_By_Condition": {
-      "json_value": [
-        {
-          "code": 1,
           "data": "Conditions parse error(syntax error or field not exist in mapper) (( ( id = '1' and name = 'name1' and age = '11' ) and (id,name,age) in (('5','name5','15'),('6','name6','16')) ))"
         }
       ],
@@ -10271,20 +9791,6 @@
   </si>
   <si>
     <t>{
-    "UserWithHeaderForRestfulEnhance_Delete_By_Condition": {
-      "json_value": [
-        {
-          "code": 1,
-          "data": "{firstUserBasicInfo={\"id\":\"5\",\"name\":\"name5\",\"age\":\"15\"}}||{UserBasicInfoForRestfulEnhance={\"id\":\"6\",\"name\":\"name6\",\"age\":\"16\"}}||body/path template parse error"
-        }
-      ],
-      "reserved_field_1": null,
-      "reserved_field_2": null
-    }
-  }</t>
-  </si>
-  <si>
-    <t>{
     "UserForRestfulEnhance_Insert": {
       "json_value": [
         {
@@ -10310,6 +9816,316 @@
       "reserved_field_2": null
     }
   }</t>
+  </si>
+  <si>
+    <t>bad request,delete one entity of
+basic auth type:success
+oauth auth type:fail
+cookie auth type:success
+token auth type:success</t>
+  </si>
+  <si>
+    <t>bad request,delete one entity of
+basic auth type:success
+oauth auth type:success
+cookie auth type:fail
+token auth type:success</t>
+  </si>
+  <si>
+    <t>bad request,delete one entity of
+basic auth type:success
+oauth auth type:success
+cookie auth type:success
+token auth type:fail</t>
+  </si>
+  <si>
+    <t>{
+    "UserWithHeaderForRestfulEnhance_Delete_By_Condition": {
+      "json_value": [
+        {
+          "code": 0,
+          "data": "{firstUserBasicInfo={\"id\":\"2\",\"name\":\"name2\",\"age\":\"12\"}}||{firstUserBasicInfo={\"id\":\"1\",\"name\":\"name1\",\"age\":\"11\"}}"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>{
+    "UserWithHeaderForRestfulEnhance_Delete_By_Condition": {
+      "json_value": [
+        {
+          "code": 1,
+          "data": "{firstUserBasicInfo={\"id\":\"5\",\"name\":\"name5\",\"age\":\"15\"}}||{firstUserBasicInfo={\"id\":\"6\",\"name\":\"name6\",\"age\":\"16\"}}||body/path template parse error"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>iot-testMultiDataSource-test-12</t>
+  </si>
+  <si>
+    <t>Connector execution fail with code: 106217 exception: Conditions parse error(syntax error or field not exist in mapper)</t>
+  </si>
+  <si>
+    <t>{
+    "UserForRestfulEnhance_Update_By_Condition": {
+        "json_value": [
+            {
+                "code": 1,
+                "data": "Conditions parse error(syntax error or field not exist in mapper) (\"ID\" NOT IN ('1', '2', '3'))"
+            }
+        ],
+        "reserved_field_1": null,
+        "reserved_field_2": null
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "UserForRestfulEnhance_Update_By_Condition": {
+        "json_value": [
+            {
+                "code": 1,
+                "data": "Conditions parse error(syntax error or field not exist in mapper) (\"ID\" = '1' AND \"ID\" IN ('2', '3'))"
+            }
+        ],
+        "reserved_field_1": null,
+        "reserved_field_2": null
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "UserWithBodyForRestfulEnhance_Update_By_Condition": {
+        "json_value": [
+            {
+                "code": 1,
+                "data": "Conditions parse error(syntax error or field not exist in mapper) (\"ID\" = '1' AND \"NAME\" = 'name1' AND \"AGE\" = '11' AND(\"ID\", \"NAME\", \"AGE\") IN (('5', 'name5', '15'),('6', 'name6', '16')))"
+            }
+        ],
+        "reserved_field_1": null,
+        "reserved_field_2": null
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "UserWithQueryForRestfulEnhance_Update_By_Condition": {
+        "json_value": [
+            {
+                "code": 1,
+                "data": "Conditions parse error(syntax error or field not exist in mapper) (\"ID\" = '1' AND \"NAME\" = 'name1' AND \"AGE\" = '11' AND(\"ID\", \"NAME\", \"AGE\") IN (('5', 'name5', '15'),('6', 'name6', '16')))"
+            }
+        ],
+        "reserved_field_1": null,
+        "reserved_field_2": null
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "UserWithHeaderForRestfulEnhance_Update_By_Condition": {
+        "json_value": [
+            {
+                "code": 1,
+                "data": "Conditions parse error(syntax error or field not exist in mapper) (\"ID\" = '1' AND \"NAME\" = 'name1' AND \"AGE\" = '11' AND(\"ID\", \"NAME\", \"AGE\") IN (('5', 'name5', '15'),('6', 'name6', '16')))"
+            }
+        ],
+        "reserved_field_1": null,
+        "reserved_field_2": null
+    }
+}</t>
+  </si>
+  <si>
+    <t>iot-testMultiDataSource-test-3</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   entityWithRestfulMysql_Insert(input:
+	[
+        {
+          id: "1",
+          name: "name1",
+          age: "11",
+          ID1: 1,
+         deviceName: "switch",
+         login_time: "2021-01-01T00:00:00",
+         score: "95",
+         supplier: "cisco",
+         operator: "lilei"
+        }
+    ]
+    )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   entityWithRestfulMysql_Delete_By_Condition(cond: "{_and:[{id: {_eq: 1}},{ID1:  {_eq: 1}}]}")
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   entityWithRestfulMysql_Insert(input:
+	[
+        {
+         id: "1",
+         name: "name1",
+         age: "11",
+         ID1: 1,
+         deviceName: "switch",
+         login_time: "2021-01-01T00:00:00",
+         score: "95",
+         supplier: "cisco",
+         operator: "lilei"
+        }
+    ]
+    )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   entityWithRestfulMysql_Update_By_Condition(input:
+   [
+       {
+          name: "name1UPDATE",
+          deviceName: "switchUPDATE"
+       }
+   ],
+    cond: "{_and:[{id: {_eq: 1}},{ID1:  {_eq: 1}}]}"
+   )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "entityWithRestfulMysql_Delete_By_Condition": {
+        "json_value": [
+            {
+                "code": 0,
+                "data": "true||{firstUserBasicInfo={\"id\":\"1\",\"name\":\"name1\",\"age\":\"11\"}}"
+            }
+        ],
+        "reserved_field_1": null,
+        "reserved_field_2": null
+    }
+}</t>
+  </si>
+  <si>
+    <t>iot-testMultiDataSource-test-7</t>
+  </si>
+  <si>
+    <t>{entityWithRestfulPostgreSQL(cond:"{_and:[{id: {_eq: 1}},{id1: {_eq: 1}}]}") {id name age id1 name1 age1 signed}}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   entityWithRestfulPostgreSQL_Delete_By_Condition(cond: "{\"(id,id1)\": {_in: [\"(1,1)\",\"(2,2)\",\"(3,3)\",\"(4,4)\",\"(5,5)\",\"(6,6)\"]}}")
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   entityWithRestfulPostgreSQL_Update_By_Condition(input:
+   [
+       {
+          name: "name1UPDATE",
+          name1: "name1UPDATE"
+       }
+   ],
+    cond: "{_and:[{id: {_eq: 1}},{id1:  {_eq: 1}}]}"
+   )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "entityWithRestfulPostgreSQL_Update_By_Condition": {
+        "json_value": [
+            {
+                "code": 0,
+                "data": "true||{firstUserBasicInfo={\"id\":\"1\",\"name\":\"name1\",\"age\":\"11\"}}"
+            }
+        ],
+        "reserved_field_1": null,
+        "reserved_field_2": null
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   entityWithRestfulPostgreSQL_Delete_By_Condition(cond: "{_and:[{id: {_eq: 1}},{id1:  {_eq: 1}}]}")
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "entityWithRestfulPostgreSQL_Delete_By_Condition": {
+        "json_value": [
+            {
+                "code": 0,
+                "data": "true||{firstUserBasicInfo={\"id\":\"1\",\"name\":\"name1\",\"age\":\"11\"}}"
+            }
+        ],
+        "reserved_field_1": null,
+        "reserved_field_2": null
+    }
+}</t>
+  </si>
+  <si>
+    <t>{entityWithRestfulMysql(cond:"{_and:[{id: {_eq: 1}},{ID1:  {_eq: 1}}]}", authInfo:"", order:""){id,name,age,ID1 ,deviceName,login_time,score,supplier,operator}}</t>
+  </si>
+  <si>
+    <t>{
+    "entityWithRestfulMysql": [
+        {
+            "score": 95,
+            "login_time": "2021-01-01T00:00:00",
+            "ID1": 1,
+            "supplier": "cisco",
+            "name": "name1",
+            "id": "1",
+            "deviceName": "switch",
+            "age": "11",
+            "operator": "lilei"
+        }
+    ]
+}</t>
   </si>
 </sst>
 </file>
@@ -11025,52 +10841,52 @@
         <v>397</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>110</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8" t="s">
+        <v>640</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>642</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="F2" s="8">
+        <v>200</v>
+      </c>
+      <c r="G2" s="8">
+        <v>100000</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>643</v>
+      </c>
+      <c r="J2" s="8" t="s">
         <v>644</v>
-      </c>
-      <c r="F2" s="8">
-        <v>200</v>
-      </c>
-      <c r="G2" s="8">
-        <v>100000</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>645</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>131</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="F3" s="8">
         <v>200</v>
@@ -11082,25 +10898,25 @@
         <v>10</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="F4" s="8">
         <v>200</v>
@@ -11109,24 +10925,24 @@
         <v>101403</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="I4" s="9"/>
       <c r="J4" s="8"/>
     </row>
     <row r="5" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="F5" s="8">
         <v>200</v>
@@ -11142,17 +10958,17 @@
     </row>
     <row r="6" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="F6" s="8">
         <v>200</v>
@@ -11168,17 +10984,17 @@
     </row>
     <row r="7" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="F7" s="8">
         <v>200</v>
@@ -11194,20 +11010,20 @@
     </row>
     <row r="8" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>111</v>
       </c>
       <c r="C8" s="8" t="s">
+        <v>640</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>655</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>642</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>657</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>644</v>
-      </c>
       <c r="F8" s="8">
         <v>200</v>
       </c>
@@ -11218,27 +11034,27 @@
         <v>10</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>132</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="F9" s="8">
         <v>200</v>
@@ -11250,25 +11066,25 @@
         <v>10</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="F10" s="8">
         <v>200</v>
@@ -11284,17 +11100,17 @@
     </row>
     <row r="11" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>92</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="8" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="F11" s="8">
         <v>200</v>
@@ -11310,17 +11126,17 @@
     </row>
     <row r="12" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>95</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="F12" s="8">
         <v>200</v>
@@ -11336,17 +11152,17 @@
     </row>
     <row r="13" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="F13" s="8">
         <v>200</v>
@@ -11362,17 +11178,17 @@
     </row>
     <row r="14" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="8" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="F14" s="8">
         <v>200</v>
@@ -11384,25 +11200,25 @@
         <v>10</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="J14" s="8"/>
     </row>
     <row r="15" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>117</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="F15" s="8">
         <v>200</v>
@@ -11414,27 +11230,27 @@
         <v>10</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>151</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="F16" s="8">
         <v>200</v>
@@ -11446,27 +11262,27 @@
         <v>10</v>
       </c>
       <c r="I16" s="9" t="s">
+        <v>694</v>
+      </c>
+      <c r="J16" s="8" t="s">
         <v>696</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>698</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>160</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="F17" s="8">
         <v>200</v>
@@ -11478,27 +11294,27 @@
         <v>10</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>170</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="F18" s="8">
         <v>200</v>
@@ -11510,27 +11326,27 @@
         <v>10</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>172</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="F19" s="8">
         <v>200</v>
@@ -11542,27 +11358,27 @@
         <v>10</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>179</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="F20" s="8">
         <v>200</v>
@@ -11574,27 +11390,27 @@
         <v>10</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>184</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="F21" s="8">
         <v>200</v>
@@ -11606,27 +11422,27 @@
         <v>10</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>191</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="F22" s="8">
         <v>200</v>
@@ -11638,27 +11454,27 @@
         <v>10</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>231</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="F23" s="8">
         <v>200</v>
@@ -11670,27 +11486,27 @@
         <v>10</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>203</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="F24" s="8">
         <v>200</v>
@@ -11702,27 +11518,27 @@
         <v>10</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>212</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="F25" s="8">
         <v>200</v>
@@ -11734,59 +11550,59 @@
         <v>10</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>219</v>
       </c>
       <c r="C26" s="8" t="s">
+        <v>711</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>758</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>642</v>
+      </c>
+      <c r="F26" s="8">
+        <v>200</v>
+      </c>
+      <c r="G26" s="8">
+        <v>100000</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>694</v>
+      </c>
+      <c r="J26" s="8" t="s">
         <v>713</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>760</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>644</v>
-      </c>
-      <c r="F26" s="8">
-        <v>200</v>
-      </c>
-      <c r="G26" s="8">
-        <v>100000</v>
-      </c>
-      <c r="H26" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="I26" s="9" t="s">
-        <v>696</v>
-      </c>
-      <c r="J26" s="8" t="s">
-        <v>715</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>112</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="F27" s="8">
         <v>200</v>
@@ -11798,27 +11614,27 @@
         <v>10</v>
       </c>
       <c r="I27" s="9" t="s">
+        <v>715</v>
+      </c>
+      <c r="J27" s="8" t="s">
         <v>717</v>
-      </c>
-      <c r="J27" s="8" t="s">
-        <v>719</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>143</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="F28" s="8">
         <v>200</v>
@@ -11830,27 +11646,27 @@
         <v>10</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="J28" s="8" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="F29" s="8">
         <v>200</v>
@@ -11862,27 +11678,27 @@
         <v>10</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="J29" s="8" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>149</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="F30" s="8">
         <v>200</v>
@@ -11894,59 +11710,59 @@
         <v>10</v>
       </c>
       <c r="I30" s="9" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="J30" s="8" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>154</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="E31" s="8" t="s">
+        <v>642</v>
+      </c>
+      <c r="F31" s="8">
+        <v>200</v>
+      </c>
+      <c r="G31" s="8">
+        <v>100000</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I31" s="9" t="s">
+        <v>728</v>
+      </c>
+      <c r="J31" s="8" t="s">
         <v>644</v>
-      </c>
-      <c r="F31" s="8">
-        <v>200</v>
-      </c>
-      <c r="G31" s="8">
-        <v>100000</v>
-      </c>
-      <c r="H31" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="I31" s="9" t="s">
-        <v>730</v>
-      </c>
-      <c r="J31" s="8" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>161</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="F32" s="8">
         <v>200</v>
@@ -11958,27 +11774,27 @@
         <v>10</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="J32" s="8" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>167</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="F33" s="8">
         <v>200</v>
@@ -11990,27 +11806,27 @@
         <v>10</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="J33" s="8" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>175</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="F34" s="8">
         <v>200</v>
@@ -12022,27 +11838,27 @@
         <v>10</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="J34" s="8" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="8" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B35" s="8" t="s">
         <v>181</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="F35" s="8">
         <v>200</v>
@@ -12054,27 +11870,27 @@
         <v>10</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="J35" s="8" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="B36" s="8" t="s">
         <v>186</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="F36" s="8">
         <v>200</v>
@@ -12086,27 +11902,27 @@
         <v>10</v>
       </c>
       <c r="I36" s="9" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="J36" s="8" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="8" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>193</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="F37" s="8">
         <v>200</v>
@@ -12118,27 +11934,27 @@
         <v>10</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="J37" s="8" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="B38" s="8" t="s">
         <v>199</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="F38" s="8">
         <v>200</v>
@@ -12150,27 +11966,27 @@
         <v>10</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="J38" s="8" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="8" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="B39" s="8" t="s">
         <v>207</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="F39" s="8">
         <v>200</v>
@@ -12182,27 +11998,27 @@
         <v>10</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="J39" s="8" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="B40" s="8" t="s">
         <v>217</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="F40" s="8">
         <v>200</v>
@@ -12214,27 +12030,27 @@
         <v>10</v>
       </c>
       <c r="I40" s="9" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="J40" s="8" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="B41" s="8" t="s">
         <v>232</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="F41" s="8">
         <v>200</v>
@@ -12246,10 +12062,10 @@
         <v>10</v>
       </c>
       <c r="I41" s="9" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="J41" s="8" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
   </sheetData>
@@ -12304,48 +12120,48 @@
     </row>
     <row r="2" spans="1:7" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
+        <v>813</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>816</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>814</v>
+      </c>
+      <c r="D2" s="4">
+        <v>200</v>
+      </c>
+      <c r="E2" s="4">
+        <v>100000</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>815</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>818</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>816</v>
-      </c>
-      <c r="D2" s="4">
-        <v>200</v>
-      </c>
-      <c r="E2" s="4">
-        <v>100000</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>817</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
+        <v>817</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>816</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>818</v>
+      </c>
+      <c r="D3" s="4">
+        <v>200</v>
+      </c>
+      <c r="E3" s="4">
+        <v>100000</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>819</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>818</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>820</v>
-      </c>
-      <c r="D3" s="4">
-        <v>200</v>
-      </c>
-      <c r="E3" s="4">
-        <v>100000</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>821</v>
       </c>
     </row>
   </sheetData>
@@ -12357,11 +12173,11 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86602840-EDA1-43EA-A4AB-F78276618C77}">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -12371,9 +12187,9 @@
     <col min="3" max="3" width="31.88671875" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="46.109375" style="6" customWidth="1"/>
     <col min="5" max="5" width="44.21875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="7.33203125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="10.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" style="6" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="7.33203125" style="6" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="10.21875" style="6" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="48.5546875" style="6" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="8.88671875" style="6"/>
   </cols>
@@ -12392,7 +12208,7 @@
         <v>121</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>843</v>
+        <v>836</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>3</v>
@@ -12409,14 +12225,14 @@
     </row>
     <row r="2" spans="1:9" ht="112.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4">
@@ -12429,19 +12245,19 @@
         <v>10</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="112.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4">
@@ -12454,19 +12270,19 @@
         <v>10</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="112.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>830</v>
+        <v>1068</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4">
@@ -12479,19 +12295,19 @@
         <v>10</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="112.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4" t="s">
-        <v>838</v>
+        <v>829</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4">
@@ -12504,21 +12320,25 @@
         <v>10</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>839</v>
+        <v>830</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="112.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
+        <v>835</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>841</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>840</v>
-      </c>
-      <c r="C6" s="4"/>
+      <c r="C6" s="4" t="s">
+        <v>1071</v>
+      </c>
       <c r="D6" s="4" t="s">
-        <v>835</v>
-      </c>
-      <c r="E6" s="4"/>
+        <v>1081</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>837</v>
+      </c>
       <c r="F6" s="4">
         <v>200</v>
       </c>
@@ -12529,24 +12349,22 @@
         <v>10</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>836</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="112.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>845</v>
+        <v>838</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>851</v>
-      </c>
-      <c r="C7" s="4" t="s">
         <v>842</v>
       </c>
+      <c r="C7" s="4"/>
       <c r="D7" s="4" t="s">
-        <v>846</v>
+        <v>1069</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>844</v>
+        <v>837</v>
       </c>
       <c r="F7" s="4">
         <v>200</v>
@@ -12558,22 +12376,24 @@
         <v>10</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="112.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>848</v>
+        <v>1074</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>852</v>
-      </c>
-      <c r="C8" s="4"/>
+        <v>844</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>1071</v>
+      </c>
       <c r="D8" s="4" t="s">
-        <v>842</v>
+        <v>1072</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>844</v>
+        <v>837</v>
       </c>
       <c r="F8" s="4">
         <v>200</v>
@@ -12585,24 +12405,24 @@
         <v>10</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>853</v>
+        <v>845</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="112.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>849</v>
+        <v>839</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>854</v>
+        <v>846</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>842</v>
+        <v>1071</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>855</v>
+        <v>1070</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>844</v>
+        <v>837</v>
       </c>
       <c r="F9" s="4">
         <v>200</v>
@@ -12614,24 +12434,24 @@
         <v>10</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>856</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="112.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>850</v>
+        <v>840</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>857</v>
+        <v>990</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>842</v>
+        <v>991</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>859</v>
+        <v>1075</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>844</v>
+        <v>1076</v>
       </c>
       <c r="F10" s="4">
         <v>200</v>
@@ -12643,19 +12463,23 @@
         <v>10</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>858</v>
+        <v>988</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="112.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>861</v>
+        <v>847</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>860</v>
+        <v>992</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
+      <c r="D11" s="4" t="s">
+        <v>991</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>1076</v>
+      </c>
       <c r="F11" s="4">
         <v>200</v>
       </c>
@@ -12665,23 +12489,25 @@
       <c r="H11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I11" s="4"/>
+      <c r="I11" s="4" t="s">
+        <v>995</v>
+      </c>
     </row>
     <row r="12" spans="1:9" ht="112.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>1005</v>
+        <v>989</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>1006</v>
+        <v>993</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>1007</v>
+        <v>991</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>1002</v>
+        <v>1077</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>1004</v>
+        <v>1076</v>
       </c>
       <c r="F12" s="4">
         <v>200</v>
@@ -12693,20 +12519,24 @@
         <v>10</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>1003</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="112.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
+      <c r="A13" s="4" t="s">
+        <v>1061</v>
+      </c>
       <c r="B13" s="4" t="s">
-        <v>1008</v>
-      </c>
-      <c r="C13" s="4"/>
+        <v>994</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>991</v>
+      </c>
       <c r="D13" s="4" t="s">
-        <v>1007</v>
+        <v>1079</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>1004</v>
+        <v>1076</v>
       </c>
       <c r="F13" s="4">
         <v>200</v>
@@ -12718,81 +12548,8 @@
         <v>10</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="112.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4" t="s">
-        <v>1009</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>1007</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>1013</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>1004</v>
-      </c>
-      <c r="F14" s="4">
-        <v>200</v>
-      </c>
-      <c r="G14" s="4">
-        <v>100000</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="112.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4" t="s">
-        <v>1010</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>1007</v>
-      </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4" t="s">
-        <v>1004</v>
-      </c>
-      <c r="F15" s="4">
-        <v>200</v>
-      </c>
-      <c r="G15" s="4">
-        <v>100000</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I15" s="4"/>
-    </row>
-    <row r="16" spans="1:9" ht="112.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4" t="s">
-        <v>1011</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>1007</v>
-      </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4" t="s">
-        <v>1004</v>
-      </c>
-      <c r="F16" s="4">
-        <v>200</v>
-      </c>
-      <c r="G16" s="4">
-        <v>100000</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I16" s="4"/>
+        <v>1080</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -12805,7 +12562,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -13044,7 +12801,7 @@
         <v>101403</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>1017</v>
+        <v>998</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>53</v>
@@ -13098,7 +12855,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>1015</v>
+        <v>996</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>238</v>
@@ -13121,7 +12878,7 @@
     </row>
     <row r="14" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>1016</v>
+        <v>997</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>241</v>
@@ -13322,7 +13079,7 @@
         <v>64</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8" t="s">
@@ -13352,7 +13109,7 @@
         <v>65</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8" t="s">
@@ -13382,7 +13139,7 @@
         <v>66</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8" t="s">
@@ -13412,7 +13169,7 @@
         <v>67</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="8" t="s">
@@ -14733,8 +14490,8 @@
   <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -14979,7 +14736,7 @@
         <v>101403</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
@@ -15188,7 +14945,7 @@
         <v>94</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>138</v>
@@ -15207,7 +14964,7 @@
         <v>101403</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="K14" s="8"/>
       <c r="L14" s="4"/>
@@ -17395,8 +17152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAD7C303-AF77-4B95-95EB-BAA32E85C8DA}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="38.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -17875,7 +17632,7 @@
         <v>383</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>376</v>
+        <v>1056</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>355</v>
@@ -17910,7 +17667,7 @@
         <v>384</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>377</v>
+        <v>1057</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>356</v>
@@ -17945,7 +17702,7 @@
         <v>385</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>378</v>
+        <v>1058</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>357</v>
@@ -17986,19 +17743,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FD7D6DE-617D-4A49-9D87-297640E0E1DC}">
   <dimension ref="A1:H141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.33203125" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.88671875" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.6640625" style="6" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="50.109375" style="6" customWidth="1"/>
-    <col min="5" max="5" width="8.33203125" style="6" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="7.33203125" style="6" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="17.44140625" style="6" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="17.44140625" style="6" customWidth="1"/>
     <col min="8" max="8" width="51.21875" style="6" customWidth="1"/>
     <col min="9" max="16384" width="8.88671875" style="6"/>
   </cols>
@@ -18031,7 +17788,7 @@
     </row>
     <row r="2" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>862</v>
+        <v>848</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>398</v>
@@ -18057,7 +17814,7 @@
     </row>
     <row r="3" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>863</v>
+        <v>849</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>399</v>
@@ -18083,7 +17840,7 @@
     </row>
     <row r="4" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>864</v>
+        <v>850</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>400</v>
@@ -18109,7 +17866,7 @@
     </row>
     <row r="5" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>865</v>
+        <v>851</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>401</v>
@@ -18135,7 +17892,7 @@
     </row>
     <row r="6" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>866</v>
+        <v>852</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>402</v>
@@ -18159,7 +17916,7 @@
     </row>
     <row r="7" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>867</v>
+        <v>853</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>404</v>
@@ -18177,13 +17934,13 @@
         <v>101403</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>1018</v>
+        <v>999</v>
       </c>
       <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>868</v>
+        <v>854</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>406</v>
@@ -18207,7 +17964,7 @@
     </row>
     <row r="9" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>869</v>
+        <v>855</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>407</v>
@@ -18233,7 +17990,7 @@
     </row>
     <row r="10" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>870</v>
+        <v>856</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>408</v>
@@ -18259,7 +18016,7 @@
     </row>
     <row r="11" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>871</v>
+        <v>857</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>409</v>
@@ -18285,7 +18042,7 @@
     </row>
     <row r="12" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>872</v>
+        <v>858</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>410</v>
@@ -18311,7 +18068,7 @@
     </row>
     <row r="13" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>873</v>
+        <v>859</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>411</v>
@@ -18335,7 +18092,7 @@
     </row>
     <row r="14" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>874</v>
+        <v>860</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>412</v>
@@ -18361,7 +18118,7 @@
     </row>
     <row r="15" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>875</v>
+        <v>861</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>413</v>
@@ -18387,7 +18144,7 @@
     </row>
     <row r="16" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>876</v>
+        <v>862</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>414</v>
@@ -18413,7 +18170,7 @@
     </row>
     <row r="17" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>877</v>
+        <v>863</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>415</v>
@@ -18439,7 +18196,7 @@
     </row>
     <row r="18" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>878</v>
+        <v>864</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>415</v>
@@ -18465,7 +18222,7 @@
     </row>
     <row r="19" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>879</v>
+        <v>865</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>416</v>
@@ -18491,7 +18248,7 @@
     </row>
     <row r="20" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>880</v>
+        <v>866</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>417</v>
@@ -18517,7 +18274,7 @@
     </row>
     <row r="21" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>418</v>
@@ -18541,7 +18298,7 @@
     </row>
     <row r="22" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>882</v>
+        <v>868</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>418</v>
@@ -18559,13 +18316,13 @@
         <v>101403</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>1019</v>
+        <v>1000</v>
       </c>
       <c r="H22" s="4"/>
     </row>
     <row r="23" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>883</v>
+        <v>869</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>419</v>
@@ -18591,7 +18348,7 @@
     </row>
     <row r="24" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>884</v>
+        <v>870</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>420</v>
@@ -18617,7 +18374,7 @@
     </row>
     <row r="25" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>885</v>
+        <v>871</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>417</v>
@@ -18643,7 +18400,7 @@
     </row>
     <row r="26" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>886</v>
+        <v>872</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>421</v>
@@ -18669,7 +18426,7 @@
     </row>
     <row r="27" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>887</v>
+        <v>873</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>418</v>
@@ -18693,7 +18450,7 @@
     </row>
     <row r="28" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>888</v>
+        <v>874</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>417</v>
@@ -18719,7 +18476,7 @@
     </row>
     <row r="29" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>889</v>
+        <v>875</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>418</v>
@@ -18743,7 +18500,7 @@
     </row>
     <row r="30" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>890</v>
+        <v>876</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>418</v>
@@ -18761,13 +18518,13 @@
         <v>101403</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>1019</v>
+        <v>1000</v>
       </c>
       <c r="H30" s="4"/>
     </row>
     <row r="31" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>891</v>
+        <v>877</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>419</v>
@@ -18793,7 +18550,7 @@
     </row>
     <row r="32" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>892</v>
+        <v>878</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>420</v>
@@ -18819,7 +18576,7 @@
     </row>
     <row r="33" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>893</v>
+        <v>879</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>417</v>
@@ -18845,7 +18602,7 @@
     </row>
     <row r="34" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>894</v>
+        <v>880</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>421</v>
@@ -18871,7 +18628,7 @@
     </row>
     <row r="35" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>895</v>
+        <v>881</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>418</v>
@@ -18895,7 +18652,7 @@
     </row>
     <row r="36" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>896</v>
+        <v>882</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>417</v>
@@ -18921,7 +18678,7 @@
     </row>
     <row r="37" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>897</v>
+        <v>883</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>418</v>
@@ -18945,7 +18702,7 @@
     </row>
     <row r="38" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>898</v>
+        <v>884</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>418</v>
@@ -18963,13 +18720,13 @@
         <v>101403</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>1019</v>
+        <v>1000</v>
       </c>
       <c r="H38" s="4"/>
     </row>
     <row r="39" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>899</v>
+        <v>885</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>419</v>
@@ -18995,7 +18752,7 @@
     </row>
     <row r="40" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>900</v>
+        <v>886</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>420</v>
@@ -19021,7 +18778,7 @@
     </row>
     <row r="41" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>901</v>
+        <v>887</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>417</v>
@@ -19047,7 +18804,7 @@
     </row>
     <row r="42" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>902</v>
+        <v>888</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>421</v>
@@ -19073,7 +18830,7 @@
     </row>
     <row r="43" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>903</v>
+        <v>889</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>418</v>
@@ -19097,7 +18854,7 @@
     </row>
     <row r="44" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>904</v>
+        <v>890</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>422</v>
@@ -19118,12 +18875,12 @@
         <v>10</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>1091</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>905</v>
+        <v>891</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>422</v>
@@ -19144,12 +18901,12 @@
         <v>10</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>1092</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>906</v>
+        <v>892</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>423</v>
@@ -19175,7 +18932,7 @@
     </row>
     <row r="47" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
-        <v>907</v>
+        <v>893</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>424</v>
@@ -19199,7 +18956,7 @@
     </row>
     <row r="48" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
-        <v>908</v>
+        <v>894</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>422</v>
@@ -19220,12 +18977,12 @@
         <v>10</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>1020</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
-        <v>909</v>
+        <v>895</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>422</v>
@@ -19246,12 +19003,12 @@
         <v>10</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>1021</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
-        <v>910</v>
+        <v>896</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>425</v>
@@ -19272,12 +19029,12 @@
         <v>10</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>1022</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
-        <v>911</v>
+        <v>897</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>426</v>
@@ -19298,12 +19055,12 @@
         <v>10</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>1023</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
-        <v>912</v>
+        <v>898</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>427</v>
@@ -19324,12 +19081,12 @@
         <v>10</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>1024</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
-        <v>913</v>
+        <v>899</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>427</v>
@@ -19350,12 +19107,12 @@
         <v>10</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>1025</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
-        <v>914</v>
+        <v>900</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>428</v>
@@ -19376,12 +19133,12 @@
         <v>10</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>1026</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>915</v>
+        <v>901</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>429</v>
@@ -19396,18 +19153,16 @@
         <v>200</v>
       </c>
       <c r="F55" s="4">
-        <v>100000</v>
+        <v>101403</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H55" s="4" t="s">
-        <v>1027</v>
-      </c>
+        <v>1062</v>
+      </c>
+      <c r="H55" s="4"/>
     </row>
     <row r="56" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
-        <v>916</v>
+        <v>902</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>429</v>
@@ -19422,18 +19177,16 @@
         <v>200</v>
       </c>
       <c r="F56" s="4">
-        <v>100000</v>
+        <v>101403</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H56" s="4" t="s">
-        <v>1028</v>
-      </c>
+        <v>1062</v>
+      </c>
+      <c r="H56" s="4"/>
     </row>
     <row r="57" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
-        <v>917</v>
+        <v>903</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>429</v>
@@ -19454,12 +19207,12 @@
         <v>10</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>1029</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
-        <v>918</v>
+        <v>904</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>430</v>
@@ -19480,12 +19233,12 @@
         <v>10</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>1030</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
-        <v>919</v>
+        <v>905</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>430</v>
@@ -19506,12 +19259,12 @@
         <v>10</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>1031</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
-        <v>920</v>
+        <v>906</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>431</v>
@@ -19532,12 +19285,12 @@
         <v>10</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>1032</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
-        <v>921</v>
+        <v>907</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>432</v>
@@ -19558,12 +19311,12 @@
         <v>10</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>1026</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
-        <v>922</v>
+        <v>908</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>433</v>
@@ -19578,18 +19331,16 @@
         <v>200</v>
       </c>
       <c r="F62" s="4">
-        <v>100000</v>
+        <v>101403</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H62" s="4" t="s">
-        <v>1033</v>
-      </c>
+        <v>1062</v>
+      </c>
+      <c r="H62" s="4"/>
     </row>
     <row r="63" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
-        <v>923</v>
+        <v>909</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>434</v>
@@ -19610,12 +19361,12 @@
         <v>10</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>1024</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
-        <v>924</v>
+        <v>910</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>435</v>
@@ -19636,12 +19387,12 @@
         <v>10</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>1034</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
-        <v>925</v>
+        <v>911</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>436</v>
@@ -19662,12 +19413,12 @@
         <v>10</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>1035</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
-        <v>926</v>
+        <v>912</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>437</v>
@@ -19688,12 +19439,12 @@
         <v>10</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>1031</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
-        <v>927</v>
+        <v>913</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>437</v>
@@ -19714,12 +19465,12 @@
         <v>10</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>1023</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
-        <v>928</v>
+        <v>914</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>438</v>
@@ -19740,12 +19491,12 @@
         <v>10</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>1036</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
-        <v>929</v>
+        <v>915</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>425</v>
@@ -19766,12 +19517,12 @@
         <v>10</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>1037</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
-        <v>930</v>
+        <v>916</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>439</v>
@@ -19792,12 +19543,12 @@
         <v>10</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>1038</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
-        <v>931</v>
+        <v>917</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>440</v>
@@ -19823,7 +19574,7 @@
     </row>
     <row r="72" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
-        <v>932</v>
+        <v>918</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>440</v>
@@ -19838,18 +19589,16 @@
         <v>200</v>
       </c>
       <c r="F72" s="4">
-        <v>100000</v>
+        <v>101403</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H72" s="4" t="s">
-        <v>1039</v>
-      </c>
+        <v>1062</v>
+      </c>
+      <c r="H72" s="4"/>
     </row>
     <row r="73" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
-        <v>933</v>
+        <v>919</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>441</v>
@@ -19870,12 +19619,12 @@
         <v>10</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>1040</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
-        <v>934</v>
+        <v>920</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>440</v>
@@ -19896,12 +19645,12 @@
         <v>10</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>1041</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
-        <v>935</v>
+        <v>921</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>439</v>
@@ -19922,12 +19671,12 @@
         <v>10</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>1038</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
-        <v>936</v>
+        <v>922</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>442</v>
@@ -19948,12 +19697,12 @@
         <v>10</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>1042</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
-        <v>937</v>
+        <v>923</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>443</v>
@@ -19974,12 +19723,12 @@
         <v>10</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>1043</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
-        <v>938</v>
+        <v>924</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>425</v>
@@ -20000,12 +19749,12 @@
         <v>10</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>1044</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
-        <v>939</v>
+        <v>925</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>439</v>
@@ -20026,12 +19775,12 @@
         <v>10</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>1045</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
-        <v>940</v>
+        <v>926</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>440</v>
@@ -20057,7 +19806,7 @@
     </row>
     <row r="81" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
-        <v>941</v>
+        <v>927</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>440</v>
@@ -20072,18 +19821,16 @@
         <v>200</v>
       </c>
       <c r="F81" s="4">
-        <v>100000</v>
+        <v>101403</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H81" s="4" t="s">
-        <v>1046</v>
-      </c>
+        <v>1062</v>
+      </c>
+      <c r="H81" s="4"/>
     </row>
     <row r="82" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
-        <v>942</v>
+        <v>928</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>441</v>
@@ -20104,12 +19851,12 @@
         <v>10</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>1047</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
-        <v>943</v>
+        <v>929</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>443</v>
@@ -20130,12 +19877,12 @@
         <v>10</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>1048</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
-        <v>944</v>
+        <v>930</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>439</v>
@@ -20156,12 +19903,12 @@
         <v>10</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>638</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
-        <v>945</v>
+        <v>931</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>442</v>
@@ -20182,12 +19929,12 @@
         <v>10</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>1049</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
-        <v>946</v>
+        <v>932</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>443</v>
@@ -20208,12 +19955,12 @@
         <v>10</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>1050</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
-        <v>947</v>
+        <v>933</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>425</v>
@@ -20234,12 +19981,12 @@
         <v>10</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>1051</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
-        <v>948</v>
+        <v>934</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>439</v>
@@ -20260,12 +20007,12 @@
         <v>10</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>1052</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
-        <v>949</v>
+        <v>935</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>440</v>
@@ -20291,7 +20038,7 @@
     </row>
     <row r="90" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
-        <v>950</v>
+        <v>936</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>440</v>
@@ -20306,18 +20053,16 @@
         <v>200</v>
       </c>
       <c r="F90" s="4">
-        <v>100000</v>
+        <v>101403</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H90" s="4" t="s">
-        <v>1053</v>
-      </c>
+        <v>1062</v>
+      </c>
+      <c r="H90" s="4"/>
     </row>
     <row r="91" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
-        <v>951</v>
+        <v>937</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>441</v>
@@ -20338,12 +20083,12 @@
         <v>10</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>1054</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="4" t="s">
-        <v>952</v>
+        <v>938</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>440</v>
@@ -20364,12 +20109,12 @@
         <v>10</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>1055</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
-        <v>953</v>
+        <v>939</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>439</v>
@@ -20390,12 +20135,12 @@
         <v>10</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>1052</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
-        <v>954</v>
+        <v>940</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>442</v>
@@ -20416,12 +20161,12 @@
         <v>10</v>
       </c>
       <c r="H94" s="4" t="s">
-        <v>1056</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
-        <v>955</v>
+        <v>941</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>443</v>
@@ -20442,12 +20187,12 @@
         <v>10</v>
       </c>
       <c r="H95" s="4" t="s">
-        <v>1057</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="4" t="s">
-        <v>956</v>
+        <v>942</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>444</v>
@@ -20468,12 +20213,12 @@
         <v>10</v>
       </c>
       <c r="H96" s="4" t="s">
-        <v>1058</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
-        <v>957</v>
+        <v>943</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>445</v>
@@ -20494,12 +20239,12 @@
         <v>10</v>
       </c>
       <c r="H97" s="4" t="s">
-        <v>1059</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
-        <v>958</v>
+        <v>944</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>446</v>
@@ -20520,12 +20265,12 @@
         <v>10</v>
       </c>
       <c r="H98" s="4" t="s">
-        <v>1060</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="4" t="s">
-        <v>959</v>
+        <v>945</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>446</v>
@@ -20546,12 +20291,12 @@
         <v>10</v>
       </c>
       <c r="H99" s="4" t="s">
-        <v>1061</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="4" t="s">
-        <v>960</v>
+        <v>946</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>447</v>
@@ -20572,12 +20317,12 @@
         <v>10</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>1062</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="s">
-        <v>961</v>
+        <v>947</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>448</v>
@@ -20592,18 +20337,16 @@
         <v>200</v>
       </c>
       <c r="F101" s="4">
-        <v>100000</v>
+        <v>101403</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H101" s="4" t="s">
-        <v>1063</v>
-      </c>
+        <v>1062</v>
+      </c>
+      <c r="H101" s="4"/>
     </row>
     <row r="102" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="4" t="s">
-        <v>962</v>
+        <v>948</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>448</v>
@@ -20618,18 +20361,16 @@
         <v>200</v>
       </c>
       <c r="F102" s="4">
-        <v>100000</v>
+        <v>101403</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H102" s="4" t="s">
-        <v>1064</v>
-      </c>
+        <v>1062</v>
+      </c>
+      <c r="H102" s="4"/>
     </row>
     <row r="103" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="4" t="s">
-        <v>963</v>
+        <v>949</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>448</v>
@@ -20650,12 +20391,12 @@
         <v>10</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>1065</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="4" t="s">
-        <v>964</v>
+        <v>950</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>449</v>
@@ -20676,12 +20417,12 @@
         <v>10</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>1066</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="4" t="s">
-        <v>965</v>
+        <v>951</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>449</v>
@@ -20702,12 +20443,12 @@
         <v>10</v>
       </c>
       <c r="H105" s="4" t="s">
-        <v>1066</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="4" t="s">
-        <v>966</v>
+        <v>952</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>450</v>
@@ -20728,12 +20469,12 @@
         <v>10</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>1067</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="4" t="s">
-        <v>967</v>
+        <v>953</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>451</v>
@@ -20754,12 +20495,12 @@
         <v>10</v>
       </c>
       <c r="H107" s="4" t="s">
-        <v>1062</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="4" t="s">
-        <v>968</v>
+        <v>954</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>452</v>
@@ -20774,18 +20515,16 @@
         <v>200</v>
       </c>
       <c r="F108" s="4">
-        <v>100000</v>
+        <v>101403</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H108" s="4" t="s">
-        <v>1068</v>
-      </c>
+        <v>1062</v>
+      </c>
+      <c r="H108" s="4"/>
     </row>
     <row r="109" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="4" t="s">
-        <v>969</v>
+        <v>955</v>
       </c>
       <c r="B109" s="4" t="s">
         <v>453</v>
@@ -20806,12 +20545,12 @@
         <v>10</v>
       </c>
       <c r="H109" s="4" t="s">
-        <v>1067</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="4" t="s">
-        <v>970</v>
+        <v>956</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>454</v>
@@ -20832,12 +20571,12 @@
         <v>10</v>
       </c>
       <c r="H110" s="4" t="s">
-        <v>1069</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="4" t="s">
-        <v>971</v>
+        <v>957</v>
       </c>
       <c r="B111" s="4" t="s">
         <v>455</v>
@@ -20858,12 +20597,12 @@
         <v>10</v>
       </c>
       <c r="H111" s="4" t="s">
-        <v>1070</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="4" t="s">
-        <v>972</v>
+        <v>958</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>456</v>
@@ -20884,12 +20623,12 @@
         <v>10</v>
       </c>
       <c r="H112" s="4" t="s">
-        <v>1071</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="4" t="s">
-        <v>973</v>
+        <v>959</v>
       </c>
       <c r="B113" s="4" t="s">
         <v>456</v>
@@ -20910,12 +20649,12 @@
         <v>10</v>
       </c>
       <c r="H113" s="4" t="s">
-        <v>1059</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="4" t="s">
-        <v>974</v>
+        <v>960</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>457</v>
@@ -20936,12 +20675,12 @@
         <v>10</v>
       </c>
       <c r="H114" s="4" t="s">
-        <v>1072</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="4" t="s">
-        <v>975</v>
+        <v>961</v>
       </c>
       <c r="B115" s="4" t="s">
         <v>458</v>
@@ -20967,7 +20706,7 @@
     </row>
     <row r="116" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="4" t="s">
-        <v>976</v>
+        <v>962</v>
       </c>
       <c r="B116" s="4" t="s">
         <v>459</v>
@@ -20988,12 +20727,12 @@
         <v>10</v>
       </c>
       <c r="H116" s="4" t="s">
-        <v>1073</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="4" t="s">
-        <v>977</v>
+        <v>963</v>
       </c>
       <c r="B117" s="4" t="s">
         <v>460</v>
@@ -21019,7 +20758,7 @@
     </row>
     <row r="118" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="4" t="s">
-        <v>978</v>
+        <v>964</v>
       </c>
       <c r="B118" s="4" t="s">
         <v>460</v>
@@ -21034,18 +20773,16 @@
         <v>200</v>
       </c>
       <c r="F118" s="4">
-        <v>100000</v>
+        <v>101403</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H118" s="4" t="s">
-        <v>1074</v>
-      </c>
+        <v>1062</v>
+      </c>
+      <c r="H118" s="4"/>
     </row>
     <row r="119" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="4" t="s">
-        <v>979</v>
+        <v>965</v>
       </c>
       <c r="B119" s="4" t="s">
         <v>461</v>
@@ -21066,12 +20803,12 @@
         <v>10</v>
       </c>
       <c r="H119" s="4" t="s">
-        <v>1075</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="4" t="s">
-        <v>980</v>
+        <v>966</v>
       </c>
       <c r="B120" s="4" t="s">
         <v>460</v>
@@ -21092,12 +20829,12 @@
         <v>10</v>
       </c>
       <c r="H120" s="4" t="s">
-        <v>1076</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="4" t="s">
-        <v>981</v>
+        <v>967</v>
       </c>
       <c r="B121" s="4" t="s">
         <v>459</v>
@@ -21118,15 +20855,15 @@
         <v>10</v>
       </c>
       <c r="H121" s="4" t="s">
-        <v>1073</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="4" t="s">
-        <v>982</v>
+        <v>968</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C122" s="4" t="s">
         <v>528</v>
@@ -21144,12 +20881,12 @@
         <v>10</v>
       </c>
       <c r="H122" s="4" t="s">
-        <v>1077</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="4" t="s">
-        <v>983</v>
+        <v>969</v>
       </c>
       <c r="B123" s="4" t="s">
         <v>463</v>
@@ -21170,12 +20907,12 @@
         <v>10</v>
       </c>
       <c r="H123" s="4" t="s">
-        <v>1078</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="4" t="s">
-        <v>984</v>
+        <v>970</v>
       </c>
       <c r="B124" s="4" t="s">
         <v>462</v>
@@ -21201,7 +20938,7 @@
     </row>
     <row r="125" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="4" t="s">
-        <v>985</v>
+        <v>971</v>
       </c>
       <c r="B125" s="4" t="s">
         <v>459</v>
@@ -21222,12 +20959,12 @@
         <v>10</v>
       </c>
       <c r="H125" s="4" t="s">
-        <v>1079</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="4" t="s">
-        <v>986</v>
+        <v>972</v>
       </c>
       <c r="B126" s="4" t="s">
         <v>460</v>
@@ -21253,7 +20990,7 @@
     </row>
     <row r="127" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="4" t="s">
-        <v>987</v>
+        <v>973</v>
       </c>
       <c r="B127" s="4" t="s">
         <v>460</v>
@@ -21268,18 +21005,16 @@
         <v>200</v>
       </c>
       <c r="F127" s="4">
-        <v>100000</v>
+        <v>101403</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H127" s="4" t="s">
-        <v>1080</v>
-      </c>
+        <v>1062</v>
+      </c>
+      <c r="H127" s="4"/>
     </row>
     <row r="128" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="4" t="s">
-        <v>988</v>
+        <v>974</v>
       </c>
       <c r="B128" s="4" t="s">
         <v>461</v>
@@ -21300,12 +21035,12 @@
         <v>10</v>
       </c>
       <c r="H128" s="4" t="s">
-        <v>1081</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="4" t="s">
-        <v>989</v>
+        <v>975</v>
       </c>
       <c r="B129" s="4" t="s">
         <v>460</v>
@@ -21326,12 +21061,12 @@
         <v>10</v>
       </c>
       <c r="H129" s="4" t="s">
-        <v>1082</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="4" t="s">
-        <v>990</v>
+        <v>976</v>
       </c>
       <c r="B130" s="4" t="s">
         <v>459</v>
@@ -21352,15 +21087,15 @@
         <v>10</v>
       </c>
       <c r="H130" s="4" t="s">
-        <v>1083</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="4" t="s">
-        <v>991</v>
+        <v>977</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C131" s="4" t="s">
         <v>580</v>
@@ -21378,12 +21113,12 @@
         <v>10</v>
       </c>
       <c r="H131" s="4" t="s">
-        <v>1084</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="4" t="s">
-        <v>992</v>
+        <v>978</v>
       </c>
       <c r="B132" s="4" t="s">
         <v>463</v>
@@ -21404,12 +21139,12 @@
         <v>10</v>
       </c>
       <c r="H132" s="4" t="s">
-        <v>1085</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="4" t="s">
-        <v>993</v>
+        <v>979</v>
       </c>
       <c r="B133" s="4" t="s">
         <v>462</v>
@@ -21435,7 +21170,7 @@
     </row>
     <row r="134" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="4" t="s">
-        <v>994</v>
+        <v>980</v>
       </c>
       <c r="B134" s="4" t="s">
         <v>459</v>
@@ -21456,12 +21191,12 @@
         <v>10</v>
       </c>
       <c r="H134" s="4" t="s">
-        <v>1086</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="4" t="s">
-        <v>995</v>
+        <v>981</v>
       </c>
       <c r="B135" s="4" t="s">
         <v>460</v>
@@ -21487,7 +21222,7 @@
     </row>
     <row r="136" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="4" t="s">
-        <v>996</v>
+        <v>982</v>
       </c>
       <c r="B136" s="4" t="s">
         <v>460</v>
@@ -21502,18 +21237,16 @@
         <v>200</v>
       </c>
       <c r="F136" s="4">
-        <v>100000</v>
+        <v>101403</v>
       </c>
       <c r="G136" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H136" s="4" t="s">
-        <v>1087</v>
-      </c>
+        <v>1062</v>
+      </c>
+      <c r="H136" s="4"/>
     </row>
     <row r="137" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="4" t="s">
-        <v>997</v>
+        <v>983</v>
       </c>
       <c r="B137" s="4" t="s">
         <v>461</v>
@@ -21534,12 +21267,12 @@
         <v>10</v>
       </c>
       <c r="H137" s="4" t="s">
-        <v>639</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="4" t="s">
-        <v>998</v>
+        <v>984</v>
       </c>
       <c r="B138" s="4" t="s">
         <v>460</v>
@@ -21560,12 +21293,12 @@
         <v>10</v>
       </c>
       <c r="H138" s="4" t="s">
-        <v>1088</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="4" t="s">
-        <v>999</v>
+        <v>985</v>
       </c>
       <c r="B139" s="4" t="s">
         <v>459</v>
@@ -21586,15 +21319,15 @@
         <v>10</v>
       </c>
       <c r="H139" s="4" t="s">
-        <v>1086</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="4" t="s">
-        <v>1000</v>
+        <v>986</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C140" s="4" t="s">
         <v>616</v>
@@ -21612,12 +21345,12 @@
         <v>10</v>
       </c>
       <c r="H140" s="4" t="s">
-        <v>1089</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="4" t="s">
-        <v>1001</v>
+        <v>987</v>
       </c>
       <c r="B141" s="4" t="s">
         <v>463</v>
@@ -21638,7 +21371,7 @@
         <v>10</v>
       </c>
       <c r="H141" s="4" t="s">
-        <v>1090</v>
+        <v>1060</v>
       </c>
     </row>
   </sheetData>
@@ -21700,43 +21433,43 @@
     </row>
     <row r="2" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>774</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>642</v>
+      </c>
+      <c r="F2" s="4">
+        <v>200</v>
+      </c>
+      <c r="G2" s="4">
+        <v>100000</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>777</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>776</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>644</v>
-      </c>
-      <c r="F2" s="4">
-        <v>200</v>
-      </c>
-      <c r="G2" s="4">
-        <v>100000</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>779</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4">
@@ -21749,19 +21482,19 @@
         <v>10</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4">
@@ -21774,19 +21507,19 @@
         <v>10</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4">
@@ -21799,19 +21532,19 @@
         <v>10</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4">
@@ -21824,19 +21557,19 @@
         <v>10</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4">
@@ -21849,19 +21582,19 @@
         <v>10</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4">
@@ -21874,19 +21607,19 @@
         <v>10</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4">
@@ -21899,19 +21632,19 @@
         <v>10</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4">
@@ -21924,19 +21657,19 @@
         <v>10</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4">
@@ -21949,19 +21682,19 @@
         <v>10</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4">
@@ -21974,19 +21707,19 @@
         <v>10</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4">
@@ -21999,19 +21732,19 @@
         <v>10</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4">
@@ -22024,19 +21757,19 @@
         <v>10</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4">
@@ -22049,19 +21782,19 @@
         <v>10</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4">
@@ -22074,7 +21807,7 @@
         <v>10</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/test-data-xls/iot-api-engine-test-data.xlsx
+++ b/src/main/resources/test-data-xls/iot-api-engine-test-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\data-layer-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA79F0F0-263D-4B8B-B468-16DAE67159AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C2096CF-CA9A-48DC-9451-CEE98219F488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" tabRatio="743" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" tabRatio="743" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="getDataEntities" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="readWriteMySQL" sheetId="22" r:id="rId4"/>
     <sheet name="readPostgreSQL" sheetId="18" r:id="rId5"/>
     <sheet name="writePostgreSQL" sheetId="17" r:id="rId6"/>
-    <sheet name="readWriteSqlServer" sheetId="23" r:id="rId7"/>
+    <sheet name="readWriteSqlServer" sheetId="25" r:id="rId7"/>
     <sheet name="readWriteH2" sheetId="24" r:id="rId8"/>
     <sheet name="restfulTransactionSingleEntity" sheetId="10" r:id="rId9"/>
     <sheet name="restfulTransactionMultiEntity" sheetId="11" r:id="rId10"/>
@@ -27,6 +27,7 @@
     <sheet name="transferOfFlexibleParams" sheetId="16" r:id="rId12"/>
     <sheet name="testWhichVerifyRspdata" sheetId="19" r:id="rId13"/>
     <sheet name="testMultiDataSource" sheetId="20" r:id="rId14"/>
+    <sheet name="readWriteSqlServer-bc" sheetId="23" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3401" uniqueCount="1574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3777" uniqueCount="1575">
   <si>
     <t>description</t>
   </si>
@@ -16644,6 +16645,9 @@
         }
     ]
 }</t>
+  </si>
+  <si>
+    <t>SqlServer_Test</t>
   </si>
 </sst>
 </file>
@@ -22674,6 +22678,1740 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55A66780-5999-4CB7-B600-95BB7A39B0F9}">
+  <dimension ref="A1:J56"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="35.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>946</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>1276</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>1400</v>
+      </c>
+      <c r="F2" s="4">
+        <v>200</v>
+      </c>
+      <c r="G2" s="4">
+        <v>100000</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>1277</v>
+      </c>
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>997</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>1279</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>1400</v>
+      </c>
+      <c r="F3" s="4">
+        <v>200</v>
+      </c>
+      <c r="G3" s="4">
+        <v>100000</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>1280</v>
+      </c>
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>998</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>1282</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>1400</v>
+      </c>
+      <c r="F4" s="4">
+        <v>200</v>
+      </c>
+      <c r="G4" s="4">
+        <v>100000</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>1283</v>
+      </c>
+      <c r="J4" s="4"/>
+    </row>
+    <row r="5" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>999</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>1285</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>1400</v>
+      </c>
+      <c r="F5" s="4">
+        <v>200</v>
+      </c>
+      <c r="G5" s="4">
+        <v>100000</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>1286</v>
+      </c>
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>1288</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>1400</v>
+      </c>
+      <c r="F6" s="4">
+        <v>200</v>
+      </c>
+      <c r="G6" s="4">
+        <v>100000</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>1283</v>
+      </c>
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>1290</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>1400</v>
+      </c>
+      <c r="F7" s="4">
+        <v>200</v>
+      </c>
+      <c r="G7" s="4">
+        <v>100000</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>1280</v>
+      </c>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>1292</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>1400</v>
+      </c>
+      <c r="F8" s="4">
+        <v>200</v>
+      </c>
+      <c r="G8" s="4">
+        <v>100000</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>1293</v>
+      </c>
+      <c r="J8" s="4"/>
+    </row>
+    <row r="9" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>1295</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>1400</v>
+      </c>
+      <c r="F9" s="4">
+        <v>200</v>
+      </c>
+      <c r="G9" s="4">
+        <v>100000</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>1296</v>
+      </c>
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>1298</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>1400</v>
+      </c>
+      <c r="F10" s="4">
+        <v>200</v>
+      </c>
+      <c r="G10" s="4">
+        <v>100000</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>1299</v>
+      </c>
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>1301</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>1400</v>
+      </c>
+      <c r="F11" s="4">
+        <v>200</v>
+      </c>
+      <c r="G11" s="4">
+        <v>100000</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>1280</v>
+      </c>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>1303</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>1400</v>
+      </c>
+      <c r="F12" s="4">
+        <v>200</v>
+      </c>
+      <c r="G12" s="4">
+        <v>100000</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>1304</v>
+      </c>
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>1306</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>1400</v>
+      </c>
+      <c r="F13" s="4">
+        <v>200</v>
+      </c>
+      <c r="G13" s="4">
+        <v>100000</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>1307</v>
+      </c>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>1309</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>1400</v>
+      </c>
+      <c r="F14" s="4">
+        <v>200</v>
+      </c>
+      <c r="G14" s="4">
+        <v>100000</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>1277</v>
+      </c>
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4" t="s">
+        <v>1311</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>1400</v>
+      </c>
+      <c r="F15" s="4">
+        <v>200</v>
+      </c>
+      <c r="G15" s="4">
+        <v>100000</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>1312</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>973</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4" t="s">
+        <v>1275</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>1400</v>
+      </c>
+      <c r="F16" s="4">
+        <v>200</v>
+      </c>
+      <c r="G16" s="4">
+        <v>100000</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>1314</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>977</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4" t="s">
+        <v>1316</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>1400</v>
+      </c>
+      <c r="F17" s="4">
+        <v>200</v>
+      </c>
+      <c r="G17" s="4">
+        <v>101403</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+    </row>
+    <row r="18" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>983</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4" t="s">
+        <v>1318</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>1400</v>
+      </c>
+      <c r="F18" s="4">
+        <v>200</v>
+      </c>
+      <c r="G18" s="4">
+        <v>101301</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+    </row>
+    <row r="19" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>979</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4" t="s">
+        <v>1320</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>1400</v>
+      </c>
+      <c r="F19" s="4">
+        <v>200</v>
+      </c>
+      <c r="G19" s="4">
+        <v>101301</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+    </row>
+    <row r="20" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4" t="s">
+        <v>1322</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>1400</v>
+      </c>
+      <c r="F20" s="7">
+        <v>200</v>
+      </c>
+      <c r="G20" s="7">
+        <v>101403</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+    </row>
+    <row r="21" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>982</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4" t="s">
+        <v>1324</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>1400</v>
+      </c>
+      <c r="F21" s="4">
+        <v>200</v>
+      </c>
+      <c r="G21" s="4">
+        <v>101301</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+    </row>
+    <row r="22" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>1311</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>1326</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>1400</v>
+      </c>
+      <c r="F22" s="4">
+        <v>200</v>
+      </c>
+      <c r="G22" s="4">
+        <v>100000</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>1327</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>1329</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>1400</v>
+      </c>
+      <c r="F23" s="4">
+        <v>200</v>
+      </c>
+      <c r="G23" s="4">
+        <v>100000</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>1330</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>1311</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>1332</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>1400</v>
+      </c>
+      <c r="F24" s="4">
+        <v>200</v>
+      </c>
+      <c r="G24" s="4">
+        <v>101303</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+    </row>
+    <row r="25" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>1311</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>1334</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>1400</v>
+      </c>
+      <c r="F25" s="4">
+        <v>200</v>
+      </c>
+      <c r="G25" s="4">
+        <v>101301</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+    </row>
+    <row r="26" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>1311</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>1336</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>1400</v>
+      </c>
+      <c r="F26" s="4">
+        <v>200</v>
+      </c>
+      <c r="G26" s="4">
+        <v>101301</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+    </row>
+    <row r="27" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>1311</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>1338</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>1400</v>
+      </c>
+      <c r="F27" s="7">
+        <v>200</v>
+      </c>
+      <c r="G27" s="7">
+        <v>101403</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+    </row>
+    <row r="28" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>1311</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>1340</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>1400</v>
+      </c>
+      <c r="F28" s="4">
+        <v>200</v>
+      </c>
+      <c r="G28" s="4">
+        <v>101301</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+    </row>
+    <row r="29" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>990</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>1311</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>1342</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>1400</v>
+      </c>
+      <c r="F29" s="4">
+        <v>200</v>
+      </c>
+      <c r="G29" s="4">
+        <v>100000</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>1327</v>
+      </c>
+      <c r="J29" s="4"/>
+    </row>
+    <row r="30" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>1344</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>1400</v>
+      </c>
+      <c r="F30" s="4">
+        <v>200</v>
+      </c>
+      <c r="G30" s="4">
+        <v>100000</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>1345</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>1347</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>1400</v>
+      </c>
+      <c r="F31" s="4">
+        <v>200</v>
+      </c>
+      <c r="G31" s="4">
+        <v>100000</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>1345</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>1349</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>1400</v>
+      </c>
+      <c r="F32" s="4">
+        <v>200</v>
+      </c>
+      <c r="G32" s="4">
+        <v>100000</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>1345</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>1351</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>1400</v>
+      </c>
+      <c r="F33" s="4">
+        <v>200</v>
+      </c>
+      <c r="G33" s="4">
+        <v>100000</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>1345</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>1353</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>1400</v>
+      </c>
+      <c r="F34" s="4">
+        <v>200</v>
+      </c>
+      <c r="G34" s="4">
+        <v>100000</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>1345</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>1355</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>1400</v>
+      </c>
+      <c r="F35" s="4">
+        <v>200</v>
+      </c>
+      <c r="G35" s="4">
+        <v>100000</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>1345</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>1357</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>1400</v>
+      </c>
+      <c r="F36" s="4">
+        <v>200</v>
+      </c>
+      <c r="G36" s="4">
+        <v>100000</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>1345</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>1359</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>1400</v>
+      </c>
+      <c r="F37" s="4">
+        <v>200</v>
+      </c>
+      <c r="G37" s="4">
+        <v>100000</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>1345</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>1361</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>1400</v>
+      </c>
+      <c r="F38" s="4">
+        <v>200</v>
+      </c>
+      <c r="G38" s="4">
+        <v>100000</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>1345</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>1363</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>1400</v>
+      </c>
+      <c r="F39" s="4">
+        <v>200</v>
+      </c>
+      <c r="G39" s="4">
+        <v>100000</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>1345</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>1365</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>1400</v>
+      </c>
+      <c r="F40" s="4">
+        <v>200</v>
+      </c>
+      <c r="G40" s="4">
+        <v>100000</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>1345</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>1367</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>1400</v>
+      </c>
+      <c r="F41" s="4">
+        <v>200</v>
+      </c>
+      <c r="G41" s="4">
+        <v>100000</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>1345</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>1369</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>1400</v>
+      </c>
+      <c r="F42" s="4">
+        <v>200</v>
+      </c>
+      <c r="G42" s="4">
+        <v>100000</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>1370</v>
+      </c>
+      <c r="J42" s="4" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>1372</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>1400</v>
+      </c>
+      <c r="F43" s="4">
+        <v>200</v>
+      </c>
+      <c r="G43" s="4">
+        <v>100000</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>1370</v>
+      </c>
+      <c r="J43" s="4" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4" t="s">
+        <v>1374</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>1400</v>
+      </c>
+      <c r="F44" s="4">
+        <v>200</v>
+      </c>
+      <c r="G44" s="4">
+        <v>100000</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>1370</v>
+      </c>
+      <c r="J44" s="4"/>
+    </row>
+    <row r="45" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>1376</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>1400</v>
+      </c>
+      <c r="F45" s="4">
+        <v>200</v>
+      </c>
+      <c r="G45" s="4">
+        <v>100000</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>1377</v>
+      </c>
+      <c r="J45" s="4" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>1379</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>1400</v>
+      </c>
+      <c r="F46" s="4">
+        <v>200</v>
+      </c>
+      <c r="G46" s="4">
+        <v>100000</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>1377</v>
+      </c>
+      <c r="J46" s="4" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>1381</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>1400</v>
+      </c>
+      <c r="F47" s="4">
+        <v>200</v>
+      </c>
+      <c r="G47" s="4">
+        <v>100000</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>1377</v>
+      </c>
+      <c r="J47" s="4" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="4" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>1383</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>1400</v>
+      </c>
+      <c r="F48" s="4">
+        <v>200</v>
+      </c>
+      <c r="G48" s="4">
+        <v>100000</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>1377</v>
+      </c>
+      <c r="J48" s="4" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="4" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>1385</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>1400</v>
+      </c>
+      <c r="F49" s="4">
+        <v>200</v>
+      </c>
+      <c r="G49" s="4">
+        <v>100000</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>1377</v>
+      </c>
+      <c r="J49" s="4" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>1387</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>1400</v>
+      </c>
+      <c r="F50" s="4">
+        <v>200</v>
+      </c>
+      <c r="G50" s="4">
+        <v>100000</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>1377</v>
+      </c>
+      <c r="J50" s="4" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>1389</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>1400</v>
+      </c>
+      <c r="F51" s="4">
+        <v>200</v>
+      </c>
+      <c r="G51" s="4">
+        <v>100000</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>1377</v>
+      </c>
+      <c r="J51" s="4" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="4" t="s">
+        <v>1390</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>1391</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>1400</v>
+      </c>
+      <c r="F52" s="4">
+        <v>200</v>
+      </c>
+      <c r="G52" s="4">
+        <v>100000</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>1377</v>
+      </c>
+      <c r="J52" s="4" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="4" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>1393</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>1400</v>
+      </c>
+      <c r="F53" s="4">
+        <v>200</v>
+      </c>
+      <c r="G53" s="4">
+        <v>100000</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>1377</v>
+      </c>
+      <c r="J53" s="4" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="4" t="s">
+        <v>1394</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>1395</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>1400</v>
+      </c>
+      <c r="F54" s="4">
+        <v>200</v>
+      </c>
+      <c r="G54" s="4">
+        <v>100000</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>1377</v>
+      </c>
+      <c r="J54" s="4" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="4" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>1397</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>1400</v>
+      </c>
+      <c r="F55" s="4">
+        <v>200</v>
+      </c>
+      <c r="G55" s="4">
+        <v>100000</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>1377</v>
+      </c>
+      <c r="J55" s="4" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="4" t="s">
+        <v>1398</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>1399</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>1400</v>
+      </c>
+      <c r="F56" s="4">
+        <v>200</v>
+      </c>
+      <c r="G56" s="4">
+        <v>100000</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I56" s="4" t="s">
+        <v>1377</v>
+      </c>
+      <c r="J56" s="4" t="s">
+        <v>601</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE22B0A1-EDF6-487D-8C5B-FE5F049504FE}">
   <dimension ref="A1:G14"/>
@@ -23029,7 +24767,7 @@
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J1" sqref="J1:J1048576"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -24763,7 +26501,7 @@
   <dimension ref="A1:I56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -28098,11 +29836,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55A66780-5999-4CB7-B600-95BB7A39B0F9}">
-  <dimension ref="A1:J56"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{971A22A5-24BA-4DA0-AF00-982051E7F4CE}">
+  <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -28111,16 +29849,15 @@
     <col min="2" max="2" width="24.5546875" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.21875" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="52" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.33203125" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.33203125" style="6" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.21875" style="6" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="36.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="35.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="6"/>
+    <col min="10" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -28148,11 +29885,8 @@
       <c r="I1" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="J1" s="5" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>1274</v>
       </c>
@@ -28166,7 +29900,7 @@
         <v>1276</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>1400</v>
+        <v>1574</v>
       </c>
       <c r="F2" s="4">
         <v>200</v>
@@ -28180,9 +29914,8 @@
       <c r="I2" s="4" t="s">
         <v>1277</v>
       </c>
-      <c r="J2" s="4"/>
-    </row>
-    <row r="3" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>1278</v>
       </c>
@@ -28196,7 +29929,7 @@
         <v>1279</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>1400</v>
+        <v>1574</v>
       </c>
       <c r="F3" s="4">
         <v>200</v>
@@ -28210,9 +29943,8 @@
       <c r="I3" s="4" t="s">
         <v>1280</v>
       </c>
-      <c r="J3" s="4"/>
-    </row>
-    <row r="4" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>1281</v>
       </c>
@@ -28226,7 +29958,7 @@
         <v>1282</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>1400</v>
+        <v>1574</v>
       </c>
       <c r="F4" s="4">
         <v>200</v>
@@ -28240,9 +29972,8 @@
       <c r="I4" s="4" t="s">
         <v>1283</v>
       </c>
-      <c r="J4" s="4"/>
-    </row>
-    <row r="5" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>1284</v>
       </c>
@@ -28256,7 +29987,7 @@
         <v>1285</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>1400</v>
+        <v>1574</v>
       </c>
       <c r="F5" s="4">
         <v>200</v>
@@ -28270,9 +30001,8 @@
       <c r="I5" s="4" t="s">
         <v>1286</v>
       </c>
-      <c r="J5" s="4"/>
-    </row>
-    <row r="6" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>1287</v>
       </c>
@@ -28286,7 +30016,7 @@
         <v>1288</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>1400</v>
+        <v>1574</v>
       </c>
       <c r="F6" s="4">
         <v>200</v>
@@ -28300,9 +30030,8 @@
       <c r="I6" s="4" t="s">
         <v>1283</v>
       </c>
-      <c r="J6" s="4"/>
-    </row>
-    <row r="7" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>1289</v>
       </c>
@@ -28316,7 +30045,7 @@
         <v>1290</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>1400</v>
+        <v>1574</v>
       </c>
       <c r="F7" s="4">
         <v>200</v>
@@ -28330,9 +30059,8 @@
       <c r="I7" s="4" t="s">
         <v>1280</v>
       </c>
-      <c r="J7" s="4"/>
-    </row>
-    <row r="8" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>1291</v>
       </c>
@@ -28346,7 +30074,7 @@
         <v>1292</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>1400</v>
+        <v>1574</v>
       </c>
       <c r="F8" s="4">
         <v>200</v>
@@ -28360,9 +30088,8 @@
       <c r="I8" s="4" t="s">
         <v>1293</v>
       </c>
-      <c r="J8" s="4"/>
-    </row>
-    <row r="9" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>1294</v>
       </c>
@@ -28376,7 +30103,7 @@
         <v>1295</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>1400</v>
+        <v>1574</v>
       </c>
       <c r="F9" s="4">
         <v>200</v>
@@ -28390,9 +30117,8 @@
       <c r="I9" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="J9" s="4"/>
-    </row>
-    <row r="10" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>1297</v>
       </c>
@@ -28406,7 +30132,7 @@
         <v>1298</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>1400</v>
+        <v>1574</v>
       </c>
       <c r="F10" s="4">
         <v>200</v>
@@ -28420,9 +30146,8 @@
       <c r="I10" s="4" t="s">
         <v>1299</v>
       </c>
-      <c r="J10" s="4"/>
-    </row>
-    <row r="11" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>1300</v>
       </c>
@@ -28436,7 +30161,7 @@
         <v>1301</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>1400</v>
+        <v>1574</v>
       </c>
       <c r="F11" s="4">
         <v>200</v>
@@ -28450,9 +30175,8 @@
       <c r="I11" s="4" t="s">
         <v>1280</v>
       </c>
-      <c r="J11" s="4"/>
-    </row>
-    <row r="12" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>1302</v>
       </c>
@@ -28466,7 +30190,7 @@
         <v>1303</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>1400</v>
+        <v>1574</v>
       </c>
       <c r="F12" s="4">
         <v>200</v>
@@ -28480,9 +30204,8 @@
       <c r="I12" s="4" t="s">
         <v>1304</v>
       </c>
-      <c r="J12" s="4"/>
-    </row>
-    <row r="13" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>1305</v>
       </c>
@@ -28496,7 +30219,7 @@
         <v>1306</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>1400</v>
+        <v>1574</v>
       </c>
       <c r="F13" s="4">
         <v>200</v>
@@ -28510,9 +30233,8 @@
       <c r="I13" s="4" t="s">
         <v>1307</v>
       </c>
-      <c r="J13" s="4"/>
-    </row>
-    <row r="14" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>1308</v>
       </c>
@@ -28526,7 +30248,7 @@
         <v>1309</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>1400</v>
+        <v>1574</v>
       </c>
       <c r="F14" s="4">
         <v>200</v>
@@ -28540,9 +30262,8 @@
       <c r="I14" s="4" t="s">
         <v>1277</v>
       </c>
-      <c r="J14" s="4"/>
-    </row>
-    <row r="15" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>1310</v>
       </c>
@@ -28554,7 +30275,7 @@
         <v>1311</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>1400</v>
+        <v>1574</v>
       </c>
       <c r="F15" s="4">
         <v>200</v>
@@ -28568,11 +30289,8 @@
       <c r="I15" s="4" t="s">
         <v>1312</v>
       </c>
-      <c r="J15" s="4" t="s">
-        <v>1401</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>1313</v>
       </c>
@@ -28584,7 +30302,7 @@
         <v>1275</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>1400</v>
+        <v>1574</v>
       </c>
       <c r="F16" s="4">
         <v>200</v>
@@ -28598,11 +30316,8 @@
       <c r="I16" s="4" t="s">
         <v>1314</v>
       </c>
-      <c r="J16" s="4" t="s">
-        <v>1402</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>1315</v>
       </c>
@@ -28614,7 +30329,7 @@
         <v>1316</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>1400</v>
+        <v>1574</v>
       </c>
       <c r="F17" s="4">
         <v>200</v>
@@ -28626,9 +30341,8 @@
         <v>510</v>
       </c>
       <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-    </row>
-    <row r="18" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>1317</v>
       </c>
@@ -28640,7 +30354,7 @@
         <v>1318</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>1400</v>
+        <v>1574</v>
       </c>
       <c r="F18" s="4">
         <v>200</v>
@@ -28652,9 +30366,8 @@
         <v>76</v>
       </c>
       <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-    </row>
-    <row r="19" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>1319</v>
       </c>
@@ -28666,7 +30379,7 @@
         <v>1320</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>1400</v>
+        <v>1574</v>
       </c>
       <c r="F19" s="4">
         <v>200</v>
@@ -28678,9 +30391,8 @@
         <v>76</v>
       </c>
       <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-    </row>
-    <row r="20" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>1321</v>
       </c>
@@ -28692,7 +30404,7 @@
         <v>1322</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>1400</v>
+        <v>1574</v>
       </c>
       <c r="F20" s="7">
         <v>200</v>
@@ -28704,9 +30416,8 @@
         <v>510</v>
       </c>
       <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-    </row>
-    <row r="21" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>1323</v>
       </c>
@@ -28718,7 +30429,7 @@
         <v>1324</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>1400</v>
+        <v>1574</v>
       </c>
       <c r="F21" s="4">
         <v>200</v>
@@ -28730,9 +30441,8 @@
         <v>76</v>
       </c>
       <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-    </row>
-    <row r="22" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>1325</v>
       </c>
@@ -28746,7 +30456,7 @@
         <v>1326</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>1400</v>
+        <v>1574</v>
       </c>
       <c r="F22" s="4">
         <v>200</v>
@@ -28760,11 +30470,8 @@
       <c r="I22" s="4" t="s">
         <v>1327</v>
       </c>
-      <c r="J22" s="4" t="s">
-        <v>1403</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>1328</v>
       </c>
@@ -28778,7 +30485,7 @@
         <v>1329</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>1400</v>
+        <v>1574</v>
       </c>
       <c r="F23" s="4">
         <v>200</v>
@@ -28792,11 +30499,8 @@
       <c r="I23" s="4" t="s">
         <v>1330</v>
       </c>
-      <c r="J23" s="4" t="s">
-        <v>1404</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>1331</v>
       </c>
@@ -28810,7 +30514,7 @@
         <v>1332</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>1400</v>
+        <v>1574</v>
       </c>
       <c r="F24" s="4">
         <v>200</v>
@@ -28822,9 +30526,8 @@
         <v>80</v>
       </c>
       <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-    </row>
-    <row r="25" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>1333</v>
       </c>
@@ -28838,7 +30541,7 @@
         <v>1334</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>1400</v>
+        <v>1574</v>
       </c>
       <c r="F25" s="4">
         <v>200</v>
@@ -28850,9 +30553,8 @@
         <v>76</v>
       </c>
       <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-    </row>
-    <row r="26" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>1335</v>
       </c>
@@ -28866,7 +30568,7 @@
         <v>1336</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>1400</v>
+        <v>1574</v>
       </c>
       <c r="F26" s="4">
         <v>200</v>
@@ -28878,9 +30580,8 @@
         <v>76</v>
       </c>
       <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-    </row>
-    <row r="27" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>1337</v>
       </c>
@@ -28894,7 +30595,7 @@
         <v>1338</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>1400</v>
+        <v>1574</v>
       </c>
       <c r="F27" s="7">
         <v>200</v>
@@ -28906,9 +30607,8 @@
         <v>510</v>
       </c>
       <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-    </row>
-    <row r="28" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>1339</v>
       </c>
@@ -28922,7 +30622,7 @@
         <v>1340</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>1400</v>
+        <v>1574</v>
       </c>
       <c r="F28" s="4">
         <v>200</v>
@@ -28934,9 +30634,8 @@
         <v>76</v>
       </c>
       <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-    </row>
-    <row r="29" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>1341</v>
       </c>
@@ -28950,7 +30649,7 @@
         <v>1342</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>1400</v>
+        <v>1574</v>
       </c>
       <c r="F29" s="4">
         <v>200</v>
@@ -28964,9 +30663,8 @@
       <c r="I29" s="4" t="s">
         <v>1327</v>
       </c>
-      <c r="J29" s="4"/>
-    </row>
-    <row r="30" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>1343</v>
       </c>
@@ -28980,7 +30678,7 @@
         <v>1344</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>1400</v>
+        <v>1574</v>
       </c>
       <c r="F30" s="4">
         <v>200</v>
@@ -28994,11 +30692,8 @@
       <c r="I30" s="4" t="s">
         <v>1345</v>
       </c>
-      <c r="J30" s="4" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>1346</v>
       </c>
@@ -29012,7 +30707,7 @@
         <v>1347</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>1400</v>
+        <v>1574</v>
       </c>
       <c r="F31" s="4">
         <v>200</v>
@@ -29026,11 +30721,8 @@
       <c r="I31" s="4" t="s">
         <v>1345</v>
       </c>
-      <c r="J31" s="4" t="s">
-        <v>1406</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>1348</v>
       </c>
@@ -29044,7 +30736,7 @@
         <v>1349</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>1400</v>
+        <v>1574</v>
       </c>
       <c r="F32" s="4">
         <v>200</v>
@@ -29058,11 +30750,8 @@
       <c r="I32" s="4" t="s">
         <v>1345</v>
       </c>
-      <c r="J32" s="4" t="s">
-        <v>1407</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>1350</v>
       </c>
@@ -29076,7 +30765,7 @@
         <v>1351</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>1400</v>
+        <v>1574</v>
       </c>
       <c r="F33" s="4">
         <v>200</v>
@@ -29090,11 +30779,8 @@
       <c r="I33" s="4" t="s">
         <v>1345</v>
       </c>
-      <c r="J33" s="4" t="s">
-        <v>1408</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>1352</v>
       </c>
@@ -29108,7 +30794,7 @@
         <v>1353</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>1400</v>
+        <v>1574</v>
       </c>
       <c r="F34" s="4">
         <v>200</v>
@@ -29122,11 +30808,8 @@
       <c r="I34" s="4" t="s">
         <v>1345</v>
       </c>
-      <c r="J34" s="4" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>1354</v>
       </c>
@@ -29140,7 +30823,7 @@
         <v>1355</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>1400</v>
+        <v>1574</v>
       </c>
       <c r="F35" s="4">
         <v>200</v>
@@ -29154,11 +30837,8 @@
       <c r="I35" s="4" t="s">
         <v>1345</v>
       </c>
-      <c r="J35" s="4" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>1356</v>
       </c>
@@ -29172,7 +30852,7 @@
         <v>1357</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>1400</v>
+        <v>1574</v>
       </c>
       <c r="F36" s="4">
         <v>200</v>
@@ -29186,11 +30866,8 @@
       <c r="I36" s="4" t="s">
         <v>1345</v>
       </c>
-      <c r="J36" s="4" t="s">
-        <v>1411</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>1358</v>
       </c>
@@ -29204,7 +30881,7 @@
         <v>1359</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>1400</v>
+        <v>1574</v>
       </c>
       <c r="F37" s="4">
         <v>200</v>
@@ -29218,11 +30895,8 @@
       <c r="I37" s="4" t="s">
         <v>1345</v>
       </c>
-      <c r="J37" s="4" t="s">
-        <v>1412</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>1360</v>
       </c>
@@ -29236,7 +30910,7 @@
         <v>1361</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>1400</v>
+        <v>1574</v>
       </c>
       <c r="F38" s="4">
         <v>200</v>
@@ -29250,11 +30924,8 @@
       <c r="I38" s="4" t="s">
         <v>1345</v>
       </c>
-      <c r="J38" s="4" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>1362</v>
       </c>
@@ -29268,7 +30939,7 @@
         <v>1363</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>1400</v>
+        <v>1574</v>
       </c>
       <c r="F39" s="4">
         <v>200</v>
@@ -29282,11 +30953,8 @@
       <c r="I39" s="4" t="s">
         <v>1345</v>
       </c>
-      <c r="J39" s="4" t="s">
-        <v>1402</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>1364</v>
       </c>
@@ -29300,7 +30968,7 @@
         <v>1365</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>1400</v>
+        <v>1574</v>
       </c>
       <c r="F40" s="4">
         <v>200</v>
@@ -29314,11 +30982,8 @@
       <c r="I40" s="4" t="s">
         <v>1345</v>
       </c>
-      <c r="J40" s="4" t="s">
-        <v>1414</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>1366</v>
       </c>
@@ -29332,7 +30997,7 @@
         <v>1367</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>1400</v>
+        <v>1574</v>
       </c>
       <c r="F41" s="4">
         <v>200</v>
@@ -29346,11 +31011,8 @@
       <c r="I41" s="4" t="s">
         <v>1345</v>
       </c>
-      <c r="J41" s="4" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>1368</v>
       </c>
@@ -29364,7 +31026,7 @@
         <v>1369</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>1400</v>
+        <v>1574</v>
       </c>
       <c r="F42" s="4">
         <v>200</v>
@@ -29378,11 +31040,8 @@
       <c r="I42" s="4" t="s">
         <v>1370</v>
       </c>
-      <c r="J42" s="4" t="s">
-        <v>1416</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>1371</v>
       </c>
@@ -29396,7 +31055,7 @@
         <v>1372</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>1400</v>
+        <v>1574</v>
       </c>
       <c r="F43" s="4">
         <v>200</v>
@@ -29410,11 +31069,8 @@
       <c r="I43" s="4" t="s">
         <v>1370</v>
       </c>
-      <c r="J43" s="4" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>1373</v>
       </c>
@@ -29426,7 +31082,7 @@
         <v>1374</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>1400</v>
+        <v>1574</v>
       </c>
       <c r="F44" s="4">
         <v>200</v>
@@ -29440,9 +31096,8 @@
       <c r="I44" s="4" t="s">
         <v>1370</v>
       </c>
-      <c r="J44" s="4"/>
-    </row>
-    <row r="45" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>1375</v>
       </c>
@@ -29456,7 +31111,7 @@
         <v>1376</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>1400</v>
+        <v>1574</v>
       </c>
       <c r="F45" s="4">
         <v>200</v>
@@ -29470,11 +31125,8 @@
       <c r="I45" s="4" t="s">
         <v>1377</v>
       </c>
-      <c r="J45" s="4" t="s">
-        <v>1417</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>1378</v>
       </c>
@@ -29488,7 +31140,7 @@
         <v>1379</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>1400</v>
+        <v>1574</v>
       </c>
       <c r="F46" s="4">
         <v>200</v>
@@ -29502,11 +31154,8 @@
       <c r="I46" s="4" t="s">
         <v>1377</v>
       </c>
-      <c r="J46" s="4" t="s">
-        <v>1418</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>1380</v>
       </c>
@@ -29520,7 +31169,7 @@
         <v>1381</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>1400</v>
+        <v>1574</v>
       </c>
       <c r="F47" s="4">
         <v>200</v>
@@ -29534,11 +31183,8 @@
       <c r="I47" s="4" t="s">
         <v>1377</v>
       </c>
-      <c r="J47" s="4" t="s">
-        <v>1419</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>1382</v>
       </c>
@@ -29552,7 +31198,7 @@
         <v>1383</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>1400</v>
+        <v>1574</v>
       </c>
       <c r="F48" s="4">
         <v>200</v>
@@ -29566,11 +31212,8 @@
       <c r="I48" s="4" t="s">
         <v>1377</v>
       </c>
-      <c r="J48" s="4" t="s">
-        <v>1420</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>1384</v>
       </c>
@@ -29584,7 +31227,7 @@
         <v>1385</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>1400</v>
+        <v>1574</v>
       </c>
       <c r="F49" s="4">
         <v>200</v>
@@ -29598,11 +31241,8 @@
       <c r="I49" s="4" t="s">
         <v>1377</v>
       </c>
-      <c r="J49" s="4" t="s">
-        <v>1421</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>1386</v>
       </c>
@@ -29616,7 +31256,7 @@
         <v>1387</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>1400</v>
+        <v>1574</v>
       </c>
       <c r="F50" s="4">
         <v>200</v>
@@ -29630,11 +31270,8 @@
       <c r="I50" s="4" t="s">
         <v>1377</v>
       </c>
-      <c r="J50" s="4" t="s">
-        <v>1422</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>1388</v>
       </c>
@@ -29648,7 +31285,7 @@
         <v>1389</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>1400</v>
+        <v>1574</v>
       </c>
       <c r="F51" s="4">
         <v>200</v>
@@ -29662,11 +31299,8 @@
       <c r="I51" s="4" t="s">
         <v>1377</v>
       </c>
-      <c r="J51" s="4" t="s">
-        <v>1421</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
         <v>1390</v>
       </c>
@@ -29680,7 +31314,7 @@
         <v>1391</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>1400</v>
+        <v>1574</v>
       </c>
       <c r="F52" s="4">
         <v>200</v>
@@ -29694,11 +31328,8 @@
       <c r="I52" s="4" t="s">
         <v>1377</v>
       </c>
-      <c r="J52" s="4" t="s">
-        <v>1420</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>1392</v>
       </c>
@@ -29712,7 +31343,7 @@
         <v>1393</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>1400</v>
+        <v>1574</v>
       </c>
       <c r="F53" s="4">
         <v>200</v>
@@ -29726,11 +31357,8 @@
       <c r="I53" s="4" t="s">
         <v>1377</v>
       </c>
-      <c r="J53" s="4" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
         <v>1394</v>
       </c>
@@ -29744,7 +31372,7 @@
         <v>1395</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>1400</v>
+        <v>1574</v>
       </c>
       <c r="F54" s="4">
         <v>200</v>
@@ -29758,11 +31386,8 @@
       <c r="I54" s="4" t="s">
         <v>1377</v>
       </c>
-      <c r="J54" s="4" t="s">
-        <v>1423</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>1396</v>
       </c>
@@ -29776,7 +31401,7 @@
         <v>1397</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>1400</v>
+        <v>1574</v>
       </c>
       <c r="F55" s="4">
         <v>200</v>
@@ -29790,11 +31415,8 @@
       <c r="I55" s="4" t="s">
         <v>1377</v>
       </c>
-      <c r="J55" s="4" t="s">
-        <v>1417</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
         <v>1398</v>
       </c>
@@ -29808,7 +31430,7 @@
         <v>1399</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>1400</v>
+        <v>1574</v>
       </c>
       <c r="F56" s="4">
         <v>200</v>
@@ -29821,9 +31443,6 @@
       </c>
       <c r="I56" s="4" t="s">
         <v>1377</v>
-      </c>
-      <c r="J56" s="4" t="s">
-        <v>601</v>
       </c>
     </row>
   </sheetData>
@@ -29835,7 +31454,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E763127F-428B-4E62-A7DD-499DA6085963}">
   <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/test-data-xls/iot-api-engine-test-data.xlsx
+++ b/src/main/resources/test-data-xls/iot-api-engine-test-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\data-layer-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C2096CF-CA9A-48DC-9451-CEE98219F488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{384A5F38-16AC-420A-A18A-2A4D3A22D58D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" tabRatio="743" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" tabRatio="743" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="getDataEntities" sheetId="2" r:id="rId1"/>
@@ -17036,7 +17036,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -22297,8 +22297,8 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -24416,8 +24416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE22B0A1-EDF6-487D-8C5B-FE5F049504FE}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -29839,7 +29839,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{971A22A5-24BA-4DA0-AF00-982051E7F4CE}">
   <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -31455,7 +31455,7 @@
   <dimension ref="A1:J56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>

--- a/src/main/resources/test-data-xls/iot-api-engine-test-data.xlsx
+++ b/src/main/resources/test-data-xls/iot-api-engine-test-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\data-layer-automation\src\main\resources\test-data-xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_codes\data-layer-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{384A5F38-16AC-420A-A18A-2A4D3A22D58D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AED0485E-8A1D-4228-BEB6-34F6BBD29F8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" tabRatio="743" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" tabRatio="743" firstSheet="10" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="getDataEntities" sheetId="2" r:id="rId1"/>
@@ -7413,16 +7413,16 @@
   <si>
     <t>{
     "UserForRestfulEnhance_Delete_By_Condition": {
-        "json_value": [
-            {
-                "code": 1,
-                "data": "Conditions parse error(syntax error or field not exist in mapper) (id not in ('1','2','3'))"
-            }
-        ],
-        "reserved_field_1": null,
-        "reserved_field_2": null
-    }
-}</t>
+      "json_value": [
+        {
+          "code": 0,
+          "data": "{firstUserBasicInfo={\"id\":\"1\",\"name\":\"name1\",\"age\":\"11\"}}||{firstUserBasicInfo={\"id\":\"2\",\"name\":\"name2\",\"age\":\"12\"}}||{firstUserBasicInfo={\"id\":\"3\",\"name\":\"name3\",\"age\":\"13\"}}"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
   </si>
   <si>
     <t>{
@@ -7430,7 +7430,7 @@
       "json_value": [
         {
           "code": 0,
-          "data": "{firstUserBasicInfo={\"id\":\"1\",\"name\":\"name1\",\"age\":\"11\"}}||{firstUserBasicInfo={\"id\":\"2\",\"name\":\"name2\",\"age\":\"12\"}}||{firstUserBasicInfo={\"id\":\"3\",\"name\":\"name3\",\"age\":\"13\"}}"
+          "data": "{firstUserBasicInfo={\"id\":\"1\",\"name\":\"name1\",\"age\":\"11\"}}"
         }
       ],
       "reserved_field_1": null,
@@ -7444,7 +7444,7 @@
       "json_value": [
         {
           "code": 0,
-          "data": "{firstUserBasicInfo={\"id\":\"1\",\"name\":\"name1\",\"age\":\"11\"}}"
+          "data": "{firstUserBasicInfo={\"id\":\"3\",\"name\":\"name3\",\"age\":\"13\"}}||{firstUserBasicInfo={\"id\":\"2\",\"name\":\"name2\",\"age\":\"12\"}}"
         }
       ],
       "reserved_field_1": null,
@@ -7455,16 +7455,16 @@
   <si>
     <t>{
     "UserForRestfulEnhance_Delete_By_Condition": {
-        "json_value": [
-            {
-                "code": 1,
-                "data": "Conditions parse error(syntax error or field not exist in mapper) (( id = '1' and id in ('2','3') ))"
-            }
-        ],
-        "reserved_field_1": null,
-        "reserved_field_2": null
-    }
-}</t>
+      "json_value": [
+        {
+          "code": 0,
+          "data": "{firstUserBasicInfo={\"id\":\"1\",\"name\":\"name1\",\"age\":\"11\"}}||{firstUserBasicInfo={\"id\":\"3\",\"name\":\"name3\",\"age\":\"13\"}}||{firstUserBasicInfo={\"id\":\"2\",\"name\":\"name2\",\"age\":\"12\"}}"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
   </si>
   <si>
     <t>{
@@ -7472,7 +7472,7 @@
       "json_value": [
         {
           "code": 0,
-          "data": "{firstUserBasicInfo={\"id\":\"3\",\"name\":\"name3\",\"age\":\"13\"}}||{firstUserBasicInfo={\"id\":\"2\",\"name\":\"name2\",\"age\":\"12\"}}"
+          "data": "{firstUserBasicInfo={\"id\":\"4\",\"name\":\"name4\",\"age\":\"14\"}}||{firstUserBasicInfo={\"id\":\"3\",\"name\":\"name3\",\"age\":\"13\"}}||{firstUserBasicInfo={\"id\":\"5\",\"name\":\"name5\",\"age\":\"15\"}}||{firstUserBasicInfo={\"id\":\"2\",\"name\":\"name2\",\"age\":\"12\"}}||{firstUserBasicInfo={\"id\":\"1\",\"name\":\"name1\",\"age\":\"11\"}}"
         }
       ],
       "reserved_field_1": null,
@@ -7482,11 +7482,11 @@
   </si>
   <si>
     <t>{
-    "UserForRestfulEnhance_Delete_By_Condition": {
+    "UserWithBodyForRestfulEnhance_Delete_By_Condition": {
       "json_value": [
         {
           "code": 0,
-          "data": "{firstUserBasicInfo={\"id\":\"1\",\"name\":\"name1\",\"age\":\"11\"}}||{firstUserBasicInfo={\"id\":\"3\",\"name\":\"name3\",\"age\":\"13\"}}||{firstUserBasicInfo={\"id\":\"2\",\"name\":\"name2\",\"age\":\"12\"}}"
+          "data": "{firstUserBasicInfo={\"id\":\"1\",\"name\":\"name1\",\"age\":\"11\"}}"
         }
       ],
       "reserved_field_1": null,
@@ -7496,11 +7496,11 @@
   </si>
   <si>
     <t>{
-    "UserForRestfulEnhance_Delete_By_Condition": {
+    "UserWithBodyForRestfulEnhance_Delete_By_Condition": {
       "json_value": [
         {
           "code": 0,
-          "data": "{firstUserBasicInfo={\"id\":\"4\",\"name\":\"name4\",\"age\":\"14\"}}||{firstUserBasicInfo={\"id\":\"3\",\"name\":\"name3\",\"age\":\"13\"}}||{firstUserBasicInfo={\"id\":\"5\",\"name\":\"name5\",\"age\":\"15\"}}||{firstUserBasicInfo={\"id\":\"2\",\"name\":\"name2\",\"age\":\"12\"}}||{firstUserBasicInfo={\"id\":\"1\",\"name\":\"name1\",\"age\":\"11\"}}"
+          "data": "{firstUserBasicInfo={\"id\":\"2\",\"name\":\"name2\",\"age\":\"12\"}}||{firstUserBasicInfo={\"id\":\"1\",\"name\":\"name1\",\"age\":\"11\"}}"
         }
       ],
       "reserved_field_1": null,
@@ -7514,7 +7514,7 @@
       "json_value": [
         {
           "code": 0,
-          "data": "{firstUserBasicInfo={\"id\":\"1\",\"name\":\"name1\",\"age\":\"11\"}}"
+          "data": "{firstUserBasicInfo={\"id\":\"1\",\"name\":\"name1\",\"age\":\"11\"}}||{firstUserBasicInfo={\"id\":\"5\",\"name\":\"name5\",\"age\":\"15\"}}||{firstUserBasicInfo={\"id\":\"6\",\"name\":\"name6\",\"age\":\"16\"}}"
         }
       ],
       "reserved_field_1": null,
@@ -7527,8 +7527,8 @@
     "UserWithBodyForRestfulEnhance_Delete_By_Condition": {
       "json_value": [
         {
-          "code": 0,
-          "data": "{firstUserBasicInfo={\"id\":\"2\",\"name\":\"name2\",\"age\":\"12\"}}||{firstUserBasicInfo={\"id\":\"1\",\"name\":\"name1\",\"age\":\"11\"}}"
+          "code": 1,
+          "data": "{firstUserBasicInfo={\"id\":\"6\",\"name\":\"name6\",\"age\":\"16\"}}||{firstUserBasicInfo={\"id\":\"5\",\"name\":\"name5\",\"age\":\"15\"}}||body/path template parse error"
         }
       ],
       "reserved_field_1": null,
@@ -7537,26 +7537,12 @@
   }</t>
   </si>
   <si>
-    <t>{
-    "UserWithBodyForRestfulEnhance_Delete_By_Condition": {
-        "json_value": [
-            {
-                "code": 1,
-                "data": "Conditions parse error(syntax error or field not exist in mapper) (( ( id = '1' and name = 'name1' and age = '11' ) and (id,name,age) in (('5','name5','15'),('6','name6','16')) ))"
-            }
-        ],
-        "reserved_field_1": null,
-        "reserved_field_2": null
-    }
-}</t>
-  </si>
-  <si>
-    <t>{
-    "UserWithBodyForRestfulEnhance_Delete_By_Condition": {
+    <t xml:space="preserve"> {
+    "UserWithQueryForRestfulEnhance_Delete_By_Condition": {
       "json_value": [
         {
           "code": 0,
-          "data": "{firstUserBasicInfo={\"id\":\"1\",\"name\":\"name1\",\"age\":\"11\"}}||{firstUserBasicInfo={\"id\":\"5\",\"name\":\"name5\",\"age\":\"15\"}}||{firstUserBasicInfo={\"id\":\"6\",\"name\":\"name6\",\"age\":\"16\"}}"
+          "data": "{firstUserBasicInfo={\"id\":\"1\",\"name\":\"name1\",\"age\":\"11\"}}"
         }
       ],
       "reserved_field_1": null,
@@ -7566,11 +7552,11 @@
   </si>
   <si>
     <t>{
-    "UserWithBodyForRestfulEnhance_Delete_By_Condition": {
+    "UserWithQueryForRestfulEnhance_Delete_By_Condition": {
       "json_value": [
         {
-          "code": 1,
-          "data": "{firstUserBasicInfo={\"id\":\"6\",\"name\":\"name6\",\"age\":\"16\"}}||{firstUserBasicInfo={\"id\":\"5\",\"name\":\"name5\",\"age\":\"15\"}}||body/path template parse error"
+          "code": 0,
+          "data": "{firstUserBasicInfo={\"id\":\"2\",\"name\":\"name2\",\"age\":\"12\"}}||{firstUserBasicInfo={\"id\":\"1\",\"name\":\"name1\",\"age\":\"11\"}}"
         }
       ],
       "reserved_field_1": null,
@@ -7579,7 +7565,7 @@
   }</t>
   </si>
   <si>
-    <t xml:space="preserve"> {
+    <t>{
     "UserWithQueryForRestfulEnhance_Delete_By_Condition": {
       "json_value": [
         {
@@ -7598,7 +7584,7 @@
       "json_value": [
         {
           "code": 0,
-          "data": "{firstUserBasicInfo={\"id\":\"2\",\"name\":\"name2\",\"age\":\"12\"}}||{firstUserBasicInfo={\"id\":\"1\",\"name\":\"name1\",\"age\":\"11\"}}"
+          "data": "{firstUserBasicInfo={\"id\":\"5\",\"name\":\"name5\",\"age\":\"15\"}}||{firstUserBasicInfo={\"id\":\"6\",\"name\":\"name6\",\"age\":\"16\"}}||{firstUserBasicInfo={\"id\":\"1\",\"name\":\"name1\",\"age\":\"11\"}}"
         }
       ],
       "reserved_field_1": null,
@@ -7609,24 +7595,10 @@
   <si>
     <t>{
     "UserWithQueryForRestfulEnhance_Delete_By_Condition": {
-        "json_value": [
-            {
-                "code": 1,
-                "data": "Conditions parse error(syntax error or field not exist in mapper) (( ( id = '1' and name = 'name1' and age = '11' ) and (id,name,age) in (('5','name5','15'),('6','name6','16')) ))"
-            }
-        ],
-        "reserved_field_1": null,
-        "reserved_field_2": null
-    }
-}</t>
-  </si>
-  <si>
-    <t>{
-    "UserWithQueryForRestfulEnhance_Delete_By_Condition": {
       "json_value": [
         {
-          "code": 0,
-          "data": "{firstUserBasicInfo={\"id\":\"1\",\"name\":\"name1\",\"age\":\"11\"}}"
+          "code": 1,
+          "data": "{firstUserBasicInfo={\"id\":\"6\",\"name\":\"name6\",\"age\":\"16\"}}||{firstUserBasicInfo={\"id\":\"5\",\"name\":\"name5\",\"age\":\"15\"}}||body/path template parse error"
         }
       ],
       "reserved_field_1": null,
@@ -7636,53 +7608,11 @@
   </si>
   <si>
     <t>{
-    "UserWithQueryForRestfulEnhance_Delete_By_Condition": {
-      "json_value": [
-        {
-          "code": 0,
-          "data": "{firstUserBasicInfo={\"id\":\"5\",\"name\":\"name5\",\"age\":\"15\"}}||{firstUserBasicInfo={\"id\":\"6\",\"name\":\"name6\",\"age\":\"16\"}}||{firstUserBasicInfo={\"id\":\"1\",\"name\":\"name1\",\"age\":\"11\"}}"
-        }
-      ],
-      "reserved_field_1": null,
-      "reserved_field_2": null
-    }
-  }</t>
-  </si>
-  <si>
-    <t>{
-    "UserWithQueryForRestfulEnhance_Delete_By_Condition": {
-      "json_value": [
-        {
-          "code": 1,
-          "data": "{firstUserBasicInfo={\"id\":\"6\",\"name\":\"name6\",\"age\":\"16\"}}||{firstUserBasicInfo={\"id\":\"5\",\"name\":\"name5\",\"age\":\"15\"}}||body/path template parse error"
-        }
-      ],
-      "reserved_field_1": null,
-      "reserved_field_2": null
-    }
-  }</t>
-  </si>
-  <si>
-    <t>{
     "UserWithHeaderForRestfulEnhance_Delete_By_Condition": {
       "json_value": [
         {
           "code": 0,
           "data": "{firstUserBasicInfo={\"id\":\"1\",\"name\":\"name1\",\"age\":\"11\"}}"
-        }
-      ],
-      "reserved_field_1": null,
-      "reserved_field_2": null
-    }
-  }</t>
-  </si>
-  <si>
-    <t>{
-    "UserWithHeaderForRestfulEnhance_Delete_By_Condition": {
-      "json_value": [
-        {
-          "code": 1,
-          "data": "Conditions parse error(syntax error or field not exist in mapper) (( ( id = '1' and name = 'name1' and age = '11' ) and (id,name,age) in (('5','name5','15'),('6','name6','16')) ))"
         }
       ],
       "reserved_field_1": null,
@@ -16648,6 +16578,76 @@
   </si>
   <si>
     <t>SqlServer_Test</t>
+  </si>
+  <si>
+    <t>{
+    "UserForRestfulEnhance_Delete_By_Condition": {
+        "json_value": [
+            {
+                "code": 1,
+                "data": "Conditions parse error(syntax error or field not exist in mapper) (( ID = '1' and ID in ('2','3') ))"
+            }
+        ],
+        "reserved_field_1": null,
+        "reserved_field_2": null
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "UserForRestfulEnhance_Delete_By_Condition": {
+        "json_value": [
+            {
+                "code": 1,
+                "data": "Conditions parse error(syntax error or field not exist in mapper) (ID not in ('1','2','3'))"
+            }
+        ],
+        "reserved_field_1": null,
+        "reserved_field_2": null
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "UserWithBodyForRestfulEnhance_Delete_By_Condition": {
+      "json_value": [
+        {
+          "code": 1,
+          "data": "Conditions parse error(syntax error or field not exist in mapper) (\"ID\" = '1' AND \"NAME\" = 'name1' AND \"AGE\" = '11' AND(\"ID\", \"NAME\", \"AGE\") IN (('5', 'name5', '15'),('6', 'name6', '16')))"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "UserWithQueryForRestfulEnhance_Delete_By_Condition": {
+      "json_value": [
+        {
+          "code": 1,
+          "data": "Conditions parse error(syntax error or field not exist in mapper) (\"ID\" = '1' AND \"NAME\" = 'name1' AND \"AGE\" = '11' AND(\"ID\", \"NAME\", \"AGE\") IN (('5', 'name5', '15'),('6', 'name6', '16')))"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "UserWithHeaderForRestfulEnhance_Delete_By_Condition": {
+      "json_value": [
+        {
+          "code": 1,
+          "data": "Conditions parse error(syntax error or field not exist in mapper) (\"ID\" = '1' AND \"NAME\" = 'name1' AND \"AGE\" = '11' AND(\"ID\", \"NAME\", \"AGE\") IN (('5', 'name5', '15'),('6', 'name6', '16')))"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+}</t>
   </si>
 </sst>
 </file>
@@ -18448,7 +18448,7 @@
         <v>255</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>915</v>
+        <v>910</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>227</v>
@@ -18483,7 +18483,7 @@
         <v>256</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>916</v>
+        <v>911</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>228</v>
@@ -18518,7 +18518,7 @@
         <v>257</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>917</v>
+        <v>912</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>229</v>
@@ -18559,8 +18559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FD7D6DE-617D-4A49-9D87-297640E0E1DC}">
   <dimension ref="A1:H141"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="I138" sqref="I138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -19691,7 +19691,7 @@
         <v>10</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>913</v>
+        <v>908</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
@@ -19717,7 +19717,7 @@
         <v>10</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>914</v>
+        <v>909</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
@@ -19972,7 +19972,7 @@
         <v>101403</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="H55" s="4"/>
     </row>
@@ -19996,7 +19996,7 @@
         <v>101403</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="H56" s="4"/>
     </row>
@@ -20023,7 +20023,7 @@
         <v>10</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
@@ -20150,7 +20150,7 @@
         <v>101403</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="H62" s="4"/>
     </row>
@@ -20203,7 +20203,7 @@
         <v>10</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>923</v>
+        <v>918</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
@@ -20408,7 +20408,7 @@
         <v>101403</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="H72" s="4"/>
     </row>
@@ -20461,7 +20461,7 @@
         <v>10</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>924</v>
+        <v>919</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
@@ -20640,7 +20640,7 @@
         <v>101403</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="H81" s="4"/>
     </row>
@@ -20693,7 +20693,7 @@
         <v>10</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>925</v>
+        <v>920</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
@@ -20872,7 +20872,7 @@
         <v>101403</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="H90" s="4"/>
     </row>
@@ -20925,7 +20925,7 @@
         <v>10</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>926</v>
+        <v>921</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
@@ -21156,7 +21156,7 @@
         <v>101403</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="H101" s="4"/>
     </row>
@@ -21180,11 +21180,11 @@
         <v>101403</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="H102" s="4"/>
     </row>
-    <row r="103" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" ht="129.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="4" t="s">
         <v>808</v>
       </c>
@@ -21207,7 +21207,7 @@
         <v>10</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>892</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
@@ -21233,7 +21233,7 @@
         <v>10</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
@@ -21259,7 +21259,7 @@
         <v>10</v>
       </c>
       <c r="H105" s="4" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
@@ -21285,7 +21285,7 @@
         <v>10</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
@@ -21334,7 +21334,7 @@
         <v>101403</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="H108" s="4"/>
     </row>
@@ -21361,10 +21361,10 @@
         <v>10</v>
       </c>
       <c r="H109" s="4" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="175.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="4" t="s">
         <v>815</v>
       </c>
@@ -21387,7 +21387,7 @@
         <v>10</v>
       </c>
       <c r="H110" s="4" t="s">
-        <v>895</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
@@ -21413,7 +21413,7 @@
         <v>10</v>
       </c>
       <c r="H111" s="4" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
@@ -21439,7 +21439,7 @@
         <v>10</v>
       </c>
       <c r="H112" s="4" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
@@ -21491,7 +21491,7 @@
         <v>10</v>
       </c>
       <c r="H114" s="4" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
@@ -21543,7 +21543,7 @@
         <v>10</v>
       </c>
       <c r="H116" s="4" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
@@ -21592,11 +21592,11 @@
         <v>101403</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="H118" s="4"/>
     </row>
-    <row r="119" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" ht="132" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="4" t="s">
         <v>824</v>
       </c>
@@ -21619,10 +21619,10 @@
         <v>10</v>
       </c>
       <c r="H119" s="4" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="147" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="4" t="s">
         <v>825</v>
       </c>
@@ -21645,7 +21645,7 @@
         <v>10</v>
       </c>
       <c r="H120" s="4" t="s">
-        <v>901</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
@@ -21671,7 +21671,7 @@
         <v>10</v>
       </c>
       <c r="H121" s="4" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
@@ -21697,7 +21697,7 @@
         <v>10</v>
       </c>
       <c r="H122" s="4" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
@@ -21723,7 +21723,7 @@
         <v>10</v>
       </c>
       <c r="H123" s="4" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
@@ -21775,7 +21775,7 @@
         <v>10</v>
       </c>
       <c r="H125" s="4" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
@@ -21824,7 +21824,7 @@
         <v>101403</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="H127" s="4"/>
     </row>
@@ -21851,10 +21851,10 @@
         <v>10</v>
       </c>
       <c r="H128" s="4" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="168" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="4" t="s">
         <v>834</v>
       </c>
@@ -21877,7 +21877,7 @@
         <v>10</v>
       </c>
       <c r="H129" s="4" t="s">
-        <v>906</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
@@ -21903,7 +21903,7 @@
         <v>10</v>
       </c>
       <c r="H130" s="4" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
@@ -21929,7 +21929,7 @@
         <v>10</v>
       </c>
       <c r="H131" s="4" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
@@ -21955,7 +21955,7 @@
         <v>10</v>
       </c>
       <c r="H132" s="4" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
@@ -22007,7 +22007,7 @@
         <v>10</v>
       </c>
       <c r="H134" s="4" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
@@ -22056,7 +22056,7 @@
         <v>101403</v>
       </c>
       <c r="G136" s="4" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="H136" s="4"/>
     </row>
@@ -22083,10 +22083,10 @@
         <v>10</v>
       </c>
       <c r="H137" s="4" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="143.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="4" t="s">
         <v>843</v>
       </c>
@@ -22109,7 +22109,7 @@
         <v>10</v>
       </c>
       <c r="H138" s="4" t="s">
-        <v>911</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
@@ -22135,7 +22135,7 @@
         <v>10</v>
       </c>
       <c r="H139" s="4" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
@@ -22161,7 +22161,7 @@
         <v>10</v>
       </c>
       <c r="H140" s="4" t="s">
-        <v>912</v>
+        <v>907</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
@@ -22187,7 +22187,7 @@
         <v>10</v>
       </c>
       <c r="H141" s="4" t="s">
-        <v>919</v>
+        <v>914</v>
       </c>
     </row>
   </sheetData>
@@ -22396,7 +22396,7 @@
     </row>
     <row r="4" spans="1:9" ht="112.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>927</v>
+        <v>922</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>690</v>
@@ -22452,10 +22452,10 @@
         <v>700</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>930</v>
+        <v>925</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>940</v>
+        <v>935</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>696</v>
@@ -22470,7 +22470,7 @@
         <v>10</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>941</v>
+        <v>936</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="112.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -22482,7 +22482,7 @@
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4" t="s">
-        <v>928</v>
+        <v>923</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>696</v>
@@ -22502,16 +22502,16 @@
     </row>
     <row r="8" spans="1:9" ht="112.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>703</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>930</v>
+        <v>925</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>931</v>
+        <v>926</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>696</v>
@@ -22537,10 +22537,10 @@
         <v>705</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>930</v>
+        <v>925</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>929</v>
+        <v>924</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>696</v>
@@ -22555,7 +22555,7 @@
         <v>10</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>932</v>
+        <v>927</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="112.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -22569,10 +22569,10 @@
         <v>850</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>934</v>
+        <v>929</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>935</v>
+        <v>930</v>
       </c>
       <c r="F10" s="4">
         <v>200</v>
@@ -22599,7 +22599,7 @@
         <v>850</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>935</v>
+        <v>930</v>
       </c>
       <c r="F11" s="4">
         <v>200</v>
@@ -22625,10 +22625,10 @@
         <v>850</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>935</v>
+        <v>930</v>
       </c>
       <c r="F12" s="4">
         <v>200</v>
@@ -22640,12 +22640,12 @@
         <v>10</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>937</v>
+        <v>932</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="112.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>853</v>
@@ -22654,10 +22654,10 @@
         <v>850</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>935</v>
+        <v>930</v>
       </c>
       <c r="F13" s="4">
         <v>200</v>
@@ -22669,7 +22669,7 @@
         <v>10</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>939</v>
+        <v>934</v>
       </c>
     </row>
   </sheetData>
@@ -22730,24 +22730,24 @@
         <v>259</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>959</v>
+        <v>954</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>1274</v>
+        <v>1269</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>946</v>
+        <v>941</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>1275</v>
+        <v>1270</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>1276</v>
+        <v>1271</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>1400</v>
+        <v>1395</v>
       </c>
       <c r="F2" s="4">
         <v>200</v>
@@ -22759,55 +22759,55 @@
         <v>10</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>1277</v>
+        <v>1272</v>
       </c>
       <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>1278</v>
+        <v>1273</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>997</v>
+        <v>992</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>1270</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>1274</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>1395</v>
+      </c>
+      <c r="F3" s="4">
+        <v>200</v>
+      </c>
+      <c r="G3" s="4">
+        <v>100000</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>1275</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>1279</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>1400</v>
-      </c>
-      <c r="F3" s="4">
-        <v>200</v>
-      </c>
-      <c r="G3" s="4">
-        <v>100000</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>1280</v>
       </c>
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>1281</v>
+        <v>1276</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>998</v>
+        <v>993</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>1275</v>
+        <v>1270</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>1282</v>
+        <v>1277</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>1400</v>
+        <v>1395</v>
       </c>
       <c r="F4" s="4">
         <v>200</v>
@@ -22819,25 +22819,25 @@
         <v>10</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>1283</v>
+        <v>1278</v>
       </c>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>1284</v>
+        <v>1279</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>999</v>
+        <v>994</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>1275</v>
+        <v>1270</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>1285</v>
+        <v>1280</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>1400</v>
+        <v>1395</v>
       </c>
       <c r="F5" s="4">
         <v>200</v>
@@ -22849,25 +22849,25 @@
         <v>10</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>1286</v>
+        <v>1281</v>
       </c>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>1287</v>
+        <v>1282</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>1275</v>
+        <v>1270</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>1288</v>
+        <v>1283</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>1400</v>
+        <v>1395</v>
       </c>
       <c r="F6" s="4">
         <v>200</v>
@@ -22879,55 +22879,55 @@
         <v>10</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>1283</v>
+        <v>1278</v>
       </c>
       <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>1289</v>
+        <v>1284</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>1001</v>
+        <v>996</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>1270</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>1285</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>1395</v>
+      </c>
+      <c r="F7" s="4">
+        <v>200</v>
+      </c>
+      <c r="G7" s="4">
+        <v>100000</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="4" t="s">
         <v>1275</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>1290</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>1400</v>
-      </c>
-      <c r="F7" s="4">
-        <v>200</v>
-      </c>
-      <c r="G7" s="4">
-        <v>100000</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>1280</v>
       </c>
       <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>1002</v>
+        <v>997</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>1275</v>
+        <v>1270</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>1292</v>
+        <v>1287</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>1400</v>
+        <v>1395</v>
       </c>
       <c r="F8" s="4">
         <v>200</v>
@@ -22939,25 +22939,25 @@
         <v>10</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>1293</v>
+        <v>1288</v>
       </c>
       <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>1294</v>
+        <v>1289</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>1003</v>
+        <v>998</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>1275</v>
+        <v>1270</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>1400</v>
+        <v>1395</v>
       </c>
       <c r="F9" s="4">
         <v>200</v>
@@ -22969,25 +22969,25 @@
         <v>10</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>1297</v>
+        <v>1292</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>1004</v>
+        <v>999</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>1275</v>
+        <v>1270</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>1298</v>
+        <v>1293</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>1400</v>
+        <v>1395</v>
       </c>
       <c r="F10" s="4">
         <v>200</v>
@@ -22999,55 +22999,55 @@
         <v>10</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>1299</v>
+        <v>1294</v>
       </c>
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>1300</v>
+        <v>1295</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="C11" s="4" t="s">
+        <v>1270</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>1296</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>1395</v>
+      </c>
+      <c r="F11" s="4">
+        <v>200</v>
+      </c>
+      <c r="G11" s="4">
+        <v>100000</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" s="4" t="s">
         <v>1275</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>1301</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>1400</v>
-      </c>
-      <c r="F11" s="4">
-        <v>200</v>
-      </c>
-      <c r="G11" s="4">
-        <v>100000</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>1280</v>
       </c>
       <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>1302</v>
+        <v>1297</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>1006</v>
+        <v>1001</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>1275</v>
+        <v>1270</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>1303</v>
+        <v>1298</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>1400</v>
+        <v>1395</v>
       </c>
       <c r="F12" s="4">
         <v>200</v>
@@ -23059,25 +23059,25 @@
         <v>10</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>1304</v>
+        <v>1299</v>
       </c>
       <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>1305</v>
+        <v>1300</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>1275</v>
+        <v>1270</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>1306</v>
+        <v>1301</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>1400</v>
+        <v>1395</v>
       </c>
       <c r="F13" s="4">
         <v>200</v>
@@ -23089,25 +23089,25 @@
         <v>10</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>1307</v>
+        <v>1302</v>
       </c>
       <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>1308</v>
+        <v>1303</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>1275</v>
+        <v>1270</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>1309</v>
+        <v>1304</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>1400</v>
+        <v>1395</v>
       </c>
       <c r="F14" s="4">
         <v>200</v>
@@ -23119,23 +23119,23 @@
         <v>10</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>1277</v>
+        <v>1272</v>
       </c>
       <c r="J14" s="4"/>
     </row>
     <row r="15" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>1310</v>
+        <v>1305</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>284</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4" t="s">
-        <v>1311</v>
+        <v>1306</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>1400</v>
+        <v>1395</v>
       </c>
       <c r="F15" s="4">
         <v>200</v>
@@ -23147,25 +23147,25 @@
         <v>10</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>1312</v>
+        <v>1307</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>1401</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>1313</v>
+        <v>1308</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>973</v>
+        <v>968</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4" t="s">
-        <v>1275</v>
+        <v>1270</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>1400</v>
+        <v>1395</v>
       </c>
       <c r="F16" s="4">
         <v>200</v>
@@ -23177,25 +23177,25 @@
         <v>10</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>1314</v>
+        <v>1309</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>1402</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>1315</v>
+        <v>1310</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>977</v>
+        <v>972</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4" t="s">
-        <v>1316</v>
+        <v>1311</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>1400</v>
+        <v>1395</v>
       </c>
       <c r="F17" s="4">
         <v>200</v>
@@ -23211,17 +23211,17 @@
     </row>
     <row r="18" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>1317</v>
+        <v>1312</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>983</v>
+        <v>978</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4" t="s">
-        <v>1318</v>
+        <v>1313</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>1400</v>
+        <v>1395</v>
       </c>
       <c r="F18" s="4">
         <v>200</v>
@@ -23237,17 +23237,17 @@
     </row>
     <row r="19" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>1319</v>
+        <v>1314</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>979</v>
+        <v>974</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4" t="s">
-        <v>1320</v>
+        <v>1315</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>1400</v>
+        <v>1395</v>
       </c>
       <c r="F19" s="4">
         <v>200</v>
@@ -23263,17 +23263,17 @@
     </row>
     <row r="20" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>1321</v>
+        <v>1316</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4" t="s">
-        <v>1322</v>
+        <v>1317</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>1400</v>
+        <v>1395</v>
       </c>
       <c r="F20" s="7">
         <v>200</v>
@@ -23289,17 +23289,17 @@
     </row>
     <row r="21" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>1323</v>
+        <v>1318</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4" t="s">
-        <v>1324</v>
+        <v>1319</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>1400</v>
+        <v>1395</v>
       </c>
       <c r="F21" s="4">
         <v>200</v>
@@ -23315,19 +23315,19 @@
     </row>
     <row r="22" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>1325</v>
+        <v>1320</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>1056</v>
+        <v>1051</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>1311</v>
+        <v>1306</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>1326</v>
+        <v>1321</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>1400</v>
+        <v>1395</v>
       </c>
       <c r="F22" s="4">
         <v>200</v>
@@ -23339,27 +23339,27 @@
         <v>10</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>1327</v>
+        <v>1322</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>1328</v>
+        <v>1323</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>1057</v>
+        <v>1052</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>1275</v>
+        <v>1270</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>1329</v>
+        <v>1324</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>1400</v>
+        <v>1395</v>
       </c>
       <c r="F23" s="4">
         <v>200</v>
@@ -23371,27 +23371,27 @@
         <v>10</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>1330</v>
+        <v>1325</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>1404</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>1331</v>
+        <v>1326</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>1058</v>
+        <v>1053</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>1311</v>
+        <v>1306</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>1332</v>
+        <v>1327</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>1400</v>
+        <v>1395</v>
       </c>
       <c r="F24" s="4">
         <v>200</v>
@@ -23407,19 +23407,19 @@
     </row>
     <row r="25" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>1333</v>
+        <v>1328</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>1059</v>
+        <v>1054</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>1311</v>
+        <v>1306</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>1334</v>
+        <v>1329</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>1400</v>
+        <v>1395</v>
       </c>
       <c r="F25" s="4">
         <v>200</v>
@@ -23435,19 +23435,19 @@
     </row>
     <row r="26" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>1335</v>
+        <v>1330</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>1060</v>
+        <v>1055</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>1311</v>
+        <v>1306</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>1336</v>
+        <v>1331</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>1400</v>
+        <v>1395</v>
       </c>
       <c r="F26" s="4">
         <v>200</v>
@@ -23463,19 +23463,19 @@
     </row>
     <row r="27" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>1337</v>
+        <v>1332</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>1254</v>
+        <v>1249</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>1311</v>
+        <v>1306</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>1338</v>
+        <v>1333</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>1400</v>
+        <v>1395</v>
       </c>
       <c r="F27" s="7">
         <v>200</v>
@@ -23491,19 +23491,19 @@
     </row>
     <row r="28" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>1339</v>
+        <v>1334</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>1061</v>
+        <v>1056</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>1311</v>
+        <v>1306</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>1340</v>
+        <v>1335</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>1400</v>
+        <v>1395</v>
       </c>
       <c r="F28" s="4">
         <v>200</v>
@@ -23519,19 +23519,19 @@
     </row>
     <row r="29" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>1341</v>
+        <v>1336</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>990</v>
+        <v>985</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>1311</v>
+        <v>1306</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>1400</v>
+        <v>1395</v>
       </c>
       <c r="F29" s="4">
         <v>200</v>
@@ -23543,57 +23543,57 @@
         <v>10</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>1327</v>
+        <v>1322</v>
       </c>
       <c r="J29" s="4"/>
     </row>
     <row r="30" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>1343</v>
+        <v>1338</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>1062</v>
+        <v>1057</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>1275</v>
+        <v>1270</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>1344</v>
+        <v>1339</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>1395</v>
+      </c>
+      <c r="F30" s="4">
+        <v>200</v>
+      </c>
+      <c r="G30" s="4">
+        <v>100000</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>1340</v>
+      </c>
+      <c r="J30" s="4" t="s">
         <v>1400</v>
-      </c>
-      <c r="F30" s="4">
-        <v>200</v>
-      </c>
-      <c r="G30" s="4">
-        <v>100000</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>1345</v>
-      </c>
-      <c r="J30" s="4" t="s">
-        <v>1405</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>1346</v>
+        <v>1341</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>1063</v>
+        <v>1058</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>1275</v>
+        <v>1270</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>1347</v>
+        <v>1342</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>1400</v>
+        <v>1395</v>
       </c>
       <c r="F31" s="4">
         <v>200</v>
@@ -23605,27 +23605,27 @@
         <v>10</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>1345</v>
+        <v>1340</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>1406</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>1348</v>
+        <v>1343</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>1064</v>
+        <v>1059</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>1275</v>
+        <v>1270</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>1400</v>
+        <v>1395</v>
       </c>
       <c r="F32" s="4">
         <v>200</v>
@@ -23637,27 +23637,27 @@
         <v>10</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>1345</v>
+        <v>1340</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>1350</v>
+        <v>1345</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>1065</v>
+        <v>1060</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>1275</v>
+        <v>1270</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>1351</v>
+        <v>1346</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>1400</v>
+        <v>1395</v>
       </c>
       <c r="F33" s="4">
         <v>200</v>
@@ -23669,27 +23669,27 @@
         <v>10</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>1345</v>
+        <v>1340</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>1408</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>1066</v>
+        <v>1061</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>1275</v>
+        <v>1270</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>1353</v>
+        <v>1348</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>1400</v>
+        <v>1395</v>
       </c>
       <c r="F34" s="4">
         <v>200</v>
@@ -23701,27 +23701,27 @@
         <v>10</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>1345</v>
+        <v>1340</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>1409</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>1354</v>
+        <v>1349</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>1067</v>
+        <v>1062</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>1275</v>
+        <v>1270</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>1355</v>
+        <v>1350</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>1400</v>
+        <v>1395</v>
       </c>
       <c r="F35" s="4">
         <v>200</v>
@@ -23733,27 +23733,27 @@
         <v>10</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>1345</v>
+        <v>1340</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>1410</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>1356</v>
+        <v>1351</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>1068</v>
+        <v>1063</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>1275</v>
+        <v>1270</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>1357</v>
+        <v>1352</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>1400</v>
+        <v>1395</v>
       </c>
       <c r="F36" s="4">
         <v>200</v>
@@ -23765,27 +23765,27 @@
         <v>10</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>1345</v>
+        <v>1340</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>1411</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>1358</v>
+        <v>1353</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>1069</v>
+        <v>1064</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>1275</v>
+        <v>1270</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>1359</v>
+        <v>1354</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>1400</v>
+        <v>1395</v>
       </c>
       <c r="F37" s="4">
         <v>200</v>
@@ -23797,27 +23797,27 @@
         <v>10</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>1345</v>
+        <v>1340</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>1412</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>1360</v>
+        <v>1355</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>1070</v>
+        <v>1065</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>1275</v>
+        <v>1270</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>1361</v>
+        <v>1356</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>1400</v>
+        <v>1395</v>
       </c>
       <c r="F38" s="4">
         <v>200</v>
@@ -23829,27 +23829,27 @@
         <v>10</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>1345</v>
+        <v>1340</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>1413</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>1362</v>
+        <v>1357</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>1071</v>
+        <v>1066</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>1275</v>
+        <v>1270</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>1363</v>
+        <v>1358</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>1400</v>
+        <v>1395</v>
       </c>
       <c r="F39" s="4">
         <v>200</v>
@@ -23861,27 +23861,27 @@
         <v>10</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>1345</v>
+        <v>1340</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>1402</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>1364</v>
+        <v>1359</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>1072</v>
+        <v>1067</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>1275</v>
+        <v>1270</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>1365</v>
+        <v>1360</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>1400</v>
+        <v>1395</v>
       </c>
       <c r="F40" s="4">
         <v>200</v>
@@ -23893,27 +23893,27 @@
         <v>10</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>1345</v>
+        <v>1340</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>1414</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>1366</v>
+        <v>1361</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>1073</v>
+        <v>1068</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>1275</v>
+        <v>1270</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>1367</v>
+        <v>1362</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>1400</v>
+        <v>1395</v>
       </c>
       <c r="F41" s="4">
         <v>200</v>
@@ -23925,27 +23925,27 @@
         <v>10</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>1345</v>
+        <v>1340</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>1415</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>1368</v>
+        <v>1363</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>1075</v>
+        <v>1070</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>1275</v>
+        <v>1270</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>1369</v>
+        <v>1364</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>1400</v>
+        <v>1395</v>
       </c>
       <c r="F42" s="4">
         <v>200</v>
@@ -23957,27 +23957,27 @@
         <v>10</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>1370</v>
+        <v>1365</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>1416</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>1371</v>
+        <v>1366</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>1076</v>
+        <v>1071</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>1275</v>
+        <v>1270</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>1372</v>
+        <v>1367</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>1400</v>
+        <v>1395</v>
       </c>
       <c r="F43" s="4">
         <v>200</v>
@@ -23989,7 +23989,7 @@
         <v>10</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>1370</v>
+        <v>1365</v>
       </c>
       <c r="J43" s="4" t="s">
         <v>601</v>
@@ -23997,17 +23997,17 @@
     </row>
     <row r="44" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>1373</v>
+        <v>1368</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>1077</v>
+        <v>1072</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4" t="s">
-        <v>1374</v>
+        <v>1369</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>1400</v>
+        <v>1395</v>
       </c>
       <c r="F44" s="4">
         <v>200</v>
@@ -24019,25 +24019,25 @@
         <v>10</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>1370</v>
+        <v>1365</v>
       </c>
       <c r="J44" s="4"/>
     </row>
     <row r="45" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>1375</v>
+        <v>1370</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>1275</v>
+        <v>1270</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>1376</v>
+        <v>1371</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>1400</v>
+        <v>1395</v>
       </c>
       <c r="F45" s="4">
         <v>200</v>
@@ -24049,27 +24049,27 @@
         <v>10</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>1377</v>
+        <v>1372</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>1417</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>1378</v>
+        <v>1373</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>1079</v>
+        <v>1074</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>1275</v>
+        <v>1270</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>1379</v>
+        <v>1374</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>1400</v>
+        <v>1395</v>
       </c>
       <c r="F46" s="4">
         <v>200</v>
@@ -24081,27 +24081,27 @@
         <v>10</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>1377</v>
+        <v>1372</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
-        <v>1380</v>
+        <v>1375</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>1080</v>
+        <v>1075</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>1275</v>
+        <v>1270</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>1381</v>
+        <v>1376</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>1400</v>
+        <v>1395</v>
       </c>
       <c r="F47" s="4">
         <v>200</v>
@@ -24113,27 +24113,27 @@
         <v>10</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>1377</v>
+        <v>1372</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>1419</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>1081</v>
+        <v>1076</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>1275</v>
+        <v>1270</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>1383</v>
+        <v>1378</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>1400</v>
+        <v>1395</v>
       </c>
       <c r="F48" s="4">
         <v>200</v>
@@ -24145,27 +24145,27 @@
         <v>10</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>1377</v>
+        <v>1372</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>1420</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
-        <v>1384</v>
+        <v>1379</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>1082</v>
+        <v>1077</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>1275</v>
+        <v>1270</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>1385</v>
+        <v>1380</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>1400</v>
+        <v>1395</v>
       </c>
       <c r="F49" s="4">
         <v>200</v>
@@ -24177,27 +24177,27 @@
         <v>10</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>1377</v>
+        <v>1372</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
-        <v>1386</v>
+        <v>1381</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>1083</v>
+        <v>1078</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>1275</v>
+        <v>1270</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>1387</v>
+        <v>1382</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>1400</v>
+        <v>1395</v>
       </c>
       <c r="F50" s="4">
         <v>200</v>
@@ -24209,27 +24209,27 @@
         <v>10</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>1377</v>
+        <v>1372</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>1422</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
-        <v>1388</v>
+        <v>1383</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>1084</v>
+        <v>1079</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>1275</v>
+        <v>1270</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>1389</v>
+        <v>1384</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>1400</v>
+        <v>1395</v>
       </c>
       <c r="F51" s="4">
         <v>200</v>
@@ -24241,27 +24241,27 @@
         <v>10</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>1377</v>
+        <v>1372</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
-        <v>1390</v>
+        <v>1385</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>1085</v>
+        <v>1080</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>1275</v>
+        <v>1270</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>1391</v>
+        <v>1386</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>1400</v>
+        <v>1395</v>
       </c>
       <c r="F52" s="4">
         <v>200</v>
@@ -24273,27 +24273,27 @@
         <v>10</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>1377</v>
+        <v>1372</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>1420</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
-        <v>1392</v>
+        <v>1387</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>1086</v>
+        <v>1081</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>1275</v>
+        <v>1270</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>1393</v>
+        <v>1388</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>1400</v>
+        <v>1395</v>
       </c>
       <c r="F53" s="4">
         <v>200</v>
@@ -24305,7 +24305,7 @@
         <v>10</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>1377</v>
+        <v>1372</v>
       </c>
       <c r="J53" s="4" t="s">
         <v>601</v>
@@ -24313,20 +24313,20 @@
     </row>
     <row r="54" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
-        <v>1394</v>
+        <v>1389</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>1087</v>
+        <v>1082</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>1275</v>
+        <v>1270</v>
       </c>
       <c r="D54" s="4" t="s">
+        <v>1390</v>
+      </c>
+      <c r="E54" s="7" t="s">
         <v>1395</v>
       </c>
-      <c r="E54" s="7" t="s">
-        <v>1400</v>
-      </c>
       <c r="F54" s="4">
         <v>200</v>
       </c>
@@ -24337,27 +24337,27 @@
         <v>10</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>1377</v>
+        <v>1372</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>1423</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>1396</v>
+        <v>1391</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>1088</v>
+        <v>1083</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>1275</v>
+        <v>1270</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>1397</v>
+        <v>1392</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>1400</v>
+        <v>1395</v>
       </c>
       <c r="F55" s="4">
         <v>200</v>
@@ -24369,27 +24369,27 @@
         <v>10</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>1377</v>
+        <v>1372</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>1417</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
-        <v>1398</v>
+        <v>1393</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>1089</v>
+        <v>1084</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>1275</v>
+        <v>1270</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>1399</v>
+        <v>1394</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>1400</v>
+        <v>1395</v>
       </c>
       <c r="F56" s="4">
         <v>200</v>
@@ -24401,7 +24401,7 @@
         <v>10</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>1377</v>
+        <v>1372</v>
       </c>
       <c r="J56" s="4" t="s">
         <v>601</v>
@@ -24416,8 +24416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE22B0A1-EDF6-487D-8C5B-FE5F049504FE}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -24814,24 +24814,24 @@
         <v>259</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>959</v>
+        <v>954</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>942</v>
+        <v>937</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>946</v>
+        <v>941</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>1260</v>
+        <v>1255</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="F2" s="4">
         <v>200</v>
@@ -24843,25 +24843,25 @@
         <v>10</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>970</v>
+        <v>965</v>
       </c>
       <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>944</v>
+        <v>939</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>997</v>
+        <v>992</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>1261</v>
+        <v>1256</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="F3" s="4">
         <v>200</v>
@@ -24873,25 +24873,25 @@
         <v>10</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>964</v>
+        <v>959</v>
       </c>
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>945</v>
+        <v>940</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>998</v>
+        <v>993</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>1262</v>
+        <v>1257</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="F4" s="4">
         <v>200</v>
@@ -24903,25 +24903,25 @@
         <v>10</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>947</v>
+        <v>942</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>999</v>
+        <v>994</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>1263</v>
+        <v>1258</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="F5" s="4">
         <v>200</v>
@@ -24933,25 +24933,25 @@
         <v>10</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>972</v>
+        <v>967</v>
       </c>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>948</v>
+        <v>943</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>1264</v>
+        <v>1259</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="F6" s="4">
         <v>200</v>
@@ -24963,25 +24963,25 @@
         <v>10</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>949</v>
+        <v>944</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>1001</v>
+        <v>996</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>1265</v>
+        <v>1260</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="F7" s="4">
         <v>200</v>
@@ -24993,25 +24993,25 @@
         <v>10</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>964</v>
+        <v>959</v>
       </c>
       <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>950</v>
+        <v>945</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>1002</v>
+        <v>997</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>1266</v>
+        <v>1261</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="F8" s="4">
         <v>200</v>
@@ -25023,25 +25023,25 @@
         <v>10</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>965</v>
+        <v>960</v>
       </c>
       <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>951</v>
+        <v>946</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>1003</v>
+        <v>998</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>1267</v>
+        <v>1262</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="F9" s="4">
         <v>200</v>
@@ -25053,55 +25053,55 @@
         <v>10</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>966</v>
+        <v>961</v>
       </c>
       <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>952</v>
+        <v>947</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>1004</v>
+        <v>999</v>
       </c>
       <c r="C10" s="4" t="s">
+        <v>957</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>958</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>938</v>
+      </c>
+      <c r="F10" s="4">
+        <v>200</v>
+      </c>
+      <c r="G10" s="4">
+        <v>100000</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="4" t="s">
         <v>962</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>963</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>943</v>
-      </c>
-      <c r="F10" s="4">
-        <v>200</v>
-      </c>
-      <c r="G10" s="4">
-        <v>100000</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>967</v>
       </c>
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>954</v>
+        <v>949</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>1268</v>
+        <v>1263</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="F11" s="4">
         <v>200</v>
@@ -25113,25 +25113,25 @@
         <v>10</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>964</v>
+        <v>959</v>
       </c>
       <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>955</v>
+        <v>950</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>1006</v>
+        <v>1001</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>1269</v>
+        <v>1264</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="F12" s="4">
         <v>200</v>
@@ -25143,25 +25143,25 @@
         <v>10</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>953</v>
+        <v>948</v>
       </c>
       <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>956</v>
+        <v>951</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>1270</v>
+        <v>1265</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="F13" s="4">
         <v>200</v>
@@ -25173,25 +25173,25 @@
         <v>10</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>968</v>
+        <v>963</v>
       </c>
       <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
+        <v>952</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>957</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>1008</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>962</v>
-      </c>
       <c r="D14" s="4" t="s">
-        <v>1271</v>
+        <v>1266</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="F14" s="4">
         <v>200</v>
@@ -25203,23 +25203,23 @@
         <v>10</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>970</v>
+        <v>965</v>
       </c>
       <c r="J14" s="4"/>
     </row>
     <row r="15" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>958</v>
+        <v>953</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>284</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4" t="s">
-        <v>969</v>
+        <v>964</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="F15" s="4">
         <v>200</v>
@@ -25231,25 +25231,25 @@
         <v>10</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>960</v>
+        <v>955</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>961</v>
+        <v>956</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>974</v>
+        <v>969</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>973</v>
+        <v>968</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="F16" s="4">
         <v>200</v>
@@ -25261,25 +25261,25 @@
         <v>10</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>976</v>
+        <v>971</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>1031</v>
+        <v>1026</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>977</v>
+        <v>972</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4" t="s">
-        <v>978</v>
+        <v>973</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="F17" s="4">
         <v>200</v>
@@ -25295,17 +25295,17 @@
     </row>
     <row r="18" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>1032</v>
+        <v>1027</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>983</v>
+        <v>978</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4" t="s">
-        <v>994</v>
+        <v>989</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="F18" s="4">
         <v>200</v>
@@ -25321,17 +25321,17 @@
     </row>
     <row r="19" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>1033</v>
+        <v>1028</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>979</v>
+        <v>974</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4" t="s">
-        <v>980</v>
+        <v>975</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="F19" s="4">
         <v>200</v>
@@ -25347,17 +25347,17 @@
     </row>
     <row r="20" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>1034</v>
+        <v>1029</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4" t="s">
-        <v>1272</v>
+        <v>1267</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="F20" s="7">
         <v>200</v>
@@ -25372,17 +25372,17 @@
     </row>
     <row r="21" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>1035</v>
+        <v>1030</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4" t="s">
-        <v>981</v>
+        <v>976</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="F21" s="4">
         <v>200</v>
@@ -25398,19 +25398,19 @@
     </row>
     <row r="22" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>1036</v>
+        <v>1031</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>1056</v>
+        <v>1051</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>969</v>
+        <v>964</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>984</v>
+        <v>979</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="F22" s="4">
         <v>200</v>
@@ -25422,27 +25422,27 @@
         <v>10</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>985</v>
+        <v>980</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>986</v>
+        <v>981</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>1057</v>
+        <v>1052</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>987</v>
+        <v>982</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="F23" s="4">
         <v>200</v>
@@ -25454,27 +25454,27 @@
         <v>10</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>988</v>
+        <v>983</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>989</v>
+        <v>984</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>1038</v>
+        <v>1033</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>1058</v>
+        <v>1053</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>969</v>
+        <v>964</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="F24" s="4">
         <v>200</v>
@@ -25490,19 +25490,19 @@
     </row>
     <row r="25" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>1059</v>
+        <v>1054</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>969</v>
+        <v>964</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>995</v>
+        <v>990</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="F25" s="4">
         <v>200</v>
@@ -25518,19 +25518,19 @@
     </row>
     <row r="26" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>1040</v>
+        <v>1035</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>1060</v>
+        <v>1055</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>969</v>
+        <v>964</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="F26" s="4">
         <v>200</v>
@@ -25546,19 +25546,19 @@
     </row>
     <row r="27" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>1041</v>
+        <v>1036</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>1254</v>
+        <v>1249</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>969</v>
+        <v>964</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>1273</v>
+        <v>1268</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="F27" s="7">
         <v>200</v>
@@ -25573,19 +25573,19 @@
     </row>
     <row r="28" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>1042</v>
+        <v>1037</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>1061</v>
+        <v>1056</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>969</v>
+        <v>964</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>993</v>
+        <v>988</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="F28" s="4">
         <v>200</v>
@@ -25601,19 +25601,19 @@
     </row>
     <row r="29" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>1043</v>
+        <v>1038</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>990</v>
+        <v>985</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>969</v>
+        <v>964</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>996</v>
+        <v>991</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="F29" s="4">
         <v>200</v>
@@ -25625,25 +25625,25 @@
         <v>10</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>985</v>
+        <v>980</v>
       </c>
       <c r="J29" s="4"/>
     </row>
     <row r="30" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>1044</v>
+        <v>1039</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>1062</v>
+        <v>1057</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>1009</v>
+        <v>1004</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="F30" s="4">
         <v>200</v>
@@ -25655,27 +25655,27 @@
         <v>10</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>1011</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>1045</v>
+        <v>1040</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>1063</v>
+        <v>1058</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>1012</v>
+        <v>1007</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="F31" s="4">
         <v>200</v>
@@ -25687,27 +25687,27 @@
         <v>10</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>1013</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>1046</v>
+        <v>1041</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>1064</v>
+        <v>1059</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>1014</v>
+        <v>1009</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="F32" s="4">
         <v>200</v>
@@ -25719,27 +25719,27 @@
         <v>10</v>
       </c>
       <c r="I32" s="4" t="s">
+        <v>1005</v>
+      </c>
+      <c r="J32" s="4" t="s">
         <v>1010</v>
-      </c>
-      <c r="J32" s="4" t="s">
-        <v>1015</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>1047</v>
+        <v>1042</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>1065</v>
+        <v>1060</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>1016</v>
+        <v>1011</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="F33" s="4">
         <v>200</v>
@@ -25751,27 +25751,27 @@
         <v>10</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>1017</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>1048</v>
+        <v>1043</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>1066</v>
+        <v>1061</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>1018</v>
+        <v>1013</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="F34" s="4">
         <v>200</v>
@@ -25783,27 +25783,27 @@
         <v>10</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>1019</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>1049</v>
+        <v>1044</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>1067</v>
+        <v>1062</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>1020</v>
+        <v>1015</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="F35" s="4">
         <v>200</v>
@@ -25815,27 +25815,27 @@
         <v>10</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>1021</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>1050</v>
+        <v>1045</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>1068</v>
+        <v>1063</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>1022</v>
+        <v>1017</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="F36" s="4">
         <v>200</v>
@@ -25847,27 +25847,27 @@
         <v>10</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>1023</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>1051</v>
+        <v>1046</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>1069</v>
+        <v>1064</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>1024</v>
+        <v>1019</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="F37" s="4">
         <v>200</v>
@@ -25879,27 +25879,27 @@
         <v>10</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>1025</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>1052</v>
+        <v>1047</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>1070</v>
+        <v>1065</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>1026</v>
+        <v>1021</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="F38" s="4">
         <v>200</v>
@@ -25911,27 +25911,27 @@
         <v>10</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>1027</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>1071</v>
+        <v>1066</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>1028</v>
+        <v>1023</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="F39" s="4">
         <v>200</v>
@@ -25943,27 +25943,27 @@
         <v>10</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>976</v>
+        <v>971</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>1103</v>
+        <v>1098</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>1072</v>
+        <v>1067</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>1055</v>
+        <v>1050</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="F40" s="4">
         <v>200</v>
@@ -25975,27 +25975,27 @@
         <v>10</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>1029</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>1104</v>
+        <v>1099</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>1073</v>
+        <v>1068</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>1054</v>
+        <v>1049</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="F41" s="4">
         <v>200</v>
@@ -26007,27 +26007,27 @@
         <v>10</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>1030</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>1105</v>
+        <v>1100</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>1075</v>
+        <v>1070</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>1074</v>
+        <v>1069</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="F42" s="4">
         <v>200</v>
@@ -26039,27 +26039,27 @@
         <v>10</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>1090</v>
+        <v>1085</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>1091</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>1106</v>
+        <v>1101</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>1076</v>
+        <v>1071</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>1092</v>
+        <v>1087</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="F43" s="4">
         <v>200</v>
@@ -26071,7 +26071,7 @@
         <v>10</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>1090</v>
+        <v>1085</v>
       </c>
       <c r="J43" s="4" t="s">
         <v>601</v>
@@ -26079,17 +26079,17 @@
     </row>
     <row r="44" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>1107</v>
+        <v>1102</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>1077</v>
+        <v>1072</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4" t="s">
-        <v>1093</v>
+        <v>1088</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="F44" s="4">
         <v>200</v>
@@ -26101,25 +26101,25 @@
         <v>10</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>1090</v>
+        <v>1085</v>
       </c>
       <c r="J44" s="4"/>
     </row>
     <row r="45" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>1108</v>
+        <v>1103</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="F45" s="4">
         <v>200</v>
@@ -26131,27 +26131,27 @@
         <v>10</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>1095</v>
+        <v>1090</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>1096</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>1109</v>
+        <v>1104</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>1079</v>
+        <v>1074</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>1118</v>
+        <v>1113</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="F46" s="4">
         <v>200</v>
@@ -26163,27 +26163,27 @@
         <v>10</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>1095</v>
+        <v>1090</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>1097</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
-        <v>1110</v>
+        <v>1105</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>1080</v>
+        <v>1075</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>1119</v>
+        <v>1114</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="F47" s="4">
         <v>200</v>
@@ -26195,27 +26195,27 @@
         <v>10</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>1095</v>
+        <v>1090</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>1098</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
-        <v>1111</v>
+        <v>1106</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>1081</v>
+        <v>1076</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="F48" s="4">
         <v>200</v>
@@ -26227,27 +26227,27 @@
         <v>10</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>1095</v>
+        <v>1090</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>1099</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
-        <v>1112</v>
+        <v>1107</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>1082</v>
+        <v>1077</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>1120</v>
+        <v>1115</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="F49" s="4">
         <v>200</v>
@@ -26259,27 +26259,27 @@
         <v>10</v>
       </c>
       <c r="I49" s="4" t="s">
+        <v>1090</v>
+      </c>
+      <c r="J49" s="4" t="s">
         <v>1095</v>
-      </c>
-      <c r="J49" s="4" t="s">
-        <v>1100</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
-        <v>1113</v>
+        <v>1108</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>1083</v>
+        <v>1078</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>1121</v>
+        <v>1116</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="F50" s="4">
         <v>200</v>
@@ -26291,27 +26291,27 @@
         <v>10</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>1095</v>
+        <v>1090</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>1101</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
-        <v>1114</v>
+        <v>1109</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>1084</v>
+        <v>1079</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>1122</v>
+        <v>1117</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="F51" s="4">
         <v>200</v>
@@ -26323,27 +26323,27 @@
         <v>10</v>
       </c>
       <c r="I51" s="4" t="s">
+        <v>1090</v>
+      </c>
+      <c r="J51" s="4" t="s">
         <v>1095</v>
-      </c>
-      <c r="J51" s="4" t="s">
-        <v>1100</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
-        <v>1115</v>
+        <v>1110</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>1085</v>
+        <v>1080</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>1123</v>
+        <v>1118</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="F52" s="4">
         <v>200</v>
@@ -26355,27 +26355,27 @@
         <v>10</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>1095</v>
+        <v>1090</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>1099</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
-        <v>1116</v>
+        <v>1111</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>1086</v>
+        <v>1081</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>1124</v>
+        <v>1119</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="F53" s="4">
         <v>200</v>
@@ -26387,7 +26387,7 @@
         <v>10</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>1095</v>
+        <v>1090</v>
       </c>
       <c r="J53" s="4" t="s">
         <v>601</v>
@@ -26395,19 +26395,19 @@
     </row>
     <row r="54" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
-        <v>1117</v>
+        <v>1112</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>1087</v>
+        <v>1082</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="F54" s="4">
         <v>200</v>
@@ -26419,27 +26419,27 @@
         <v>10</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>1095</v>
+        <v>1090</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>1102</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>1258</v>
+        <v>1253</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>1088</v>
+        <v>1083</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="F55" s="4">
         <v>200</v>
@@ -26451,27 +26451,27 @@
         <v>10</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>1095</v>
+        <v>1090</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>1096</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
-        <v>1259</v>
+        <v>1254</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>1089</v>
+        <v>1084</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>1127</v>
+        <v>1122</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="F56" s="4">
         <v>200</v>
@@ -26483,7 +26483,7 @@
         <v>10</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>1095</v>
+        <v>1090</v>
       </c>
       <c r="J56" s="4" t="s">
         <v>601</v>
@@ -26549,16 +26549,16 @@
     </row>
     <row r="2" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>1129</v>
+        <v>1124</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>946</v>
+        <v>941</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>1130</v>
+        <v>1125</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>1240</v>
+        <v>1235</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>72</v>
@@ -26573,21 +26573,21 @@
         <v>10</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>1131</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>1132</v>
+        <v>1127</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>997</v>
+        <v>992</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>1130</v>
+        <v>1125</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>1241</v>
+        <v>1236</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>72</v>
@@ -26602,21 +26602,21 @@
         <v>10</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>1184</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>998</v>
+        <v>993</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>1130</v>
+        <v>1125</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>1242</v>
+        <v>1237</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>72</v>
@@ -26631,21 +26631,21 @@
         <v>10</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>1185</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>999</v>
+        <v>994</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>1130</v>
+        <v>1125</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>1243</v>
+        <v>1238</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>72</v>
@@ -26660,21 +26660,21 @@
         <v>10</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>1186</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>1135</v>
+        <v>1130</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>1130</v>
+        <v>1125</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>1244</v>
+        <v>1239</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>72</v>
@@ -26689,21 +26689,21 @@
         <v>10</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>1185</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>1136</v>
+        <v>1131</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>1001</v>
+        <v>996</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>1130</v>
+        <v>1125</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>1245</v>
+        <v>1240</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>72</v>
@@ -26718,21 +26718,21 @@
         <v>10</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>1184</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>1137</v>
+        <v>1132</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>1002</v>
+        <v>997</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>1130</v>
+        <v>1125</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>1246</v>
+        <v>1241</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>72</v>
@@ -26747,21 +26747,21 @@
         <v>10</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>1187</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>1003</v>
+        <v>998</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>1130</v>
+        <v>1125</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>1247</v>
+        <v>1242</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>72</v>
@@ -26776,21 +26776,21 @@
         <v>10</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>1188</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>1139</v>
+        <v>1134</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>1004</v>
+        <v>999</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>1130</v>
+        <v>1125</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>1189</v>
+        <v>1184</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>72</v>
@@ -26805,21 +26805,21 @@
         <v>10</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>1190</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>1140</v>
+        <v>1135</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>1130</v>
+        <v>1125</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>1249</v>
+        <v>1244</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>72</v>
@@ -26834,21 +26834,21 @@
         <v>10</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>1184</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>1141</v>
+        <v>1136</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>1006</v>
+        <v>1001</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>1130</v>
+        <v>1125</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>72</v>
@@ -26863,21 +26863,21 @@
         <v>10</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>1191</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>1142</v>
+        <v>1137</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>1130</v>
+        <v>1125</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>72</v>
@@ -26892,21 +26892,21 @@
         <v>10</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>1192</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>1143</v>
+        <v>1138</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>1130</v>
+        <v>1125</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>72</v>
@@ -26921,19 +26921,19 @@
         <v>10</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>1193</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>1144</v>
+        <v>1139</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>284</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4" t="s">
-        <v>1194</v>
+        <v>1189</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>72</v>
@@ -26948,19 +26948,19 @@
         <v>10</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>1195</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>1145</v>
+        <v>1140</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>973</v>
+        <v>968</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4" t="s">
-        <v>1130</v>
+        <v>1125</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>72</v>
@@ -26975,19 +26975,19 @@
         <v>10</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>1196</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>1146</v>
+        <v>1141</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>977</v>
+        <v>972</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4" t="s">
-        <v>1197</v>
+        <v>1192</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>72</v>
@@ -27005,14 +27005,14 @@
     </row>
     <row r="18" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>1147</v>
+        <v>1142</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>983</v>
+        <v>978</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4" t="s">
-        <v>1198</v>
+        <v>1193</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>72</v>
@@ -27030,14 +27030,14 @@
     </row>
     <row r="19" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>1148</v>
+        <v>1143</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>979</v>
+        <v>974</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4" t="s">
-        <v>1199</v>
+        <v>1194</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>72</v>
@@ -27055,14 +27055,14 @@
     </row>
     <row r="20" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>1149</v>
+        <v>1144</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>72</v>
@@ -27080,14 +27080,14 @@
     </row>
     <row r="21" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>1150</v>
+        <v>1145</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4" t="s">
-        <v>1200</v>
+        <v>1195</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>72</v>
@@ -27105,16 +27105,16 @@
     </row>
     <row r="22" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>1151</v>
+        <v>1146</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>1056</v>
+        <v>1051</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>1194</v>
+        <v>1189</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>1201</v>
+        <v>1196</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>72</v>
@@ -27129,21 +27129,21 @@
         <v>10</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>1202</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>1152</v>
+        <v>1147</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>1057</v>
+        <v>1052</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>1130</v>
+        <v>1125</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>1203</v>
+        <v>1198</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>72</v>
@@ -27158,21 +27158,21 @@
         <v>10</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>1204</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>1153</v>
+        <v>1148</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>1058</v>
+        <v>1053</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>1194</v>
+        <v>1189</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>1205</v>
+        <v>1200</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>72</v>
@@ -27190,16 +27190,16 @@
     </row>
     <row r="25" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>1059</v>
+        <v>1054</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>1194</v>
+        <v>1189</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>1206</v>
+        <v>1201</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>72</v>
@@ -27217,16 +27217,16 @@
     </row>
     <row r="26" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>1155</v>
+        <v>1150</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>1060</v>
+        <v>1055</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>1194</v>
+        <v>1189</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>1207</v>
+        <v>1202</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>72</v>
@@ -27244,16 +27244,16 @@
     </row>
     <row r="27" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>1156</v>
+        <v>1151</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>1254</v>
+        <v>1249</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>1194</v>
+        <v>1189</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>1255</v>
+        <v>1250</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>72</v>
@@ -27271,16 +27271,16 @@
     </row>
     <row r="28" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>1157</v>
+        <v>1152</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>1061</v>
+        <v>1056</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>1194</v>
+        <v>1189</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>1208</v>
+        <v>1203</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>72</v>
@@ -27298,16 +27298,16 @@
     </row>
     <row r="29" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>1158</v>
+        <v>1153</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>990</v>
+        <v>985</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>1194</v>
+        <v>1189</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>1209</v>
+        <v>1204</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>72</v>
@@ -27322,21 +27322,21 @@
         <v>10</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>1202</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>1159</v>
+        <v>1154</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>1062</v>
+        <v>1057</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>1130</v>
+        <v>1125</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>1210</v>
+        <v>1205</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>72</v>
@@ -27351,21 +27351,21 @@
         <v>10</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>1211</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>1160</v>
+        <v>1155</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>1063</v>
+        <v>1058</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>1130</v>
+        <v>1125</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>1212</v>
+        <v>1207</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>72</v>
@@ -27380,21 +27380,21 @@
         <v>10</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>1211</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>1161</v>
+        <v>1156</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>1064</v>
+        <v>1059</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>1130</v>
+        <v>1125</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>1213</v>
+        <v>1208</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>72</v>
@@ -27409,21 +27409,21 @@
         <v>10</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>1211</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>1162</v>
+        <v>1157</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>1065</v>
+        <v>1060</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>1130</v>
+        <v>1125</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>1214</v>
+        <v>1209</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>72</v>
@@ -27438,21 +27438,21 @@
         <v>10</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>1211</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>1163</v>
+        <v>1158</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>1066</v>
+        <v>1061</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>1130</v>
+        <v>1125</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>1215</v>
+        <v>1210</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>72</v>
@@ -27467,21 +27467,21 @@
         <v>10</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>1211</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>1164</v>
+        <v>1159</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>1067</v>
+        <v>1062</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>1130</v>
+        <v>1125</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>1216</v>
+        <v>1211</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>72</v>
@@ -27496,21 +27496,21 @@
         <v>10</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>1211</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>1165</v>
+        <v>1160</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>1068</v>
+        <v>1063</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>1130</v>
+        <v>1125</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>1217</v>
+        <v>1212</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>72</v>
@@ -27525,21 +27525,21 @@
         <v>10</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>1211</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>1166</v>
+        <v>1161</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>1069</v>
+        <v>1064</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>1130</v>
+        <v>1125</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>1218</v>
+        <v>1213</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>72</v>
@@ -27554,21 +27554,21 @@
         <v>10</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>1211</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>1167</v>
+        <v>1162</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>1070</v>
+        <v>1065</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>1130</v>
+        <v>1125</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>1219</v>
+        <v>1214</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>72</v>
@@ -27583,21 +27583,21 @@
         <v>10</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>1211</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>1168</v>
+        <v>1163</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>1071</v>
+        <v>1066</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>1130</v>
+        <v>1125</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>1220</v>
+        <v>1215</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>72</v>
@@ -27612,21 +27612,21 @@
         <v>10</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>1211</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>1169</v>
+        <v>1164</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>1072</v>
+        <v>1067</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>1130</v>
+        <v>1125</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>1221</v>
+        <v>1216</v>
       </c>
       <c r="E40" s="7" t="s">
         <v>72</v>
@@ -27641,21 +27641,21 @@
         <v>10</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>1211</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>1170</v>
+        <v>1165</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>1073</v>
+        <v>1068</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>1130</v>
+        <v>1125</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>1222</v>
+        <v>1217</v>
       </c>
       <c r="E41" s="7" t="s">
         <v>72</v>
@@ -27670,21 +27670,21 @@
         <v>10</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>1211</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>1171</v>
+        <v>1166</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>1075</v>
+        <v>1070</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>1130</v>
+        <v>1125</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>1223</v>
+        <v>1218</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>72</v>
@@ -27699,21 +27699,21 @@
         <v>10</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>1224</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>1172</v>
+        <v>1167</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>1076</v>
+        <v>1071</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>1130</v>
+        <v>1125</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>1225</v>
+        <v>1220</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>72</v>
@@ -27728,19 +27728,19 @@
         <v>10</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>1224</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>1173</v>
+        <v>1168</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>1077</v>
+        <v>1072</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4" t="s">
-        <v>1226</v>
+        <v>1221</v>
       </c>
       <c r="E44" s="7" t="s">
         <v>72</v>
@@ -27755,21 +27755,21 @@
         <v>10</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>1224</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>1174</v>
+        <v>1169</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>1130</v>
+        <v>1125</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>1227</v>
+        <v>1222</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>72</v>
@@ -27784,21 +27784,21 @@
         <v>10</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>1228</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>1175</v>
+        <v>1170</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>1079</v>
+        <v>1074</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>1130</v>
+        <v>1125</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>1229</v>
+        <v>1224</v>
       </c>
       <c r="E46" s="7" t="s">
         <v>72</v>
@@ -27813,21 +27813,21 @@
         <v>10</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>1228</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
-        <v>1176</v>
+        <v>1171</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>1080</v>
+        <v>1075</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>1130</v>
+        <v>1125</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>1230</v>
+        <v>1225</v>
       </c>
       <c r="E47" s="7" t="s">
         <v>72</v>
@@ -27842,21 +27842,21 @@
         <v>10</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>1228</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
-        <v>1177</v>
+        <v>1172</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>1081</v>
+        <v>1076</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>1130</v>
+        <v>1125</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>1231</v>
+        <v>1226</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>72</v>
@@ -27871,21 +27871,21 @@
         <v>10</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>1228</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
-        <v>1178</v>
+        <v>1173</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>1082</v>
+        <v>1077</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>1130</v>
+        <v>1125</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>1232</v>
+        <v>1227</v>
       </c>
       <c r="E49" s="7" t="s">
         <v>72</v>
@@ -27900,21 +27900,21 @@
         <v>10</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>1228</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
-        <v>1179</v>
+        <v>1174</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>1083</v>
+        <v>1078</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>1130</v>
+        <v>1125</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>1233</v>
+        <v>1228</v>
       </c>
       <c r="E50" s="7" t="s">
         <v>72</v>
@@ -27929,21 +27929,21 @@
         <v>10</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>1228</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
-        <v>1180</v>
+        <v>1175</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>1084</v>
+        <v>1079</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>1130</v>
+        <v>1125</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>1234</v>
+        <v>1229</v>
       </c>
       <c r="E51" s="7" t="s">
         <v>72</v>
@@ -27958,21 +27958,21 @@
         <v>10</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>1228</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
-        <v>1181</v>
+        <v>1176</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>1085</v>
+        <v>1080</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>1130</v>
+        <v>1125</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>1235</v>
+        <v>1230</v>
       </c>
       <c r="E52" s="7" t="s">
         <v>72</v>
@@ -27987,21 +27987,21 @@
         <v>10</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>1228</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
-        <v>1182</v>
+        <v>1177</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>1086</v>
+        <v>1081</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>1130</v>
+        <v>1125</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>1236</v>
+        <v>1231</v>
       </c>
       <c r="E53" s="7" t="s">
         <v>72</v>
@@ -28016,21 +28016,21 @@
         <v>10</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>1228</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
-        <v>1183</v>
+        <v>1178</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>1087</v>
+        <v>1082</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>1130</v>
+        <v>1125</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>1237</v>
+        <v>1232</v>
       </c>
       <c r="E54" s="7" t="s">
         <v>72</v>
@@ -28045,21 +28045,21 @@
         <v>10</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>1228</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>1256</v>
+        <v>1251</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>1088</v>
+        <v>1083</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>1130</v>
+        <v>1125</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>1238</v>
+        <v>1233</v>
       </c>
       <c r="E55" s="7" t="s">
         <v>72</v>
@@ -28074,21 +28074,21 @@
         <v>10</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>1228</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
-        <v>1257</v>
+        <v>1252</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>1089</v>
+        <v>1084</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>1130</v>
+        <v>1125</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>1239</v>
+        <v>1234</v>
       </c>
       <c r="E56" s="7" t="s">
         <v>72</v>
@@ -28103,7 +28103,7 @@
         <v>10</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>1228</v>
+        <v>1223</v>
       </c>
     </row>
   </sheetData>
@@ -29888,19 +29888,19 @@
     </row>
     <row r="2" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>1274</v>
+        <v>1269</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>946</v>
+        <v>941</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>1275</v>
+        <v>1270</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>1276</v>
+        <v>1271</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>1574</v>
+        <v>1569</v>
       </c>
       <c r="F2" s="4">
         <v>200</v>
@@ -29912,53 +29912,53 @@
         <v>10</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>1277</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>1278</v>
+        <v>1273</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>997</v>
+        <v>992</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>1270</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>1274</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>1569</v>
+      </c>
+      <c r="F3" s="4">
+        <v>200</v>
+      </c>
+      <c r="G3" s="4">
+        <v>100000</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>1275</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>1279</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>1574</v>
-      </c>
-      <c r="F3" s="4">
-        <v>200</v>
-      </c>
-      <c r="G3" s="4">
-        <v>100000</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>1280</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>1281</v>
+        <v>1276</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>998</v>
+        <v>993</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>1275</v>
+        <v>1270</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>1282</v>
+        <v>1277</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>1574</v>
+        <v>1569</v>
       </c>
       <c r="F4" s="4">
         <v>200</v>
@@ -29970,24 +29970,24 @@
         <v>10</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>1283</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>1284</v>
+        <v>1279</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>999</v>
+        <v>994</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>1275</v>
+        <v>1270</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>1285</v>
+        <v>1280</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>1574</v>
+        <v>1569</v>
       </c>
       <c r="F5" s="4">
         <v>200</v>
@@ -29999,24 +29999,24 @@
         <v>10</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>1286</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>1287</v>
+        <v>1282</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>1275</v>
+        <v>1270</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>1288</v>
+        <v>1283</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>1574</v>
+        <v>1569</v>
       </c>
       <c r="F6" s="4">
         <v>200</v>
@@ -30028,53 +30028,53 @@
         <v>10</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>1283</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>1289</v>
+        <v>1284</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>1001</v>
+        <v>996</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>1270</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>1285</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>1569</v>
+      </c>
+      <c r="F7" s="4">
+        <v>200</v>
+      </c>
+      <c r="G7" s="4">
+        <v>100000</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="4" t="s">
         <v>1275</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>1290</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>1574</v>
-      </c>
-      <c r="F7" s="4">
-        <v>200</v>
-      </c>
-      <c r="G7" s="4">
-        <v>100000</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>1280</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>1002</v>
+        <v>997</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>1275</v>
+        <v>1270</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>1292</v>
+        <v>1287</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>1574</v>
+        <v>1569</v>
       </c>
       <c r="F8" s="4">
         <v>200</v>
@@ -30086,24 +30086,24 @@
         <v>10</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>1293</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>1294</v>
+        <v>1289</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>1003</v>
+        <v>998</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>1275</v>
+        <v>1270</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>1574</v>
+        <v>1569</v>
       </c>
       <c r="F9" s="4">
         <v>200</v>
@@ -30115,24 +30115,24 @@
         <v>10</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>1297</v>
+        <v>1292</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>1004</v>
+        <v>999</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>1275</v>
+        <v>1270</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>1298</v>
+        <v>1293</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>1574</v>
+        <v>1569</v>
       </c>
       <c r="F10" s="4">
         <v>200</v>
@@ -30144,53 +30144,53 @@
         <v>10</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>1299</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>1300</v>
+        <v>1295</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="C11" s="4" t="s">
+        <v>1270</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>1296</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>1569</v>
+      </c>
+      <c r="F11" s="4">
+        <v>200</v>
+      </c>
+      <c r="G11" s="4">
+        <v>100000</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" s="4" t="s">
         <v>1275</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>1301</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>1574</v>
-      </c>
-      <c r="F11" s="4">
-        <v>200</v>
-      </c>
-      <c r="G11" s="4">
-        <v>100000</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>1280</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>1302</v>
+        <v>1297</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>1006</v>
+        <v>1001</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>1275</v>
+        <v>1270</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>1303</v>
+        <v>1298</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>1574</v>
+        <v>1569</v>
       </c>
       <c r="F12" s="4">
         <v>200</v>
@@ -30202,24 +30202,24 @@
         <v>10</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>1304</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>1305</v>
+        <v>1300</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>1275</v>
+        <v>1270</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>1306</v>
+        <v>1301</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>1574</v>
+        <v>1569</v>
       </c>
       <c r="F13" s="4">
         <v>200</v>
@@ -30231,24 +30231,24 @@
         <v>10</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>1307</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>1308</v>
+        <v>1303</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>1275</v>
+        <v>1270</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>1309</v>
+        <v>1304</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>1574</v>
+        <v>1569</v>
       </c>
       <c r="F14" s="4">
         <v>200</v>
@@ -30260,22 +30260,22 @@
         <v>10</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>1277</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>1310</v>
+        <v>1305</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>284</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4" t="s">
-        <v>1311</v>
+        <v>1306</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>1574</v>
+        <v>1569</v>
       </c>
       <c r="F15" s="4">
         <v>200</v>
@@ -30287,22 +30287,22 @@
         <v>10</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>1312</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>1313</v>
+        <v>1308</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>973</v>
+        <v>968</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4" t="s">
-        <v>1275</v>
+        <v>1270</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>1574</v>
+        <v>1569</v>
       </c>
       <c r="F16" s="4">
         <v>200</v>
@@ -30314,22 +30314,22 @@
         <v>10</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>1314</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>1315</v>
+        <v>1310</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>977</v>
+        <v>972</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4" t="s">
-        <v>1316</v>
+        <v>1311</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>1574</v>
+        <v>1569</v>
       </c>
       <c r="F17" s="4">
         <v>200</v>
@@ -30344,17 +30344,17 @@
     </row>
     <row r="18" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>1317</v>
+        <v>1312</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>983</v>
+        <v>978</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4" t="s">
-        <v>1318</v>
+        <v>1313</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>1574</v>
+        <v>1569</v>
       </c>
       <c r="F18" s="4">
         <v>200</v>
@@ -30369,17 +30369,17 @@
     </row>
     <row r="19" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>1319</v>
+        <v>1314</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>979</v>
+        <v>974</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4" t="s">
-        <v>1320</v>
+        <v>1315</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>1574</v>
+        <v>1569</v>
       </c>
       <c r="F19" s="4">
         <v>200</v>
@@ -30394,17 +30394,17 @@
     </row>
     <row r="20" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>1321</v>
+        <v>1316</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4" t="s">
-        <v>1322</v>
+        <v>1317</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>1574</v>
+        <v>1569</v>
       </c>
       <c r="F20" s="7">
         <v>200</v>
@@ -30419,17 +30419,17 @@
     </row>
     <row r="21" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>1323</v>
+        <v>1318</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4" t="s">
-        <v>1324</v>
+        <v>1319</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>1574</v>
+        <v>1569</v>
       </c>
       <c r="F21" s="4">
         <v>200</v>
@@ -30444,19 +30444,19 @@
     </row>
     <row r="22" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>1325</v>
+        <v>1320</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>1056</v>
+        <v>1051</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>1311</v>
+        <v>1306</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>1326</v>
+        <v>1321</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>1574</v>
+        <v>1569</v>
       </c>
       <c r="F22" s="4">
         <v>200</v>
@@ -30468,24 +30468,24 @@
         <v>10</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>1327</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>1328</v>
+        <v>1323</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>1057</v>
+        <v>1052</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>1275</v>
+        <v>1270</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>1329</v>
+        <v>1324</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>1574</v>
+        <v>1569</v>
       </c>
       <c r="F23" s="4">
         <v>200</v>
@@ -30497,24 +30497,24 @@
         <v>10</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>1330</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>1331</v>
+        <v>1326</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>1058</v>
+        <v>1053</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>1311</v>
+        <v>1306</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>1332</v>
+        <v>1327</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>1574</v>
+        <v>1569</v>
       </c>
       <c r="F24" s="4">
         <v>200</v>
@@ -30529,19 +30529,19 @@
     </row>
     <row r="25" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>1333</v>
+        <v>1328</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>1059</v>
+        <v>1054</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>1311</v>
+        <v>1306</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>1334</v>
+        <v>1329</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>1574</v>
+        <v>1569</v>
       </c>
       <c r="F25" s="4">
         <v>200</v>
@@ -30556,19 +30556,19 @@
     </row>
     <row r="26" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>1335</v>
+        <v>1330</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>1060</v>
+        <v>1055</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>1311</v>
+        <v>1306</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>1336</v>
+        <v>1331</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>1574</v>
+        <v>1569</v>
       </c>
       <c r="F26" s="4">
         <v>200</v>
@@ -30583,19 +30583,19 @@
     </row>
     <row r="27" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>1337</v>
+        <v>1332</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>1254</v>
+        <v>1249</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>1311</v>
+        <v>1306</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>1338</v>
+        <v>1333</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>1574</v>
+        <v>1569</v>
       </c>
       <c r="F27" s="7">
         <v>200</v>
@@ -30610,19 +30610,19 @@
     </row>
     <row r="28" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>1339</v>
+        <v>1334</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>1061</v>
+        <v>1056</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>1311</v>
+        <v>1306</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>1340</v>
+        <v>1335</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>1574</v>
+        <v>1569</v>
       </c>
       <c r="F28" s="4">
         <v>200</v>
@@ -30637,19 +30637,19 @@
     </row>
     <row r="29" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>1341</v>
+        <v>1336</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>990</v>
+        <v>985</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>1311</v>
+        <v>1306</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>1574</v>
+        <v>1569</v>
       </c>
       <c r="F29" s="4">
         <v>200</v>
@@ -30661,24 +30661,24 @@
         <v>10</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>1327</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>1343</v>
+        <v>1338</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>1062</v>
+        <v>1057</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>1275</v>
+        <v>1270</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>1344</v>
+        <v>1339</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>1574</v>
+        <v>1569</v>
       </c>
       <c r="F30" s="4">
         <v>200</v>
@@ -30690,24 +30690,24 @@
         <v>10</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>1345</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>1346</v>
+        <v>1341</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>1063</v>
+        <v>1058</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>1275</v>
+        <v>1270</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>1347</v>
+        <v>1342</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>1574</v>
+        <v>1569</v>
       </c>
       <c r="F31" s="4">
         <v>200</v>
@@ -30719,24 +30719,24 @@
         <v>10</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>1345</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>1348</v>
+        <v>1343</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>1064</v>
+        <v>1059</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>1275</v>
+        <v>1270</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>1574</v>
+        <v>1569</v>
       </c>
       <c r="F32" s="4">
         <v>200</v>
@@ -30748,24 +30748,24 @@
         <v>10</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>1345</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>1350</v>
+        <v>1345</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>1065</v>
+        <v>1060</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>1275</v>
+        <v>1270</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>1351</v>
+        <v>1346</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>1574</v>
+        <v>1569</v>
       </c>
       <c r="F33" s="4">
         <v>200</v>
@@ -30777,24 +30777,24 @@
         <v>10</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>1345</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>1066</v>
+        <v>1061</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>1275</v>
+        <v>1270</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>1353</v>
+        <v>1348</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>1574</v>
+        <v>1569</v>
       </c>
       <c r="F34" s="4">
         <v>200</v>
@@ -30806,24 +30806,24 @@
         <v>10</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>1345</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>1354</v>
+        <v>1349</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>1067</v>
+        <v>1062</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>1275</v>
+        <v>1270</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>1355</v>
+        <v>1350</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>1574</v>
+        <v>1569</v>
       </c>
       <c r="F35" s="4">
         <v>200</v>
@@ -30835,24 +30835,24 @@
         <v>10</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>1345</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>1356</v>
+        <v>1351</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>1068</v>
+        <v>1063</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>1275</v>
+        <v>1270</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>1357</v>
+        <v>1352</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>1574</v>
+        <v>1569</v>
       </c>
       <c r="F36" s="4">
         <v>200</v>
@@ -30864,24 +30864,24 @@
         <v>10</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>1345</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>1358</v>
+        <v>1353</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>1069</v>
+        <v>1064</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>1275</v>
+        <v>1270</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>1359</v>
+        <v>1354</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>1574</v>
+        <v>1569</v>
       </c>
       <c r="F37" s="4">
         <v>200</v>
@@ -30893,24 +30893,24 @@
         <v>10</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>1345</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>1360</v>
+        <v>1355</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>1070</v>
+        <v>1065</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>1275</v>
+        <v>1270</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>1361</v>
+        <v>1356</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>1574</v>
+        <v>1569</v>
       </c>
       <c r="F38" s="4">
         <v>200</v>
@@ -30922,24 +30922,24 @@
         <v>10</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>1345</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>1362</v>
+        <v>1357</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>1071</v>
+        <v>1066</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>1275</v>
+        <v>1270</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>1363</v>
+        <v>1358</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>1574</v>
+        <v>1569</v>
       </c>
       <c r="F39" s="4">
         <v>200</v>
@@ -30951,24 +30951,24 @@
         <v>10</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>1345</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>1364</v>
+        <v>1359</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>1072</v>
+        <v>1067</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>1275</v>
+        <v>1270</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>1365</v>
+        <v>1360</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>1574</v>
+        <v>1569</v>
       </c>
       <c r="F40" s="4">
         <v>200</v>
@@ -30980,24 +30980,24 @@
         <v>10</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>1345</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>1366</v>
+        <v>1361</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>1073</v>
+        <v>1068</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>1275</v>
+        <v>1270</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>1367</v>
+        <v>1362</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>1574</v>
+        <v>1569</v>
       </c>
       <c r="F41" s="4">
         <v>200</v>
@@ -31009,24 +31009,24 @@
         <v>10</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>1345</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>1368</v>
+        <v>1363</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>1075</v>
+        <v>1070</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>1275</v>
+        <v>1270</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>1369</v>
+        <v>1364</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>1574</v>
+        <v>1569</v>
       </c>
       <c r="F42" s="4">
         <v>200</v>
@@ -31038,24 +31038,24 @@
         <v>10</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>1370</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>1371</v>
+        <v>1366</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>1076</v>
+        <v>1071</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>1275</v>
+        <v>1270</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>1372</v>
+        <v>1367</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>1574</v>
+        <v>1569</v>
       </c>
       <c r="F43" s="4">
         <v>200</v>
@@ -31067,22 +31067,22 @@
         <v>10</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>1370</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>1373</v>
+        <v>1368</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>1077</v>
+        <v>1072</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4" t="s">
-        <v>1374</v>
+        <v>1369</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>1574</v>
+        <v>1569</v>
       </c>
       <c r="F44" s="4">
         <v>200</v>
@@ -31094,24 +31094,24 @@
         <v>10</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>1370</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>1375</v>
+        <v>1370</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>1275</v>
+        <v>1270</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>1376</v>
+        <v>1371</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>1574</v>
+        <v>1569</v>
       </c>
       <c r="F45" s="4">
         <v>200</v>
@@ -31123,24 +31123,24 @@
         <v>10</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>1377</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>1378</v>
+        <v>1373</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>1079</v>
+        <v>1074</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>1275</v>
+        <v>1270</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>1379</v>
+        <v>1374</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>1574</v>
+        <v>1569</v>
       </c>
       <c r="F46" s="4">
         <v>200</v>
@@ -31152,24 +31152,24 @@
         <v>10</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>1377</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
-        <v>1380</v>
+        <v>1375</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>1080</v>
+        <v>1075</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>1275</v>
+        <v>1270</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>1381</v>
+        <v>1376</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>1574</v>
+        <v>1569</v>
       </c>
       <c r="F47" s="4">
         <v>200</v>
@@ -31181,24 +31181,24 @@
         <v>10</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>1377</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>1081</v>
+        <v>1076</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>1275</v>
+        <v>1270</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>1383</v>
+        <v>1378</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>1574</v>
+        <v>1569</v>
       </c>
       <c r="F48" s="4">
         <v>200</v>
@@ -31210,24 +31210,24 @@
         <v>10</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>1377</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
-        <v>1384</v>
+        <v>1379</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>1082</v>
+        <v>1077</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>1275</v>
+        <v>1270</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>1385</v>
+        <v>1380</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>1574</v>
+        <v>1569</v>
       </c>
       <c r="F49" s="4">
         <v>200</v>
@@ -31239,24 +31239,24 @@
         <v>10</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>1377</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
-        <v>1386</v>
+        <v>1381</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>1083</v>
+        <v>1078</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>1275</v>
+        <v>1270</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>1387</v>
+        <v>1382</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>1574</v>
+        <v>1569</v>
       </c>
       <c r="F50" s="4">
         <v>200</v>
@@ -31268,24 +31268,24 @@
         <v>10</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>1377</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
-        <v>1388</v>
+        <v>1383</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>1084</v>
+        <v>1079</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>1275</v>
+        <v>1270</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>1389</v>
+        <v>1384</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>1574</v>
+        <v>1569</v>
       </c>
       <c r="F51" s="4">
         <v>200</v>
@@ -31297,24 +31297,24 @@
         <v>10</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>1377</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
-        <v>1390</v>
+        <v>1385</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>1085</v>
+        <v>1080</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>1275</v>
+        <v>1270</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>1391</v>
+        <v>1386</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>1574</v>
+        <v>1569</v>
       </c>
       <c r="F52" s="4">
         <v>200</v>
@@ -31326,24 +31326,24 @@
         <v>10</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>1377</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
-        <v>1392</v>
+        <v>1387</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>1086</v>
+        <v>1081</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>1275</v>
+        <v>1270</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>1393</v>
+        <v>1388</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>1574</v>
+        <v>1569</v>
       </c>
       <c r="F53" s="4">
         <v>200</v>
@@ -31355,24 +31355,24 @@
         <v>10</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>1377</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
-        <v>1394</v>
+        <v>1389</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>1087</v>
+        <v>1082</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>1275</v>
+        <v>1270</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>1395</v>
+        <v>1390</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>1574</v>
+        <v>1569</v>
       </c>
       <c r="F54" s="4">
         <v>200</v>
@@ -31384,24 +31384,24 @@
         <v>10</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>1377</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>1396</v>
+        <v>1391</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>1088</v>
+        <v>1083</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>1275</v>
+        <v>1270</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>1397</v>
+        <v>1392</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>1574</v>
+        <v>1569</v>
       </c>
       <c r="F55" s="4">
         <v>200</v>
@@ -31413,24 +31413,24 @@
         <v>10</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>1377</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
-        <v>1398</v>
+        <v>1393</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>1089</v>
+        <v>1084</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>1275</v>
+        <v>1270</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>1399</v>
+        <v>1394</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>1574</v>
+        <v>1569</v>
       </c>
       <c r="F56" s="4">
         <v>200</v>
@@ -31442,7 +31442,7 @@
         <v>10</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>1377</v>
+        <v>1372</v>
       </c>
     </row>
   </sheetData>
@@ -31501,24 +31501,24 @@
         <v>259</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>959</v>
+        <v>954</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>1424</v>
+        <v>1419</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>946</v>
+        <v>941</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>1540</v>
+        <v>1535</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>1425</v>
+        <v>1420</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>1542</v>
+        <v>1537</v>
       </c>
       <c r="F2" s="4">
         <v>200</v>
@@ -31530,25 +31530,25 @@
         <v>10</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>1566</v>
+        <v>1561</v>
       </c>
       <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>1426</v>
+        <v>1421</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>997</v>
+        <v>992</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>1540</v>
+        <v>1535</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>1427</v>
+        <v>1422</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>1542</v>
+        <v>1537</v>
       </c>
       <c r="F3" s="4">
         <v>200</v>
@@ -31560,25 +31560,25 @@
         <v>10</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>1567</v>
+        <v>1562</v>
       </c>
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>1428</v>
+        <v>1423</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>998</v>
+        <v>993</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>1540</v>
+        <v>1535</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>1429</v>
+        <v>1424</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>1542</v>
+        <v>1537</v>
       </c>
       <c r="F4" s="4">
         <v>200</v>
@@ -31590,25 +31590,25 @@
         <v>10</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>1568</v>
+        <v>1563</v>
       </c>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>1430</v>
+        <v>1425</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>999</v>
+        <v>994</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>1540</v>
+        <v>1535</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>1431</v>
+        <v>1426</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>1542</v>
+        <v>1537</v>
       </c>
       <c r="F5" s="4">
         <v>200</v>
@@ -31620,25 +31620,25 @@
         <v>10</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>1569</v>
+        <v>1564</v>
       </c>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>1432</v>
+        <v>1427</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>1540</v>
+        <v>1535</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>1433</v>
+        <v>1428</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>1542</v>
+        <v>1537</v>
       </c>
       <c r="F6" s="4">
         <v>200</v>
@@ -31650,25 +31650,25 @@
         <v>10</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>1568</v>
+        <v>1563</v>
       </c>
       <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>1434</v>
+        <v>1429</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>1001</v>
+        <v>996</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>1540</v>
+        <v>1535</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>1435</v>
+        <v>1430</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>1542</v>
+        <v>1537</v>
       </c>
       <c r="F7" s="4">
         <v>200</v>
@@ -31680,25 +31680,25 @@
         <v>10</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>1567</v>
+        <v>1562</v>
       </c>
       <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>1436</v>
+        <v>1431</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>1002</v>
+        <v>997</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>1540</v>
+        <v>1535</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>1437</v>
+        <v>1432</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>1542</v>
+        <v>1537</v>
       </c>
       <c r="F8" s="4">
         <v>200</v>
@@ -31710,25 +31710,25 @@
         <v>10</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>1570</v>
+        <v>1565</v>
       </c>
       <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>1438</v>
+        <v>1433</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>1003</v>
+        <v>998</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>1540</v>
+        <v>1535</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>1439</v>
+        <v>1434</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>1542</v>
+        <v>1537</v>
       </c>
       <c r="F9" s="4">
         <v>200</v>
@@ -31740,25 +31740,25 @@
         <v>10</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>1571</v>
+        <v>1566</v>
       </c>
       <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>1440</v>
+        <v>1435</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>1004</v>
+        <v>999</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>1540</v>
+        <v>1535</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>1441</v>
+        <v>1436</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>1542</v>
+        <v>1537</v>
       </c>
       <c r="F10" s="4">
         <v>200</v>
@@ -31770,25 +31770,25 @@
         <v>10</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>1572</v>
+        <v>1567</v>
       </c>
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>1442</v>
+        <v>1437</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>1540</v>
+        <v>1535</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>1443</v>
+        <v>1438</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>1542</v>
+        <v>1537</v>
       </c>
       <c r="F11" s="4">
         <v>200</v>
@@ -31800,25 +31800,25 @@
         <v>10</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>1567</v>
+        <v>1562</v>
       </c>
       <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>1444</v>
+        <v>1439</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>1006</v>
+        <v>1001</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>1540</v>
+        <v>1535</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>1445</v>
+        <v>1440</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>1542</v>
+        <v>1537</v>
       </c>
       <c r="F12" s="4">
         <v>200</v>
@@ -31830,25 +31830,25 @@
         <v>10</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>1446</v>
+        <v>1441</v>
       </c>
       <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>1447</v>
+        <v>1442</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>1540</v>
+        <v>1535</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>1448</v>
+        <v>1443</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>1542</v>
+        <v>1537</v>
       </c>
       <c r="F13" s="4">
         <v>200</v>
@@ -31860,25 +31860,25 @@
         <v>10</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>1573</v>
+        <v>1568</v>
       </c>
       <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>1449</v>
+        <v>1444</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>1540</v>
+        <v>1535</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>1450</v>
+        <v>1445</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>1542</v>
+        <v>1537</v>
       </c>
       <c r="F14" s="4">
         <v>200</v>
@@ -31890,23 +31890,23 @@
         <v>10</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>1566</v>
+        <v>1561</v>
       </c>
       <c r="J14" s="4"/>
     </row>
     <row r="15" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>1451</v>
+        <v>1446</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>284</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4" t="s">
-        <v>1529</v>
+        <v>1524</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>1542</v>
+        <v>1537</v>
       </c>
       <c r="F15" s="4">
         <v>200</v>
@@ -31918,25 +31918,25 @@
         <v>10</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>1452</v>
+        <v>1447</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>1543</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>1453</v>
+        <v>1448</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>973</v>
+        <v>968</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4" t="s">
-        <v>1540</v>
+        <v>1535</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>1542</v>
+        <v>1537</v>
       </c>
       <c r="F16" s="4">
         <v>200</v>
@@ -31948,25 +31948,25 @@
         <v>10</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>1454</v>
+        <v>1449</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>1548</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>1455</v>
+        <v>1450</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>977</v>
+        <v>972</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4" t="s">
-        <v>1530</v>
+        <v>1525</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>1542</v>
+        <v>1537</v>
       </c>
       <c r="F17" s="4">
         <v>200</v>
@@ -31982,17 +31982,17 @@
     </row>
     <row r="18" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>1456</v>
+        <v>1451</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>983</v>
+        <v>978</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4" t="s">
-        <v>1531</v>
+        <v>1526</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>1542</v>
+        <v>1537</v>
       </c>
       <c r="F18" s="4">
         <v>200</v>
@@ -32008,17 +32008,17 @@
     </row>
     <row r="19" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>1457</v>
+        <v>1452</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>979</v>
+        <v>974</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4" t="s">
-        <v>1532</v>
+        <v>1527</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>1542</v>
+        <v>1537</v>
       </c>
       <c r="F19" s="4">
         <v>200</v>
@@ -32034,17 +32034,17 @@
     </row>
     <row r="20" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>1458</v>
+        <v>1453</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4" t="s">
-        <v>1459</v>
+        <v>1454</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>1542</v>
+        <v>1537</v>
       </c>
       <c r="F20" s="7">
         <v>200</v>
@@ -32059,17 +32059,17 @@
     </row>
     <row r="21" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>1460</v>
+        <v>1455</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4" t="s">
-        <v>1533</v>
+        <v>1528</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>1542</v>
+        <v>1537</v>
       </c>
       <c r="F21" s="4">
         <v>200</v>
@@ -32085,19 +32085,19 @@
     </row>
     <row r="22" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>1461</v>
+        <v>1456</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>1056</v>
+        <v>1051</v>
       </c>
       <c r="C22" s="4" t="s">
+        <v>1524</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>1529</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>1534</v>
-      </c>
       <c r="E22" s="7" t="s">
-        <v>1542</v>
+        <v>1537</v>
       </c>
       <c r="F22" s="4">
         <v>200</v>
@@ -32109,27 +32109,27 @@
         <v>10</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>1462</v>
+        <v>1457</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>1544</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>1463</v>
+        <v>1458</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>1057</v>
+        <v>1052</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>1540</v>
+        <v>1535</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>1541</v>
+        <v>1536</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>1542</v>
+        <v>1537</v>
       </c>
       <c r="F23" s="4">
         <v>200</v>
@@ -32141,27 +32141,27 @@
         <v>10</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>1464</v>
+        <v>1459</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>1549</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>1465</v>
+        <v>1460</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>1058</v>
+        <v>1053</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>1529</v>
+        <v>1524</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>1535</v>
+        <v>1530</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>1542</v>
+        <v>1537</v>
       </c>
       <c r="F24" s="4">
         <v>200</v>
@@ -32177,19 +32177,19 @@
     </row>
     <row r="25" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>1466</v>
+        <v>1461</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>1059</v>
+        <v>1054</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>1529</v>
+        <v>1524</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>1536</v>
+        <v>1531</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>1542</v>
+        <v>1537</v>
       </c>
       <c r="F25" s="4">
         <v>200</v>
@@ -32205,19 +32205,19 @@
     </row>
     <row r="26" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>1467</v>
+        <v>1462</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>1060</v>
+        <v>1055</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>1529</v>
+        <v>1524</v>
       </c>
       <c r="D26" s="4" t="s">
+        <v>1532</v>
+      </c>
+      <c r="E26" s="7" t="s">
         <v>1537</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>1542</v>
       </c>
       <c r="F26" s="4">
         <v>200</v>
@@ -32233,19 +32233,19 @@
     </row>
     <row r="27" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>1468</v>
+        <v>1463</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>1254</v>
+        <v>1249</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>1529</v>
+        <v>1524</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>1469</v>
+        <v>1464</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>1542</v>
+        <v>1537</v>
       </c>
       <c r="F27" s="7">
         <v>200</v>
@@ -32260,19 +32260,19 @@
     </row>
     <row r="28" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>1470</v>
+        <v>1465</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>1061</v>
+        <v>1056</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>1529</v>
+        <v>1524</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>1538</v>
+        <v>1533</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>1542</v>
+        <v>1537</v>
       </c>
       <c r="F28" s="4">
         <v>200</v>
@@ -32288,19 +32288,19 @@
     </row>
     <row r="29" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>1471</v>
+        <v>1466</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>990</v>
+        <v>985</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>1529</v>
+        <v>1524</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>1539</v>
+        <v>1534</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>1542</v>
+        <v>1537</v>
       </c>
       <c r="F29" s="4">
         <v>200</v>
@@ -32312,25 +32312,25 @@
         <v>10</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>1462</v>
+        <v>1457</v>
       </c>
       <c r="J29" s="4"/>
     </row>
     <row r="30" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>1472</v>
+        <v>1467</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>1062</v>
+        <v>1057</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>1540</v>
+        <v>1535</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>1473</v>
+        <v>1468</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>1542</v>
+        <v>1537</v>
       </c>
       <c r="F30" s="4">
         <v>200</v>
@@ -32342,27 +32342,27 @@
         <v>10</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>1474</v>
+        <v>1469</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>1550</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>1475</v>
+        <v>1470</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>1063</v>
+        <v>1058</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>1540</v>
+        <v>1535</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>1476</v>
+        <v>1471</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>1542</v>
+        <v>1537</v>
       </c>
       <c r="F31" s="4">
         <v>200</v>
@@ -32374,27 +32374,27 @@
         <v>10</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>1474</v>
+        <v>1469</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>1551</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>1477</v>
+        <v>1472</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>1064</v>
+        <v>1059</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>1540</v>
+        <v>1535</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>1478</v>
+        <v>1473</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>1542</v>
+        <v>1537</v>
       </c>
       <c r="F32" s="4">
         <v>200</v>
@@ -32406,27 +32406,27 @@
         <v>10</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>1474</v>
+        <v>1469</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>1552</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>1479</v>
+        <v>1474</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>1065</v>
+        <v>1060</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>1540</v>
+        <v>1535</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>1542</v>
+        <v>1537</v>
       </c>
       <c r="F33" s="4">
         <v>200</v>
@@ -32438,27 +32438,27 @@
         <v>10</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>1474</v>
+        <v>1469</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>1553</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>1481</v>
+        <v>1476</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>1066</v>
+        <v>1061</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>1540</v>
+        <v>1535</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>1482</v>
+        <v>1477</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>1542</v>
+        <v>1537</v>
       </c>
       <c r="F34" s="4">
         <v>200</v>
@@ -32470,27 +32470,27 @@
         <v>10</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>1474</v>
+        <v>1469</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>1554</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>1483</v>
+        <v>1478</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>1067</v>
+        <v>1062</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>1540</v>
+        <v>1535</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>1484</v>
+        <v>1479</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>1542</v>
+        <v>1537</v>
       </c>
       <c r="F35" s="4">
         <v>200</v>
@@ -32502,27 +32502,27 @@
         <v>10</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>1474</v>
+        <v>1469</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>1555</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>1485</v>
+        <v>1480</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>1068</v>
+        <v>1063</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>1540</v>
+        <v>1535</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>1486</v>
+        <v>1481</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>1542</v>
+        <v>1537</v>
       </c>
       <c r="F36" s="4">
         <v>200</v>
@@ -32534,27 +32534,27 @@
         <v>10</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>1474</v>
+        <v>1469</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>1556</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>1487</v>
+        <v>1482</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>1069</v>
+        <v>1064</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>1540</v>
+        <v>1535</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>1488</v>
+        <v>1483</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>1542</v>
+        <v>1537</v>
       </c>
       <c r="F37" s="4">
         <v>200</v>
@@ -32566,27 +32566,27 @@
         <v>10</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>1474</v>
+        <v>1469</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>1557</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>1489</v>
+        <v>1484</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>1070</v>
+        <v>1065</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>1540</v>
+        <v>1535</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>1490</v>
+        <v>1485</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>1542</v>
+        <v>1537</v>
       </c>
       <c r="F38" s="4">
         <v>200</v>
@@ -32598,27 +32598,27 @@
         <v>10</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>1474</v>
+        <v>1469</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>1558</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>1491</v>
+        <v>1486</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>1071</v>
+        <v>1066</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>1540</v>
+        <v>1535</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>1492</v>
+        <v>1487</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>1542</v>
+        <v>1537</v>
       </c>
       <c r="F39" s="4">
         <v>200</v>
@@ -32630,27 +32630,27 @@
         <v>10</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>1474</v>
+        <v>1469</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>1548</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>1493</v>
+        <v>1488</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>1072</v>
+        <v>1067</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>1540</v>
+        <v>1535</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>1494</v>
+        <v>1489</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>1542</v>
+        <v>1537</v>
       </c>
       <c r="F40" s="4">
         <v>200</v>
@@ -32662,27 +32662,27 @@
         <v>10</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>1474</v>
+        <v>1469</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>1559</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>1495</v>
+        <v>1490</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>1073</v>
+        <v>1068</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>1540</v>
+        <v>1535</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>1496</v>
+        <v>1491</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>1542</v>
+        <v>1537</v>
       </c>
       <c r="F41" s="4">
         <v>200</v>
@@ -32694,27 +32694,27 @@
         <v>10</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>1474</v>
+        <v>1469</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>1560</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>1497</v>
+        <v>1492</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>1075</v>
+        <v>1070</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>1540</v>
+        <v>1535</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>1498</v>
+        <v>1493</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>1542</v>
+        <v>1537</v>
       </c>
       <c r="F42" s="4">
         <v>200</v>
@@ -32726,27 +32726,27 @@
         <v>10</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>1499</v>
+        <v>1494</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>1561</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>1500</v>
+        <v>1495</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>1076</v>
+        <v>1071</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>1540</v>
+        <v>1535</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>1501</v>
+        <v>1496</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>1542</v>
+        <v>1537</v>
       </c>
       <c r="F43" s="4">
         <v>200</v>
@@ -32758,7 +32758,7 @@
         <v>10</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>1499</v>
+        <v>1494</v>
       </c>
       <c r="J43" s="4" t="s">
         <v>601</v>
@@ -32766,17 +32766,17 @@
     </row>
     <row r="44" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>1502</v>
+        <v>1497</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>1077</v>
+        <v>1072</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4" t="s">
-        <v>1503</v>
+        <v>1498</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>1542</v>
+        <v>1537</v>
       </c>
       <c r="F44" s="4">
         <v>200</v>
@@ -32788,25 +32788,25 @@
         <v>10</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>1499</v>
+        <v>1494</v>
       </c>
       <c r="J44" s="4"/>
     </row>
     <row r="45" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>1504</v>
+        <v>1499</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>1540</v>
+        <v>1535</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>1505</v>
+        <v>1500</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>1542</v>
+        <v>1537</v>
       </c>
       <c r="F45" s="4">
         <v>200</v>
@@ -32818,91 +32818,91 @@
         <v>10</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>1506</v>
+        <v>1501</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>1562</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>1507</v>
+        <v>1502</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>1079</v>
+        <v>1074</v>
       </c>
       <c r="C46" s="4" t="s">
+        <v>1535</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>1503</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>1537</v>
+      </c>
+      <c r="F46" s="4">
+        <v>200</v>
+      </c>
+      <c r="G46" s="4">
+        <v>100000</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>1501</v>
+      </c>
+      <c r="J46" s="4" t="s">
         <v>1540</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>1508</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>1542</v>
-      </c>
-      <c r="F46" s="4">
-        <v>200</v>
-      </c>
-      <c r="G46" s="4">
-        <v>100000</v>
-      </c>
-      <c r="H46" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I46" s="4" t="s">
-        <v>1506</v>
-      </c>
-      <c r="J46" s="4" t="s">
-        <v>1545</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
-        <v>1509</v>
+        <v>1504</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>1080</v>
+        <v>1075</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>1540</v>
+        <v>1535</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>1510</v>
+        <v>1505</v>
       </c>
       <c r="E47" s="7" t="s">
+        <v>1537</v>
+      </c>
+      <c r="F47" s="4">
+        <v>200</v>
+      </c>
+      <c r="G47" s="4">
+        <v>100000</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>1501</v>
+      </c>
+      <c r="J47" s="4" t="s">
         <v>1542</v>
-      </c>
-      <c r="F47" s="4">
-        <v>200</v>
-      </c>
-      <c r="G47" s="4">
-        <v>100000</v>
-      </c>
-      <c r="H47" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I47" s="4" t="s">
-        <v>1506</v>
-      </c>
-      <c r="J47" s="4" t="s">
-        <v>1547</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
-        <v>1511</v>
+        <v>1506</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>1081</v>
+        <v>1076</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>1540</v>
+        <v>1535</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>1512</v>
+        <v>1507</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>1542</v>
+        <v>1537</v>
       </c>
       <c r="F48" s="4">
         <v>200</v>
@@ -32914,27 +32914,27 @@
         <v>10</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>1506</v>
+        <v>1501</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>1546</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
-        <v>1513</v>
+        <v>1508</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>1082</v>
+        <v>1077</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>1540</v>
+        <v>1535</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>1514</v>
+        <v>1509</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>1542</v>
+        <v>1537</v>
       </c>
       <c r="F49" s="4">
         <v>200</v>
@@ -32946,27 +32946,27 @@
         <v>10</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>1506</v>
+        <v>1501</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>1563</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
-        <v>1515</v>
+        <v>1510</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>1083</v>
+        <v>1078</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>1540</v>
+        <v>1535</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>1516</v>
+        <v>1511</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>1542</v>
+        <v>1537</v>
       </c>
       <c r="F50" s="4">
         <v>200</v>
@@ -32978,27 +32978,27 @@
         <v>10</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>1506</v>
+        <v>1501</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>1564</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
-        <v>1517</v>
+        <v>1512</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>1084</v>
+        <v>1079</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>1540</v>
+        <v>1535</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>1518</v>
+        <v>1513</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>1542</v>
+        <v>1537</v>
       </c>
       <c r="F51" s="4">
         <v>200</v>
@@ -33010,27 +33010,27 @@
         <v>10</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>1506</v>
+        <v>1501</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>1563</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
-        <v>1519</v>
+        <v>1514</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>1085</v>
+        <v>1080</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>1540</v>
+        <v>1535</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>1520</v>
+        <v>1515</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>1542</v>
+        <v>1537</v>
       </c>
       <c r="F52" s="4">
         <v>200</v>
@@ -33042,27 +33042,27 @@
         <v>10</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>1506</v>
+        <v>1501</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>1546</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
-        <v>1521</v>
+        <v>1516</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>1086</v>
+        <v>1081</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>1540</v>
+        <v>1535</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>1522</v>
+        <v>1517</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>1542</v>
+        <v>1537</v>
       </c>
       <c r="F53" s="4">
         <v>200</v>
@@ -33074,7 +33074,7 @@
         <v>10</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>1506</v>
+        <v>1501</v>
       </c>
       <c r="J53" s="4" t="s">
         <v>601</v>
@@ -33082,19 +33082,19 @@
     </row>
     <row r="54" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
-        <v>1523</v>
+        <v>1518</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>1087</v>
+        <v>1082</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>1540</v>
+        <v>1535</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>1524</v>
+        <v>1519</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>1542</v>
+        <v>1537</v>
       </c>
       <c r="F54" s="4">
         <v>200</v>
@@ -33106,27 +33106,27 @@
         <v>10</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>1506</v>
+        <v>1501</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>1565</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>1525</v>
+        <v>1520</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>1088</v>
+        <v>1083</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>1540</v>
+        <v>1535</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>1526</v>
+        <v>1521</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>1542</v>
+        <v>1537</v>
       </c>
       <c r="F55" s="4">
         <v>200</v>
@@ -33138,27 +33138,27 @@
         <v>10</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>1506</v>
+        <v>1501</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>1562</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
-        <v>1527</v>
+        <v>1522</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>1089</v>
+        <v>1084</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>1540</v>
+        <v>1535</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>1528</v>
+        <v>1523</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>1542</v>
+        <v>1537</v>
       </c>
       <c r="F56" s="4">
         <v>200</v>
@@ -33170,7 +33170,7 @@
         <v>10</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>1506</v>
+        <v>1501</v>
       </c>
       <c r="J56" s="4" t="s">
         <v>601</v>

--- a/src/main/resources/test-data-xls/iot-api-engine-test-data.xlsx
+++ b/src/main/resources/test-data-xls/iot-api-engine-test-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_codes\data-layer-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AED0485E-8A1D-4228-BEB6-34F6BBD29F8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03D6F238-0487-4985-8DA9-5843E0BAFF66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" tabRatio="743" firstSheet="10" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16581,34 +16581,6 @@
   </si>
   <si>
     <t>{
-    "UserForRestfulEnhance_Delete_By_Condition": {
-        "json_value": [
-            {
-                "code": 1,
-                "data": "Conditions parse error(syntax error or field not exist in mapper) (( ID = '1' and ID in ('2','3') ))"
-            }
-        ],
-        "reserved_field_1": null,
-        "reserved_field_2": null
-    }
-}</t>
-  </si>
-  <si>
-    <t>{
-    "UserForRestfulEnhance_Delete_By_Condition": {
-        "json_value": [
-            {
-                "code": 1,
-                "data": "Conditions parse error(syntax error or field not exist in mapper) (ID not in ('1','2','3'))"
-            }
-        ],
-        "reserved_field_1": null,
-        "reserved_field_2": null
-    }
-}</t>
-  </si>
-  <si>
-    <t>{
     "UserWithBodyForRestfulEnhance_Delete_By_Condition": {
       "json_value": [
         {
@@ -16642,6 +16614,34 @@
         {
           "code": 1,
           "data": "Conditions parse error(syntax error or field not exist in mapper) (\"ID\" = '1' AND \"NAME\" = 'name1' AND \"AGE\" = '11' AND(\"ID\", \"NAME\", \"AGE\") IN (('5', 'name5', '15'),('6', 'name6', '16')))"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "UserForRestfulEnhance_Delete_By_Condition": {
+      "json_value": [
+        {
+          "code": 1,
+          "data": "Conditions parse error(syntax error or field not exist in mapper) (\"ID\" = '1' AND \"ID\" IN ('2', '3'))"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "UserForRestfulEnhance_Delete_By_Condition": {
+      "json_value": [
+        {
+          "code": 1,
+          "data": "Conditions parse error(syntax error or field not exist in mapper) (\"ID\" NOT IN ('1', '2', '3'))"
         }
       ],
       "reserved_field_1": null,
@@ -18559,8 +18559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FD7D6DE-617D-4A49-9D87-297640E0E1DC}">
   <dimension ref="A1:H141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="I138" sqref="I138"/>
+    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="I103" sqref="I103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -21207,7 +21207,7 @@
         <v>10</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>1571</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
@@ -21387,7 +21387,7 @@
         <v>10</v>
       </c>
       <c r="H110" s="4" t="s">
-        <v>1570</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
@@ -21645,7 +21645,7 @@
         <v>10</v>
       </c>
       <c r="H120" s="4" t="s">
-        <v>1572</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
@@ -21877,7 +21877,7 @@
         <v>10</v>
       </c>
       <c r="H129" s="4" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
@@ -22109,7 +22109,7 @@
         <v>10</v>
       </c>
       <c r="H138" s="4" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">

--- a/src/main/resources/test-data-xls/iot-api-engine-test-data.xlsx
+++ b/src/main/resources/test-data-xls/iot-api-engine-test-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_codes\data-layer-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03D6F238-0487-4985-8DA9-5843E0BAFF66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88D14732-CDBB-40F9-BAE6-AAD80A0C776E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" tabRatio="743" firstSheet="10" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" tabRatio="743" firstSheet="11" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="getDataEntities" sheetId="2" r:id="rId1"/>
@@ -28,6 +28,7 @@
     <sheet name="testWhichVerifyRspdata" sheetId="19" r:id="rId13"/>
     <sheet name="testMultiDataSource" sheetId="20" r:id="rId14"/>
     <sheet name="readWriteSqlServer-bc" sheetId="23" r:id="rId15"/>
+    <sheet name="sendSqlToDatalayerVerifyResults" sheetId="26" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3777" uniqueCount="1575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3870" uniqueCount="1665">
   <si>
     <t>description</t>
   </si>
@@ -16648,6 +16649,276 @@
       "reserved_field_2": null
     }
 }</t>
+  </si>
+  <si>
+    <t>sqlToDatalayer</t>
+  </si>
+  <si>
+    <t>sqlToOracle</t>
+  </si>
+  <si>
+    <t>SELECT MAX(id) FROM JINZUDEV.TB_SYS_USER</t>
+  </si>
+  <si>
+    <t>SELECT count( * ) FROM JINZUDEV.TB_SYS_USER</t>
+  </si>
+  <si>
+    <t>SELECT count(department) FROM JINZUDEV.TB_SYS_USER</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(DISTINCT department) FROM JINZUDEV.TB_SYS_USER</t>
+  </si>
+  <si>
+    <t>SELECT MIN(id) FROM JINZUDEV.TB_SYS_USER</t>
+  </si>
+  <si>
+    <t>SELECT SUM(id) FROM JINZUDEV.TB_SYS_USER</t>
+  </si>
+  <si>
+    <t>SELECT password,deleted,new_column,employee_number,"POSITION",department,remarks,username,id FROM JINZUDEV.TB_SYS_USER WHERE department LIKE '%BOSS%' AND "POSITION" = 'CEO'</t>
+  </si>
+  <si>
+    <t>SELECT password,deleted,new_column,employee_number,"POSITION",department,remarks,username,id FROM JINZUDEV.TB_SYS_USER WHERE department LIKE '%BOSS%' OR "POSITION" = 'IM'</t>
+  </si>
+  <si>
+    <t>SELECT TRIM(DEPARTMENT) FROM JINZUDEV.TB_SYS_USER</t>
+  </si>
+  <si>
+    <t>SELECT TRIM(ID) FROM JINZUDEV.TB_SYS_USER</t>
+  </si>
+  <si>
+    <t>SELECT password,deleted,new_column,employee_number,"POSITION",department,remarks,username,id FROM JINZUDEV.TB_SYS_USER WHERE id between 5 and 10</t>
+  </si>
+  <si>
+    <t>SELECT password,deleted,new_column,employee_number,"POSITION",department,remarks,username,id FROM JINZUDEV.TB_SYS_USER WHERE DEPARTMENT between 'BUSINESS_DEPT_1' and 'BUSINESS_DEPT_5'</t>
+  </si>
+  <si>
+    <t>SELECT department , REPLACE(department, 'DEPT', 'NEW_NAME') new_department FROM JINZUDEV.TB_SYS_USER</t>
+  </si>
+  <si>
+    <t>SELECT department , REPLACE(department, 'DEPT', 'NEW_NAME') new_department FROM JINZUDEV.TB_SYS_USER WHERE id = 1</t>
+  </si>
+  <si>
+    <t>SELECT department , REPLACE(department, 'DE', 'NEW_NAME_') new_department FROM JINZUDEV.TB_SYS_USER</t>
+  </si>
+  <si>
+    <t>SELECT department , SUBSTR(department,2,6) new_department FROM JINZUDEV.TB_SYS_USER</t>
+  </si>
+  <si>
+    <t>SELECT password,deleted,new_column,employee_number,"POSITION",department,remarks,username,id FROM JINZUDEV.TB_SYS_USER WHERE SUBSTR(department,2,6) in ('OSS_DE', 'SSET_D')</t>
+  </si>
+  <si>
+    <t>SELECT username, department , CONCAT(username, department) FROM JINZUDEV.TB_SYS_USER</t>
+  </si>
+  <si>
+    <t>SELECT LOWER(department) FROM JINZUDEV.TB_SYS_USER</t>
+  </si>
+  <si>
+    <t>SELECT UPPER(department) FROM JINZUDEV.TB_SYS_USER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT abs(parent_id) FROM datalayer.datalayer.Dept </t>
+  </si>
+  <si>
+    <t>SELECT abs(parent_id) FROM JINZUDEV.TB_SYS_DEPT</t>
+  </si>
+  <si>
+    <t>SELECT id, issue_time, event, lease_id FROM datalayer.datalayer.Alarm</t>
+  </si>
+  <si>
+    <t>SELECT id, ccid, latitude, longitude FROM datalayer.datalayer.IotRealtimeData</t>
+  </si>
+  <si>
+    <t>SELECT id, ccid, latitude, longitude FROM JINZUDEV.IOT_REALTIME_DATA</t>
+  </si>
+  <si>
+    <t>SELECT password,deleted,NEW_COLUMN mn,employee_number,"POSITION" ,department,remarks,username,id FROM JINZUDEV.TB_SYS_USER WHERE department LIKE '%DEPT_3'</t>
+  </si>
+  <si>
+    <t>SELECT password,deleted,new_column,employee_number,"POSITION",department,remarks,username,id FROM JINZUDEV.TB_SYS_USER WHERE department LIKE 'MANAGEMENT%'</t>
+  </si>
+  <si>
+    <t>SELECT AVG(id), department FROM JINZUDEV.TB_SYS_USER GROUP BY department order by department</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(id), department FROM JINZUDEV.TB_SYS_USER GROUP BY department order by department</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(id), department FROM JINZUDEV.TB_SYS_USER GROUP BY department HAVING department LIKE '%BUSINESS%' order by department</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT department FROM JINZUDEV.TB_SYS_USER order by department</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT u.id, u.username, r.role_name FROM JINZUDEV.TB_SYS_USER u LEFT JOIN JINZUDEV.TB_SYS_USER_ROLE ur ON u.id = ur.user_id LEFT JOIN JINZUDEV.TB_SYS_ROLE r ON r.id = ur.role_id ORDER BY u.id, u.username, r.role_name DESC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT u.id, u.username, r.role_name FROM JINZUDEV.TB_SYS_USER u RIGHT JOIN JINZUDEV.TB_SYS_USER_ROLE ur ON u.id = ur.user_id RIGHT JOIN JINZUDEV.TB_SYS_ROLE r ON r.id = ur.role_id ORDER BY u.id, u.username, r.role_name DESC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT u.id, u.username, r.role_name FROM JINZUDEV.TB_SYS_USER u INNER JOIN JINZUDEV.TB_SYS_USER_ROLE ur ON u.id = ur.user_id INNER JOIN JINZUDEV.TB_SYS_ROLE r ON r.id = ur.role_id ORDER BY u.id, u.username, r.role_name DESC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT u.id, u.username, r.role_name FROM JINZUDEV.TB_SYS_USER u, JINZUDEV.TB_SYS_USER_ROLE ur, JINZUDEV.TB_SYS_ROLE r WHERE u.id = ur.user_id AND r.id = ur.role_id ORDER BY u.id, u.username, r.role_name DESC </t>
+  </si>
+  <si>
+    <t>SELECT password,deleted,new_column,employee_number,"POSITION",department,remarks,username,id FROM JINZUDEV.TB_SYS_USER WHERE id IN (1,2,3) ORDER BY id</t>
+  </si>
+  <si>
+    <t>SELECT password,deleted,new_column,employee_number,"POSITION",department,remarks,username,id FROM JINZUDEV.TB_SYS_USER WHERE department IN (SELECT dept_key FROM JINZUDEV.TB_SYS_DEPT WHERE id = 1)</t>
+  </si>
+  <si>
+    <t>SELECT department FROM JINZUDEV.TB_SYS_USER INTERSECT SELECT dept_key FROM JINZUDEV.TB_SYS_DEPT ORDER BY department</t>
+  </si>
+  <si>
+    <t>SELECT id, remarks, sort, parent_id, dept_name, dept_key FROM datalayer.datalayer.Dept ORDER BY id</t>
+  </si>
+  <si>
+    <t>SELECT id, remarks, sort, parent_id, dept_name, dept_key FROM JINZUDEV.TB_SYS_DEPT ORDER BY id</t>
+  </si>
+  <si>
+    <t>SELECT a_id, issue_time, event, lease_id FROM JINZUDEV.ALARM</t>
+  </si>
+  <si>
+    <t>SELECT password,deleted,new_column,employee_number,"POSITION",department,remarks,username,id FROM JINZUDEV.TB_SYS_USER WHERE department LIKE '%OSS_DE%' ORDER BY id</t>
+  </si>
+  <si>
+    <t>SELECT password,deleted,new_column,employee_number,"POSITION",department,remarks,username,id FROM JINZUDEV.TB_SYS_USER WHERE DEPARTMENT IN ('BOSS_DEPT','ASSET_DEPT','MANAGEMENT_DEPT') ORDER BY id</t>
+  </si>
+  <si>
+    <t>SELECT password,deleted,new_column,employee_number,"POSITION",department,remarks,username,id FROM JINZUDEV.TB_SYS_USER WHERE rownum &lt; 6 ORDER BY id</t>
+  </si>
+  <si>
+    <t>SELECT DEPARTMENT FROM JINZUDEV.TB_SYS_USER UNION SELECT DEPT_KEY FROM JINZUDEV.TB_SYS_DEPT ORDER BY department</t>
+  </si>
+  <si>
+    <t>SELECT DEPARTMENT FROM JINZUDEV.TB_SYS_USER UNION ALL SELECT DEPT_KEY FROM JINZUDEV.TB_SYS_DEPT ORDER BY department</t>
+  </si>
+  <si>
+    <t>SELECT password,deleted,new_column,employee_number,"POSITION",department,remarks,username,id FROM JINZUDEV.TB_SYS_USER WHERE rownum &lt; 9 MINUS SELECT password,deleted,new_column,employee_number,"POSITION",department,remarks,username,id FROM JINZUDEV.TB_SYS_USER WHERE rownum &lt; 4 ORDER BY id</t>
+  </si>
+  <si>
+    <t>autoVerified</t>
+  </si>
+  <si>
+    <t>AVG has bug SDL-10273</t>
+  </si>
+  <si>
+    <t>SELECT password,deleted,new_colomn,employee_number,"position",department,remarks,username,id FROM datalayer.datalayer."User1" WHERE department LIKE '%OSS_DE%' ORDER BY id</t>
+  </si>
+  <si>
+    <t>SELECT password,deleted,new_colomn,employee_number,"position",department,remarks,username,id FROM datalayer.datalayer."User1" WHERE department LIKE '%DEPT_3'</t>
+  </si>
+  <si>
+    <t>SELECT password,deleted,new_colomn,employee_number,"position",department,remarks,username,id FROM datalayer.datalayer."User1" WHERE department LIKE 'MANAGEMENT%'</t>
+  </si>
+  <si>
+    <t>SELECT count( * ) FROM datalayer.datalayer."User1"</t>
+  </si>
+  <si>
+    <t>SELECT count(department) FROM datalayer.datalayer."User1"</t>
+  </si>
+  <si>
+    <t>SELECT AVG(id), department FROM datalayer.datalayer."User1" GROUP BY department order by department</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(id), department FROM datalayer.datalayer."User1" GROUP BY department order by department</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(id), department FROM datalayer.datalayer."User1" GROUP BY department HAVING department LIKE '%BUSINESS%' order by department</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(DISTINCT department) FROM datalayer.datalayer."User1"</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT department FROM datalayer.datalayer."User1" order by department</t>
+  </si>
+  <si>
+    <t>SELECT MAX(id) FROM datalayer.datalayer."User1"</t>
+  </si>
+  <si>
+    <t>SELECT MIN(id) FROM datalayer.datalayer."User1"</t>
+  </si>
+  <si>
+    <t>SELECT SUM(id) FROM datalayer.datalayer."User1"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT u.id, u.username, r.role_name FROM datalayer.datalayer."User1" u LEFT JOIN datalayer.datalayer.UserRole ur ON u.id = ur.user_id LEFT JOIN datalayer.datalayer."Role" r ON r.id = ur.role_id ORDER BY u.id, u.username, r.role_name DESC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT u.id, u.username, r.role_name FROM datalayer.datalayer."User1" u RIGHT JOIN datalayer.datalayer.UserRole ur ON u.id = ur.user_id RIGHT JOIN datalayer.datalayer."Role" r ON r.id = ur.role_id ORDER BY u.id, u.username, r.role_name DESC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT u.id, u.username, r.role_name FROM datalayer.datalayer."User1" u INNER JOIN datalayer.datalayer.UserRole ur ON u.id = ur.user_id INNER JOIN datalayer.datalayer."Role" r ON r.id = ur.role_id ORDER BY u.id, u.username, r.role_name DESC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT u.id, u.username, r.role_name FROM datalayer.datalayer."User1" u, datalayer.datalayer.UserRole ur, datalayer.datalayer."Role" r WHERE u.id = ur.user_id AND r.id = ur.role_id ORDER BY u.id, u.username, r.role_name DESC </t>
+  </si>
+  <si>
+    <t>SELECT password,deleted,new_colomn,employee_number,"position",department,remarks,username,id FROM datalayer.datalayer."User1" WHERE department LIKE '%BOSS%' AND "position" = 'CEO'</t>
+  </si>
+  <si>
+    <t>SELECT password,deleted,new_colomn,employee_number,"position",department,remarks,username,id FROM datalayer.datalayer."User1" WHERE department LIKE '%BOSS%' OR "position" = 'IM'</t>
+  </si>
+  <si>
+    <t>SELECT password,deleted,new_colomn,employee_number,"position",department,remarks,username,id FROM datalayer.datalayer."User1" WHERE id IN (1,2,3) ORDER BY id</t>
+  </si>
+  <si>
+    <t>SELECT password,deleted,new_colomn,employee_number,"position",department,remarks,username,id FROM datalayer.datalayer."User1" WHERE department IN ('BOSS_DEPT','ASSET_DEPT','MANAGEMENT_DEPT') ORDER BY id</t>
+  </si>
+  <si>
+    <t>SELECT department FROM datalayer.datalayer."User1" UNION SELECT dept_key FROM datalayer.datalayer.Dept ORDER BY department</t>
+  </si>
+  <si>
+    <t>SELECT department FROM datalayer.datalayer."User1" UNION ALL SELECT dept_key FROM datalayer.datalayer.Dept ORDER BY department</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT password,deleted,new_colomn,employee_number,"position",department,remarks,username,id FROM datalayer.datalayer."User1" ORDER BY id limit 5 </t>
+  </si>
+  <si>
+    <t>SELECT password,deleted,new_colomn,employee_number,"position",department,remarks,username,id FROM datalayer.datalayer."User1" ORDER BY id limit 5 offset 3</t>
+  </si>
+  <si>
+    <t>SELECT TRIM(department) FROM datalayer.datalayer."User1"</t>
+  </si>
+  <si>
+    <t>SELECT TRIM(id) FROM datalayer.datalayer."User1"</t>
+  </si>
+  <si>
+    <t>SELECT password,deleted,new_colomn,employee_number,"position",department,remarks,username,id FROM datalayer.datalayer."User1" WHERE id between 5 and 10</t>
+  </si>
+  <si>
+    <t>SELECT password,deleted,new_colomn,employee_number,"position",department,remarks,username,id FROM datalayer.datalayer."User1" WHERE DEPARTMENT between 'BUSINESS_DEPT_1' and 'BUSINESS_DEPT_5'</t>
+  </si>
+  <si>
+    <t>SELECT department , REPLACE(department, 'DEPT', 'NEW_NAME') new_department FROM datalayer.datalayer."User1"</t>
+  </si>
+  <si>
+    <t>SELECT department , REPLACE(department, 'DEPT', 'NEW_NAME') new_department FROM datalayer.datalayer."User1" WHERE id = 1</t>
+  </si>
+  <si>
+    <t>SELECT department , REPLACE(department, 'DE', 'NEW_NAME_') new_department FROM datalayer.datalayer."User1"</t>
+  </si>
+  <si>
+    <t>SELECT department , SUBSTRING(department,2,6) new_department FROM datalayer.datalayer."User1"</t>
+  </si>
+  <si>
+    <t>SELECT password,deleted,new_colomn,employee_number,"position",department,remarks,username,id FROM datalayer.datalayer."User1" WHERE SUBSTRING(department,2,6) in ('OSS_DE', 'SSET_D')</t>
+  </si>
+  <si>
+    <t>SELECT username, department , CONCAT(username, department) FROM datalayer.datalayer."User1"</t>
+  </si>
+  <si>
+    <t>SELECT password,deleted,new_colomn,employee_number,"position",department,remarks,username,id FROM datalayer.datalayer."User1" WHERE department IN (SELECT dept_key FROM datalayer.datalayer.Dept WHERE id = 1)</t>
+  </si>
+  <si>
+    <t>SELECT department FROM datalayer.datalayer."User1" INTERSECT SELECT dept_key FROM datalayer.datalayer.Dept ORDER BY department</t>
+  </si>
+  <si>
+    <t>SELECT LOWER(department) FROM datalayer.datalayer."User1"</t>
+  </si>
+  <si>
+    <t>SELECT UPPER(department) FROM datalayer.datalayer."User1"</t>
   </si>
 </sst>
 </file>
@@ -18559,7 +18830,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FD7D6DE-617D-4A49-9D87-297640E0E1DC}">
   <dimension ref="A1:H141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
+    <sheetView topLeftCell="A102" workbookViewId="0">
       <selection activeCell="I103" sqref="I103"/>
     </sheetView>
   </sheetViews>
@@ -24405,6 +24676,528 @@
       </c>
       <c r="J56" s="4" t="s">
         <v>601</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{078B81E0-CD90-42CA-9CB8-525B3F9B88C1}">
+  <dimension ref="A1:D45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="85.77734375" customWidth="1"/>
+    <col min="2" max="2" width="61" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="16.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1576</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1624</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1626</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1618</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1627</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1602</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>1628</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1603</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>1629</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>1631</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1604</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>1632</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1605</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>1633</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1606</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>1634</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1580</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>1635</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1607</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>1636</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1577</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1581</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>1638</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1582</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>1639</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1608</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>1640</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1609</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1610</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>1642</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1611</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>1639</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1608</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>1643</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1583</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>1644</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1584</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>1645</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1612</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>1646</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1619</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>1647</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1621</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>1648</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1622</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>1649</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1620</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>1650</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1623</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>1651</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1585</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>1652</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1586</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>1653</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1587</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>1654</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1588</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>1655</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1589</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>1656</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1590</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>1657</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1591</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>1658</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1592</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>1659</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1593</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>1660</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1594</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>1661</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1613</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>1662</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1614</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>1663</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1595</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>1664</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1596</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>1597</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1598</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>1615</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1616</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>1599</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1617</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>1600</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1601</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/test-data-xls/iot-api-engine-test-data.xlsx
+++ b/src/main/resources/test-data-xls/iot-api-engine-test-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_codes\data-layer-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{858239C9-E3BD-49A1-96F0-260D65667848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{893A9667-DAA1-4705-9388-0F0920A3B2CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" tabRatio="743" firstSheet="9" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16842,7 +16842,7 @@
       "json_value": [
         {
           "code": 1,
-          "data": "Conditions parse error(syntax error or field not exist in mapper) (\"id\" not in ('1', '2', '3'))"
+          "data": "Conditions parse error(syntax error or field not exist in mapper) (id not in ('1', '2', '3'))"
         }
       ],
       "reserved_field_1": null,
@@ -16856,7 +16856,7 @@
       "json_value": [
         {
           "code": 1,
-          "data": "Conditions parse error(syntax error or field not exist in mapper) (\"id\" = '1' and \"id\" in ('2', '3'))"
+          "data": "Conditions parse error(syntax error or field not exist in mapper) (id = '1' and id in ('2', '3'))"
         }
       ],
       "reserved_field_1": null,
@@ -16870,7 +16870,7 @@
       "json_value": [
         {
           "code": 1,
-          "data": "Conditions parse error(syntax error or field not exist in mapper) (\"id\" = '1' and \"name\" = 'name1' and \"age\" = '11' and(\"id\", \"name\", \"age\") in (('5', 'name5', '15'),('6', 'name6', '16')))"
+          "data": "Conditions parse error(syntax error or field not exist in mapper) (id = '1' and name = 'name1' and age = '11' and(id, name, age) in (('5', 'name5', '15'),('6', 'name6', '16')))"
         }
       ],
       "reserved_field_1": null,
@@ -16884,7 +16884,7 @@
       "json_value": [
         {
           "code": 1,
-          "data": "Conditions parse error(syntax error or field not exist in mapper) (\"id\" = '1' and \"name\" = 'name1' and \"age\" = '11' and(\"id\", \"name\", \"age\") in (('5', 'name5', '15'),('6', 'name6', '16')))"
+          "data": "Conditions parse error(syntax error or field not exist in mapper) (id = '1' and name = 'name1' and age = '11' and(id, name, age) in (('5', 'name5', '15'),('6', 'name6', '16')))"
         }
       ],
       "reserved_field_1": null,
@@ -16898,7 +16898,7 @@
       "json_value": [
         {
           "code": 1,
-          "data": "Conditions parse error(syntax error or field not exist in mapper) (\"id\" = '1' and \"name\" = 'name1' and \"age\" = '11' and(\"id\", \"name\", \"age\") in (('5', 'name5', '15'),('6', 'name6', '16')))"
+          "data": "Conditions parse error(syntax error or field not exist in mapper) (id = '1' and name = 'name1' and age = '11' and(id, name, age) in (('5', 'name5', '15'),('6', 'name6', '16')))"
         }
       ],
       "reserved_field_1": null,

--- a/src/main/resources/test-data-xls/iot-api-engine-test-data.xlsx
+++ b/src/main/resources/test-data-xls/iot-api-engine-test-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_codes\data-layer-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{893A9667-DAA1-4705-9388-0F0920A3B2CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDBDB12E-71C4-4E5B-80D3-994094F72952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" tabRatio="743" firstSheet="9" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16842,7 +16842,7 @@
       "json_value": [
         {
           "code": 1,
-          "data": "Conditions parse error(syntax error or field not exist in mapper) (id not in ('1', '2', '3'))"
+          "data": "Conditions parse error(syntax error or field not exist in mapper) (id not in ('1','2','3'))"
         }
       ],
       "reserved_field_1": null,
@@ -16852,58 +16852,58 @@
   </si>
   <si>
     <t>{
-    "UserForRestfulEnhance_Delete_By_Condition": {
-      "json_value": [
-        {
-          "code": 1,
-          "data": "Conditions parse error(syntax error or field not exist in mapper) (id = '1' and id in ('2', '3'))"
-        }
-      ],
-      "reserved_field_1": null,
-      "reserved_field_2": null
-    }
+	"UserForRestfulEnhance_Delete_By_Condition": {
+		"json_value": [
+			{
+				"code": 1,
+				"data": "Conditions parse error(syntax error or field not exist in mapper) (( id = '1' and id in ('2','3') ))"
+			}
+		],
+		"reserved_field_1": null,
+		"reserved_field_2": null
+	}
 }</t>
   </si>
   <si>
     <t>{
-    "UserWithBodyForRestfulEnhance_Delete_By_Condition": {
-      "json_value": [
-        {
-          "code": 1,
-          "data": "Conditions parse error(syntax error or field not exist in mapper) (id = '1' and name = 'name1' and age = '11' and(id, name, age) in (('5', 'name5', '15'),('6', 'name6', '16')))"
-        }
-      ],
-      "reserved_field_1": null,
-      "reserved_field_2": null
-    }
+	"UserWithBodyForRestfulEnhance_Delete_By_Condition": {
+		"json_value": [
+			{
+				"code": 1,
+				"data": "Conditions parse error(syntax error or field not exist in mapper) (( ( id = '1' and name = 'name1' and age = '11' ) and (id,name,age) in (('5','name5','15'),('6','name6','16')) ))"
+			}
+		],
+		"reserved_field_1": null,
+		"reserved_field_2": null
+	}
 }</t>
   </si>
   <si>
     <t>{
-    "UserWithQueryForRestfulEnhance_Delete_By_Condition": {
-      "json_value": [
-        {
-          "code": 1,
-          "data": "Conditions parse error(syntax error or field not exist in mapper) (id = '1' and name = 'name1' and age = '11' and(id, name, age) in (('5', 'name5', '15'),('6', 'name6', '16')))"
-        }
-      ],
-      "reserved_field_1": null,
-      "reserved_field_2": null
-    }
+	"UserWithQueryForRestfulEnhance_Delete_By_Condition": {
+		"json_value": [
+			{
+				"code": 1,
+				"data": "Conditions parse error(syntax error or field not exist in mapper) (( ( id = '1' and name = 'name1' and age = '11' ) and (id,name,age) in (('5','name5','15'),('6','name6','16')) ))"
+			}
+		],
+		"reserved_field_1": null,
+		"reserved_field_2": null
+	}
 }</t>
   </si>
   <si>
     <t>{
-    "UserWithHeaderForRestfulEnhance_Delete_By_Condition": {
-      "json_value": [
-        {
-          "code": 1,
-          "data": "Conditions parse error(syntax error or field not exist in mapper) (id = '1' and name = 'name1' and age = '11' and(id, name, age) in (('5', 'name5', '15'),('6', 'name6', '16')))"
-        }
-      ],
-      "reserved_field_1": null,
-      "reserved_field_2": null
-    }
+	"UserWithHeaderForRestfulEnhance_Delete_By_Condition": {
+		"json_value": [
+			{
+				"code": 1,
+				"data": "Conditions parse error(syntax error or field not exist in mapper) (( ( id = '1' and name = 'name1' and age = '11' ) and (id,name,age) in (('5','name5','15'),('6','name6','16')) ))"
+			}
+		],
+		"reserved_field_1": null,
+		"reserved_field_2": null
+	}
 }</t>
   </si>
 </sst>
@@ -18816,7 +18816,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FD7D6DE-617D-4A49-9D87-297640E0E1DC}">
   <dimension ref="A1:H141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
       <selection activeCell="H138" sqref="H138"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/test-data-xls/iot-api-engine-test-data.xlsx
+++ b/src/main/resources/test-data-xls/iot-api-engine-test-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_codes\data-layer-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A0E6E03-A8DF-4814-85B1-193AD0C2902E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C0D5020-6B52-41A9-8AFB-5E3494FEFE31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" tabRatio="743" firstSheet="9" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" tabRatio="743" firstSheet="9" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="getDataEntities" sheetId="2" r:id="rId1"/>
@@ -16821,76 +16821,6 @@
   </si>
   <si>
     <t>{
-    "UserForRestfulEnhance_Delete_By_Condition": {
-      "json_value": [
-        {
-          "code": 1,
-          "data": "Conditions parse error(syntax error or field not exist in mapper) (id not in ('1','2','3'))"
-        }
-      ],
-      "reserved_field_1": null,
-      "reserved_field_2": null
-    }
-}</t>
-  </si>
-  <si>
-    <t>{
-	"UserForRestfulEnhance_Delete_By_Condition": {
-		"json_value": [
-			{
-				"code": 1,
-				"data": "Conditions parse error(syntax error or field not exist in mapper) (( id = '1' and id in ('2','3') ))"
-			}
-		],
-		"reserved_field_1": null,
-		"reserved_field_2": null
-	}
-}</t>
-  </si>
-  <si>
-    <t>{
-	"UserWithBodyForRestfulEnhance_Delete_By_Condition": {
-		"json_value": [
-			{
-				"code": 1,
-				"data": "Conditions parse error(syntax error or field not exist in mapper) (( ( id = '1' and name = 'name1' and age = '11' ) and (id,name,age) in (('5','name5','15'),('6','name6','16')) ))"
-			}
-		],
-		"reserved_field_1": null,
-		"reserved_field_2": null
-	}
-}</t>
-  </si>
-  <si>
-    <t>{
-	"UserWithQueryForRestfulEnhance_Delete_By_Condition": {
-		"json_value": [
-			{
-				"code": 1,
-				"data": "Conditions parse error(syntax error or field not exist in mapper) (( ( id = '1' and name = 'name1' and age = '11' ) and (id,name,age) in (('5','name5','15'),('6','name6','16')) ))"
-			}
-		],
-		"reserved_field_1": null,
-		"reserved_field_2": null
-	}
-}</t>
-  </si>
-  <si>
-    <t>{
-	"UserWithHeaderForRestfulEnhance_Delete_By_Condition": {
-		"json_value": [
-			{
-				"code": 1,
-				"data": "Conditions parse error(syntax error or field not exist in mapper) (( ( id = '1' and name = 'name1' and age = '11' ) and (id,name,age) in (('5','name5','15'),('6','name6','16')) ))"
-			}
-		],
-		"reserved_field_1": null,
-		"reserved_field_2": null
-	}
-}</t>
-  </si>
-  <si>
-    <t>{
     "entityWithRestfulMysql": [
         {
             "score": 95.0,
@@ -16904,6 +16834,76 @@
             "operator": "lilei"
         }
     ]
+}</t>
+  </si>
+  <si>
+    <t>{
+    "UserForRestfulEnhance_Delete_By_Condition": {
+      "json_value": [
+        {
+          "code": 1,
+          "data": "Conditions parse error(syntax error or field not exist in mapper) (\"ID\" NOT IN ('1', '2', '3'))"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+	"UserForRestfulEnhance_Delete_By_Condition": {
+		"json_value": [
+			{
+				"code": 1,
+				"data": "Conditions parse error(syntax error or field not exist in mapper) (\"ID\" = '1' AND \"ID\" IN ('2', '3'))"
+			}
+		],
+		"reserved_field_1": null,
+		"reserved_field_2": null
+	}
+}</t>
+  </si>
+  <si>
+    <t>{
+	"UserWithBodyForRestfulEnhance_Delete_By_Condition": {
+		"json_value": [
+			{
+				"code": 1,
+				"data": "Conditions parse error(syntax error or field not exist in mapper) (\"ID\" = '1' AND \"NAME\" = 'name1' AND \"AGE\" = '11' AND(\"ID\", \"NAME\", \"AGE\") IN (('5', 'name5', '15'),('6', 'name6', '16')))"
+			}
+		],
+		"reserved_field_1": null,
+		"reserved_field_2": null
+	}
+}</t>
+  </si>
+  <si>
+    <t>{
+	"UserWithQueryForRestfulEnhance_Delete_By_Condition": {
+		"json_value": [
+			{
+				"code": 1,
+				"data": "Conditions parse error(syntax error or field not exist in mapper) (\"ID\" = '1' AND \"NAME\" = 'name1' AND \"AGE\" = '11' AND(\"ID\", \"NAME\", \"AGE\") IN (('5', 'name5', '15'),('6', 'name6', '16')))"
+			}
+		],
+		"reserved_field_1": null,
+		"reserved_field_2": null
+	}
+}</t>
+  </si>
+  <si>
+    <t>{
+	"UserWithHeaderForRestfulEnhance_Delete_By_Condition": {
+		"json_value": [
+			{
+				"code": 1,
+				"data": "Conditions parse error(syntax error or field not exist in mapper) (\"ID\" = '1' AND \"NAME\" = 'name1' AND \"AGE\" = '11' AND(\"ID\", \"NAME\", \"AGE\") IN (('5', 'name5', '15'),('6', 'name6', '16')))"
+			}
+		],
+		"reserved_field_1": null,
+		"reserved_field_2": null
+	}
 }</t>
   </si>
 </sst>
@@ -18816,7 +18816,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FD7D6DE-617D-4A49-9D87-297640E0E1DC}">
   <dimension ref="A1:H141"/>
   <sheetViews>
-    <sheetView topLeftCell="A134" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
       <selection activeCell="H138" sqref="H138"/>
     </sheetView>
   </sheetViews>
@@ -21464,7 +21464,7 @@
         <v>10</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>1656</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
@@ -21644,7 +21644,7 @@
         <v>10</v>
       </c>
       <c r="H110" s="4" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
@@ -21902,7 +21902,7 @@
         <v>10</v>
       </c>
       <c r="H120" s="4" t="s">
-        <v>1658</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
@@ -22134,7 +22134,7 @@
         <v>10</v>
       </c>
       <c r="H129" s="4" t="s">
-        <v>1659</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
@@ -22366,7 +22366,7 @@
         <v>10</v>
       </c>
       <c r="H138" s="4" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
@@ -22553,7 +22553,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86602840-EDA1-43EA-A4AB-F78276618C77}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
     </sheetView>
@@ -22727,7 +22727,7 @@
         <v>10</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>1661</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="112.2" customHeight="1" x14ac:dyDescent="0.3">

--- a/src/main/resources/test-data-xls/iot-api-engine-test-data.xlsx
+++ b/src/main/resources/test-data-xls/iot-api-engine-test-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_codes\data-layer-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C0D5020-6B52-41A9-8AFB-5E3494FEFE31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E056B259-3997-4EF0-8928-6C1BCE68454F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" tabRatio="743" firstSheet="9" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" tabRatio="743" firstSheet="9" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="getDataEntities" sheetId="2" r:id="rId1"/>
@@ -16821,23 +16821,6 @@
   </si>
   <si>
     <t>{
-    "entityWithRestfulMysql": [
-        {
-            "score": 95.0,
-            "login_time": "2021-01-01T00:00:00",
-            "ID1": 1,
-            "supplier": "cisco",
-            "name": "name1",
-            "id": "1",
-            "deviceName": "switch",
-            "age": "11",
-            "operator": "lilei"
-        }
-    ]
-}</t>
-  </si>
-  <si>
-    <t>{
     "UserForRestfulEnhance_Delete_By_Condition": {
       "json_value": [
         {
@@ -16904,6 +16887,23 @@
 		"reserved_field_1": null,
 		"reserved_field_2": null
 	}
+}</t>
+  </si>
+  <si>
+    <t>{
+	"entityWithRestfulMysql": [
+		{
+			"id": "1",
+			"name": "name1",
+			"age": "11",
+			"ID1": 1,
+			"deviceName": "switch",
+			"login_time": "2021-01-01T00:00:00",
+			"score": 95.0,
+			"supplier": "cisco",
+			"operator": "lilei"
+		}
+	]
 }</t>
   </si>
 </sst>
@@ -18816,7 +18816,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FD7D6DE-617D-4A49-9D87-297640E0E1DC}">
   <dimension ref="A1:H141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
+    <sheetView topLeftCell="A134" workbookViewId="0">
       <selection activeCell="H138" sqref="H138"/>
     </sheetView>
   </sheetViews>
@@ -21464,7 +21464,7 @@
         <v>10</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
@@ -21644,7 +21644,7 @@
         <v>10</v>
       </c>
       <c r="H110" s="4" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
@@ -21902,7 +21902,7 @@
         <v>10</v>
       </c>
       <c r="H120" s="4" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
@@ -22134,7 +22134,7 @@
         <v>10</v>
       </c>
       <c r="H129" s="4" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
@@ -22366,7 +22366,7 @@
         <v>10</v>
       </c>
       <c r="H138" s="4" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
@@ -22553,8 +22553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86602840-EDA1-43EA-A4AB-F78276618C77}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
@@ -22727,7 +22727,7 @@
         <v>10</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>1656</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="112.2" customHeight="1" x14ac:dyDescent="0.3">

--- a/src/main/resources/test-data-xls/iot-api-engine-test-data.xlsx
+++ b/src/main/resources/test-data-xls/iot-api-engine-test-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_codes\data-layer-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5084A031-CEFA-45D3-8538-F32F73E6EAAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50798B42-D192-47A1-B8F3-8D3F304CBBF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" tabRatio="743" firstSheet="9" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" tabRatio="743" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="getDataEntities" sheetId="2" r:id="rId1"/>
@@ -16654,9 +16654,6 @@
     <t>SELECT UPPER(department) FROM datalayer.datalayer."User1"</t>
   </si>
   <si>
-    <t>{SINAMICS_300_Log(cond:"{Abs_actual_current_smoothed: {_gt: 19.999}}")  {update_time}}</t>
-  </si>
-  <si>
     <t>{SINAMICS_300_Log {update_time}}</t>
   </si>
   <si>
@@ -16905,6 +16902,9 @@
         }
     }
 ]</t>
+  </si>
+  <si>
+    <t>{SINAMICS_300_Log(cond:"{Abs_actual_current_smoothed: {_gt: 199.999}}")  {update_time}}</t>
   </si>
 </sst>
 </file>
@@ -18225,7 +18225,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAD7C303-AF77-4B95-95EB-BAA32E85C8DA}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -18288,7 +18288,7 @@
         <v>209</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>211</v>
@@ -18323,7 +18323,7 @@
         <v>216</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>211</v>
@@ -18358,7 +18358,7 @@
         <v>217</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>211</v>
@@ -18393,7 +18393,7 @@
         <v>218</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>211</v>
@@ -18428,7 +18428,7 @@
         <v>219</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>211</v>
@@ -18463,7 +18463,7 @@
         <v>231</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>232</v>
@@ -18498,7 +18498,7 @@
         <v>237</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>232</v>
@@ -18533,7 +18533,7 @@
         <v>238</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>232</v>
@@ -18568,7 +18568,7 @@
         <v>239</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>232</v>
@@ -18603,7 +18603,7 @@
         <v>240</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>232</v>
@@ -18638,7 +18638,7 @@
         <v>242</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>243</v>
@@ -18673,7 +18673,7 @@
         <v>237</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>243</v>
@@ -18708,7 +18708,7 @@
         <v>900</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>243</v>
@@ -18743,7 +18743,7 @@
         <v>901</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>243</v>
@@ -18778,7 +18778,7 @@
         <v>902</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>243</v>
@@ -21464,7 +21464,7 @@
         <v>10</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
@@ -21644,7 +21644,7 @@
         <v>10</v>
       </c>
       <c r="H110" s="4" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
@@ -21902,7 +21902,7 @@
         <v>10</v>
       </c>
       <c r="H120" s="4" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
@@ -22134,7 +22134,7 @@
         <v>10</v>
       </c>
       <c r="H129" s="4" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
@@ -22366,7 +22366,7 @@
         <v>10</v>
       </c>
       <c r="H138" s="4" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
@@ -22727,7 +22727,7 @@
         <v>10</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="112.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -25195,8 +25195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE22B0A1-EDF6-487D-8C5B-FE5F049504FE}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -25495,7 +25495,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>1649</v>
+        <v>1661</v>
       </c>
       <c r="D13" s="4">
         <v>200</v>
@@ -25518,7 +25518,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="D14" s="4">
         <v>200</v>

--- a/src/main/resources/test-data-xls/iot-api-engine-test-data.xlsx
+++ b/src/main/resources/test-data-xls/iot-api-engine-test-data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_codes\data-layer-automation\src\main\resources\test-data-xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\auto_worksapce\feature-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50798B42-D192-47A1-B8F3-8D3F304CBBF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63DC511B-41A7-4ED1-B62C-680CF991B8D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" tabRatio="743" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" tabRatio="743" firstSheet="12" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="getDataEntities" sheetId="2" r:id="rId1"/>
@@ -29,6 +29,7 @@
     <sheet name="testMultiDataSource" sheetId="20" r:id="rId14"/>
     <sheet name="readWriteSqlServer-bc" sheetId="23" r:id="rId15"/>
     <sheet name="sendSqlToDatalayerVerifyResults" sheetId="26" r:id="rId16"/>
+    <sheet name="testMapperRule" sheetId="27" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3870" uniqueCount="1662">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3897" uniqueCount="1680">
   <si>
     <t>description</t>
   </si>
@@ -16906,36 +16907,180 @@
   <si>
     <t>{SINAMICS_300_Log(cond:"{Abs_actual_current_smoothed: {_gt: 199.999}}")  {update_time}}</t>
   </si>
+  <si>
+    <t>{
+    "entityRule": []
+  }</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Successfully</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>query {
+    entityRule (cond: "{from:{_eq:99}}", authInfo: "", order: "") {
+        prop1
+        from
+        id
+    }
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>good request, query with condition "from = 99" (no this rule seting)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>iot-MapperRule-test-4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "entityRule": [
+      {
+        "prop1": "user-1",
+        "from": "3",
+        "id": null
+      }
+    ]
+  }</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>query {
+    entityRule (cond: "{from:{_eq:3}}", authInfo: "", order: "") {
+        prop1
+        from
+        id
+    }
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>good request, query with condition "from = 3"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>iot-MapperRule-test-3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "entityRule": [
+      {
+        "prop1": "bj",
+        "from": "1",
+        "id": null
+      },
+      {
+        "prop1": "sh",
+        "from": "1",
+        "id": null
+      }
+    ]
+  }</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>query {
+    entityRule (cond: "{from:{_eq:1}}", authInfo: "", order: "") {
+        prop1
+        from
+        id
+    }
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>good request, query with condition "from = 1"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>iot-MapperRule-test-2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "entityRule": [
+      {
+        "prop1": "bj",
+        "from": "1",
+        "id": null
+      },
+      {
+        "prop1": "sh",
+        "from": "1",
+        "id": null
+      },
+      {
+        "prop1": "user-1",
+        "from": "3",
+        "id": null
+      }
+    ]
+  }</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>query {
+    entityRule (cond: "", authInfo: "", order: "") {
+        prop1
+        from
+        id
+    }
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>good request, query wihtout condition</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>iot-MapperRule-test-1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>graphQLSentence</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -16986,7 +17131,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -17008,6 +17153,9 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -17296,20 +17444,20 @@
       <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="12.69921875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="25.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="90.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="12.6640625" style="1"/>
+    <col min="1" max="1" width="25.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="90.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="12.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -17335,7 +17483,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -17359,7 +17507,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
@@ -17383,7 +17531,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -17407,7 +17555,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
@@ -17431,7 +17579,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
@@ -17455,7 +17603,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
         <v>19</v>
       </c>
@@ -17479,7 +17627,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
         <v>20</v>
       </c>
@@ -17503,7 +17651,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="A9" s="3" t="s">
         <v>21</v>
       </c>
@@ -17527,7 +17675,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="A10" s="3" t="s">
         <v>23</v>
       </c>
@@ -17567,31 +17715,31 @@
       <selection pane="bottomLeft" activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="44.109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="44.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="43.77734375" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.69921875" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.59765625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.09765625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.09765625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.296875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="43.796875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.09765625" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.19921875" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.09765625" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.296875" style="6" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="27" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="34.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="29.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="34.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.88671875" style="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="26.5546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.88671875" style="6"/>
+    <col min="12" max="12" width="34.69921875" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29.19921875" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="34.69921875" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.8984375" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.59765625" style="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.296875" style="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.296875" style="6" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.19921875" style="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.8984375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -17650,7 +17798,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" ht="112.8" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>152</v>
       </c>
@@ -17697,7 +17845,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="112.8" customHeight="1">
       <c r="A3" s="7" t="s">
         <v>153</v>
       </c>
@@ -17744,7 +17892,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="112.8" customHeight="1">
       <c r="A4" s="7" t="s">
         <v>154</v>
       </c>
@@ -17791,7 +17939,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="112.8" customHeight="1">
       <c r="A5" s="7" t="s">
         <v>155</v>
       </c>
@@ -17842,7 +17990,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="112.8" customHeight="1">
       <c r="A6" s="7" t="s">
         <v>156</v>
       </c>
@@ -17891,7 +18039,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="112.8" customHeight="1">
       <c r="A7" s="7" t="s">
         <v>157</v>
       </c>
@@ -17938,7 +18086,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="112.8" customHeight="1">
       <c r="A8" s="7" t="s">
         <v>158</v>
       </c>
@@ -17981,7 +18129,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="112.8" customHeight="1">
       <c r="A9" s="7" t="s">
         <v>159</v>
       </c>
@@ -18026,7 +18174,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" ht="112.8" customHeight="1">
       <c r="A10" s="7" t="s">
         <v>160</v>
       </c>
@@ -18073,7 +18221,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" ht="112.8" customHeight="1">
       <c r="A11" s="7" t="s">
         <v>161</v>
       </c>
@@ -18120,7 +18268,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" ht="112.8" customHeight="1">
       <c r="A12" s="7" t="s">
         <v>162</v>
       </c>
@@ -18167,7 +18315,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" ht="112.8" customHeight="1">
       <c r="A13" s="7" t="s">
         <v>163</v>
       </c>
@@ -18229,23 +18377,23 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="38.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="38.8984375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="18.109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.88671875" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.09765625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.3984375" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.3984375" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.8984375" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.09765625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.59765625" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.296875" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.296875" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.19921875" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.59765625" style="6" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="29" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="38.88671875" style="6"/>
+    <col min="12" max="16384" width="38.8984375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -18280,7 +18428,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="117" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="117" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>220</v>
       </c>
@@ -18315,7 +18463,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="117" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="117" customHeight="1">
       <c r="A3" s="7" t="s">
         <v>221</v>
       </c>
@@ -18350,7 +18498,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="117" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="117" customHeight="1">
       <c r="A4" s="7" t="s">
         <v>222</v>
       </c>
@@ -18385,7 +18533,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="117" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="117" customHeight="1">
       <c r="A5" s="7" t="s">
         <v>223</v>
       </c>
@@ -18420,7 +18568,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="117" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="117" customHeight="1">
       <c r="A6" s="7" t="s">
         <v>224</v>
       </c>
@@ -18455,7 +18603,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="117" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="117" customHeight="1">
       <c r="A7" s="7" t="s">
         <v>230</v>
       </c>
@@ -18490,7 +18638,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="117" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="117" customHeight="1">
       <c r="A8" s="7" t="s">
         <v>233</v>
       </c>
@@ -18525,7 +18673,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="117" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="117" customHeight="1">
       <c r="A9" s="7" t="s">
         <v>234</v>
       </c>
@@ -18560,7 +18708,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="117" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="117" customHeight="1">
       <c r="A10" s="7" t="s">
         <v>235</v>
       </c>
@@ -18595,7 +18743,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="117" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="117" customHeight="1">
       <c r="A11" s="7" t="s">
         <v>236</v>
       </c>
@@ -18630,7 +18778,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="117" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="117" customHeight="1">
       <c r="A12" s="7" t="s">
         <v>241</v>
       </c>
@@ -18665,7 +18813,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="117" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="117" customHeight="1">
       <c r="A13" s="7" t="s">
         <v>244</v>
       </c>
@@ -18700,7 +18848,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="117" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="117" customHeight="1">
       <c r="A14" s="7" t="s">
         <v>245</v>
       </c>
@@ -18735,7 +18883,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="117" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="117" customHeight="1">
       <c r="A15" s="7" t="s">
         <v>246</v>
       </c>
@@ -18770,7 +18918,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="117" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="117" customHeight="1">
       <c r="A16" s="7" t="s">
         <v>247</v>
       </c>
@@ -18820,20 +18968,20 @@
       <selection activeCell="H138" sqref="H138"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.88671875" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.6640625" style="6" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="50.109375" style="6" customWidth="1"/>
-    <col min="5" max="5" width="8.33203125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="7.33203125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="17.44140625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="51.21875" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="6"/>
+    <col min="1" max="1" width="21.296875" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.8984375" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.69921875" style="6" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="50.09765625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="8.296875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="7.296875" style="6" customWidth="1"/>
+    <col min="7" max="7" width="17.3984375" style="6" customWidth="1"/>
+    <col min="8" max="8" width="51.19921875" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="8.8984375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -18859,7 +19007,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="71.400000000000006" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>697</v>
       </c>
@@ -18885,7 +19033,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="71.400000000000006" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>698</v>
       </c>
@@ -18911,7 +19059,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="71.400000000000006" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>699</v>
       </c>
@@ -18937,7 +19085,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="71.400000000000006" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>700</v>
       </c>
@@ -18963,7 +19111,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="71.400000000000006" customHeight="1">
       <c r="A6" s="4" t="s">
         <v>701</v>
       </c>
@@ -18987,7 +19135,7 @@
       </c>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="71.400000000000006" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>702</v>
       </c>
@@ -19011,7 +19159,7 @@
       </c>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="71.400000000000006" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>703</v>
       </c>
@@ -19035,7 +19183,7 @@
       </c>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="71.400000000000006" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>704</v>
       </c>
@@ -19061,7 +19209,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="71.400000000000006" customHeight="1">
       <c r="A10" s="4" t="s">
         <v>705</v>
       </c>
@@ -19087,7 +19235,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="71.400000000000006" customHeight="1">
       <c r="A11" s="4" t="s">
         <v>706</v>
       </c>
@@ -19113,7 +19261,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="71.400000000000006" customHeight="1">
       <c r="A12" s="4" t="s">
         <v>707</v>
       </c>
@@ -19139,7 +19287,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="71.400000000000006" customHeight="1">
       <c r="A13" s="4" t="s">
         <v>708</v>
       </c>
@@ -19163,7 +19311,7 @@
       </c>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="71.400000000000006" customHeight="1">
       <c r="A14" s="4" t="s">
         <v>709</v>
       </c>
@@ -19189,7 +19337,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="71.400000000000006" customHeight="1">
       <c r="A15" s="4" t="s">
         <v>710</v>
       </c>
@@ -19215,7 +19363,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="71.400000000000006" customHeight="1">
       <c r="A16" s="4" t="s">
         <v>711</v>
       </c>
@@ -19241,7 +19389,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="71.400000000000006" customHeight="1">
       <c r="A17" s="4" t="s">
         <v>712</v>
       </c>
@@ -19267,7 +19415,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="71.400000000000006" customHeight="1">
       <c r="A18" s="4" t="s">
         <v>713</v>
       </c>
@@ -19293,7 +19441,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="71.400000000000006" customHeight="1">
       <c r="A19" s="4" t="s">
         <v>714</v>
       </c>
@@ -19319,7 +19467,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="71.400000000000006" customHeight="1">
       <c r="A20" s="4" t="s">
         <v>715</v>
       </c>
@@ -19345,7 +19493,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="71.400000000000006" customHeight="1">
       <c r="A21" s="4" t="s">
         <v>716</v>
       </c>
@@ -19369,7 +19517,7 @@
       </c>
       <c r="H21" s="4"/>
     </row>
-    <row r="22" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="71.400000000000006" customHeight="1">
       <c r="A22" s="4" t="s">
         <v>717</v>
       </c>
@@ -19393,7 +19541,7 @@
       </c>
       <c r="H22" s="4"/>
     </row>
-    <row r="23" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="71.400000000000006" customHeight="1">
       <c r="A23" s="4" t="s">
         <v>718</v>
       </c>
@@ -19419,7 +19567,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="71.400000000000006" customHeight="1">
       <c r="A24" s="4" t="s">
         <v>719</v>
       </c>
@@ -19445,7 +19593,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="71.400000000000006" customHeight="1">
       <c r="A25" s="4" t="s">
         <v>720</v>
       </c>
@@ -19471,7 +19619,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="71.400000000000006" customHeight="1">
       <c r="A26" s="4" t="s">
         <v>721</v>
       </c>
@@ -19497,7 +19645,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="71.400000000000006" customHeight="1">
       <c r="A27" s="4" t="s">
         <v>722</v>
       </c>
@@ -19521,7 +19669,7 @@
       </c>
       <c r="H27" s="4"/>
     </row>
-    <row r="28" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="71.400000000000006" customHeight="1">
       <c r="A28" s="4" t="s">
         <v>723</v>
       </c>
@@ -19547,7 +19695,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="71.400000000000006" customHeight="1">
       <c r="A29" s="4" t="s">
         <v>724</v>
       </c>
@@ -19571,7 +19719,7 @@
       </c>
       <c r="H29" s="4"/>
     </row>
-    <row r="30" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="71.400000000000006" customHeight="1">
       <c r="A30" s="4" t="s">
         <v>725</v>
       </c>
@@ -19595,7 +19743,7 @@
       </c>
       <c r="H30" s="4"/>
     </row>
-    <row r="31" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="71.400000000000006" customHeight="1">
       <c r="A31" s="4" t="s">
         <v>726</v>
       </c>
@@ -19621,7 +19769,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="71.400000000000006" customHeight="1">
       <c r="A32" s="4" t="s">
         <v>727</v>
       </c>
@@ -19647,7 +19795,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="71.400000000000006" customHeight="1">
       <c r="A33" s="4" t="s">
         <v>728</v>
       </c>
@@ -19673,7 +19821,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="71.400000000000006" customHeight="1">
       <c r="A34" s="4" t="s">
         <v>729</v>
       </c>
@@ -19699,7 +19847,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="71.400000000000006" customHeight="1">
       <c r="A35" s="4" t="s">
         <v>730</v>
       </c>
@@ -19723,7 +19871,7 @@
       </c>
       <c r="H35" s="4"/>
     </row>
-    <row r="36" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="71.400000000000006" customHeight="1">
       <c r="A36" s="4" t="s">
         <v>731</v>
       </c>
@@ -19749,7 +19897,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="71.400000000000006" customHeight="1">
       <c r="A37" s="4" t="s">
         <v>732</v>
       </c>
@@ -19773,7 +19921,7 @@
       </c>
       <c r="H37" s="4"/>
     </row>
-    <row r="38" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="71.400000000000006" customHeight="1">
       <c r="A38" s="4" t="s">
         <v>733</v>
       </c>
@@ -19797,7 +19945,7 @@
       </c>
       <c r="H38" s="4"/>
     </row>
-    <row r="39" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="71.400000000000006" customHeight="1">
       <c r="A39" s="4" t="s">
         <v>734</v>
       </c>
@@ -19823,7 +19971,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="71.400000000000006" customHeight="1">
       <c r="A40" s="4" t="s">
         <v>735</v>
       </c>
@@ -19849,7 +19997,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="71.400000000000006" customHeight="1">
       <c r="A41" s="4" t="s">
         <v>736</v>
       </c>
@@ -19875,7 +20023,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="71.400000000000006" customHeight="1">
       <c r="A42" s="4" t="s">
         <v>737</v>
       </c>
@@ -19901,7 +20049,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="71.400000000000006" customHeight="1">
       <c r="A43" s="4" t="s">
         <v>738</v>
       </c>
@@ -19925,7 +20073,7 @@
       </c>
       <c r="H43" s="4"/>
     </row>
-    <row r="44" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" ht="71.400000000000006" customHeight="1">
       <c r="A44" s="4" t="s">
         <v>739</v>
       </c>
@@ -19951,7 +20099,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" ht="71.400000000000006" customHeight="1">
       <c r="A45" s="4" t="s">
         <v>740</v>
       </c>
@@ -19977,7 +20125,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" ht="71.400000000000006" customHeight="1">
       <c r="A46" s="4" t="s">
         <v>741</v>
       </c>
@@ -20003,7 +20151,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" ht="71.400000000000006" customHeight="1">
       <c r="A47" s="4" t="s">
         <v>742</v>
       </c>
@@ -20027,7 +20175,7 @@
       </c>
       <c r="H47" s="4"/>
     </row>
-    <row r="48" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" ht="71.400000000000006" customHeight="1">
       <c r="A48" s="4" t="s">
         <v>743</v>
       </c>
@@ -20053,7 +20201,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" ht="71.400000000000006" customHeight="1">
       <c r="A49" s="4" t="s">
         <v>744</v>
       </c>
@@ -20079,7 +20227,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" ht="71.400000000000006" customHeight="1">
       <c r="A50" s="4" t="s">
         <v>745</v>
       </c>
@@ -20105,7 +20253,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" ht="71.400000000000006" customHeight="1">
       <c r="A51" s="4" t="s">
         <v>746</v>
       </c>
@@ -20131,7 +20279,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" ht="71.400000000000006" customHeight="1">
       <c r="A52" s="4" t="s">
         <v>747</v>
       </c>
@@ -20157,7 +20305,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" ht="71.400000000000006" customHeight="1">
       <c r="A53" s="4" t="s">
         <v>748</v>
       </c>
@@ -20183,7 +20331,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" ht="71.400000000000006" customHeight="1">
       <c r="A54" s="4" t="s">
         <v>749</v>
       </c>
@@ -20209,7 +20357,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" ht="71.400000000000006" customHeight="1">
       <c r="A55" s="4" t="s">
         <v>750</v>
       </c>
@@ -20233,7 +20381,7 @@
       </c>
       <c r="H55" s="4"/>
     </row>
-    <row r="56" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" ht="71.400000000000006" customHeight="1">
       <c r="A56" s="4" t="s">
         <v>751</v>
       </c>
@@ -20257,7 +20405,7 @@
       </c>
       <c r="H56" s="4"/>
     </row>
-    <row r="57" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" ht="71.400000000000006" customHeight="1">
       <c r="A57" s="4" t="s">
         <v>752</v>
       </c>
@@ -20283,7 +20431,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" ht="71.400000000000006" customHeight="1">
       <c r="A58" s="4" t="s">
         <v>753</v>
       </c>
@@ -20309,7 +20457,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" ht="71.400000000000006" customHeight="1">
       <c r="A59" s="4" t="s">
         <v>754</v>
       </c>
@@ -20335,7 +20483,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" ht="71.400000000000006" customHeight="1">
       <c r="A60" s="4" t="s">
         <v>755</v>
       </c>
@@ -20361,7 +20509,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" ht="71.400000000000006" customHeight="1">
       <c r="A61" s="4" t="s">
         <v>756</v>
       </c>
@@ -20387,7 +20535,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" ht="71.400000000000006" customHeight="1">
       <c r="A62" s="4" t="s">
         <v>757</v>
       </c>
@@ -20411,7 +20559,7 @@
       </c>
       <c r="H62" s="4"/>
     </row>
-    <row r="63" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" ht="71.400000000000006" customHeight="1">
       <c r="A63" s="4" t="s">
         <v>758</v>
       </c>
@@ -20437,7 +20585,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" ht="71.400000000000006" customHeight="1">
       <c r="A64" s="4" t="s">
         <v>759</v>
       </c>
@@ -20463,7 +20611,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" ht="71.400000000000006" customHeight="1">
       <c r="A65" s="4" t="s">
         <v>760</v>
       </c>
@@ -20489,7 +20637,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" ht="71.400000000000006" customHeight="1">
       <c r="A66" s="4" t="s">
         <v>761</v>
       </c>
@@ -20515,7 +20663,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" ht="71.400000000000006" customHeight="1">
       <c r="A67" s="4" t="s">
         <v>762</v>
       </c>
@@ -20541,7 +20689,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" ht="71.400000000000006" customHeight="1">
       <c r="A68" s="4" t="s">
         <v>763</v>
       </c>
@@ -20567,7 +20715,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" ht="71.400000000000006" customHeight="1">
       <c r="A69" s="4" t="s">
         <v>764</v>
       </c>
@@ -20593,7 +20741,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" ht="71.400000000000006" customHeight="1">
       <c r="A70" s="4" t="s">
         <v>765</v>
       </c>
@@ -20619,7 +20767,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" ht="71.400000000000006" customHeight="1">
       <c r="A71" s="4" t="s">
         <v>766</v>
       </c>
@@ -20645,7 +20793,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" ht="71.400000000000006" customHeight="1">
       <c r="A72" s="4" t="s">
         <v>767</v>
       </c>
@@ -20669,7 +20817,7 @@
       </c>
       <c r="H72" s="4"/>
     </row>
-    <row r="73" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" ht="71.400000000000006" customHeight="1">
       <c r="A73" s="4" t="s">
         <v>768</v>
       </c>
@@ -20695,7 +20843,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" ht="71.400000000000006" customHeight="1">
       <c r="A74" s="4" t="s">
         <v>769</v>
       </c>
@@ -20721,7 +20869,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" ht="71.400000000000006" customHeight="1">
       <c r="A75" s="4" t="s">
         <v>770</v>
       </c>
@@ -20747,7 +20895,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" ht="71.400000000000006" customHeight="1">
       <c r="A76" s="4" t="s">
         <v>771</v>
       </c>
@@ -20773,7 +20921,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" ht="71.400000000000006" customHeight="1">
       <c r="A77" s="4" t="s">
         <v>772</v>
       </c>
@@ -20799,7 +20947,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" ht="71.400000000000006" customHeight="1">
       <c r="A78" s="4" t="s">
         <v>773</v>
       </c>
@@ -20825,7 +20973,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" ht="71.400000000000006" customHeight="1">
       <c r="A79" s="4" t="s">
         <v>774</v>
       </c>
@@ -20851,7 +20999,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" ht="71.400000000000006" customHeight="1">
       <c r="A80" s="4" t="s">
         <v>775</v>
       </c>
@@ -20877,7 +21025,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" ht="71.400000000000006" customHeight="1">
       <c r="A81" s="4" t="s">
         <v>776</v>
       </c>
@@ -20901,7 +21049,7 @@
       </c>
       <c r="H81" s="4"/>
     </row>
-    <row r="82" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" ht="71.400000000000006" customHeight="1">
       <c r="A82" s="4" t="s">
         <v>777</v>
       </c>
@@ -20927,7 +21075,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" ht="71.400000000000006" customHeight="1">
       <c r="A83" s="4" t="s">
         <v>778</v>
       </c>
@@ -20953,7 +21101,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" ht="71.400000000000006" customHeight="1">
       <c r="A84" s="4" t="s">
         <v>779</v>
       </c>
@@ -20979,7 +21127,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" ht="71.400000000000006" customHeight="1">
       <c r="A85" s="4" t="s">
         <v>780</v>
       </c>
@@ -21005,7 +21153,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" ht="71.400000000000006" customHeight="1">
       <c r="A86" s="4" t="s">
         <v>781</v>
       </c>
@@ -21031,7 +21179,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" ht="71.400000000000006" customHeight="1">
       <c r="A87" s="4" t="s">
         <v>782</v>
       </c>
@@ -21057,7 +21205,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" ht="71.400000000000006" customHeight="1">
       <c r="A88" s="4" t="s">
         <v>783</v>
       </c>
@@ -21083,7 +21231,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" ht="71.400000000000006" customHeight="1">
       <c r="A89" s="4" t="s">
         <v>784</v>
       </c>
@@ -21109,7 +21257,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" ht="71.400000000000006" customHeight="1">
       <c r="A90" s="4" t="s">
         <v>785</v>
       </c>
@@ -21133,7 +21281,7 @@
       </c>
       <c r="H90" s="4"/>
     </row>
-    <row r="91" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" ht="71.400000000000006" customHeight="1">
       <c r="A91" s="4" t="s">
         <v>786</v>
       </c>
@@ -21159,7 +21307,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" ht="71.400000000000006" customHeight="1">
       <c r="A92" s="4" t="s">
         <v>787</v>
       </c>
@@ -21185,7 +21333,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" ht="71.400000000000006" customHeight="1">
       <c r="A93" s="4" t="s">
         <v>788</v>
       </c>
@@ -21211,7 +21359,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" ht="71.400000000000006" customHeight="1">
       <c r="A94" s="4" t="s">
         <v>789</v>
       </c>
@@ -21237,7 +21385,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" ht="71.400000000000006" customHeight="1">
       <c r="A95" s="4" t="s">
         <v>790</v>
       </c>
@@ -21263,7 +21411,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" ht="71.400000000000006" customHeight="1">
       <c r="A96" s="4" t="s">
         <v>791</v>
       </c>
@@ -21289,7 +21437,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" ht="71.400000000000006" customHeight="1">
       <c r="A97" s="4" t="s">
         <v>792</v>
       </c>
@@ -21315,7 +21463,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" ht="71.400000000000006" customHeight="1">
       <c r="A98" s="4" t="s">
         <v>793</v>
       </c>
@@ -21341,7 +21489,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" ht="71.400000000000006" customHeight="1">
       <c r="A99" s="4" t="s">
         <v>794</v>
       </c>
@@ -21367,7 +21515,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" ht="71.400000000000006" customHeight="1">
       <c r="A100" s="4" t="s">
         <v>795</v>
       </c>
@@ -21393,7 +21541,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" ht="71.400000000000006" customHeight="1">
       <c r="A101" s="4" t="s">
         <v>796</v>
       </c>
@@ -21417,7 +21565,7 @@
       </c>
       <c r="H101" s="4"/>
     </row>
-    <row r="102" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" ht="71.400000000000006" customHeight="1">
       <c r="A102" s="4" t="s">
         <v>797</v>
       </c>
@@ -21441,7 +21589,7 @@
       </c>
       <c r="H102" s="4"/>
     </row>
-    <row r="103" spans="1:8" ht="129.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" ht="129.6" customHeight="1">
       <c r="A103" s="4" t="s">
         <v>798</v>
       </c>
@@ -21467,7 +21615,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" ht="71.400000000000006" customHeight="1">
       <c r="A104" s="4" t="s">
         <v>799</v>
       </c>
@@ -21493,7 +21641,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" ht="71.400000000000006" customHeight="1">
       <c r="A105" s="4" t="s">
         <v>800</v>
       </c>
@@ -21519,7 +21667,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" ht="71.400000000000006" customHeight="1">
       <c r="A106" s="4" t="s">
         <v>801</v>
       </c>
@@ -21545,7 +21693,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" ht="71.400000000000006" customHeight="1">
       <c r="A107" s="4" t="s">
         <v>802</v>
       </c>
@@ -21571,7 +21719,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" ht="71.400000000000006" customHeight="1">
       <c r="A108" s="4" t="s">
         <v>803</v>
       </c>
@@ -21595,7 +21743,7 @@
       </c>
       <c r="H108" s="4"/>
     </row>
-    <row r="109" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" ht="71.400000000000006" customHeight="1">
       <c r="A109" s="4" t="s">
         <v>804</v>
       </c>
@@ -21621,7 +21769,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="175.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" ht="175.2" customHeight="1">
       <c r="A110" s="4" t="s">
         <v>805</v>
       </c>
@@ -21647,7 +21795,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" ht="71.400000000000006" customHeight="1">
       <c r="A111" s="4" t="s">
         <v>806</v>
       </c>
@@ -21673,7 +21821,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" ht="71.400000000000006" customHeight="1">
       <c r="A112" s="4" t="s">
         <v>807</v>
       </c>
@@ -21699,7 +21847,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" ht="71.400000000000006" customHeight="1">
       <c r="A113" s="4" t="s">
         <v>808</v>
       </c>
@@ -21725,7 +21873,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" ht="71.400000000000006" customHeight="1">
       <c r="A114" s="4" t="s">
         <v>809</v>
       </c>
@@ -21751,7 +21899,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" ht="71.400000000000006" customHeight="1">
       <c r="A115" s="4" t="s">
         <v>810</v>
       </c>
@@ -21777,7 +21925,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" ht="71.400000000000006" customHeight="1">
       <c r="A116" s="4" t="s">
         <v>811</v>
       </c>
@@ -21803,7 +21951,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" ht="71.400000000000006" customHeight="1">
       <c r="A117" s="4" t="s">
         <v>812</v>
       </c>
@@ -21829,7 +21977,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" ht="71.400000000000006" customHeight="1">
       <c r="A118" s="4" t="s">
         <v>813</v>
       </c>
@@ -21853,7 +22001,7 @@
       </c>
       <c r="H118" s="4"/>
     </row>
-    <row r="119" spans="1:8" ht="132" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" ht="132" customHeight="1">
       <c r="A119" s="4" t="s">
         <v>814</v>
       </c>
@@ -21879,7 +22027,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="147" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" ht="147" customHeight="1">
       <c r="A120" s="4" t="s">
         <v>815</v>
       </c>
@@ -21905,7 +22053,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" ht="71.400000000000006" customHeight="1">
       <c r="A121" s="4" t="s">
         <v>816</v>
       </c>
@@ -21931,7 +22079,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" ht="71.400000000000006" customHeight="1">
       <c r="A122" s="4" t="s">
         <v>817</v>
       </c>
@@ -21957,7 +22105,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" ht="71.400000000000006" customHeight="1">
       <c r="A123" s="4" t="s">
         <v>818</v>
       </c>
@@ -21983,7 +22131,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" ht="71.400000000000006" customHeight="1">
       <c r="A124" s="4" t="s">
         <v>819</v>
       </c>
@@ -22009,7 +22157,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" ht="71.400000000000006" customHeight="1">
       <c r="A125" s="4" t="s">
         <v>820</v>
       </c>
@@ -22035,7 +22183,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" ht="71.400000000000006" customHeight="1">
       <c r="A126" s="4" t="s">
         <v>821</v>
       </c>
@@ -22061,7 +22209,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" ht="71.400000000000006" customHeight="1">
       <c r="A127" s="4" t="s">
         <v>822</v>
       </c>
@@ -22085,7 +22233,7 @@
       </c>
       <c r="H127" s="4"/>
     </row>
-    <row r="128" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" ht="71.400000000000006" customHeight="1">
       <c r="A128" s="4" t="s">
         <v>823</v>
       </c>
@@ -22111,7 +22259,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="168" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" ht="168" customHeight="1">
       <c r="A129" s="4" t="s">
         <v>824</v>
       </c>
@@ -22137,7 +22285,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" ht="71.400000000000006" customHeight="1">
       <c r="A130" s="4" t="s">
         <v>825</v>
       </c>
@@ -22163,7 +22311,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" ht="71.400000000000006" customHeight="1">
       <c r="A131" s="4" t="s">
         <v>826</v>
       </c>
@@ -22189,7 +22337,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8" ht="71.400000000000006" customHeight="1">
       <c r="A132" s="4" t="s">
         <v>827</v>
       </c>
@@ -22215,7 +22363,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="133" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8" ht="71.400000000000006" customHeight="1">
       <c r="A133" s="4" t="s">
         <v>828</v>
       </c>
@@ -22241,7 +22389,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" ht="71.400000000000006" customHeight="1">
       <c r="A134" s="4" t="s">
         <v>829</v>
       </c>
@@ -22267,7 +22415,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="135" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8" ht="71.400000000000006" customHeight="1">
       <c r="A135" s="4" t="s">
         <v>830</v>
       </c>
@@ -22293,7 +22441,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="136" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8" ht="71.400000000000006" customHeight="1">
       <c r="A136" s="4" t="s">
         <v>831</v>
       </c>
@@ -22317,7 +22465,7 @@
       </c>
       <c r="H136" s="4"/>
     </row>
-    <row r="137" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8" ht="71.400000000000006" customHeight="1">
       <c r="A137" s="4" t="s">
         <v>832</v>
       </c>
@@ -22343,7 +22491,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="143.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" ht="143.4" customHeight="1">
       <c r="A138" s="4" t="s">
         <v>833</v>
       </c>
@@ -22369,7 +22517,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="139" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" ht="71.400000000000006" customHeight="1">
       <c r="A139" s="4" t="s">
         <v>834</v>
       </c>
@@ -22395,7 +22543,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" ht="71.400000000000006" customHeight="1">
       <c r="A140" s="4" t="s">
         <v>835</v>
       </c>
@@ -22421,7 +22569,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="141" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8" ht="71.400000000000006" customHeight="1">
       <c r="A141" s="4" t="s">
         <v>836</v>
       </c>
@@ -22448,6 +22596,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -22461,19 +22610,19 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="36" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.5546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.77734375" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="10.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.5546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="6"/>
+    <col min="2" max="2" width="37.59765625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.796875" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.296875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="7.296875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="10.19921875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.59765625" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.8984375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -22496,7 +22645,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="110.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="105.6">
       <c r="A2" s="4" t="s">
         <v>662</v>
       </c>
@@ -22519,7 +22668,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="110.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="105.6">
       <c r="A3" s="4" t="s">
         <v>666</v>
       </c>
@@ -22558,21 +22707,21 @@
       <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="17.3984375" style="6" customWidth="1"/>
     <col min="2" max="2" width="19" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.88671875" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.109375" style="6" customWidth="1"/>
-    <col min="5" max="5" width="44.21875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="7.33203125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="10.21875" style="6" customWidth="1"/>
-    <col min="9" max="9" width="48.5546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="6"/>
+    <col min="3" max="3" width="31.8984375" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.09765625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="44.19921875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="8.296875" style="6" customWidth="1"/>
+    <col min="7" max="7" width="7.296875" style="6" customWidth="1"/>
+    <col min="8" max="8" width="10.19921875" style="6" customWidth="1"/>
+    <col min="9" max="9" width="48.59765625" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.8984375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -22601,7 +22750,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="112.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="112.2" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>669</v>
       </c>
@@ -22626,7 +22775,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="112.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="112.2" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>675</v>
       </c>
@@ -22651,7 +22800,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="112.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="112.2" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>912</v>
       </c>
@@ -22676,7 +22825,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="112.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="112.2" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>677</v>
       </c>
@@ -22701,7 +22850,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="112.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="112.2" customHeight="1">
       <c r="A6" s="4" t="s">
         <v>684</v>
       </c>
@@ -22730,7 +22879,7 @@
         <v>1655</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="112.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="112.2" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>687</v>
       </c>
@@ -22757,7 +22906,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="112.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="112.2" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>918</v>
       </c>
@@ -22786,7 +22935,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="112.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="112.2" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>688</v>
       </c>
@@ -22815,7 +22964,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="112.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="112.2" customHeight="1">
       <c r="A10" s="4" t="s">
         <v>689</v>
       </c>
@@ -22844,7 +22993,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="112.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="112.2" customHeight="1">
       <c r="A11" s="4" t="s">
         <v>696</v>
       </c>
@@ -22871,7 +23020,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="112.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="112.2" customHeight="1">
       <c r="A12" s="4" t="s">
         <v>838</v>
       </c>
@@ -22900,7 +23049,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="112.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="112.2" customHeight="1">
       <c r="A13" s="4" t="s">
         <v>905</v>
       </c>
@@ -22943,22 +23092,22 @@
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.69921875" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.59765625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.19921875" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="52" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="36.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="35.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="6"/>
+    <col min="5" max="5" width="14.3984375" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.296875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.296875" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.19921875" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.19921875" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="35.296875" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.8984375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -22990,7 +23139,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="124.2" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>1258</v>
       </c>
@@ -23020,7 +23169,7 @@
       </c>
       <c r="J2" s="4"/>
     </row>
-    <row r="3" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="124.2" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>1262</v>
       </c>
@@ -23050,7 +23199,7 @@
       </c>
       <c r="J3" s="4"/>
     </row>
-    <row r="4" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="124.2" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>1265</v>
       </c>
@@ -23080,7 +23229,7 @@
       </c>
       <c r="J4" s="4"/>
     </row>
-    <row r="5" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="124.2" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>1268</v>
       </c>
@@ -23110,7 +23259,7 @@
       </c>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="124.2" customHeight="1">
       <c r="A6" s="4" t="s">
         <v>1271</v>
       </c>
@@ -23140,7 +23289,7 @@
       </c>
       <c r="J6" s="4"/>
     </row>
-    <row r="7" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="124.2" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>1273</v>
       </c>
@@ -23170,7 +23319,7 @@
       </c>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="124.2" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>1275</v>
       </c>
@@ -23200,7 +23349,7 @@
       </c>
       <c r="J8" s="4"/>
     </row>
-    <row r="9" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="124.2" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>1278</v>
       </c>
@@ -23230,7 +23379,7 @@
       </c>
       <c r="J9" s="4"/>
     </row>
-    <row r="10" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="124.2" customHeight="1">
       <c r="A10" s="4" t="s">
         <v>1281</v>
       </c>
@@ -23260,7 +23409,7 @@
       </c>
       <c r="J10" s="4"/>
     </row>
-    <row r="11" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="124.2" customHeight="1">
       <c r="A11" s="4" t="s">
         <v>1284</v>
       </c>
@@ -23290,7 +23439,7 @@
       </c>
       <c r="J11" s="4"/>
     </row>
-    <row r="12" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="124.2" customHeight="1">
       <c r="A12" s="4" t="s">
         <v>1286</v>
       </c>
@@ -23320,7 +23469,7 @@
       </c>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="124.2" customHeight="1">
       <c r="A13" s="4" t="s">
         <v>1289</v>
       </c>
@@ -23350,7 +23499,7 @@
       </c>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="124.2" customHeight="1">
       <c r="A14" s="4" t="s">
         <v>1292</v>
       </c>
@@ -23380,7 +23529,7 @@
       </c>
       <c r="J14" s="4"/>
     </row>
-    <row r="15" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="124.2" customHeight="1">
       <c r="A15" s="4" t="s">
         <v>1294</v>
       </c>
@@ -23410,7 +23559,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="124.2" customHeight="1">
       <c r="A16" s="4" t="s">
         <v>1297</v>
       </c>
@@ -23440,7 +23589,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="124.2" customHeight="1">
       <c r="A17" s="4" t="s">
         <v>1299</v>
       </c>
@@ -23466,7 +23615,7 @@
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
     </row>
-    <row r="18" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="124.2" customHeight="1">
       <c r="A18" s="4" t="s">
         <v>1301</v>
       </c>
@@ -23492,7 +23641,7 @@
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
     </row>
-    <row r="19" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="124.2" customHeight="1">
       <c r="A19" s="4" t="s">
         <v>1303</v>
       </c>
@@ -23518,7 +23667,7 @@
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
     </row>
-    <row r="20" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="124.2" customHeight="1">
       <c r="A20" s="4" t="s">
         <v>1305</v>
       </c>
@@ -23544,7 +23693,7 @@
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
     </row>
-    <row r="21" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="124.2" customHeight="1">
       <c r="A21" s="4" t="s">
         <v>1307</v>
       </c>
@@ -23570,7 +23719,7 @@
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
     </row>
-    <row r="22" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="124.2" customHeight="1">
       <c r="A22" s="4" t="s">
         <v>1309</v>
       </c>
@@ -23602,7 +23751,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="124.2" customHeight="1">
       <c r="A23" s="4" t="s">
         <v>1312</v>
       </c>
@@ -23634,7 +23783,7 @@
         <v>1388</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" ht="124.2" customHeight="1">
       <c r="A24" s="4" t="s">
         <v>1315</v>
       </c>
@@ -23662,7 +23811,7 @@
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
     </row>
-    <row r="25" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" ht="124.2" customHeight="1">
       <c r="A25" s="4" t="s">
         <v>1317</v>
       </c>
@@ -23690,7 +23839,7 @@
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
     </row>
-    <row r="26" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="124.2" customHeight="1">
       <c r="A26" s="4" t="s">
         <v>1319</v>
       </c>
@@ -23718,7 +23867,7 @@
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
     </row>
-    <row r="27" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" ht="124.2" customHeight="1">
       <c r="A27" s="4" t="s">
         <v>1321</v>
       </c>
@@ -23746,7 +23895,7 @@
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
     </row>
-    <row r="28" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" ht="124.2" customHeight="1">
       <c r="A28" s="4" t="s">
         <v>1323</v>
       </c>
@@ -23774,7 +23923,7 @@
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
     </row>
-    <row r="29" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" ht="124.2" customHeight="1">
       <c r="A29" s="4" t="s">
         <v>1325</v>
       </c>
@@ -23804,7 +23953,7 @@
       </c>
       <c r="J29" s="4"/>
     </row>
-    <row r="30" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" ht="124.2" customHeight="1">
       <c r="A30" s="4" t="s">
         <v>1327</v>
       </c>
@@ -23836,7 +23985,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" ht="124.2" customHeight="1">
       <c r="A31" s="4" t="s">
         <v>1330</v>
       </c>
@@ -23868,7 +24017,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" ht="124.2" customHeight="1">
       <c r="A32" s="4" t="s">
         <v>1332</v>
       </c>
@@ -23900,7 +24049,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" ht="124.2" customHeight="1">
       <c r="A33" s="4" t="s">
         <v>1334</v>
       </c>
@@ -23932,7 +24081,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" ht="124.2" customHeight="1">
       <c r="A34" s="4" t="s">
         <v>1336</v>
       </c>
@@ -23964,7 +24113,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" ht="124.2" customHeight="1">
       <c r="A35" s="4" t="s">
         <v>1338</v>
       </c>
@@ -23996,7 +24145,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" ht="124.2" customHeight="1">
       <c r="A36" s="4" t="s">
         <v>1340</v>
       </c>
@@ -24028,7 +24177,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" ht="124.2" customHeight="1">
       <c r="A37" s="4" t="s">
         <v>1342</v>
       </c>
@@ -24060,7 +24209,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" ht="124.2" customHeight="1">
       <c r="A38" s="4" t="s">
         <v>1344</v>
       </c>
@@ -24092,7 +24241,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" ht="124.2" customHeight="1">
       <c r="A39" s="4" t="s">
         <v>1346</v>
       </c>
@@ -24124,7 +24273,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" ht="124.2" customHeight="1">
       <c r="A40" s="4" t="s">
         <v>1348</v>
       </c>
@@ -24156,7 +24305,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" ht="124.2" customHeight="1">
       <c r="A41" s="4" t="s">
         <v>1350</v>
       </c>
@@ -24188,7 +24337,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" ht="124.2" customHeight="1">
       <c r="A42" s="4" t="s">
         <v>1352</v>
       </c>
@@ -24220,7 +24369,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" ht="124.2" customHeight="1">
       <c r="A43" s="4" t="s">
         <v>1355</v>
       </c>
@@ -24252,7 +24401,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" ht="124.2" customHeight="1">
       <c r="A44" s="4" t="s">
         <v>1357</v>
       </c>
@@ -24280,7 +24429,7 @@
       </c>
       <c r="J44" s="4"/>
     </row>
-    <row r="45" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" ht="124.2" customHeight="1">
       <c r="A45" s="4" t="s">
         <v>1359</v>
       </c>
@@ -24312,7 +24461,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" ht="124.2" customHeight="1">
       <c r="A46" s="4" t="s">
         <v>1362</v>
       </c>
@@ -24344,7 +24493,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" ht="124.2" customHeight="1">
       <c r="A47" s="4" t="s">
         <v>1364</v>
       </c>
@@ -24376,7 +24525,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" ht="124.2" customHeight="1">
       <c r="A48" s="4" t="s">
         <v>1366</v>
       </c>
@@ -24408,7 +24557,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" ht="124.2" customHeight="1">
       <c r="A49" s="4" t="s">
         <v>1368</v>
       </c>
@@ -24440,7 +24589,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" ht="124.2" customHeight="1">
       <c r="A50" s="4" t="s">
         <v>1370</v>
       </c>
@@ -24472,7 +24621,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" ht="124.2" customHeight="1">
       <c r="A51" s="4" t="s">
         <v>1372</v>
       </c>
@@ -24504,7 +24653,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" ht="124.2" customHeight="1">
       <c r="A52" s="4" t="s">
         <v>1374</v>
       </c>
@@ -24536,7 +24685,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" ht="124.2" customHeight="1">
       <c r="A53" s="4" t="s">
         <v>1376</v>
       </c>
@@ -24568,7 +24717,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" ht="124.2" customHeight="1">
       <c r="A54" s="4" t="s">
         <v>1378</v>
       </c>
@@ -24600,7 +24749,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" ht="124.2" customHeight="1">
       <c r="A55" s="4" t="s">
         <v>1380</v>
       </c>
@@ -24632,7 +24781,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" ht="124.2" customHeight="1">
       <c r="A56" s="4" t="s">
         <v>1382</v>
       </c>
@@ -24665,6 +24814,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -24677,15 +24827,15 @@
       <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="85.77734375" customWidth="1"/>
+    <col min="1" max="1" width="85.796875" customWidth="1"/>
     <col min="2" max="2" width="61" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
-    <col min="4" max="4" width="16.88671875" customWidth="1"/>
+    <col min="3" max="3" width="11.8984375" customWidth="1"/>
+    <col min="4" max="4" width="16.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>1559</v>
       </c>
@@ -24699,7 +24849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>1610</v>
       </c>
@@ -24710,7 +24860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>1611</v>
       </c>
@@ -24721,7 +24871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>1612</v>
       </c>
@@ -24732,7 +24882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>1613</v>
       </c>
@@ -24743,7 +24893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>1614</v>
       </c>
@@ -24754,7 +24904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>1615</v>
       </c>
@@ -24768,7 +24918,7 @@
         <v>1609</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>1616</v>
       </c>
@@ -24779,7 +24929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>1617</v>
       </c>
@@ -24790,7 +24940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>1618</v>
       </c>
@@ -24801,7 +24951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>1619</v>
       </c>
@@ -24812,7 +24962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>1620</v>
       </c>
@@ -24823,7 +24973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>1621</v>
       </c>
@@ -24834,7 +24984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>1622</v>
       </c>
@@ -24845,7 +24995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>1623</v>
       </c>
@@ -24856,7 +25006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>1624</v>
       </c>
@@ -24867,7 +25017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>1625</v>
       </c>
@@ -24878,7 +25028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>1626</v>
       </c>
@@ -24889,7 +25039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>1623</v>
       </c>
@@ -24900,7 +25050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>1627</v>
       </c>
@@ -24911,7 +25061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>1628</v>
       </c>
@@ -24922,7 +25072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>1629</v>
       </c>
@@ -24933,7 +25083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>1630</v>
       </c>
@@ -24944,7 +25094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>1631</v>
       </c>
@@ -24955,7 +25105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>1632</v>
       </c>
@@ -24966,7 +25116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>1633</v>
       </c>
@@ -24977,7 +25127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>1634</v>
       </c>
@@ -24988,7 +25138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>1635</v>
       </c>
@@ -24999,7 +25149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>1636</v>
       </c>
@@ -25010,7 +25160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>1637</v>
       </c>
@@ -25021,7 +25171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>1638</v>
       </c>
@@ -25032,7 +25182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>1639</v>
       </c>
@@ -25043,7 +25193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>1640</v>
       </c>
@@ -25054,7 +25204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>1641</v>
       </c>
@@ -25065,7 +25215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>1642</v>
       </c>
@@ -25076,7 +25226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>1643</v>
       </c>
@@ -25087,7 +25237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>1644</v>
       </c>
@@ -25098,7 +25248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>1645</v>
       </c>
@@ -25109,7 +25259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>1646</v>
       </c>
@@ -25120,7 +25270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>1647</v>
       </c>
@@ -25131,7 +25281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>1648</v>
       </c>
@@ -25142,7 +25292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>1581</v>
       </c>
@@ -25153,7 +25303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>1599</v>
       </c>
@@ -25164,7 +25314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>1583</v>
       </c>
@@ -25175,7 +25325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>1584</v>
       </c>
@@ -25187,6 +25337,146 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECB074DD-E7CE-42DE-B009-072319DD5307}">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="1" width="24" customWidth="1"/>
+    <col min="2" max="2" width="32" customWidth="1"/>
+    <col min="3" max="3" width="21.8984375" customWidth="1"/>
+    <col min="4" max="4" width="14.796875" customWidth="1"/>
+    <col min="6" max="6" width="14.296875" customWidth="1"/>
+    <col min="7" max="7" width="38.69921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>1679</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="262.2">
+      <c r="A2" t="s">
+        <v>1678</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>1676</v>
+      </c>
+      <c r="D2">
+        <v>200</v>
+      </c>
+      <c r="E2">
+        <v>100000</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1663</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="193.2">
+      <c r="A3" t="s">
+        <v>1674</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>1672</v>
+      </c>
+      <c r="D3">
+        <v>200</v>
+      </c>
+      <c r="E3">
+        <v>100000</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1663</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="124.2">
+      <c r="A4" t="s">
+        <v>1670</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1669</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>1668</v>
+      </c>
+      <c r="D4">
+        <v>200</v>
+      </c>
+      <c r="E4">
+        <v>100000</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1663</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="124.2">
+      <c r="A5" t="s">
+        <v>1666</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1665</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>1664</v>
+      </c>
+      <c r="D5">
+        <v>200</v>
+      </c>
+      <c r="E5">
+        <v>100000</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1663</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -25195,23 +25485,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE22B0A1-EDF6-487D-8C5B-FE5F049504FE}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="24.5546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.5546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="74.77734375" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.59765625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.59765625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="74.796875" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.296875" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.296875" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="44" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="71" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="6"/>
+    <col min="8" max="16384" width="8.8984375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -25234,7 +25524,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="4" t="s">
         <v>57</v>
       </c>
@@ -25257,7 +25547,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="4" t="s">
         <v>58</v>
       </c>
@@ -25280,7 +25570,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" s="4" t="s">
         <v>59</v>
       </c>
@@ -25303,7 +25593,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" s="4" t="s">
         <v>60</v>
       </c>
@@ -25326,7 +25616,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" s="4" t="s">
         <v>61</v>
       </c>
@@ -25349,7 +25639,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7" s="4" t="s">
         <v>62</v>
       </c>
@@ -25372,7 +25662,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="A8" s="4" t="s">
         <v>63</v>
       </c>
@@ -25395,7 +25685,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="A9" s="4" t="s">
         <v>64</v>
       </c>
@@ -25418,7 +25708,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="26.4">
       <c r="A10" s="4" t="s">
         <v>65</v>
       </c>
@@ -25441,7 +25731,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="A11" s="4" t="s">
         <v>66</v>
       </c>
@@ -25464,7 +25754,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7">
       <c r="A12" s="4" t="s">
         <v>67</v>
       </c>
@@ -25487,7 +25777,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7">
       <c r="A13" s="4" t="s">
         <v>845</v>
       </c>
@@ -25510,7 +25800,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7">
       <c r="A14" s="4" t="s">
         <v>846</v>
       </c>
@@ -25549,22 +25839,22 @@
       <selection pane="bottomLeft" activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="10" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="50.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="36.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="36.5546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="6"/>
+    <col min="2" max="2" width="24.59765625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.19921875" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="50.3984375" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.3984375" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.296875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.296875" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.19921875" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.19921875" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="36.59765625" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.8984375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -25596,7 +25886,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="124.2" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>926</v>
       </c>
@@ -25626,7 +25916,7 @@
       </c>
       <c r="J2" s="4"/>
     </row>
-    <row r="3" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="124.2" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>928</v>
       </c>
@@ -25656,7 +25946,7 @@
       </c>
       <c r="J3" s="4"/>
     </row>
-    <row r="4" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="124.2" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>929</v>
       </c>
@@ -25686,7 +25976,7 @@
       </c>
       <c r="J4" s="4"/>
     </row>
-    <row r="5" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="124.2" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>931</v>
       </c>
@@ -25716,7 +26006,7 @@
       </c>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="124.2" customHeight="1">
       <c r="A6" s="4" t="s">
         <v>932</v>
       </c>
@@ -25746,7 +26036,7 @@
       </c>
       <c r="J6" s="4"/>
     </row>
-    <row r="7" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="124.2" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>933</v>
       </c>
@@ -25776,7 +26066,7 @@
       </c>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="124.2" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>934</v>
       </c>
@@ -25806,7 +26096,7 @@
       </c>
       <c r="J8" s="4"/>
     </row>
-    <row r="9" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="124.2" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>935</v>
       </c>
@@ -25836,7 +26126,7 @@
       </c>
       <c r="J9" s="4"/>
     </row>
-    <row r="10" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="124.2" customHeight="1">
       <c r="A10" s="4" t="s">
         <v>936</v>
       </c>
@@ -25866,7 +26156,7 @@
       </c>
       <c r="J10" s="4"/>
     </row>
-    <row r="11" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="124.2" customHeight="1">
       <c r="A11" s="4" t="s">
         <v>938</v>
       </c>
@@ -25896,7 +26186,7 @@
       </c>
       <c r="J11" s="4"/>
     </row>
-    <row r="12" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="124.2" customHeight="1">
       <c r="A12" s="4" t="s">
         <v>939</v>
       </c>
@@ -25926,7 +26216,7 @@
       </c>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="124.2" customHeight="1">
       <c r="A13" s="4" t="s">
         <v>940</v>
       </c>
@@ -25956,7 +26246,7 @@
       </c>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="124.2" customHeight="1">
       <c r="A14" s="4" t="s">
         <v>941</v>
       </c>
@@ -25986,7 +26276,7 @@
       </c>
       <c r="J14" s="4"/>
     </row>
-    <row r="15" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="124.2" customHeight="1">
       <c r="A15" s="4" t="s">
         <v>942</v>
       </c>
@@ -26016,7 +26306,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="124.2" customHeight="1">
       <c r="A16" s="4" t="s">
         <v>958</v>
       </c>
@@ -26046,7 +26336,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="124.2" customHeight="1">
       <c r="A17" s="4" t="s">
         <v>1015</v>
       </c>
@@ -26072,7 +26362,7 @@
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
     </row>
-    <row r="18" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="124.2" customHeight="1">
       <c r="A18" s="4" t="s">
         <v>1016</v>
       </c>
@@ -26098,7 +26388,7 @@
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
     </row>
-    <row r="19" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="124.2" customHeight="1">
       <c r="A19" s="4" t="s">
         <v>1017</v>
       </c>
@@ -26124,7 +26414,7 @@
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
     </row>
-    <row r="20" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="124.2" customHeight="1">
       <c r="A20" s="4" t="s">
         <v>1018</v>
       </c>
@@ -26149,7 +26439,7 @@
       </c>
       <c r="I20" s="4"/>
     </row>
-    <row r="21" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="124.2" customHeight="1">
       <c r="A21" s="4" t="s">
         <v>1019</v>
       </c>
@@ -26175,7 +26465,7 @@
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
     </row>
-    <row r="22" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="124.2" customHeight="1">
       <c r="A22" s="4" t="s">
         <v>1020</v>
       </c>
@@ -26207,7 +26497,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="124.2" customHeight="1">
       <c r="A23" s="4" t="s">
         <v>1021</v>
       </c>
@@ -26239,7 +26529,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" ht="124.2" customHeight="1">
       <c r="A24" s="4" t="s">
         <v>1022</v>
       </c>
@@ -26267,7 +26557,7 @@
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
     </row>
-    <row r="25" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" ht="124.2" customHeight="1">
       <c r="A25" s="4" t="s">
         <v>1023</v>
       </c>
@@ -26295,7 +26585,7 @@
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
     </row>
-    <row r="26" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="124.2" customHeight="1">
       <c r="A26" s="4" t="s">
         <v>1024</v>
       </c>
@@ -26323,7 +26613,7 @@
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
     </row>
-    <row r="27" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" ht="124.2" customHeight="1">
       <c r="A27" s="4" t="s">
         <v>1025</v>
       </c>
@@ -26350,7 +26640,7 @@
       </c>
       <c r="I27" s="4"/>
     </row>
-    <row r="28" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" ht="124.2" customHeight="1">
       <c r="A28" s="4" t="s">
         <v>1026</v>
       </c>
@@ -26378,7 +26668,7 @@
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
     </row>
-    <row r="29" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" ht="124.2" customHeight="1">
       <c r="A29" s="4" t="s">
         <v>1027</v>
       </c>
@@ -26408,7 +26698,7 @@
       </c>
       <c r="J29" s="4"/>
     </row>
-    <row r="30" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" ht="124.2" customHeight="1">
       <c r="A30" s="4" t="s">
         <v>1028</v>
       </c>
@@ -26440,7 +26730,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" ht="124.2" customHeight="1">
       <c r="A31" s="4" t="s">
         <v>1029</v>
       </c>
@@ -26472,7 +26762,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" ht="124.2" customHeight="1">
       <c r="A32" s="4" t="s">
         <v>1030</v>
       </c>
@@ -26504,7 +26794,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" ht="124.2" customHeight="1">
       <c r="A33" s="4" t="s">
         <v>1031</v>
       </c>
@@ -26536,7 +26826,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" ht="124.2" customHeight="1">
       <c r="A34" s="4" t="s">
         <v>1032</v>
       </c>
@@ -26568,7 +26858,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" ht="124.2" customHeight="1">
       <c r="A35" s="4" t="s">
         <v>1033</v>
       </c>
@@ -26600,7 +26890,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" ht="124.2" customHeight="1">
       <c r="A36" s="4" t="s">
         <v>1034</v>
       </c>
@@ -26632,7 +26922,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" ht="124.2" customHeight="1">
       <c r="A37" s="4" t="s">
         <v>1035</v>
       </c>
@@ -26664,7 +26954,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" ht="124.2" customHeight="1">
       <c r="A38" s="4" t="s">
         <v>1036</v>
       </c>
@@ -26696,7 +26986,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" ht="124.2" customHeight="1">
       <c r="A39" s="4" t="s">
         <v>1037</v>
       </c>
@@ -26728,7 +27018,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" ht="124.2" customHeight="1">
       <c r="A40" s="4" t="s">
         <v>1087</v>
       </c>
@@ -26760,7 +27050,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" ht="124.2" customHeight="1">
       <c r="A41" s="4" t="s">
         <v>1088</v>
       </c>
@@ -26792,7 +27082,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" ht="124.2" customHeight="1">
       <c r="A42" s="4" t="s">
         <v>1089</v>
       </c>
@@ -26824,7 +27114,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" ht="124.2" customHeight="1">
       <c r="A43" s="4" t="s">
         <v>1090</v>
       </c>
@@ -26856,7 +27146,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" ht="124.2" customHeight="1">
       <c r="A44" s="4" t="s">
         <v>1091</v>
       </c>
@@ -26884,7 +27174,7 @@
       </c>
       <c r="J44" s="4"/>
     </row>
-    <row r="45" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" ht="124.2" customHeight="1">
       <c r="A45" s="4" t="s">
         <v>1092</v>
       </c>
@@ -26916,7 +27206,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" ht="124.2" customHeight="1">
       <c r="A46" s="4" t="s">
         <v>1093</v>
       </c>
@@ -26948,7 +27238,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" ht="124.2" customHeight="1">
       <c r="A47" s="4" t="s">
         <v>1094</v>
       </c>
@@ -26980,7 +27270,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" ht="124.2" customHeight="1">
       <c r="A48" s="4" t="s">
         <v>1095</v>
       </c>
@@ -27012,7 +27302,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" ht="124.2" customHeight="1">
       <c r="A49" s="4" t="s">
         <v>1096</v>
       </c>
@@ -27044,7 +27334,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" ht="124.2" customHeight="1">
       <c r="A50" s="4" t="s">
         <v>1097</v>
       </c>
@@ -27076,7 +27366,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" ht="124.2" customHeight="1">
       <c r="A51" s="4" t="s">
         <v>1098</v>
       </c>
@@ -27108,7 +27398,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" ht="124.2" customHeight="1">
       <c r="A52" s="4" t="s">
         <v>1099</v>
       </c>
@@ -27140,7 +27430,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" ht="124.2" customHeight="1">
       <c r="A53" s="4" t="s">
         <v>1100</v>
       </c>
@@ -27172,7 +27462,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" ht="124.2" customHeight="1">
       <c r="A54" s="4" t="s">
         <v>1101</v>
       </c>
@@ -27204,7 +27494,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" ht="124.2" customHeight="1">
       <c r="A55" s="4" t="s">
         <v>1242</v>
       </c>
@@ -27236,7 +27526,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" ht="124.2" customHeight="1">
       <c r="A56" s="4" t="s">
         <v>1243</v>
       </c>
@@ -27283,21 +27573,21 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.5546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="50.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="36.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="6"/>
+    <col min="1" max="1" width="14.8984375" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.59765625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.19921875" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="50.3984375" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.8984375" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.296875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.296875" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.19921875" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.19921875" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.8984375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -27326,7 +27616,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="124.2" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>1113</v>
       </c>
@@ -27355,7 +27645,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="124.2" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>1116</v>
       </c>
@@ -27384,7 +27674,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="124.2" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>1117</v>
       </c>
@@ -27413,7 +27703,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="124.2" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>1118</v>
       </c>
@@ -27442,7 +27732,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="124.2" customHeight="1">
       <c r="A6" s="4" t="s">
         <v>1119</v>
       </c>
@@ -27471,7 +27761,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="124.2" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>1120</v>
       </c>
@@ -27500,7 +27790,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="124.2" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>1121</v>
       </c>
@@ -27529,7 +27819,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="124.2" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>1122</v>
       </c>
@@ -27558,7 +27848,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="124.2" customHeight="1">
       <c r="A10" s="4" t="s">
         <v>1123</v>
       </c>
@@ -27587,7 +27877,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="124.2" customHeight="1">
       <c r="A11" s="4" t="s">
         <v>1124</v>
       </c>
@@ -27616,7 +27906,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="124.2" customHeight="1">
       <c r="A12" s="4" t="s">
         <v>1125</v>
       </c>
@@ -27645,7 +27935,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="124.2" customHeight="1">
       <c r="A13" s="4" t="s">
         <v>1126</v>
       </c>
@@ -27674,7 +27964,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="124.2" customHeight="1">
       <c r="A14" s="4" t="s">
         <v>1127</v>
       </c>
@@ -27703,7 +27993,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="124.2" customHeight="1">
       <c r="A15" s="4" t="s">
         <v>1128</v>
       </c>
@@ -27730,7 +28020,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="124.2" customHeight="1">
       <c r="A16" s="4" t="s">
         <v>1129</v>
       </c>
@@ -27757,7 +28047,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="124.2" customHeight="1">
       <c r="A17" s="4" t="s">
         <v>1130</v>
       </c>
@@ -27782,7 +28072,7 @@
       </c>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="124.2" customHeight="1">
       <c r="A18" s="4" t="s">
         <v>1131</v>
       </c>
@@ -27807,7 +28097,7 @@
       </c>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="124.2" customHeight="1">
       <c r="A19" s="4" t="s">
         <v>1132</v>
       </c>
@@ -27832,7 +28122,7 @@
       </c>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="124.2" customHeight="1">
       <c r="A20" s="4" t="s">
         <v>1133</v>
       </c>
@@ -27857,7 +28147,7 @@
       </c>
       <c r="I20" s="4"/>
     </row>
-    <row r="21" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="124.2" customHeight="1">
       <c r="A21" s="4" t="s">
         <v>1134</v>
       </c>
@@ -27882,7 +28172,7 @@
       </c>
       <c r="I21" s="4"/>
     </row>
-    <row r="22" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="124.2" customHeight="1">
       <c r="A22" s="4" t="s">
         <v>1135</v>
       </c>
@@ -27911,7 +28201,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="124.2" customHeight="1">
       <c r="A23" s="4" t="s">
         <v>1136</v>
       </c>
@@ -27940,7 +28230,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="124.2" customHeight="1">
       <c r="A24" s="4" t="s">
         <v>1137</v>
       </c>
@@ -27967,7 +28257,7 @@
       </c>
       <c r="I24" s="4"/>
     </row>
-    <row r="25" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="124.2" customHeight="1">
       <c r="A25" s="4" t="s">
         <v>1138</v>
       </c>
@@ -27994,7 +28284,7 @@
       </c>
       <c r="I25" s="4"/>
     </row>
-    <row r="26" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="124.2" customHeight="1">
       <c r="A26" s="4" t="s">
         <v>1139</v>
       </c>
@@ -28021,7 +28311,7 @@
       </c>
       <c r="I26" s="4"/>
     </row>
-    <row r="27" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="124.2" customHeight="1">
       <c r="A27" s="4" t="s">
         <v>1140</v>
       </c>
@@ -28048,7 +28338,7 @@
       </c>
       <c r="I27" s="4"/>
     </row>
-    <row r="28" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="124.2" customHeight="1">
       <c r="A28" s="4" t="s">
         <v>1141</v>
       </c>
@@ -28075,7 +28365,7 @@
       </c>
       <c r="I28" s="4"/>
     </row>
-    <row r="29" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="124.2" customHeight="1">
       <c r="A29" s="4" t="s">
         <v>1142</v>
       </c>
@@ -28104,7 +28394,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="124.2" customHeight="1">
       <c r="A30" s="4" t="s">
         <v>1143</v>
       </c>
@@ -28133,7 +28423,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="124.2" customHeight="1">
       <c r="A31" s="4" t="s">
         <v>1144</v>
       </c>
@@ -28162,7 +28452,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="124.2" customHeight="1">
       <c r="A32" s="4" t="s">
         <v>1145</v>
       </c>
@@ -28191,7 +28481,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="124.2" customHeight="1">
       <c r="A33" s="4" t="s">
         <v>1146</v>
       </c>
@@ -28220,7 +28510,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="124.2" customHeight="1">
       <c r="A34" s="4" t="s">
         <v>1147</v>
       </c>
@@ -28249,7 +28539,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="124.2" customHeight="1">
       <c r="A35" s="4" t="s">
         <v>1148</v>
       </c>
@@ -28278,7 +28568,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="124.2" customHeight="1">
       <c r="A36" s="4" t="s">
         <v>1149</v>
       </c>
@@ -28307,7 +28597,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="124.2" customHeight="1">
       <c r="A37" s="4" t="s">
         <v>1150</v>
       </c>
@@ -28336,7 +28626,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="124.2" customHeight="1">
       <c r="A38" s="4" t="s">
         <v>1151</v>
       </c>
@@ -28365,7 +28655,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="124.2" customHeight="1">
       <c r="A39" s="4" t="s">
         <v>1152</v>
       </c>
@@ -28394,7 +28684,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="124.2" customHeight="1">
       <c r="A40" s="4" t="s">
         <v>1153</v>
       </c>
@@ -28423,7 +28713,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="124.2" customHeight="1">
       <c r="A41" s="4" t="s">
         <v>1154</v>
       </c>
@@ -28452,7 +28742,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="124.2" customHeight="1">
       <c r="A42" s="4" t="s">
         <v>1155</v>
       </c>
@@ -28481,7 +28771,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="124.2" customHeight="1">
       <c r="A43" s="4" t="s">
         <v>1156</v>
       </c>
@@ -28510,7 +28800,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" ht="124.2" customHeight="1">
       <c r="A44" s="4" t="s">
         <v>1157</v>
       </c>
@@ -28537,7 +28827,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="124.2" customHeight="1">
       <c r="A45" s="4" t="s">
         <v>1158</v>
       </c>
@@ -28566,7 +28856,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="124.2" customHeight="1">
       <c r="A46" s="4" t="s">
         <v>1159</v>
       </c>
@@ -28595,7 +28885,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="124.2" customHeight="1">
       <c r="A47" s="4" t="s">
         <v>1160</v>
       </c>
@@ -28624,7 +28914,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" ht="124.2" customHeight="1">
       <c r="A48" s="4" t="s">
         <v>1161</v>
       </c>
@@ -28653,7 +28943,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="124.2" customHeight="1">
       <c r="A49" s="4" t="s">
         <v>1162</v>
       </c>
@@ -28682,7 +28972,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="124.2" customHeight="1">
       <c r="A50" s="4" t="s">
         <v>1163</v>
       </c>
@@ -28711,7 +29001,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="124.2" customHeight="1">
       <c r="A51" s="4" t="s">
         <v>1164</v>
       </c>
@@ -28740,7 +29030,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" ht="124.2" customHeight="1">
       <c r="A52" s="4" t="s">
         <v>1165</v>
       </c>
@@ -28769,7 +29059,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="124.2" customHeight="1">
       <c r="A53" s="4" t="s">
         <v>1166</v>
       </c>
@@ -28798,7 +29088,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" ht="124.2" customHeight="1">
       <c r="A54" s="4" t="s">
         <v>1167</v>
       </c>
@@ -28827,7 +29117,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" ht="124.2" customHeight="1">
       <c r="A55" s="4" t="s">
         <v>1240</v>
       </c>
@@ -28856,7 +29146,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" ht="124.2" customHeight="1">
       <c r="A56" s="4" t="s">
         <v>1241</v>
       </c>
@@ -28899,21 +29189,21 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="22.88671875" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="53.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="6" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="6"/>
+    <col min="1" max="1" width="22.8984375" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.296875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.69921875" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="53.3984375" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.09765625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="8.296875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.296875" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.19921875" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.3984375" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.8984375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -28942,7 +29232,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="124.2" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>612</v>
       </c>
@@ -28971,7 +29261,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="124.2" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>613</v>
       </c>
@@ -28996,7 +29286,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="124.2" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>614</v>
       </c>
@@ -29021,7 +29311,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="124.2" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>615</v>
       </c>
@@ -29046,7 +29336,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="124.2" customHeight="1">
       <c r="A6" s="4" t="s">
         <v>616</v>
       </c>
@@ -29071,7 +29361,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="124.2" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>617</v>
       </c>
@@ -29096,7 +29386,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="124.2" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>618</v>
       </c>
@@ -29121,7 +29411,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="124.2" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>619</v>
       </c>
@@ -29146,7 +29436,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="124.2" customHeight="1">
       <c r="A10" s="4" t="s">
         <v>620</v>
       </c>
@@ -29171,7 +29461,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="124.2" customHeight="1">
       <c r="A11" s="4" t="s">
         <v>621</v>
       </c>
@@ -29196,7 +29486,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="124.2" customHeight="1">
       <c r="A12" s="4" t="s">
         <v>622</v>
       </c>
@@ -29221,7 +29511,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="124.2" customHeight="1">
       <c r="A13" s="4" t="s">
         <v>623</v>
       </c>
@@ -29246,7 +29536,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="124.2" customHeight="1">
       <c r="A14" s="4" t="s">
         <v>650</v>
       </c>
@@ -29271,7 +29561,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="124.2" customHeight="1">
       <c r="A15" s="4" t="s">
         <v>651</v>
       </c>
@@ -29296,7 +29586,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="124.2" customHeight="1">
       <c r="A16" s="4" t="s">
         <v>657</v>
       </c>
@@ -29336,22 +29626,22 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="13.109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="26.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.09765625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.3984375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="26.69921875" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.3984375" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.09765625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.296875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.296875" style="6" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="37.77734375" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="6"/>
+    <col min="9" max="9" width="37.796875" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.19921875" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.8984375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -29383,7 +29673,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="124.2" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>491</v>
       </c>
@@ -29413,7 +29703,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="124.2" customHeight="1">
       <c r="A3" s="7" t="s">
         <v>518</v>
       </c>
@@ -29443,7 +29733,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="124.2" customHeight="1">
       <c r="A4" s="7" t="s">
         <v>519</v>
       </c>
@@ -29469,7 +29759,7 @@
       <c r="I4" s="8"/>
       <c r="J4" s="7"/>
     </row>
-    <row r="5" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="124.2" customHeight="1">
       <c r="A5" s="7" t="s">
         <v>520</v>
       </c>
@@ -29495,7 +29785,7 @@
       <c r="I5" s="8"/>
       <c r="J5" s="7"/>
     </row>
-    <row r="6" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="124.2" customHeight="1">
       <c r="A6" s="7" t="s">
         <v>521</v>
       </c>
@@ -29521,7 +29811,7 @@
       <c r="I6" s="8"/>
       <c r="J6" s="7"/>
     </row>
-    <row r="7" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="124.2" customHeight="1">
       <c r="A7" s="7" t="s">
         <v>522</v>
       </c>
@@ -29547,7 +29837,7 @@
       <c r="I7" s="8"/>
       <c r="J7" s="7"/>
     </row>
-    <row r="8" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="124.2" customHeight="1">
       <c r="A8" s="7" t="s">
         <v>525</v>
       </c>
@@ -29579,7 +29869,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="124.2" customHeight="1">
       <c r="A9" s="7" t="s">
      